--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Equipment" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Patch_Calculation" sheetId="8" r:id="rId4"/>
-    <sheet name="test" sheetId="9" r:id="rId5"/>
+    <sheet name="ResidueCalculation" sheetId="9" r:id="rId5"/>
     <sheet name="Solid_Calculation" sheetId="5" r:id="rId6"/>
     <sheet name="UserGroup" sheetId="6" r:id="rId7"/>
     <sheet name="microbial_calculation_result" sheetId="7" r:id="rId8"/>
@@ -1928,7 +1928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="424">
+  <cellXfs count="425">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2524,6 +2524,71 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="163" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="133" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="134" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="139" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="141" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="142" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="153" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="154" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="159" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="25" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2533,23 +2598,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2572,77 +2637,30 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="115" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2664,32 +2682,17 @@
     <xf numFmtId="3" fontId="25" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="133" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="134" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="139" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="141" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="142" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="153" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="154" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="159" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5109,15 +5112,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="350" t="s">
+      <c r="F1" s="403" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="350"/>
-      <c r="H1" s="350"/>
-      <c r="I1" s="350"/>
-      <c r="J1" s="350"/>
-      <c r="K1" s="350"/>
-      <c r="L1" s="350"/>
+      <c r="G1" s="403"/>
+      <c r="H1" s="403"/>
+      <c r="I1" s="403"/>
+      <c r="J1" s="403"/>
+      <c r="K1" s="403"/>
+      <c r="L1" s="403"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -5206,22 +5209,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="351" t="s">
+      <c r="D6" s="404" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="352"/>
-      <c r="F6" s="352"/>
-      <c r="G6" s="352"/>
-      <c r="H6" s="353"/>
+      <c r="E6" s="405"/>
+      <c r="F6" s="405"/>
+      <c r="G6" s="405"/>
+      <c r="H6" s="406"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="351" t="s">
+      <c r="M6" s="404" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="352"/>
-      <c r="O6" s="352"/>
-      <c r="P6" s="352"/>
-      <c r="Q6" s="353"/>
+      <c r="N6" s="405"/>
+      <c r="O6" s="405"/>
+      <c r="P6" s="405"/>
+      <c r="Q6" s="406"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -5239,10 +5242,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="354" t="s">
+      <c r="F7" s="407" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="355"/>
+      <c r="G7" s="408"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -5265,10 +5268,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="354" t="s">
+      <c r="P7" s="407" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="355"/>
+      <c r="Q7" s="408"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -5345,7 +5348,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="356" t="s">
+      <c r="B9" s="395" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -5379,33 +5382,33 @@
         <f t="shared" ref="L9:L22" si="0">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="347">
+      <c r="M9" s="386">
         <v>20</v>
       </c>
-      <c r="N9" s="359" t="s">
+      <c r="N9" s="398" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="347">
+      <c r="O9" s="386">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="347">
+      <c r="P9" s="386">
         <v>3</v>
       </c>
-      <c r="Q9" s="347">
+      <c r="Q9" s="386">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="347">
+      <c r="R9" s="386">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="347"/>
-      <c r="T9" s="362">
+      <c r="S9" s="386"/>
+      <c r="T9" s="389">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="347">
+      <c r="U9" s="386">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -5430,7 +5433,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="357"/>
+      <c r="B10" s="396"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -5462,15 +5465,15 @@
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="348"/>
-      <c r="N10" s="360"/>
-      <c r="O10" s="348"/>
-      <c r="P10" s="348"/>
-      <c r="Q10" s="348"/>
-      <c r="R10" s="348"/>
-      <c r="S10" s="348"/>
-      <c r="T10" s="363"/>
-      <c r="U10" s="348"/>
+      <c r="M10" s="387"/>
+      <c r="N10" s="399"/>
+      <c r="O10" s="387"/>
+      <c r="P10" s="387"/>
+      <c r="Q10" s="387"/>
+      <c r="R10" s="387"/>
+      <c r="S10" s="387"/>
+      <c r="T10" s="390"/>
+      <c r="U10" s="387"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -5478,10 +5481,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="347" t="s">
+      <c r="A11" s="386" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="357"/>
+      <c r="B11" s="396"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -5492,15 +5495,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="348"/>
-      <c r="N11" s="360"/>
-      <c r="O11" s="348"/>
-      <c r="P11" s="348"/>
-      <c r="Q11" s="348"/>
-      <c r="R11" s="348"/>
-      <c r="S11" s="348"/>
-      <c r="T11" s="363"/>
-      <c r="U11" s="348"/>
+      <c r="M11" s="387"/>
+      <c r="N11" s="399"/>
+      <c r="O11" s="387"/>
+      <c r="P11" s="387"/>
+      <c r="Q11" s="387"/>
+      <c r="R11" s="387"/>
+      <c r="S11" s="387"/>
+      <c r="T11" s="390"/>
+      <c r="U11" s="387"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -5519,8 +5522,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="349"/>
-      <c r="B12" s="358"/>
+      <c r="A12" s="388"/>
+      <c r="B12" s="397"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -5531,15 +5534,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="349"/>
-      <c r="N12" s="361"/>
-      <c r="O12" s="349"/>
-      <c r="P12" s="349"/>
-      <c r="Q12" s="349"/>
-      <c r="R12" s="349"/>
-      <c r="S12" s="349"/>
-      <c r="T12" s="364"/>
-      <c r="U12" s="349"/>
+      <c r="M12" s="388"/>
+      <c r="N12" s="400"/>
+      <c r="O12" s="388"/>
+      <c r="P12" s="388"/>
+      <c r="Q12" s="388"/>
+      <c r="R12" s="388"/>
+      <c r="S12" s="388"/>
+      <c r="T12" s="391"/>
+      <c r="U12" s="388"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -5555,7 +5558,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="356" t="s">
+      <c r="B13" s="395" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -5589,33 +5592,33 @@
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="347">
+      <c r="M13" s="386">
         <v>80</v>
       </c>
-      <c r="N13" s="359" t="s">
+      <c r="N13" s="398" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="347">
+      <c r="O13" s="386">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="347">
+      <c r="P13" s="386">
         <v>2</v>
       </c>
-      <c r="Q13" s="347">
+      <c r="Q13" s="386">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="347">
+      <c r="R13" s="386">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="347"/>
-      <c r="T13" s="362">
+      <c r="S13" s="386"/>
+      <c r="T13" s="389">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="347">
+      <c r="U13" s="386">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -5638,7 +5641,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="357"/>
+      <c r="B14" s="396"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -5670,15 +5673,15 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="348"/>
-      <c r="N14" s="360"/>
-      <c r="O14" s="348"/>
-      <c r="P14" s="348"/>
-      <c r="Q14" s="348"/>
-      <c r="R14" s="348"/>
-      <c r="S14" s="348"/>
-      <c r="T14" s="363"/>
-      <c r="U14" s="348"/>
+      <c r="M14" s="387"/>
+      <c r="N14" s="399"/>
+      <c r="O14" s="387"/>
+      <c r="P14" s="387"/>
+      <c r="Q14" s="387"/>
+      <c r="R14" s="387"/>
+      <c r="S14" s="387"/>
+      <c r="T14" s="390"/>
+      <c r="U14" s="387"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -5686,10 +5689,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="365" t="s">
+      <c r="A15" s="401" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="357"/>
+      <c r="B15" s="396"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -5700,15 +5703,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="348"/>
-      <c r="N15" s="360"/>
-      <c r="O15" s="348"/>
-      <c r="P15" s="348"/>
-      <c r="Q15" s="348"/>
-      <c r="R15" s="348"/>
-      <c r="S15" s="348"/>
-      <c r="T15" s="363"/>
-      <c r="U15" s="348"/>
+      <c r="M15" s="387"/>
+      <c r="N15" s="399"/>
+      <c r="O15" s="387"/>
+      <c r="P15" s="387"/>
+      <c r="Q15" s="387"/>
+      <c r="R15" s="387"/>
+      <c r="S15" s="387"/>
+      <c r="T15" s="390"/>
+      <c r="U15" s="387"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -5718,8 +5721,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="366"/>
-      <c r="B16" s="358"/>
+      <c r="A16" s="402"/>
+      <c r="B16" s="397"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -5730,15 +5733,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="349"/>
-      <c r="N16" s="361"/>
-      <c r="O16" s="349"/>
-      <c r="P16" s="349"/>
-      <c r="Q16" s="349"/>
-      <c r="R16" s="349"/>
-      <c r="S16" s="349"/>
-      <c r="T16" s="364"/>
-      <c r="U16" s="349"/>
+      <c r="M16" s="388"/>
+      <c r="N16" s="400"/>
+      <c r="O16" s="388"/>
+      <c r="P16" s="388"/>
+      <c r="Q16" s="388"/>
+      <c r="R16" s="388"/>
+      <c r="S16" s="388"/>
+      <c r="T16" s="391"/>
+      <c r="U16" s="388"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -5749,7 +5752,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="356" t="s">
+      <c r="B17" s="395" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -5783,33 +5786,33 @@
         <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="347">
+      <c r="M17" s="386">
         <v>70</v>
       </c>
-      <c r="N17" s="359" t="s">
+      <c r="N17" s="398" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="347">
+      <c r="O17" s="386">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="347">
+      <c r="P17" s="386">
         <v>2</v>
       </c>
-      <c r="Q17" s="347">
+      <c r="Q17" s="386">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="347">
+      <c r="R17" s="386">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="347"/>
-      <c r="T17" s="362">
+      <c r="S17" s="386"/>
+      <c r="T17" s="389">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="347">
+      <c r="U17" s="386">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -5828,7 +5831,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="357"/>
+      <c r="B18" s="396"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -5860,24 +5863,24 @@
         <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="348"/>
-      <c r="N18" s="360"/>
-      <c r="O18" s="348"/>
-      <c r="P18" s="348"/>
-      <c r="Q18" s="348"/>
-      <c r="R18" s="348"/>
-      <c r="S18" s="348"/>
-      <c r="T18" s="363"/>
-      <c r="U18" s="348"/>
+      <c r="M18" s="387"/>
+      <c r="N18" s="399"/>
+      <c r="O18" s="387"/>
+      <c r="P18" s="387"/>
+      <c r="Q18" s="387"/>
+      <c r="R18" s="387"/>
+      <c r="S18" s="387"/>
+      <c r="T18" s="390"/>
+      <c r="U18" s="387"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="347" t="s">
+      <c r="A19" s="386" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="357"/>
+      <c r="B19" s="396"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -5888,22 +5891,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="348"/>
-      <c r="N19" s="360"/>
-      <c r="O19" s="348"/>
-      <c r="P19" s="348"/>
-      <c r="Q19" s="348"/>
-      <c r="R19" s="348"/>
-      <c r="S19" s="348"/>
-      <c r="T19" s="363"/>
-      <c r="U19" s="348"/>
+      <c r="M19" s="387"/>
+      <c r="N19" s="399"/>
+      <c r="O19" s="387"/>
+      <c r="P19" s="387"/>
+      <c r="Q19" s="387"/>
+      <c r="R19" s="387"/>
+      <c r="S19" s="387"/>
+      <c r="T19" s="390"/>
+      <c r="U19" s="387"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="349"/>
-      <c r="B20" s="358"/>
+      <c r="A20" s="388"/>
+      <c r="B20" s="397"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -5914,15 +5917,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="349"/>
-      <c r="N20" s="361"/>
-      <c r="O20" s="349"/>
-      <c r="P20" s="349"/>
-      <c r="Q20" s="349"/>
-      <c r="R20" s="349"/>
-      <c r="S20" s="349"/>
-      <c r="T20" s="364"/>
-      <c r="U20" s="349"/>
+      <c r="M20" s="388"/>
+      <c r="N20" s="400"/>
+      <c r="O20" s="388"/>
+      <c r="P20" s="388"/>
+      <c r="Q20" s="388"/>
+      <c r="R20" s="388"/>
+      <c r="S20" s="388"/>
+      <c r="T20" s="391"/>
+      <c r="U20" s="388"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -5931,7 +5934,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="356" t="s">
+      <c r="B21" s="395" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -5965,33 +5968,33 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="347">
+      <c r="M21" s="386">
         <v>60</v>
       </c>
-      <c r="N21" s="359" t="s">
+      <c r="N21" s="398" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="347">
+      <c r="O21" s="386">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="347">
+      <c r="P21" s="386">
         <v>3</v>
       </c>
-      <c r="Q21" s="347">
+      <c r="Q21" s="386">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="347">
+      <c r="R21" s="386">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="347"/>
-      <c r="T21" s="362">
+      <c r="S21" s="386"/>
+      <c r="T21" s="389">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="347">
+      <c r="U21" s="386">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -6008,7 +6011,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="357"/>
+      <c r="B22" s="396"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -6040,24 +6043,24 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="348"/>
-      <c r="N22" s="360"/>
-      <c r="O22" s="348"/>
-      <c r="P22" s="348"/>
-      <c r="Q22" s="348"/>
-      <c r="R22" s="348"/>
-      <c r="S22" s="348"/>
-      <c r="T22" s="363"/>
-      <c r="U22" s="348"/>
+      <c r="M22" s="387"/>
+      <c r="N22" s="399"/>
+      <c r="O22" s="387"/>
+      <c r="P22" s="387"/>
+      <c r="Q22" s="387"/>
+      <c r="R22" s="387"/>
+      <c r="S22" s="387"/>
+      <c r="T22" s="390"/>
+      <c r="U22" s="387"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="367" t="s">
+      <c r="A23" s="392" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="357"/>
+      <c r="B23" s="396"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -6068,22 +6071,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="348"/>
-      <c r="N23" s="360"/>
-      <c r="O23" s="348"/>
-      <c r="P23" s="348"/>
-      <c r="Q23" s="348"/>
-      <c r="R23" s="348"/>
-      <c r="S23" s="348"/>
-      <c r="T23" s="363"/>
-      <c r="U23" s="348"/>
+      <c r="M23" s="387"/>
+      <c r="N23" s="399"/>
+      <c r="O23" s="387"/>
+      <c r="P23" s="387"/>
+      <c r="Q23" s="387"/>
+      <c r="R23" s="387"/>
+      <c r="S23" s="387"/>
+      <c r="T23" s="390"/>
+      <c r="U23" s="387"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="368"/>
-      <c r="B24" s="358"/>
+      <c r="A24" s="393"/>
+      <c r="B24" s="397"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -6094,15 +6097,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="349"/>
-      <c r="N24" s="361"/>
-      <c r="O24" s="349"/>
-      <c r="P24" s="349"/>
-      <c r="Q24" s="349"/>
-      <c r="R24" s="349"/>
-      <c r="S24" s="349"/>
-      <c r="T24" s="364"/>
-      <c r="U24" s="349"/>
+      <c r="M24" s="388"/>
+      <c r="N24" s="400"/>
+      <c r="O24" s="388"/>
+      <c r="P24" s="388"/>
+      <c r="Q24" s="388"/>
+      <c r="R24" s="388"/>
+      <c r="S24" s="388"/>
+      <c r="T24" s="391"/>
+      <c r="U24" s="388"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -6128,13 +6131,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="369" t="s">
+      <c r="H27" s="394" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="369"/>
-      <c r="J27" s="369"/>
-      <c r="K27" s="369"/>
-      <c r="L27" s="369"/>
+      <c r="I27" s="394"/>
+      <c r="J27" s="394"/>
+      <c r="K27" s="394"/>
+      <c r="L27" s="394"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -6414,19 +6417,19 @@
     <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="372" t="s">
+      <c r="D40" s="384" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="372"/>
-      <c r="F40" s="372"/>
-      <c r="G40" s="372"/>
-      <c r="H40" s="372"/>
-      <c r="I40" s="372" t="s">
+      <c r="E40" s="384"/>
+      <c r="F40" s="384"/>
+      <c r="G40" s="384"/>
+      <c r="H40" s="384"/>
+      <c r="I40" s="384" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="372"/>
-      <c r="K40" s="372"/>
-      <c r="L40" s="372"/>
+      <c r="J40" s="384"/>
+      <c r="K40" s="384"/>
+      <c r="L40" s="384"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -6550,7 +6553,7 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="373" t="s">
+      <c r="B42" s="379" t="s">
         <v>226</v>
       </c>
       <c r="C42" s="190"/>
@@ -6558,17 +6561,17 @@
       <c r="E42" s="111"/>
       <c r="F42" s="189"/>
       <c r="G42" s="189"/>
-      <c r="H42" s="371">
+      <c r="H42" s="380">
         <v>3.095975611358881E-3</v>
       </c>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="189"/>
       <c r="L42" s="189"/>
-      <c r="M42" s="371">
+      <c r="M42" s="380">
         <v>1</v>
       </c>
-      <c r="N42" s="370" t="s">
+      <c r="N42" s="385" t="s">
         <v>59</v>
       </c>
       <c r="P42" s="91"/>
@@ -6616,7 +6619,7 @@
       <c r="AN42" s="88"/>
     </row>
     <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="373"/>
+      <c r="B43" s="379"/>
       <c r="C43" s="190" t="s">
         <v>220</v>
       </c>
@@ -6632,7 +6635,7 @@
       <c r="G43" s="103">
         <v>97.126746422628088</v>
       </c>
-      <c r="H43" s="371"/>
+      <c r="H43" s="380"/>
       <c r="I43" s="111">
         <v>1</v>
       </c>
@@ -6645,8 +6648,8 @@
       <c r="L43" s="103">
         <v>1</v>
       </c>
-      <c r="M43" s="371"/>
-      <c r="N43" s="371"/>
+      <c r="M43" s="380"/>
+      <c r="N43" s="380"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -6692,7 +6695,7 @@
       <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="373"/>
+      <c r="B44" s="379"/>
       <c r="C44" s="190" t="s">
         <v>218</v>
       </c>
@@ -6708,7 +6711,7 @@
       <c r="G44" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H44" s="371"/>
+      <c r="H44" s="380"/>
       <c r="I44" s="111">
         <v>1</v>
       </c>
@@ -6721,8 +6724,8 @@
       <c r="L44" s="189">
         <v>1</v>
       </c>
-      <c r="M44" s="371"/>
-      <c r="N44" s="371"/>
+      <c r="M44" s="380"/>
+      <c r="N44" s="380"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -6768,7 +6771,7 @@
       <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="373"/>
+      <c r="B45" s="379"/>
       <c r="C45" s="190" t="s">
         <v>219</v>
       </c>
@@ -6784,7 +6787,7 @@
       <c r="G45" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H45" s="371"/>
+      <c r="H45" s="380"/>
       <c r="I45" s="111">
         <v>1</v>
       </c>
@@ -6797,8 +6800,8 @@
       <c r="L45" s="189">
         <v>1</v>
       </c>
-      <c r="M45" s="371"/>
-      <c r="N45" s="371"/>
+      <c r="M45" s="380"/>
+      <c r="N45" s="380"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -6844,19 +6847,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="373"/>
+      <c r="B46" s="379"/>
       <c r="C46" s="190"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="189"/>
       <c r="G46" s="189"/>
-      <c r="H46" s="371"/>
+      <c r="H46" s="380"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="189"/>
       <c r="L46" s="189"/>
-      <c r="M46" s="371"/>
-      <c r="N46" s="374"/>
+      <c r="M46" s="380"/>
+      <c r="N46" s="381"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -6902,19 +6905,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="373"/>
+      <c r="B47" s="379"/>
       <c r="C47" s="190"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="371"/>
+      <c r="H47" s="380"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="371"/>
-      <c r="N47" s="375"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="382"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -6962,19 +6965,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="373"/>
+      <c r="B48" s="379"/>
       <c r="C48" s="190"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="371"/>
+      <c r="H48" s="380"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="371"/>
-      <c r="N48" s="375"/>
+      <c r="M48" s="380"/>
+      <c r="N48" s="382"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -7022,19 +7025,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="373"/>
+      <c r="B49" s="379"/>
       <c r="C49" s="190"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="371"/>
+      <c r="H49" s="380"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="371"/>
-      <c r="N49" s="375"/>
+      <c r="M49" s="380"/>
+      <c r="N49" s="382"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -7082,19 +7085,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="376"/>
+      <c r="B50" s="374"/>
       <c r="C50" s="191"/>
       <c r="D50" s="187"/>
       <c r="E50" s="187"/>
       <c r="F50" s="187"/>
       <c r="G50" s="187"/>
-      <c r="H50" s="377"/>
+      <c r="H50" s="375"/>
       <c r="I50" s="187"/>
       <c r="J50" s="187"/>
       <c r="K50" s="187"/>
       <c r="L50" s="187"/>
-      <c r="M50" s="377"/>
-      <c r="N50" s="378"/>
+      <c r="M50" s="375"/>
+      <c r="N50" s="383"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -7115,19 +7118,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="376"/>
+      <c r="B51" s="374"/>
       <c r="C51" s="191"/>
       <c r="D51" s="187"/>
       <c r="E51" s="187"/>
       <c r="F51" s="187"/>
       <c r="G51" s="187"/>
-      <c r="H51" s="377"/>
+      <c r="H51" s="375"/>
       <c r="I51" s="187"/>
       <c r="J51" s="187"/>
       <c r="K51" s="187"/>
       <c r="L51" s="187"/>
-      <c r="M51" s="377"/>
-      <c r="N51" s="379"/>
+      <c r="M51" s="375"/>
+      <c r="N51" s="377"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -7158,19 +7161,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="376"/>
+      <c r="B52" s="374"/>
       <c r="C52" s="191"/>
       <c r="D52" s="187"/>
       <c r="E52" s="187"/>
       <c r="F52" s="187"/>
       <c r="G52" s="187"/>
-      <c r="H52" s="377"/>
+      <c r="H52" s="375"/>
       <c r="I52" s="187"/>
       <c r="J52" s="187"/>
       <c r="K52" s="187"/>
       <c r="L52" s="187"/>
-      <c r="M52" s="377"/>
-      <c r="N52" s="379"/>
+      <c r="M52" s="375"/>
+      <c r="N52" s="377"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -7234,19 +7237,19 @@
       </c>
     </row>
     <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="376"/>
+      <c r="B53" s="374"/>
       <c r="C53" s="191"/>
       <c r="D53" s="187"/>
       <c r="E53" s="187"/>
       <c r="F53" s="187"/>
       <c r="G53" s="187"/>
-      <c r="H53" s="377"/>
+      <c r="H53" s="375"/>
       <c r="I53" s="187"/>
       <c r="J53" s="187"/>
       <c r="K53" s="187"/>
       <c r="L53" s="187"/>
-      <c r="M53" s="377"/>
-      <c r="N53" s="379"/>
+      <c r="M53" s="375"/>
+      <c r="N53" s="377"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -7295,19 +7298,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="376"/>
+      <c r="B54" s="374"/>
       <c r="C54" s="191"/>
       <c r="D54" s="187"/>
       <c r="E54" s="187"/>
       <c r="F54" s="187"/>
       <c r="G54" s="187"/>
-      <c r="H54" s="377"/>
+      <c r="H54" s="375"/>
       <c r="I54" s="187"/>
       <c r="J54" s="187"/>
       <c r="K54" s="187"/>
       <c r="L54" s="187"/>
-      <c r="M54" s="377"/>
-      <c r="N54" s="380"/>
+      <c r="M54" s="375"/>
+      <c r="N54" s="376"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -7354,19 +7357,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="376"/>
+      <c r="B55" s="374"/>
       <c r="C55" s="191"/>
       <c r="D55" s="187"/>
       <c r="E55" s="187"/>
       <c r="F55" s="187"/>
       <c r="G55" s="187"/>
-      <c r="H55" s="377"/>
+      <c r="H55" s="375"/>
       <c r="I55" s="187"/>
       <c r="J55" s="187"/>
       <c r="K55" s="187"/>
       <c r="L55" s="187"/>
-      <c r="M55" s="377"/>
-      <c r="N55" s="379"/>
+      <c r="M55" s="375"/>
+      <c r="N55" s="377"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -7413,19 +7416,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="376"/>
+      <c r="B56" s="374"/>
       <c r="C56" s="191"/>
       <c r="D56" s="187"/>
       <c r="E56" s="187"/>
       <c r="F56" s="187"/>
       <c r="G56" s="187"/>
-      <c r="H56" s="377"/>
+      <c r="H56" s="375"/>
       <c r="I56" s="187"/>
       <c r="J56" s="187"/>
       <c r="K56" s="187"/>
       <c r="L56" s="187"/>
-      <c r="M56" s="377"/>
-      <c r="N56" s="379"/>
+      <c r="M56" s="375"/>
+      <c r="N56" s="377"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -7472,19 +7475,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="376"/>
+      <c r="B57" s="374"/>
       <c r="C57" s="191"/>
       <c r="D57" s="187"/>
       <c r="E57" s="187"/>
       <c r="F57" s="187"/>
       <c r="G57" s="187"/>
-      <c r="H57" s="377"/>
+      <c r="H57" s="375"/>
       <c r="I57" s="187"/>
       <c r="J57" s="187"/>
       <c r="K57" s="187"/>
       <c r="L57" s="187"/>
-      <c r="M57" s="377"/>
-      <c r="N57" s="379"/>
+      <c r="M57" s="375"/>
+      <c r="N57" s="377"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -7531,19 +7534,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="381"/>
+      <c r="B58" s="369"/>
       <c r="C58" s="185"/>
       <c r="D58" s="192"/>
       <c r="E58" s="192"/>
       <c r="F58" s="192"/>
       <c r="G58" s="192"/>
-      <c r="H58" s="382"/>
+      <c r="H58" s="370"/>
       <c r="I58" s="192"/>
       <c r="J58" s="192"/>
       <c r="K58" s="192"/>
       <c r="L58" s="192"/>
-      <c r="M58" s="382"/>
-      <c r="N58" s="383"/>
+      <c r="M58" s="370"/>
+      <c r="N58" s="378"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -7590,19 +7593,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="381"/>
+      <c r="B59" s="369"/>
       <c r="C59" s="185"/>
       <c r="D59" s="192"/>
       <c r="E59" s="192"/>
       <c r="F59" s="192"/>
       <c r="G59" s="192"/>
-      <c r="H59" s="382"/>
+      <c r="H59" s="370"/>
       <c r="I59" s="192"/>
       <c r="J59" s="192"/>
       <c r="K59" s="192"/>
       <c r="L59" s="192"/>
-      <c r="M59" s="382"/>
-      <c r="N59" s="384"/>
+      <c r="M59" s="370"/>
+      <c r="N59" s="372"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -7649,19 +7652,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="381"/>
+      <c r="B60" s="369"/>
       <c r="C60" s="185"/>
       <c r="D60" s="192"/>
       <c r="E60" s="192"/>
       <c r="F60" s="192"/>
       <c r="G60" s="192"/>
-      <c r="H60" s="382"/>
+      <c r="H60" s="370"/>
       <c r="I60" s="192"/>
       <c r="J60" s="192"/>
       <c r="K60" s="192"/>
       <c r="L60" s="192"/>
-      <c r="M60" s="382"/>
-      <c r="N60" s="384"/>
+      <c r="M60" s="370"/>
+      <c r="N60" s="372"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -7708,247 +7711,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="381"/>
+      <c r="B61" s="369"/>
       <c r="C61" s="185"/>
       <c r="D61" s="192"/>
       <c r="E61" s="192"/>
       <c r="F61" s="192"/>
       <c r="G61" s="192"/>
-      <c r="H61" s="382"/>
+      <c r="H61" s="370"/>
       <c r="I61" s="192"/>
       <c r="J61" s="192"/>
       <c r="K61" s="192"/>
       <c r="L61" s="192"/>
-      <c r="M61" s="382"/>
-      <c r="N61" s="384"/>
+      <c r="M61" s="370"/>
+      <c r="N61" s="372"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="381"/>
+      <c r="B62" s="369"/>
       <c r="C62" s="185"/>
       <c r="D62" s="192"/>
       <c r="E62" s="192"/>
       <c r="F62" s="192"/>
       <c r="G62" s="192"/>
-      <c r="H62" s="382"/>
+      <c r="H62" s="370"/>
       <c r="I62" s="192"/>
       <c r="J62" s="192"/>
       <c r="K62" s="192"/>
       <c r="L62" s="192"/>
-      <c r="M62" s="382"/>
-      <c r="N62" s="389"/>
+      <c r="M62" s="370"/>
+      <c r="N62" s="371"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="381"/>
+      <c r="B63" s="369"/>
       <c r="C63" s="185"/>
       <c r="D63" s="192"/>
       <c r="E63" s="192"/>
       <c r="F63" s="192"/>
       <c r="G63" s="192"/>
-      <c r="H63" s="382"/>
+      <c r="H63" s="370"/>
       <c r="I63" s="192"/>
       <c r="J63" s="192"/>
       <c r="K63" s="192"/>
       <c r="L63" s="192"/>
-      <c r="M63" s="382"/>
-      <c r="N63" s="384"/>
+      <c r="M63" s="370"/>
+      <c r="N63" s="372"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="381"/>
+      <c r="B64" s="369"/>
       <c r="C64" s="185"/>
       <c r="D64" s="192"/>
       <c r="E64" s="192"/>
       <c r="F64" s="192"/>
       <c r="G64" s="192"/>
-      <c r="H64" s="382"/>
+      <c r="H64" s="370"/>
       <c r="I64" s="192"/>
       <c r="J64" s="192"/>
       <c r="K64" s="192"/>
       <c r="L64" s="192"/>
-      <c r="M64" s="382"/>
-      <c r="N64" s="384"/>
+      <c r="M64" s="370"/>
+      <c r="N64" s="372"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="381"/>
+      <c r="B65" s="369"/>
       <c r="C65" s="185"/>
       <c r="D65" s="192"/>
       <c r="E65" s="192"/>
       <c r="F65" s="192"/>
       <c r="G65" s="192"/>
-      <c r="H65" s="382"/>
+      <c r="H65" s="370"/>
       <c r="I65" s="192"/>
       <c r="J65" s="192"/>
       <c r="K65" s="192"/>
       <c r="L65" s="192"/>
-      <c r="M65" s="382"/>
-      <c r="N65" s="384"/>
+      <c r="M65" s="370"/>
+      <c r="N65" s="372"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="385"/>
+      <c r="B66" s="365"/>
       <c r="C66" s="186"/>
       <c r="D66" s="188"/>
       <c r="E66" s="188"/>
       <c r="F66" s="188"/>
       <c r="G66" s="188"/>
-      <c r="H66" s="386"/>
+      <c r="H66" s="366"/>
       <c r="I66" s="188"/>
       <c r="J66" s="188"/>
       <c r="K66" s="188"/>
       <c r="L66" s="188"/>
-      <c r="M66" s="386"/>
-      <c r="N66" s="390"/>
+      <c r="M66" s="366"/>
+      <c r="N66" s="373"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="385"/>
+      <c r="B67" s="365"/>
       <c r="C67" s="186"/>
       <c r="D67" s="188"/>
       <c r="E67" s="188"/>
       <c r="F67" s="188"/>
       <c r="G67" s="188"/>
-      <c r="H67" s="386"/>
+      <c r="H67" s="366"/>
       <c r="I67" s="188"/>
       <c r="J67" s="188"/>
       <c r="K67" s="188"/>
       <c r="L67" s="188"/>
-      <c r="M67" s="386"/>
-      <c r="N67" s="388"/>
+      <c r="M67" s="366"/>
+      <c r="N67" s="368"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="385"/>
+      <c r="B68" s="365"/>
       <c r="C68" s="186"/>
       <c r="D68" s="188"/>
       <c r="E68" s="188"/>
       <c r="F68" s="188"/>
       <c r="G68" s="188"/>
-      <c r="H68" s="386"/>
+      <c r="H68" s="366"/>
       <c r="I68" s="188"/>
       <c r="J68" s="188"/>
       <c r="K68" s="188"/>
       <c r="L68" s="188"/>
-      <c r="M68" s="386"/>
-      <c r="N68" s="388"/>
+      <c r="M68" s="366"/>
+      <c r="N68" s="368"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="385"/>
+      <c r="B69" s="365"/>
       <c r="C69" s="186"/>
       <c r="D69" s="188"/>
       <c r="E69" s="188"/>
       <c r="F69" s="188"/>
       <c r="G69" s="188"/>
-      <c r="H69" s="386"/>
+      <c r="H69" s="366"/>
       <c r="I69" s="188"/>
       <c r="J69" s="188"/>
       <c r="K69" s="188"/>
       <c r="L69" s="188"/>
-      <c r="M69" s="386"/>
-      <c r="N69" s="388"/>
+      <c r="M69" s="366"/>
+      <c r="N69" s="368"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="385"/>
+      <c r="B70" s="365"/>
       <c r="C70" s="186"/>
       <c r="D70" s="188"/>
       <c r="E70" s="188"/>
       <c r="F70" s="188"/>
       <c r="G70" s="188"/>
-      <c r="H70" s="386"/>
+      <c r="H70" s="366"/>
       <c r="I70" s="188"/>
       <c r="J70" s="188"/>
       <c r="K70" s="188"/>
       <c r="L70" s="188"/>
-      <c r="M70" s="386"/>
-      <c r="N70" s="387"/>
+      <c r="M70" s="366"/>
+      <c r="N70" s="367"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="385"/>
+      <c r="B71" s="365"/>
       <c r="C71" s="186"/>
       <c r="D71" s="188"/>
       <c r="E71" s="188"/>
       <c r="F71" s="188"/>
       <c r="G71" s="188"/>
-      <c r="H71" s="386"/>
+      <c r="H71" s="366"/>
       <c r="I71" s="188"/>
       <c r="J71" s="188"/>
       <c r="K71" s="188"/>
       <c r="L71" s="188"/>
-      <c r="M71" s="386"/>
-      <c r="N71" s="388"/>
+      <c r="M71" s="366"/>
+      <c r="N71" s="368"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="385"/>
+      <c r="B72" s="365"/>
       <c r="C72" s="186"/>
       <c r="D72" s="188"/>
       <c r="E72" s="188"/>
       <c r="F72" s="188"/>
       <c r="G72" s="188"/>
-      <c r="H72" s="386"/>
+      <c r="H72" s="366"/>
       <c r="I72" s="188"/>
       <c r="J72" s="188"/>
       <c r="K72" s="188"/>
       <c r="L72" s="188"/>
-      <c r="M72" s="386"/>
-      <c r="N72" s="388"/>
+      <c r="M72" s="366"/>
+      <c r="N72" s="368"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="385"/>
+      <c r="B73" s="365"/>
       <c r="C73" s="186"/>
       <c r="D73" s="188"/>
       <c r="E73" s="188"/>
       <c r="F73" s="188"/>
       <c r="G73" s="188"/>
-      <c r="H73" s="386"/>
+      <c r="H73" s="366"/>
       <c r="I73" s="188"/>
       <c r="J73" s="188"/>
       <c r="K73" s="188"/>
       <c r="L73" s="188"/>
-      <c r="M73" s="386"/>
-      <c r="N73" s="388"/>
+      <c r="M73" s="366"/>
+      <c r="N73" s="368"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -9501,57 +9504,23 @@
     <row r="140" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="R13:R16"/>
     <mergeCell ref="S13:S16"/>
@@ -9568,23 +9537,57 @@
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="O13:O16"/>
     <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">
@@ -9602,13 +9605,13 @@
   <dimension ref="A1:AU434"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.140625" style="22" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.5703125" style="22" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33.5703125" style="22" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11.85546875" style="22" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="36.140625" style="22" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="30.5703125" style="22" customWidth="1" collapsed="1"/>
@@ -9650,15 +9653,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="350" t="s">
+      <c r="F1" s="403" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="350"/>
-      <c r="H1" s="350"/>
-      <c r="I1" s="350"/>
-      <c r="J1" s="350"/>
-      <c r="K1" s="350"/>
-      <c r="L1" s="350"/>
+      <c r="G1" s="403"/>
+      <c r="H1" s="403"/>
+      <c r="I1" s="403"/>
+      <c r="J1" s="403"/>
+      <c r="K1" s="403"/>
+      <c r="L1" s="403"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -9707,22 +9710,22 @@
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="351" t="s">
+      <c r="D6" s="404" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="352"/>
-      <c r="F6" s="352"/>
-      <c r="G6" s="352"/>
-      <c r="H6" s="353"/>
+      <c r="E6" s="405"/>
+      <c r="F6" s="405"/>
+      <c r="G6" s="405"/>
+      <c r="H6" s="406"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="351" t="s">
+      <c r="M6" s="404" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="352"/>
-      <c r="O6" s="352"/>
-      <c r="P6" s="352"/>
-      <c r="Q6" s="353"/>
+      <c r="N6" s="405"/>
+      <c r="O6" s="405"/>
+      <c r="P6" s="405"/>
+      <c r="Q6" s="406"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -9740,10 +9743,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="354" t="s">
+      <c r="F7" s="407" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="355"/>
+      <c r="G7" s="408"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -9766,10 +9769,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="354" t="s">
+      <c r="P7" s="407" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="355"/>
+      <c r="Q7" s="408"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -9837,7 +9840,7 @@
     </row>
     <row r="9" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="39"/>
-      <c r="B9" s="356"/>
+      <c r="B9" s="395"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -9848,15 +9851,15 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="42"/>
-      <c r="M9" s="347"/>
-      <c r="N9" s="359"/>
-      <c r="O9" s="347"/>
-      <c r="P9" s="347"/>
-      <c r="Q9" s="347"/>
-      <c r="R9" s="347"/>
-      <c r="S9" s="347"/>
-      <c r="T9" s="362"/>
-      <c r="U9" s="347"/>
+      <c r="M9" s="386"/>
+      <c r="N9" s="398"/>
+      <c r="O9" s="386"/>
+      <c r="P9" s="386"/>
+      <c r="Q9" s="386"/>
+      <c r="R9" s="386"/>
+      <c r="S9" s="386"/>
+      <c r="T9" s="389"/>
+      <c r="U9" s="386"/>
       <c r="V9" s="41"/>
       <c r="W9" s="36"/>
       <c r="X9" s="36"/>
@@ -9866,7 +9869,7 @@
     </row>
     <row r="10" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
-      <c r="B10" s="357"/>
+      <c r="B10" s="396"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -9877,15 +9880,15 @@
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="42"/>
-      <c r="M10" s="348"/>
-      <c r="N10" s="360"/>
-      <c r="O10" s="348"/>
-      <c r="P10" s="348"/>
-      <c r="Q10" s="348"/>
-      <c r="R10" s="348"/>
-      <c r="S10" s="348"/>
-      <c r="T10" s="363"/>
-      <c r="U10" s="348"/>
+      <c r="M10" s="387"/>
+      <c r="N10" s="399"/>
+      <c r="O10" s="387"/>
+      <c r="P10" s="387"/>
+      <c r="Q10" s="387"/>
+      <c r="R10" s="387"/>
+      <c r="S10" s="387"/>
+      <c r="T10" s="390"/>
+      <c r="U10" s="387"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -9893,8 +9896,8 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="347"/>
-      <c r="B11" s="357"/>
+      <c r="A11" s="386"/>
+      <c r="B11" s="396"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -9905,15 +9908,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="348"/>
-      <c r="N11" s="360"/>
-      <c r="O11" s="348"/>
-      <c r="P11" s="348"/>
-      <c r="Q11" s="348"/>
-      <c r="R11" s="348"/>
-      <c r="S11" s="348"/>
-      <c r="T11" s="363"/>
-      <c r="U11" s="348"/>
+      <c r="M11" s="387"/>
+      <c r="N11" s="399"/>
+      <c r="O11" s="387"/>
+      <c r="P11" s="387"/>
+      <c r="Q11" s="387"/>
+      <c r="R11" s="387"/>
+      <c r="S11" s="387"/>
+      <c r="T11" s="390"/>
+      <c r="U11" s="387"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -9923,8 +9926,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="349"/>
-      <c r="B12" s="358"/>
+      <c r="A12" s="388"/>
+      <c r="B12" s="397"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -9935,15 +9938,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="349"/>
-      <c r="N12" s="361"/>
-      <c r="O12" s="349"/>
-      <c r="P12" s="349"/>
-      <c r="Q12" s="349"/>
-      <c r="R12" s="349"/>
-      <c r="S12" s="349"/>
-      <c r="T12" s="364"/>
-      <c r="U12" s="349"/>
+      <c r="M12" s="388"/>
+      <c r="N12" s="400"/>
+      <c r="O12" s="388"/>
+      <c r="P12" s="388"/>
+      <c r="Q12" s="388"/>
+      <c r="R12" s="388"/>
+      <c r="S12" s="388"/>
+      <c r="T12" s="391"/>
+      <c r="U12" s="388"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -9952,7 +9955,7 @@
     </row>
     <row r="13" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43"/>
-      <c r="B13" s="356"/>
+      <c r="B13" s="395"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -9963,15 +9966,15 @@
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
       <c r="L13" s="42"/>
-      <c r="M13" s="347"/>
-      <c r="N13" s="359"/>
-      <c r="O13" s="347"/>
-      <c r="P13" s="347"/>
-      <c r="Q13" s="347"/>
-      <c r="R13" s="347"/>
-      <c r="S13" s="347"/>
-      <c r="T13" s="362"/>
-      <c r="U13" s="347"/>
+      <c r="M13" s="386"/>
+      <c r="N13" s="398"/>
+      <c r="O13" s="386"/>
+      <c r="P13" s="386"/>
+      <c r="Q13" s="386"/>
+      <c r="R13" s="386"/>
+      <c r="S13" s="386"/>
+      <c r="T13" s="389"/>
+      <c r="U13" s="386"/>
       <c r="V13" s="41"/>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
@@ -9980,7 +9983,7 @@
     </row>
     <row r="14" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
-      <c r="B14" s="357"/>
+      <c r="B14" s="396"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -9991,15 +9994,15 @@
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
       <c r="L14" s="42"/>
-      <c r="M14" s="348"/>
-      <c r="N14" s="360"/>
-      <c r="O14" s="348"/>
-      <c r="P14" s="348"/>
-      <c r="Q14" s="348"/>
-      <c r="R14" s="348"/>
-      <c r="S14" s="348"/>
-      <c r="T14" s="363"/>
-      <c r="U14" s="348"/>
+      <c r="M14" s="387"/>
+      <c r="N14" s="399"/>
+      <c r="O14" s="387"/>
+      <c r="P14" s="387"/>
+      <c r="Q14" s="387"/>
+      <c r="R14" s="387"/>
+      <c r="S14" s="387"/>
+      <c r="T14" s="390"/>
+      <c r="U14" s="387"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -10007,8 +10010,8 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="365"/>
-      <c r="B15" s="357"/>
+      <c r="A15" s="401"/>
+      <c r="B15" s="396"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -10019,15 +10022,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="348"/>
-      <c r="N15" s="360"/>
-      <c r="O15" s="348"/>
-      <c r="P15" s="348"/>
-      <c r="Q15" s="348"/>
-      <c r="R15" s="348"/>
-      <c r="S15" s="348"/>
-      <c r="T15" s="363"/>
-      <c r="U15" s="348"/>
+      <c r="M15" s="387"/>
+      <c r="N15" s="399"/>
+      <c r="O15" s="387"/>
+      <c r="P15" s="387"/>
+      <c r="Q15" s="387"/>
+      <c r="R15" s="387"/>
+      <c r="S15" s="387"/>
+      <c r="T15" s="390"/>
+      <c r="U15" s="387"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -10035,8 +10038,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="366"/>
-      <c r="B16" s="358"/>
+      <c r="A16" s="402"/>
+      <c r="B16" s="397"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -10047,15 +10050,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="349"/>
-      <c r="N16" s="361"/>
-      <c r="O16" s="349"/>
-      <c r="P16" s="349"/>
-      <c r="Q16" s="349"/>
-      <c r="R16" s="349"/>
-      <c r="S16" s="349"/>
-      <c r="T16" s="364"/>
-      <c r="U16" s="349"/>
+      <c r="M16" s="388"/>
+      <c r="N16" s="400"/>
+      <c r="O16" s="388"/>
+      <c r="P16" s="388"/>
+      <c r="Q16" s="388"/>
+      <c r="R16" s="388"/>
+      <c r="S16" s="388"/>
+      <c r="T16" s="391"/>
+      <c r="U16" s="388"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -10064,7 +10067,7 @@
     </row>
     <row r="17" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39"/>
-      <c r="B17" s="356"/>
+      <c r="B17" s="395"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -10075,15 +10078,15 @@
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
       <c r="L17" s="42"/>
-      <c r="M17" s="347"/>
-      <c r="N17" s="359"/>
-      <c r="O17" s="347"/>
-      <c r="P17" s="347"/>
-      <c r="Q17" s="347"/>
-      <c r="R17" s="347"/>
-      <c r="S17" s="347"/>
-      <c r="T17" s="362"/>
-      <c r="U17" s="347"/>
+      <c r="M17" s="386"/>
+      <c r="N17" s="398"/>
+      <c r="O17" s="386"/>
+      <c r="P17" s="386"/>
+      <c r="Q17" s="386"/>
+      <c r="R17" s="386"/>
+      <c r="S17" s="386"/>
+      <c r="T17" s="389"/>
+      <c r="U17" s="386"/>
       <c r="V17" s="41"/>
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
@@ -10092,7 +10095,7 @@
     </row>
     <row r="18" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
-      <c r="B18" s="357"/>
+      <c r="B18" s="396"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -10103,22 +10106,22 @@
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="42"/>
-      <c r="M18" s="348"/>
-      <c r="N18" s="360"/>
-      <c r="O18" s="348"/>
-      <c r="P18" s="348"/>
-      <c r="Q18" s="348"/>
-      <c r="R18" s="348"/>
-      <c r="S18" s="348"/>
-      <c r="T18" s="363"/>
-      <c r="U18" s="348"/>
+      <c r="M18" s="387"/>
+      <c r="N18" s="399"/>
+      <c r="O18" s="387"/>
+      <c r="P18" s="387"/>
+      <c r="Q18" s="387"/>
+      <c r="R18" s="387"/>
+      <c r="S18" s="387"/>
+      <c r="T18" s="390"/>
+      <c r="U18" s="387"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="347"/>
-      <c r="B19" s="357"/>
+      <c r="A19" s="386"/>
+      <c r="B19" s="396"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -10129,22 +10132,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="348"/>
-      <c r="N19" s="360"/>
-      <c r="O19" s="348"/>
-      <c r="P19" s="348"/>
-      <c r="Q19" s="348"/>
-      <c r="R19" s="348"/>
-      <c r="S19" s="348"/>
-      <c r="T19" s="363"/>
-      <c r="U19" s="348"/>
+      <c r="M19" s="387"/>
+      <c r="N19" s="399"/>
+      <c r="O19" s="387"/>
+      <c r="P19" s="387"/>
+      <c r="Q19" s="387"/>
+      <c r="R19" s="387"/>
+      <c r="S19" s="387"/>
+      <c r="T19" s="390"/>
+      <c r="U19" s="387"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="349"/>
-      <c r="B20" s="358"/>
+      <c r="A20" s="388"/>
+      <c r="B20" s="397"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -10155,22 +10158,22 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="349"/>
-      <c r="N20" s="361"/>
-      <c r="O20" s="349"/>
-      <c r="P20" s="349"/>
-      <c r="Q20" s="349"/>
-      <c r="R20" s="349"/>
-      <c r="S20" s="349"/>
-      <c r="T20" s="364"/>
-      <c r="U20" s="349"/>
+      <c r="M20" s="388"/>
+      <c r="N20" s="400"/>
+      <c r="O20" s="388"/>
+      <c r="P20" s="388"/>
+      <c r="Q20" s="388"/>
+      <c r="R20" s="388"/>
+      <c r="S20" s="388"/>
+      <c r="T20" s="391"/>
+      <c r="U20" s="388"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
     </row>
     <row r="21" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39"/>
-      <c r="B21" s="356"/>
+      <c r="B21" s="395"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -10181,22 +10184,22 @@
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
       <c r="L21" s="42"/>
-      <c r="M21" s="347"/>
-      <c r="N21" s="359"/>
-      <c r="O21" s="347"/>
-      <c r="P21" s="347"/>
-      <c r="Q21" s="347"/>
-      <c r="R21" s="347"/>
-      <c r="S21" s="347"/>
-      <c r="T21" s="362"/>
-      <c r="U21" s="347"/>
+      <c r="M21" s="386"/>
+      <c r="N21" s="398"/>
+      <c r="O21" s="386"/>
+      <c r="P21" s="386"/>
+      <c r="Q21" s="386"/>
+      <c r="R21" s="386"/>
+      <c r="S21" s="386"/>
+      <c r="T21" s="389"/>
+      <c r="U21" s="386"/>
       <c r="V21" s="41"/>
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
     </row>
     <row r="22" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="40"/>
-      <c r="B22" s="357"/>
+      <c r="B22" s="396"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -10207,22 +10210,22 @@
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
       <c r="L22" s="42"/>
-      <c r="M22" s="348"/>
-      <c r="N22" s="360"/>
-      <c r="O22" s="348"/>
-      <c r="P22" s="348"/>
-      <c r="Q22" s="348"/>
-      <c r="R22" s="348"/>
-      <c r="S22" s="348"/>
-      <c r="T22" s="363"/>
-      <c r="U22" s="348"/>
+      <c r="M22" s="387"/>
+      <c r="N22" s="399"/>
+      <c r="O22" s="387"/>
+      <c r="P22" s="387"/>
+      <c r="Q22" s="387"/>
+      <c r="R22" s="387"/>
+      <c r="S22" s="387"/>
+      <c r="T22" s="390"/>
+      <c r="U22" s="387"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="367"/>
-      <c r="B23" s="357"/>
+      <c r="A23" s="392"/>
+      <c r="B23" s="396"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -10233,22 +10236,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="348"/>
-      <c r="N23" s="360"/>
-      <c r="O23" s="348"/>
-      <c r="P23" s="348"/>
-      <c r="Q23" s="348"/>
-      <c r="R23" s="348"/>
-      <c r="S23" s="348"/>
-      <c r="T23" s="363"/>
-      <c r="U23" s="348"/>
+      <c r="M23" s="387"/>
+      <c r="N23" s="399"/>
+      <c r="O23" s="387"/>
+      <c r="P23" s="387"/>
+      <c r="Q23" s="387"/>
+      <c r="R23" s="387"/>
+      <c r="S23" s="387"/>
+      <c r="T23" s="390"/>
+      <c r="U23" s="387"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="368"/>
-      <c r="B24" s="358"/>
+      <c r="A24" s="393"/>
+      <c r="B24" s="397"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -10259,15 +10262,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="349"/>
-      <c r="N24" s="361"/>
-      <c r="O24" s="349"/>
-      <c r="P24" s="349"/>
-      <c r="Q24" s="349"/>
-      <c r="R24" s="349"/>
-      <c r="S24" s="349"/>
-      <c r="T24" s="364"/>
-      <c r="U24" s="349"/>
+      <c r="M24" s="388"/>
+      <c r="N24" s="400"/>
+      <c r="O24" s="388"/>
+      <c r="P24" s="388"/>
+      <c r="Q24" s="388"/>
+      <c r="R24" s="388"/>
+      <c r="S24" s="388"/>
+      <c r="T24" s="391"/>
+      <c r="U24" s="388"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -10576,33 +10579,33 @@
     <row r="40" spans="1:41" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D40" s="104"/>
       <c r="E40" s="105"/>
-      <c r="F40" s="392" t="s">
+      <c r="F40" s="410" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="393"/>
-      <c r="H40" s="393"/>
-      <c r="I40" s="394"/>
-      <c r="J40" s="395" t="s">
+      <c r="G40" s="411"/>
+      <c r="H40" s="411"/>
+      <c r="I40" s="412"/>
+      <c r="J40" s="413" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="396"/>
-      <c r="L40" s="396"/>
-      <c r="M40" s="397"/>
+      <c r="K40" s="414"/>
+      <c r="L40" s="414"/>
+      <c r="M40" s="415"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
       </c>
       <c r="P40" s="227"/>
-      <c r="Q40" s="391" t="s">
+      <c r="Q40" s="409" t="s">
         <v>234</v>
       </c>
-      <c r="R40" s="391"/>
-      <c r="S40" s="391"/>
-      <c r="T40" s="391"/>
-      <c r="U40" s="391"/>
-      <c r="V40" s="391"/>
-      <c r="W40" s="391"/>
-      <c r="X40" s="391"/>
-      <c r="Y40" s="391"/>
+      <c r="R40" s="409"/>
+      <c r="S40" s="409"/>
+      <c r="T40" s="409"/>
+      <c r="U40" s="409"/>
+      <c r="V40" s="409"/>
+      <c r="W40" s="409"/>
+      <c r="X40" s="409"/>
+      <c r="Y40" s="409"/>
       <c r="Z40" s="46"/>
       <c r="AA40" s="46"/>
       <c r="AB40" s="46"/>
@@ -10621,10 +10624,10 @@
       <c r="AO40" s="23"/>
     </row>
     <row r="41" spans="1:41" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="424" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="26" t="s">
+      <c r="B41" s="424" t="s">
         <v>217</v>
       </c>
       <c r="D41" s="253" t="s">
@@ -10757,7 +10760,7 @@
       <c r="Z42" s="247"/>
       <c r="AA42" s="247"/>
       <c r="AB42" s="282"/>
-      <c r="AC42" s="406"/>
+      <c r="AC42" s="347"/>
       <c r="AD42" s="64"/>
       <c r="AE42" s="50"/>
       <c r="AF42" s="50"/>
@@ -10803,7 +10806,7 @@
       <c r="Z43" s="247"/>
       <c r="AA43" s="247"/>
       <c r="AB43" s="282"/>
-      <c r="AC43" s="407"/>
+      <c r="AC43" s="348"/>
       <c r="AD43" s="64"/>
       <c r="AE43" s="50"/>
       <c r="AF43" s="50"/>
@@ -10849,7 +10852,7 @@
       <c r="Z44" s="247"/>
       <c r="AA44" s="247"/>
       <c r="AB44" s="282"/>
-      <c r="AC44" s="408"/>
+      <c r="AC44" s="349"/>
       <c r="AD44" s="64"/>
       <c r="AE44" s="50"/>
       <c r="AF44" s="50"/>
@@ -10937,7 +10940,7 @@
       <c r="Z46" s="247"/>
       <c r="AA46" s="247"/>
       <c r="AB46" s="282"/>
-      <c r="AC46" s="409"/>
+      <c r="AC46" s="350"/>
       <c r="AD46" s="64"/>
       <c r="AE46" s="50"/>
       <c r="AF46" s="50"/>
@@ -10978,7 +10981,7 @@
       <c r="Z47" s="248"/>
       <c r="AA47" s="248"/>
       <c r="AB47" s="283"/>
-      <c r="AC47" s="410"/>
+      <c r="AC47" s="351"/>
       <c r="AD47" s="23"/>
       <c r="AE47" s="72"/>
       <c r="AF47" s="36"/>
@@ -11019,7 +11022,7 @@
       <c r="Z48" s="248"/>
       <c r="AA48" s="248"/>
       <c r="AB48" s="283"/>
-      <c r="AC48" s="411"/>
+      <c r="AC48" s="352"/>
       <c r="AD48" s="23"/>
       <c r="AE48" s="72"/>
       <c r="AF48" s="36"/>
@@ -11060,7 +11063,7 @@
       <c r="Z49" s="248"/>
       <c r="AA49" s="248"/>
       <c r="AB49" s="283"/>
-      <c r="AC49" s="412"/>
+      <c r="AC49" s="353"/>
       <c r="AD49" s="23"/>
       <c r="AE49" s="72"/>
       <c r="AF49" s="36"/>
@@ -11101,7 +11104,7 @@
       <c r="Z50" s="247"/>
       <c r="AA50" s="247"/>
       <c r="AB50" s="282"/>
-      <c r="AC50" s="413"/>
+      <c r="AC50" s="354"/>
       <c r="AD50" s="46"/>
       <c r="AE50" s="50"/>
       <c r="AF50" s="50"/>
@@ -11183,7 +11186,7 @@
       <c r="Z52" s="248"/>
       <c r="AA52" s="248"/>
       <c r="AB52" s="283"/>
-      <c r="AC52" s="414"/>
+      <c r="AC52" s="355"/>
       <c r="AD52" s="23"/>
       <c r="AE52" s="36"/>
       <c r="AF52" s="36"/>
@@ -11224,7 +11227,7 @@
       <c r="Z53" s="248"/>
       <c r="AA53" s="248"/>
       <c r="AB53" s="283"/>
-      <c r="AC53" s="415"/>
+      <c r="AC53" s="356"/>
       <c r="AD53" s="23"/>
       <c r="AE53" s="36"/>
       <c r="AF53" s="36"/>
@@ -11265,7 +11268,7 @@
       <c r="Z54" s="248"/>
       <c r="AA54" s="248"/>
       <c r="AB54" s="283"/>
-      <c r="AC54" s="416"/>
+      <c r="AC54" s="357"/>
       <c r="AD54" s="23"/>
       <c r="AE54" s="36"/>
       <c r="AF54" s="36"/>
@@ -11306,7 +11309,7 @@
       <c r="Z55" s="248"/>
       <c r="AA55" s="248"/>
       <c r="AB55" s="283"/>
-      <c r="AC55" s="417"/>
+      <c r="AC55" s="358"/>
       <c r="AD55" s="23"/>
       <c r="AE55" s="36"/>
       <c r="AF55" s="36"/>
@@ -11388,7 +11391,7 @@
       <c r="Z57" s="248"/>
       <c r="AA57" s="248"/>
       <c r="AB57" s="283"/>
-      <c r="AC57" s="418"/>
+      <c r="AC57" s="359"/>
       <c r="AD57" s="23"/>
       <c r="AE57" s="36"/>
       <c r="AF57" s="36"/>
@@ -11429,7 +11432,7 @@
       <c r="Z58" s="248"/>
       <c r="AA58" s="248"/>
       <c r="AB58" s="283"/>
-      <c r="AC58" s="419"/>
+      <c r="AC58" s="360"/>
       <c r="AD58" s="23"/>
       <c r="AE58" s="36"/>
       <c r="AF58" s="36"/>
@@ -11470,7 +11473,7 @@
       <c r="Z59" s="248"/>
       <c r="AA59" s="248"/>
       <c r="AB59" s="283"/>
-      <c r="AC59" s="420"/>
+      <c r="AC59" s="361"/>
       <c r="AD59" s="23"/>
       <c r="AE59" s="36"/>
       <c r="AF59" s="36"/>
@@ -11550,7 +11553,7 @@
       <c r="Z61" s="248"/>
       <c r="AA61" s="248"/>
       <c r="AB61" s="284"/>
-      <c r="AC61" s="421"/>
+      <c r="AC61" s="362"/>
       <c r="AD61" s="23"/>
       <c r="AE61" s="36"/>
       <c r="AF61" s="36"/>
@@ -11589,7 +11592,7 @@
       <c r="Z62" s="248"/>
       <c r="AA62" s="248"/>
       <c r="AB62" s="284"/>
-      <c r="AC62" s="422"/>
+      <c r="AC62" s="363"/>
       <c r="AD62" s="23"/>
       <c r="AE62" s="36"/>
       <c r="AF62" s="36"/>
@@ -11628,7 +11631,7 @@
       <c r="Z63" s="248"/>
       <c r="AA63" s="248"/>
       <c r="AB63" s="284"/>
-      <c r="AC63" s="423"/>
+      <c r="AC63" s="364"/>
       <c r="AD63" s="23"/>
       <c r="AE63" s="36"/>
       <c r="AF63" s="36"/>
@@ -18282,6 +18285,44 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P17:P20"/>
     <mergeCell ref="Q40:Y40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:M40"/>
@@ -18296,44 +18337,6 @@
     <mergeCell ref="R21:R24"/>
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P17:P20"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q9:Q12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">
@@ -18389,15 +18392,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="350" t="s">
+      <c r="F1" s="403" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="350"/>
-      <c r="H1" s="350"/>
-      <c r="I1" s="350"/>
-      <c r="J1" s="350"/>
-      <c r="K1" s="350"/>
-      <c r="L1" s="350"/>
+      <c r="G1" s="403"/>
+      <c r="H1" s="403"/>
+      <c r="I1" s="403"/>
+      <c r="J1" s="403"/>
+      <c r="K1" s="403"/>
+      <c r="L1" s="403"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -18486,22 +18489,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="351" t="s">
+      <c r="D6" s="404" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="352"/>
-      <c r="F6" s="352"/>
-      <c r="G6" s="352"/>
-      <c r="H6" s="353"/>
+      <c r="E6" s="405"/>
+      <c r="F6" s="405"/>
+      <c r="G6" s="405"/>
+      <c r="H6" s="406"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="351" t="s">
+      <c r="M6" s="404" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="352"/>
-      <c r="O6" s="352"/>
-      <c r="P6" s="352"/>
-      <c r="Q6" s="353"/>
+      <c r="N6" s="405"/>
+      <c r="O6" s="405"/>
+      <c r="P6" s="405"/>
+      <c r="Q6" s="406"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -18519,10 +18522,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="354" t="s">
+      <c r="F7" s="407" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="355"/>
+      <c r="G7" s="408"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -18545,10 +18548,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="354" t="s">
+      <c r="P7" s="407" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="355"/>
+      <c r="Q7" s="408"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -18625,7 +18628,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="356" t="s">
+      <c r="B9" s="395" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -18659,33 +18662,33 @@
         <f t="shared" ref="L9:L22" si="0">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="347">
+      <c r="M9" s="386">
         <v>20</v>
       </c>
-      <c r="N9" s="359" t="s">
+      <c r="N9" s="398" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="347">
+      <c r="O9" s="386">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="347">
+      <c r="P9" s="386">
         <v>3</v>
       </c>
-      <c r="Q9" s="347">
+      <c r="Q9" s="386">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="347">
+      <c r="R9" s="386">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="347"/>
-      <c r="T9" s="362">
+      <c r="S9" s="386"/>
+      <c r="T9" s="389">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="347">
+      <c r="U9" s="386">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -18710,7 +18713,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="357"/>
+      <c r="B10" s="396"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -18742,15 +18745,15 @@
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="348"/>
-      <c r="N10" s="360"/>
-      <c r="O10" s="348"/>
-      <c r="P10" s="348"/>
-      <c r="Q10" s="348"/>
-      <c r="R10" s="348"/>
-      <c r="S10" s="348"/>
-      <c r="T10" s="363"/>
-      <c r="U10" s="348"/>
+      <c r="M10" s="387"/>
+      <c r="N10" s="399"/>
+      <c r="O10" s="387"/>
+      <c r="P10" s="387"/>
+      <c r="Q10" s="387"/>
+      <c r="R10" s="387"/>
+      <c r="S10" s="387"/>
+      <c r="T10" s="390"/>
+      <c r="U10" s="387"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -18758,10 +18761,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="347" t="s">
+      <c r="A11" s="386" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="357"/>
+      <c r="B11" s="396"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -18772,15 +18775,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="348"/>
-      <c r="N11" s="360"/>
-      <c r="O11" s="348"/>
-      <c r="P11" s="348"/>
-      <c r="Q11" s="348"/>
-      <c r="R11" s="348"/>
-      <c r="S11" s="348"/>
-      <c r="T11" s="363"/>
-      <c r="U11" s="348"/>
+      <c r="M11" s="387"/>
+      <c r="N11" s="399"/>
+      <c r="O11" s="387"/>
+      <c r="P11" s="387"/>
+      <c r="Q11" s="387"/>
+      <c r="R11" s="387"/>
+      <c r="S11" s="387"/>
+      <c r="T11" s="390"/>
+      <c r="U11" s="387"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -18799,8 +18802,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="349"/>
-      <c r="B12" s="358"/>
+      <c r="A12" s="388"/>
+      <c r="B12" s="397"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -18811,15 +18814,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="349"/>
-      <c r="N12" s="361"/>
-      <c r="O12" s="349"/>
-      <c r="P12" s="349"/>
-      <c r="Q12" s="349"/>
-      <c r="R12" s="349"/>
-      <c r="S12" s="349"/>
-      <c r="T12" s="364"/>
-      <c r="U12" s="349"/>
+      <c r="M12" s="388"/>
+      <c r="N12" s="400"/>
+      <c r="O12" s="388"/>
+      <c r="P12" s="388"/>
+      <c r="Q12" s="388"/>
+      <c r="R12" s="388"/>
+      <c r="S12" s="388"/>
+      <c r="T12" s="391"/>
+      <c r="U12" s="388"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -18835,7 +18838,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="356" t="s">
+      <c r="B13" s="395" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -18869,33 +18872,33 @@
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="347">
+      <c r="M13" s="386">
         <v>80</v>
       </c>
-      <c r="N13" s="359" t="s">
+      <c r="N13" s="398" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="347">
+      <c r="O13" s="386">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="347">
+      <c r="P13" s="386">
         <v>2</v>
       </c>
-      <c r="Q13" s="347">
+      <c r="Q13" s="386">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="347">
+      <c r="R13" s="386">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="347"/>
-      <c r="T13" s="362">
+      <c r="S13" s="386"/>
+      <c r="T13" s="389">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="347">
+      <c r="U13" s="386">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -18918,7 +18921,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="357"/>
+      <c r="B14" s="396"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -18950,15 +18953,15 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="348"/>
-      <c r="N14" s="360"/>
-      <c r="O14" s="348"/>
-      <c r="P14" s="348"/>
-      <c r="Q14" s="348"/>
-      <c r="R14" s="348"/>
-      <c r="S14" s="348"/>
-      <c r="T14" s="363"/>
-      <c r="U14" s="348"/>
+      <c r="M14" s="387"/>
+      <c r="N14" s="399"/>
+      <c r="O14" s="387"/>
+      <c r="P14" s="387"/>
+      <c r="Q14" s="387"/>
+      <c r="R14" s="387"/>
+      <c r="S14" s="387"/>
+      <c r="T14" s="390"/>
+      <c r="U14" s="387"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -18966,10 +18969,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="365" t="s">
+      <c r="A15" s="401" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="357"/>
+      <c r="B15" s="396"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -18980,15 +18983,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="348"/>
-      <c r="N15" s="360"/>
-      <c r="O15" s="348"/>
-      <c r="P15" s="348"/>
-      <c r="Q15" s="348"/>
-      <c r="R15" s="348"/>
-      <c r="S15" s="348"/>
-      <c r="T15" s="363"/>
-      <c r="U15" s="348"/>
+      <c r="M15" s="387"/>
+      <c r="N15" s="399"/>
+      <c r="O15" s="387"/>
+      <c r="P15" s="387"/>
+      <c r="Q15" s="387"/>
+      <c r="R15" s="387"/>
+      <c r="S15" s="387"/>
+      <c r="T15" s="390"/>
+      <c r="U15" s="387"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -18998,8 +19001,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="366"/>
-      <c r="B16" s="358"/>
+      <c r="A16" s="402"/>
+      <c r="B16" s="397"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -19010,15 +19013,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="349"/>
-      <c r="N16" s="361"/>
-      <c r="O16" s="349"/>
-      <c r="P16" s="349"/>
-      <c r="Q16" s="349"/>
-      <c r="R16" s="349"/>
-      <c r="S16" s="349"/>
-      <c r="T16" s="364"/>
-      <c r="U16" s="349"/>
+      <c r="M16" s="388"/>
+      <c r="N16" s="400"/>
+      <c r="O16" s="388"/>
+      <c r="P16" s="388"/>
+      <c r="Q16" s="388"/>
+      <c r="R16" s="388"/>
+      <c r="S16" s="388"/>
+      <c r="T16" s="391"/>
+      <c r="U16" s="388"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -19029,7 +19032,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="356" t="s">
+      <c r="B17" s="395" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -19063,33 +19066,33 @@
         <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="347">
+      <c r="M17" s="386">
         <v>70</v>
       </c>
-      <c r="N17" s="359" t="s">
+      <c r="N17" s="398" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="347">
+      <c r="O17" s="386">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="347">
+      <c r="P17" s="386">
         <v>2</v>
       </c>
-      <c r="Q17" s="347">
+      <c r="Q17" s="386">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="347">
+      <c r="R17" s="386">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="347"/>
-      <c r="T17" s="362">
+      <c r="S17" s="386"/>
+      <c r="T17" s="389">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="347">
+      <c r="U17" s="386">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -19108,7 +19111,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="357"/>
+      <c r="B18" s="396"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -19140,24 +19143,24 @@
         <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="348"/>
-      <c r="N18" s="360"/>
-      <c r="O18" s="348"/>
-      <c r="P18" s="348"/>
-      <c r="Q18" s="348"/>
-      <c r="R18" s="348"/>
-      <c r="S18" s="348"/>
-      <c r="T18" s="363"/>
-      <c r="U18" s="348"/>
+      <c r="M18" s="387"/>
+      <c r="N18" s="399"/>
+      <c r="O18" s="387"/>
+      <c r="P18" s="387"/>
+      <c r="Q18" s="387"/>
+      <c r="R18" s="387"/>
+      <c r="S18" s="387"/>
+      <c r="T18" s="390"/>
+      <c r="U18" s="387"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="347" t="s">
+      <c r="A19" s="386" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="357"/>
+      <c r="B19" s="396"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -19168,22 +19171,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="348"/>
-      <c r="N19" s="360"/>
-      <c r="O19" s="348"/>
-      <c r="P19" s="348"/>
-      <c r="Q19" s="348"/>
-      <c r="R19" s="348"/>
-      <c r="S19" s="348"/>
-      <c r="T19" s="363"/>
-      <c r="U19" s="348"/>
+      <c r="M19" s="387"/>
+      <c r="N19" s="399"/>
+      <c r="O19" s="387"/>
+      <c r="P19" s="387"/>
+      <c r="Q19" s="387"/>
+      <c r="R19" s="387"/>
+      <c r="S19" s="387"/>
+      <c r="T19" s="390"/>
+      <c r="U19" s="387"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="349"/>
-      <c r="B20" s="358"/>
+      <c r="A20" s="388"/>
+      <c r="B20" s="397"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -19194,15 +19197,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="349"/>
-      <c r="N20" s="361"/>
-      <c r="O20" s="349"/>
-      <c r="P20" s="349"/>
-      <c r="Q20" s="349"/>
-      <c r="R20" s="349"/>
-      <c r="S20" s="349"/>
-      <c r="T20" s="364"/>
-      <c r="U20" s="349"/>
+      <c r="M20" s="388"/>
+      <c r="N20" s="400"/>
+      <c r="O20" s="388"/>
+      <c r="P20" s="388"/>
+      <c r="Q20" s="388"/>
+      <c r="R20" s="388"/>
+      <c r="S20" s="388"/>
+      <c r="T20" s="391"/>
+      <c r="U20" s="388"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -19211,7 +19214,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="356" t="s">
+      <c r="B21" s="395" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -19245,33 +19248,33 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="347">
+      <c r="M21" s="386">
         <v>60</v>
       </c>
-      <c r="N21" s="359" t="s">
+      <c r="N21" s="398" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="347">
+      <c r="O21" s="386">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="347">
+      <c r="P21" s="386">
         <v>3</v>
       </c>
-      <c r="Q21" s="347">
+      <c r="Q21" s="386">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="347">
+      <c r="R21" s="386">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="347"/>
-      <c r="T21" s="362">
+      <c r="S21" s="386"/>
+      <c r="T21" s="389">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="347">
+      <c r="U21" s="386">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -19288,7 +19291,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="357"/>
+      <c r="B22" s="396"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -19320,24 +19323,24 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="348"/>
-      <c r="N22" s="360"/>
-      <c r="O22" s="348"/>
-      <c r="P22" s="348"/>
-      <c r="Q22" s="348"/>
-      <c r="R22" s="348"/>
-      <c r="S22" s="348"/>
-      <c r="T22" s="363"/>
-      <c r="U22" s="348"/>
+      <c r="M22" s="387"/>
+      <c r="N22" s="399"/>
+      <c r="O22" s="387"/>
+      <c r="P22" s="387"/>
+      <c r="Q22" s="387"/>
+      <c r="R22" s="387"/>
+      <c r="S22" s="387"/>
+      <c r="T22" s="390"/>
+      <c r="U22" s="387"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="367" t="s">
+      <c r="A23" s="392" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="357"/>
+      <c r="B23" s="396"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -19348,22 +19351,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="348"/>
-      <c r="N23" s="360"/>
-      <c r="O23" s="348"/>
-      <c r="P23" s="348"/>
-      <c r="Q23" s="348"/>
-      <c r="R23" s="348"/>
-      <c r="S23" s="348"/>
-      <c r="T23" s="363"/>
-      <c r="U23" s="348"/>
+      <c r="M23" s="387"/>
+      <c r="N23" s="399"/>
+      <c r="O23" s="387"/>
+      <c r="P23" s="387"/>
+      <c r="Q23" s="387"/>
+      <c r="R23" s="387"/>
+      <c r="S23" s="387"/>
+      <c r="T23" s="390"/>
+      <c r="U23" s="387"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="368"/>
-      <c r="B24" s="358"/>
+      <c r="A24" s="393"/>
+      <c r="B24" s="397"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -19374,15 +19377,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="349"/>
-      <c r="N24" s="361"/>
-      <c r="O24" s="349"/>
-      <c r="P24" s="349"/>
-      <c r="Q24" s="349"/>
-      <c r="R24" s="349"/>
-      <c r="S24" s="349"/>
-      <c r="T24" s="364"/>
-      <c r="U24" s="349"/>
+      <c r="M24" s="388"/>
+      <c r="N24" s="400"/>
+      <c r="O24" s="388"/>
+      <c r="P24" s="388"/>
+      <c r="Q24" s="388"/>
+      <c r="R24" s="388"/>
+      <c r="S24" s="388"/>
+      <c r="T24" s="391"/>
+      <c r="U24" s="388"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -19408,13 +19411,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="369" t="s">
+      <c r="H27" s="394" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="369"/>
-      <c r="J27" s="369"/>
-      <c r="K27" s="369"/>
-      <c r="L27" s="369"/>
+      <c r="I27" s="394"/>
+      <c r="J27" s="394"/>
+      <c r="K27" s="394"/>
+      <c r="L27" s="394"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -19694,19 +19697,19 @@
     <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="372" t="s">
+      <c r="D40" s="384" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="372"/>
-      <c r="F40" s="372"/>
-      <c r="G40" s="372"/>
-      <c r="H40" s="372"/>
-      <c r="I40" s="372" t="s">
+      <c r="E40" s="384"/>
+      <c r="F40" s="384"/>
+      <c r="G40" s="384"/>
+      <c r="H40" s="384"/>
+      <c r="I40" s="384" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="372"/>
-      <c r="K40" s="372"/>
-      <c r="L40" s="372"/>
+      <c r="J40" s="384"/>
+      <c r="K40" s="384"/>
+      <c r="L40" s="384"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -19830,19 +19833,19 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="373"/>
+      <c r="B42" s="379"/>
       <c r="C42" s="110"/>
       <c r="D42" s="111"/>
       <c r="E42" s="111"/>
       <c r="F42" s="125"/>
       <c r="G42" s="125"/>
-      <c r="H42" s="371"/>
+      <c r="H42" s="380"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="125"/>
       <c r="L42" s="125"/>
-      <c r="M42" s="371"/>
-      <c r="N42" s="398"/>
+      <c r="M42" s="380"/>
+      <c r="N42" s="421"/>
       <c r="P42" s="91"/>
       <c r="Q42" s="91"/>
       <c r="U42" s="64"/>
@@ -19888,19 +19891,19 @@
       <c r="AN42" s="88"/>
     </row>
     <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="373"/>
+      <c r="B43" s="379"/>
       <c r="C43" s="110"/>
       <c r="D43" s="125"/>
       <c r="E43" s="111"/>
       <c r="F43" s="125"/>
       <c r="G43" s="103"/>
-      <c r="H43" s="371"/>
+      <c r="H43" s="380"/>
       <c r="I43" s="111"/>
       <c r="J43" s="111"/>
       <c r="K43" s="103"/>
       <c r="L43" s="103"/>
-      <c r="M43" s="371"/>
-      <c r="N43" s="371"/>
+      <c r="M43" s="380"/>
+      <c r="N43" s="380"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -19946,19 +19949,19 @@
       <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="373"/>
+      <c r="B44" s="379"/>
       <c r="C44" s="110"/>
       <c r="D44" s="111"/>
       <c r="E44" s="111"/>
       <c r="F44" s="125"/>
       <c r="G44" s="125"/>
-      <c r="H44" s="371"/>
+      <c r="H44" s="380"/>
       <c r="I44" s="111"/>
       <c r="J44" s="111"/>
       <c r="K44" s="125"/>
       <c r="L44" s="125"/>
-      <c r="M44" s="371"/>
-      <c r="N44" s="371"/>
+      <c r="M44" s="380"/>
+      <c r="N44" s="380"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -20004,19 +20007,19 @@
       <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="373"/>
+      <c r="B45" s="379"/>
       <c r="C45" s="110"/>
       <c r="D45" s="111"/>
       <c r="E45" s="111"/>
       <c r="F45" s="125"/>
       <c r="G45" s="125"/>
-      <c r="H45" s="371"/>
+      <c r="H45" s="380"/>
       <c r="I45" s="111"/>
       <c r="J45" s="111"/>
       <c r="K45" s="125"/>
       <c r="L45" s="125"/>
-      <c r="M45" s="371"/>
-      <c r="N45" s="371"/>
+      <c r="M45" s="380"/>
+      <c r="N45" s="380"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -20062,19 +20065,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="373"/>
+      <c r="B46" s="379"/>
       <c r="C46" s="110"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="125"/>
       <c r="G46" s="125"/>
-      <c r="H46" s="371"/>
+      <c r="H46" s="380"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="125"/>
       <c r="L46" s="125"/>
-      <c r="M46" s="371"/>
-      <c r="N46" s="399"/>
+      <c r="M46" s="380"/>
+      <c r="N46" s="422"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -20120,19 +20123,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="373"/>
+      <c r="B47" s="379"/>
       <c r="C47" s="110"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="371"/>
+      <c r="H47" s="380"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="371"/>
-      <c r="N47" s="375"/>
+      <c r="M47" s="380"/>
+      <c r="N47" s="382"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -20180,19 +20183,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="373"/>
+      <c r="B48" s="379"/>
       <c r="C48" s="110"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="371"/>
+      <c r="H48" s="380"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="371"/>
-      <c r="N48" s="375"/>
+      <c r="M48" s="380"/>
+      <c r="N48" s="382"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -20240,19 +20243,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="373"/>
+      <c r="B49" s="379"/>
       <c r="C49" s="110"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="371"/>
+      <c r="H49" s="380"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="371"/>
-      <c r="N49" s="375"/>
+      <c r="M49" s="380"/>
+      <c r="N49" s="382"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -20300,19 +20303,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="376"/>
+      <c r="B50" s="374"/>
       <c r="C50" s="112"/>
       <c r="D50" s="113"/>
       <c r="E50" s="113"/>
       <c r="F50" s="113"/>
       <c r="G50" s="113"/>
-      <c r="H50" s="377"/>
+      <c r="H50" s="375"/>
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
       <c r="L50" s="113"/>
-      <c r="M50" s="377"/>
-      <c r="N50" s="400"/>
+      <c r="M50" s="375"/>
+      <c r="N50" s="423"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -20333,19 +20336,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="376"/>
+      <c r="B51" s="374"/>
       <c r="C51" s="112"/>
       <c r="D51" s="113"/>
       <c r="E51" s="113"/>
       <c r="F51" s="113"/>
       <c r="G51" s="113"/>
-      <c r="H51" s="377"/>
+      <c r="H51" s="375"/>
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
       <c r="L51" s="113"/>
-      <c r="M51" s="377"/>
-      <c r="N51" s="379"/>
+      <c r="M51" s="375"/>
+      <c r="N51" s="377"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -20376,19 +20379,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="376"/>
+      <c r="B52" s="374"/>
       <c r="C52" s="112"/>
       <c r="D52" s="113"/>
       <c r="E52" s="113"/>
       <c r="F52" s="113"/>
       <c r="G52" s="113"/>
-      <c r="H52" s="377"/>
+      <c r="H52" s="375"/>
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
       <c r="L52" s="113"/>
-      <c r="M52" s="377"/>
-      <c r="N52" s="379"/>
+      <c r="M52" s="375"/>
+      <c r="N52" s="377"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -20452,19 +20455,19 @@
       </c>
     </row>
     <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="376"/>
+      <c r="B53" s="374"/>
       <c r="C53" s="112"/>
       <c r="D53" s="113"/>
       <c r="E53" s="113"/>
       <c r="F53" s="113"/>
       <c r="G53" s="113"/>
-      <c r="H53" s="377"/>
+      <c r="H53" s="375"/>
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
       <c r="L53" s="113"/>
-      <c r="M53" s="377"/>
-      <c r="N53" s="379"/>
+      <c r="M53" s="375"/>
+      <c r="N53" s="377"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -20513,19 +20516,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="376"/>
+      <c r="B54" s="374"/>
       <c r="C54" s="112"/>
       <c r="D54" s="113"/>
       <c r="E54" s="113"/>
       <c r="F54" s="113"/>
       <c r="G54" s="113"/>
-      <c r="H54" s="377"/>
+      <c r="H54" s="375"/>
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
       <c r="L54" s="113"/>
-      <c r="M54" s="377"/>
-      <c r="N54" s="401"/>
+      <c r="M54" s="375"/>
+      <c r="N54" s="416"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -20572,19 +20575,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="376"/>
+      <c r="B55" s="374"/>
       <c r="C55" s="112"/>
       <c r="D55" s="113"/>
       <c r="E55" s="113"/>
       <c r="F55" s="113"/>
       <c r="G55" s="113"/>
-      <c r="H55" s="377"/>
+      <c r="H55" s="375"/>
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
       <c r="L55" s="113"/>
-      <c r="M55" s="377"/>
-      <c r="N55" s="379"/>
+      <c r="M55" s="375"/>
+      <c r="N55" s="377"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -20631,19 +20634,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="376"/>
+      <c r="B56" s="374"/>
       <c r="C56" s="112"/>
       <c r="D56" s="113"/>
       <c r="E56" s="113"/>
       <c r="F56" s="113"/>
       <c r="G56" s="113"/>
-      <c r="H56" s="377"/>
+      <c r="H56" s="375"/>
       <c r="I56" s="113"/>
       <c r="J56" s="113"/>
       <c r="K56" s="113"/>
       <c r="L56" s="113"/>
-      <c r="M56" s="377"/>
-      <c r="N56" s="379"/>
+      <c r="M56" s="375"/>
+      <c r="N56" s="377"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -20690,19 +20693,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="376"/>
+      <c r="B57" s="374"/>
       <c r="C57" s="112"/>
       <c r="D57" s="113"/>
       <c r="E57" s="113"/>
       <c r="F57" s="113"/>
       <c r="G57" s="113"/>
-      <c r="H57" s="377"/>
+      <c r="H57" s="375"/>
       <c r="I57" s="113"/>
       <c r="J57" s="113"/>
       <c r="K57" s="113"/>
       <c r="L57" s="113"/>
-      <c r="M57" s="377"/>
-      <c r="N57" s="379"/>
+      <c r="M57" s="375"/>
+      <c r="N57" s="377"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -20749,19 +20752,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="381"/>
+      <c r="B58" s="369"/>
       <c r="C58" s="114"/>
       <c r="D58" s="115"/>
       <c r="E58" s="115"/>
       <c r="F58" s="115"/>
       <c r="G58" s="115"/>
-      <c r="H58" s="382"/>
+      <c r="H58" s="370"/>
       <c r="I58" s="115"/>
       <c r="J58" s="115"/>
       <c r="K58" s="115"/>
       <c r="L58" s="115"/>
-      <c r="M58" s="382"/>
-      <c r="N58" s="402"/>
+      <c r="M58" s="370"/>
+      <c r="N58" s="417"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -20808,19 +20811,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="381"/>
+      <c r="B59" s="369"/>
       <c r="C59" s="114"/>
       <c r="D59" s="115"/>
       <c r="E59" s="115"/>
       <c r="F59" s="115"/>
       <c r="G59" s="115"/>
-      <c r="H59" s="382"/>
+      <c r="H59" s="370"/>
       <c r="I59" s="115"/>
       <c r="J59" s="115"/>
       <c r="K59" s="115"/>
       <c r="L59" s="115"/>
-      <c r="M59" s="382"/>
-      <c r="N59" s="384"/>
+      <c r="M59" s="370"/>
+      <c r="N59" s="372"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -20867,19 +20870,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="381"/>
+      <c r="B60" s="369"/>
       <c r="C60" s="114"/>
       <c r="D60" s="115"/>
       <c r="E60" s="115"/>
       <c r="F60" s="115"/>
       <c r="G60" s="115"/>
-      <c r="H60" s="382"/>
+      <c r="H60" s="370"/>
       <c r="I60" s="115"/>
       <c r="J60" s="115"/>
       <c r="K60" s="115"/>
       <c r="L60" s="115"/>
-      <c r="M60" s="382"/>
-      <c r="N60" s="384"/>
+      <c r="M60" s="370"/>
+      <c r="N60" s="372"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -20926,247 +20929,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="381"/>
+      <c r="B61" s="369"/>
       <c r="C61" s="114"/>
       <c r="D61" s="115"/>
       <c r="E61" s="115"/>
       <c r="F61" s="115"/>
       <c r="G61" s="115"/>
-      <c r="H61" s="382"/>
+      <c r="H61" s="370"/>
       <c r="I61" s="115"/>
       <c r="J61" s="115"/>
       <c r="K61" s="115"/>
       <c r="L61" s="115"/>
-      <c r="M61" s="382"/>
-      <c r="N61" s="384"/>
+      <c r="M61" s="370"/>
+      <c r="N61" s="372"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="381"/>
+      <c r="B62" s="369"/>
       <c r="C62" s="114"/>
       <c r="D62" s="115"/>
       <c r="E62" s="115"/>
       <c r="F62" s="115"/>
       <c r="G62" s="115"/>
-      <c r="H62" s="382"/>
+      <c r="H62" s="370"/>
       <c r="I62" s="115"/>
       <c r="J62" s="115"/>
       <c r="K62" s="115"/>
       <c r="L62" s="115"/>
-      <c r="M62" s="382"/>
-      <c r="N62" s="403"/>
+      <c r="M62" s="370"/>
+      <c r="N62" s="418"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="381"/>
+      <c r="B63" s="369"/>
       <c r="C63" s="114"/>
       <c r="D63" s="115"/>
       <c r="E63" s="115"/>
       <c r="F63" s="115"/>
       <c r="G63" s="115"/>
-      <c r="H63" s="382"/>
+      <c r="H63" s="370"/>
       <c r="I63" s="115"/>
       <c r="J63" s="115"/>
       <c r="K63" s="115"/>
       <c r="L63" s="115"/>
-      <c r="M63" s="382"/>
-      <c r="N63" s="384"/>
+      <c r="M63" s="370"/>
+      <c r="N63" s="372"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="381"/>
+      <c r="B64" s="369"/>
       <c r="C64" s="114"/>
       <c r="D64" s="115"/>
       <c r="E64" s="115"/>
       <c r="F64" s="115"/>
       <c r="G64" s="115"/>
-      <c r="H64" s="382"/>
+      <c r="H64" s="370"/>
       <c r="I64" s="115"/>
       <c r="J64" s="115"/>
       <c r="K64" s="115"/>
       <c r="L64" s="115"/>
-      <c r="M64" s="382"/>
-      <c r="N64" s="384"/>
+      <c r="M64" s="370"/>
+      <c r="N64" s="372"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="381"/>
+      <c r="B65" s="369"/>
       <c r="C65" s="114"/>
       <c r="D65" s="115"/>
       <c r="E65" s="115"/>
       <c r="F65" s="115"/>
       <c r="G65" s="115"/>
-      <c r="H65" s="382"/>
+      <c r="H65" s="370"/>
       <c r="I65" s="115"/>
       <c r="J65" s="115"/>
       <c r="K65" s="115"/>
       <c r="L65" s="115"/>
-      <c r="M65" s="382"/>
-      <c r="N65" s="384"/>
+      <c r="M65" s="370"/>
+      <c r="N65" s="372"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="385"/>
+      <c r="B66" s="365"/>
       <c r="C66" s="128"/>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
       <c r="F66" s="116"/>
       <c r="G66" s="116"/>
-      <c r="H66" s="386"/>
+      <c r="H66" s="366"/>
       <c r="I66" s="116"/>
       <c r="J66" s="116"/>
       <c r="K66" s="116"/>
       <c r="L66" s="116"/>
-      <c r="M66" s="386"/>
-      <c r="N66" s="404"/>
+      <c r="M66" s="366"/>
+      <c r="N66" s="419"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="385"/>
+      <c r="B67" s="365"/>
       <c r="C67" s="128"/>
       <c r="D67" s="116"/>
       <c r="E67" s="116"/>
       <c r="F67" s="116"/>
       <c r="G67" s="116"/>
-      <c r="H67" s="386"/>
+      <c r="H67" s="366"/>
       <c r="I67" s="116"/>
       <c r="J67" s="116"/>
       <c r="K67" s="116"/>
       <c r="L67" s="116"/>
-      <c r="M67" s="386"/>
-      <c r="N67" s="388"/>
+      <c r="M67" s="366"/>
+      <c r="N67" s="368"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="385"/>
+      <c r="B68" s="365"/>
       <c r="C68" s="128"/>
       <c r="D68" s="116"/>
       <c r="E68" s="116"/>
       <c r="F68" s="116"/>
       <c r="G68" s="116"/>
-      <c r="H68" s="386"/>
+      <c r="H68" s="366"/>
       <c r="I68" s="116"/>
       <c r="J68" s="116"/>
       <c r="K68" s="116"/>
       <c r="L68" s="116"/>
-      <c r="M68" s="386"/>
-      <c r="N68" s="388"/>
+      <c r="M68" s="366"/>
+      <c r="N68" s="368"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="385"/>
+      <c r="B69" s="365"/>
       <c r="C69" s="128"/>
       <c r="D69" s="116"/>
       <c r="E69" s="116"/>
       <c r="F69" s="116"/>
       <c r="G69" s="116"/>
-      <c r="H69" s="386"/>
+      <c r="H69" s="366"/>
       <c r="I69" s="116"/>
       <c r="J69" s="116"/>
       <c r="K69" s="116"/>
       <c r="L69" s="116"/>
-      <c r="M69" s="386"/>
-      <c r="N69" s="388"/>
+      <c r="M69" s="366"/>
+      <c r="N69" s="368"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="385"/>
+      <c r="B70" s="365"/>
       <c r="C70" s="128"/>
       <c r="D70" s="116"/>
       <c r="E70" s="116"/>
       <c r="F70" s="116"/>
       <c r="G70" s="116"/>
-      <c r="H70" s="386"/>
+      <c r="H70" s="366"/>
       <c r="I70" s="116"/>
       <c r="J70" s="116"/>
       <c r="K70" s="116"/>
       <c r="L70" s="116"/>
-      <c r="M70" s="386"/>
-      <c r="N70" s="405"/>
+      <c r="M70" s="366"/>
+      <c r="N70" s="420"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="385"/>
+      <c r="B71" s="365"/>
       <c r="C71" s="128"/>
       <c r="D71" s="116"/>
       <c r="E71" s="116"/>
       <c r="F71" s="116"/>
       <c r="G71" s="116"/>
-      <c r="H71" s="386"/>
+      <c r="H71" s="366"/>
       <c r="I71" s="116"/>
       <c r="J71" s="116"/>
       <c r="K71" s="116"/>
       <c r="L71" s="116"/>
-      <c r="M71" s="386"/>
-      <c r="N71" s="388"/>
+      <c r="M71" s="366"/>
+      <c r="N71" s="368"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="385"/>
+      <c r="B72" s="365"/>
       <c r="C72" s="128"/>
       <c r="D72" s="116"/>
       <c r="E72" s="116"/>
       <c r="F72" s="116"/>
       <c r="G72" s="116"/>
-      <c r="H72" s="386"/>
+      <c r="H72" s="366"/>
       <c r="I72" s="116"/>
       <c r="J72" s="116"/>
       <c r="K72" s="116"/>
       <c r="L72" s="116"/>
-      <c r="M72" s="386"/>
-      <c r="N72" s="388"/>
+      <c r="M72" s="366"/>
+      <c r="N72" s="368"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="385"/>
+      <c r="B73" s="365"/>
       <c r="C73" s="128"/>
       <c r="D73" s="116"/>
       <c r="E73" s="116"/>
       <c r="F73" s="116"/>
       <c r="G73" s="116"/>
-      <c r="H73" s="386"/>
+      <c r="H73" s="366"/>
       <c r="I73" s="116"/>
       <c r="J73" s="116"/>
       <c r="K73" s="116"/>
       <c r="L73" s="116"/>
-      <c r="M73" s="386"/>
-      <c r="N73" s="388"/>
+      <c r="M73" s="366"/>
+      <c r="N73" s="368"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -22647,56 +22650,24 @@
     <row r="140" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
     <mergeCell ref="U17:U20"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="R13:R16"/>
@@ -22713,24 +22684,56 @@
     <mergeCell ref="M13:M16"/>
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="O13:O16"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="H50:H53"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="243">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -833,6 +833,15 @@
   </si>
   <si>
     <t>Actual  L4 Train</t>
+  </si>
+  <si>
+    <t>Solid</t>
+  </si>
+  <si>
+    <t>Select Type:</t>
+  </si>
+  <si>
+    <t>P5</t>
   </si>
 </sst>
 </file>
@@ -1928,7 +1937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="425">
+  <cellXfs count="427">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2542,6 +2551,13 @@
     <xf numFmtId="0" fontId="159" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2690,9 +2706,6 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5112,15 +5125,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="403" t="s">
+      <c r="F1" s="406" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="403"/>
-      <c r="H1" s="403"/>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
-      <c r="L1" s="403"/>
+      <c r="G1" s="406"/>
+      <c r="H1" s="406"/>
+      <c r="I1" s="406"/>
+      <c r="J1" s="406"/>
+      <c r="K1" s="406"/>
+      <c r="L1" s="406"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -5209,22 +5222,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="404" t="s">
+      <c r="D6" s="407" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="405"/>
-      <c r="F6" s="405"/>
-      <c r="G6" s="405"/>
-      <c r="H6" s="406"/>
+      <c r="E6" s="408"/>
+      <c r="F6" s="408"/>
+      <c r="G6" s="408"/>
+      <c r="H6" s="409"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="404" t="s">
+      <c r="M6" s="407" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="405"/>
-      <c r="O6" s="405"/>
-      <c r="P6" s="405"/>
-      <c r="Q6" s="406"/>
+      <c r="N6" s="408"/>
+      <c r="O6" s="408"/>
+      <c r="P6" s="408"/>
+      <c r="Q6" s="409"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -5242,10 +5255,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="407" t="s">
+      <c r="F7" s="410" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="408"/>
+      <c r="G7" s="411"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -5268,10 +5281,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="407" t="s">
+      <c r="P7" s="410" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="408"/>
+      <c r="Q7" s="411"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -5348,7 +5361,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="395" t="s">
+      <c r="B9" s="398" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -5382,33 +5395,33 @@
         <f t="shared" ref="L9:L22" si="0">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="386">
+      <c r="M9" s="389">
         <v>20</v>
       </c>
-      <c r="N9" s="398" t="s">
+      <c r="N9" s="401" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="386">
+      <c r="O9" s="389">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="386">
+      <c r="P9" s="389">
         <v>3</v>
       </c>
-      <c r="Q9" s="386">
+      <c r="Q9" s="389">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="386">
+      <c r="R9" s="389">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="386"/>
-      <c r="T9" s="389">
+      <c r="S9" s="389"/>
+      <c r="T9" s="392">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="386">
+      <c r="U9" s="389">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -5433,7 +5446,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="396"/>
+      <c r="B10" s="399"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -5465,15 +5478,15 @@
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="387"/>
-      <c r="N10" s="399"/>
-      <c r="O10" s="387"/>
-      <c r="P10" s="387"/>
-      <c r="Q10" s="387"/>
-      <c r="R10" s="387"/>
-      <c r="S10" s="387"/>
-      <c r="T10" s="390"/>
-      <c r="U10" s="387"/>
+      <c r="M10" s="390"/>
+      <c r="N10" s="402"/>
+      <c r="O10" s="390"/>
+      <c r="P10" s="390"/>
+      <c r="Q10" s="390"/>
+      <c r="R10" s="390"/>
+      <c r="S10" s="390"/>
+      <c r="T10" s="393"/>
+      <c r="U10" s="390"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -5481,10 +5494,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="386" t="s">
+      <c r="A11" s="389" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="396"/>
+      <c r="B11" s="399"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -5495,15 +5508,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="387"/>
-      <c r="N11" s="399"/>
-      <c r="O11" s="387"/>
-      <c r="P11" s="387"/>
-      <c r="Q11" s="387"/>
-      <c r="R11" s="387"/>
-      <c r="S11" s="387"/>
-      <c r="T11" s="390"/>
-      <c r="U11" s="387"/>
+      <c r="M11" s="390"/>
+      <c r="N11" s="402"/>
+      <c r="O11" s="390"/>
+      <c r="P11" s="390"/>
+      <c r="Q11" s="390"/>
+      <c r="R11" s="390"/>
+      <c r="S11" s="390"/>
+      <c r="T11" s="393"/>
+      <c r="U11" s="390"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -5522,8 +5535,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="388"/>
-      <c r="B12" s="397"/>
+      <c r="A12" s="391"/>
+      <c r="B12" s="400"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -5534,15 +5547,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="388"/>
-      <c r="N12" s="400"/>
-      <c r="O12" s="388"/>
-      <c r="P12" s="388"/>
-      <c r="Q12" s="388"/>
-      <c r="R12" s="388"/>
-      <c r="S12" s="388"/>
-      <c r="T12" s="391"/>
-      <c r="U12" s="388"/>
+      <c r="M12" s="391"/>
+      <c r="N12" s="403"/>
+      <c r="O12" s="391"/>
+      <c r="P12" s="391"/>
+      <c r="Q12" s="391"/>
+      <c r="R12" s="391"/>
+      <c r="S12" s="391"/>
+      <c r="T12" s="394"/>
+      <c r="U12" s="391"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -5558,7 +5571,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="395" t="s">
+      <c r="B13" s="398" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -5592,33 +5605,33 @@
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="386">
+      <c r="M13" s="389">
         <v>80</v>
       </c>
-      <c r="N13" s="398" t="s">
+      <c r="N13" s="401" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="386">
+      <c r="O13" s="389">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="386">
+      <c r="P13" s="389">
         <v>2</v>
       </c>
-      <c r="Q13" s="386">
+      <c r="Q13" s="389">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="386">
+      <c r="R13" s="389">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="386"/>
-      <c r="T13" s="389">
+      <c r="S13" s="389"/>
+      <c r="T13" s="392">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="386">
+      <c r="U13" s="389">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -5641,7 +5654,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="396"/>
+      <c r="B14" s="399"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -5673,15 +5686,15 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="387"/>
-      <c r="N14" s="399"/>
-      <c r="O14" s="387"/>
-      <c r="P14" s="387"/>
-      <c r="Q14" s="387"/>
-      <c r="R14" s="387"/>
-      <c r="S14" s="387"/>
-      <c r="T14" s="390"/>
-      <c r="U14" s="387"/>
+      <c r="M14" s="390"/>
+      <c r="N14" s="402"/>
+      <c r="O14" s="390"/>
+      <c r="P14" s="390"/>
+      <c r="Q14" s="390"/>
+      <c r="R14" s="390"/>
+      <c r="S14" s="390"/>
+      <c r="T14" s="393"/>
+      <c r="U14" s="390"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -5689,10 +5702,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="401" t="s">
+      <c r="A15" s="404" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="396"/>
+      <c r="B15" s="399"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -5703,15 +5716,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="387"/>
-      <c r="N15" s="399"/>
-      <c r="O15" s="387"/>
-      <c r="P15" s="387"/>
-      <c r="Q15" s="387"/>
-      <c r="R15" s="387"/>
-      <c r="S15" s="387"/>
-      <c r="T15" s="390"/>
-      <c r="U15" s="387"/>
+      <c r="M15" s="390"/>
+      <c r="N15" s="402"/>
+      <c r="O15" s="390"/>
+      <c r="P15" s="390"/>
+      <c r="Q15" s="390"/>
+      <c r="R15" s="390"/>
+      <c r="S15" s="390"/>
+      <c r="T15" s="393"/>
+      <c r="U15" s="390"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -5721,8 +5734,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="402"/>
-      <c r="B16" s="397"/>
+      <c r="A16" s="405"/>
+      <c r="B16" s="400"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -5733,15 +5746,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="388"/>
-      <c r="N16" s="400"/>
-      <c r="O16" s="388"/>
-      <c r="P16" s="388"/>
-      <c r="Q16" s="388"/>
-      <c r="R16" s="388"/>
-      <c r="S16" s="388"/>
-      <c r="T16" s="391"/>
-      <c r="U16" s="388"/>
+      <c r="M16" s="391"/>
+      <c r="N16" s="403"/>
+      <c r="O16" s="391"/>
+      <c r="P16" s="391"/>
+      <c r="Q16" s="391"/>
+      <c r="R16" s="391"/>
+      <c r="S16" s="391"/>
+      <c r="T16" s="394"/>
+      <c r="U16" s="391"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -5752,7 +5765,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="395" t="s">
+      <c r="B17" s="398" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -5786,33 +5799,33 @@
         <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="386">
+      <c r="M17" s="389">
         <v>70</v>
       </c>
-      <c r="N17" s="398" t="s">
+      <c r="N17" s="401" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="386">
+      <c r="O17" s="389">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="386">
+      <c r="P17" s="389">
         <v>2</v>
       </c>
-      <c r="Q17" s="386">
+      <c r="Q17" s="389">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="386">
+      <c r="R17" s="389">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="386"/>
-      <c r="T17" s="389">
+      <c r="S17" s="389"/>
+      <c r="T17" s="392">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="386">
+      <c r="U17" s="389">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -5831,7 +5844,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="396"/>
+      <c r="B18" s="399"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -5863,24 +5876,24 @@
         <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="387"/>
-      <c r="N18" s="399"/>
-      <c r="O18" s="387"/>
-      <c r="P18" s="387"/>
-      <c r="Q18" s="387"/>
-      <c r="R18" s="387"/>
-      <c r="S18" s="387"/>
-      <c r="T18" s="390"/>
-      <c r="U18" s="387"/>
+      <c r="M18" s="390"/>
+      <c r="N18" s="402"/>
+      <c r="O18" s="390"/>
+      <c r="P18" s="390"/>
+      <c r="Q18" s="390"/>
+      <c r="R18" s="390"/>
+      <c r="S18" s="390"/>
+      <c r="T18" s="393"/>
+      <c r="U18" s="390"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="386" t="s">
+      <c r="A19" s="389" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="396"/>
+      <c r="B19" s="399"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -5891,22 +5904,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="387"/>
-      <c r="N19" s="399"/>
-      <c r="O19" s="387"/>
-      <c r="P19" s="387"/>
-      <c r="Q19" s="387"/>
-      <c r="R19" s="387"/>
-      <c r="S19" s="387"/>
-      <c r="T19" s="390"/>
-      <c r="U19" s="387"/>
+      <c r="M19" s="390"/>
+      <c r="N19" s="402"/>
+      <c r="O19" s="390"/>
+      <c r="P19" s="390"/>
+      <c r="Q19" s="390"/>
+      <c r="R19" s="390"/>
+      <c r="S19" s="390"/>
+      <c r="T19" s="393"/>
+      <c r="U19" s="390"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="388"/>
-      <c r="B20" s="397"/>
+      <c r="A20" s="391"/>
+      <c r="B20" s="400"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -5917,15 +5930,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="388"/>
-      <c r="N20" s="400"/>
-      <c r="O20" s="388"/>
-      <c r="P20" s="388"/>
-      <c r="Q20" s="388"/>
-      <c r="R20" s="388"/>
-      <c r="S20" s="388"/>
-      <c r="T20" s="391"/>
-      <c r="U20" s="388"/>
+      <c r="M20" s="391"/>
+      <c r="N20" s="403"/>
+      <c r="O20" s="391"/>
+      <c r="P20" s="391"/>
+      <c r="Q20" s="391"/>
+      <c r="R20" s="391"/>
+      <c r="S20" s="391"/>
+      <c r="T20" s="394"/>
+      <c r="U20" s="391"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -5934,7 +5947,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="395" t="s">
+      <c r="B21" s="398" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -5968,33 +5981,33 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="386">
+      <c r="M21" s="389">
         <v>60</v>
       </c>
-      <c r="N21" s="398" t="s">
+      <c r="N21" s="401" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="386">
+      <c r="O21" s="389">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="386">
+      <c r="P21" s="389">
         <v>3</v>
       </c>
-      <c r="Q21" s="386">
+      <c r="Q21" s="389">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="386">
+      <c r="R21" s="389">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="386"/>
-      <c r="T21" s="389">
+      <c r="S21" s="389"/>
+      <c r="T21" s="392">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="386">
+      <c r="U21" s="389">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -6011,7 +6024,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="396"/>
+      <c r="B22" s="399"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -6043,24 +6056,24 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="387"/>
-      <c r="N22" s="399"/>
-      <c r="O22" s="387"/>
-      <c r="P22" s="387"/>
-      <c r="Q22" s="387"/>
-      <c r="R22" s="387"/>
-      <c r="S22" s="387"/>
-      <c r="T22" s="390"/>
-      <c r="U22" s="387"/>
+      <c r="M22" s="390"/>
+      <c r="N22" s="402"/>
+      <c r="O22" s="390"/>
+      <c r="P22" s="390"/>
+      <c r="Q22" s="390"/>
+      <c r="R22" s="390"/>
+      <c r="S22" s="390"/>
+      <c r="T22" s="393"/>
+      <c r="U22" s="390"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="392" t="s">
+      <c r="A23" s="395" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="396"/>
+      <c r="B23" s="399"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -6071,22 +6084,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="387"/>
-      <c r="N23" s="399"/>
-      <c r="O23" s="387"/>
-      <c r="P23" s="387"/>
-      <c r="Q23" s="387"/>
-      <c r="R23" s="387"/>
-      <c r="S23" s="387"/>
-      <c r="T23" s="390"/>
-      <c r="U23" s="387"/>
+      <c r="M23" s="390"/>
+      <c r="N23" s="402"/>
+      <c r="O23" s="390"/>
+      <c r="P23" s="390"/>
+      <c r="Q23" s="390"/>
+      <c r="R23" s="390"/>
+      <c r="S23" s="390"/>
+      <c r="T23" s="393"/>
+      <c r="U23" s="390"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="393"/>
-      <c r="B24" s="397"/>
+      <c r="A24" s="396"/>
+      <c r="B24" s="400"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -6097,15 +6110,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="388"/>
-      <c r="N24" s="400"/>
-      <c r="O24" s="388"/>
-      <c r="P24" s="388"/>
-      <c r="Q24" s="388"/>
-      <c r="R24" s="388"/>
-      <c r="S24" s="388"/>
-      <c r="T24" s="391"/>
-      <c r="U24" s="388"/>
+      <c r="M24" s="391"/>
+      <c r="N24" s="403"/>
+      <c r="O24" s="391"/>
+      <c r="P24" s="391"/>
+      <c r="Q24" s="391"/>
+      <c r="R24" s="391"/>
+      <c r="S24" s="391"/>
+      <c r="T24" s="394"/>
+      <c r="U24" s="391"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -6131,13 +6144,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="394" t="s">
+      <c r="H27" s="397" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="394"/>
-      <c r="J27" s="394"/>
-      <c r="K27" s="394"/>
-      <c r="L27" s="394"/>
+      <c r="I27" s="397"/>
+      <c r="J27" s="397"/>
+      <c r="K27" s="397"/>
+      <c r="L27" s="397"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -6417,19 +6430,19 @@
     <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="384" t="s">
+      <c r="D40" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="384"/>
-      <c r="F40" s="384"/>
-      <c r="G40" s="384"/>
-      <c r="H40" s="384"/>
-      <c r="I40" s="384" t="s">
+      <c r="E40" s="387"/>
+      <c r="F40" s="387"/>
+      <c r="G40" s="387"/>
+      <c r="H40" s="387"/>
+      <c r="I40" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="384"/>
-      <c r="K40" s="384"/>
-      <c r="L40" s="384"/>
+      <c r="J40" s="387"/>
+      <c r="K40" s="387"/>
+      <c r="L40" s="387"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -6553,7 +6566,7 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="379" t="s">
+      <c r="B42" s="382" t="s">
         <v>226</v>
       </c>
       <c r="C42" s="190"/>
@@ -6561,17 +6574,17 @@
       <c r="E42" s="111"/>
       <c r="F42" s="189"/>
       <c r="G42" s="189"/>
-      <c r="H42" s="380">
+      <c r="H42" s="383">
         <v>3.095975611358881E-3</v>
       </c>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="189"/>
       <c r="L42" s="189"/>
-      <c r="M42" s="380">
+      <c r="M42" s="383">
         <v>1</v>
       </c>
-      <c r="N42" s="385" t="s">
+      <c r="N42" s="388" t="s">
         <v>59</v>
       </c>
       <c r="P42" s="91"/>
@@ -6619,7 +6632,7 @@
       <c r="AN42" s="88"/>
     </row>
     <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="379"/>
+      <c r="B43" s="382"/>
       <c r="C43" s="190" t="s">
         <v>220</v>
       </c>
@@ -6635,7 +6648,7 @@
       <c r="G43" s="103">
         <v>97.126746422628088</v>
       </c>
-      <c r="H43" s="380"/>
+      <c r="H43" s="383"/>
       <c r="I43" s="111">
         <v>1</v>
       </c>
@@ -6648,8 +6661,8 @@
       <c r="L43" s="103">
         <v>1</v>
       </c>
-      <c r="M43" s="380"/>
-      <c r="N43" s="380"/>
+      <c r="M43" s="383"/>
+      <c r="N43" s="383"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -6695,7 +6708,7 @@
       <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="379"/>
+      <c r="B44" s="382"/>
       <c r="C44" s="190" t="s">
         <v>218</v>
       </c>
@@ -6711,7 +6724,7 @@
       <c r="G44" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H44" s="380"/>
+      <c r="H44" s="383"/>
       <c r="I44" s="111">
         <v>1</v>
       </c>
@@ -6724,8 +6737,8 @@
       <c r="L44" s="189">
         <v>1</v>
       </c>
-      <c r="M44" s="380"/>
-      <c r="N44" s="380"/>
+      <c r="M44" s="383"/>
+      <c r="N44" s="383"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -6771,7 +6784,7 @@
       <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="379"/>
+      <c r="B45" s="382"/>
       <c r="C45" s="190" t="s">
         <v>219</v>
       </c>
@@ -6787,7 +6800,7 @@
       <c r="G45" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H45" s="380"/>
+      <c r="H45" s="383"/>
       <c r="I45" s="111">
         <v>1</v>
       </c>
@@ -6800,8 +6813,8 @@
       <c r="L45" s="189">
         <v>1</v>
       </c>
-      <c r="M45" s="380"/>
-      <c r="N45" s="380"/>
+      <c r="M45" s="383"/>
+      <c r="N45" s="383"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -6847,19 +6860,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="379"/>
+      <c r="B46" s="382"/>
       <c r="C46" s="190"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="189"/>
       <c r="G46" s="189"/>
-      <c r="H46" s="380"/>
+      <c r="H46" s="383"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="189"/>
       <c r="L46" s="189"/>
-      <c r="M46" s="380"/>
-      <c r="N46" s="381"/>
+      <c r="M46" s="383"/>
+      <c r="N46" s="384"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -6905,19 +6918,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="379"/>
+      <c r="B47" s="382"/>
       <c r="C47" s="190"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="380"/>
+      <c r="H47" s="383"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="382"/>
+      <c r="M47" s="383"/>
+      <c r="N47" s="385"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -6965,19 +6978,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="379"/>
+      <c r="B48" s="382"/>
       <c r="C48" s="190"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="380"/>
+      <c r="H48" s="383"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="380"/>
-      <c r="N48" s="382"/>
+      <c r="M48" s="383"/>
+      <c r="N48" s="385"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -7025,19 +7038,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="379"/>
+      <c r="B49" s="382"/>
       <c r="C49" s="190"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="380"/>
+      <c r="H49" s="383"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="380"/>
-      <c r="N49" s="382"/>
+      <c r="M49" s="383"/>
+      <c r="N49" s="385"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -7085,19 +7098,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="374"/>
+      <c r="B50" s="377"/>
       <c r="C50" s="191"/>
       <c r="D50" s="187"/>
       <c r="E50" s="187"/>
       <c r="F50" s="187"/>
       <c r="G50" s="187"/>
-      <c r="H50" s="375"/>
+      <c r="H50" s="378"/>
       <c r="I50" s="187"/>
       <c r="J50" s="187"/>
       <c r="K50" s="187"/>
       <c r="L50" s="187"/>
-      <c r="M50" s="375"/>
-      <c r="N50" s="383"/>
+      <c r="M50" s="378"/>
+      <c r="N50" s="386"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -7118,19 +7131,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="374"/>
+      <c r="B51" s="377"/>
       <c r="C51" s="191"/>
       <c r="D51" s="187"/>
       <c r="E51" s="187"/>
       <c r="F51" s="187"/>
       <c r="G51" s="187"/>
-      <c r="H51" s="375"/>
+      <c r="H51" s="378"/>
       <c r="I51" s="187"/>
       <c r="J51" s="187"/>
       <c r="K51" s="187"/>
       <c r="L51" s="187"/>
-      <c r="M51" s="375"/>
-      <c r="N51" s="377"/>
+      <c r="M51" s="378"/>
+      <c r="N51" s="380"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -7161,19 +7174,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="374"/>
+      <c r="B52" s="377"/>
       <c r="C52" s="191"/>
       <c r="D52" s="187"/>
       <c r="E52" s="187"/>
       <c r="F52" s="187"/>
       <c r="G52" s="187"/>
-      <c r="H52" s="375"/>
+      <c r="H52" s="378"/>
       <c r="I52" s="187"/>
       <c r="J52" s="187"/>
       <c r="K52" s="187"/>
       <c r="L52" s="187"/>
-      <c r="M52" s="375"/>
-      <c r="N52" s="377"/>
+      <c r="M52" s="378"/>
+      <c r="N52" s="380"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -7237,19 +7250,19 @@
       </c>
     </row>
     <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="374"/>
+      <c r="B53" s="377"/>
       <c r="C53" s="191"/>
       <c r="D53" s="187"/>
       <c r="E53" s="187"/>
       <c r="F53" s="187"/>
       <c r="G53" s="187"/>
-      <c r="H53" s="375"/>
+      <c r="H53" s="378"/>
       <c r="I53" s="187"/>
       <c r="J53" s="187"/>
       <c r="K53" s="187"/>
       <c r="L53" s="187"/>
-      <c r="M53" s="375"/>
-      <c r="N53" s="377"/>
+      <c r="M53" s="378"/>
+      <c r="N53" s="380"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -7298,19 +7311,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="374"/>
+      <c r="B54" s="377"/>
       <c r="C54" s="191"/>
       <c r="D54" s="187"/>
       <c r="E54" s="187"/>
       <c r="F54" s="187"/>
       <c r="G54" s="187"/>
-      <c r="H54" s="375"/>
+      <c r="H54" s="378"/>
       <c r="I54" s="187"/>
       <c r="J54" s="187"/>
       <c r="K54" s="187"/>
       <c r="L54" s="187"/>
-      <c r="M54" s="375"/>
-      <c r="N54" s="376"/>
+      <c r="M54" s="378"/>
+      <c r="N54" s="379"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -7357,19 +7370,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="374"/>
+      <c r="B55" s="377"/>
       <c r="C55" s="191"/>
       <c r="D55" s="187"/>
       <c r="E55" s="187"/>
       <c r="F55" s="187"/>
       <c r="G55" s="187"/>
-      <c r="H55" s="375"/>
+      <c r="H55" s="378"/>
       <c r="I55" s="187"/>
       <c r="J55" s="187"/>
       <c r="K55" s="187"/>
       <c r="L55" s="187"/>
-      <c r="M55" s="375"/>
-      <c r="N55" s="377"/>
+      <c r="M55" s="378"/>
+      <c r="N55" s="380"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -7416,19 +7429,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="374"/>
+      <c r="B56" s="377"/>
       <c r="C56" s="191"/>
       <c r="D56" s="187"/>
       <c r="E56" s="187"/>
       <c r="F56" s="187"/>
       <c r="G56" s="187"/>
-      <c r="H56" s="375"/>
+      <c r="H56" s="378"/>
       <c r="I56" s="187"/>
       <c r="J56" s="187"/>
       <c r="K56" s="187"/>
       <c r="L56" s="187"/>
-      <c r="M56" s="375"/>
-      <c r="N56" s="377"/>
+      <c r="M56" s="378"/>
+      <c r="N56" s="380"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -7475,19 +7488,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="374"/>
+      <c r="B57" s="377"/>
       <c r="C57" s="191"/>
       <c r="D57" s="187"/>
       <c r="E57" s="187"/>
       <c r="F57" s="187"/>
       <c r="G57" s="187"/>
-      <c r="H57" s="375"/>
+      <c r="H57" s="378"/>
       <c r="I57" s="187"/>
       <c r="J57" s="187"/>
       <c r="K57" s="187"/>
       <c r="L57" s="187"/>
-      <c r="M57" s="375"/>
-      <c r="N57" s="377"/>
+      <c r="M57" s="378"/>
+      <c r="N57" s="380"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -7534,19 +7547,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="369"/>
+      <c r="B58" s="372"/>
       <c r="C58" s="185"/>
       <c r="D58" s="192"/>
       <c r="E58" s="192"/>
       <c r="F58" s="192"/>
       <c r="G58" s="192"/>
-      <c r="H58" s="370"/>
+      <c r="H58" s="373"/>
       <c r="I58" s="192"/>
       <c r="J58" s="192"/>
       <c r="K58" s="192"/>
       <c r="L58" s="192"/>
-      <c r="M58" s="370"/>
-      <c r="N58" s="378"/>
+      <c r="M58" s="373"/>
+      <c r="N58" s="381"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -7593,19 +7606,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="369"/>
+      <c r="B59" s="372"/>
       <c r="C59" s="185"/>
       <c r="D59" s="192"/>
       <c r="E59" s="192"/>
       <c r="F59" s="192"/>
       <c r="G59" s="192"/>
-      <c r="H59" s="370"/>
+      <c r="H59" s="373"/>
       <c r="I59" s="192"/>
       <c r="J59" s="192"/>
       <c r="K59" s="192"/>
       <c r="L59" s="192"/>
-      <c r="M59" s="370"/>
-      <c r="N59" s="372"/>
+      <c r="M59" s="373"/>
+      <c r="N59" s="375"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -7652,19 +7665,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="369"/>
+      <c r="B60" s="372"/>
       <c r="C60" s="185"/>
       <c r="D60" s="192"/>
       <c r="E60" s="192"/>
       <c r="F60" s="192"/>
       <c r="G60" s="192"/>
-      <c r="H60" s="370"/>
+      <c r="H60" s="373"/>
       <c r="I60" s="192"/>
       <c r="J60" s="192"/>
       <c r="K60" s="192"/>
       <c r="L60" s="192"/>
-      <c r="M60" s="370"/>
-      <c r="N60" s="372"/>
+      <c r="M60" s="373"/>
+      <c r="N60" s="375"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -7711,247 +7724,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="369"/>
+      <c r="B61" s="372"/>
       <c r="C61" s="185"/>
       <c r="D61" s="192"/>
       <c r="E61" s="192"/>
       <c r="F61" s="192"/>
       <c r="G61" s="192"/>
-      <c r="H61" s="370"/>
+      <c r="H61" s="373"/>
       <c r="I61" s="192"/>
       <c r="J61" s="192"/>
       <c r="K61" s="192"/>
       <c r="L61" s="192"/>
-      <c r="M61" s="370"/>
-      <c r="N61" s="372"/>
+      <c r="M61" s="373"/>
+      <c r="N61" s="375"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="369"/>
+      <c r="B62" s="372"/>
       <c r="C62" s="185"/>
       <c r="D62" s="192"/>
       <c r="E62" s="192"/>
       <c r="F62" s="192"/>
       <c r="G62" s="192"/>
-      <c r="H62" s="370"/>
+      <c r="H62" s="373"/>
       <c r="I62" s="192"/>
       <c r="J62" s="192"/>
       <c r="K62" s="192"/>
       <c r="L62" s="192"/>
-      <c r="M62" s="370"/>
-      <c r="N62" s="371"/>
+      <c r="M62" s="373"/>
+      <c r="N62" s="374"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="369"/>
+      <c r="B63" s="372"/>
       <c r="C63" s="185"/>
       <c r="D63" s="192"/>
       <c r="E63" s="192"/>
       <c r="F63" s="192"/>
       <c r="G63" s="192"/>
-      <c r="H63" s="370"/>
+      <c r="H63" s="373"/>
       <c r="I63" s="192"/>
       <c r="J63" s="192"/>
       <c r="K63" s="192"/>
       <c r="L63" s="192"/>
-      <c r="M63" s="370"/>
-      <c r="N63" s="372"/>
+      <c r="M63" s="373"/>
+      <c r="N63" s="375"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="369"/>
+      <c r="B64" s="372"/>
       <c r="C64" s="185"/>
       <c r="D64" s="192"/>
       <c r="E64" s="192"/>
       <c r="F64" s="192"/>
       <c r="G64" s="192"/>
-      <c r="H64" s="370"/>
+      <c r="H64" s="373"/>
       <c r="I64" s="192"/>
       <c r="J64" s="192"/>
       <c r="K64" s="192"/>
       <c r="L64" s="192"/>
-      <c r="M64" s="370"/>
-      <c r="N64" s="372"/>
+      <c r="M64" s="373"/>
+      <c r="N64" s="375"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="369"/>
+      <c r="B65" s="372"/>
       <c r="C65" s="185"/>
       <c r="D65" s="192"/>
       <c r="E65" s="192"/>
       <c r="F65" s="192"/>
       <c r="G65" s="192"/>
-      <c r="H65" s="370"/>
+      <c r="H65" s="373"/>
       <c r="I65" s="192"/>
       <c r="J65" s="192"/>
       <c r="K65" s="192"/>
       <c r="L65" s="192"/>
-      <c r="M65" s="370"/>
-      <c r="N65" s="372"/>
+      <c r="M65" s="373"/>
+      <c r="N65" s="375"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="365"/>
+      <c r="B66" s="368"/>
       <c r="C66" s="186"/>
       <c r="D66" s="188"/>
       <c r="E66" s="188"/>
       <c r="F66" s="188"/>
       <c r="G66" s="188"/>
-      <c r="H66" s="366"/>
+      <c r="H66" s="369"/>
       <c r="I66" s="188"/>
       <c r="J66" s="188"/>
       <c r="K66" s="188"/>
       <c r="L66" s="188"/>
-      <c r="M66" s="366"/>
-      <c r="N66" s="373"/>
+      <c r="M66" s="369"/>
+      <c r="N66" s="376"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="365"/>
+      <c r="B67" s="368"/>
       <c r="C67" s="186"/>
       <c r="D67" s="188"/>
       <c r="E67" s="188"/>
       <c r="F67" s="188"/>
       <c r="G67" s="188"/>
-      <c r="H67" s="366"/>
+      <c r="H67" s="369"/>
       <c r="I67" s="188"/>
       <c r="J67" s="188"/>
       <c r="K67" s="188"/>
       <c r="L67" s="188"/>
-      <c r="M67" s="366"/>
-      <c r="N67" s="368"/>
+      <c r="M67" s="369"/>
+      <c r="N67" s="371"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="365"/>
+      <c r="B68" s="368"/>
       <c r="C68" s="186"/>
       <c r="D68" s="188"/>
       <c r="E68" s="188"/>
       <c r="F68" s="188"/>
       <c r="G68" s="188"/>
-      <c r="H68" s="366"/>
+      <c r="H68" s="369"/>
       <c r="I68" s="188"/>
       <c r="J68" s="188"/>
       <c r="K68" s="188"/>
       <c r="L68" s="188"/>
-      <c r="M68" s="366"/>
-      <c r="N68" s="368"/>
+      <c r="M68" s="369"/>
+      <c r="N68" s="371"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="365"/>
+      <c r="B69" s="368"/>
       <c r="C69" s="186"/>
       <c r="D69" s="188"/>
       <c r="E69" s="188"/>
       <c r="F69" s="188"/>
       <c r="G69" s="188"/>
-      <c r="H69" s="366"/>
+      <c r="H69" s="369"/>
       <c r="I69" s="188"/>
       <c r="J69" s="188"/>
       <c r="K69" s="188"/>
       <c r="L69" s="188"/>
-      <c r="M69" s="366"/>
-      <c r="N69" s="368"/>
+      <c r="M69" s="369"/>
+      <c r="N69" s="371"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="365"/>
+      <c r="B70" s="368"/>
       <c r="C70" s="186"/>
       <c r="D70" s="188"/>
       <c r="E70" s="188"/>
       <c r="F70" s="188"/>
       <c r="G70" s="188"/>
-      <c r="H70" s="366"/>
+      <c r="H70" s="369"/>
       <c r="I70" s="188"/>
       <c r="J70" s="188"/>
       <c r="K70" s="188"/>
       <c r="L70" s="188"/>
-      <c r="M70" s="366"/>
-      <c r="N70" s="367"/>
+      <c r="M70" s="369"/>
+      <c r="N70" s="370"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="365"/>
+      <c r="B71" s="368"/>
       <c r="C71" s="186"/>
       <c r="D71" s="188"/>
       <c r="E71" s="188"/>
       <c r="F71" s="188"/>
       <c r="G71" s="188"/>
-      <c r="H71" s="366"/>
+      <c r="H71" s="369"/>
       <c r="I71" s="188"/>
       <c r="J71" s="188"/>
       <c r="K71" s="188"/>
       <c r="L71" s="188"/>
-      <c r="M71" s="366"/>
-      <c r="N71" s="368"/>
+      <c r="M71" s="369"/>
+      <c r="N71" s="371"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="365"/>
+      <c r="B72" s="368"/>
       <c r="C72" s="186"/>
       <c r="D72" s="188"/>
       <c r="E72" s="188"/>
       <c r="F72" s="188"/>
       <c r="G72" s="188"/>
-      <c r="H72" s="366"/>
+      <c r="H72" s="369"/>
       <c r="I72" s="188"/>
       <c r="J72" s="188"/>
       <c r="K72" s="188"/>
       <c r="L72" s="188"/>
-      <c r="M72" s="366"/>
-      <c r="N72" s="368"/>
+      <c r="M72" s="369"/>
+      <c r="N72" s="371"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="365"/>
+      <c r="B73" s="368"/>
       <c r="C73" s="186"/>
       <c r="D73" s="188"/>
       <c r="E73" s="188"/>
       <c r="F73" s="188"/>
       <c r="G73" s="188"/>
-      <c r="H73" s="366"/>
+      <c r="H73" s="369"/>
       <c r="I73" s="188"/>
       <c r="J73" s="188"/>
       <c r="K73" s="188"/>
       <c r="L73" s="188"/>
-      <c r="M73" s="366"/>
-      <c r="N73" s="368"/>
+      <c r="M73" s="369"/>
+      <c r="N73" s="371"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -9605,12 +9618,12 @@
   <dimension ref="A1:AU434"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="27" style="22" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="33.5703125" style="22" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="11.85546875" style="22" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="36.140625" style="22" customWidth="1" collapsed="1"/>
@@ -9653,15 +9666,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="403" t="s">
+      <c r="F1" s="406" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="403"/>
-      <c r="H1" s="403"/>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
-      <c r="L1" s="403"/>
+      <c r="G1" s="406"/>
+      <c r="H1" s="406"/>
+      <c r="I1" s="406"/>
+      <c r="J1" s="406"/>
+      <c r="K1" s="406"/>
+      <c r="L1" s="406"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -9710,22 +9723,22 @@
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="404" t="s">
+      <c r="D6" s="407" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="405"/>
-      <c r="F6" s="405"/>
-      <c r="G6" s="405"/>
-      <c r="H6" s="406"/>
+      <c r="E6" s="408"/>
+      <c r="F6" s="408"/>
+      <c r="G6" s="408"/>
+      <c r="H6" s="409"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="404" t="s">
+      <c r="M6" s="407" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="405"/>
-      <c r="O6" s="405"/>
-      <c r="P6" s="405"/>
-      <c r="Q6" s="406"/>
+      <c r="N6" s="408"/>
+      <c r="O6" s="408"/>
+      <c r="P6" s="408"/>
+      <c r="Q6" s="409"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -9743,10 +9756,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="407" t="s">
+      <c r="F7" s="410" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="408"/>
+      <c r="G7" s="411"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -9769,10 +9782,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="407" t="s">
+      <c r="P7" s="410" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="408"/>
+      <c r="Q7" s="411"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -9840,7 +9853,7 @@
     </row>
     <row r="9" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="39"/>
-      <c r="B9" s="395"/>
+      <c r="B9" s="398"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -9851,15 +9864,15 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="42"/>
-      <c r="M9" s="386"/>
-      <c r="N9" s="398"/>
-      <c r="O9" s="386"/>
-      <c r="P9" s="386"/>
-      <c r="Q9" s="386"/>
-      <c r="R9" s="386"/>
-      <c r="S9" s="386"/>
-      <c r="T9" s="389"/>
-      <c r="U9" s="386"/>
+      <c r="M9" s="389"/>
+      <c r="N9" s="401"/>
+      <c r="O9" s="389"/>
+      <c r="P9" s="389"/>
+      <c r="Q9" s="389"/>
+      <c r="R9" s="389"/>
+      <c r="S9" s="389"/>
+      <c r="T9" s="392"/>
+      <c r="U9" s="389"/>
       <c r="V9" s="41"/>
       <c r="W9" s="36"/>
       <c r="X9" s="36"/>
@@ -9869,7 +9882,7 @@
     </row>
     <row r="10" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
-      <c r="B10" s="396"/>
+      <c r="B10" s="399"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -9880,15 +9893,15 @@
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="42"/>
-      <c r="M10" s="387"/>
-      <c r="N10" s="399"/>
-      <c r="O10" s="387"/>
-      <c r="P10" s="387"/>
-      <c r="Q10" s="387"/>
-      <c r="R10" s="387"/>
-      <c r="S10" s="387"/>
-      <c r="T10" s="390"/>
-      <c r="U10" s="387"/>
+      <c r="M10" s="390"/>
+      <c r="N10" s="402"/>
+      <c r="O10" s="390"/>
+      <c r="P10" s="390"/>
+      <c r="Q10" s="390"/>
+      <c r="R10" s="390"/>
+      <c r="S10" s="390"/>
+      <c r="T10" s="393"/>
+      <c r="U10" s="390"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -9896,8 +9909,8 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="386"/>
-      <c r="B11" s="396"/>
+      <c r="A11" s="389"/>
+      <c r="B11" s="399"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -9908,15 +9921,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="387"/>
-      <c r="N11" s="399"/>
-      <c r="O11" s="387"/>
-      <c r="P11" s="387"/>
-      <c r="Q11" s="387"/>
-      <c r="R11" s="387"/>
-      <c r="S11" s="387"/>
-      <c r="T11" s="390"/>
-      <c r="U11" s="387"/>
+      <c r="M11" s="390"/>
+      <c r="N11" s="402"/>
+      <c r="O11" s="390"/>
+      <c r="P11" s="390"/>
+      <c r="Q11" s="390"/>
+      <c r="R11" s="390"/>
+      <c r="S11" s="390"/>
+      <c r="T11" s="393"/>
+      <c r="U11" s="390"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -9926,8 +9939,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="388"/>
-      <c r="B12" s="397"/>
+      <c r="A12" s="391"/>
+      <c r="B12" s="400"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -9938,15 +9951,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="388"/>
-      <c r="N12" s="400"/>
-      <c r="O12" s="388"/>
-      <c r="P12" s="388"/>
-      <c r="Q12" s="388"/>
-      <c r="R12" s="388"/>
-      <c r="S12" s="388"/>
-      <c r="T12" s="391"/>
-      <c r="U12" s="388"/>
+      <c r="M12" s="391"/>
+      <c r="N12" s="403"/>
+      <c r="O12" s="391"/>
+      <c r="P12" s="391"/>
+      <c r="Q12" s="391"/>
+      <c r="R12" s="391"/>
+      <c r="S12" s="391"/>
+      <c r="T12" s="394"/>
+      <c r="U12" s="391"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -9955,7 +9968,7 @@
     </row>
     <row r="13" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43"/>
-      <c r="B13" s="395"/>
+      <c r="B13" s="398"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -9966,15 +9979,15 @@
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
       <c r="L13" s="42"/>
-      <c r="M13" s="386"/>
-      <c r="N13" s="398"/>
-      <c r="O13" s="386"/>
-      <c r="P13" s="386"/>
-      <c r="Q13" s="386"/>
-      <c r="R13" s="386"/>
-      <c r="S13" s="386"/>
-      <c r="T13" s="389"/>
-      <c r="U13" s="386"/>
+      <c r="M13" s="389"/>
+      <c r="N13" s="401"/>
+      <c r="O13" s="389"/>
+      <c r="P13" s="389"/>
+      <c r="Q13" s="389"/>
+      <c r="R13" s="389"/>
+      <c r="S13" s="389"/>
+      <c r="T13" s="392"/>
+      <c r="U13" s="389"/>
       <c r="V13" s="41"/>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
@@ -9983,7 +9996,7 @@
     </row>
     <row r="14" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
-      <c r="B14" s="396"/>
+      <c r="B14" s="399"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -9994,15 +10007,15 @@
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
       <c r="L14" s="42"/>
-      <c r="M14" s="387"/>
-      <c r="N14" s="399"/>
-      <c r="O14" s="387"/>
-      <c r="P14" s="387"/>
-      <c r="Q14" s="387"/>
-      <c r="R14" s="387"/>
-      <c r="S14" s="387"/>
-      <c r="T14" s="390"/>
-      <c r="U14" s="387"/>
+      <c r="M14" s="390"/>
+      <c r="N14" s="402"/>
+      <c r="O14" s="390"/>
+      <c r="P14" s="390"/>
+      <c r="Q14" s="390"/>
+      <c r="R14" s="390"/>
+      <c r="S14" s="390"/>
+      <c r="T14" s="393"/>
+      <c r="U14" s="390"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -10010,8 +10023,8 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="401"/>
-      <c r="B15" s="396"/>
+      <c r="A15" s="404"/>
+      <c r="B15" s="399"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -10022,15 +10035,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="387"/>
-      <c r="N15" s="399"/>
-      <c r="O15" s="387"/>
-      <c r="P15" s="387"/>
-      <c r="Q15" s="387"/>
-      <c r="R15" s="387"/>
-      <c r="S15" s="387"/>
-      <c r="T15" s="390"/>
-      <c r="U15" s="387"/>
+      <c r="M15" s="390"/>
+      <c r="N15" s="402"/>
+      <c r="O15" s="390"/>
+      <c r="P15" s="390"/>
+      <c r="Q15" s="390"/>
+      <c r="R15" s="390"/>
+      <c r="S15" s="390"/>
+      <c r="T15" s="393"/>
+      <c r="U15" s="390"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -10038,8 +10051,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="402"/>
-      <c r="B16" s="397"/>
+      <c r="A16" s="405"/>
+      <c r="B16" s="400"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -10050,15 +10063,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="388"/>
-      <c r="N16" s="400"/>
-      <c r="O16" s="388"/>
-      <c r="P16" s="388"/>
-      <c r="Q16" s="388"/>
-      <c r="R16" s="388"/>
-      <c r="S16" s="388"/>
-      <c r="T16" s="391"/>
-      <c r="U16" s="388"/>
+      <c r="M16" s="391"/>
+      <c r="N16" s="403"/>
+      <c r="O16" s="391"/>
+      <c r="P16" s="391"/>
+      <c r="Q16" s="391"/>
+      <c r="R16" s="391"/>
+      <c r="S16" s="391"/>
+      <c r="T16" s="394"/>
+      <c r="U16" s="391"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -10067,7 +10080,7 @@
     </row>
     <row r="17" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39"/>
-      <c r="B17" s="395"/>
+      <c r="B17" s="398"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -10078,15 +10091,15 @@
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
       <c r="L17" s="42"/>
-      <c r="M17" s="386"/>
-      <c r="N17" s="398"/>
-      <c r="O17" s="386"/>
-      <c r="P17" s="386"/>
-      <c r="Q17" s="386"/>
-      <c r="R17" s="386"/>
-      <c r="S17" s="386"/>
-      <c r="T17" s="389"/>
-      <c r="U17" s="386"/>
+      <c r="M17" s="389"/>
+      <c r="N17" s="401"/>
+      <c r="O17" s="389"/>
+      <c r="P17" s="389"/>
+      <c r="Q17" s="389"/>
+      <c r="R17" s="389"/>
+      <c r="S17" s="389"/>
+      <c r="T17" s="392"/>
+      <c r="U17" s="389"/>
       <c r="V17" s="41"/>
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
@@ -10095,7 +10108,7 @@
     </row>
     <row r="18" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
-      <c r="B18" s="396"/>
+      <c r="B18" s="399"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -10106,22 +10119,22 @@
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="42"/>
-      <c r="M18" s="387"/>
-      <c r="N18" s="399"/>
-      <c r="O18" s="387"/>
-      <c r="P18" s="387"/>
-      <c r="Q18" s="387"/>
-      <c r="R18" s="387"/>
-      <c r="S18" s="387"/>
-      <c r="T18" s="390"/>
-      <c r="U18" s="387"/>
+      <c r="M18" s="390"/>
+      <c r="N18" s="402"/>
+      <c r="O18" s="390"/>
+      <c r="P18" s="390"/>
+      <c r="Q18" s="390"/>
+      <c r="R18" s="390"/>
+      <c r="S18" s="390"/>
+      <c r="T18" s="393"/>
+      <c r="U18" s="390"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="386"/>
-      <c r="B19" s="396"/>
+      <c r="A19" s="389"/>
+      <c r="B19" s="399"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -10132,22 +10145,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="387"/>
-      <c r="N19" s="399"/>
-      <c r="O19" s="387"/>
-      <c r="P19" s="387"/>
-      <c r="Q19" s="387"/>
-      <c r="R19" s="387"/>
-      <c r="S19" s="387"/>
-      <c r="T19" s="390"/>
-      <c r="U19" s="387"/>
+      <c r="M19" s="390"/>
+      <c r="N19" s="402"/>
+      <c r="O19" s="390"/>
+      <c r="P19" s="390"/>
+      <c r="Q19" s="390"/>
+      <c r="R19" s="390"/>
+      <c r="S19" s="390"/>
+      <c r="T19" s="393"/>
+      <c r="U19" s="390"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="388"/>
-      <c r="B20" s="397"/>
+      <c r="A20" s="391"/>
+      <c r="B20" s="400"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -10158,22 +10171,22 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="388"/>
-      <c r="N20" s="400"/>
-      <c r="O20" s="388"/>
-      <c r="P20" s="388"/>
-      <c r="Q20" s="388"/>
-      <c r="R20" s="388"/>
-      <c r="S20" s="388"/>
-      <c r="T20" s="391"/>
-      <c r="U20" s="388"/>
+      <c r="M20" s="391"/>
+      <c r="N20" s="403"/>
+      <c r="O20" s="391"/>
+      <c r="P20" s="391"/>
+      <c r="Q20" s="391"/>
+      <c r="R20" s="391"/>
+      <c r="S20" s="391"/>
+      <c r="T20" s="394"/>
+      <c r="U20" s="391"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
     </row>
     <row r="21" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39"/>
-      <c r="B21" s="395"/>
+      <c r="B21" s="398"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -10184,22 +10197,22 @@
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
       <c r="L21" s="42"/>
-      <c r="M21" s="386"/>
-      <c r="N21" s="398"/>
-      <c r="O21" s="386"/>
-      <c r="P21" s="386"/>
-      <c r="Q21" s="386"/>
-      <c r="R21" s="386"/>
-      <c r="S21" s="386"/>
-      <c r="T21" s="389"/>
-      <c r="U21" s="386"/>
+      <c r="M21" s="389"/>
+      <c r="N21" s="401"/>
+      <c r="O21" s="389"/>
+      <c r="P21" s="389"/>
+      <c r="Q21" s="389"/>
+      <c r="R21" s="389"/>
+      <c r="S21" s="389"/>
+      <c r="T21" s="392"/>
+      <c r="U21" s="389"/>
       <c r="V21" s="41"/>
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
     </row>
     <row r="22" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="40"/>
-      <c r="B22" s="396"/>
+      <c r="B22" s="399"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -10210,22 +10223,22 @@
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
       <c r="L22" s="42"/>
-      <c r="M22" s="387"/>
-      <c r="N22" s="399"/>
-      <c r="O22" s="387"/>
-      <c r="P22" s="387"/>
-      <c r="Q22" s="387"/>
-      <c r="R22" s="387"/>
-      <c r="S22" s="387"/>
-      <c r="T22" s="390"/>
-      <c r="U22" s="387"/>
+      <c r="M22" s="390"/>
+      <c r="N22" s="402"/>
+      <c r="O22" s="390"/>
+      <c r="P22" s="390"/>
+      <c r="Q22" s="390"/>
+      <c r="R22" s="390"/>
+      <c r="S22" s="390"/>
+      <c r="T22" s="393"/>
+      <c r="U22" s="390"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="392"/>
-      <c r="B23" s="396"/>
+      <c r="A23" s="395"/>
+      <c r="B23" s="399"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -10236,22 +10249,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="387"/>
-      <c r="N23" s="399"/>
-      <c r="O23" s="387"/>
-      <c r="P23" s="387"/>
-      <c r="Q23" s="387"/>
-      <c r="R23" s="387"/>
-      <c r="S23" s="387"/>
-      <c r="T23" s="390"/>
-      <c r="U23" s="387"/>
+      <c r="M23" s="390"/>
+      <c r="N23" s="402"/>
+      <c r="O23" s="390"/>
+      <c r="P23" s="390"/>
+      <c r="Q23" s="390"/>
+      <c r="R23" s="390"/>
+      <c r="S23" s="390"/>
+      <c r="T23" s="393"/>
+      <c r="U23" s="390"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="393"/>
-      <c r="B24" s="397"/>
+      <c r="A24" s="396"/>
+      <c r="B24" s="400"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -10262,15 +10275,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="388"/>
-      <c r="N24" s="400"/>
-      <c r="O24" s="388"/>
-      <c r="P24" s="388"/>
-      <c r="Q24" s="388"/>
-      <c r="R24" s="388"/>
-      <c r="S24" s="388"/>
-      <c r="T24" s="391"/>
-      <c r="U24" s="388"/>
+      <c r="M24" s="391"/>
+      <c r="N24" s="403"/>
+      <c r="O24" s="391"/>
+      <c r="P24" s="391"/>
+      <c r="Q24" s="391"/>
+      <c r="R24" s="391"/>
+      <c r="S24" s="391"/>
+      <c r="T24" s="394"/>
+      <c r="U24" s="391"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -10576,36 +10589,42 @@
       <c r="AN39" s="23"/>
       <c r="AO39" s="23"/>
     </row>
-    <row r="40" spans="1:41" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:41" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="366" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="367" t="s">
+        <v>240</v>
+      </c>
       <c r="D40" s="104"/>
       <c r="E40" s="105"/>
-      <c r="F40" s="410" t="s">
+      <c r="F40" s="413" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="411"/>
-      <c r="H40" s="411"/>
-      <c r="I40" s="412"/>
-      <c r="J40" s="413" t="s">
+      <c r="G40" s="414"/>
+      <c r="H40" s="414"/>
+      <c r="I40" s="415"/>
+      <c r="J40" s="416" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="414"/>
-      <c r="L40" s="414"/>
-      <c r="M40" s="415"/>
+      <c r="K40" s="417"/>
+      <c r="L40" s="417"/>
+      <c r="M40" s="418"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
       </c>
       <c r="P40" s="227"/>
-      <c r="Q40" s="409" t="s">
+      <c r="Q40" s="412" t="s">
         <v>234</v>
       </c>
-      <c r="R40" s="409"/>
-      <c r="S40" s="409"/>
-      <c r="T40" s="409"/>
-      <c r="U40" s="409"/>
-      <c r="V40" s="409"/>
-      <c r="W40" s="409"/>
-      <c r="X40" s="409"/>
-      <c r="Y40" s="409"/>
+      <c r="R40" s="412"/>
+      <c r="S40" s="412"/>
+      <c r="T40" s="412"/>
+      <c r="U40" s="412"/>
+      <c r="V40" s="412"/>
+      <c r="W40" s="412"/>
+      <c r="X40" s="412"/>
+      <c r="Y40" s="412"/>
       <c r="Z40" s="46"/>
       <c r="AA40" s="46"/>
       <c r="AB40" s="46"/>
@@ -10624,10 +10643,10 @@
       <c r="AO40" s="23"/>
     </row>
     <row r="41" spans="1:41" ht="75.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="424" t="s">
+      <c r="A41" s="365" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="424" t="s">
+      <c r="B41" s="365" t="s">
         <v>217</v>
       </c>
       <c r="D41" s="253" t="s">
@@ -10914,7 +10933,9 @@
     </row>
     <row r="46" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="310"/>
-      <c r="B46" s="310"/>
+      <c r="B46" s="310" t="s">
+        <v>242</v>
+      </c>
       <c r="D46" s="34"/>
       <c r="E46" s="34"/>
       <c r="F46" s="286"/>
@@ -18338,9 +18359,12 @@
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="T21:T24"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">
       <formula1>"daily,week,month"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
+      <formula1>"Solid,Liquid,Inhalant,Patch,Topical"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18392,15 +18416,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="403" t="s">
+      <c r="F1" s="406" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="403"/>
-      <c r="H1" s="403"/>
-      <c r="I1" s="403"/>
-      <c r="J1" s="403"/>
-      <c r="K1" s="403"/>
-      <c r="L1" s="403"/>
+      <c r="G1" s="406"/>
+      <c r="H1" s="406"/>
+      <c r="I1" s="406"/>
+      <c r="J1" s="406"/>
+      <c r="K1" s="406"/>
+      <c r="L1" s="406"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -18489,22 +18513,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="404" t="s">
+      <c r="D6" s="407" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="405"/>
-      <c r="F6" s="405"/>
-      <c r="G6" s="405"/>
-      <c r="H6" s="406"/>
+      <c r="E6" s="408"/>
+      <c r="F6" s="408"/>
+      <c r="G6" s="408"/>
+      <c r="H6" s="409"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="404" t="s">
+      <c r="M6" s="407" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="405"/>
-      <c r="O6" s="405"/>
-      <c r="P6" s="405"/>
-      <c r="Q6" s="406"/>
+      <c r="N6" s="408"/>
+      <c r="O6" s="408"/>
+      <c r="P6" s="408"/>
+      <c r="Q6" s="409"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -18522,10 +18546,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="407" t="s">
+      <c r="F7" s="410" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="408"/>
+      <c r="G7" s="411"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -18548,10 +18572,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="407" t="s">
+      <c r="P7" s="410" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="408"/>
+      <c r="Q7" s="411"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -18628,7 +18652,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="395" t="s">
+      <c r="B9" s="398" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -18662,33 +18686,33 @@
         <f t="shared" ref="L9:L22" si="0">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="386">
+      <c r="M9" s="389">
         <v>20</v>
       </c>
-      <c r="N9" s="398" t="s">
+      <c r="N9" s="401" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="386">
+      <c r="O9" s="389">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="386">
+      <c r="P9" s="389">
         <v>3</v>
       </c>
-      <c r="Q9" s="386">
+      <c r="Q9" s="389">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="386">
+      <c r="R9" s="389">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="386"/>
-      <c r="T9" s="389">
+      <c r="S9" s="389"/>
+      <c r="T9" s="392">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="386">
+      <c r="U9" s="389">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -18713,7 +18737,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="396"/>
+      <c r="B10" s="399"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -18745,15 +18769,15 @@
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="387"/>
-      <c r="N10" s="399"/>
-      <c r="O10" s="387"/>
-      <c r="P10" s="387"/>
-      <c r="Q10" s="387"/>
-      <c r="R10" s="387"/>
-      <c r="S10" s="387"/>
-      <c r="T10" s="390"/>
-      <c r="U10" s="387"/>
+      <c r="M10" s="390"/>
+      <c r="N10" s="402"/>
+      <c r="O10" s="390"/>
+      <c r="P10" s="390"/>
+      <c r="Q10" s="390"/>
+      <c r="R10" s="390"/>
+      <c r="S10" s="390"/>
+      <c r="T10" s="393"/>
+      <c r="U10" s="390"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -18761,10 +18785,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="386" t="s">
+      <c r="A11" s="389" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="396"/>
+      <c r="B11" s="399"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -18775,15 +18799,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="387"/>
-      <c r="N11" s="399"/>
-      <c r="O11" s="387"/>
-      <c r="P11" s="387"/>
-      <c r="Q11" s="387"/>
-      <c r="R11" s="387"/>
-      <c r="S11" s="387"/>
-      <c r="T11" s="390"/>
-      <c r="U11" s="387"/>
+      <c r="M11" s="390"/>
+      <c r="N11" s="402"/>
+      <c r="O11" s="390"/>
+      <c r="P11" s="390"/>
+      <c r="Q11" s="390"/>
+      <c r="R11" s="390"/>
+      <c r="S11" s="390"/>
+      <c r="T11" s="393"/>
+      <c r="U11" s="390"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -18802,8 +18826,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="388"/>
-      <c r="B12" s="397"/>
+      <c r="A12" s="391"/>
+      <c r="B12" s="400"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -18814,15 +18838,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="388"/>
-      <c r="N12" s="400"/>
-      <c r="O12" s="388"/>
-      <c r="P12" s="388"/>
-      <c r="Q12" s="388"/>
-      <c r="R12" s="388"/>
-      <c r="S12" s="388"/>
-      <c r="T12" s="391"/>
-      <c r="U12" s="388"/>
+      <c r="M12" s="391"/>
+      <c r="N12" s="403"/>
+      <c r="O12" s="391"/>
+      <c r="P12" s="391"/>
+      <c r="Q12" s="391"/>
+      <c r="R12" s="391"/>
+      <c r="S12" s="391"/>
+      <c r="T12" s="394"/>
+      <c r="U12" s="391"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -18838,7 +18862,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="395" t="s">
+      <c r="B13" s="398" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -18872,33 +18896,33 @@
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="386">
+      <c r="M13" s="389">
         <v>80</v>
       </c>
-      <c r="N13" s="398" t="s">
+      <c r="N13" s="401" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="386">
+      <c r="O13" s="389">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="386">
+      <c r="P13" s="389">
         <v>2</v>
       </c>
-      <c r="Q13" s="386">
+      <c r="Q13" s="389">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="386">
+      <c r="R13" s="389">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="386"/>
-      <c r="T13" s="389">
+      <c r="S13" s="389"/>
+      <c r="T13" s="392">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="386">
+      <c r="U13" s="389">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -18921,7 +18945,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="396"/>
+      <c r="B14" s="399"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -18953,15 +18977,15 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="387"/>
-      <c r="N14" s="399"/>
-      <c r="O14" s="387"/>
-      <c r="P14" s="387"/>
-      <c r="Q14" s="387"/>
-      <c r="R14" s="387"/>
-      <c r="S14" s="387"/>
-      <c r="T14" s="390"/>
-      <c r="U14" s="387"/>
+      <c r="M14" s="390"/>
+      <c r="N14" s="402"/>
+      <c r="O14" s="390"/>
+      <c r="P14" s="390"/>
+      <c r="Q14" s="390"/>
+      <c r="R14" s="390"/>
+      <c r="S14" s="390"/>
+      <c r="T14" s="393"/>
+      <c r="U14" s="390"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -18969,10 +18993,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="401" t="s">
+      <c r="A15" s="404" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="396"/>
+      <c r="B15" s="399"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -18983,15 +19007,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="387"/>
-      <c r="N15" s="399"/>
-      <c r="O15" s="387"/>
-      <c r="P15" s="387"/>
-      <c r="Q15" s="387"/>
-      <c r="R15" s="387"/>
-      <c r="S15" s="387"/>
-      <c r="T15" s="390"/>
-      <c r="U15" s="387"/>
+      <c r="M15" s="390"/>
+      <c r="N15" s="402"/>
+      <c r="O15" s="390"/>
+      <c r="P15" s="390"/>
+      <c r="Q15" s="390"/>
+      <c r="R15" s="390"/>
+      <c r="S15" s="390"/>
+      <c r="T15" s="393"/>
+      <c r="U15" s="390"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -19001,8 +19025,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="402"/>
-      <c r="B16" s="397"/>
+      <c r="A16" s="405"/>
+      <c r="B16" s="400"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -19013,15 +19037,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="388"/>
-      <c r="N16" s="400"/>
-      <c r="O16" s="388"/>
-      <c r="P16" s="388"/>
-      <c r="Q16" s="388"/>
-      <c r="R16" s="388"/>
-      <c r="S16" s="388"/>
-      <c r="T16" s="391"/>
-      <c r="U16" s="388"/>
+      <c r="M16" s="391"/>
+      <c r="N16" s="403"/>
+      <c r="O16" s="391"/>
+      <c r="P16" s="391"/>
+      <c r="Q16" s="391"/>
+      <c r="R16" s="391"/>
+      <c r="S16" s="391"/>
+      <c r="T16" s="394"/>
+      <c r="U16" s="391"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -19032,7 +19056,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="395" t="s">
+      <c r="B17" s="398" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -19066,33 +19090,33 @@
         <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="386">
+      <c r="M17" s="389">
         <v>70</v>
       </c>
-      <c r="N17" s="398" t="s">
+      <c r="N17" s="401" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="386">
+      <c r="O17" s="389">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="386">
+      <c r="P17" s="389">
         <v>2</v>
       </c>
-      <c r="Q17" s="386">
+      <c r="Q17" s="389">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="386">
+      <c r="R17" s="389">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="386"/>
-      <c r="T17" s="389">
+      <c r="S17" s="389"/>
+      <c r="T17" s="392">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="386">
+      <c r="U17" s="389">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -19111,7 +19135,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="396"/>
+      <c r="B18" s="399"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -19143,24 +19167,24 @@
         <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="387"/>
-      <c r="N18" s="399"/>
-      <c r="O18" s="387"/>
-      <c r="P18" s="387"/>
-      <c r="Q18" s="387"/>
-      <c r="R18" s="387"/>
-      <c r="S18" s="387"/>
-      <c r="T18" s="390"/>
-      <c r="U18" s="387"/>
+      <c r="M18" s="390"/>
+      <c r="N18" s="402"/>
+      <c r="O18" s="390"/>
+      <c r="P18" s="390"/>
+      <c r="Q18" s="390"/>
+      <c r="R18" s="390"/>
+      <c r="S18" s="390"/>
+      <c r="T18" s="393"/>
+      <c r="U18" s="390"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="386" t="s">
+      <c r="A19" s="389" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="396"/>
+      <c r="B19" s="399"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -19171,22 +19195,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="387"/>
-      <c r="N19" s="399"/>
-      <c r="O19" s="387"/>
-      <c r="P19" s="387"/>
-      <c r="Q19" s="387"/>
-      <c r="R19" s="387"/>
-      <c r="S19" s="387"/>
-      <c r="T19" s="390"/>
-      <c r="U19" s="387"/>
+      <c r="M19" s="390"/>
+      <c r="N19" s="402"/>
+      <c r="O19" s="390"/>
+      <c r="P19" s="390"/>
+      <c r="Q19" s="390"/>
+      <c r="R19" s="390"/>
+      <c r="S19" s="390"/>
+      <c r="T19" s="393"/>
+      <c r="U19" s="390"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="388"/>
-      <c r="B20" s="397"/>
+      <c r="A20" s="391"/>
+      <c r="B20" s="400"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -19197,15 +19221,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="388"/>
-      <c r="N20" s="400"/>
-      <c r="O20" s="388"/>
-      <c r="P20" s="388"/>
-      <c r="Q20" s="388"/>
-      <c r="R20" s="388"/>
-      <c r="S20" s="388"/>
-      <c r="T20" s="391"/>
-      <c r="U20" s="388"/>
+      <c r="M20" s="391"/>
+      <c r="N20" s="403"/>
+      <c r="O20" s="391"/>
+      <c r="P20" s="391"/>
+      <c r="Q20" s="391"/>
+      <c r="R20" s="391"/>
+      <c r="S20" s="391"/>
+      <c r="T20" s="394"/>
+      <c r="U20" s="391"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -19214,7 +19238,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="395" t="s">
+      <c r="B21" s="398" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -19248,33 +19272,33 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="386">
+      <c r="M21" s="389">
         <v>60</v>
       </c>
-      <c r="N21" s="398" t="s">
+      <c r="N21" s="401" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="386">
+      <c r="O21" s="389">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="386">
+      <c r="P21" s="389">
         <v>3</v>
       </c>
-      <c r="Q21" s="386">
+      <c r="Q21" s="389">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="386">
+      <c r="R21" s="389">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="386"/>
-      <c r="T21" s="389">
+      <c r="S21" s="389"/>
+      <c r="T21" s="392">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="386">
+      <c r="U21" s="389">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -19291,7 +19315,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="396"/>
+      <c r="B22" s="399"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -19323,24 +19347,24 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="387"/>
-      <c r="N22" s="399"/>
-      <c r="O22" s="387"/>
-      <c r="P22" s="387"/>
-      <c r="Q22" s="387"/>
-      <c r="R22" s="387"/>
-      <c r="S22" s="387"/>
-      <c r="T22" s="390"/>
-      <c r="U22" s="387"/>
+      <c r="M22" s="390"/>
+      <c r="N22" s="402"/>
+      <c r="O22" s="390"/>
+      <c r="P22" s="390"/>
+      <c r="Q22" s="390"/>
+      <c r="R22" s="390"/>
+      <c r="S22" s="390"/>
+      <c r="T22" s="393"/>
+      <c r="U22" s="390"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="392" t="s">
+      <c r="A23" s="395" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="396"/>
+      <c r="B23" s="399"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -19351,22 +19375,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="387"/>
-      <c r="N23" s="399"/>
-      <c r="O23" s="387"/>
-      <c r="P23" s="387"/>
-      <c r="Q23" s="387"/>
-      <c r="R23" s="387"/>
-      <c r="S23" s="387"/>
-      <c r="T23" s="390"/>
-      <c r="U23" s="387"/>
+      <c r="M23" s="390"/>
+      <c r="N23" s="402"/>
+      <c r="O23" s="390"/>
+      <c r="P23" s="390"/>
+      <c r="Q23" s="390"/>
+      <c r="R23" s="390"/>
+      <c r="S23" s="390"/>
+      <c r="T23" s="393"/>
+      <c r="U23" s="390"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="393"/>
-      <c r="B24" s="397"/>
+      <c r="A24" s="396"/>
+      <c r="B24" s="400"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -19377,15 +19401,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="388"/>
-      <c r="N24" s="400"/>
-      <c r="O24" s="388"/>
-      <c r="P24" s="388"/>
-      <c r="Q24" s="388"/>
-      <c r="R24" s="388"/>
-      <c r="S24" s="388"/>
-      <c r="T24" s="391"/>
-      <c r="U24" s="388"/>
+      <c r="M24" s="391"/>
+      <c r="N24" s="403"/>
+      <c r="O24" s="391"/>
+      <c r="P24" s="391"/>
+      <c r="Q24" s="391"/>
+      <c r="R24" s="391"/>
+      <c r="S24" s="391"/>
+      <c r="T24" s="394"/>
+      <c r="U24" s="391"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -19411,13 +19435,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="394" t="s">
+      <c r="H27" s="397" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="394"/>
-      <c r="J27" s="394"/>
-      <c r="K27" s="394"/>
-      <c r="L27" s="394"/>
+      <c r="I27" s="397"/>
+      <c r="J27" s="397"/>
+      <c r="K27" s="397"/>
+      <c r="L27" s="397"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -19697,19 +19721,19 @@
     <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="384" t="s">
+      <c r="D40" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="384"/>
-      <c r="F40" s="384"/>
-      <c r="G40" s="384"/>
-      <c r="H40" s="384"/>
-      <c r="I40" s="384" t="s">
+      <c r="E40" s="387"/>
+      <c r="F40" s="387"/>
+      <c r="G40" s="387"/>
+      <c r="H40" s="387"/>
+      <c r="I40" s="387" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="384"/>
-      <c r="K40" s="384"/>
-      <c r="L40" s="384"/>
+      <c r="J40" s="387"/>
+      <c r="K40" s="387"/>
+      <c r="L40" s="387"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -19833,19 +19857,19 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="379"/>
+      <c r="B42" s="382"/>
       <c r="C42" s="110"/>
       <c r="D42" s="111"/>
       <c r="E42" s="111"/>
       <c r="F42" s="125"/>
       <c r="G42" s="125"/>
-      <c r="H42" s="380"/>
+      <c r="H42" s="383"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="125"/>
       <c r="L42" s="125"/>
-      <c r="M42" s="380"/>
-      <c r="N42" s="421"/>
+      <c r="M42" s="383"/>
+      <c r="N42" s="424"/>
       <c r="P42" s="91"/>
       <c r="Q42" s="91"/>
       <c r="U42" s="64"/>
@@ -19891,19 +19915,19 @@
       <c r="AN42" s="88"/>
     </row>
     <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="379"/>
+      <c r="B43" s="382"/>
       <c r="C43" s="110"/>
       <c r="D43" s="125"/>
       <c r="E43" s="111"/>
       <c r="F43" s="125"/>
       <c r="G43" s="103"/>
-      <c r="H43" s="380"/>
+      <c r="H43" s="383"/>
       <c r="I43" s="111"/>
       <c r="J43" s="111"/>
       <c r="K43" s="103"/>
       <c r="L43" s="103"/>
-      <c r="M43" s="380"/>
-      <c r="N43" s="380"/>
+      <c r="M43" s="383"/>
+      <c r="N43" s="383"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -19949,19 +19973,19 @@
       <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="379"/>
+      <c r="B44" s="382"/>
       <c r="C44" s="110"/>
       <c r="D44" s="111"/>
       <c r="E44" s="111"/>
       <c r="F44" s="125"/>
       <c r="G44" s="125"/>
-      <c r="H44" s="380"/>
+      <c r="H44" s="383"/>
       <c r="I44" s="111"/>
       <c r="J44" s="111"/>
       <c r="K44" s="125"/>
       <c r="L44" s="125"/>
-      <c r="M44" s="380"/>
-      <c r="N44" s="380"/>
+      <c r="M44" s="383"/>
+      <c r="N44" s="383"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -20007,19 +20031,19 @@
       <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="379"/>
+      <c r="B45" s="382"/>
       <c r="C45" s="110"/>
       <c r="D45" s="111"/>
       <c r="E45" s="111"/>
       <c r="F45" s="125"/>
       <c r="G45" s="125"/>
-      <c r="H45" s="380"/>
+      <c r="H45" s="383"/>
       <c r="I45" s="111"/>
       <c r="J45" s="111"/>
       <c r="K45" s="125"/>
       <c r="L45" s="125"/>
-      <c r="M45" s="380"/>
-      <c r="N45" s="380"/>
+      <c r="M45" s="383"/>
+      <c r="N45" s="383"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -20065,19 +20089,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="379"/>
+      <c r="B46" s="382"/>
       <c r="C46" s="110"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="125"/>
       <c r="G46" s="125"/>
-      <c r="H46" s="380"/>
+      <c r="H46" s="383"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="125"/>
       <c r="L46" s="125"/>
-      <c r="M46" s="380"/>
-      <c r="N46" s="422"/>
+      <c r="M46" s="383"/>
+      <c r="N46" s="425"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -20123,19 +20147,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="379"/>
+      <c r="B47" s="382"/>
       <c r="C47" s="110"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="380"/>
+      <c r="H47" s="383"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="380"/>
-      <c r="N47" s="382"/>
+      <c r="M47" s="383"/>
+      <c r="N47" s="385"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -20183,19 +20207,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="379"/>
+      <c r="B48" s="382"/>
       <c r="C48" s="110"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="380"/>
+      <c r="H48" s="383"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="380"/>
-      <c r="N48" s="382"/>
+      <c r="M48" s="383"/>
+      <c r="N48" s="385"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -20243,19 +20267,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="379"/>
+      <c r="B49" s="382"/>
       <c r="C49" s="110"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="380"/>
+      <c r="H49" s="383"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="380"/>
-      <c r="N49" s="382"/>
+      <c r="M49" s="383"/>
+      <c r="N49" s="385"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -20303,19 +20327,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="374"/>
+      <c r="B50" s="377"/>
       <c r="C50" s="112"/>
       <c r="D50" s="113"/>
       <c r="E50" s="113"/>
       <c r="F50" s="113"/>
       <c r="G50" s="113"/>
-      <c r="H50" s="375"/>
+      <c r="H50" s="378"/>
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
       <c r="L50" s="113"/>
-      <c r="M50" s="375"/>
-      <c r="N50" s="423"/>
+      <c r="M50" s="378"/>
+      <c r="N50" s="426"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -20336,19 +20360,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="374"/>
+      <c r="B51" s="377"/>
       <c r="C51" s="112"/>
       <c r="D51" s="113"/>
       <c r="E51" s="113"/>
       <c r="F51" s="113"/>
       <c r="G51" s="113"/>
-      <c r="H51" s="375"/>
+      <c r="H51" s="378"/>
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
       <c r="L51" s="113"/>
-      <c r="M51" s="375"/>
-      <c r="N51" s="377"/>
+      <c r="M51" s="378"/>
+      <c r="N51" s="380"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -20379,19 +20403,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="374"/>
+      <c r="B52" s="377"/>
       <c r="C52" s="112"/>
       <c r="D52" s="113"/>
       <c r="E52" s="113"/>
       <c r="F52" s="113"/>
       <c r="G52" s="113"/>
-      <c r="H52" s="375"/>
+      <c r="H52" s="378"/>
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
       <c r="L52" s="113"/>
-      <c r="M52" s="375"/>
-      <c r="N52" s="377"/>
+      <c r="M52" s="378"/>
+      <c r="N52" s="380"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -20455,19 +20479,19 @@
       </c>
     </row>
     <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="374"/>
+      <c r="B53" s="377"/>
       <c r="C53" s="112"/>
       <c r="D53" s="113"/>
       <c r="E53" s="113"/>
       <c r="F53" s="113"/>
       <c r="G53" s="113"/>
-      <c r="H53" s="375"/>
+      <c r="H53" s="378"/>
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
       <c r="L53" s="113"/>
-      <c r="M53" s="375"/>
-      <c r="N53" s="377"/>
+      <c r="M53" s="378"/>
+      <c r="N53" s="380"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -20516,19 +20540,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="374"/>
+      <c r="B54" s="377"/>
       <c r="C54" s="112"/>
       <c r="D54" s="113"/>
       <c r="E54" s="113"/>
       <c r="F54" s="113"/>
       <c r="G54" s="113"/>
-      <c r="H54" s="375"/>
+      <c r="H54" s="378"/>
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
       <c r="L54" s="113"/>
-      <c r="M54" s="375"/>
-      <c r="N54" s="416"/>
+      <c r="M54" s="378"/>
+      <c r="N54" s="419"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -20575,19 +20599,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="374"/>
+      <c r="B55" s="377"/>
       <c r="C55" s="112"/>
       <c r="D55" s="113"/>
       <c r="E55" s="113"/>
       <c r="F55" s="113"/>
       <c r="G55" s="113"/>
-      <c r="H55" s="375"/>
+      <c r="H55" s="378"/>
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
       <c r="L55" s="113"/>
-      <c r="M55" s="375"/>
-      <c r="N55" s="377"/>
+      <c r="M55" s="378"/>
+      <c r="N55" s="380"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -20634,19 +20658,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="374"/>
+      <c r="B56" s="377"/>
       <c r="C56" s="112"/>
       <c r="D56" s="113"/>
       <c r="E56" s="113"/>
       <c r="F56" s="113"/>
       <c r="G56" s="113"/>
-      <c r="H56" s="375"/>
+      <c r="H56" s="378"/>
       <c r="I56" s="113"/>
       <c r="J56" s="113"/>
       <c r="K56" s="113"/>
       <c r="L56" s="113"/>
-      <c r="M56" s="375"/>
-      <c r="N56" s="377"/>
+      <c r="M56" s="378"/>
+      <c r="N56" s="380"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -20693,19 +20717,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="374"/>
+      <c r="B57" s="377"/>
       <c r="C57" s="112"/>
       <c r="D57" s="113"/>
       <c r="E57" s="113"/>
       <c r="F57" s="113"/>
       <c r="G57" s="113"/>
-      <c r="H57" s="375"/>
+      <c r="H57" s="378"/>
       <c r="I57" s="113"/>
       <c r="J57" s="113"/>
       <c r="K57" s="113"/>
       <c r="L57" s="113"/>
-      <c r="M57" s="375"/>
-      <c r="N57" s="377"/>
+      <c r="M57" s="378"/>
+      <c r="N57" s="380"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -20752,19 +20776,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="369"/>
+      <c r="B58" s="372"/>
       <c r="C58" s="114"/>
       <c r="D58" s="115"/>
       <c r="E58" s="115"/>
       <c r="F58" s="115"/>
       <c r="G58" s="115"/>
-      <c r="H58" s="370"/>
+      <c r="H58" s="373"/>
       <c r="I58" s="115"/>
       <c r="J58" s="115"/>
       <c r="K58" s="115"/>
       <c r="L58" s="115"/>
-      <c r="M58" s="370"/>
-      <c r="N58" s="417"/>
+      <c r="M58" s="373"/>
+      <c r="N58" s="420"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -20811,19 +20835,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="369"/>
+      <c r="B59" s="372"/>
       <c r="C59" s="114"/>
       <c r="D59" s="115"/>
       <c r="E59" s="115"/>
       <c r="F59" s="115"/>
       <c r="G59" s="115"/>
-      <c r="H59" s="370"/>
+      <c r="H59" s="373"/>
       <c r="I59" s="115"/>
       <c r="J59" s="115"/>
       <c r="K59" s="115"/>
       <c r="L59" s="115"/>
-      <c r="M59" s="370"/>
-      <c r="N59" s="372"/>
+      <c r="M59" s="373"/>
+      <c r="N59" s="375"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -20870,19 +20894,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="369"/>
+      <c r="B60" s="372"/>
       <c r="C60" s="114"/>
       <c r="D60" s="115"/>
       <c r="E60" s="115"/>
       <c r="F60" s="115"/>
       <c r="G60" s="115"/>
-      <c r="H60" s="370"/>
+      <c r="H60" s="373"/>
       <c r="I60" s="115"/>
       <c r="J60" s="115"/>
       <c r="K60" s="115"/>
       <c r="L60" s="115"/>
-      <c r="M60" s="370"/>
-      <c r="N60" s="372"/>
+      <c r="M60" s="373"/>
+      <c r="N60" s="375"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -20929,247 +20953,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="369"/>
+      <c r="B61" s="372"/>
       <c r="C61" s="114"/>
       <c r="D61" s="115"/>
       <c r="E61" s="115"/>
       <c r="F61" s="115"/>
       <c r="G61" s="115"/>
-      <c r="H61" s="370"/>
+      <c r="H61" s="373"/>
       <c r="I61" s="115"/>
       <c r="J61" s="115"/>
       <c r="K61" s="115"/>
       <c r="L61" s="115"/>
-      <c r="M61" s="370"/>
-      <c r="N61" s="372"/>
+      <c r="M61" s="373"/>
+      <c r="N61" s="375"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="369"/>
+      <c r="B62" s="372"/>
       <c r="C62" s="114"/>
       <c r="D62" s="115"/>
       <c r="E62" s="115"/>
       <c r="F62" s="115"/>
       <c r="G62" s="115"/>
-      <c r="H62" s="370"/>
+      <c r="H62" s="373"/>
       <c r="I62" s="115"/>
       <c r="J62" s="115"/>
       <c r="K62" s="115"/>
       <c r="L62" s="115"/>
-      <c r="M62" s="370"/>
-      <c r="N62" s="418"/>
+      <c r="M62" s="373"/>
+      <c r="N62" s="421"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="369"/>
+      <c r="B63" s="372"/>
       <c r="C63" s="114"/>
       <c r="D63" s="115"/>
       <c r="E63" s="115"/>
       <c r="F63" s="115"/>
       <c r="G63" s="115"/>
-      <c r="H63" s="370"/>
+      <c r="H63" s="373"/>
       <c r="I63" s="115"/>
       <c r="J63" s="115"/>
       <c r="K63" s="115"/>
       <c r="L63" s="115"/>
-      <c r="M63" s="370"/>
-      <c r="N63" s="372"/>
+      <c r="M63" s="373"/>
+      <c r="N63" s="375"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="369"/>
+      <c r="B64" s="372"/>
       <c r="C64" s="114"/>
       <c r="D64" s="115"/>
       <c r="E64" s="115"/>
       <c r="F64" s="115"/>
       <c r="G64" s="115"/>
-      <c r="H64" s="370"/>
+      <c r="H64" s="373"/>
       <c r="I64" s="115"/>
       <c r="J64" s="115"/>
       <c r="K64" s="115"/>
       <c r="L64" s="115"/>
-      <c r="M64" s="370"/>
-      <c r="N64" s="372"/>
+      <c r="M64" s="373"/>
+      <c r="N64" s="375"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="369"/>
+      <c r="B65" s="372"/>
       <c r="C65" s="114"/>
       <c r="D65" s="115"/>
       <c r="E65" s="115"/>
       <c r="F65" s="115"/>
       <c r="G65" s="115"/>
-      <c r="H65" s="370"/>
+      <c r="H65" s="373"/>
       <c r="I65" s="115"/>
       <c r="J65" s="115"/>
       <c r="K65" s="115"/>
       <c r="L65" s="115"/>
-      <c r="M65" s="370"/>
-      <c r="N65" s="372"/>
+      <c r="M65" s="373"/>
+      <c r="N65" s="375"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="365"/>
+      <c r="B66" s="368"/>
       <c r="C66" s="128"/>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
       <c r="F66" s="116"/>
       <c r="G66" s="116"/>
-      <c r="H66" s="366"/>
+      <c r="H66" s="369"/>
       <c r="I66" s="116"/>
       <c r="J66" s="116"/>
       <c r="K66" s="116"/>
       <c r="L66" s="116"/>
-      <c r="M66" s="366"/>
-      <c r="N66" s="419"/>
+      <c r="M66" s="369"/>
+      <c r="N66" s="422"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="365"/>
+      <c r="B67" s="368"/>
       <c r="C67" s="128"/>
       <c r="D67" s="116"/>
       <c r="E67" s="116"/>
       <c r="F67" s="116"/>
       <c r="G67" s="116"/>
-      <c r="H67" s="366"/>
+      <c r="H67" s="369"/>
       <c r="I67" s="116"/>
       <c r="J67" s="116"/>
       <c r="K67" s="116"/>
       <c r="L67" s="116"/>
-      <c r="M67" s="366"/>
-      <c r="N67" s="368"/>
+      <c r="M67" s="369"/>
+      <c r="N67" s="371"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="365"/>
+      <c r="B68" s="368"/>
       <c r="C68" s="128"/>
       <c r="D68" s="116"/>
       <c r="E68" s="116"/>
       <c r="F68" s="116"/>
       <c r="G68" s="116"/>
-      <c r="H68" s="366"/>
+      <c r="H68" s="369"/>
       <c r="I68" s="116"/>
       <c r="J68" s="116"/>
       <c r="K68" s="116"/>
       <c r="L68" s="116"/>
-      <c r="M68" s="366"/>
-      <c r="N68" s="368"/>
+      <c r="M68" s="369"/>
+      <c r="N68" s="371"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="365"/>
+      <c r="B69" s="368"/>
       <c r="C69" s="128"/>
       <c r="D69" s="116"/>
       <c r="E69" s="116"/>
       <c r="F69" s="116"/>
       <c r="G69" s="116"/>
-      <c r="H69" s="366"/>
+      <c r="H69" s="369"/>
       <c r="I69" s="116"/>
       <c r="J69" s="116"/>
       <c r="K69" s="116"/>
       <c r="L69" s="116"/>
-      <c r="M69" s="366"/>
-      <c r="N69" s="368"/>
+      <c r="M69" s="369"/>
+      <c r="N69" s="371"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="365"/>
+      <c r="B70" s="368"/>
       <c r="C70" s="128"/>
       <c r="D70" s="116"/>
       <c r="E70" s="116"/>
       <c r="F70" s="116"/>
       <c r="G70" s="116"/>
-      <c r="H70" s="366"/>
+      <c r="H70" s="369"/>
       <c r="I70" s="116"/>
       <c r="J70" s="116"/>
       <c r="K70" s="116"/>
       <c r="L70" s="116"/>
-      <c r="M70" s="366"/>
-      <c r="N70" s="420"/>
+      <c r="M70" s="369"/>
+      <c r="N70" s="423"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="365"/>
+      <c r="B71" s="368"/>
       <c r="C71" s="128"/>
       <c r="D71" s="116"/>
       <c r="E71" s="116"/>
       <c r="F71" s="116"/>
       <c r="G71" s="116"/>
-      <c r="H71" s="366"/>
+      <c r="H71" s="369"/>
       <c r="I71" s="116"/>
       <c r="J71" s="116"/>
       <c r="K71" s="116"/>
       <c r="L71" s="116"/>
-      <c r="M71" s="366"/>
-      <c r="N71" s="368"/>
+      <c r="M71" s="369"/>
+      <c r="N71" s="371"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="365"/>
+      <c r="B72" s="368"/>
       <c r="C72" s="128"/>
       <c r="D72" s="116"/>
       <c r="E72" s="116"/>
       <c r="F72" s="116"/>
       <c r="G72" s="116"/>
-      <c r="H72" s="366"/>
+      <c r="H72" s="369"/>
       <c r="I72" s="116"/>
       <c r="J72" s="116"/>
       <c r="K72" s="116"/>
       <c r="L72" s="116"/>
-      <c r="M72" s="366"/>
-      <c r="N72" s="368"/>
+      <c r="M72" s="369"/>
+      <c r="N72" s="371"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="365"/>
+      <c r="B73" s="368"/>
       <c r="C73" s="128"/>
       <c r="D73" s="116"/>
       <c r="E73" s="116"/>
       <c r="F73" s="116"/>
       <c r="G73" s="116"/>
-      <c r="H73" s="366"/>
+      <c r="H73" s="369"/>
       <c r="I73" s="116"/>
       <c r="J73" s="116"/>
       <c r="K73" s="116"/>
       <c r="L73" s="116"/>
-      <c r="M73" s="366"/>
-      <c r="N73" s="368"/>
+      <c r="M73" s="369"/>
+      <c r="N73" s="371"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="242">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -839,9 +839,6 @@
   </si>
   <si>
     <t>Select Type:</t>
-  </si>
-  <si>
-    <t>P5</t>
   </si>
 </sst>
 </file>
@@ -9618,7 +9615,7 @@
   <dimension ref="A1:AU434"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -10933,9 +10930,7 @@
     </row>
     <row r="46" spans="1:41" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="310"/>
-      <c r="B46" s="310" t="s">
-        <v>242</v>
-      </c>
+      <c r="B46" s="310"/>
       <c r="D46" s="34"/>
       <c r="E46" s="34"/>
       <c r="F46" s="286"/>

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="244">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -839,6 +839,12 @@
   </si>
   <si>
     <t>Select Type:</t>
+  </si>
+  <si>
+    <t>Test3</t>
+  </si>
+  <si>
+    <t>Test4</t>
   </si>
 </sst>
 </file>
@@ -2555,53 +2561,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="25" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2611,23 +2570,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2650,30 +2609,77 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="115" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2695,14 +2701,14 @@
     <xf numFmtId="3" fontId="25" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5122,15 +5128,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="406" t="s">
+      <c r="F1" s="371" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="406"/>
-      <c r="H1" s="406"/>
-      <c r="I1" s="406"/>
-      <c r="J1" s="406"/>
-      <c r="K1" s="406"/>
-      <c r="L1" s="406"/>
+      <c r="G1" s="371"/>
+      <c r="H1" s="371"/>
+      <c r="I1" s="371"/>
+      <c r="J1" s="371"/>
+      <c r="K1" s="371"/>
+      <c r="L1" s="371"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -5219,22 +5225,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="407" t="s">
+      <c r="D6" s="372" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="408"/>
-      <c r="F6" s="408"/>
-      <c r="G6" s="408"/>
-      <c r="H6" s="409"/>
+      <c r="E6" s="373"/>
+      <c r="F6" s="373"/>
+      <c r="G6" s="373"/>
+      <c r="H6" s="374"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="407" t="s">
+      <c r="M6" s="372" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="408"/>
-      <c r="O6" s="408"/>
-      <c r="P6" s="408"/>
-      <c r="Q6" s="409"/>
+      <c r="N6" s="373"/>
+      <c r="O6" s="373"/>
+      <c r="P6" s="373"/>
+      <c r="Q6" s="374"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -5252,10 +5258,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="410" t="s">
+      <c r="F7" s="375" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="411"/>
+      <c r="G7" s="376"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -5278,10 +5284,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="410" t="s">
+      <c r="P7" s="375" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="411"/>
+      <c r="Q7" s="376"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -5358,7 +5364,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="398" t="s">
+      <c r="B9" s="377" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -5392,33 +5398,33 @@
         <f t="shared" ref="L9:L22" si="0">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="389">
+      <c r="M9" s="368">
         <v>20</v>
       </c>
-      <c r="N9" s="401" t="s">
+      <c r="N9" s="380" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="389">
+      <c r="O9" s="368">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="389">
+      <c r="P9" s="368">
         <v>3</v>
       </c>
-      <c r="Q9" s="389">
+      <c r="Q9" s="368">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="389">
+      <c r="R9" s="368">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="389"/>
-      <c r="T9" s="392">
+      <c r="S9" s="368"/>
+      <c r="T9" s="383">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="389">
+      <c r="U9" s="368">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -5443,7 +5449,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="399"/>
+      <c r="B10" s="378"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -5475,15 +5481,15 @@
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="390"/>
-      <c r="N10" s="402"/>
-      <c r="O10" s="390"/>
-      <c r="P10" s="390"/>
-      <c r="Q10" s="390"/>
-      <c r="R10" s="390"/>
-      <c r="S10" s="390"/>
-      <c r="T10" s="393"/>
-      <c r="U10" s="390"/>
+      <c r="M10" s="369"/>
+      <c r="N10" s="381"/>
+      <c r="O10" s="369"/>
+      <c r="P10" s="369"/>
+      <c r="Q10" s="369"/>
+      <c r="R10" s="369"/>
+      <c r="S10" s="369"/>
+      <c r="T10" s="384"/>
+      <c r="U10" s="369"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -5491,10 +5497,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="389" t="s">
+      <c r="A11" s="368" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="399"/>
+      <c r="B11" s="378"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -5505,15 +5511,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="390"/>
-      <c r="N11" s="402"/>
-      <c r="O11" s="390"/>
-      <c r="P11" s="390"/>
-      <c r="Q11" s="390"/>
-      <c r="R11" s="390"/>
-      <c r="S11" s="390"/>
-      <c r="T11" s="393"/>
-      <c r="U11" s="390"/>
+      <c r="M11" s="369"/>
+      <c r="N11" s="381"/>
+      <c r="O11" s="369"/>
+      <c r="P11" s="369"/>
+      <c r="Q11" s="369"/>
+      <c r="R11" s="369"/>
+      <c r="S11" s="369"/>
+      <c r="T11" s="384"/>
+      <c r="U11" s="369"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -5532,8 +5538,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="391"/>
-      <c r="B12" s="400"/>
+      <c r="A12" s="370"/>
+      <c r="B12" s="379"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -5544,15 +5550,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="391"/>
-      <c r="N12" s="403"/>
-      <c r="O12" s="391"/>
-      <c r="P12" s="391"/>
-      <c r="Q12" s="391"/>
-      <c r="R12" s="391"/>
-      <c r="S12" s="391"/>
-      <c r="T12" s="394"/>
-      <c r="U12" s="391"/>
+      <c r="M12" s="370"/>
+      <c r="N12" s="382"/>
+      <c r="O12" s="370"/>
+      <c r="P12" s="370"/>
+      <c r="Q12" s="370"/>
+      <c r="R12" s="370"/>
+      <c r="S12" s="370"/>
+      <c r="T12" s="385"/>
+      <c r="U12" s="370"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -5568,7 +5574,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="398" t="s">
+      <c r="B13" s="377" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -5602,33 +5608,33 @@
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="389">
+      <c r="M13" s="368">
         <v>80</v>
       </c>
-      <c r="N13" s="401" t="s">
+      <c r="N13" s="380" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="389">
+      <c r="O13" s="368">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="389">
+      <c r="P13" s="368">
         <v>2</v>
       </c>
-      <c r="Q13" s="389">
+      <c r="Q13" s="368">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="389">
+      <c r="R13" s="368">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="389"/>
-      <c r="T13" s="392">
+      <c r="S13" s="368"/>
+      <c r="T13" s="383">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="389">
+      <c r="U13" s="368">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -5651,7 +5657,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="399"/>
+      <c r="B14" s="378"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -5683,15 +5689,15 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="390"/>
-      <c r="N14" s="402"/>
-      <c r="O14" s="390"/>
-      <c r="P14" s="390"/>
-      <c r="Q14" s="390"/>
-      <c r="R14" s="390"/>
-      <c r="S14" s="390"/>
-      <c r="T14" s="393"/>
-      <c r="U14" s="390"/>
+      <c r="M14" s="369"/>
+      <c r="N14" s="381"/>
+      <c r="O14" s="369"/>
+      <c r="P14" s="369"/>
+      <c r="Q14" s="369"/>
+      <c r="R14" s="369"/>
+      <c r="S14" s="369"/>
+      <c r="T14" s="384"/>
+      <c r="U14" s="369"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -5699,10 +5705,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="404" t="s">
+      <c r="A15" s="386" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="399"/>
+      <c r="B15" s="378"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -5713,15 +5719,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="390"/>
-      <c r="N15" s="402"/>
-      <c r="O15" s="390"/>
-      <c r="P15" s="390"/>
-      <c r="Q15" s="390"/>
-      <c r="R15" s="390"/>
-      <c r="S15" s="390"/>
-      <c r="T15" s="393"/>
-      <c r="U15" s="390"/>
+      <c r="M15" s="369"/>
+      <c r="N15" s="381"/>
+      <c r="O15" s="369"/>
+      <c r="P15" s="369"/>
+      <c r="Q15" s="369"/>
+      <c r="R15" s="369"/>
+      <c r="S15" s="369"/>
+      <c r="T15" s="384"/>
+      <c r="U15" s="369"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -5731,8 +5737,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="405"/>
-      <c r="B16" s="400"/>
+      <c r="A16" s="387"/>
+      <c r="B16" s="379"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -5743,15 +5749,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="391"/>
-      <c r="N16" s="403"/>
-      <c r="O16" s="391"/>
-      <c r="P16" s="391"/>
-      <c r="Q16" s="391"/>
-      <c r="R16" s="391"/>
-      <c r="S16" s="391"/>
-      <c r="T16" s="394"/>
-      <c r="U16" s="391"/>
+      <c r="M16" s="370"/>
+      <c r="N16" s="382"/>
+      <c r="O16" s="370"/>
+      <c r="P16" s="370"/>
+      <c r="Q16" s="370"/>
+      <c r="R16" s="370"/>
+      <c r="S16" s="370"/>
+      <c r="T16" s="385"/>
+      <c r="U16" s="370"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -5762,7 +5768,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="398" t="s">
+      <c r="B17" s="377" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -5796,33 +5802,33 @@
         <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="389">
+      <c r="M17" s="368">
         <v>70</v>
       </c>
-      <c r="N17" s="401" t="s">
+      <c r="N17" s="380" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="389">
+      <c r="O17" s="368">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="389">
+      <c r="P17" s="368">
         <v>2</v>
       </c>
-      <c r="Q17" s="389">
+      <c r="Q17" s="368">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="389">
+      <c r="R17" s="368">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="389"/>
-      <c r="T17" s="392">
+      <c r="S17" s="368"/>
+      <c r="T17" s="383">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="389">
+      <c r="U17" s="368">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -5841,7 +5847,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="399"/>
+      <c r="B18" s="378"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -5873,24 +5879,24 @@
         <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="390"/>
-      <c r="N18" s="402"/>
-      <c r="O18" s="390"/>
-      <c r="P18" s="390"/>
-      <c r="Q18" s="390"/>
-      <c r="R18" s="390"/>
-      <c r="S18" s="390"/>
-      <c r="T18" s="393"/>
-      <c r="U18" s="390"/>
+      <c r="M18" s="369"/>
+      <c r="N18" s="381"/>
+      <c r="O18" s="369"/>
+      <c r="P18" s="369"/>
+      <c r="Q18" s="369"/>
+      <c r="R18" s="369"/>
+      <c r="S18" s="369"/>
+      <c r="T18" s="384"/>
+      <c r="U18" s="369"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="389" t="s">
+      <c r="A19" s="368" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="399"/>
+      <c r="B19" s="378"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -5901,22 +5907,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="390"/>
-      <c r="N19" s="402"/>
-      <c r="O19" s="390"/>
-      <c r="P19" s="390"/>
-      <c r="Q19" s="390"/>
-      <c r="R19" s="390"/>
-      <c r="S19" s="390"/>
-      <c r="T19" s="393"/>
-      <c r="U19" s="390"/>
+      <c r="M19" s="369"/>
+      <c r="N19" s="381"/>
+      <c r="O19" s="369"/>
+      <c r="P19" s="369"/>
+      <c r="Q19" s="369"/>
+      <c r="R19" s="369"/>
+      <c r="S19" s="369"/>
+      <c r="T19" s="384"/>
+      <c r="U19" s="369"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="391"/>
-      <c r="B20" s="400"/>
+      <c r="A20" s="370"/>
+      <c r="B20" s="379"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -5927,15 +5933,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="391"/>
-      <c r="N20" s="403"/>
-      <c r="O20" s="391"/>
-      <c r="P20" s="391"/>
-      <c r="Q20" s="391"/>
-      <c r="R20" s="391"/>
-      <c r="S20" s="391"/>
-      <c r="T20" s="394"/>
-      <c r="U20" s="391"/>
+      <c r="M20" s="370"/>
+      <c r="N20" s="382"/>
+      <c r="O20" s="370"/>
+      <c r="P20" s="370"/>
+      <c r="Q20" s="370"/>
+      <c r="R20" s="370"/>
+      <c r="S20" s="370"/>
+      <c r="T20" s="385"/>
+      <c r="U20" s="370"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -5944,7 +5950,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="398" t="s">
+      <c r="B21" s="377" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -5978,33 +5984,33 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="389">
+      <c r="M21" s="368">
         <v>60</v>
       </c>
-      <c r="N21" s="401" t="s">
+      <c r="N21" s="380" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="389">
+      <c r="O21" s="368">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="389">
+      <c r="P21" s="368">
         <v>3</v>
       </c>
-      <c r="Q21" s="389">
+      <c r="Q21" s="368">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="389">
+      <c r="R21" s="368">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="389"/>
-      <c r="T21" s="392">
+      <c r="S21" s="368"/>
+      <c r="T21" s="383">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="389">
+      <c r="U21" s="368">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -6021,7 +6027,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="399"/>
+      <c r="B22" s="378"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -6053,24 +6059,24 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="390"/>
-      <c r="N22" s="402"/>
-      <c r="O22" s="390"/>
-      <c r="P22" s="390"/>
-      <c r="Q22" s="390"/>
-      <c r="R22" s="390"/>
-      <c r="S22" s="390"/>
-      <c r="T22" s="393"/>
-      <c r="U22" s="390"/>
+      <c r="M22" s="369"/>
+      <c r="N22" s="381"/>
+      <c r="O22" s="369"/>
+      <c r="P22" s="369"/>
+      <c r="Q22" s="369"/>
+      <c r="R22" s="369"/>
+      <c r="S22" s="369"/>
+      <c r="T22" s="384"/>
+      <c r="U22" s="369"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="395" t="s">
+      <c r="A23" s="388" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="399"/>
+      <c r="B23" s="378"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -6081,22 +6087,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="390"/>
-      <c r="N23" s="402"/>
-      <c r="O23" s="390"/>
-      <c r="P23" s="390"/>
-      <c r="Q23" s="390"/>
-      <c r="R23" s="390"/>
-      <c r="S23" s="390"/>
-      <c r="T23" s="393"/>
-      <c r="U23" s="390"/>
+      <c r="M23" s="369"/>
+      <c r="N23" s="381"/>
+      <c r="O23" s="369"/>
+      <c r="P23" s="369"/>
+      <c r="Q23" s="369"/>
+      <c r="R23" s="369"/>
+      <c r="S23" s="369"/>
+      <c r="T23" s="384"/>
+      <c r="U23" s="369"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="396"/>
-      <c r="B24" s="400"/>
+      <c r="A24" s="389"/>
+      <c r="B24" s="379"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -6107,15 +6113,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="391"/>
-      <c r="N24" s="403"/>
-      <c r="O24" s="391"/>
-      <c r="P24" s="391"/>
-      <c r="Q24" s="391"/>
-      <c r="R24" s="391"/>
-      <c r="S24" s="391"/>
-      <c r="T24" s="394"/>
-      <c r="U24" s="391"/>
+      <c r="M24" s="370"/>
+      <c r="N24" s="382"/>
+      <c r="O24" s="370"/>
+      <c r="P24" s="370"/>
+      <c r="Q24" s="370"/>
+      <c r="R24" s="370"/>
+      <c r="S24" s="370"/>
+      <c r="T24" s="385"/>
+      <c r="U24" s="370"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -6141,13 +6147,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="397" t="s">
+      <c r="H27" s="390" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="397"/>
-      <c r="J27" s="397"/>
-      <c r="K27" s="397"/>
-      <c r="L27" s="397"/>
+      <c r="I27" s="390"/>
+      <c r="J27" s="390"/>
+      <c r="K27" s="390"/>
+      <c r="L27" s="390"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -6427,19 +6433,19 @@
     <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="387" t="s">
+      <c r="D40" s="393" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="387"/>
-      <c r="F40" s="387"/>
-      <c r="G40" s="387"/>
-      <c r="H40" s="387"/>
-      <c r="I40" s="387" t="s">
+      <c r="E40" s="393"/>
+      <c r="F40" s="393"/>
+      <c r="G40" s="393"/>
+      <c r="H40" s="393"/>
+      <c r="I40" s="393" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="387"/>
-      <c r="K40" s="387"/>
-      <c r="L40" s="387"/>
+      <c r="J40" s="393"/>
+      <c r="K40" s="393"/>
+      <c r="L40" s="393"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -6563,7 +6569,7 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="382" t="s">
+      <c r="B42" s="394" t="s">
         <v>226</v>
       </c>
       <c r="C42" s="190"/>
@@ -6571,17 +6577,17 @@
       <c r="E42" s="111"/>
       <c r="F42" s="189"/>
       <c r="G42" s="189"/>
-      <c r="H42" s="383">
+      <c r="H42" s="392">
         <v>3.095975611358881E-3</v>
       </c>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="189"/>
       <c r="L42" s="189"/>
-      <c r="M42" s="383">
+      <c r="M42" s="392">
         <v>1</v>
       </c>
-      <c r="N42" s="388" t="s">
+      <c r="N42" s="391" t="s">
         <v>59</v>
       </c>
       <c r="P42" s="91"/>
@@ -6629,7 +6635,7 @@
       <c r="AN42" s="88"/>
     </row>
     <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="382"/>
+      <c r="B43" s="394"/>
       <c r="C43" s="190" t="s">
         <v>220</v>
       </c>
@@ -6645,7 +6651,7 @@
       <c r="G43" s="103">
         <v>97.126746422628088</v>
       </c>
-      <c r="H43" s="383"/>
+      <c r="H43" s="392"/>
       <c r="I43" s="111">
         <v>1</v>
       </c>
@@ -6658,8 +6664,8 @@
       <c r="L43" s="103">
         <v>1</v>
       </c>
-      <c r="M43" s="383"/>
-      <c r="N43" s="383"/>
+      <c r="M43" s="392"/>
+      <c r="N43" s="392"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -6705,7 +6711,7 @@
       <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="382"/>
+      <c r="B44" s="394"/>
       <c r="C44" s="190" t="s">
         <v>218</v>
       </c>
@@ -6721,7 +6727,7 @@
       <c r="G44" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H44" s="383"/>
+      <c r="H44" s="392"/>
       <c r="I44" s="111">
         <v>1</v>
       </c>
@@ -6734,8 +6740,8 @@
       <c r="L44" s="189">
         <v>1</v>
       </c>
-      <c r="M44" s="383"/>
-      <c r="N44" s="383"/>
+      <c r="M44" s="392"/>
+      <c r="N44" s="392"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -6781,7 +6787,7 @@
       <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="382"/>
+      <c r="B45" s="394"/>
       <c r="C45" s="190" t="s">
         <v>219</v>
       </c>
@@ -6797,7 +6803,7 @@
       <c r="G45" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H45" s="383"/>
+      <c r="H45" s="392"/>
       <c r="I45" s="111">
         <v>1</v>
       </c>
@@ -6810,8 +6816,8 @@
       <c r="L45" s="189">
         <v>1</v>
       </c>
-      <c r="M45" s="383"/>
-      <c r="N45" s="383"/>
+      <c r="M45" s="392"/>
+      <c r="N45" s="392"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -6857,19 +6863,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="382"/>
+      <c r="B46" s="394"/>
       <c r="C46" s="190"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="189"/>
       <c r="G46" s="189"/>
-      <c r="H46" s="383"/>
+      <c r="H46" s="392"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="189"/>
       <c r="L46" s="189"/>
-      <c r="M46" s="383"/>
-      <c r="N46" s="384"/>
+      <c r="M46" s="392"/>
+      <c r="N46" s="395"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -6915,19 +6921,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="382"/>
+      <c r="B47" s="394"/>
       <c r="C47" s="190"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="383"/>
+      <c r="H47" s="392"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="383"/>
-      <c r="N47" s="385"/>
+      <c r="M47" s="392"/>
+      <c r="N47" s="396"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -6975,19 +6981,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="382"/>
+      <c r="B48" s="394"/>
       <c r="C48" s="190"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="383"/>
+      <c r="H48" s="392"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="383"/>
-      <c r="N48" s="385"/>
+      <c r="M48" s="392"/>
+      <c r="N48" s="396"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -7035,19 +7041,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="382"/>
+      <c r="B49" s="394"/>
       <c r="C49" s="190"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="383"/>
+      <c r="H49" s="392"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="383"/>
-      <c r="N49" s="385"/>
+      <c r="M49" s="392"/>
+      <c r="N49" s="396"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -7095,19 +7101,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="377"/>
+      <c r="B50" s="397"/>
       <c r="C50" s="191"/>
       <c r="D50" s="187"/>
       <c r="E50" s="187"/>
       <c r="F50" s="187"/>
       <c r="G50" s="187"/>
-      <c r="H50" s="378"/>
+      <c r="H50" s="398"/>
       <c r="I50" s="187"/>
       <c r="J50" s="187"/>
       <c r="K50" s="187"/>
       <c r="L50" s="187"/>
-      <c r="M50" s="378"/>
-      <c r="N50" s="386"/>
+      <c r="M50" s="398"/>
+      <c r="N50" s="399"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -7128,19 +7134,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="377"/>
+      <c r="B51" s="397"/>
       <c r="C51" s="191"/>
       <c r="D51" s="187"/>
       <c r="E51" s="187"/>
       <c r="F51" s="187"/>
       <c r="G51" s="187"/>
-      <c r="H51" s="378"/>
+      <c r="H51" s="398"/>
       <c r="I51" s="187"/>
       <c r="J51" s="187"/>
       <c r="K51" s="187"/>
       <c r="L51" s="187"/>
-      <c r="M51" s="378"/>
-      <c r="N51" s="380"/>
+      <c r="M51" s="398"/>
+      <c r="N51" s="400"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -7171,19 +7177,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="377"/>
+      <c r="B52" s="397"/>
       <c r="C52" s="191"/>
       <c r="D52" s="187"/>
       <c r="E52" s="187"/>
       <c r="F52" s="187"/>
       <c r="G52" s="187"/>
-      <c r="H52" s="378"/>
+      <c r="H52" s="398"/>
       <c r="I52" s="187"/>
       <c r="J52" s="187"/>
       <c r="K52" s="187"/>
       <c r="L52" s="187"/>
-      <c r="M52" s="378"/>
-      <c r="N52" s="380"/>
+      <c r="M52" s="398"/>
+      <c r="N52" s="400"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -7247,19 +7253,19 @@
       </c>
     </row>
     <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="377"/>
+      <c r="B53" s="397"/>
       <c r="C53" s="191"/>
       <c r="D53" s="187"/>
       <c r="E53" s="187"/>
       <c r="F53" s="187"/>
       <c r="G53" s="187"/>
-      <c r="H53" s="378"/>
+      <c r="H53" s="398"/>
       <c r="I53" s="187"/>
       <c r="J53" s="187"/>
       <c r="K53" s="187"/>
       <c r="L53" s="187"/>
-      <c r="M53" s="378"/>
-      <c r="N53" s="380"/>
+      <c r="M53" s="398"/>
+      <c r="N53" s="400"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -7308,19 +7314,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="377"/>
+      <c r="B54" s="397"/>
       <c r="C54" s="191"/>
       <c r="D54" s="187"/>
       <c r="E54" s="187"/>
       <c r="F54" s="187"/>
       <c r="G54" s="187"/>
-      <c r="H54" s="378"/>
+      <c r="H54" s="398"/>
       <c r="I54" s="187"/>
       <c r="J54" s="187"/>
       <c r="K54" s="187"/>
       <c r="L54" s="187"/>
-      <c r="M54" s="378"/>
-      <c r="N54" s="379"/>
+      <c r="M54" s="398"/>
+      <c r="N54" s="401"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -7367,19 +7373,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="377"/>
+      <c r="B55" s="397"/>
       <c r="C55" s="191"/>
       <c r="D55" s="187"/>
       <c r="E55" s="187"/>
       <c r="F55" s="187"/>
       <c r="G55" s="187"/>
-      <c r="H55" s="378"/>
+      <c r="H55" s="398"/>
       <c r="I55" s="187"/>
       <c r="J55" s="187"/>
       <c r="K55" s="187"/>
       <c r="L55" s="187"/>
-      <c r="M55" s="378"/>
-      <c r="N55" s="380"/>
+      <c r="M55" s="398"/>
+      <c r="N55" s="400"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -7426,19 +7432,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="377"/>
+      <c r="B56" s="397"/>
       <c r="C56" s="191"/>
       <c r="D56" s="187"/>
       <c r="E56" s="187"/>
       <c r="F56" s="187"/>
       <c r="G56" s="187"/>
-      <c r="H56" s="378"/>
+      <c r="H56" s="398"/>
       <c r="I56" s="187"/>
       <c r="J56" s="187"/>
       <c r="K56" s="187"/>
       <c r="L56" s="187"/>
-      <c r="M56" s="378"/>
-      <c r="N56" s="380"/>
+      <c r="M56" s="398"/>
+      <c r="N56" s="400"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -7485,19 +7491,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="377"/>
+      <c r="B57" s="397"/>
       <c r="C57" s="191"/>
       <c r="D57" s="187"/>
       <c r="E57" s="187"/>
       <c r="F57" s="187"/>
       <c r="G57" s="187"/>
-      <c r="H57" s="378"/>
+      <c r="H57" s="398"/>
       <c r="I57" s="187"/>
       <c r="J57" s="187"/>
       <c r="K57" s="187"/>
       <c r="L57" s="187"/>
-      <c r="M57" s="378"/>
-      <c r="N57" s="380"/>
+      <c r="M57" s="398"/>
+      <c r="N57" s="400"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -7544,19 +7550,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="372"/>
+      <c r="B58" s="402"/>
       <c r="C58" s="185"/>
       <c r="D58" s="192"/>
       <c r="E58" s="192"/>
       <c r="F58" s="192"/>
       <c r="G58" s="192"/>
-      <c r="H58" s="373"/>
+      <c r="H58" s="403"/>
       <c r="I58" s="192"/>
       <c r="J58" s="192"/>
       <c r="K58" s="192"/>
       <c r="L58" s="192"/>
-      <c r="M58" s="373"/>
-      <c r="N58" s="381"/>
+      <c r="M58" s="403"/>
+      <c r="N58" s="404"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -7603,19 +7609,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="372"/>
+      <c r="B59" s="402"/>
       <c r="C59" s="185"/>
       <c r="D59" s="192"/>
       <c r="E59" s="192"/>
       <c r="F59" s="192"/>
       <c r="G59" s="192"/>
-      <c r="H59" s="373"/>
+      <c r="H59" s="403"/>
       <c r="I59" s="192"/>
       <c r="J59" s="192"/>
       <c r="K59" s="192"/>
       <c r="L59" s="192"/>
-      <c r="M59" s="373"/>
-      <c r="N59" s="375"/>
+      <c r="M59" s="403"/>
+      <c r="N59" s="405"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -7662,19 +7668,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="372"/>
+      <c r="B60" s="402"/>
       <c r="C60" s="185"/>
       <c r="D60" s="192"/>
       <c r="E60" s="192"/>
       <c r="F60" s="192"/>
       <c r="G60" s="192"/>
-      <c r="H60" s="373"/>
+      <c r="H60" s="403"/>
       <c r="I60" s="192"/>
       <c r="J60" s="192"/>
       <c r="K60" s="192"/>
       <c r="L60" s="192"/>
-      <c r="M60" s="373"/>
-      <c r="N60" s="375"/>
+      <c r="M60" s="403"/>
+      <c r="N60" s="405"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -7721,247 +7727,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="372"/>
+      <c r="B61" s="402"/>
       <c r="C61" s="185"/>
       <c r="D61" s="192"/>
       <c r="E61" s="192"/>
       <c r="F61" s="192"/>
       <c r="G61" s="192"/>
-      <c r="H61" s="373"/>
+      <c r="H61" s="403"/>
       <c r="I61" s="192"/>
       <c r="J61" s="192"/>
       <c r="K61" s="192"/>
       <c r="L61" s="192"/>
-      <c r="M61" s="373"/>
-      <c r="N61" s="375"/>
+      <c r="M61" s="403"/>
+      <c r="N61" s="405"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="372"/>
+      <c r="B62" s="402"/>
       <c r="C62" s="185"/>
       <c r="D62" s="192"/>
       <c r="E62" s="192"/>
       <c r="F62" s="192"/>
       <c r="G62" s="192"/>
-      <c r="H62" s="373"/>
+      <c r="H62" s="403"/>
       <c r="I62" s="192"/>
       <c r="J62" s="192"/>
       <c r="K62" s="192"/>
       <c r="L62" s="192"/>
-      <c r="M62" s="373"/>
-      <c r="N62" s="374"/>
+      <c r="M62" s="403"/>
+      <c r="N62" s="410"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="372"/>
+      <c r="B63" s="402"/>
       <c r="C63" s="185"/>
       <c r="D63" s="192"/>
       <c r="E63" s="192"/>
       <c r="F63" s="192"/>
       <c r="G63" s="192"/>
-      <c r="H63" s="373"/>
+      <c r="H63" s="403"/>
       <c r="I63" s="192"/>
       <c r="J63" s="192"/>
       <c r="K63" s="192"/>
       <c r="L63" s="192"/>
-      <c r="M63" s="373"/>
-      <c r="N63" s="375"/>
+      <c r="M63" s="403"/>
+      <c r="N63" s="405"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="372"/>
+      <c r="B64" s="402"/>
       <c r="C64" s="185"/>
       <c r="D64" s="192"/>
       <c r="E64" s="192"/>
       <c r="F64" s="192"/>
       <c r="G64" s="192"/>
-      <c r="H64" s="373"/>
+      <c r="H64" s="403"/>
       <c r="I64" s="192"/>
       <c r="J64" s="192"/>
       <c r="K64" s="192"/>
       <c r="L64" s="192"/>
-      <c r="M64" s="373"/>
-      <c r="N64" s="375"/>
+      <c r="M64" s="403"/>
+      <c r="N64" s="405"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="372"/>
+      <c r="B65" s="402"/>
       <c r="C65" s="185"/>
       <c r="D65" s="192"/>
       <c r="E65" s="192"/>
       <c r="F65" s="192"/>
       <c r="G65" s="192"/>
-      <c r="H65" s="373"/>
+      <c r="H65" s="403"/>
       <c r="I65" s="192"/>
       <c r="J65" s="192"/>
       <c r="K65" s="192"/>
       <c r="L65" s="192"/>
-      <c r="M65" s="373"/>
-      <c r="N65" s="375"/>
+      <c r="M65" s="403"/>
+      <c r="N65" s="405"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="368"/>
+      <c r="B66" s="406"/>
       <c r="C66" s="186"/>
       <c r="D66" s="188"/>
       <c r="E66" s="188"/>
       <c r="F66" s="188"/>
       <c r="G66" s="188"/>
-      <c r="H66" s="369"/>
+      <c r="H66" s="407"/>
       <c r="I66" s="188"/>
       <c r="J66" s="188"/>
       <c r="K66" s="188"/>
       <c r="L66" s="188"/>
-      <c r="M66" s="369"/>
-      <c r="N66" s="376"/>
+      <c r="M66" s="407"/>
+      <c r="N66" s="411"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="368"/>
+      <c r="B67" s="406"/>
       <c r="C67" s="186"/>
       <c r="D67" s="188"/>
       <c r="E67" s="188"/>
       <c r="F67" s="188"/>
       <c r="G67" s="188"/>
-      <c r="H67" s="369"/>
+      <c r="H67" s="407"/>
       <c r="I67" s="188"/>
       <c r="J67" s="188"/>
       <c r="K67" s="188"/>
       <c r="L67" s="188"/>
-      <c r="M67" s="369"/>
-      <c r="N67" s="371"/>
+      <c r="M67" s="407"/>
+      <c r="N67" s="409"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="368"/>
+      <c r="B68" s="406"/>
       <c r="C68" s="186"/>
       <c r="D68" s="188"/>
       <c r="E68" s="188"/>
       <c r="F68" s="188"/>
       <c r="G68" s="188"/>
-      <c r="H68" s="369"/>
+      <c r="H68" s="407"/>
       <c r="I68" s="188"/>
       <c r="J68" s="188"/>
       <c r="K68" s="188"/>
       <c r="L68" s="188"/>
-      <c r="M68" s="369"/>
-      <c r="N68" s="371"/>
+      <c r="M68" s="407"/>
+      <c r="N68" s="409"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="368"/>
+      <c r="B69" s="406"/>
       <c r="C69" s="186"/>
       <c r="D69" s="188"/>
       <c r="E69" s="188"/>
       <c r="F69" s="188"/>
       <c r="G69" s="188"/>
-      <c r="H69" s="369"/>
+      <c r="H69" s="407"/>
       <c r="I69" s="188"/>
       <c r="J69" s="188"/>
       <c r="K69" s="188"/>
       <c r="L69" s="188"/>
-      <c r="M69" s="369"/>
-      <c r="N69" s="371"/>
+      <c r="M69" s="407"/>
+      <c r="N69" s="409"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="368"/>
+      <c r="B70" s="406"/>
       <c r="C70" s="186"/>
       <c r="D70" s="188"/>
       <c r="E70" s="188"/>
       <c r="F70" s="188"/>
       <c r="G70" s="188"/>
-      <c r="H70" s="369"/>
+      <c r="H70" s="407"/>
       <c r="I70" s="188"/>
       <c r="J70" s="188"/>
       <c r="K70" s="188"/>
       <c r="L70" s="188"/>
-      <c r="M70" s="369"/>
-      <c r="N70" s="370"/>
+      <c r="M70" s="407"/>
+      <c r="N70" s="408"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="368"/>
+      <c r="B71" s="406"/>
       <c r="C71" s="186"/>
       <c r="D71" s="188"/>
       <c r="E71" s="188"/>
       <c r="F71" s="188"/>
       <c r="G71" s="188"/>
-      <c r="H71" s="369"/>
+      <c r="H71" s="407"/>
       <c r="I71" s="188"/>
       <c r="J71" s="188"/>
       <c r="K71" s="188"/>
       <c r="L71" s="188"/>
-      <c r="M71" s="369"/>
-      <c r="N71" s="371"/>
+      <c r="M71" s="407"/>
+      <c r="N71" s="409"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="368"/>
+      <c r="B72" s="406"/>
       <c r="C72" s="186"/>
       <c r="D72" s="188"/>
       <c r="E72" s="188"/>
       <c r="F72" s="188"/>
       <c r="G72" s="188"/>
-      <c r="H72" s="369"/>
+      <c r="H72" s="407"/>
       <c r="I72" s="188"/>
       <c r="J72" s="188"/>
       <c r="K72" s="188"/>
       <c r="L72" s="188"/>
-      <c r="M72" s="369"/>
-      <c r="N72" s="371"/>
+      <c r="M72" s="407"/>
+      <c r="N72" s="409"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="368"/>
+      <c r="B73" s="406"/>
       <c r="C73" s="186"/>
       <c r="D73" s="188"/>
       <c r="E73" s="188"/>
       <c r="F73" s="188"/>
       <c r="G73" s="188"/>
-      <c r="H73" s="369"/>
+      <c r="H73" s="407"/>
       <c r="I73" s="188"/>
       <c r="J73" s="188"/>
       <c r="K73" s="188"/>
       <c r="L73" s="188"/>
-      <c r="M73" s="369"/>
-      <c r="N73" s="371"/>
+      <c r="M73" s="407"/>
+      <c r="N73" s="409"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -9514,23 +9520,57 @@
     <row r="140" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="U17:U20"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="R13:R16"/>
     <mergeCell ref="S13:S16"/>
@@ -9547,57 +9587,23 @@
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="O13:O16"/>
     <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">
@@ -9615,7 +9621,7 @@
   <dimension ref="A1:AU434"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="B44" sqref="B44:B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -9663,15 +9669,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="406" t="s">
+      <c r="F1" s="371" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="406"/>
-      <c r="H1" s="406"/>
-      <c r="I1" s="406"/>
-      <c r="J1" s="406"/>
-      <c r="K1" s="406"/>
-      <c r="L1" s="406"/>
+      <c r="G1" s="371"/>
+      <c r="H1" s="371"/>
+      <c r="I1" s="371"/>
+      <c r="J1" s="371"/>
+      <c r="K1" s="371"/>
+      <c r="L1" s="371"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -9720,22 +9726,22 @@
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="407" t="s">
+      <c r="D6" s="372" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="408"/>
-      <c r="F6" s="408"/>
-      <c r="G6" s="408"/>
-      <c r="H6" s="409"/>
+      <c r="E6" s="373"/>
+      <c r="F6" s="373"/>
+      <c r="G6" s="373"/>
+      <c r="H6" s="374"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="407" t="s">
+      <c r="M6" s="372" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="408"/>
-      <c r="O6" s="408"/>
-      <c r="P6" s="408"/>
-      <c r="Q6" s="409"/>
+      <c r="N6" s="373"/>
+      <c r="O6" s="373"/>
+      <c r="P6" s="373"/>
+      <c r="Q6" s="374"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -9753,10 +9759,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="410" t="s">
+      <c r="F7" s="375" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="411"/>
+      <c r="G7" s="376"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -9779,10 +9785,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="410" t="s">
+      <c r="P7" s="375" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="411"/>
+      <c r="Q7" s="376"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -9850,7 +9856,7 @@
     </row>
     <row r="9" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="39"/>
-      <c r="B9" s="398"/>
+      <c r="B9" s="377"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -9861,15 +9867,15 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="42"/>
-      <c r="M9" s="389"/>
-      <c r="N9" s="401"/>
-      <c r="O9" s="389"/>
-      <c r="P9" s="389"/>
-      <c r="Q9" s="389"/>
-      <c r="R9" s="389"/>
-      <c r="S9" s="389"/>
-      <c r="T9" s="392"/>
-      <c r="U9" s="389"/>
+      <c r="M9" s="368"/>
+      <c r="N9" s="380"/>
+      <c r="O9" s="368"/>
+      <c r="P9" s="368"/>
+      <c r="Q9" s="368"/>
+      <c r="R9" s="368"/>
+      <c r="S9" s="368"/>
+      <c r="T9" s="383"/>
+      <c r="U9" s="368"/>
       <c r="V9" s="41"/>
       <c r="W9" s="36"/>
       <c r="X9" s="36"/>
@@ -9879,7 +9885,7 @@
     </row>
     <row r="10" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
-      <c r="B10" s="399"/>
+      <c r="B10" s="378"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -9890,15 +9896,15 @@
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="42"/>
-      <c r="M10" s="390"/>
-      <c r="N10" s="402"/>
-      <c r="O10" s="390"/>
-      <c r="P10" s="390"/>
-      <c r="Q10" s="390"/>
-      <c r="R10" s="390"/>
-      <c r="S10" s="390"/>
-      <c r="T10" s="393"/>
-      <c r="U10" s="390"/>
+      <c r="M10" s="369"/>
+      <c r="N10" s="381"/>
+      <c r="O10" s="369"/>
+      <c r="P10" s="369"/>
+      <c r="Q10" s="369"/>
+      <c r="R10" s="369"/>
+      <c r="S10" s="369"/>
+      <c r="T10" s="384"/>
+      <c r="U10" s="369"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -9906,8 +9912,8 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="389"/>
-      <c r="B11" s="399"/>
+      <c r="A11" s="368"/>
+      <c r="B11" s="378"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -9918,15 +9924,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="390"/>
-      <c r="N11" s="402"/>
-      <c r="O11" s="390"/>
-      <c r="P11" s="390"/>
-      <c r="Q11" s="390"/>
-      <c r="R11" s="390"/>
-      <c r="S11" s="390"/>
-      <c r="T11" s="393"/>
-      <c r="U11" s="390"/>
+      <c r="M11" s="369"/>
+      <c r="N11" s="381"/>
+      <c r="O11" s="369"/>
+      <c r="P11" s="369"/>
+      <c r="Q11" s="369"/>
+      <c r="R11" s="369"/>
+      <c r="S11" s="369"/>
+      <c r="T11" s="384"/>
+      <c r="U11" s="369"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -9936,8 +9942,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="391"/>
-      <c r="B12" s="400"/>
+      <c r="A12" s="370"/>
+      <c r="B12" s="379"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -9948,15 +9954,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="391"/>
-      <c r="N12" s="403"/>
-      <c r="O12" s="391"/>
-      <c r="P12" s="391"/>
-      <c r="Q12" s="391"/>
-      <c r="R12" s="391"/>
-      <c r="S12" s="391"/>
-      <c r="T12" s="394"/>
-      <c r="U12" s="391"/>
+      <c r="M12" s="370"/>
+      <c r="N12" s="382"/>
+      <c r="O12" s="370"/>
+      <c r="P12" s="370"/>
+      <c r="Q12" s="370"/>
+      <c r="R12" s="370"/>
+      <c r="S12" s="370"/>
+      <c r="T12" s="385"/>
+      <c r="U12" s="370"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -9965,7 +9971,7 @@
     </row>
     <row r="13" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43"/>
-      <c r="B13" s="398"/>
+      <c r="B13" s="377"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -9976,15 +9982,15 @@
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
       <c r="L13" s="42"/>
-      <c r="M13" s="389"/>
-      <c r="N13" s="401"/>
-      <c r="O13" s="389"/>
-      <c r="P13" s="389"/>
-      <c r="Q13" s="389"/>
-      <c r="R13" s="389"/>
-      <c r="S13" s="389"/>
-      <c r="T13" s="392"/>
-      <c r="U13" s="389"/>
+      <c r="M13" s="368"/>
+      <c r="N13" s="380"/>
+      <c r="O13" s="368"/>
+      <c r="P13" s="368"/>
+      <c r="Q13" s="368"/>
+      <c r="R13" s="368"/>
+      <c r="S13" s="368"/>
+      <c r="T13" s="383"/>
+      <c r="U13" s="368"/>
       <c r="V13" s="41"/>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
@@ -9993,7 +9999,7 @@
     </row>
     <row r="14" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
-      <c r="B14" s="399"/>
+      <c r="B14" s="378"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -10004,15 +10010,15 @@
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
       <c r="L14" s="42"/>
-      <c r="M14" s="390"/>
-      <c r="N14" s="402"/>
-      <c r="O14" s="390"/>
-      <c r="P14" s="390"/>
-      <c r="Q14" s="390"/>
-      <c r="R14" s="390"/>
-      <c r="S14" s="390"/>
-      <c r="T14" s="393"/>
-      <c r="U14" s="390"/>
+      <c r="M14" s="369"/>
+      <c r="N14" s="381"/>
+      <c r="O14" s="369"/>
+      <c r="P14" s="369"/>
+      <c r="Q14" s="369"/>
+      <c r="R14" s="369"/>
+      <c r="S14" s="369"/>
+      <c r="T14" s="384"/>
+      <c r="U14" s="369"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -10020,8 +10026,8 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="404"/>
-      <c r="B15" s="399"/>
+      <c r="A15" s="386"/>
+      <c r="B15" s="378"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -10032,15 +10038,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="390"/>
-      <c r="N15" s="402"/>
-      <c r="O15" s="390"/>
-      <c r="P15" s="390"/>
-      <c r="Q15" s="390"/>
-      <c r="R15" s="390"/>
-      <c r="S15" s="390"/>
-      <c r="T15" s="393"/>
-      <c r="U15" s="390"/>
+      <c r="M15" s="369"/>
+      <c r="N15" s="381"/>
+      <c r="O15" s="369"/>
+      <c r="P15" s="369"/>
+      <c r="Q15" s="369"/>
+      <c r="R15" s="369"/>
+      <c r="S15" s="369"/>
+      <c r="T15" s="384"/>
+      <c r="U15" s="369"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -10048,8 +10054,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="405"/>
-      <c r="B16" s="400"/>
+      <c r="A16" s="387"/>
+      <c r="B16" s="379"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -10060,15 +10066,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="391"/>
-      <c r="N16" s="403"/>
-      <c r="O16" s="391"/>
-      <c r="P16" s="391"/>
-      <c r="Q16" s="391"/>
-      <c r="R16" s="391"/>
-      <c r="S16" s="391"/>
-      <c r="T16" s="394"/>
-      <c r="U16" s="391"/>
+      <c r="M16" s="370"/>
+      <c r="N16" s="382"/>
+      <c r="O16" s="370"/>
+      <c r="P16" s="370"/>
+      <c r="Q16" s="370"/>
+      <c r="R16" s="370"/>
+      <c r="S16" s="370"/>
+      <c r="T16" s="385"/>
+      <c r="U16" s="370"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -10077,7 +10083,7 @@
     </row>
     <row r="17" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39"/>
-      <c r="B17" s="398"/>
+      <c r="B17" s="377"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -10088,15 +10094,15 @@
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
       <c r="L17" s="42"/>
-      <c r="M17" s="389"/>
-      <c r="N17" s="401"/>
-      <c r="O17" s="389"/>
-      <c r="P17" s="389"/>
-      <c r="Q17" s="389"/>
-      <c r="R17" s="389"/>
-      <c r="S17" s="389"/>
-      <c r="T17" s="392"/>
-      <c r="U17" s="389"/>
+      <c r="M17" s="368"/>
+      <c r="N17" s="380"/>
+      <c r="O17" s="368"/>
+      <c r="P17" s="368"/>
+      <c r="Q17" s="368"/>
+      <c r="R17" s="368"/>
+      <c r="S17" s="368"/>
+      <c r="T17" s="383"/>
+      <c r="U17" s="368"/>
       <c r="V17" s="41"/>
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
@@ -10105,7 +10111,7 @@
     </row>
     <row r="18" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
-      <c r="B18" s="399"/>
+      <c r="B18" s="378"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -10116,22 +10122,22 @@
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="42"/>
-      <c r="M18" s="390"/>
-      <c r="N18" s="402"/>
-      <c r="O18" s="390"/>
-      <c r="P18" s="390"/>
-      <c r="Q18" s="390"/>
-      <c r="R18" s="390"/>
-      <c r="S18" s="390"/>
-      <c r="T18" s="393"/>
-      <c r="U18" s="390"/>
+      <c r="M18" s="369"/>
+      <c r="N18" s="381"/>
+      <c r="O18" s="369"/>
+      <c r="P18" s="369"/>
+      <c r="Q18" s="369"/>
+      <c r="R18" s="369"/>
+      <c r="S18" s="369"/>
+      <c r="T18" s="384"/>
+      <c r="U18" s="369"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="389"/>
-      <c r="B19" s="399"/>
+      <c r="A19" s="368"/>
+      <c r="B19" s="378"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -10142,22 +10148,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="390"/>
-      <c r="N19" s="402"/>
-      <c r="O19" s="390"/>
-      <c r="P19" s="390"/>
-      <c r="Q19" s="390"/>
-      <c r="R19" s="390"/>
-      <c r="S19" s="390"/>
-      <c r="T19" s="393"/>
-      <c r="U19" s="390"/>
+      <c r="M19" s="369"/>
+      <c r="N19" s="381"/>
+      <c r="O19" s="369"/>
+      <c r="P19" s="369"/>
+      <c r="Q19" s="369"/>
+      <c r="R19" s="369"/>
+      <c r="S19" s="369"/>
+      <c r="T19" s="384"/>
+      <c r="U19" s="369"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="391"/>
-      <c r="B20" s="400"/>
+      <c r="A20" s="370"/>
+      <c r="B20" s="379"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -10168,22 +10174,22 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="391"/>
-      <c r="N20" s="403"/>
-      <c r="O20" s="391"/>
-      <c r="P20" s="391"/>
-      <c r="Q20" s="391"/>
-      <c r="R20" s="391"/>
-      <c r="S20" s="391"/>
-      <c r="T20" s="394"/>
-      <c r="U20" s="391"/>
+      <c r="M20" s="370"/>
+      <c r="N20" s="382"/>
+      <c r="O20" s="370"/>
+      <c r="P20" s="370"/>
+      <c r="Q20" s="370"/>
+      <c r="R20" s="370"/>
+      <c r="S20" s="370"/>
+      <c r="T20" s="385"/>
+      <c r="U20" s="370"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
     </row>
     <row r="21" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39"/>
-      <c r="B21" s="398"/>
+      <c r="B21" s="377"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -10194,22 +10200,22 @@
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
       <c r="L21" s="42"/>
-      <c r="M21" s="389"/>
-      <c r="N21" s="401"/>
-      <c r="O21" s="389"/>
-      <c r="P21" s="389"/>
-      <c r="Q21" s="389"/>
-      <c r="R21" s="389"/>
-      <c r="S21" s="389"/>
-      <c r="T21" s="392"/>
-      <c r="U21" s="389"/>
+      <c r="M21" s="368"/>
+      <c r="N21" s="380"/>
+      <c r="O21" s="368"/>
+      <c r="P21" s="368"/>
+      <c r="Q21" s="368"/>
+      <c r="R21" s="368"/>
+      <c r="S21" s="368"/>
+      <c r="T21" s="383"/>
+      <c r="U21" s="368"/>
       <c r="V21" s="41"/>
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
     </row>
     <row r="22" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="40"/>
-      <c r="B22" s="399"/>
+      <c r="B22" s="378"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -10220,22 +10226,22 @@
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
       <c r="L22" s="42"/>
-      <c r="M22" s="390"/>
-      <c r="N22" s="402"/>
-      <c r="O22" s="390"/>
-      <c r="P22" s="390"/>
-      <c r="Q22" s="390"/>
-      <c r="R22" s="390"/>
-      <c r="S22" s="390"/>
-      <c r="T22" s="393"/>
-      <c r="U22" s="390"/>
+      <c r="M22" s="369"/>
+      <c r="N22" s="381"/>
+      <c r="O22" s="369"/>
+      <c r="P22" s="369"/>
+      <c r="Q22" s="369"/>
+      <c r="R22" s="369"/>
+      <c r="S22" s="369"/>
+      <c r="T22" s="384"/>
+      <c r="U22" s="369"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="395"/>
-      <c r="B23" s="399"/>
+      <c r="A23" s="388"/>
+      <c r="B23" s="378"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -10246,22 +10252,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="390"/>
-      <c r="N23" s="402"/>
-      <c r="O23" s="390"/>
-      <c r="P23" s="390"/>
-      <c r="Q23" s="390"/>
-      <c r="R23" s="390"/>
-      <c r="S23" s="390"/>
-      <c r="T23" s="393"/>
-      <c r="U23" s="390"/>
+      <c r="M23" s="369"/>
+      <c r="N23" s="381"/>
+      <c r="O23" s="369"/>
+      <c r="P23" s="369"/>
+      <c r="Q23" s="369"/>
+      <c r="R23" s="369"/>
+      <c r="S23" s="369"/>
+      <c r="T23" s="384"/>
+      <c r="U23" s="369"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="396"/>
-      <c r="B24" s="400"/>
+      <c r="A24" s="389"/>
+      <c r="B24" s="379"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -10272,15 +10278,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="391"/>
-      <c r="N24" s="403"/>
-      <c r="O24" s="391"/>
-      <c r="P24" s="391"/>
-      <c r="Q24" s="391"/>
-      <c r="R24" s="391"/>
-      <c r="S24" s="391"/>
-      <c r="T24" s="394"/>
-      <c r="U24" s="391"/>
+      <c r="M24" s="370"/>
+      <c r="N24" s="382"/>
+      <c r="O24" s="370"/>
+      <c r="P24" s="370"/>
+      <c r="Q24" s="370"/>
+      <c r="R24" s="370"/>
+      <c r="S24" s="370"/>
+      <c r="T24" s="385"/>
+      <c r="U24" s="370"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -10749,7 +10755,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="310" t="s">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c r="D42" s="34"/>
       <c r="E42" s="34"/>
@@ -10795,7 +10801,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="310" t="s">
-        <v>99</v>
+        <v>243</v>
       </c>
       <c r="D43" s="34"/>
       <c r="E43" s="34"/>
@@ -10840,9 +10846,7 @@
       <c r="A44" s="310">
         <v>3</v>
       </c>
-      <c r="B44" s="310" t="s">
-        <v>103</v>
-      </c>
+      <c r="B44" s="310"/>
       <c r="D44" s="34"/>
       <c r="E44" s="34"/>
       <c r="F44" s="286"/>
@@ -10886,9 +10890,7 @@
       <c r="A45" s="310">
         <v>4</v>
       </c>
-      <c r="B45" s="310" t="s">
-        <v>106</v>
-      </c>
+      <c r="B45" s="310"/>
       <c r="D45" s="34"/>
       <c r="E45" s="34"/>
       <c r="F45" s="286"/>
@@ -18301,44 +18303,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P17:P20"/>
     <mergeCell ref="Q40:Y40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:M40"/>
@@ -18353,6 +18317,44 @@
     <mergeCell ref="R21:R24"/>
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P17:P20"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q9:Q12"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">
@@ -18411,15 +18413,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="406" t="s">
+      <c r="F1" s="371" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="406"/>
-      <c r="H1" s="406"/>
-      <c r="I1" s="406"/>
-      <c r="J1" s="406"/>
-      <c r="K1" s="406"/>
-      <c r="L1" s="406"/>
+      <c r="G1" s="371"/>
+      <c r="H1" s="371"/>
+      <c r="I1" s="371"/>
+      <c r="J1" s="371"/>
+      <c r="K1" s="371"/>
+      <c r="L1" s="371"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -18508,22 +18510,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="407" t="s">
+      <c r="D6" s="372" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="408"/>
-      <c r="F6" s="408"/>
-      <c r="G6" s="408"/>
-      <c r="H6" s="409"/>
+      <c r="E6" s="373"/>
+      <c r="F6" s="373"/>
+      <c r="G6" s="373"/>
+      <c r="H6" s="374"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="407" t="s">
+      <c r="M6" s="372" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="408"/>
-      <c r="O6" s="408"/>
-      <c r="P6" s="408"/>
-      <c r="Q6" s="409"/>
+      <c r="N6" s="373"/>
+      <c r="O6" s="373"/>
+      <c r="P6" s="373"/>
+      <c r="Q6" s="374"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -18541,10 +18543,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="410" t="s">
+      <c r="F7" s="375" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="411"/>
+      <c r="G7" s="376"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -18567,10 +18569,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="410" t="s">
+      <c r="P7" s="375" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="411"/>
+      <c r="Q7" s="376"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -18647,7 +18649,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="398" t="s">
+      <c r="B9" s="377" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -18681,33 +18683,33 @@
         <f t="shared" ref="L9:L22" si="0">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="389">
+      <c r="M9" s="368">
         <v>20</v>
       </c>
-      <c r="N9" s="401" t="s">
+      <c r="N9" s="380" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="389">
+      <c r="O9" s="368">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="389">
+      <c r="P9" s="368">
         <v>3</v>
       </c>
-      <c r="Q9" s="389">
+      <c r="Q9" s="368">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="389">
+      <c r="R9" s="368">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="389"/>
-      <c r="T9" s="392">
+      <c r="S9" s="368"/>
+      <c r="T9" s="383">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="389">
+      <c r="U9" s="368">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -18732,7 +18734,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="399"/>
+      <c r="B10" s="378"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -18764,15 +18766,15 @@
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="390"/>
-      <c r="N10" s="402"/>
-      <c r="O10" s="390"/>
-      <c r="P10" s="390"/>
-      <c r="Q10" s="390"/>
-      <c r="R10" s="390"/>
-      <c r="S10" s="390"/>
-      <c r="T10" s="393"/>
-      <c r="U10" s="390"/>
+      <c r="M10" s="369"/>
+      <c r="N10" s="381"/>
+      <c r="O10" s="369"/>
+      <c r="P10" s="369"/>
+      <c r="Q10" s="369"/>
+      <c r="R10" s="369"/>
+      <c r="S10" s="369"/>
+      <c r="T10" s="384"/>
+      <c r="U10" s="369"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -18780,10 +18782,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="389" t="s">
+      <c r="A11" s="368" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="399"/>
+      <c r="B11" s="378"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -18794,15 +18796,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="390"/>
-      <c r="N11" s="402"/>
-      <c r="O11" s="390"/>
-      <c r="P11" s="390"/>
-      <c r="Q11" s="390"/>
-      <c r="R11" s="390"/>
-      <c r="S11" s="390"/>
-      <c r="T11" s="393"/>
-      <c r="U11" s="390"/>
+      <c r="M11" s="369"/>
+      <c r="N11" s="381"/>
+      <c r="O11" s="369"/>
+      <c r="P11" s="369"/>
+      <c r="Q11" s="369"/>
+      <c r="R11" s="369"/>
+      <c r="S11" s="369"/>
+      <c r="T11" s="384"/>
+      <c r="U11" s="369"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -18821,8 +18823,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="391"/>
-      <c r="B12" s="400"/>
+      <c r="A12" s="370"/>
+      <c r="B12" s="379"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -18833,15 +18835,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="391"/>
-      <c r="N12" s="403"/>
-      <c r="O12" s="391"/>
-      <c r="P12" s="391"/>
-      <c r="Q12" s="391"/>
-      <c r="R12" s="391"/>
-      <c r="S12" s="391"/>
-      <c r="T12" s="394"/>
-      <c r="U12" s="391"/>
+      <c r="M12" s="370"/>
+      <c r="N12" s="382"/>
+      <c r="O12" s="370"/>
+      <c r="P12" s="370"/>
+      <c r="Q12" s="370"/>
+      <c r="R12" s="370"/>
+      <c r="S12" s="370"/>
+      <c r="T12" s="385"/>
+      <c r="U12" s="370"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -18857,7 +18859,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="398" t="s">
+      <c r="B13" s="377" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -18891,33 +18893,33 @@
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="389">
+      <c r="M13" s="368">
         <v>80</v>
       </c>
-      <c r="N13" s="401" t="s">
+      <c r="N13" s="380" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="389">
+      <c r="O13" s="368">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="389">
+      <c r="P13" s="368">
         <v>2</v>
       </c>
-      <c r="Q13" s="389">
+      <c r="Q13" s="368">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="389">
+      <c r="R13" s="368">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="389"/>
-      <c r="T13" s="392">
+      <c r="S13" s="368"/>
+      <c r="T13" s="383">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="389">
+      <c r="U13" s="368">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -18940,7 +18942,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="399"/>
+      <c r="B14" s="378"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -18972,15 +18974,15 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="390"/>
-      <c r="N14" s="402"/>
-      <c r="O14" s="390"/>
-      <c r="P14" s="390"/>
-      <c r="Q14" s="390"/>
-      <c r="R14" s="390"/>
-      <c r="S14" s="390"/>
-      <c r="T14" s="393"/>
-      <c r="U14" s="390"/>
+      <c r="M14" s="369"/>
+      <c r="N14" s="381"/>
+      <c r="O14" s="369"/>
+      <c r="P14" s="369"/>
+      <c r="Q14" s="369"/>
+      <c r="R14" s="369"/>
+      <c r="S14" s="369"/>
+      <c r="T14" s="384"/>
+      <c r="U14" s="369"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -18988,10 +18990,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="404" t="s">
+      <c r="A15" s="386" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="399"/>
+      <c r="B15" s="378"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -19002,15 +19004,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="390"/>
-      <c r="N15" s="402"/>
-      <c r="O15" s="390"/>
-      <c r="P15" s="390"/>
-      <c r="Q15" s="390"/>
-      <c r="R15" s="390"/>
-      <c r="S15" s="390"/>
-      <c r="T15" s="393"/>
-      <c r="U15" s="390"/>
+      <c r="M15" s="369"/>
+      <c r="N15" s="381"/>
+      <c r="O15" s="369"/>
+      <c r="P15" s="369"/>
+      <c r="Q15" s="369"/>
+      <c r="R15" s="369"/>
+      <c r="S15" s="369"/>
+      <c r="T15" s="384"/>
+      <c r="U15" s="369"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -19020,8 +19022,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="405"/>
-      <c r="B16" s="400"/>
+      <c r="A16" s="387"/>
+      <c r="B16" s="379"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -19032,15 +19034,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="391"/>
-      <c r="N16" s="403"/>
-      <c r="O16" s="391"/>
-      <c r="P16" s="391"/>
-      <c r="Q16" s="391"/>
-      <c r="R16" s="391"/>
-      <c r="S16" s="391"/>
-      <c r="T16" s="394"/>
-      <c r="U16" s="391"/>
+      <c r="M16" s="370"/>
+      <c r="N16" s="382"/>
+      <c r="O16" s="370"/>
+      <c r="P16" s="370"/>
+      <c r="Q16" s="370"/>
+      <c r="R16" s="370"/>
+      <c r="S16" s="370"/>
+      <c r="T16" s="385"/>
+      <c r="U16" s="370"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -19051,7 +19053,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="398" t="s">
+      <c r="B17" s="377" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -19085,33 +19087,33 @@
         <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="389">
+      <c r="M17" s="368">
         <v>70</v>
       </c>
-      <c r="N17" s="401" t="s">
+      <c r="N17" s="380" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="389">
+      <c r="O17" s="368">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="389">
+      <c r="P17" s="368">
         <v>2</v>
       </c>
-      <c r="Q17" s="389">
+      <c r="Q17" s="368">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="389">
+      <c r="R17" s="368">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="389"/>
-      <c r="T17" s="392">
+      <c r="S17" s="368"/>
+      <c r="T17" s="383">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="389">
+      <c r="U17" s="368">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -19130,7 +19132,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="399"/>
+      <c r="B18" s="378"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -19162,24 +19164,24 @@
         <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="390"/>
-      <c r="N18" s="402"/>
-      <c r="O18" s="390"/>
-      <c r="P18" s="390"/>
-      <c r="Q18" s="390"/>
-      <c r="R18" s="390"/>
-      <c r="S18" s="390"/>
-      <c r="T18" s="393"/>
-      <c r="U18" s="390"/>
+      <c r="M18" s="369"/>
+      <c r="N18" s="381"/>
+      <c r="O18" s="369"/>
+      <c r="P18" s="369"/>
+      <c r="Q18" s="369"/>
+      <c r="R18" s="369"/>
+      <c r="S18" s="369"/>
+      <c r="T18" s="384"/>
+      <c r="U18" s="369"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="389" t="s">
+      <c r="A19" s="368" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="399"/>
+      <c r="B19" s="378"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -19190,22 +19192,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="390"/>
-      <c r="N19" s="402"/>
-      <c r="O19" s="390"/>
-      <c r="P19" s="390"/>
-      <c r="Q19" s="390"/>
-      <c r="R19" s="390"/>
-      <c r="S19" s="390"/>
-      <c r="T19" s="393"/>
-      <c r="U19" s="390"/>
+      <c r="M19" s="369"/>
+      <c r="N19" s="381"/>
+      <c r="O19" s="369"/>
+      <c r="P19" s="369"/>
+      <c r="Q19" s="369"/>
+      <c r="R19" s="369"/>
+      <c r="S19" s="369"/>
+      <c r="T19" s="384"/>
+      <c r="U19" s="369"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="391"/>
-      <c r="B20" s="400"/>
+      <c r="A20" s="370"/>
+      <c r="B20" s="379"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -19216,15 +19218,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="391"/>
-      <c r="N20" s="403"/>
-      <c r="O20" s="391"/>
-      <c r="P20" s="391"/>
-      <c r="Q20" s="391"/>
-      <c r="R20" s="391"/>
-      <c r="S20" s="391"/>
-      <c r="T20" s="394"/>
-      <c r="U20" s="391"/>
+      <c r="M20" s="370"/>
+      <c r="N20" s="382"/>
+      <c r="O20" s="370"/>
+      <c r="P20" s="370"/>
+      <c r="Q20" s="370"/>
+      <c r="R20" s="370"/>
+      <c r="S20" s="370"/>
+      <c r="T20" s="385"/>
+      <c r="U20" s="370"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -19233,7 +19235,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="398" t="s">
+      <c r="B21" s="377" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -19267,33 +19269,33 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="389">
+      <c r="M21" s="368">
         <v>60</v>
       </c>
-      <c r="N21" s="401" t="s">
+      <c r="N21" s="380" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="389">
+      <c r="O21" s="368">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="389">
+      <c r="P21" s="368">
         <v>3</v>
       </c>
-      <c r="Q21" s="389">
+      <c r="Q21" s="368">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="389">
+      <c r="R21" s="368">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="389"/>
-      <c r="T21" s="392">
+      <c r="S21" s="368"/>
+      <c r="T21" s="383">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="389">
+      <c r="U21" s="368">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -19310,7 +19312,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="399"/>
+      <c r="B22" s="378"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -19342,24 +19344,24 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="390"/>
-      <c r="N22" s="402"/>
-      <c r="O22" s="390"/>
-      <c r="P22" s="390"/>
-      <c r="Q22" s="390"/>
-      <c r="R22" s="390"/>
-      <c r="S22" s="390"/>
-      <c r="T22" s="393"/>
-      <c r="U22" s="390"/>
+      <c r="M22" s="369"/>
+      <c r="N22" s="381"/>
+      <c r="O22" s="369"/>
+      <c r="P22" s="369"/>
+      <c r="Q22" s="369"/>
+      <c r="R22" s="369"/>
+      <c r="S22" s="369"/>
+      <c r="T22" s="384"/>
+      <c r="U22" s="369"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="395" t="s">
+      <c r="A23" s="388" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="399"/>
+      <c r="B23" s="378"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -19370,22 +19372,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="390"/>
-      <c r="N23" s="402"/>
-      <c r="O23" s="390"/>
-      <c r="P23" s="390"/>
-      <c r="Q23" s="390"/>
-      <c r="R23" s="390"/>
-      <c r="S23" s="390"/>
-      <c r="T23" s="393"/>
-      <c r="U23" s="390"/>
+      <c r="M23" s="369"/>
+      <c r="N23" s="381"/>
+      <c r="O23" s="369"/>
+      <c r="P23" s="369"/>
+      <c r="Q23" s="369"/>
+      <c r="R23" s="369"/>
+      <c r="S23" s="369"/>
+      <c r="T23" s="384"/>
+      <c r="U23" s="369"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="396"/>
-      <c r="B24" s="400"/>
+      <c r="A24" s="389"/>
+      <c r="B24" s="379"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -19396,15 +19398,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="391"/>
-      <c r="N24" s="403"/>
-      <c r="O24" s="391"/>
-      <c r="P24" s="391"/>
-      <c r="Q24" s="391"/>
-      <c r="R24" s="391"/>
-      <c r="S24" s="391"/>
-      <c r="T24" s="394"/>
-      <c r="U24" s="391"/>
+      <c r="M24" s="370"/>
+      <c r="N24" s="382"/>
+      <c r="O24" s="370"/>
+      <c r="P24" s="370"/>
+      <c r="Q24" s="370"/>
+      <c r="R24" s="370"/>
+      <c r="S24" s="370"/>
+      <c r="T24" s="385"/>
+      <c r="U24" s="370"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -19430,13 +19432,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="397" t="s">
+      <c r="H27" s="390" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="397"/>
-      <c r="J27" s="397"/>
-      <c r="K27" s="397"/>
-      <c r="L27" s="397"/>
+      <c r="I27" s="390"/>
+      <c r="J27" s="390"/>
+      <c r="K27" s="390"/>
+      <c r="L27" s="390"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -19716,19 +19718,19 @@
     <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="387" t="s">
+      <c r="D40" s="393" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="387"/>
-      <c r="F40" s="387"/>
-      <c r="G40" s="387"/>
-      <c r="H40" s="387"/>
-      <c r="I40" s="387" t="s">
+      <c r="E40" s="393"/>
+      <c r="F40" s="393"/>
+      <c r="G40" s="393"/>
+      <c r="H40" s="393"/>
+      <c r="I40" s="393" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="387"/>
-      <c r="K40" s="387"/>
-      <c r="L40" s="387"/>
+      <c r="J40" s="393"/>
+      <c r="K40" s="393"/>
+      <c r="L40" s="393"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -19852,19 +19854,19 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="382"/>
+      <c r="B42" s="394"/>
       <c r="C42" s="110"/>
       <c r="D42" s="111"/>
       <c r="E42" s="111"/>
       <c r="F42" s="125"/>
       <c r="G42" s="125"/>
-      <c r="H42" s="383"/>
+      <c r="H42" s="392"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="125"/>
       <c r="L42" s="125"/>
-      <c r="M42" s="383"/>
-      <c r="N42" s="424"/>
+      <c r="M42" s="392"/>
+      <c r="N42" s="419"/>
       <c r="P42" s="91"/>
       <c r="Q42" s="91"/>
       <c r="U42" s="64"/>
@@ -19910,19 +19912,19 @@
       <c r="AN42" s="88"/>
     </row>
     <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="382"/>
+      <c r="B43" s="394"/>
       <c r="C43" s="110"/>
       <c r="D43" s="125"/>
       <c r="E43" s="111"/>
       <c r="F43" s="125"/>
       <c r="G43" s="103"/>
-      <c r="H43" s="383"/>
+      <c r="H43" s="392"/>
       <c r="I43" s="111"/>
       <c r="J43" s="111"/>
       <c r="K43" s="103"/>
       <c r="L43" s="103"/>
-      <c r="M43" s="383"/>
-      <c r="N43" s="383"/>
+      <c r="M43" s="392"/>
+      <c r="N43" s="392"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -19968,19 +19970,19 @@
       <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="382"/>
+      <c r="B44" s="394"/>
       <c r="C44" s="110"/>
       <c r="D44" s="111"/>
       <c r="E44" s="111"/>
       <c r="F44" s="125"/>
       <c r="G44" s="125"/>
-      <c r="H44" s="383"/>
+      <c r="H44" s="392"/>
       <c r="I44" s="111"/>
       <c r="J44" s="111"/>
       <c r="K44" s="125"/>
       <c r="L44" s="125"/>
-      <c r="M44" s="383"/>
-      <c r="N44" s="383"/>
+      <c r="M44" s="392"/>
+      <c r="N44" s="392"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -20026,19 +20028,19 @@
       <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="382"/>
+      <c r="B45" s="394"/>
       <c r="C45" s="110"/>
       <c r="D45" s="111"/>
       <c r="E45" s="111"/>
       <c r="F45" s="125"/>
       <c r="G45" s="125"/>
-      <c r="H45" s="383"/>
+      <c r="H45" s="392"/>
       <c r="I45" s="111"/>
       <c r="J45" s="111"/>
       <c r="K45" s="125"/>
       <c r="L45" s="125"/>
-      <c r="M45" s="383"/>
-      <c r="N45" s="383"/>
+      <c r="M45" s="392"/>
+      <c r="N45" s="392"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -20084,19 +20086,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="382"/>
+      <c r="B46" s="394"/>
       <c r="C46" s="110"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="125"/>
       <c r="G46" s="125"/>
-      <c r="H46" s="383"/>
+      <c r="H46" s="392"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="125"/>
       <c r="L46" s="125"/>
-      <c r="M46" s="383"/>
-      <c r="N46" s="425"/>
+      <c r="M46" s="392"/>
+      <c r="N46" s="420"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -20142,19 +20144,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="382"/>
+      <c r="B47" s="394"/>
       <c r="C47" s="110"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="383"/>
+      <c r="H47" s="392"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="383"/>
-      <c r="N47" s="385"/>
+      <c r="M47" s="392"/>
+      <c r="N47" s="396"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -20202,19 +20204,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="382"/>
+      <c r="B48" s="394"/>
       <c r="C48" s="110"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="383"/>
+      <c r="H48" s="392"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="383"/>
-      <c r="N48" s="385"/>
+      <c r="M48" s="392"/>
+      <c r="N48" s="396"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -20262,19 +20264,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="382"/>
+      <c r="B49" s="394"/>
       <c r="C49" s="110"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="383"/>
+      <c r="H49" s="392"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="383"/>
-      <c r="N49" s="385"/>
+      <c r="M49" s="392"/>
+      <c r="N49" s="396"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -20322,19 +20324,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="377"/>
+      <c r="B50" s="397"/>
       <c r="C50" s="112"/>
       <c r="D50" s="113"/>
       <c r="E50" s="113"/>
       <c r="F50" s="113"/>
       <c r="G50" s="113"/>
-      <c r="H50" s="378"/>
+      <c r="H50" s="398"/>
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
       <c r="L50" s="113"/>
-      <c r="M50" s="378"/>
-      <c r="N50" s="426"/>
+      <c r="M50" s="398"/>
+      <c r="N50" s="421"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -20355,19 +20357,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="377"/>
+      <c r="B51" s="397"/>
       <c r="C51" s="112"/>
       <c r="D51" s="113"/>
       <c r="E51" s="113"/>
       <c r="F51" s="113"/>
       <c r="G51" s="113"/>
-      <c r="H51" s="378"/>
+      <c r="H51" s="398"/>
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
       <c r="L51" s="113"/>
-      <c r="M51" s="378"/>
-      <c r="N51" s="380"/>
+      <c r="M51" s="398"/>
+      <c r="N51" s="400"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -20398,19 +20400,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="377"/>
+      <c r="B52" s="397"/>
       <c r="C52" s="112"/>
       <c r="D52" s="113"/>
       <c r="E52" s="113"/>
       <c r="F52" s="113"/>
       <c r="G52" s="113"/>
-      <c r="H52" s="378"/>
+      <c r="H52" s="398"/>
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
       <c r="L52" s="113"/>
-      <c r="M52" s="378"/>
-      <c r="N52" s="380"/>
+      <c r="M52" s="398"/>
+      <c r="N52" s="400"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -20474,19 +20476,19 @@
       </c>
     </row>
     <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="377"/>
+      <c r="B53" s="397"/>
       <c r="C53" s="112"/>
       <c r="D53" s="113"/>
       <c r="E53" s="113"/>
       <c r="F53" s="113"/>
       <c r="G53" s="113"/>
-      <c r="H53" s="378"/>
+      <c r="H53" s="398"/>
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
       <c r="L53" s="113"/>
-      <c r="M53" s="378"/>
-      <c r="N53" s="380"/>
+      <c r="M53" s="398"/>
+      <c r="N53" s="400"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -20535,19 +20537,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="377"/>
+      <c r="B54" s="397"/>
       <c r="C54" s="112"/>
       <c r="D54" s="113"/>
       <c r="E54" s="113"/>
       <c r="F54" s="113"/>
       <c r="G54" s="113"/>
-      <c r="H54" s="378"/>
+      <c r="H54" s="398"/>
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
       <c r="L54" s="113"/>
-      <c r="M54" s="378"/>
-      <c r="N54" s="419"/>
+      <c r="M54" s="398"/>
+      <c r="N54" s="422"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -20594,19 +20596,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="377"/>
+      <c r="B55" s="397"/>
       <c r="C55" s="112"/>
       <c r="D55" s="113"/>
       <c r="E55" s="113"/>
       <c r="F55" s="113"/>
       <c r="G55" s="113"/>
-      <c r="H55" s="378"/>
+      <c r="H55" s="398"/>
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
       <c r="L55" s="113"/>
-      <c r="M55" s="378"/>
-      <c r="N55" s="380"/>
+      <c r="M55" s="398"/>
+      <c r="N55" s="400"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -20653,19 +20655,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="377"/>
+      <c r="B56" s="397"/>
       <c r="C56" s="112"/>
       <c r="D56" s="113"/>
       <c r="E56" s="113"/>
       <c r="F56" s="113"/>
       <c r="G56" s="113"/>
-      <c r="H56" s="378"/>
+      <c r="H56" s="398"/>
       <c r="I56" s="113"/>
       <c r="J56" s="113"/>
       <c r="K56" s="113"/>
       <c r="L56" s="113"/>
-      <c r="M56" s="378"/>
-      <c r="N56" s="380"/>
+      <c r="M56" s="398"/>
+      <c r="N56" s="400"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -20712,19 +20714,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="377"/>
+      <c r="B57" s="397"/>
       <c r="C57" s="112"/>
       <c r="D57" s="113"/>
       <c r="E57" s="113"/>
       <c r="F57" s="113"/>
       <c r="G57" s="113"/>
-      <c r="H57" s="378"/>
+      <c r="H57" s="398"/>
       <c r="I57" s="113"/>
       <c r="J57" s="113"/>
       <c r="K57" s="113"/>
       <c r="L57" s="113"/>
-      <c r="M57" s="378"/>
-      <c r="N57" s="380"/>
+      <c r="M57" s="398"/>
+      <c r="N57" s="400"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -20771,19 +20773,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="372"/>
+      <c r="B58" s="402"/>
       <c r="C58" s="114"/>
       <c r="D58" s="115"/>
       <c r="E58" s="115"/>
       <c r="F58" s="115"/>
       <c r="G58" s="115"/>
-      <c r="H58" s="373"/>
+      <c r="H58" s="403"/>
       <c r="I58" s="115"/>
       <c r="J58" s="115"/>
       <c r="K58" s="115"/>
       <c r="L58" s="115"/>
-      <c r="M58" s="373"/>
-      <c r="N58" s="420"/>
+      <c r="M58" s="403"/>
+      <c r="N58" s="423"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -20830,19 +20832,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="372"/>
+      <c r="B59" s="402"/>
       <c r="C59" s="114"/>
       <c r="D59" s="115"/>
       <c r="E59" s="115"/>
       <c r="F59" s="115"/>
       <c r="G59" s="115"/>
-      <c r="H59" s="373"/>
+      <c r="H59" s="403"/>
       <c r="I59" s="115"/>
       <c r="J59" s="115"/>
       <c r="K59" s="115"/>
       <c r="L59" s="115"/>
-      <c r="M59" s="373"/>
-      <c r="N59" s="375"/>
+      <c r="M59" s="403"/>
+      <c r="N59" s="405"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -20889,19 +20891,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="372"/>
+      <c r="B60" s="402"/>
       <c r="C60" s="114"/>
       <c r="D60" s="115"/>
       <c r="E60" s="115"/>
       <c r="F60" s="115"/>
       <c r="G60" s="115"/>
-      <c r="H60" s="373"/>
+      <c r="H60" s="403"/>
       <c r="I60" s="115"/>
       <c r="J60" s="115"/>
       <c r="K60" s="115"/>
       <c r="L60" s="115"/>
-      <c r="M60" s="373"/>
-      <c r="N60" s="375"/>
+      <c r="M60" s="403"/>
+      <c r="N60" s="405"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -20948,247 +20950,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="372"/>
+      <c r="B61" s="402"/>
       <c r="C61" s="114"/>
       <c r="D61" s="115"/>
       <c r="E61" s="115"/>
       <c r="F61" s="115"/>
       <c r="G61" s="115"/>
-      <c r="H61" s="373"/>
+      <c r="H61" s="403"/>
       <c r="I61" s="115"/>
       <c r="J61" s="115"/>
       <c r="K61" s="115"/>
       <c r="L61" s="115"/>
-      <c r="M61" s="373"/>
-      <c r="N61" s="375"/>
+      <c r="M61" s="403"/>
+      <c r="N61" s="405"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="372"/>
+      <c r="B62" s="402"/>
       <c r="C62" s="114"/>
       <c r="D62" s="115"/>
       <c r="E62" s="115"/>
       <c r="F62" s="115"/>
       <c r="G62" s="115"/>
-      <c r="H62" s="373"/>
+      <c r="H62" s="403"/>
       <c r="I62" s="115"/>
       <c r="J62" s="115"/>
       <c r="K62" s="115"/>
       <c r="L62" s="115"/>
-      <c r="M62" s="373"/>
-      <c r="N62" s="421"/>
+      <c r="M62" s="403"/>
+      <c r="N62" s="424"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="372"/>
+      <c r="B63" s="402"/>
       <c r="C63" s="114"/>
       <c r="D63" s="115"/>
       <c r="E63" s="115"/>
       <c r="F63" s="115"/>
       <c r="G63" s="115"/>
-      <c r="H63" s="373"/>
+      <c r="H63" s="403"/>
       <c r="I63" s="115"/>
       <c r="J63" s="115"/>
       <c r="K63" s="115"/>
       <c r="L63" s="115"/>
-      <c r="M63" s="373"/>
-      <c r="N63" s="375"/>
+      <c r="M63" s="403"/>
+      <c r="N63" s="405"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="372"/>
+      <c r="B64" s="402"/>
       <c r="C64" s="114"/>
       <c r="D64" s="115"/>
       <c r="E64" s="115"/>
       <c r="F64" s="115"/>
       <c r="G64" s="115"/>
-      <c r="H64" s="373"/>
+      <c r="H64" s="403"/>
       <c r="I64" s="115"/>
       <c r="J64" s="115"/>
       <c r="K64" s="115"/>
       <c r="L64" s="115"/>
-      <c r="M64" s="373"/>
-      <c r="N64" s="375"/>
+      <c r="M64" s="403"/>
+      <c r="N64" s="405"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="372"/>
+      <c r="B65" s="402"/>
       <c r="C65" s="114"/>
       <c r="D65" s="115"/>
       <c r="E65" s="115"/>
       <c r="F65" s="115"/>
       <c r="G65" s="115"/>
-      <c r="H65" s="373"/>
+      <c r="H65" s="403"/>
       <c r="I65" s="115"/>
       <c r="J65" s="115"/>
       <c r="K65" s="115"/>
       <c r="L65" s="115"/>
-      <c r="M65" s="373"/>
-      <c r="N65" s="375"/>
+      <c r="M65" s="403"/>
+      <c r="N65" s="405"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="368"/>
+      <c r="B66" s="406"/>
       <c r="C66" s="128"/>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
       <c r="F66" s="116"/>
       <c r="G66" s="116"/>
-      <c r="H66" s="369"/>
+      <c r="H66" s="407"/>
       <c r="I66" s="116"/>
       <c r="J66" s="116"/>
       <c r="K66" s="116"/>
       <c r="L66" s="116"/>
-      <c r="M66" s="369"/>
-      <c r="N66" s="422"/>
+      <c r="M66" s="407"/>
+      <c r="N66" s="425"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="368"/>
+      <c r="B67" s="406"/>
       <c r="C67" s="128"/>
       <c r="D67" s="116"/>
       <c r="E67" s="116"/>
       <c r="F67" s="116"/>
       <c r="G67" s="116"/>
-      <c r="H67" s="369"/>
+      <c r="H67" s="407"/>
       <c r="I67" s="116"/>
       <c r="J67" s="116"/>
       <c r="K67" s="116"/>
       <c r="L67" s="116"/>
-      <c r="M67" s="369"/>
-      <c r="N67" s="371"/>
+      <c r="M67" s="407"/>
+      <c r="N67" s="409"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="368"/>
+      <c r="B68" s="406"/>
       <c r="C68" s="128"/>
       <c r="D68" s="116"/>
       <c r="E68" s="116"/>
       <c r="F68" s="116"/>
       <c r="G68" s="116"/>
-      <c r="H68" s="369"/>
+      <c r="H68" s="407"/>
       <c r="I68" s="116"/>
       <c r="J68" s="116"/>
       <c r="K68" s="116"/>
       <c r="L68" s="116"/>
-      <c r="M68" s="369"/>
-      <c r="N68" s="371"/>
+      <c r="M68" s="407"/>
+      <c r="N68" s="409"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="368"/>
+      <c r="B69" s="406"/>
       <c r="C69" s="128"/>
       <c r="D69" s="116"/>
       <c r="E69" s="116"/>
       <c r="F69" s="116"/>
       <c r="G69" s="116"/>
-      <c r="H69" s="369"/>
+      <c r="H69" s="407"/>
       <c r="I69" s="116"/>
       <c r="J69" s="116"/>
       <c r="K69" s="116"/>
       <c r="L69" s="116"/>
-      <c r="M69" s="369"/>
-      <c r="N69" s="371"/>
+      <c r="M69" s="407"/>
+      <c r="N69" s="409"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="368"/>
+      <c r="B70" s="406"/>
       <c r="C70" s="128"/>
       <c r="D70" s="116"/>
       <c r="E70" s="116"/>
       <c r="F70" s="116"/>
       <c r="G70" s="116"/>
-      <c r="H70" s="369"/>
+      <c r="H70" s="407"/>
       <c r="I70" s="116"/>
       <c r="J70" s="116"/>
       <c r="K70" s="116"/>
       <c r="L70" s="116"/>
-      <c r="M70" s="369"/>
-      <c r="N70" s="423"/>
+      <c r="M70" s="407"/>
+      <c r="N70" s="426"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="368"/>
+      <c r="B71" s="406"/>
       <c r="C71" s="128"/>
       <c r="D71" s="116"/>
       <c r="E71" s="116"/>
       <c r="F71" s="116"/>
       <c r="G71" s="116"/>
-      <c r="H71" s="369"/>
+      <c r="H71" s="407"/>
       <c r="I71" s="116"/>
       <c r="J71" s="116"/>
       <c r="K71" s="116"/>
       <c r="L71" s="116"/>
-      <c r="M71" s="369"/>
-      <c r="N71" s="371"/>
+      <c r="M71" s="407"/>
+      <c r="N71" s="409"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="368"/>
+      <c r="B72" s="406"/>
       <c r="C72" s="128"/>
       <c r="D72" s="116"/>
       <c r="E72" s="116"/>
       <c r="F72" s="116"/>
       <c r="G72" s="116"/>
-      <c r="H72" s="369"/>
+      <c r="H72" s="407"/>
       <c r="I72" s="116"/>
       <c r="J72" s="116"/>
       <c r="K72" s="116"/>
       <c r="L72" s="116"/>
-      <c r="M72" s="369"/>
-      <c r="N72" s="371"/>
+      <c r="M72" s="407"/>
+      <c r="N72" s="409"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="368"/>
+      <c r="B73" s="406"/>
       <c r="C73" s="128"/>
       <c r="D73" s="116"/>
       <c r="E73" s="116"/>
       <c r="F73" s="116"/>
       <c r="G73" s="116"/>
-      <c r="H73" s="369"/>
+      <c r="H73" s="407"/>
       <c r="I73" s="116"/>
       <c r="J73" s="116"/>
       <c r="K73" s="116"/>
       <c r="L73" s="116"/>
-      <c r="M73" s="369"/>
-      <c r="N73" s="371"/>
+      <c r="M73" s="407"/>
+      <c r="N73" s="409"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -22669,24 +22671,56 @@
     <row r="140" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="M46:M49"/>
     <mergeCell ref="U17:U20"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="R13:R16"/>
@@ -22703,56 +22737,24 @@
     <mergeCell ref="M13:M16"/>
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="O13:O16"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="247">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -838,13 +838,22 @@
     <t>Solid</t>
   </si>
   <si>
-    <t>Select Type:</t>
-  </si>
-  <si>
-    <t>Test3</t>
-  </si>
-  <si>
-    <t>Test4</t>
+    <t>Select Product Type</t>
+  </si>
+  <si>
+    <t>Limit Selection Type</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Test Product5</t>
+  </si>
+  <si>
+    <t>Test Product6</t>
+  </si>
+  <si>
+    <t>Tenant ID:</t>
   </si>
 </sst>
 </file>
@@ -1940,7 +1949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="427">
+  <cellXfs count="429">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2561,6 +2570,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2709,6 +2721,7 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5128,15 +5141,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="371" t="s">
+      <c r="F1" s="372" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="371"/>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="371"/>
-      <c r="K1" s="371"/>
-      <c r="L1" s="371"/>
+      <c r="G1" s="372"/>
+      <c r="H1" s="372"/>
+      <c r="I1" s="372"/>
+      <c r="J1" s="372"/>
+      <c r="K1" s="372"/>
+      <c r="L1" s="372"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -5225,22 +5238,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="372" t="s">
+      <c r="D6" s="373" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="373"/>
-      <c r="F6" s="373"/>
-      <c r="G6" s="373"/>
-      <c r="H6" s="374"/>
+      <c r="E6" s="374"/>
+      <c r="F6" s="374"/>
+      <c r="G6" s="374"/>
+      <c r="H6" s="375"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="372" t="s">
+      <c r="M6" s="373" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="373"/>
-      <c r="O6" s="373"/>
-      <c r="P6" s="373"/>
-      <c r="Q6" s="374"/>
+      <c r="N6" s="374"/>
+      <c r="O6" s="374"/>
+      <c r="P6" s="374"/>
+      <c r="Q6" s="375"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -5258,10 +5271,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="375" t="s">
+      <c r="F7" s="376" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="376"/>
+      <c r="G7" s="377"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -5284,10 +5297,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="375" t="s">
+      <c r="P7" s="376" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="376"/>
+      <c r="Q7" s="377"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -5364,7 +5377,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="377" t="s">
+      <c r="B9" s="378" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -5398,33 +5411,33 @@
         <f t="shared" ref="L9:L22" si="0">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="368">
+      <c r="M9" s="369">
         <v>20</v>
       </c>
-      <c r="N9" s="380" t="s">
+      <c r="N9" s="381" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="368">
+      <c r="O9" s="369">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="368">
+      <c r="P9" s="369">
         <v>3</v>
       </c>
-      <c r="Q9" s="368">
+      <c r="Q9" s="369">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="368">
+      <c r="R9" s="369">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="368"/>
-      <c r="T9" s="383">
+      <c r="S9" s="369"/>
+      <c r="T9" s="384">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="368">
+      <c r="U9" s="369">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -5449,7 +5462,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="378"/>
+      <c r="B10" s="379"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -5481,15 +5494,15 @@
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="369"/>
-      <c r="N10" s="381"/>
-      <c r="O10" s="369"/>
-      <c r="P10" s="369"/>
-      <c r="Q10" s="369"/>
-      <c r="R10" s="369"/>
-      <c r="S10" s="369"/>
-      <c r="T10" s="384"/>
-      <c r="U10" s="369"/>
+      <c r="M10" s="370"/>
+      <c r="N10" s="382"/>
+      <c r="O10" s="370"/>
+      <c r="P10" s="370"/>
+      <c r="Q10" s="370"/>
+      <c r="R10" s="370"/>
+      <c r="S10" s="370"/>
+      <c r="T10" s="385"/>
+      <c r="U10" s="370"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -5497,10 +5510,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="368" t="s">
+      <c r="A11" s="369" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="378"/>
+      <c r="B11" s="379"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -5511,15 +5524,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="369"/>
-      <c r="N11" s="381"/>
-      <c r="O11" s="369"/>
-      <c r="P11" s="369"/>
-      <c r="Q11" s="369"/>
-      <c r="R11" s="369"/>
-      <c r="S11" s="369"/>
-      <c r="T11" s="384"/>
-      <c r="U11" s="369"/>
+      <c r="M11" s="370"/>
+      <c r="N11" s="382"/>
+      <c r="O11" s="370"/>
+      <c r="P11" s="370"/>
+      <c r="Q11" s="370"/>
+      <c r="R11" s="370"/>
+      <c r="S11" s="370"/>
+      <c r="T11" s="385"/>
+      <c r="U11" s="370"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -5538,8 +5551,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="370"/>
-      <c r="B12" s="379"/>
+      <c r="A12" s="371"/>
+      <c r="B12" s="380"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -5550,15 +5563,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="370"/>
-      <c r="N12" s="382"/>
-      <c r="O12" s="370"/>
-      <c r="P12" s="370"/>
-      <c r="Q12" s="370"/>
-      <c r="R12" s="370"/>
-      <c r="S12" s="370"/>
-      <c r="T12" s="385"/>
-      <c r="U12" s="370"/>
+      <c r="M12" s="371"/>
+      <c r="N12" s="383"/>
+      <c r="O12" s="371"/>
+      <c r="P12" s="371"/>
+      <c r="Q12" s="371"/>
+      <c r="R12" s="371"/>
+      <c r="S12" s="371"/>
+      <c r="T12" s="386"/>
+      <c r="U12" s="371"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -5574,7 +5587,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="377" t="s">
+      <c r="B13" s="378" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -5608,33 +5621,33 @@
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="368">
+      <c r="M13" s="369">
         <v>80</v>
       </c>
-      <c r="N13" s="380" t="s">
+      <c r="N13" s="381" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="368">
+      <c r="O13" s="369">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="368">
+      <c r="P13" s="369">
         <v>2</v>
       </c>
-      <c r="Q13" s="368">
+      <c r="Q13" s="369">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="368">
+      <c r="R13" s="369">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="368"/>
-      <c r="T13" s="383">
+      <c r="S13" s="369"/>
+      <c r="T13" s="384">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="368">
+      <c r="U13" s="369">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -5657,7 +5670,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="378"/>
+      <c r="B14" s="379"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -5689,15 +5702,15 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="369"/>
-      <c r="N14" s="381"/>
-      <c r="O14" s="369"/>
-      <c r="P14" s="369"/>
-      <c r="Q14" s="369"/>
-      <c r="R14" s="369"/>
-      <c r="S14" s="369"/>
-      <c r="T14" s="384"/>
-      <c r="U14" s="369"/>
+      <c r="M14" s="370"/>
+      <c r="N14" s="382"/>
+      <c r="O14" s="370"/>
+      <c r="P14" s="370"/>
+      <c r="Q14" s="370"/>
+      <c r="R14" s="370"/>
+      <c r="S14" s="370"/>
+      <c r="T14" s="385"/>
+      <c r="U14" s="370"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -5705,10 +5718,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="386" t="s">
+      <c r="A15" s="387" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="378"/>
+      <c r="B15" s="379"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -5719,15 +5732,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="369"/>
-      <c r="N15" s="381"/>
-      <c r="O15" s="369"/>
-      <c r="P15" s="369"/>
-      <c r="Q15" s="369"/>
-      <c r="R15" s="369"/>
-      <c r="S15" s="369"/>
-      <c r="T15" s="384"/>
-      <c r="U15" s="369"/>
+      <c r="M15" s="370"/>
+      <c r="N15" s="382"/>
+      <c r="O15" s="370"/>
+      <c r="P15" s="370"/>
+      <c r="Q15" s="370"/>
+      <c r="R15" s="370"/>
+      <c r="S15" s="370"/>
+      <c r="T15" s="385"/>
+      <c r="U15" s="370"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -5737,8 +5750,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="387"/>
-      <c r="B16" s="379"/>
+      <c r="A16" s="388"/>
+      <c r="B16" s="380"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -5749,15 +5762,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="370"/>
-      <c r="N16" s="382"/>
-      <c r="O16" s="370"/>
-      <c r="P16" s="370"/>
-      <c r="Q16" s="370"/>
-      <c r="R16" s="370"/>
-      <c r="S16" s="370"/>
-      <c r="T16" s="385"/>
-      <c r="U16" s="370"/>
+      <c r="M16" s="371"/>
+      <c r="N16" s="383"/>
+      <c r="O16" s="371"/>
+      <c r="P16" s="371"/>
+      <c r="Q16" s="371"/>
+      <c r="R16" s="371"/>
+      <c r="S16" s="371"/>
+      <c r="T16" s="386"/>
+      <c r="U16" s="371"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -5768,7 +5781,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="377" t="s">
+      <c r="B17" s="378" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -5802,33 +5815,33 @@
         <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="368">
+      <c r="M17" s="369">
         <v>70</v>
       </c>
-      <c r="N17" s="380" t="s">
+      <c r="N17" s="381" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="368">
+      <c r="O17" s="369">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="368">
+      <c r="P17" s="369">
         <v>2</v>
       </c>
-      <c r="Q17" s="368">
+      <c r="Q17" s="369">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="368">
+      <c r="R17" s="369">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="368"/>
-      <c r="T17" s="383">
+      <c r="S17" s="369"/>
+      <c r="T17" s="384">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="368">
+      <c r="U17" s="369">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -5847,7 +5860,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="378"/>
+      <c r="B18" s="379"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -5879,24 +5892,24 @@
         <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="369"/>
-      <c r="N18" s="381"/>
-      <c r="O18" s="369"/>
-      <c r="P18" s="369"/>
-      <c r="Q18" s="369"/>
-      <c r="R18" s="369"/>
-      <c r="S18" s="369"/>
-      <c r="T18" s="384"/>
-      <c r="U18" s="369"/>
+      <c r="M18" s="370"/>
+      <c r="N18" s="382"/>
+      <c r="O18" s="370"/>
+      <c r="P18" s="370"/>
+      <c r="Q18" s="370"/>
+      <c r="R18" s="370"/>
+      <c r="S18" s="370"/>
+      <c r="T18" s="385"/>
+      <c r="U18" s="370"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="368" t="s">
+      <c r="A19" s="369" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="378"/>
+      <c r="B19" s="379"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -5907,22 +5920,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="369"/>
-      <c r="N19" s="381"/>
-      <c r="O19" s="369"/>
-      <c r="P19" s="369"/>
-      <c r="Q19" s="369"/>
-      <c r="R19" s="369"/>
-      <c r="S19" s="369"/>
-      <c r="T19" s="384"/>
-      <c r="U19" s="369"/>
+      <c r="M19" s="370"/>
+      <c r="N19" s="382"/>
+      <c r="O19" s="370"/>
+      <c r="P19" s="370"/>
+      <c r="Q19" s="370"/>
+      <c r="R19" s="370"/>
+      <c r="S19" s="370"/>
+      <c r="T19" s="385"/>
+      <c r="U19" s="370"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="370"/>
-      <c r="B20" s="379"/>
+      <c r="A20" s="371"/>
+      <c r="B20" s="380"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -5933,15 +5946,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="370"/>
-      <c r="N20" s="382"/>
-      <c r="O20" s="370"/>
-      <c r="P20" s="370"/>
-      <c r="Q20" s="370"/>
-      <c r="R20" s="370"/>
-      <c r="S20" s="370"/>
-      <c r="T20" s="385"/>
-      <c r="U20" s="370"/>
+      <c r="M20" s="371"/>
+      <c r="N20" s="383"/>
+      <c r="O20" s="371"/>
+      <c r="P20" s="371"/>
+      <c r="Q20" s="371"/>
+      <c r="R20" s="371"/>
+      <c r="S20" s="371"/>
+      <c r="T20" s="386"/>
+      <c r="U20" s="371"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -5950,7 +5963,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="377" t="s">
+      <c r="B21" s="378" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -5984,33 +5997,33 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="368">
+      <c r="M21" s="369">
         <v>60</v>
       </c>
-      <c r="N21" s="380" t="s">
+      <c r="N21" s="381" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="368">
+      <c r="O21" s="369">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="368">
+      <c r="P21" s="369">
         <v>3</v>
       </c>
-      <c r="Q21" s="368">
+      <c r="Q21" s="369">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="368">
+      <c r="R21" s="369">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="368"/>
-      <c r="T21" s="383">
+      <c r="S21" s="369"/>
+      <c r="T21" s="384">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="368">
+      <c r="U21" s="369">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -6027,7 +6040,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="378"/>
+      <c r="B22" s="379"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -6059,24 +6072,24 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="369"/>
-      <c r="N22" s="381"/>
-      <c r="O22" s="369"/>
-      <c r="P22" s="369"/>
-      <c r="Q22" s="369"/>
-      <c r="R22" s="369"/>
-      <c r="S22" s="369"/>
-      <c r="T22" s="384"/>
-      <c r="U22" s="369"/>
+      <c r="M22" s="370"/>
+      <c r="N22" s="382"/>
+      <c r="O22" s="370"/>
+      <c r="P22" s="370"/>
+      <c r="Q22" s="370"/>
+      <c r="R22" s="370"/>
+      <c r="S22" s="370"/>
+      <c r="T22" s="385"/>
+      <c r="U22" s="370"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="388" t="s">
+      <c r="A23" s="389" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="378"/>
+      <c r="B23" s="379"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -6087,22 +6100,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="369"/>
-      <c r="N23" s="381"/>
-      <c r="O23" s="369"/>
-      <c r="P23" s="369"/>
-      <c r="Q23" s="369"/>
-      <c r="R23" s="369"/>
-      <c r="S23" s="369"/>
-      <c r="T23" s="384"/>
-      <c r="U23" s="369"/>
+      <c r="M23" s="370"/>
+      <c r="N23" s="382"/>
+      <c r="O23" s="370"/>
+      <c r="P23" s="370"/>
+      <c r="Q23" s="370"/>
+      <c r="R23" s="370"/>
+      <c r="S23" s="370"/>
+      <c r="T23" s="385"/>
+      <c r="U23" s="370"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="389"/>
-      <c r="B24" s="379"/>
+      <c r="A24" s="390"/>
+      <c r="B24" s="380"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -6113,15 +6126,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="370"/>
-      <c r="N24" s="382"/>
-      <c r="O24" s="370"/>
-      <c r="P24" s="370"/>
-      <c r="Q24" s="370"/>
-      <c r="R24" s="370"/>
-      <c r="S24" s="370"/>
-      <c r="T24" s="385"/>
-      <c r="U24" s="370"/>
+      <c r="M24" s="371"/>
+      <c r="N24" s="383"/>
+      <c r="O24" s="371"/>
+      <c r="P24" s="371"/>
+      <c r="Q24" s="371"/>
+      <c r="R24" s="371"/>
+      <c r="S24" s="371"/>
+      <c r="T24" s="386"/>
+      <c r="U24" s="371"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -6147,13 +6160,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="390" t="s">
+      <c r="H27" s="391" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="390"/>
-      <c r="J27" s="390"/>
-      <c r="K27" s="390"/>
-      <c r="L27" s="390"/>
+      <c r="I27" s="391"/>
+      <c r="J27" s="391"/>
+      <c r="K27" s="391"/>
+      <c r="L27" s="391"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -6433,19 +6446,19 @@
     <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="393" t="s">
+      <c r="D40" s="394" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="393"/>
-      <c r="F40" s="393"/>
-      <c r="G40" s="393"/>
-      <c r="H40" s="393"/>
-      <c r="I40" s="393" t="s">
+      <c r="E40" s="394"/>
+      <c r="F40" s="394"/>
+      <c r="G40" s="394"/>
+      <c r="H40" s="394"/>
+      <c r="I40" s="394" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="393"/>
-      <c r="K40" s="393"/>
-      <c r="L40" s="393"/>
+      <c r="J40" s="394"/>
+      <c r="K40" s="394"/>
+      <c r="L40" s="394"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -6569,7 +6582,7 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="394" t="s">
+      <c r="B42" s="395" t="s">
         <v>226</v>
       </c>
       <c r="C42" s="190"/>
@@ -6577,17 +6590,17 @@
       <c r="E42" s="111"/>
       <c r="F42" s="189"/>
       <c r="G42" s="189"/>
-      <c r="H42" s="392">
+      <c r="H42" s="393">
         <v>3.095975611358881E-3</v>
       </c>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="189"/>
       <c r="L42" s="189"/>
-      <c r="M42" s="392">
+      <c r="M42" s="393">
         <v>1</v>
       </c>
-      <c r="N42" s="391" t="s">
+      <c r="N42" s="392" t="s">
         <v>59</v>
       </c>
       <c r="P42" s="91"/>
@@ -6635,7 +6648,7 @@
       <c r="AN42" s="88"/>
     </row>
     <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="394"/>
+      <c r="B43" s="395"/>
       <c r="C43" s="190" t="s">
         <v>220</v>
       </c>
@@ -6651,7 +6664,7 @@
       <c r="G43" s="103">
         <v>97.126746422628088</v>
       </c>
-      <c r="H43" s="392"/>
+      <c r="H43" s="393"/>
       <c r="I43" s="111">
         <v>1</v>
       </c>
@@ -6664,8 +6677,8 @@
       <c r="L43" s="103">
         <v>1</v>
       </c>
-      <c r="M43" s="392"/>
-      <c r="N43" s="392"/>
+      <c r="M43" s="393"/>
+      <c r="N43" s="393"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -6711,7 +6724,7 @@
       <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="394"/>
+      <c r="B44" s="395"/>
       <c r="C44" s="190" t="s">
         <v>218</v>
       </c>
@@ -6727,7 +6740,7 @@
       <c r="G44" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H44" s="392"/>
+      <c r="H44" s="393"/>
       <c r="I44" s="111">
         <v>1</v>
       </c>
@@ -6740,8 +6753,8 @@
       <c r="L44" s="189">
         <v>1</v>
       </c>
-      <c r="M44" s="392"/>
-      <c r="N44" s="392"/>
+      <c r="M44" s="393"/>
+      <c r="N44" s="393"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -6787,7 +6800,7 @@
       <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="394"/>
+      <c r="B45" s="395"/>
       <c r="C45" s="190" t="s">
         <v>219</v>
       </c>
@@ -6803,7 +6816,7 @@
       <c r="G45" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H45" s="392"/>
+      <c r="H45" s="393"/>
       <c r="I45" s="111">
         <v>1</v>
       </c>
@@ -6816,8 +6829,8 @@
       <c r="L45" s="189">
         <v>1</v>
       </c>
-      <c r="M45" s="392"/>
-      <c r="N45" s="392"/>
+      <c r="M45" s="393"/>
+      <c r="N45" s="393"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -6863,19 +6876,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="394"/>
+      <c r="B46" s="395"/>
       <c r="C46" s="190"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="189"/>
       <c r="G46" s="189"/>
-      <c r="H46" s="392"/>
+      <c r="H46" s="393"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="189"/>
       <c r="L46" s="189"/>
-      <c r="M46" s="392"/>
-      <c r="N46" s="395"/>
+      <c r="M46" s="393"/>
+      <c r="N46" s="396"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -6921,19 +6934,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="394"/>
+      <c r="B47" s="395"/>
       <c r="C47" s="190"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="392"/>
+      <c r="H47" s="393"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="392"/>
-      <c r="N47" s="396"/>
+      <c r="M47" s="393"/>
+      <c r="N47" s="397"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -6981,19 +6994,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="394"/>
+      <c r="B48" s="395"/>
       <c r="C48" s="190"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="392"/>
+      <c r="H48" s="393"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="392"/>
-      <c r="N48" s="396"/>
+      <c r="M48" s="393"/>
+      <c r="N48" s="397"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -7041,19 +7054,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="394"/>
+      <c r="B49" s="395"/>
       <c r="C49" s="190"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="392"/>
+      <c r="H49" s="393"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="392"/>
-      <c r="N49" s="396"/>
+      <c r="M49" s="393"/>
+      <c r="N49" s="397"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -7101,19 +7114,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="397"/>
+      <c r="B50" s="398"/>
       <c r="C50" s="191"/>
       <c r="D50" s="187"/>
       <c r="E50" s="187"/>
       <c r="F50" s="187"/>
       <c r="G50" s="187"/>
-      <c r="H50" s="398"/>
+      <c r="H50" s="399"/>
       <c r="I50" s="187"/>
       <c r="J50" s="187"/>
       <c r="K50" s="187"/>
       <c r="L50" s="187"/>
-      <c r="M50" s="398"/>
-      <c r="N50" s="399"/>
+      <c r="M50" s="399"/>
+      <c r="N50" s="400"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -7134,19 +7147,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="397"/>
+      <c r="B51" s="398"/>
       <c r="C51" s="191"/>
       <c r="D51" s="187"/>
       <c r="E51" s="187"/>
       <c r="F51" s="187"/>
       <c r="G51" s="187"/>
-      <c r="H51" s="398"/>
+      <c r="H51" s="399"/>
       <c r="I51" s="187"/>
       <c r="J51" s="187"/>
       <c r="K51" s="187"/>
       <c r="L51" s="187"/>
-      <c r="M51" s="398"/>
-      <c r="N51" s="400"/>
+      <c r="M51" s="399"/>
+      <c r="N51" s="401"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -7177,19 +7190,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="397"/>
+      <c r="B52" s="398"/>
       <c r="C52" s="191"/>
       <c r="D52" s="187"/>
       <c r="E52" s="187"/>
       <c r="F52" s="187"/>
       <c r="G52" s="187"/>
-      <c r="H52" s="398"/>
+      <c r="H52" s="399"/>
       <c r="I52" s="187"/>
       <c r="J52" s="187"/>
       <c r="K52" s="187"/>
       <c r="L52" s="187"/>
-      <c r="M52" s="398"/>
-      <c r="N52" s="400"/>
+      <c r="M52" s="399"/>
+      <c r="N52" s="401"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -7253,19 +7266,19 @@
       </c>
     </row>
     <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="397"/>
+      <c r="B53" s="398"/>
       <c r="C53" s="191"/>
       <c r="D53" s="187"/>
       <c r="E53" s="187"/>
       <c r="F53" s="187"/>
       <c r="G53" s="187"/>
-      <c r="H53" s="398"/>
+      <c r="H53" s="399"/>
       <c r="I53" s="187"/>
       <c r="J53" s="187"/>
       <c r="K53" s="187"/>
       <c r="L53" s="187"/>
-      <c r="M53" s="398"/>
-      <c r="N53" s="400"/>
+      <c r="M53" s="399"/>
+      <c r="N53" s="401"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -7314,19 +7327,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="397"/>
+      <c r="B54" s="398"/>
       <c r="C54" s="191"/>
       <c r="D54" s="187"/>
       <c r="E54" s="187"/>
       <c r="F54" s="187"/>
       <c r="G54" s="187"/>
-      <c r="H54" s="398"/>
+      <c r="H54" s="399"/>
       <c r="I54" s="187"/>
       <c r="J54" s="187"/>
       <c r="K54" s="187"/>
       <c r="L54" s="187"/>
-      <c r="M54" s="398"/>
-      <c r="N54" s="401"/>
+      <c r="M54" s="399"/>
+      <c r="N54" s="402"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -7373,19 +7386,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="397"/>
+      <c r="B55" s="398"/>
       <c r="C55" s="191"/>
       <c r="D55" s="187"/>
       <c r="E55" s="187"/>
       <c r="F55" s="187"/>
       <c r="G55" s="187"/>
-      <c r="H55" s="398"/>
+      <c r="H55" s="399"/>
       <c r="I55" s="187"/>
       <c r="J55" s="187"/>
       <c r="K55" s="187"/>
       <c r="L55" s="187"/>
-      <c r="M55" s="398"/>
-      <c r="N55" s="400"/>
+      <c r="M55" s="399"/>
+      <c r="N55" s="401"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -7432,19 +7445,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="397"/>
+      <c r="B56" s="398"/>
       <c r="C56" s="191"/>
       <c r="D56" s="187"/>
       <c r="E56" s="187"/>
       <c r="F56" s="187"/>
       <c r="G56" s="187"/>
-      <c r="H56" s="398"/>
+      <c r="H56" s="399"/>
       <c r="I56" s="187"/>
       <c r="J56" s="187"/>
       <c r="K56" s="187"/>
       <c r="L56" s="187"/>
-      <c r="M56" s="398"/>
-      <c r="N56" s="400"/>
+      <c r="M56" s="399"/>
+      <c r="N56" s="401"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -7491,19 +7504,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="397"/>
+      <c r="B57" s="398"/>
       <c r="C57" s="191"/>
       <c r="D57" s="187"/>
       <c r="E57" s="187"/>
       <c r="F57" s="187"/>
       <c r="G57" s="187"/>
-      <c r="H57" s="398"/>
+      <c r="H57" s="399"/>
       <c r="I57" s="187"/>
       <c r="J57" s="187"/>
       <c r="K57" s="187"/>
       <c r="L57" s="187"/>
-      <c r="M57" s="398"/>
-      <c r="N57" s="400"/>
+      <c r="M57" s="399"/>
+      <c r="N57" s="401"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -7550,19 +7563,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="402"/>
+      <c r="B58" s="403"/>
       <c r="C58" s="185"/>
       <c r="D58" s="192"/>
       <c r="E58" s="192"/>
       <c r="F58" s="192"/>
       <c r="G58" s="192"/>
-      <c r="H58" s="403"/>
+      <c r="H58" s="404"/>
       <c r="I58" s="192"/>
       <c r="J58" s="192"/>
       <c r="K58" s="192"/>
       <c r="L58" s="192"/>
-      <c r="M58" s="403"/>
-      <c r="N58" s="404"/>
+      <c r="M58" s="404"/>
+      <c r="N58" s="405"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -7609,19 +7622,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="402"/>
+      <c r="B59" s="403"/>
       <c r="C59" s="185"/>
       <c r="D59" s="192"/>
       <c r="E59" s="192"/>
       <c r="F59" s="192"/>
       <c r="G59" s="192"/>
-      <c r="H59" s="403"/>
+      <c r="H59" s="404"/>
       <c r="I59" s="192"/>
       <c r="J59" s="192"/>
       <c r="K59" s="192"/>
       <c r="L59" s="192"/>
-      <c r="M59" s="403"/>
-      <c r="N59" s="405"/>
+      <c r="M59" s="404"/>
+      <c r="N59" s="406"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -7668,19 +7681,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="402"/>
+      <c r="B60" s="403"/>
       <c r="C60" s="185"/>
       <c r="D60" s="192"/>
       <c r="E60" s="192"/>
       <c r="F60" s="192"/>
       <c r="G60" s="192"/>
-      <c r="H60" s="403"/>
+      <c r="H60" s="404"/>
       <c r="I60" s="192"/>
       <c r="J60" s="192"/>
       <c r="K60" s="192"/>
       <c r="L60" s="192"/>
-      <c r="M60" s="403"/>
-      <c r="N60" s="405"/>
+      <c r="M60" s="404"/>
+      <c r="N60" s="406"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -7727,247 +7740,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="402"/>
+      <c r="B61" s="403"/>
       <c r="C61" s="185"/>
       <c r="D61" s="192"/>
       <c r="E61" s="192"/>
       <c r="F61" s="192"/>
       <c r="G61" s="192"/>
-      <c r="H61" s="403"/>
+      <c r="H61" s="404"/>
       <c r="I61" s="192"/>
       <c r="J61" s="192"/>
       <c r="K61" s="192"/>
       <c r="L61" s="192"/>
-      <c r="M61" s="403"/>
-      <c r="N61" s="405"/>
+      <c r="M61" s="404"/>
+      <c r="N61" s="406"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="402"/>
+      <c r="B62" s="403"/>
       <c r="C62" s="185"/>
       <c r="D62" s="192"/>
       <c r="E62" s="192"/>
       <c r="F62" s="192"/>
       <c r="G62" s="192"/>
-      <c r="H62" s="403"/>
+      <c r="H62" s="404"/>
       <c r="I62" s="192"/>
       <c r="J62" s="192"/>
       <c r="K62" s="192"/>
       <c r="L62" s="192"/>
-      <c r="M62" s="403"/>
-      <c r="N62" s="410"/>
+      <c r="M62" s="404"/>
+      <c r="N62" s="411"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="402"/>
+      <c r="B63" s="403"/>
       <c r="C63" s="185"/>
       <c r="D63" s="192"/>
       <c r="E63" s="192"/>
       <c r="F63" s="192"/>
       <c r="G63" s="192"/>
-      <c r="H63" s="403"/>
+      <c r="H63" s="404"/>
       <c r="I63" s="192"/>
       <c r="J63" s="192"/>
       <c r="K63" s="192"/>
       <c r="L63" s="192"/>
-      <c r="M63" s="403"/>
-      <c r="N63" s="405"/>
+      <c r="M63" s="404"/>
+      <c r="N63" s="406"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="402"/>
+      <c r="B64" s="403"/>
       <c r="C64" s="185"/>
       <c r="D64" s="192"/>
       <c r="E64" s="192"/>
       <c r="F64" s="192"/>
       <c r="G64" s="192"/>
-      <c r="H64" s="403"/>
+      <c r="H64" s="404"/>
       <c r="I64" s="192"/>
       <c r="J64" s="192"/>
       <c r="K64" s="192"/>
       <c r="L64" s="192"/>
-      <c r="M64" s="403"/>
-      <c r="N64" s="405"/>
+      <c r="M64" s="404"/>
+      <c r="N64" s="406"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="402"/>
+      <c r="B65" s="403"/>
       <c r="C65" s="185"/>
       <c r="D65" s="192"/>
       <c r="E65" s="192"/>
       <c r="F65" s="192"/>
       <c r="G65" s="192"/>
-      <c r="H65" s="403"/>
+      <c r="H65" s="404"/>
       <c r="I65" s="192"/>
       <c r="J65" s="192"/>
       <c r="K65" s="192"/>
       <c r="L65" s="192"/>
-      <c r="M65" s="403"/>
-      <c r="N65" s="405"/>
+      <c r="M65" s="404"/>
+      <c r="N65" s="406"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="406"/>
+      <c r="B66" s="407"/>
       <c r="C66" s="186"/>
       <c r="D66" s="188"/>
       <c r="E66" s="188"/>
       <c r="F66" s="188"/>
       <c r="G66" s="188"/>
-      <c r="H66" s="407"/>
+      <c r="H66" s="408"/>
       <c r="I66" s="188"/>
       <c r="J66" s="188"/>
       <c r="K66" s="188"/>
       <c r="L66" s="188"/>
-      <c r="M66" s="407"/>
-      <c r="N66" s="411"/>
+      <c r="M66" s="408"/>
+      <c r="N66" s="412"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="406"/>
+      <c r="B67" s="407"/>
       <c r="C67" s="186"/>
       <c r="D67" s="188"/>
       <c r="E67" s="188"/>
       <c r="F67" s="188"/>
       <c r="G67" s="188"/>
-      <c r="H67" s="407"/>
+      <c r="H67" s="408"/>
       <c r="I67" s="188"/>
       <c r="J67" s="188"/>
       <c r="K67" s="188"/>
       <c r="L67" s="188"/>
-      <c r="M67" s="407"/>
-      <c r="N67" s="409"/>
+      <c r="M67" s="408"/>
+      <c r="N67" s="410"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="406"/>
+      <c r="B68" s="407"/>
       <c r="C68" s="186"/>
       <c r="D68" s="188"/>
       <c r="E68" s="188"/>
       <c r="F68" s="188"/>
       <c r="G68" s="188"/>
-      <c r="H68" s="407"/>
+      <c r="H68" s="408"/>
       <c r="I68" s="188"/>
       <c r="J68" s="188"/>
       <c r="K68" s="188"/>
       <c r="L68" s="188"/>
-      <c r="M68" s="407"/>
-      <c r="N68" s="409"/>
+      <c r="M68" s="408"/>
+      <c r="N68" s="410"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="406"/>
+      <c r="B69" s="407"/>
       <c r="C69" s="186"/>
       <c r="D69" s="188"/>
       <c r="E69" s="188"/>
       <c r="F69" s="188"/>
       <c r="G69" s="188"/>
-      <c r="H69" s="407"/>
+      <c r="H69" s="408"/>
       <c r="I69" s="188"/>
       <c r="J69" s="188"/>
       <c r="K69" s="188"/>
       <c r="L69" s="188"/>
-      <c r="M69" s="407"/>
-      <c r="N69" s="409"/>
+      <c r="M69" s="408"/>
+      <c r="N69" s="410"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="406"/>
+      <c r="B70" s="407"/>
       <c r="C70" s="186"/>
       <c r="D70" s="188"/>
       <c r="E70" s="188"/>
       <c r="F70" s="188"/>
       <c r="G70" s="188"/>
-      <c r="H70" s="407"/>
+      <c r="H70" s="408"/>
       <c r="I70" s="188"/>
       <c r="J70" s="188"/>
       <c r="K70" s="188"/>
       <c r="L70" s="188"/>
-      <c r="M70" s="407"/>
-      <c r="N70" s="408"/>
+      <c r="M70" s="408"/>
+      <c r="N70" s="409"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="406"/>
+      <c r="B71" s="407"/>
       <c r="C71" s="186"/>
       <c r="D71" s="188"/>
       <c r="E71" s="188"/>
       <c r="F71" s="188"/>
       <c r="G71" s="188"/>
-      <c r="H71" s="407"/>
+      <c r="H71" s="408"/>
       <c r="I71" s="188"/>
       <c r="J71" s="188"/>
       <c r="K71" s="188"/>
       <c r="L71" s="188"/>
-      <c r="M71" s="407"/>
-      <c r="N71" s="409"/>
+      <c r="M71" s="408"/>
+      <c r="N71" s="410"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="406"/>
+      <c r="B72" s="407"/>
       <c r="C72" s="186"/>
       <c r="D72" s="188"/>
       <c r="E72" s="188"/>
       <c r="F72" s="188"/>
       <c r="G72" s="188"/>
-      <c r="H72" s="407"/>
+      <c r="H72" s="408"/>
       <c r="I72" s="188"/>
       <c r="J72" s="188"/>
       <c r="K72" s="188"/>
       <c r="L72" s="188"/>
-      <c r="M72" s="407"/>
-      <c r="N72" s="409"/>
+      <c r="M72" s="408"/>
+      <c r="N72" s="410"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="406"/>
+      <c r="B73" s="407"/>
       <c r="C73" s="186"/>
       <c r="D73" s="188"/>
       <c r="E73" s="188"/>
       <c r="F73" s="188"/>
       <c r="G73" s="188"/>
-      <c r="H73" s="407"/>
+      <c r="H73" s="408"/>
       <c r="I73" s="188"/>
       <c r="J73" s="188"/>
       <c r="K73" s="188"/>
       <c r="L73" s="188"/>
-      <c r="M73" s="407"/>
-      <c r="N73" s="409"/>
+      <c r="M73" s="408"/>
+      <c r="N73" s="410"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -9621,14 +9634,14 @@
   <dimension ref="A1:AU434"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:B45"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27" style="22" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="29.5703125" style="22" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="33.5703125" style="22" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" style="22" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25" style="22" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="36.140625" style="22" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="30.5703125" style="22" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="21.42578125" style="22" customWidth="1" collapsed="1"/>
@@ -9669,15 +9682,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="371" t="s">
+      <c r="F1" s="372" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="371"/>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="371"/>
-      <c r="K1" s="371"/>
-      <c r="L1" s="371"/>
+      <c r="G1" s="372"/>
+      <c r="H1" s="372"/>
+      <c r="I1" s="372"/>
+      <c r="J1" s="372"/>
+      <c r="K1" s="372"/>
+      <c r="L1" s="372"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -9726,22 +9739,22 @@
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="372" t="s">
+      <c r="D6" s="373" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="373"/>
-      <c r="F6" s="373"/>
-      <c r="G6" s="373"/>
-      <c r="H6" s="374"/>
+      <c r="E6" s="374"/>
+      <c r="F6" s="374"/>
+      <c r="G6" s="374"/>
+      <c r="H6" s="375"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="372" t="s">
+      <c r="M6" s="373" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="373"/>
-      <c r="O6" s="373"/>
-      <c r="P6" s="373"/>
-      <c r="Q6" s="374"/>
+      <c r="N6" s="374"/>
+      <c r="O6" s="374"/>
+      <c r="P6" s="374"/>
+      <c r="Q6" s="375"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -9759,10 +9772,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="375" t="s">
+      <c r="F7" s="376" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="376"/>
+      <c r="G7" s="377"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -9785,10 +9798,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="375" t="s">
+      <c r="P7" s="376" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="376"/>
+      <c r="Q7" s="377"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -9856,7 +9869,7 @@
     </row>
     <row r="9" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="39"/>
-      <c r="B9" s="377"/>
+      <c r="B9" s="378"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -9867,15 +9880,15 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="42"/>
-      <c r="M9" s="368"/>
-      <c r="N9" s="380"/>
-      <c r="O9" s="368"/>
-      <c r="P9" s="368"/>
-      <c r="Q9" s="368"/>
-      <c r="R9" s="368"/>
-      <c r="S9" s="368"/>
-      <c r="T9" s="383"/>
-      <c r="U9" s="368"/>
+      <c r="M9" s="369"/>
+      <c r="N9" s="381"/>
+      <c r="O9" s="369"/>
+      <c r="P9" s="369"/>
+      <c r="Q9" s="369"/>
+      <c r="R9" s="369"/>
+      <c r="S9" s="369"/>
+      <c r="T9" s="384"/>
+      <c r="U9" s="369"/>
       <c r="V9" s="41"/>
       <c r="W9" s="36"/>
       <c r="X9" s="36"/>
@@ -9885,7 +9898,7 @@
     </row>
     <row r="10" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
-      <c r="B10" s="378"/>
+      <c r="B10" s="379"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -9896,15 +9909,15 @@
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="42"/>
-      <c r="M10" s="369"/>
-      <c r="N10" s="381"/>
-      <c r="O10" s="369"/>
-      <c r="P10" s="369"/>
-      <c r="Q10" s="369"/>
-      <c r="R10" s="369"/>
-      <c r="S10" s="369"/>
-      <c r="T10" s="384"/>
-      <c r="U10" s="369"/>
+      <c r="M10" s="370"/>
+      <c r="N10" s="382"/>
+      <c r="O10" s="370"/>
+      <c r="P10" s="370"/>
+      <c r="Q10" s="370"/>
+      <c r="R10" s="370"/>
+      <c r="S10" s="370"/>
+      <c r="T10" s="385"/>
+      <c r="U10" s="370"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -9912,8 +9925,8 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="368"/>
-      <c r="B11" s="378"/>
+      <c r="A11" s="369"/>
+      <c r="B11" s="379"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -9924,15 +9937,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="369"/>
-      <c r="N11" s="381"/>
-      <c r="O11" s="369"/>
-      <c r="P11" s="369"/>
-      <c r="Q11" s="369"/>
-      <c r="R11" s="369"/>
-      <c r="S11" s="369"/>
-      <c r="T11" s="384"/>
-      <c r="U11" s="369"/>
+      <c r="M11" s="370"/>
+      <c r="N11" s="382"/>
+      <c r="O11" s="370"/>
+      <c r="P11" s="370"/>
+      <c r="Q11" s="370"/>
+      <c r="R11" s="370"/>
+      <c r="S11" s="370"/>
+      <c r="T11" s="385"/>
+      <c r="U11" s="370"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -9942,8 +9955,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="370"/>
-      <c r="B12" s="379"/>
+      <c r="A12" s="371"/>
+      <c r="B12" s="380"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -9954,15 +9967,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="370"/>
-      <c r="N12" s="382"/>
-      <c r="O12" s="370"/>
-      <c r="P12" s="370"/>
-      <c r="Q12" s="370"/>
-      <c r="R12" s="370"/>
-      <c r="S12" s="370"/>
-      <c r="T12" s="385"/>
-      <c r="U12" s="370"/>
+      <c r="M12" s="371"/>
+      <c r="N12" s="383"/>
+      <c r="O12" s="371"/>
+      <c r="P12" s="371"/>
+      <c r="Q12" s="371"/>
+      <c r="R12" s="371"/>
+      <c r="S12" s="371"/>
+      <c r="T12" s="386"/>
+      <c r="U12" s="371"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -9971,7 +9984,7 @@
     </row>
     <row r="13" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43"/>
-      <c r="B13" s="377"/>
+      <c r="B13" s="378"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -9982,15 +9995,15 @@
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
       <c r="L13" s="42"/>
-      <c r="M13" s="368"/>
-      <c r="N13" s="380"/>
-      <c r="O13" s="368"/>
-      <c r="P13" s="368"/>
-      <c r="Q13" s="368"/>
-      <c r="R13" s="368"/>
-      <c r="S13" s="368"/>
-      <c r="T13" s="383"/>
-      <c r="U13" s="368"/>
+      <c r="M13" s="369"/>
+      <c r="N13" s="381"/>
+      <c r="O13" s="369"/>
+      <c r="P13" s="369"/>
+      <c r="Q13" s="369"/>
+      <c r="R13" s="369"/>
+      <c r="S13" s="369"/>
+      <c r="T13" s="384"/>
+      <c r="U13" s="369"/>
       <c r="V13" s="41"/>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
@@ -9999,7 +10012,7 @@
     </row>
     <row r="14" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
-      <c r="B14" s="378"/>
+      <c r="B14" s="379"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -10010,15 +10023,15 @@
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
       <c r="L14" s="42"/>
-      <c r="M14" s="369"/>
-      <c r="N14" s="381"/>
-      <c r="O14" s="369"/>
-      <c r="P14" s="369"/>
-      <c r="Q14" s="369"/>
-      <c r="R14" s="369"/>
-      <c r="S14" s="369"/>
-      <c r="T14" s="384"/>
-      <c r="U14" s="369"/>
+      <c r="M14" s="370"/>
+      <c r="N14" s="382"/>
+      <c r="O14" s="370"/>
+      <c r="P14" s="370"/>
+      <c r="Q14" s="370"/>
+      <c r="R14" s="370"/>
+      <c r="S14" s="370"/>
+      <c r="T14" s="385"/>
+      <c r="U14" s="370"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -10026,8 +10039,8 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="386"/>
-      <c r="B15" s="378"/>
+      <c r="A15" s="387"/>
+      <c r="B15" s="379"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -10038,15 +10051,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="369"/>
-      <c r="N15" s="381"/>
-      <c r="O15" s="369"/>
-      <c r="P15" s="369"/>
-      <c r="Q15" s="369"/>
-      <c r="R15" s="369"/>
-      <c r="S15" s="369"/>
-      <c r="T15" s="384"/>
-      <c r="U15" s="369"/>
+      <c r="M15" s="370"/>
+      <c r="N15" s="382"/>
+      <c r="O15" s="370"/>
+      <c r="P15" s="370"/>
+      <c r="Q15" s="370"/>
+      <c r="R15" s="370"/>
+      <c r="S15" s="370"/>
+      <c r="T15" s="385"/>
+      <c r="U15" s="370"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -10054,8 +10067,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="387"/>
-      <c r="B16" s="379"/>
+      <c r="A16" s="388"/>
+      <c r="B16" s="380"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -10066,15 +10079,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="370"/>
-      <c r="N16" s="382"/>
-      <c r="O16" s="370"/>
-      <c r="P16" s="370"/>
-      <c r="Q16" s="370"/>
-      <c r="R16" s="370"/>
-      <c r="S16" s="370"/>
-      <c r="T16" s="385"/>
-      <c r="U16" s="370"/>
+      <c r="M16" s="371"/>
+      <c r="N16" s="383"/>
+      <c r="O16" s="371"/>
+      <c r="P16" s="371"/>
+      <c r="Q16" s="371"/>
+      <c r="R16" s="371"/>
+      <c r="S16" s="371"/>
+      <c r="T16" s="386"/>
+      <c r="U16" s="371"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -10083,7 +10096,7 @@
     </row>
     <row r="17" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39"/>
-      <c r="B17" s="377"/>
+      <c r="B17" s="378"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -10094,15 +10107,15 @@
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
       <c r="L17" s="42"/>
-      <c r="M17" s="368"/>
-      <c r="N17" s="380"/>
-      <c r="O17" s="368"/>
-      <c r="P17" s="368"/>
-      <c r="Q17" s="368"/>
-      <c r="R17" s="368"/>
-      <c r="S17" s="368"/>
-      <c r="T17" s="383"/>
-      <c r="U17" s="368"/>
+      <c r="M17" s="369"/>
+      <c r="N17" s="381"/>
+      <c r="O17" s="369"/>
+      <c r="P17" s="369"/>
+      <c r="Q17" s="369"/>
+      <c r="R17" s="369"/>
+      <c r="S17" s="369"/>
+      <c r="T17" s="384"/>
+      <c r="U17" s="369"/>
       <c r="V17" s="41"/>
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
@@ -10111,7 +10124,7 @@
     </row>
     <row r="18" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
-      <c r="B18" s="378"/>
+      <c r="B18" s="379"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -10122,22 +10135,22 @@
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="42"/>
-      <c r="M18" s="369"/>
-      <c r="N18" s="381"/>
-      <c r="O18" s="369"/>
-      <c r="P18" s="369"/>
-      <c r="Q18" s="369"/>
-      <c r="R18" s="369"/>
-      <c r="S18" s="369"/>
-      <c r="T18" s="384"/>
-      <c r="U18" s="369"/>
+      <c r="M18" s="370"/>
+      <c r="N18" s="382"/>
+      <c r="O18" s="370"/>
+      <c r="P18" s="370"/>
+      <c r="Q18" s="370"/>
+      <c r="R18" s="370"/>
+      <c r="S18" s="370"/>
+      <c r="T18" s="385"/>
+      <c r="U18" s="370"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="368"/>
-      <c r="B19" s="378"/>
+      <c r="A19" s="369"/>
+      <c r="B19" s="379"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -10148,22 +10161,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="369"/>
-      <c r="N19" s="381"/>
-      <c r="O19" s="369"/>
-      <c r="P19" s="369"/>
-      <c r="Q19" s="369"/>
-      <c r="R19" s="369"/>
-      <c r="S19" s="369"/>
-      <c r="T19" s="384"/>
-      <c r="U19" s="369"/>
+      <c r="M19" s="370"/>
+      <c r="N19" s="382"/>
+      <c r="O19" s="370"/>
+      <c r="P19" s="370"/>
+      <c r="Q19" s="370"/>
+      <c r="R19" s="370"/>
+      <c r="S19" s="370"/>
+      <c r="T19" s="385"/>
+      <c r="U19" s="370"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="370"/>
-      <c r="B20" s="379"/>
+      <c r="A20" s="371"/>
+      <c r="B20" s="380"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -10174,22 +10187,22 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="370"/>
-      <c r="N20" s="382"/>
-      <c r="O20" s="370"/>
-      <c r="P20" s="370"/>
-      <c r="Q20" s="370"/>
-      <c r="R20" s="370"/>
-      <c r="S20" s="370"/>
-      <c r="T20" s="385"/>
-      <c r="U20" s="370"/>
+      <c r="M20" s="371"/>
+      <c r="N20" s="383"/>
+      <c r="O20" s="371"/>
+      <c r="P20" s="371"/>
+      <c r="Q20" s="371"/>
+      <c r="R20" s="371"/>
+      <c r="S20" s="371"/>
+      <c r="T20" s="386"/>
+      <c r="U20" s="371"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
     </row>
     <row r="21" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39"/>
-      <c r="B21" s="377"/>
+      <c r="B21" s="378"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -10200,22 +10213,22 @@
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
       <c r="L21" s="42"/>
-      <c r="M21" s="368"/>
-      <c r="N21" s="380"/>
-      <c r="O21" s="368"/>
-      <c r="P21" s="368"/>
-      <c r="Q21" s="368"/>
-      <c r="R21" s="368"/>
-      <c r="S21" s="368"/>
-      <c r="T21" s="383"/>
-      <c r="U21" s="368"/>
+      <c r="M21" s="369"/>
+      <c r="N21" s="381"/>
+      <c r="O21" s="369"/>
+      <c r="P21" s="369"/>
+      <c r="Q21" s="369"/>
+      <c r="R21" s="369"/>
+      <c r="S21" s="369"/>
+      <c r="T21" s="384"/>
+      <c r="U21" s="369"/>
       <c r="V21" s="41"/>
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
     </row>
     <row r="22" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="40"/>
-      <c r="B22" s="378"/>
+      <c r="B22" s="379"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -10226,22 +10239,22 @@
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
       <c r="L22" s="42"/>
-      <c r="M22" s="369"/>
-      <c r="N22" s="381"/>
-      <c r="O22" s="369"/>
-      <c r="P22" s="369"/>
-      <c r="Q22" s="369"/>
-      <c r="R22" s="369"/>
-      <c r="S22" s="369"/>
-      <c r="T22" s="384"/>
-      <c r="U22" s="369"/>
+      <c r="M22" s="370"/>
+      <c r="N22" s="382"/>
+      <c r="O22" s="370"/>
+      <c r="P22" s="370"/>
+      <c r="Q22" s="370"/>
+      <c r="R22" s="370"/>
+      <c r="S22" s="370"/>
+      <c r="T22" s="385"/>
+      <c r="U22" s="370"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="388"/>
-      <c r="B23" s="378"/>
+      <c r="A23" s="389"/>
+      <c r="B23" s="379"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -10252,22 +10265,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="369"/>
-      <c r="N23" s="381"/>
-      <c r="O23" s="369"/>
-      <c r="P23" s="369"/>
-      <c r="Q23" s="369"/>
-      <c r="R23" s="369"/>
-      <c r="S23" s="369"/>
-      <c r="T23" s="384"/>
-      <c r="U23" s="369"/>
+      <c r="M23" s="370"/>
+      <c r="N23" s="382"/>
+      <c r="O23" s="370"/>
+      <c r="P23" s="370"/>
+      <c r="Q23" s="370"/>
+      <c r="R23" s="370"/>
+      <c r="S23" s="370"/>
+      <c r="T23" s="385"/>
+      <c r="U23" s="370"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="389"/>
-      <c r="B24" s="379"/>
+      <c r="A24" s="390"/>
+      <c r="B24" s="380"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -10278,15 +10291,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="370"/>
-      <c r="N24" s="382"/>
-      <c r="O24" s="370"/>
-      <c r="P24" s="370"/>
-      <c r="Q24" s="370"/>
-      <c r="R24" s="370"/>
-      <c r="S24" s="370"/>
-      <c r="T24" s="385"/>
-      <c r="U24" s="370"/>
+      <c r="M24" s="371"/>
+      <c r="N24" s="383"/>
+      <c r="O24" s="371"/>
+      <c r="P24" s="371"/>
+      <c r="Q24" s="371"/>
+      <c r="R24" s="371"/>
+      <c r="S24" s="371"/>
+      <c r="T24" s="386"/>
+      <c r="U24" s="371"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -10476,13 +10489,17 @@
       <c r="J37" s="46"/>
       <c r="K37" s="46"/>
     </row>
-    <row r="38" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A39" s="22">
-        <v>0</v>
-      </c>
-      <c r="B39" s="22">
-        <v>1</v>
+    <row r="38" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="428" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:41" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="368" t="s">
+        <v>242</v>
+      </c>
+      <c r="B39" s="368" t="s">
+        <v>241</v>
       </c>
       <c r="C39" s="22">
         <v>2</v>
@@ -10594,40 +10611,40 @@
     </row>
     <row r="40" spans="1:41" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="366" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B40" s="367" t="s">
         <v>240</v>
       </c>
       <c r="D40" s="104"/>
       <c r="E40" s="105"/>
-      <c r="F40" s="413" t="s">
+      <c r="F40" s="414" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="414"/>
-      <c r="H40" s="414"/>
-      <c r="I40" s="415"/>
-      <c r="J40" s="416" t="s">
+      <c r="G40" s="415"/>
+      <c r="H40" s="415"/>
+      <c r="I40" s="416"/>
+      <c r="J40" s="417" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="417"/>
-      <c r="L40" s="417"/>
-      <c r="M40" s="418"/>
+      <c r="K40" s="418"/>
+      <c r="L40" s="418"/>
+      <c r="M40" s="419"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
       </c>
       <c r="P40" s="227"/>
-      <c r="Q40" s="412" t="s">
+      <c r="Q40" s="413" t="s">
         <v>234</v>
       </c>
-      <c r="R40" s="412"/>
-      <c r="S40" s="412"/>
-      <c r="T40" s="412"/>
-      <c r="U40" s="412"/>
-      <c r="V40" s="412"/>
-      <c r="W40" s="412"/>
-      <c r="X40" s="412"/>
-      <c r="Y40" s="412"/>
+      <c r="R40" s="413"/>
+      <c r="S40" s="413"/>
+      <c r="T40" s="413"/>
+      <c r="U40" s="413"/>
+      <c r="V40" s="413"/>
+      <c r="W40" s="413"/>
+      <c r="X40" s="413"/>
+      <c r="Y40" s="413"/>
       <c r="Z40" s="46"/>
       <c r="AA40" s="46"/>
       <c r="AB40" s="46"/>
@@ -10755,7 +10772,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="310" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D42" s="34"/>
       <c r="E42" s="34"/>
@@ -10801,7 +10818,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="310" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D43" s="34"/>
       <c r="E43" s="34"/>
@@ -18356,12 +18373,15 @@
     <mergeCell ref="P9:P12"/>
     <mergeCell ref="Q9:Q12"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">
       <formula1>"daily,week,month"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
       <formula1>"Solid,Liquid,Inhalant,Patch,Topical"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A40">
+      <formula1>"Manual,Campaign"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18413,15 +18433,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="371" t="s">
+      <c r="F1" s="372" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="371"/>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="371"/>
-      <c r="K1" s="371"/>
-      <c r="L1" s="371"/>
+      <c r="G1" s="372"/>
+      <c r="H1" s="372"/>
+      <c r="I1" s="372"/>
+      <c r="J1" s="372"/>
+      <c r="K1" s="372"/>
+      <c r="L1" s="372"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -18510,22 +18530,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="372" t="s">
+      <c r="D6" s="373" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="373"/>
-      <c r="F6" s="373"/>
-      <c r="G6" s="373"/>
-      <c r="H6" s="374"/>
+      <c r="E6" s="374"/>
+      <c r="F6" s="374"/>
+      <c r="G6" s="374"/>
+      <c r="H6" s="375"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="372" t="s">
+      <c r="M6" s="373" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="373"/>
-      <c r="O6" s="373"/>
-      <c r="P6" s="373"/>
-      <c r="Q6" s="374"/>
+      <c r="N6" s="374"/>
+      <c r="O6" s="374"/>
+      <c r="P6" s="374"/>
+      <c r="Q6" s="375"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -18543,10 +18563,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="375" t="s">
+      <c r="F7" s="376" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="376"/>
+      <c r="G7" s="377"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -18569,10 +18589,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="375" t="s">
+      <c r="P7" s="376" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="376"/>
+      <c r="Q7" s="377"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -18649,7 +18669,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="377" t="s">
+      <c r="B9" s="378" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -18683,33 +18703,33 @@
         <f t="shared" ref="L9:L22" si="0">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="368">
+      <c r="M9" s="369">
         <v>20</v>
       </c>
-      <c r="N9" s="380" t="s">
+      <c r="N9" s="381" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="368">
+      <c r="O9" s="369">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="368">
+      <c r="P9" s="369">
         <v>3</v>
       </c>
-      <c r="Q9" s="368">
+      <c r="Q9" s="369">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="368">
+      <c r="R9" s="369">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="368"/>
-      <c r="T9" s="383">
+      <c r="S9" s="369"/>
+      <c r="T9" s="384">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="368">
+      <c r="U9" s="369">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -18734,7 +18754,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="378"/>
+      <c r="B10" s="379"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -18766,15 +18786,15 @@
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="369"/>
-      <c r="N10" s="381"/>
-      <c r="O10" s="369"/>
-      <c r="P10" s="369"/>
-      <c r="Q10" s="369"/>
-      <c r="R10" s="369"/>
-      <c r="S10" s="369"/>
-      <c r="T10" s="384"/>
-      <c r="U10" s="369"/>
+      <c r="M10" s="370"/>
+      <c r="N10" s="382"/>
+      <c r="O10" s="370"/>
+      <c r="P10" s="370"/>
+      <c r="Q10" s="370"/>
+      <c r="R10" s="370"/>
+      <c r="S10" s="370"/>
+      <c r="T10" s="385"/>
+      <c r="U10" s="370"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -18782,10 +18802,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="368" t="s">
+      <c r="A11" s="369" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="378"/>
+      <c r="B11" s="379"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -18796,15 +18816,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="369"/>
-      <c r="N11" s="381"/>
-      <c r="O11" s="369"/>
-      <c r="P11" s="369"/>
-      <c r="Q11" s="369"/>
-      <c r="R11" s="369"/>
-      <c r="S11" s="369"/>
-      <c r="T11" s="384"/>
-      <c r="U11" s="369"/>
+      <c r="M11" s="370"/>
+      <c r="N11" s="382"/>
+      <c r="O11" s="370"/>
+      <c r="P11" s="370"/>
+      <c r="Q11" s="370"/>
+      <c r="R11" s="370"/>
+      <c r="S11" s="370"/>
+      <c r="T11" s="385"/>
+      <c r="U11" s="370"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -18823,8 +18843,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="370"/>
-      <c r="B12" s="379"/>
+      <c r="A12" s="371"/>
+      <c r="B12" s="380"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -18835,15 +18855,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="370"/>
-      <c r="N12" s="382"/>
-      <c r="O12" s="370"/>
-      <c r="P12" s="370"/>
-      <c r="Q12" s="370"/>
-      <c r="R12" s="370"/>
-      <c r="S12" s="370"/>
-      <c r="T12" s="385"/>
-      <c r="U12" s="370"/>
+      <c r="M12" s="371"/>
+      <c r="N12" s="383"/>
+      <c r="O12" s="371"/>
+      <c r="P12" s="371"/>
+      <c r="Q12" s="371"/>
+      <c r="R12" s="371"/>
+      <c r="S12" s="371"/>
+      <c r="T12" s="386"/>
+      <c r="U12" s="371"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -18859,7 +18879,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="377" t="s">
+      <c r="B13" s="378" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -18893,33 +18913,33 @@
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="368">
+      <c r="M13" s="369">
         <v>80</v>
       </c>
-      <c r="N13" s="380" t="s">
+      <c r="N13" s="381" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="368">
+      <c r="O13" s="369">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="368">
+      <c r="P13" s="369">
         <v>2</v>
       </c>
-      <c r="Q13" s="368">
+      <c r="Q13" s="369">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="368">
+      <c r="R13" s="369">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="368"/>
-      <c r="T13" s="383">
+      <c r="S13" s="369"/>
+      <c r="T13" s="384">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="368">
+      <c r="U13" s="369">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -18942,7 +18962,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="378"/>
+      <c r="B14" s="379"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -18974,15 +18994,15 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="369"/>
-      <c r="N14" s="381"/>
-      <c r="O14" s="369"/>
-      <c r="P14" s="369"/>
-      <c r="Q14" s="369"/>
-      <c r="R14" s="369"/>
-      <c r="S14" s="369"/>
-      <c r="T14" s="384"/>
-      <c r="U14" s="369"/>
+      <c r="M14" s="370"/>
+      <c r="N14" s="382"/>
+      <c r="O14" s="370"/>
+      <c r="P14" s="370"/>
+      <c r="Q14" s="370"/>
+      <c r="R14" s="370"/>
+      <c r="S14" s="370"/>
+      <c r="T14" s="385"/>
+      <c r="U14" s="370"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -18990,10 +19010,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="386" t="s">
+      <c r="A15" s="387" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="378"/>
+      <c r="B15" s="379"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -19004,15 +19024,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="369"/>
-      <c r="N15" s="381"/>
-      <c r="O15" s="369"/>
-      <c r="P15" s="369"/>
-      <c r="Q15" s="369"/>
-      <c r="R15" s="369"/>
-      <c r="S15" s="369"/>
-      <c r="T15" s="384"/>
-      <c r="U15" s="369"/>
+      <c r="M15" s="370"/>
+      <c r="N15" s="382"/>
+      <c r="O15" s="370"/>
+      <c r="P15" s="370"/>
+      <c r="Q15" s="370"/>
+      <c r="R15" s="370"/>
+      <c r="S15" s="370"/>
+      <c r="T15" s="385"/>
+      <c r="U15" s="370"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -19022,8 +19042,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="387"/>
-      <c r="B16" s="379"/>
+      <c r="A16" s="388"/>
+      <c r="B16" s="380"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -19034,15 +19054,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="370"/>
-      <c r="N16" s="382"/>
-      <c r="O16" s="370"/>
-      <c r="P16" s="370"/>
-      <c r="Q16" s="370"/>
-      <c r="R16" s="370"/>
-      <c r="S16" s="370"/>
-      <c r="T16" s="385"/>
-      <c r="U16" s="370"/>
+      <c r="M16" s="371"/>
+      <c r="N16" s="383"/>
+      <c r="O16" s="371"/>
+      <c r="P16" s="371"/>
+      <c r="Q16" s="371"/>
+      <c r="R16" s="371"/>
+      <c r="S16" s="371"/>
+      <c r="T16" s="386"/>
+      <c r="U16" s="371"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -19053,7 +19073,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="377" t="s">
+      <c r="B17" s="378" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -19087,33 +19107,33 @@
         <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="368">
+      <c r="M17" s="369">
         <v>70</v>
       </c>
-      <c r="N17" s="380" t="s">
+      <c r="N17" s="381" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="368">
+      <c r="O17" s="369">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="368">
+      <c r="P17" s="369">
         <v>2</v>
       </c>
-      <c r="Q17" s="368">
+      <c r="Q17" s="369">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="368">
+      <c r="R17" s="369">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="368"/>
-      <c r="T17" s="383">
+      <c r="S17" s="369"/>
+      <c r="T17" s="384">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="368">
+      <c r="U17" s="369">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -19132,7 +19152,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="378"/>
+      <c r="B18" s="379"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -19164,24 +19184,24 @@
         <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="369"/>
-      <c r="N18" s="381"/>
-      <c r="O18" s="369"/>
-      <c r="P18" s="369"/>
-      <c r="Q18" s="369"/>
-      <c r="R18" s="369"/>
-      <c r="S18" s="369"/>
-      <c r="T18" s="384"/>
-      <c r="U18" s="369"/>
+      <c r="M18" s="370"/>
+      <c r="N18" s="382"/>
+      <c r="O18" s="370"/>
+      <c r="P18" s="370"/>
+      <c r="Q18" s="370"/>
+      <c r="R18" s="370"/>
+      <c r="S18" s="370"/>
+      <c r="T18" s="385"/>
+      <c r="U18" s="370"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="368" t="s">
+      <c r="A19" s="369" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="378"/>
+      <c r="B19" s="379"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -19192,22 +19212,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="369"/>
-      <c r="N19" s="381"/>
-      <c r="O19" s="369"/>
-      <c r="P19" s="369"/>
-      <c r="Q19" s="369"/>
-      <c r="R19" s="369"/>
-      <c r="S19" s="369"/>
-      <c r="T19" s="384"/>
-      <c r="U19" s="369"/>
+      <c r="M19" s="370"/>
+      <c r="N19" s="382"/>
+      <c r="O19" s="370"/>
+      <c r="P19" s="370"/>
+      <c r="Q19" s="370"/>
+      <c r="R19" s="370"/>
+      <c r="S19" s="370"/>
+      <c r="T19" s="385"/>
+      <c r="U19" s="370"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="370"/>
-      <c r="B20" s="379"/>
+      <c r="A20" s="371"/>
+      <c r="B20" s="380"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -19218,15 +19238,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="370"/>
-      <c r="N20" s="382"/>
-      <c r="O20" s="370"/>
-      <c r="P20" s="370"/>
-      <c r="Q20" s="370"/>
-      <c r="R20" s="370"/>
-      <c r="S20" s="370"/>
-      <c r="T20" s="385"/>
-      <c r="U20" s="370"/>
+      <c r="M20" s="371"/>
+      <c r="N20" s="383"/>
+      <c r="O20" s="371"/>
+      <c r="P20" s="371"/>
+      <c r="Q20" s="371"/>
+      <c r="R20" s="371"/>
+      <c r="S20" s="371"/>
+      <c r="T20" s="386"/>
+      <c r="U20" s="371"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -19235,7 +19255,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="377" t="s">
+      <c r="B21" s="378" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -19269,33 +19289,33 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="368">
+      <c r="M21" s="369">
         <v>60</v>
       </c>
-      <c r="N21" s="380" t="s">
+      <c r="N21" s="381" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="368">
+      <c r="O21" s="369">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="368">
+      <c r="P21" s="369">
         <v>3</v>
       </c>
-      <c r="Q21" s="368">
+      <c r="Q21" s="369">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="368">
+      <c r="R21" s="369">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="368"/>
-      <c r="T21" s="383">
+      <c r="S21" s="369"/>
+      <c r="T21" s="384">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="368">
+      <c r="U21" s="369">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -19312,7 +19332,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="378"/>
+      <c r="B22" s="379"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -19344,24 +19364,24 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="369"/>
-      <c r="N22" s="381"/>
-      <c r="O22" s="369"/>
-      <c r="P22" s="369"/>
-      <c r="Q22" s="369"/>
-      <c r="R22" s="369"/>
-      <c r="S22" s="369"/>
-      <c r="T22" s="384"/>
-      <c r="U22" s="369"/>
+      <c r="M22" s="370"/>
+      <c r="N22" s="382"/>
+      <c r="O22" s="370"/>
+      <c r="P22" s="370"/>
+      <c r="Q22" s="370"/>
+      <c r="R22" s="370"/>
+      <c r="S22" s="370"/>
+      <c r="T22" s="385"/>
+      <c r="U22" s="370"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="388" t="s">
+      <c r="A23" s="389" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="378"/>
+      <c r="B23" s="379"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -19372,22 +19392,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="369"/>
-      <c r="N23" s="381"/>
-      <c r="O23" s="369"/>
-      <c r="P23" s="369"/>
-      <c r="Q23" s="369"/>
-      <c r="R23" s="369"/>
-      <c r="S23" s="369"/>
-      <c r="T23" s="384"/>
-      <c r="U23" s="369"/>
+      <c r="M23" s="370"/>
+      <c r="N23" s="382"/>
+      <c r="O23" s="370"/>
+      <c r="P23" s="370"/>
+      <c r="Q23" s="370"/>
+      <c r="R23" s="370"/>
+      <c r="S23" s="370"/>
+      <c r="T23" s="385"/>
+      <c r="U23" s="370"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="389"/>
-      <c r="B24" s="379"/>
+      <c r="A24" s="390"/>
+      <c r="B24" s="380"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -19398,15 +19418,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="370"/>
-      <c r="N24" s="382"/>
-      <c r="O24" s="370"/>
-      <c r="P24" s="370"/>
-      <c r="Q24" s="370"/>
-      <c r="R24" s="370"/>
-      <c r="S24" s="370"/>
-      <c r="T24" s="385"/>
-      <c r="U24" s="370"/>
+      <c r="M24" s="371"/>
+      <c r="N24" s="383"/>
+      <c r="O24" s="371"/>
+      <c r="P24" s="371"/>
+      <c r="Q24" s="371"/>
+      <c r="R24" s="371"/>
+      <c r="S24" s="371"/>
+      <c r="T24" s="386"/>
+      <c r="U24" s="371"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -19432,13 +19452,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="390" t="s">
+      <c r="H27" s="391" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="390"/>
-      <c r="J27" s="390"/>
-      <c r="K27" s="390"/>
-      <c r="L27" s="390"/>
+      <c r="I27" s="391"/>
+      <c r="J27" s="391"/>
+      <c r="K27" s="391"/>
+      <c r="L27" s="391"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -19718,19 +19738,19 @@
     <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="393" t="s">
+      <c r="D40" s="394" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="393"/>
-      <c r="F40" s="393"/>
-      <c r="G40" s="393"/>
-      <c r="H40" s="393"/>
-      <c r="I40" s="393" t="s">
+      <c r="E40" s="394"/>
+      <c r="F40" s="394"/>
+      <c r="G40" s="394"/>
+      <c r="H40" s="394"/>
+      <c r="I40" s="394" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="393"/>
-      <c r="K40" s="393"/>
-      <c r="L40" s="393"/>
+      <c r="J40" s="394"/>
+      <c r="K40" s="394"/>
+      <c r="L40" s="394"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -19854,19 +19874,19 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="394"/>
+      <c r="B42" s="395"/>
       <c r="C42" s="110"/>
       <c r="D42" s="111"/>
       <c r="E42" s="111"/>
       <c r="F42" s="125"/>
       <c r="G42" s="125"/>
-      <c r="H42" s="392"/>
+      <c r="H42" s="393"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="125"/>
       <c r="L42" s="125"/>
-      <c r="M42" s="392"/>
-      <c r="N42" s="419"/>
+      <c r="M42" s="393"/>
+      <c r="N42" s="420"/>
       <c r="P42" s="91"/>
       <c r="Q42" s="91"/>
       <c r="U42" s="64"/>
@@ -19912,19 +19932,19 @@
       <c r="AN42" s="88"/>
     </row>
     <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="394"/>
+      <c r="B43" s="395"/>
       <c r="C43" s="110"/>
       <c r="D43" s="125"/>
       <c r="E43" s="111"/>
       <c r="F43" s="125"/>
       <c r="G43" s="103"/>
-      <c r="H43" s="392"/>
+      <c r="H43" s="393"/>
       <c r="I43" s="111"/>
       <c r="J43" s="111"/>
       <c r="K43" s="103"/>
       <c r="L43" s="103"/>
-      <c r="M43" s="392"/>
-      <c r="N43" s="392"/>
+      <c r="M43" s="393"/>
+      <c r="N43" s="393"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -19970,19 +19990,19 @@
       <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="394"/>
+      <c r="B44" s="395"/>
       <c r="C44" s="110"/>
       <c r="D44" s="111"/>
       <c r="E44" s="111"/>
       <c r="F44" s="125"/>
       <c r="G44" s="125"/>
-      <c r="H44" s="392"/>
+      <c r="H44" s="393"/>
       <c r="I44" s="111"/>
       <c r="J44" s="111"/>
       <c r="K44" s="125"/>
       <c r="L44" s="125"/>
-      <c r="M44" s="392"/>
-      <c r="N44" s="392"/>
+      <c r="M44" s="393"/>
+      <c r="N44" s="393"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -20028,19 +20048,19 @@
       <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="394"/>
+      <c r="B45" s="395"/>
       <c r="C45" s="110"/>
       <c r="D45" s="111"/>
       <c r="E45" s="111"/>
       <c r="F45" s="125"/>
       <c r="G45" s="125"/>
-      <c r="H45" s="392"/>
+      <c r="H45" s="393"/>
       <c r="I45" s="111"/>
       <c r="J45" s="111"/>
       <c r="K45" s="125"/>
       <c r="L45" s="125"/>
-      <c r="M45" s="392"/>
-      <c r="N45" s="392"/>
+      <c r="M45" s="393"/>
+      <c r="N45" s="393"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -20086,19 +20106,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="394"/>
+      <c r="B46" s="395"/>
       <c r="C46" s="110"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="125"/>
       <c r="G46" s="125"/>
-      <c r="H46" s="392"/>
+      <c r="H46" s="393"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="125"/>
       <c r="L46" s="125"/>
-      <c r="M46" s="392"/>
-      <c r="N46" s="420"/>
+      <c r="M46" s="393"/>
+      <c r="N46" s="421"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -20144,19 +20164,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="394"/>
+      <c r="B47" s="395"/>
       <c r="C47" s="110"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="392"/>
+      <c r="H47" s="393"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="392"/>
-      <c r="N47" s="396"/>
+      <c r="M47" s="393"/>
+      <c r="N47" s="397"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -20204,19 +20224,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="394"/>
+      <c r="B48" s="395"/>
       <c r="C48" s="110"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="392"/>
+      <c r="H48" s="393"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="392"/>
-      <c r="N48" s="396"/>
+      <c r="M48" s="393"/>
+      <c r="N48" s="397"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -20264,19 +20284,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="394"/>
+      <c r="B49" s="395"/>
       <c r="C49" s="110"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="392"/>
+      <c r="H49" s="393"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="392"/>
-      <c r="N49" s="396"/>
+      <c r="M49" s="393"/>
+      <c r="N49" s="397"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -20324,19 +20344,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="397"/>
+      <c r="B50" s="398"/>
       <c r="C50" s="112"/>
       <c r="D50" s="113"/>
       <c r="E50" s="113"/>
       <c r="F50" s="113"/>
       <c r="G50" s="113"/>
-      <c r="H50" s="398"/>
+      <c r="H50" s="399"/>
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
       <c r="L50" s="113"/>
-      <c r="M50" s="398"/>
-      <c r="N50" s="421"/>
+      <c r="M50" s="399"/>
+      <c r="N50" s="422"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -20357,19 +20377,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="397"/>
+      <c r="B51" s="398"/>
       <c r="C51" s="112"/>
       <c r="D51" s="113"/>
       <c r="E51" s="113"/>
       <c r="F51" s="113"/>
       <c r="G51" s="113"/>
-      <c r="H51" s="398"/>
+      <c r="H51" s="399"/>
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
       <c r="L51" s="113"/>
-      <c r="M51" s="398"/>
-      <c r="N51" s="400"/>
+      <c r="M51" s="399"/>
+      <c r="N51" s="401"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -20400,19 +20420,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="397"/>
+      <c r="B52" s="398"/>
       <c r="C52" s="112"/>
       <c r="D52" s="113"/>
       <c r="E52" s="113"/>
       <c r="F52" s="113"/>
       <c r="G52" s="113"/>
-      <c r="H52" s="398"/>
+      <c r="H52" s="399"/>
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
       <c r="L52" s="113"/>
-      <c r="M52" s="398"/>
-      <c r="N52" s="400"/>
+      <c r="M52" s="399"/>
+      <c r="N52" s="401"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -20476,19 +20496,19 @@
       </c>
     </row>
     <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="397"/>
+      <c r="B53" s="398"/>
       <c r="C53" s="112"/>
       <c r="D53" s="113"/>
       <c r="E53" s="113"/>
       <c r="F53" s="113"/>
       <c r="G53" s="113"/>
-      <c r="H53" s="398"/>
+      <c r="H53" s="399"/>
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
       <c r="L53" s="113"/>
-      <c r="M53" s="398"/>
-      <c r="N53" s="400"/>
+      <c r="M53" s="399"/>
+      <c r="N53" s="401"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -20537,19 +20557,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="397"/>
+      <c r="B54" s="398"/>
       <c r="C54" s="112"/>
       <c r="D54" s="113"/>
       <c r="E54" s="113"/>
       <c r="F54" s="113"/>
       <c r="G54" s="113"/>
-      <c r="H54" s="398"/>
+      <c r="H54" s="399"/>
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
       <c r="L54" s="113"/>
-      <c r="M54" s="398"/>
-      <c r="N54" s="422"/>
+      <c r="M54" s="399"/>
+      <c r="N54" s="423"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -20596,19 +20616,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="397"/>
+      <c r="B55" s="398"/>
       <c r="C55" s="112"/>
       <c r="D55" s="113"/>
       <c r="E55" s="113"/>
       <c r="F55" s="113"/>
       <c r="G55" s="113"/>
-      <c r="H55" s="398"/>
+      <c r="H55" s="399"/>
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
       <c r="L55" s="113"/>
-      <c r="M55" s="398"/>
-      <c r="N55" s="400"/>
+      <c r="M55" s="399"/>
+      <c r="N55" s="401"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -20655,19 +20675,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="397"/>
+      <c r="B56" s="398"/>
       <c r="C56" s="112"/>
       <c r="D56" s="113"/>
       <c r="E56" s="113"/>
       <c r="F56" s="113"/>
       <c r="G56" s="113"/>
-      <c r="H56" s="398"/>
+      <c r="H56" s="399"/>
       <c r="I56" s="113"/>
       <c r="J56" s="113"/>
       <c r="K56" s="113"/>
       <c r="L56" s="113"/>
-      <c r="M56" s="398"/>
-      <c r="N56" s="400"/>
+      <c r="M56" s="399"/>
+      <c r="N56" s="401"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -20714,19 +20734,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="397"/>
+      <c r="B57" s="398"/>
       <c r="C57" s="112"/>
       <c r="D57" s="113"/>
       <c r="E57" s="113"/>
       <c r="F57" s="113"/>
       <c r="G57" s="113"/>
-      <c r="H57" s="398"/>
+      <c r="H57" s="399"/>
       <c r="I57" s="113"/>
       <c r="J57" s="113"/>
       <c r="K57" s="113"/>
       <c r="L57" s="113"/>
-      <c r="M57" s="398"/>
-      <c r="N57" s="400"/>
+      <c r="M57" s="399"/>
+      <c r="N57" s="401"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -20773,19 +20793,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="402"/>
+      <c r="B58" s="403"/>
       <c r="C58" s="114"/>
       <c r="D58" s="115"/>
       <c r="E58" s="115"/>
       <c r="F58" s="115"/>
       <c r="G58" s="115"/>
-      <c r="H58" s="403"/>
+      <c r="H58" s="404"/>
       <c r="I58" s="115"/>
       <c r="J58" s="115"/>
       <c r="K58" s="115"/>
       <c r="L58" s="115"/>
-      <c r="M58" s="403"/>
-      <c r="N58" s="423"/>
+      <c r="M58" s="404"/>
+      <c r="N58" s="424"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -20832,19 +20852,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="402"/>
+      <c r="B59" s="403"/>
       <c r="C59" s="114"/>
       <c r="D59" s="115"/>
       <c r="E59" s="115"/>
       <c r="F59" s="115"/>
       <c r="G59" s="115"/>
-      <c r="H59" s="403"/>
+      <c r="H59" s="404"/>
       <c r="I59" s="115"/>
       <c r="J59" s="115"/>
       <c r="K59" s="115"/>
       <c r="L59" s="115"/>
-      <c r="M59" s="403"/>
-      <c r="N59" s="405"/>
+      <c r="M59" s="404"/>
+      <c r="N59" s="406"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -20891,19 +20911,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="402"/>
+      <c r="B60" s="403"/>
       <c r="C60" s="114"/>
       <c r="D60" s="115"/>
       <c r="E60" s="115"/>
       <c r="F60" s="115"/>
       <c r="G60" s="115"/>
-      <c r="H60" s="403"/>
+      <c r="H60" s="404"/>
       <c r="I60" s="115"/>
       <c r="J60" s="115"/>
       <c r="K60" s="115"/>
       <c r="L60" s="115"/>
-      <c r="M60" s="403"/>
-      <c r="N60" s="405"/>
+      <c r="M60" s="404"/>
+      <c r="N60" s="406"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -20950,247 +20970,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="402"/>
+      <c r="B61" s="403"/>
       <c r="C61" s="114"/>
       <c r="D61" s="115"/>
       <c r="E61" s="115"/>
       <c r="F61" s="115"/>
       <c r="G61" s="115"/>
-      <c r="H61" s="403"/>
+      <c r="H61" s="404"/>
       <c r="I61" s="115"/>
       <c r="J61" s="115"/>
       <c r="K61" s="115"/>
       <c r="L61" s="115"/>
-      <c r="M61" s="403"/>
-      <c r="N61" s="405"/>
+      <c r="M61" s="404"/>
+      <c r="N61" s="406"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="402"/>
+      <c r="B62" s="403"/>
       <c r="C62" s="114"/>
       <c r="D62" s="115"/>
       <c r="E62" s="115"/>
       <c r="F62" s="115"/>
       <c r="G62" s="115"/>
-      <c r="H62" s="403"/>
+      <c r="H62" s="404"/>
       <c r="I62" s="115"/>
       <c r="J62" s="115"/>
       <c r="K62" s="115"/>
       <c r="L62" s="115"/>
-      <c r="M62" s="403"/>
-      <c r="N62" s="424"/>
+      <c r="M62" s="404"/>
+      <c r="N62" s="425"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="402"/>
+      <c r="B63" s="403"/>
       <c r="C63" s="114"/>
       <c r="D63" s="115"/>
       <c r="E63" s="115"/>
       <c r="F63" s="115"/>
       <c r="G63" s="115"/>
-      <c r="H63" s="403"/>
+      <c r="H63" s="404"/>
       <c r="I63" s="115"/>
       <c r="J63" s="115"/>
       <c r="K63" s="115"/>
       <c r="L63" s="115"/>
-      <c r="M63" s="403"/>
-      <c r="N63" s="405"/>
+      <c r="M63" s="404"/>
+      <c r="N63" s="406"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="402"/>
+      <c r="B64" s="403"/>
       <c r="C64" s="114"/>
       <c r="D64" s="115"/>
       <c r="E64" s="115"/>
       <c r="F64" s="115"/>
       <c r="G64" s="115"/>
-      <c r="H64" s="403"/>
+      <c r="H64" s="404"/>
       <c r="I64" s="115"/>
       <c r="J64" s="115"/>
       <c r="K64" s="115"/>
       <c r="L64" s="115"/>
-      <c r="M64" s="403"/>
-      <c r="N64" s="405"/>
+      <c r="M64" s="404"/>
+      <c r="N64" s="406"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="402"/>
+      <c r="B65" s="403"/>
       <c r="C65" s="114"/>
       <c r="D65" s="115"/>
       <c r="E65" s="115"/>
       <c r="F65" s="115"/>
       <c r="G65" s="115"/>
-      <c r="H65" s="403"/>
+      <c r="H65" s="404"/>
       <c r="I65" s="115"/>
       <c r="J65" s="115"/>
       <c r="K65" s="115"/>
       <c r="L65" s="115"/>
-      <c r="M65" s="403"/>
-      <c r="N65" s="405"/>
+      <c r="M65" s="404"/>
+      <c r="N65" s="406"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="406"/>
+      <c r="B66" s="407"/>
       <c r="C66" s="128"/>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
       <c r="F66" s="116"/>
       <c r="G66" s="116"/>
-      <c r="H66" s="407"/>
+      <c r="H66" s="408"/>
       <c r="I66" s="116"/>
       <c r="J66" s="116"/>
       <c r="K66" s="116"/>
       <c r="L66" s="116"/>
-      <c r="M66" s="407"/>
-      <c r="N66" s="425"/>
+      <c r="M66" s="408"/>
+      <c r="N66" s="426"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="406"/>
+      <c r="B67" s="407"/>
       <c r="C67" s="128"/>
       <c r="D67" s="116"/>
       <c r="E67" s="116"/>
       <c r="F67" s="116"/>
       <c r="G67" s="116"/>
-      <c r="H67" s="407"/>
+      <c r="H67" s="408"/>
       <c r="I67" s="116"/>
       <c r="J67" s="116"/>
       <c r="K67" s="116"/>
       <c r="L67" s="116"/>
-      <c r="M67" s="407"/>
-      <c r="N67" s="409"/>
+      <c r="M67" s="408"/>
+      <c r="N67" s="410"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="406"/>
+      <c r="B68" s="407"/>
       <c r="C68" s="128"/>
       <c r="D68" s="116"/>
       <c r="E68" s="116"/>
       <c r="F68" s="116"/>
       <c r="G68" s="116"/>
-      <c r="H68" s="407"/>
+      <c r="H68" s="408"/>
       <c r="I68" s="116"/>
       <c r="J68" s="116"/>
       <c r="K68" s="116"/>
       <c r="L68" s="116"/>
-      <c r="M68" s="407"/>
-      <c r="N68" s="409"/>
+      <c r="M68" s="408"/>
+      <c r="N68" s="410"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="406"/>
+      <c r="B69" s="407"/>
       <c r="C69" s="128"/>
       <c r="D69" s="116"/>
       <c r="E69" s="116"/>
       <c r="F69" s="116"/>
       <c r="G69" s="116"/>
-      <c r="H69" s="407"/>
+      <c r="H69" s="408"/>
       <c r="I69" s="116"/>
       <c r="J69" s="116"/>
       <c r="K69" s="116"/>
       <c r="L69" s="116"/>
-      <c r="M69" s="407"/>
-      <c r="N69" s="409"/>
+      <c r="M69" s="408"/>
+      <c r="N69" s="410"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="406"/>
+      <c r="B70" s="407"/>
       <c r="C70" s="128"/>
       <c r="D70" s="116"/>
       <c r="E70" s="116"/>
       <c r="F70" s="116"/>
       <c r="G70" s="116"/>
-      <c r="H70" s="407"/>
+      <c r="H70" s="408"/>
       <c r="I70" s="116"/>
       <c r="J70" s="116"/>
       <c r="K70" s="116"/>
       <c r="L70" s="116"/>
-      <c r="M70" s="407"/>
-      <c r="N70" s="426"/>
+      <c r="M70" s="408"/>
+      <c r="N70" s="427"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="406"/>
+      <c r="B71" s="407"/>
       <c r="C71" s="128"/>
       <c r="D71" s="116"/>
       <c r="E71" s="116"/>
       <c r="F71" s="116"/>
       <c r="G71" s="116"/>
-      <c r="H71" s="407"/>
+      <c r="H71" s="408"/>
       <c r="I71" s="116"/>
       <c r="J71" s="116"/>
       <c r="K71" s="116"/>
       <c r="L71" s="116"/>
-      <c r="M71" s="407"/>
-      <c r="N71" s="409"/>
+      <c r="M71" s="408"/>
+      <c r="N71" s="410"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="406"/>
+      <c r="B72" s="407"/>
       <c r="C72" s="128"/>
       <c r="D72" s="116"/>
       <c r="E72" s="116"/>
       <c r="F72" s="116"/>
       <c r="G72" s="116"/>
-      <c r="H72" s="407"/>
+      <c r="H72" s="408"/>
       <c r="I72" s="116"/>
       <c r="J72" s="116"/>
       <c r="K72" s="116"/>
       <c r="L72" s="116"/>
-      <c r="M72" s="407"/>
-      <c r="N72" s="409"/>
+      <c r="M72" s="408"/>
+      <c r="N72" s="410"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="406"/>
+      <c r="B73" s="407"/>
       <c r="C73" s="128"/>
       <c r="D73" s="116"/>
       <c r="E73" s="116"/>
       <c r="F73" s="116"/>
       <c r="G73" s="116"/>
-      <c r="H73" s="407"/>
+      <c r="H73" s="408"/>
       <c r="I73" s="116"/>
       <c r="J73" s="116"/>
       <c r="K73" s="116"/>
       <c r="L73" s="116"/>
-      <c r="M73" s="407"/>
-      <c r="N73" s="409"/>
+      <c r="M73" s="408"/>
+      <c r="N73" s="410"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
@@ -835,25 +835,25 @@
     <t>Actual  L4 Train</t>
   </si>
   <si>
+    <t>Select Product Type</t>
+  </si>
+  <si>
+    <t>Limit Selection Type</t>
+  </si>
+  <si>
+    <t>Test Product5</t>
+  </si>
+  <si>
+    <t>Test Product6</t>
+  </si>
+  <si>
+    <t>Tenant ID:</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
     <t>Solid</t>
-  </si>
-  <si>
-    <t>Select Product Type</t>
-  </si>
-  <si>
-    <t>Limit Selection Type</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>Test Product5</t>
-  </si>
-  <si>
-    <t>Test Product6</t>
-  </si>
-  <si>
-    <t>Tenant ID:</t>
   </si>
 </sst>
 </file>
@@ -2434,6 +2434,46 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2582,46 +2622,6 @@
     <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5041,15 +5041,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="356" t="s">
+      <c r="F1" s="380" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="356"/>
-      <c r="H1" s="356"/>
-      <c r="I1" s="356"/>
-      <c r="J1" s="356"/>
-      <c r="K1" s="356"/>
-      <c r="L1" s="356"/>
+      <c r="G1" s="380"/>
+      <c r="H1" s="380"/>
+      <c r="I1" s="380"/>
+      <c r="J1" s="380"/>
+      <c r="K1" s="380"/>
+      <c r="L1" s="380"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -5138,22 +5138,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="357" t="s">
+      <c r="D6" s="381" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="358"/>
-      <c r="F6" s="358"/>
-      <c r="G6" s="358"/>
-      <c r="H6" s="359"/>
+      <c r="E6" s="382"/>
+      <c r="F6" s="382"/>
+      <c r="G6" s="382"/>
+      <c r="H6" s="383"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="357" t="s">
+      <c r="M6" s="381" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="358"/>
-      <c r="O6" s="358"/>
-      <c r="P6" s="358"/>
-      <c r="Q6" s="359"/>
+      <c r="N6" s="382"/>
+      <c r="O6" s="382"/>
+      <c r="P6" s="382"/>
+      <c r="Q6" s="383"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -5171,10 +5171,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="360" t="s">
+      <c r="F7" s="384" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="361"/>
+      <c r="G7" s="385"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -5197,10 +5197,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="360" t="s">
+      <c r="P7" s="384" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="361"/>
+      <c r="Q7" s="385"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -5277,7 +5277,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="348" t="s">
+      <c r="B9" s="372" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -5311,33 +5311,33 @@
         <f t="shared" ref="L9:L22" si="0">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="339">
+      <c r="M9" s="363">
         <v>20</v>
       </c>
-      <c r="N9" s="351" t="s">
+      <c r="N9" s="375" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="339">
+      <c r="O9" s="363">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="339">
+      <c r="P9" s="363">
         <v>3</v>
       </c>
-      <c r="Q9" s="339">
+      <c r="Q9" s="363">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="339">
+      <c r="R9" s="363">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="339"/>
-      <c r="T9" s="342">
+      <c r="S9" s="363"/>
+      <c r="T9" s="366">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="339">
+      <c r="U9" s="363">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -5362,7 +5362,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="349"/>
+      <c r="B10" s="373"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -5394,15 +5394,15 @@
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="340"/>
-      <c r="N10" s="352"/>
-      <c r="O10" s="340"/>
-      <c r="P10" s="340"/>
-      <c r="Q10" s="340"/>
-      <c r="R10" s="340"/>
-      <c r="S10" s="340"/>
-      <c r="T10" s="343"/>
-      <c r="U10" s="340"/>
+      <c r="M10" s="364"/>
+      <c r="N10" s="376"/>
+      <c r="O10" s="364"/>
+      <c r="P10" s="364"/>
+      <c r="Q10" s="364"/>
+      <c r="R10" s="364"/>
+      <c r="S10" s="364"/>
+      <c r="T10" s="367"/>
+      <c r="U10" s="364"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -5410,10 +5410,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="339" t="s">
+      <c r="A11" s="363" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="349"/>
+      <c r="B11" s="373"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -5424,15 +5424,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="340"/>
-      <c r="N11" s="352"/>
-      <c r="O11" s="340"/>
-      <c r="P11" s="340"/>
-      <c r="Q11" s="340"/>
-      <c r="R11" s="340"/>
-      <c r="S11" s="340"/>
-      <c r="T11" s="343"/>
-      <c r="U11" s="340"/>
+      <c r="M11" s="364"/>
+      <c r="N11" s="376"/>
+      <c r="O11" s="364"/>
+      <c r="P11" s="364"/>
+      <c r="Q11" s="364"/>
+      <c r="R11" s="364"/>
+      <c r="S11" s="364"/>
+      <c r="T11" s="367"/>
+      <c r="U11" s="364"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -5451,8 +5451,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="341"/>
-      <c r="B12" s="350"/>
+      <c r="A12" s="365"/>
+      <c r="B12" s="374"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -5463,15 +5463,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="341"/>
-      <c r="N12" s="353"/>
-      <c r="O12" s="341"/>
-      <c r="P12" s="341"/>
-      <c r="Q12" s="341"/>
-      <c r="R12" s="341"/>
-      <c r="S12" s="341"/>
-      <c r="T12" s="344"/>
-      <c r="U12" s="341"/>
+      <c r="M12" s="365"/>
+      <c r="N12" s="377"/>
+      <c r="O12" s="365"/>
+      <c r="P12" s="365"/>
+      <c r="Q12" s="365"/>
+      <c r="R12" s="365"/>
+      <c r="S12" s="365"/>
+      <c r="T12" s="368"/>
+      <c r="U12" s="365"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -5487,7 +5487,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="348" t="s">
+      <c r="B13" s="372" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -5521,33 +5521,33 @@
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="339">
+      <c r="M13" s="363">
         <v>80</v>
       </c>
-      <c r="N13" s="351" t="s">
+      <c r="N13" s="375" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="339">
+      <c r="O13" s="363">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="339">
+      <c r="P13" s="363">
         <v>2</v>
       </c>
-      <c r="Q13" s="339">
+      <c r="Q13" s="363">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="339">
+      <c r="R13" s="363">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="339"/>
-      <c r="T13" s="342">
+      <c r="S13" s="363"/>
+      <c r="T13" s="366">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="339">
+      <c r="U13" s="363">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -5570,7 +5570,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="349"/>
+      <c r="B14" s="373"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -5602,15 +5602,15 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="340"/>
-      <c r="N14" s="352"/>
-      <c r="O14" s="340"/>
-      <c r="P14" s="340"/>
-      <c r="Q14" s="340"/>
-      <c r="R14" s="340"/>
-      <c r="S14" s="340"/>
-      <c r="T14" s="343"/>
-      <c r="U14" s="340"/>
+      <c r="M14" s="364"/>
+      <c r="N14" s="376"/>
+      <c r="O14" s="364"/>
+      <c r="P14" s="364"/>
+      <c r="Q14" s="364"/>
+      <c r="R14" s="364"/>
+      <c r="S14" s="364"/>
+      <c r="T14" s="367"/>
+      <c r="U14" s="364"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -5618,10 +5618,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="354" t="s">
+      <c r="A15" s="378" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="349"/>
+      <c r="B15" s="373"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -5632,15 +5632,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="340"/>
-      <c r="N15" s="352"/>
-      <c r="O15" s="340"/>
-      <c r="P15" s="340"/>
-      <c r="Q15" s="340"/>
-      <c r="R15" s="340"/>
-      <c r="S15" s="340"/>
-      <c r="T15" s="343"/>
-      <c r="U15" s="340"/>
+      <c r="M15" s="364"/>
+      <c r="N15" s="376"/>
+      <c r="O15" s="364"/>
+      <c r="P15" s="364"/>
+      <c r="Q15" s="364"/>
+      <c r="R15" s="364"/>
+      <c r="S15" s="364"/>
+      <c r="T15" s="367"/>
+      <c r="U15" s="364"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -5650,8 +5650,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="355"/>
-      <c r="B16" s="350"/>
+      <c r="A16" s="379"/>
+      <c r="B16" s="374"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -5662,15 +5662,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="341"/>
-      <c r="N16" s="353"/>
-      <c r="O16" s="341"/>
-      <c r="P16" s="341"/>
-      <c r="Q16" s="341"/>
-      <c r="R16" s="341"/>
-      <c r="S16" s="341"/>
-      <c r="T16" s="344"/>
-      <c r="U16" s="341"/>
+      <c r="M16" s="365"/>
+      <c r="N16" s="377"/>
+      <c r="O16" s="365"/>
+      <c r="P16" s="365"/>
+      <c r="Q16" s="365"/>
+      <c r="R16" s="365"/>
+      <c r="S16" s="365"/>
+      <c r="T16" s="368"/>
+      <c r="U16" s="365"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -5681,7 +5681,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="348" t="s">
+      <c r="B17" s="372" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -5715,33 +5715,33 @@
         <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="339">
+      <c r="M17" s="363">
         <v>70</v>
       </c>
-      <c r="N17" s="351" t="s">
+      <c r="N17" s="375" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="339">
+      <c r="O17" s="363">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="339">
+      <c r="P17" s="363">
         <v>2</v>
       </c>
-      <c r="Q17" s="339">
+      <c r="Q17" s="363">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="339">
+      <c r="R17" s="363">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="339"/>
-      <c r="T17" s="342">
+      <c r="S17" s="363"/>
+      <c r="T17" s="366">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="339">
+      <c r="U17" s="363">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -5760,7 +5760,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="349"/>
+      <c r="B18" s="373"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -5792,24 +5792,24 @@
         <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="340"/>
-      <c r="N18" s="352"/>
-      <c r="O18" s="340"/>
-      <c r="P18" s="340"/>
-      <c r="Q18" s="340"/>
-      <c r="R18" s="340"/>
-      <c r="S18" s="340"/>
-      <c r="T18" s="343"/>
-      <c r="U18" s="340"/>
+      <c r="M18" s="364"/>
+      <c r="N18" s="376"/>
+      <c r="O18" s="364"/>
+      <c r="P18" s="364"/>
+      <c r="Q18" s="364"/>
+      <c r="R18" s="364"/>
+      <c r="S18" s="364"/>
+      <c r="T18" s="367"/>
+      <c r="U18" s="364"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="339" t="s">
+      <c r="A19" s="363" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="349"/>
+      <c r="B19" s="373"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -5820,22 +5820,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="340"/>
-      <c r="N19" s="352"/>
-      <c r="O19" s="340"/>
-      <c r="P19" s="340"/>
-      <c r="Q19" s="340"/>
-      <c r="R19" s="340"/>
-      <c r="S19" s="340"/>
-      <c r="T19" s="343"/>
-      <c r="U19" s="340"/>
+      <c r="M19" s="364"/>
+      <c r="N19" s="376"/>
+      <c r="O19" s="364"/>
+      <c r="P19" s="364"/>
+      <c r="Q19" s="364"/>
+      <c r="R19" s="364"/>
+      <c r="S19" s="364"/>
+      <c r="T19" s="367"/>
+      <c r="U19" s="364"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="341"/>
-      <c r="B20" s="350"/>
+      <c r="A20" s="365"/>
+      <c r="B20" s="374"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -5846,15 +5846,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="341"/>
-      <c r="N20" s="353"/>
-      <c r="O20" s="341"/>
-      <c r="P20" s="341"/>
-      <c r="Q20" s="341"/>
-      <c r="R20" s="341"/>
-      <c r="S20" s="341"/>
-      <c r="T20" s="344"/>
-      <c r="U20" s="341"/>
+      <c r="M20" s="365"/>
+      <c r="N20" s="377"/>
+      <c r="O20" s="365"/>
+      <c r="P20" s="365"/>
+      <c r="Q20" s="365"/>
+      <c r="R20" s="365"/>
+      <c r="S20" s="365"/>
+      <c r="T20" s="368"/>
+      <c r="U20" s="365"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -5863,7 +5863,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="348" t="s">
+      <c r="B21" s="372" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -5897,33 +5897,33 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="339">
+      <c r="M21" s="363">
         <v>60</v>
       </c>
-      <c r="N21" s="351" t="s">
+      <c r="N21" s="375" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="339">
+      <c r="O21" s="363">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="339">
+      <c r="P21" s="363">
         <v>3</v>
       </c>
-      <c r="Q21" s="339">
+      <c r="Q21" s="363">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="339">
+      <c r="R21" s="363">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="339"/>
-      <c r="T21" s="342">
+      <c r="S21" s="363"/>
+      <c r="T21" s="366">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="339">
+      <c r="U21" s="363">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -5940,7 +5940,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="349"/>
+      <c r="B22" s="373"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -5972,24 +5972,24 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="340"/>
-      <c r="N22" s="352"/>
-      <c r="O22" s="340"/>
-      <c r="P22" s="340"/>
-      <c r="Q22" s="340"/>
-      <c r="R22" s="340"/>
-      <c r="S22" s="340"/>
-      <c r="T22" s="343"/>
-      <c r="U22" s="340"/>
+      <c r="M22" s="364"/>
+      <c r="N22" s="376"/>
+      <c r="O22" s="364"/>
+      <c r="P22" s="364"/>
+      <c r="Q22" s="364"/>
+      <c r="R22" s="364"/>
+      <c r="S22" s="364"/>
+      <c r="T22" s="367"/>
+      <c r="U22" s="364"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="345" t="s">
+      <c r="A23" s="369" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="349"/>
+      <c r="B23" s="373"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -6000,22 +6000,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="340"/>
-      <c r="N23" s="352"/>
-      <c r="O23" s="340"/>
-      <c r="P23" s="340"/>
-      <c r="Q23" s="340"/>
-      <c r="R23" s="340"/>
-      <c r="S23" s="340"/>
-      <c r="T23" s="343"/>
-      <c r="U23" s="340"/>
+      <c r="M23" s="364"/>
+      <c r="N23" s="376"/>
+      <c r="O23" s="364"/>
+      <c r="P23" s="364"/>
+      <c r="Q23" s="364"/>
+      <c r="R23" s="364"/>
+      <c r="S23" s="364"/>
+      <c r="T23" s="367"/>
+      <c r="U23" s="364"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="346"/>
-      <c r="B24" s="350"/>
+      <c r="A24" s="370"/>
+      <c r="B24" s="374"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -6026,15 +6026,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="341"/>
-      <c r="N24" s="353"/>
-      <c r="O24" s="341"/>
-      <c r="P24" s="341"/>
-      <c r="Q24" s="341"/>
-      <c r="R24" s="341"/>
-      <c r="S24" s="341"/>
-      <c r="T24" s="344"/>
-      <c r="U24" s="341"/>
+      <c r="M24" s="365"/>
+      <c r="N24" s="377"/>
+      <c r="O24" s="365"/>
+      <c r="P24" s="365"/>
+      <c r="Q24" s="365"/>
+      <c r="R24" s="365"/>
+      <c r="S24" s="365"/>
+      <c r="T24" s="368"/>
+      <c r="U24" s="365"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -6060,13 +6060,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="347" t="s">
+      <c r="H27" s="371" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="347"/>
-      <c r="J27" s="347"/>
-      <c r="K27" s="347"/>
-      <c r="L27" s="347"/>
+      <c r="I27" s="371"/>
+      <c r="J27" s="371"/>
+      <c r="K27" s="371"/>
+      <c r="L27" s="371"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -6346,19 +6346,19 @@
     <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="337" t="s">
+      <c r="D40" s="361" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="337"/>
-      <c r="F40" s="337"/>
-      <c r="G40" s="337"/>
-      <c r="H40" s="337"/>
-      <c r="I40" s="337" t="s">
+      <c r="E40" s="361"/>
+      <c r="F40" s="361"/>
+      <c r="G40" s="361"/>
+      <c r="H40" s="361"/>
+      <c r="I40" s="361" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="337"/>
-      <c r="K40" s="337"/>
-      <c r="L40" s="337"/>
+      <c r="J40" s="361"/>
+      <c r="K40" s="361"/>
+      <c r="L40" s="361"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -6482,7 +6482,7 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="332" t="s">
+      <c r="B42" s="356" t="s">
         <v>226</v>
       </c>
       <c r="C42" s="190"/>
@@ -6490,17 +6490,17 @@
       <c r="E42" s="111"/>
       <c r="F42" s="189"/>
       <c r="G42" s="189"/>
-      <c r="H42" s="333">
+      <c r="H42" s="357">
         <v>3.095975611358881E-3</v>
       </c>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="189"/>
       <c r="L42" s="189"/>
-      <c r="M42" s="333">
+      <c r="M42" s="357">
         <v>1</v>
       </c>
-      <c r="N42" s="338" t="s">
+      <c r="N42" s="362" t="s">
         <v>59</v>
       </c>
       <c r="P42" s="91"/>
@@ -6548,7 +6548,7 @@
       <c r="AN42" s="88"/>
     </row>
     <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="332"/>
+      <c r="B43" s="356"/>
       <c r="C43" s="190" t="s">
         <v>220</v>
       </c>
@@ -6564,7 +6564,7 @@
       <c r="G43" s="103">
         <v>97.126746422628088</v>
       </c>
-      <c r="H43" s="333"/>
+      <c r="H43" s="357"/>
       <c r="I43" s="111">
         <v>1</v>
       </c>
@@ -6577,8 +6577,8 @@
       <c r="L43" s="103">
         <v>1</v>
       </c>
-      <c r="M43" s="333"/>
-      <c r="N43" s="333"/>
+      <c r="M43" s="357"/>
+      <c r="N43" s="357"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -6624,7 +6624,7 @@
       <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="332"/>
+      <c r="B44" s="356"/>
       <c r="C44" s="190" t="s">
         <v>218</v>
       </c>
@@ -6640,7 +6640,7 @@
       <c r="G44" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H44" s="333"/>
+      <c r="H44" s="357"/>
       <c r="I44" s="111">
         <v>1</v>
       </c>
@@ -6653,8 +6653,8 @@
       <c r="L44" s="189">
         <v>1</v>
       </c>
-      <c r="M44" s="333"/>
-      <c r="N44" s="333"/>
+      <c r="M44" s="357"/>
+      <c r="N44" s="357"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -6700,7 +6700,7 @@
       <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="332"/>
+      <c r="B45" s="356"/>
       <c r="C45" s="190" t="s">
         <v>219</v>
       </c>
@@ -6716,7 +6716,7 @@
       <c r="G45" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H45" s="333"/>
+      <c r="H45" s="357"/>
       <c r="I45" s="111">
         <v>1</v>
       </c>
@@ -6729,8 +6729,8 @@
       <c r="L45" s="189">
         <v>1</v>
       </c>
-      <c r="M45" s="333"/>
-      <c r="N45" s="333"/>
+      <c r="M45" s="357"/>
+      <c r="N45" s="357"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -6776,19 +6776,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="332"/>
+      <c r="B46" s="356"/>
       <c r="C46" s="190"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="189"/>
       <c r="G46" s="189"/>
-      <c r="H46" s="333"/>
+      <c r="H46" s="357"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="189"/>
       <c r="L46" s="189"/>
-      <c r="M46" s="333"/>
-      <c r="N46" s="334"/>
+      <c r="M46" s="357"/>
+      <c r="N46" s="358"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -6834,19 +6834,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="332"/>
+      <c r="B47" s="356"/>
       <c r="C47" s="190"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="333"/>
+      <c r="H47" s="357"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="333"/>
-      <c r="N47" s="335"/>
+      <c r="M47" s="357"/>
+      <c r="N47" s="359"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -6894,19 +6894,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="332"/>
+      <c r="B48" s="356"/>
       <c r="C48" s="190"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="333"/>
+      <c r="H48" s="357"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="333"/>
-      <c r="N48" s="335"/>
+      <c r="M48" s="357"/>
+      <c r="N48" s="359"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -6954,19 +6954,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="332"/>
+      <c r="B49" s="356"/>
       <c r="C49" s="190"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="333"/>
+      <c r="H49" s="357"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="333"/>
-      <c r="N49" s="335"/>
+      <c r="M49" s="357"/>
+      <c r="N49" s="359"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -7014,19 +7014,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="327"/>
+      <c r="B50" s="351"/>
       <c r="C50" s="191"/>
       <c r="D50" s="187"/>
       <c r="E50" s="187"/>
       <c r="F50" s="187"/>
       <c r="G50" s="187"/>
-      <c r="H50" s="328"/>
+      <c r="H50" s="352"/>
       <c r="I50" s="187"/>
       <c r="J50" s="187"/>
       <c r="K50" s="187"/>
       <c r="L50" s="187"/>
-      <c r="M50" s="328"/>
-      <c r="N50" s="336"/>
+      <c r="M50" s="352"/>
+      <c r="N50" s="360"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -7047,19 +7047,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="327"/>
+      <c r="B51" s="351"/>
       <c r="C51" s="191"/>
       <c r="D51" s="187"/>
       <c r="E51" s="187"/>
       <c r="F51" s="187"/>
       <c r="G51" s="187"/>
-      <c r="H51" s="328"/>
+      <c r="H51" s="352"/>
       <c r="I51" s="187"/>
       <c r="J51" s="187"/>
       <c r="K51" s="187"/>
       <c r="L51" s="187"/>
-      <c r="M51" s="328"/>
-      <c r="N51" s="330"/>
+      <c r="M51" s="352"/>
+      <c r="N51" s="354"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -7090,19 +7090,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="327"/>
+      <c r="B52" s="351"/>
       <c r="C52" s="191"/>
       <c r="D52" s="187"/>
       <c r="E52" s="187"/>
       <c r="F52" s="187"/>
       <c r="G52" s="187"/>
-      <c r="H52" s="328"/>
+      <c r="H52" s="352"/>
       <c r="I52" s="187"/>
       <c r="J52" s="187"/>
       <c r="K52" s="187"/>
       <c r="L52" s="187"/>
-      <c r="M52" s="328"/>
-      <c r="N52" s="330"/>
+      <c r="M52" s="352"/>
+      <c r="N52" s="354"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -7166,19 +7166,19 @@
       </c>
     </row>
     <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="327"/>
+      <c r="B53" s="351"/>
       <c r="C53" s="191"/>
       <c r="D53" s="187"/>
       <c r="E53" s="187"/>
       <c r="F53" s="187"/>
       <c r="G53" s="187"/>
-      <c r="H53" s="328"/>
+      <c r="H53" s="352"/>
       <c r="I53" s="187"/>
       <c r="J53" s="187"/>
       <c r="K53" s="187"/>
       <c r="L53" s="187"/>
-      <c r="M53" s="328"/>
-      <c r="N53" s="330"/>
+      <c r="M53" s="352"/>
+      <c r="N53" s="354"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -7227,19 +7227,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="327"/>
+      <c r="B54" s="351"/>
       <c r="C54" s="191"/>
       <c r="D54" s="187"/>
       <c r="E54" s="187"/>
       <c r="F54" s="187"/>
       <c r="G54" s="187"/>
-      <c r="H54" s="328"/>
+      <c r="H54" s="352"/>
       <c r="I54" s="187"/>
       <c r="J54" s="187"/>
       <c r="K54" s="187"/>
       <c r="L54" s="187"/>
-      <c r="M54" s="328"/>
-      <c r="N54" s="329"/>
+      <c r="M54" s="352"/>
+      <c r="N54" s="353"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -7286,19 +7286,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="327"/>
+      <c r="B55" s="351"/>
       <c r="C55" s="191"/>
       <c r="D55" s="187"/>
       <c r="E55" s="187"/>
       <c r="F55" s="187"/>
       <c r="G55" s="187"/>
-      <c r="H55" s="328"/>
+      <c r="H55" s="352"/>
       <c r="I55" s="187"/>
       <c r="J55" s="187"/>
       <c r="K55" s="187"/>
       <c r="L55" s="187"/>
-      <c r="M55" s="328"/>
-      <c r="N55" s="330"/>
+      <c r="M55" s="352"/>
+      <c r="N55" s="354"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -7345,19 +7345,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="327"/>
+      <c r="B56" s="351"/>
       <c r="C56" s="191"/>
       <c r="D56" s="187"/>
       <c r="E56" s="187"/>
       <c r="F56" s="187"/>
       <c r="G56" s="187"/>
-      <c r="H56" s="328"/>
+      <c r="H56" s="352"/>
       <c r="I56" s="187"/>
       <c r="J56" s="187"/>
       <c r="K56" s="187"/>
       <c r="L56" s="187"/>
-      <c r="M56" s="328"/>
-      <c r="N56" s="330"/>
+      <c r="M56" s="352"/>
+      <c r="N56" s="354"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -7404,19 +7404,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="327"/>
+      <c r="B57" s="351"/>
       <c r="C57" s="191"/>
       <c r="D57" s="187"/>
       <c r="E57" s="187"/>
       <c r="F57" s="187"/>
       <c r="G57" s="187"/>
-      <c r="H57" s="328"/>
+      <c r="H57" s="352"/>
       <c r="I57" s="187"/>
       <c r="J57" s="187"/>
       <c r="K57" s="187"/>
       <c r="L57" s="187"/>
-      <c r="M57" s="328"/>
-      <c r="N57" s="330"/>
+      <c r="M57" s="352"/>
+      <c r="N57" s="354"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -7463,19 +7463,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="322"/>
+      <c r="B58" s="346"/>
       <c r="C58" s="185"/>
       <c r="D58" s="192"/>
       <c r="E58" s="192"/>
       <c r="F58" s="192"/>
       <c r="G58" s="192"/>
-      <c r="H58" s="323"/>
+      <c r="H58" s="347"/>
       <c r="I58" s="192"/>
       <c r="J58" s="192"/>
       <c r="K58" s="192"/>
       <c r="L58" s="192"/>
-      <c r="M58" s="323"/>
-      <c r="N58" s="331"/>
+      <c r="M58" s="347"/>
+      <c r="N58" s="355"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -7522,19 +7522,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="322"/>
+      <c r="B59" s="346"/>
       <c r="C59" s="185"/>
       <c r="D59" s="192"/>
       <c r="E59" s="192"/>
       <c r="F59" s="192"/>
       <c r="G59" s="192"/>
-      <c r="H59" s="323"/>
+      <c r="H59" s="347"/>
       <c r="I59" s="192"/>
       <c r="J59" s="192"/>
       <c r="K59" s="192"/>
       <c r="L59" s="192"/>
-      <c r="M59" s="323"/>
-      <c r="N59" s="325"/>
+      <c r="M59" s="347"/>
+      <c r="N59" s="349"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -7581,19 +7581,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="322"/>
+      <c r="B60" s="346"/>
       <c r="C60" s="185"/>
       <c r="D60" s="192"/>
       <c r="E60" s="192"/>
       <c r="F60" s="192"/>
       <c r="G60" s="192"/>
-      <c r="H60" s="323"/>
+      <c r="H60" s="347"/>
       <c r="I60" s="192"/>
       <c r="J60" s="192"/>
       <c r="K60" s="192"/>
       <c r="L60" s="192"/>
-      <c r="M60" s="323"/>
-      <c r="N60" s="325"/>
+      <c r="M60" s="347"/>
+      <c r="N60" s="349"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -7640,247 +7640,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="322"/>
+      <c r="B61" s="346"/>
       <c r="C61" s="185"/>
       <c r="D61" s="192"/>
       <c r="E61" s="192"/>
       <c r="F61" s="192"/>
       <c r="G61" s="192"/>
-      <c r="H61" s="323"/>
+      <c r="H61" s="347"/>
       <c r="I61" s="192"/>
       <c r="J61" s="192"/>
       <c r="K61" s="192"/>
       <c r="L61" s="192"/>
-      <c r="M61" s="323"/>
-      <c r="N61" s="325"/>
+      <c r="M61" s="347"/>
+      <c r="N61" s="349"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="322"/>
+      <c r="B62" s="346"/>
       <c r="C62" s="185"/>
       <c r="D62" s="192"/>
       <c r="E62" s="192"/>
       <c r="F62" s="192"/>
       <c r="G62" s="192"/>
-      <c r="H62" s="323"/>
+      <c r="H62" s="347"/>
       <c r="I62" s="192"/>
       <c r="J62" s="192"/>
       <c r="K62" s="192"/>
       <c r="L62" s="192"/>
-      <c r="M62" s="323"/>
-      <c r="N62" s="324"/>
+      <c r="M62" s="347"/>
+      <c r="N62" s="348"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="322"/>
+      <c r="B63" s="346"/>
       <c r="C63" s="185"/>
       <c r="D63" s="192"/>
       <c r="E63" s="192"/>
       <c r="F63" s="192"/>
       <c r="G63" s="192"/>
-      <c r="H63" s="323"/>
+      <c r="H63" s="347"/>
       <c r="I63" s="192"/>
       <c r="J63" s="192"/>
       <c r="K63" s="192"/>
       <c r="L63" s="192"/>
-      <c r="M63" s="323"/>
-      <c r="N63" s="325"/>
+      <c r="M63" s="347"/>
+      <c r="N63" s="349"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="322"/>
+      <c r="B64" s="346"/>
       <c r="C64" s="185"/>
       <c r="D64" s="192"/>
       <c r="E64" s="192"/>
       <c r="F64" s="192"/>
       <c r="G64" s="192"/>
-      <c r="H64" s="323"/>
+      <c r="H64" s="347"/>
       <c r="I64" s="192"/>
       <c r="J64" s="192"/>
       <c r="K64" s="192"/>
       <c r="L64" s="192"/>
-      <c r="M64" s="323"/>
-      <c r="N64" s="325"/>
+      <c r="M64" s="347"/>
+      <c r="N64" s="349"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="322"/>
+      <c r="B65" s="346"/>
       <c r="C65" s="185"/>
       <c r="D65" s="192"/>
       <c r="E65" s="192"/>
       <c r="F65" s="192"/>
       <c r="G65" s="192"/>
-      <c r="H65" s="323"/>
+      <c r="H65" s="347"/>
       <c r="I65" s="192"/>
       <c r="J65" s="192"/>
       <c r="K65" s="192"/>
       <c r="L65" s="192"/>
-      <c r="M65" s="323"/>
-      <c r="N65" s="325"/>
+      <c r="M65" s="347"/>
+      <c r="N65" s="349"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="318"/>
+      <c r="B66" s="342"/>
       <c r="C66" s="186"/>
       <c r="D66" s="188"/>
       <c r="E66" s="188"/>
       <c r="F66" s="188"/>
       <c r="G66" s="188"/>
-      <c r="H66" s="319"/>
+      <c r="H66" s="343"/>
       <c r="I66" s="188"/>
       <c r="J66" s="188"/>
       <c r="K66" s="188"/>
       <c r="L66" s="188"/>
-      <c r="M66" s="319"/>
-      <c r="N66" s="326"/>
+      <c r="M66" s="343"/>
+      <c r="N66" s="350"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="318"/>
+      <c r="B67" s="342"/>
       <c r="C67" s="186"/>
       <c r="D67" s="188"/>
       <c r="E67" s="188"/>
       <c r="F67" s="188"/>
       <c r="G67" s="188"/>
-      <c r="H67" s="319"/>
+      <c r="H67" s="343"/>
       <c r="I67" s="188"/>
       <c r="J67" s="188"/>
       <c r="K67" s="188"/>
       <c r="L67" s="188"/>
-      <c r="M67" s="319"/>
-      <c r="N67" s="321"/>
+      <c r="M67" s="343"/>
+      <c r="N67" s="345"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="318"/>
+      <c r="B68" s="342"/>
       <c r="C68" s="186"/>
       <c r="D68" s="188"/>
       <c r="E68" s="188"/>
       <c r="F68" s="188"/>
       <c r="G68" s="188"/>
-      <c r="H68" s="319"/>
+      <c r="H68" s="343"/>
       <c r="I68" s="188"/>
       <c r="J68" s="188"/>
       <c r="K68" s="188"/>
       <c r="L68" s="188"/>
-      <c r="M68" s="319"/>
-      <c r="N68" s="321"/>
+      <c r="M68" s="343"/>
+      <c r="N68" s="345"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="318"/>
+      <c r="B69" s="342"/>
       <c r="C69" s="186"/>
       <c r="D69" s="188"/>
       <c r="E69" s="188"/>
       <c r="F69" s="188"/>
       <c r="G69" s="188"/>
-      <c r="H69" s="319"/>
+      <c r="H69" s="343"/>
       <c r="I69" s="188"/>
       <c r="J69" s="188"/>
       <c r="K69" s="188"/>
       <c r="L69" s="188"/>
-      <c r="M69" s="319"/>
-      <c r="N69" s="321"/>
+      <c r="M69" s="343"/>
+      <c r="N69" s="345"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="318"/>
+      <c r="B70" s="342"/>
       <c r="C70" s="186"/>
       <c r="D70" s="188"/>
       <c r="E70" s="188"/>
       <c r="F70" s="188"/>
       <c r="G70" s="188"/>
-      <c r="H70" s="319"/>
+      <c r="H70" s="343"/>
       <c r="I70" s="188"/>
       <c r="J70" s="188"/>
       <c r="K70" s="188"/>
       <c r="L70" s="188"/>
-      <c r="M70" s="319"/>
-      <c r="N70" s="320"/>
+      <c r="M70" s="343"/>
+      <c r="N70" s="344"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="318"/>
+      <c r="B71" s="342"/>
       <c r="C71" s="186"/>
       <c r="D71" s="188"/>
       <c r="E71" s="188"/>
       <c r="F71" s="188"/>
       <c r="G71" s="188"/>
-      <c r="H71" s="319"/>
+      <c r="H71" s="343"/>
       <c r="I71" s="188"/>
       <c r="J71" s="188"/>
       <c r="K71" s="188"/>
       <c r="L71" s="188"/>
-      <c r="M71" s="319"/>
-      <c r="N71" s="321"/>
+      <c r="M71" s="343"/>
+      <c r="N71" s="345"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="318"/>
+      <c r="B72" s="342"/>
       <c r="C72" s="186"/>
       <c r="D72" s="188"/>
       <c r="E72" s="188"/>
       <c r="F72" s="188"/>
       <c r="G72" s="188"/>
-      <c r="H72" s="319"/>
+      <c r="H72" s="343"/>
       <c r="I72" s="188"/>
       <c r="J72" s="188"/>
       <c r="K72" s="188"/>
       <c r="L72" s="188"/>
-      <c r="M72" s="319"/>
-      <c r="N72" s="321"/>
+      <c r="M72" s="343"/>
+      <c r="N72" s="345"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="318"/>
+      <c r="B73" s="342"/>
       <c r="C73" s="186"/>
       <c r="D73" s="188"/>
       <c r="E73" s="188"/>
       <c r="F73" s="188"/>
       <c r="G73" s="188"/>
-      <c r="H73" s="319"/>
+      <c r="H73" s="343"/>
       <c r="I73" s="188"/>
       <c r="J73" s="188"/>
       <c r="K73" s="188"/>
       <c r="L73" s="188"/>
-      <c r="M73" s="319"/>
-      <c r="N73" s="321"/>
+      <c r="M73" s="343"/>
+      <c r="N73" s="345"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -9533,8 +9533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P30" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="R42" sqref="R42:AC226"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -9582,15 +9582,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="356" t="s">
+      <c r="F1" s="380" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="356"/>
-      <c r="H1" s="356"/>
-      <c r="I1" s="356"/>
-      <c r="J1" s="356"/>
-      <c r="K1" s="356"/>
-      <c r="L1" s="356"/>
+      <c r="G1" s="380"/>
+      <c r="H1" s="380"/>
+      <c r="I1" s="380"/>
+      <c r="J1" s="380"/>
+      <c r="K1" s="380"/>
+      <c r="L1" s="380"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -9639,22 +9639,22 @@
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="357" t="s">
+      <c r="D6" s="381" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="358"/>
-      <c r="F6" s="358"/>
-      <c r="G6" s="358"/>
-      <c r="H6" s="359"/>
+      <c r="E6" s="382"/>
+      <c r="F6" s="382"/>
+      <c r="G6" s="382"/>
+      <c r="H6" s="383"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="357" t="s">
+      <c r="M6" s="381" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="358"/>
-      <c r="O6" s="358"/>
-      <c r="P6" s="358"/>
-      <c r="Q6" s="359"/>
+      <c r="N6" s="382"/>
+      <c r="O6" s="382"/>
+      <c r="P6" s="382"/>
+      <c r="Q6" s="383"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -9672,10 +9672,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="360" t="s">
+      <c r="F7" s="384" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="361"/>
+      <c r="G7" s="385"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -9698,10 +9698,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="360" t="s">
+      <c r="P7" s="384" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="361"/>
+      <c r="Q7" s="385"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -9769,7 +9769,7 @@
     </row>
     <row r="9" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="39"/>
-      <c r="B9" s="348"/>
+      <c r="B9" s="372"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -9780,15 +9780,15 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="42"/>
-      <c r="M9" s="339"/>
-      <c r="N9" s="351"/>
-      <c r="O9" s="339"/>
-      <c r="P9" s="339"/>
-      <c r="Q9" s="339"/>
-      <c r="R9" s="339"/>
-      <c r="S9" s="339"/>
-      <c r="T9" s="342"/>
-      <c r="U9" s="339"/>
+      <c r="M9" s="363"/>
+      <c r="N9" s="375"/>
+      <c r="O9" s="363"/>
+      <c r="P9" s="363"/>
+      <c r="Q9" s="363"/>
+      <c r="R9" s="363"/>
+      <c r="S9" s="363"/>
+      <c r="T9" s="366"/>
+      <c r="U9" s="363"/>
       <c r="V9" s="41"/>
       <c r="W9" s="36"/>
       <c r="X9" s="36"/>
@@ -9798,7 +9798,7 @@
     </row>
     <row r="10" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
-      <c r="B10" s="349"/>
+      <c r="B10" s="373"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -9809,15 +9809,15 @@
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="42"/>
-      <c r="M10" s="340"/>
-      <c r="N10" s="352"/>
-      <c r="O10" s="340"/>
-      <c r="P10" s="340"/>
-      <c r="Q10" s="340"/>
-      <c r="R10" s="340"/>
-      <c r="S10" s="340"/>
-      <c r="T10" s="343"/>
-      <c r="U10" s="340"/>
+      <c r="M10" s="364"/>
+      <c r="N10" s="376"/>
+      <c r="O10" s="364"/>
+      <c r="P10" s="364"/>
+      <c r="Q10" s="364"/>
+      <c r="R10" s="364"/>
+      <c r="S10" s="364"/>
+      <c r="T10" s="367"/>
+      <c r="U10" s="364"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -9825,8 +9825,8 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="339"/>
-      <c r="B11" s="349"/>
+      <c r="A11" s="363"/>
+      <c r="B11" s="373"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -9837,15 +9837,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="340"/>
-      <c r="N11" s="352"/>
-      <c r="O11" s="340"/>
-      <c r="P11" s="340"/>
-      <c r="Q11" s="340"/>
-      <c r="R11" s="340"/>
-      <c r="S11" s="340"/>
-      <c r="T11" s="343"/>
-      <c r="U11" s="340"/>
+      <c r="M11" s="364"/>
+      <c r="N11" s="376"/>
+      <c r="O11" s="364"/>
+      <c r="P11" s="364"/>
+      <c r="Q11" s="364"/>
+      <c r="R11" s="364"/>
+      <c r="S11" s="364"/>
+      <c r="T11" s="367"/>
+      <c r="U11" s="364"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -9855,8 +9855,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="341"/>
-      <c r="B12" s="350"/>
+      <c r="A12" s="365"/>
+      <c r="B12" s="374"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -9867,15 +9867,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="341"/>
-      <c r="N12" s="353"/>
-      <c r="O12" s="341"/>
-      <c r="P12" s="341"/>
-      <c r="Q12" s="341"/>
-      <c r="R12" s="341"/>
-      <c r="S12" s="341"/>
-      <c r="T12" s="344"/>
-      <c r="U12" s="341"/>
+      <c r="M12" s="365"/>
+      <c r="N12" s="377"/>
+      <c r="O12" s="365"/>
+      <c r="P12" s="365"/>
+      <c r="Q12" s="365"/>
+      <c r="R12" s="365"/>
+      <c r="S12" s="365"/>
+      <c r="T12" s="368"/>
+      <c r="U12" s="365"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -9884,7 +9884,7 @@
     </row>
     <row r="13" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43"/>
-      <c r="B13" s="348"/>
+      <c r="B13" s="372"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -9895,15 +9895,15 @@
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
       <c r="L13" s="42"/>
-      <c r="M13" s="339"/>
-      <c r="N13" s="351"/>
-      <c r="O13" s="339"/>
-      <c r="P13" s="339"/>
-      <c r="Q13" s="339"/>
-      <c r="R13" s="339"/>
-      <c r="S13" s="339"/>
-      <c r="T13" s="342"/>
-      <c r="U13" s="339"/>
+      <c r="M13" s="363"/>
+      <c r="N13" s="375"/>
+      <c r="O13" s="363"/>
+      <c r="P13" s="363"/>
+      <c r="Q13" s="363"/>
+      <c r="R13" s="363"/>
+      <c r="S13" s="363"/>
+      <c r="T13" s="366"/>
+      <c r="U13" s="363"/>
       <c r="V13" s="41"/>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
@@ -9912,7 +9912,7 @@
     </row>
     <row r="14" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
-      <c r="B14" s="349"/>
+      <c r="B14" s="373"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -9923,15 +9923,15 @@
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
       <c r="L14" s="42"/>
-      <c r="M14" s="340"/>
-      <c r="N14" s="352"/>
-      <c r="O14" s="340"/>
-      <c r="P14" s="340"/>
-      <c r="Q14" s="340"/>
-      <c r="R14" s="340"/>
-      <c r="S14" s="340"/>
-      <c r="T14" s="343"/>
-      <c r="U14" s="340"/>
+      <c r="M14" s="364"/>
+      <c r="N14" s="376"/>
+      <c r="O14" s="364"/>
+      <c r="P14" s="364"/>
+      <c r="Q14" s="364"/>
+      <c r="R14" s="364"/>
+      <c r="S14" s="364"/>
+      <c r="T14" s="367"/>
+      <c r="U14" s="364"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -9939,8 +9939,8 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="354"/>
-      <c r="B15" s="349"/>
+      <c r="A15" s="378"/>
+      <c r="B15" s="373"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -9951,15 +9951,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="340"/>
-      <c r="N15" s="352"/>
-      <c r="O15" s="340"/>
-      <c r="P15" s="340"/>
-      <c r="Q15" s="340"/>
-      <c r="R15" s="340"/>
-      <c r="S15" s="340"/>
-      <c r="T15" s="343"/>
-      <c r="U15" s="340"/>
+      <c r="M15" s="364"/>
+      <c r="N15" s="376"/>
+      <c r="O15" s="364"/>
+      <c r="P15" s="364"/>
+      <c r="Q15" s="364"/>
+      <c r="R15" s="364"/>
+      <c r="S15" s="364"/>
+      <c r="T15" s="367"/>
+      <c r="U15" s="364"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -9967,8 +9967,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="355"/>
-      <c r="B16" s="350"/>
+      <c r="A16" s="379"/>
+      <c r="B16" s="374"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -9979,15 +9979,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="341"/>
-      <c r="N16" s="353"/>
-      <c r="O16" s="341"/>
-      <c r="P16" s="341"/>
-      <c r="Q16" s="341"/>
-      <c r="R16" s="341"/>
-      <c r="S16" s="341"/>
-      <c r="T16" s="344"/>
-      <c r="U16" s="341"/>
+      <c r="M16" s="365"/>
+      <c r="N16" s="377"/>
+      <c r="O16" s="365"/>
+      <c r="P16" s="365"/>
+      <c r="Q16" s="365"/>
+      <c r="R16" s="365"/>
+      <c r="S16" s="365"/>
+      <c r="T16" s="368"/>
+      <c r="U16" s="365"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -9996,7 +9996,7 @@
     </row>
     <row r="17" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39"/>
-      <c r="B17" s="348"/>
+      <c r="B17" s="372"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -10007,15 +10007,15 @@
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
       <c r="L17" s="42"/>
-      <c r="M17" s="339"/>
-      <c r="N17" s="351"/>
-      <c r="O17" s="339"/>
-      <c r="P17" s="339"/>
-      <c r="Q17" s="339"/>
-      <c r="R17" s="339"/>
-      <c r="S17" s="339"/>
-      <c r="T17" s="342"/>
-      <c r="U17" s="339"/>
+      <c r="M17" s="363"/>
+      <c r="N17" s="375"/>
+      <c r="O17" s="363"/>
+      <c r="P17" s="363"/>
+      <c r="Q17" s="363"/>
+      <c r="R17" s="363"/>
+      <c r="S17" s="363"/>
+      <c r="T17" s="366"/>
+      <c r="U17" s="363"/>
       <c r="V17" s="41"/>
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
@@ -10024,7 +10024,7 @@
     </row>
     <row r="18" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
-      <c r="B18" s="349"/>
+      <c r="B18" s="373"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -10035,22 +10035,22 @@
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="42"/>
-      <c r="M18" s="340"/>
-      <c r="N18" s="352"/>
-      <c r="O18" s="340"/>
-      <c r="P18" s="340"/>
-      <c r="Q18" s="340"/>
-      <c r="R18" s="340"/>
-      <c r="S18" s="340"/>
-      <c r="T18" s="343"/>
-      <c r="U18" s="340"/>
+      <c r="M18" s="364"/>
+      <c r="N18" s="376"/>
+      <c r="O18" s="364"/>
+      <c r="P18" s="364"/>
+      <c r="Q18" s="364"/>
+      <c r="R18" s="364"/>
+      <c r="S18" s="364"/>
+      <c r="T18" s="367"/>
+      <c r="U18" s="364"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="339"/>
-      <c r="B19" s="349"/>
+      <c r="A19" s="363"/>
+      <c r="B19" s="373"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -10061,22 +10061,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="340"/>
-      <c r="N19" s="352"/>
-      <c r="O19" s="340"/>
-      <c r="P19" s="340"/>
-      <c r="Q19" s="340"/>
-      <c r="R19" s="340"/>
-      <c r="S19" s="340"/>
-      <c r="T19" s="343"/>
-      <c r="U19" s="340"/>
+      <c r="M19" s="364"/>
+      <c r="N19" s="376"/>
+      <c r="O19" s="364"/>
+      <c r="P19" s="364"/>
+      <c r="Q19" s="364"/>
+      <c r="R19" s="364"/>
+      <c r="S19" s="364"/>
+      <c r="T19" s="367"/>
+      <c r="U19" s="364"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="341"/>
-      <c r="B20" s="350"/>
+      <c r="A20" s="365"/>
+      <c r="B20" s="374"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -10087,22 +10087,22 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="341"/>
-      <c r="N20" s="353"/>
-      <c r="O20" s="341"/>
-      <c r="P20" s="341"/>
-      <c r="Q20" s="341"/>
-      <c r="R20" s="341"/>
-      <c r="S20" s="341"/>
-      <c r="T20" s="344"/>
-      <c r="U20" s="341"/>
+      <c r="M20" s="365"/>
+      <c r="N20" s="377"/>
+      <c r="O20" s="365"/>
+      <c r="P20" s="365"/>
+      <c r="Q20" s="365"/>
+      <c r="R20" s="365"/>
+      <c r="S20" s="365"/>
+      <c r="T20" s="368"/>
+      <c r="U20" s="365"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
     </row>
     <row r="21" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39"/>
-      <c r="B21" s="348"/>
+      <c r="B21" s="372"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -10113,22 +10113,22 @@
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
       <c r="L21" s="42"/>
-      <c r="M21" s="339"/>
-      <c r="N21" s="351"/>
-      <c r="O21" s="339"/>
-      <c r="P21" s="339"/>
-      <c r="Q21" s="339"/>
-      <c r="R21" s="339"/>
-      <c r="S21" s="339"/>
-      <c r="T21" s="342"/>
-      <c r="U21" s="339"/>
+      <c r="M21" s="363"/>
+      <c r="N21" s="375"/>
+      <c r="O21" s="363"/>
+      <c r="P21" s="363"/>
+      <c r="Q21" s="363"/>
+      <c r="R21" s="363"/>
+      <c r="S21" s="363"/>
+      <c r="T21" s="366"/>
+      <c r="U21" s="363"/>
       <c r="V21" s="41"/>
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
     </row>
     <row r="22" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="40"/>
-      <c r="B22" s="349"/>
+      <c r="B22" s="373"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -10139,22 +10139,22 @@
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
       <c r="L22" s="42"/>
-      <c r="M22" s="340"/>
-      <c r="N22" s="352"/>
-      <c r="O22" s="340"/>
-      <c r="P22" s="340"/>
-      <c r="Q22" s="340"/>
-      <c r="R22" s="340"/>
-      <c r="S22" s="340"/>
-      <c r="T22" s="343"/>
-      <c r="U22" s="340"/>
+      <c r="M22" s="364"/>
+      <c r="N22" s="376"/>
+      <c r="O22" s="364"/>
+      <c r="P22" s="364"/>
+      <c r="Q22" s="364"/>
+      <c r="R22" s="364"/>
+      <c r="S22" s="364"/>
+      <c r="T22" s="367"/>
+      <c r="U22" s="364"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="345"/>
-      <c r="B23" s="349"/>
+      <c r="A23" s="369"/>
+      <c r="B23" s="373"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -10165,22 +10165,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="340"/>
-      <c r="N23" s="352"/>
-      <c r="O23" s="340"/>
-      <c r="P23" s="340"/>
-      <c r="Q23" s="340"/>
-      <c r="R23" s="340"/>
-      <c r="S23" s="340"/>
-      <c r="T23" s="343"/>
-      <c r="U23" s="340"/>
+      <c r="M23" s="364"/>
+      <c r="N23" s="376"/>
+      <c r="O23" s="364"/>
+      <c r="P23" s="364"/>
+      <c r="Q23" s="364"/>
+      <c r="R23" s="364"/>
+      <c r="S23" s="364"/>
+      <c r="T23" s="367"/>
+      <c r="U23" s="364"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="346"/>
-      <c r="B24" s="350"/>
+      <c r="A24" s="370"/>
+      <c r="B24" s="374"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -10191,15 +10191,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="341"/>
-      <c r="N24" s="353"/>
-      <c r="O24" s="341"/>
-      <c r="P24" s="341"/>
-      <c r="Q24" s="341"/>
-      <c r="R24" s="341"/>
-      <c r="S24" s="341"/>
-      <c r="T24" s="344"/>
-      <c r="U24" s="341"/>
+      <c r="M24" s="365"/>
+      <c r="N24" s="377"/>
+      <c r="O24" s="365"/>
+      <c r="P24" s="365"/>
+      <c r="Q24" s="365"/>
+      <c r="R24" s="365"/>
+      <c r="S24" s="365"/>
+      <c r="T24" s="368"/>
+      <c r="U24" s="365"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -10391,15 +10391,15 @@
     </row>
     <row r="38" spans="1:41" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="317" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:41" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="316" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B39" s="316" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C39" s="22">
         <v>2</v>
@@ -10511,40 +10511,40 @@
     </row>
     <row r="40" spans="1:41" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="314" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B40" s="315" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="D40" s="104"/>
       <c r="E40" s="105"/>
-      <c r="F40" s="363" t="s">
+      <c r="F40" s="387" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="364"/>
-      <c r="H40" s="364"/>
-      <c r="I40" s="365"/>
-      <c r="J40" s="366" t="s">
+      <c r="G40" s="388"/>
+      <c r="H40" s="388"/>
+      <c r="I40" s="389"/>
+      <c r="J40" s="390" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="367"/>
-      <c r="L40" s="367"/>
-      <c r="M40" s="368"/>
+      <c r="K40" s="391"/>
+      <c r="L40" s="391"/>
+      <c r="M40" s="392"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
       </c>
       <c r="P40" s="227"/>
-      <c r="Q40" s="362" t="s">
+      <c r="Q40" s="386" t="s">
         <v>234</v>
       </c>
-      <c r="R40" s="362"/>
-      <c r="S40" s="362"/>
-      <c r="T40" s="362"/>
-      <c r="U40" s="362"/>
-      <c r="V40" s="362"/>
-      <c r="W40" s="362"/>
-      <c r="X40" s="362"/>
-      <c r="Y40" s="362"/>
+      <c r="R40" s="386"/>
+      <c r="S40" s="386"/>
+      <c r="T40" s="386"/>
+      <c r="U40" s="386"/>
+      <c r="V40" s="386"/>
+      <c r="W40" s="386"/>
+      <c r="X40" s="386"/>
+      <c r="Y40" s="386"/>
       <c r="Z40" s="46"/>
       <c r="AA40" s="46"/>
       <c r="AB40" s="46"/>
@@ -10672,7 +10672,7 @@
         <v>1</v>
       </c>
       <c r="B42" s="276" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D42" s="34"/>
       <c r="E42" s="34"/>
@@ -10688,24 +10688,24 @@
       <c r="O42" s="64"/>
       <c r="P42" s="232"/>
       <c r="Q42" s="243"/>
-      <c r="R42" s="381"/>
-      <c r="S42" s="381"/>
-      <c r="T42" s="381"/>
-      <c r="U42" s="381"/>
-      <c r="V42" s="381"/>
-      <c r="W42" s="381"/>
-      <c r="X42" s="381"/>
-      <c r="Y42" s="382"/>
-      <c r="Z42" s="381"/>
-      <c r="AA42" s="381"/>
-      <c r="AB42" s="383"/>
-      <c r="AC42" s="384"/>
+      <c r="R42" s="322"/>
+      <c r="S42" s="322"/>
+      <c r="T42" s="322"/>
+      <c r="U42" s="322"/>
+      <c r="V42" s="322"/>
+      <c r="W42" s="322"/>
+      <c r="X42" s="322"/>
+      <c r="Y42" s="323"/>
+      <c r="Z42" s="322"/>
+      <c r="AA42" s="322"/>
+      <c r="AB42" s="324"/>
+      <c r="AC42" s="325"/>
       <c r="AD42" s="64"/>
       <c r="AE42" s="50"/>
       <c r="AF42" s="50"/>
       <c r="AG42" s="50"/>
-      <c r="AH42" s="50"/>
-      <c r="AI42" s="50"/>
+      <c r="AH42" s="322"/>
+      <c r="AI42" s="324"/>
       <c r="AJ42" s="299"/>
       <c r="AK42" s="226"/>
       <c r="AL42" s="23"/>
@@ -10718,7 +10718,7 @@
         <v>2</v>
       </c>
       <c r="B43" s="276" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D43" s="34"/>
       <c r="E43" s="34"/>
@@ -10734,24 +10734,24 @@
       <c r="O43" s="64"/>
       <c r="P43" s="232"/>
       <c r="Q43" s="243"/>
-      <c r="R43" s="381"/>
-      <c r="S43" s="381"/>
-      <c r="T43" s="381"/>
-      <c r="U43" s="381"/>
-      <c r="V43" s="381"/>
-      <c r="W43" s="381"/>
-      <c r="X43" s="381"/>
-      <c r="Y43" s="382"/>
-      <c r="Z43" s="381"/>
-      <c r="AA43" s="381"/>
-      <c r="AB43" s="383"/>
-      <c r="AC43" s="384"/>
+      <c r="R43" s="322"/>
+      <c r="S43" s="322"/>
+      <c r="T43" s="322"/>
+      <c r="U43" s="322"/>
+      <c r="V43" s="322"/>
+      <c r="W43" s="322"/>
+      <c r="X43" s="322"/>
+      <c r="Y43" s="323"/>
+      <c r="Z43" s="322"/>
+      <c r="AA43" s="322"/>
+      <c r="AB43" s="324"/>
+      <c r="AC43" s="325"/>
       <c r="AD43" s="64"/>
       <c r="AE43" s="50"/>
       <c r="AF43" s="50"/>
       <c r="AG43" s="50"/>
-      <c r="AH43" s="50"/>
-      <c r="AI43" s="50"/>
+      <c r="AH43" s="322"/>
+      <c r="AI43" s="324"/>
       <c r="AJ43" s="300"/>
       <c r="AK43" s="226"/>
       <c r="AL43" s="23"/>
@@ -10778,24 +10778,24 @@
       <c r="O44" s="64"/>
       <c r="P44" s="232"/>
       <c r="Q44" s="243"/>
-      <c r="R44" s="381"/>
-      <c r="S44" s="381"/>
-      <c r="T44" s="381"/>
-      <c r="U44" s="381"/>
-      <c r="V44" s="381"/>
-      <c r="W44" s="381"/>
-      <c r="X44" s="381"/>
-      <c r="Y44" s="382"/>
-      <c r="Z44" s="381"/>
-      <c r="AA44" s="381"/>
-      <c r="AB44" s="383"/>
-      <c r="AC44" s="384"/>
+      <c r="R44" s="322"/>
+      <c r="S44" s="322"/>
+      <c r="T44" s="322"/>
+      <c r="U44" s="322"/>
+      <c r="V44" s="322"/>
+      <c r="W44" s="322"/>
+      <c r="X44" s="322"/>
+      <c r="Y44" s="323"/>
+      <c r="Z44" s="322"/>
+      <c r="AA44" s="322"/>
+      <c r="AB44" s="324"/>
+      <c r="AC44" s="325"/>
       <c r="AD44" s="64"/>
       <c r="AE44" s="50"/>
       <c r="AF44" s="50"/>
       <c r="AG44" s="50"/>
-      <c r="AH44" s="50"/>
-      <c r="AI44" s="50"/>
+      <c r="AH44" s="322"/>
+      <c r="AI44" s="324"/>
       <c r="AJ44" s="284"/>
       <c r="AK44" s="226"/>
       <c r="AL44" s="23"/>
@@ -10822,24 +10822,24 @@
       <c r="O45" s="64"/>
       <c r="P45" s="232"/>
       <c r="Q45" s="243"/>
-      <c r="R45" s="381"/>
-      <c r="S45" s="381"/>
-      <c r="T45" s="381"/>
-      <c r="U45" s="381"/>
-      <c r="V45" s="381"/>
-      <c r="W45" s="381"/>
-      <c r="X45" s="381"/>
-      <c r="Y45" s="382"/>
-      <c r="Z45" s="381"/>
-      <c r="AA45" s="381"/>
-      <c r="AB45" s="383"/>
-      <c r="AC45" s="385"/>
+      <c r="R45" s="322"/>
+      <c r="S45" s="322"/>
+      <c r="T45" s="322"/>
+      <c r="U45" s="322"/>
+      <c r="V45" s="322"/>
+      <c r="W45" s="322"/>
+      <c r="X45" s="322"/>
+      <c r="Y45" s="323"/>
+      <c r="Z45" s="322"/>
+      <c r="AA45" s="322"/>
+      <c r="AB45" s="324"/>
+      <c r="AC45" s="326"/>
       <c r="AD45" s="64"/>
       <c r="AE45" s="50"/>
       <c r="AF45" s="50"/>
       <c r="AG45" s="50"/>
-      <c r="AH45" s="50"/>
-      <c r="AI45" s="50"/>
+      <c r="AH45" s="322"/>
+      <c r="AI45" s="324"/>
       <c r="AJ45" s="302"/>
       <c r="AK45" s="226"/>
       <c r="AL45" s="23"/>
@@ -10864,24 +10864,24 @@
       <c r="O46" s="64"/>
       <c r="P46" s="232"/>
       <c r="Q46" s="243"/>
-      <c r="R46" s="381"/>
-      <c r="S46" s="381"/>
-      <c r="T46" s="381"/>
-      <c r="U46" s="381"/>
-      <c r="V46" s="381"/>
-      <c r="W46" s="381"/>
-      <c r="X46" s="381"/>
-      <c r="Y46" s="382"/>
-      <c r="Z46" s="381"/>
-      <c r="AA46" s="381"/>
-      <c r="AB46" s="383"/>
-      <c r="AC46" s="384"/>
+      <c r="R46" s="322"/>
+      <c r="S46" s="322"/>
+      <c r="T46" s="322"/>
+      <c r="U46" s="322"/>
+      <c r="V46" s="322"/>
+      <c r="W46" s="322"/>
+      <c r="X46" s="322"/>
+      <c r="Y46" s="323"/>
+      <c r="Z46" s="322"/>
+      <c r="AA46" s="322"/>
+      <c r="AB46" s="324"/>
+      <c r="AC46" s="325"/>
       <c r="AD46" s="64"/>
       <c r="AE46" s="50"/>
       <c r="AF46" s="50"/>
       <c r="AG46" s="50"/>
-      <c r="AH46" s="50"/>
-      <c r="AI46" s="50"/>
+      <c r="AH46" s="322"/>
+      <c r="AI46" s="324"/>
       <c r="AJ46" s="303"/>
       <c r="AK46" s="226"/>
       <c r="AL46" s="23"/>
@@ -10905,24 +10905,24 @@
       <c r="N47" s="274"/>
       <c r="P47" s="218"/>
       <c r="Q47" s="241"/>
-      <c r="R47" s="382"/>
-      <c r="S47" s="386"/>
-      <c r="T47" s="386"/>
-      <c r="U47" s="381"/>
-      <c r="V47" s="381"/>
-      <c r="W47" s="382"/>
-      <c r="X47" s="382"/>
-      <c r="Y47" s="382"/>
-      <c r="Z47" s="382"/>
-      <c r="AA47" s="382"/>
-      <c r="AB47" s="387"/>
-      <c r="AC47" s="384"/>
+      <c r="R47" s="323"/>
+      <c r="S47" s="327"/>
+      <c r="T47" s="327"/>
+      <c r="U47" s="322"/>
+      <c r="V47" s="322"/>
+      <c r="W47" s="323"/>
+      <c r="X47" s="323"/>
+      <c r="Y47" s="323"/>
+      <c r="Z47" s="323"/>
+      <c r="AA47" s="323"/>
+      <c r="AB47" s="328"/>
+      <c r="AC47" s="325"/>
       <c r="AD47" s="23"/>
       <c r="AE47" s="72"/>
       <c r="AF47" s="36"/>
       <c r="AG47" s="50"/>
-      <c r="AH47" s="50"/>
-      <c r="AI47" s="36"/>
+      <c r="AH47" s="323"/>
+      <c r="AI47" s="328"/>
       <c r="AJ47" s="285"/>
       <c r="AK47" s="226"/>
       <c r="AL47" s="23"/>
@@ -10946,24 +10946,24 @@
       <c r="N48" s="274"/>
       <c r="P48" s="218"/>
       <c r="Q48" s="241"/>
-      <c r="R48" s="382"/>
-      <c r="S48" s="386"/>
-      <c r="T48" s="386"/>
-      <c r="U48" s="381"/>
-      <c r="V48" s="381"/>
-      <c r="W48" s="382"/>
-      <c r="X48" s="382"/>
-      <c r="Y48" s="382"/>
-      <c r="Z48" s="382"/>
-      <c r="AA48" s="382"/>
-      <c r="AB48" s="387"/>
-      <c r="AC48" s="384"/>
+      <c r="R48" s="323"/>
+      <c r="S48" s="327"/>
+      <c r="T48" s="327"/>
+      <c r="U48" s="322"/>
+      <c r="V48" s="322"/>
+      <c r="W48" s="323"/>
+      <c r="X48" s="323"/>
+      <c r="Y48" s="323"/>
+      <c r="Z48" s="323"/>
+      <c r="AA48" s="323"/>
+      <c r="AB48" s="328"/>
+      <c r="AC48" s="325"/>
       <c r="AD48" s="23"/>
       <c r="AE48" s="72"/>
       <c r="AF48" s="36"/>
       <c r="AG48" s="50"/>
-      <c r="AH48" s="50"/>
-      <c r="AI48" s="36"/>
+      <c r="AH48" s="323"/>
+      <c r="AI48" s="328"/>
       <c r="AJ48" s="305"/>
       <c r="AK48" s="226"/>
       <c r="AL48" s="23"/>
@@ -10987,24 +10987,24 @@
       <c r="N49" s="304"/>
       <c r="P49" s="218"/>
       <c r="Q49" s="241"/>
-      <c r="R49" s="382"/>
-      <c r="S49" s="386"/>
-      <c r="T49" s="386"/>
-      <c r="U49" s="381"/>
-      <c r="V49" s="381"/>
-      <c r="W49" s="382"/>
-      <c r="X49" s="382"/>
-      <c r="Y49" s="382"/>
-      <c r="Z49" s="382"/>
-      <c r="AA49" s="382"/>
-      <c r="AB49" s="387"/>
-      <c r="AC49" s="384"/>
+      <c r="R49" s="323"/>
+      <c r="S49" s="327"/>
+      <c r="T49" s="327"/>
+      <c r="U49" s="322"/>
+      <c r="V49" s="322"/>
+      <c r="W49" s="323"/>
+      <c r="X49" s="323"/>
+      <c r="Y49" s="323"/>
+      <c r="Z49" s="323"/>
+      <c r="AA49" s="323"/>
+      <c r="AB49" s="328"/>
+      <c r="AC49" s="325"/>
       <c r="AD49" s="23"/>
       <c r="AE49" s="72"/>
       <c r="AF49" s="36"/>
       <c r="AG49" s="50"/>
-      <c r="AH49" s="50"/>
-      <c r="AI49" s="36"/>
+      <c r="AH49" s="323"/>
+      <c r="AI49" s="328"/>
       <c r="AJ49" s="306"/>
       <c r="AK49" s="226"/>
       <c r="AL49" s="23"/>
@@ -11028,24 +11028,24 @@
       <c r="N50" s="274"/>
       <c r="P50" s="218"/>
       <c r="Q50" s="241"/>
-      <c r="R50" s="382"/>
-      <c r="S50" s="386"/>
-      <c r="T50" s="386"/>
-      <c r="U50" s="381"/>
-      <c r="V50" s="381"/>
-      <c r="W50" s="382"/>
-      <c r="X50" s="381"/>
-      <c r="Y50" s="381"/>
-      <c r="Z50" s="381"/>
-      <c r="AA50" s="381"/>
-      <c r="AB50" s="383"/>
-      <c r="AC50" s="384"/>
+      <c r="R50" s="323"/>
+      <c r="S50" s="327"/>
+      <c r="T50" s="327"/>
+      <c r="U50" s="322"/>
+      <c r="V50" s="322"/>
+      <c r="W50" s="323"/>
+      <c r="X50" s="322"/>
+      <c r="Y50" s="322"/>
+      <c r="Z50" s="322"/>
+      <c r="AA50" s="322"/>
+      <c r="AB50" s="324"/>
+      <c r="AC50" s="325"/>
       <c r="AD50" s="46"/>
       <c r="AE50" s="50"/>
       <c r="AF50" s="50"/>
       <c r="AG50" s="50"/>
-      <c r="AH50" s="50"/>
-      <c r="AI50" s="36"/>
+      <c r="AH50" s="322"/>
+      <c r="AI50" s="324"/>
       <c r="AJ50" s="286"/>
       <c r="AK50" s="23"/>
       <c r="AL50" s="23"/>
@@ -11069,24 +11069,24 @@
       <c r="N51" s="274"/>
       <c r="P51" s="218"/>
       <c r="Q51" s="241"/>
-      <c r="R51" s="382"/>
-      <c r="S51" s="386"/>
-      <c r="T51" s="386"/>
-      <c r="U51" s="381"/>
-      <c r="V51" s="381"/>
-      <c r="W51" s="382"/>
-      <c r="X51" s="381"/>
-      <c r="Y51" s="381"/>
-      <c r="Z51" s="381"/>
-      <c r="AA51" s="381"/>
-      <c r="AB51" s="383"/>
-      <c r="AC51" s="385"/>
+      <c r="R51" s="323"/>
+      <c r="S51" s="327"/>
+      <c r="T51" s="327"/>
+      <c r="U51" s="322"/>
+      <c r="V51" s="322"/>
+      <c r="W51" s="323"/>
+      <c r="X51" s="322"/>
+      <c r="Y51" s="322"/>
+      <c r="Z51" s="322"/>
+      <c r="AA51" s="322"/>
+      <c r="AB51" s="324"/>
+      <c r="AC51" s="326"/>
       <c r="AD51" s="76"/>
       <c r="AE51" s="50"/>
       <c r="AF51" s="50"/>
       <c r="AG51" s="50"/>
-      <c r="AH51" s="50"/>
-      <c r="AI51" s="36"/>
+      <c r="AH51" s="322"/>
+      <c r="AI51" s="324"/>
       <c r="AJ51" s="308"/>
       <c r="AK51" s="46"/>
       <c r="AL51" s="46"/>
@@ -11110,24 +11110,24 @@
       <c r="N52" s="274"/>
       <c r="P52" s="218"/>
       <c r="Q52" s="241"/>
-      <c r="R52" s="382"/>
-      <c r="S52" s="386"/>
-      <c r="T52" s="386"/>
-      <c r="U52" s="381"/>
-      <c r="V52" s="381"/>
-      <c r="W52" s="382"/>
-      <c r="X52" s="382"/>
-      <c r="Y52" s="382"/>
-      <c r="Z52" s="382"/>
-      <c r="AA52" s="382"/>
-      <c r="AB52" s="387"/>
-      <c r="AC52" s="384"/>
+      <c r="R52" s="323"/>
+      <c r="S52" s="327"/>
+      <c r="T52" s="327"/>
+      <c r="U52" s="322"/>
+      <c r="V52" s="322"/>
+      <c r="W52" s="323"/>
+      <c r="X52" s="323"/>
+      <c r="Y52" s="323"/>
+      <c r="Z52" s="323"/>
+      <c r="AA52" s="323"/>
+      <c r="AB52" s="328"/>
+      <c r="AC52" s="325"/>
       <c r="AD52" s="23"/>
       <c r="AE52" s="36"/>
       <c r="AF52" s="36"/>
       <c r="AG52" s="50"/>
-      <c r="AH52" s="50"/>
-      <c r="AI52" s="36"/>
+      <c r="AH52" s="323"/>
+      <c r="AI52" s="328"/>
       <c r="AJ52" s="309"/>
       <c r="AK52" s="23"/>
       <c r="AL52" s="23"/>
@@ -11151,24 +11151,24 @@
       <c r="N53" s="307"/>
       <c r="P53" s="218"/>
       <c r="Q53" s="241"/>
-      <c r="R53" s="382"/>
-      <c r="S53" s="386"/>
-      <c r="T53" s="386"/>
-      <c r="U53" s="381"/>
-      <c r="V53" s="381"/>
-      <c r="W53" s="382"/>
-      <c r="X53" s="382"/>
-      <c r="Y53" s="382"/>
-      <c r="Z53" s="382"/>
-      <c r="AA53" s="382"/>
-      <c r="AB53" s="387"/>
-      <c r="AC53" s="384"/>
+      <c r="R53" s="323"/>
+      <c r="S53" s="327"/>
+      <c r="T53" s="327"/>
+      <c r="U53" s="322"/>
+      <c r="V53" s="322"/>
+      <c r="W53" s="323"/>
+      <c r="X53" s="323"/>
+      <c r="Y53" s="323"/>
+      <c r="Z53" s="323"/>
+      <c r="AA53" s="323"/>
+      <c r="AB53" s="328"/>
+      <c r="AC53" s="325"/>
       <c r="AD53" s="23"/>
       <c r="AE53" s="36"/>
       <c r="AF53" s="36"/>
       <c r="AG53" s="50"/>
-      <c r="AH53" s="50"/>
-      <c r="AI53" s="36"/>
+      <c r="AH53" s="323"/>
+      <c r="AI53" s="328"/>
       <c r="AJ53" s="287"/>
       <c r="AK53" s="23"/>
       <c r="AL53" s="23"/>
@@ -11192,24 +11192,24 @@
       <c r="N54" s="274"/>
       <c r="P54" s="218"/>
       <c r="Q54" s="241"/>
-      <c r="R54" s="382"/>
-      <c r="S54" s="386"/>
-      <c r="T54" s="386"/>
-      <c r="U54" s="382"/>
-      <c r="V54" s="382"/>
-      <c r="W54" s="382"/>
-      <c r="X54" s="382"/>
-      <c r="Y54" s="382"/>
-      <c r="Z54" s="382"/>
-      <c r="AA54" s="382"/>
-      <c r="AB54" s="387"/>
-      <c r="AC54" s="384"/>
+      <c r="R54" s="323"/>
+      <c r="S54" s="327"/>
+      <c r="T54" s="327"/>
+      <c r="U54" s="323"/>
+      <c r="V54" s="323"/>
+      <c r="W54" s="323"/>
+      <c r="X54" s="323"/>
+      <c r="Y54" s="323"/>
+      <c r="Z54" s="323"/>
+      <c r="AA54" s="323"/>
+      <c r="AB54" s="328"/>
+      <c r="AC54" s="325"/>
       <c r="AD54" s="23"/>
       <c r="AE54" s="36"/>
       <c r="AF54" s="36"/>
       <c r="AG54" s="50"/>
-      <c r="AH54" s="50"/>
-      <c r="AI54" s="36"/>
+      <c r="AH54" s="323"/>
+      <c r="AI54" s="328"/>
       <c r="AJ54" s="311"/>
       <c r="AK54" s="23"/>
       <c r="AL54" s="23"/>
@@ -11233,24 +11233,24 @@
       <c r="N55" s="274"/>
       <c r="P55" s="218"/>
       <c r="Q55" s="241"/>
-      <c r="R55" s="382"/>
-      <c r="S55" s="386"/>
-      <c r="T55" s="386"/>
-      <c r="U55" s="382"/>
-      <c r="V55" s="382"/>
-      <c r="W55" s="382"/>
-      <c r="X55" s="382"/>
-      <c r="Y55" s="382"/>
-      <c r="Z55" s="382"/>
-      <c r="AA55" s="382"/>
-      <c r="AB55" s="387"/>
-      <c r="AC55" s="384"/>
+      <c r="R55" s="323"/>
+      <c r="S55" s="327"/>
+      <c r="T55" s="327"/>
+      <c r="U55" s="323"/>
+      <c r="V55" s="323"/>
+      <c r="W55" s="323"/>
+      <c r="X55" s="323"/>
+      <c r="Y55" s="323"/>
+      <c r="Z55" s="323"/>
+      <c r="AA55" s="323"/>
+      <c r="AB55" s="328"/>
+      <c r="AC55" s="325"/>
       <c r="AD55" s="23"/>
       <c r="AE55" s="36"/>
       <c r="AF55" s="36"/>
       <c r="AG55" s="50"/>
-      <c r="AH55" s="50"/>
-      <c r="AI55" s="36"/>
+      <c r="AH55" s="323"/>
+      <c r="AI55" s="328"/>
       <c r="AJ55" s="312"/>
       <c r="AK55" s="23"/>
       <c r="AL55" s="23"/>
@@ -11274,24 +11274,24 @@
       <c r="N56" s="310"/>
       <c r="P56" s="218"/>
       <c r="Q56" s="241"/>
-      <c r="R56" s="382"/>
-      <c r="S56" s="386"/>
-      <c r="T56" s="386"/>
-      <c r="U56" s="382"/>
-      <c r="V56" s="382"/>
-      <c r="W56" s="382"/>
-      <c r="X56" s="382"/>
-      <c r="Y56" s="382"/>
-      <c r="Z56" s="382"/>
-      <c r="AA56" s="382"/>
-      <c r="AB56" s="387"/>
-      <c r="AC56" s="385"/>
+      <c r="R56" s="323"/>
+      <c r="S56" s="327"/>
+      <c r="T56" s="327"/>
+      <c r="U56" s="323"/>
+      <c r="V56" s="323"/>
+      <c r="W56" s="323"/>
+      <c r="X56" s="323"/>
+      <c r="Y56" s="323"/>
+      <c r="Z56" s="323"/>
+      <c r="AA56" s="323"/>
+      <c r="AB56" s="328"/>
+      <c r="AC56" s="326"/>
       <c r="AD56" s="23"/>
       <c r="AE56" s="36"/>
       <c r="AF56" s="36"/>
       <c r="AG56" s="50"/>
-      <c r="AH56" s="50"/>
-      <c r="AI56" s="36"/>
+      <c r="AH56" s="323"/>
+      <c r="AI56" s="328"/>
       <c r="AJ56" s="288"/>
       <c r="AK56" s="23"/>
       <c r="AL56" s="23"/>
@@ -11315,24 +11315,24 @@
       <c r="N57" s="275"/>
       <c r="P57" s="218"/>
       <c r="Q57" s="241"/>
-      <c r="R57" s="382"/>
-      <c r="S57" s="386"/>
-      <c r="T57" s="386"/>
-      <c r="U57" s="382"/>
-      <c r="V57" s="382"/>
-      <c r="W57" s="382"/>
-      <c r="X57" s="382"/>
-      <c r="Y57" s="382"/>
-      <c r="Z57" s="382"/>
-      <c r="AA57" s="382"/>
-      <c r="AB57" s="387"/>
-      <c r="AC57" s="384"/>
+      <c r="R57" s="323"/>
+      <c r="S57" s="327"/>
+      <c r="T57" s="327"/>
+      <c r="U57" s="323"/>
+      <c r="V57" s="323"/>
+      <c r="W57" s="323"/>
+      <c r="X57" s="323"/>
+      <c r="Y57" s="323"/>
+      <c r="Z57" s="323"/>
+      <c r="AA57" s="323"/>
+      <c r="AB57" s="328"/>
+      <c r="AC57" s="325"/>
       <c r="AD57" s="23"/>
       <c r="AE57" s="36"/>
       <c r="AF57" s="36"/>
       <c r="AG57" s="50"/>
-      <c r="AH57" s="50"/>
-      <c r="AI57" s="36"/>
+      <c r="AH57" s="322"/>
+      <c r="AI57" s="324"/>
       <c r="AJ57" s="36"/>
       <c r="AK57" s="23"/>
       <c r="AL57" s="23"/>
@@ -11356,24 +11356,24 @@
       <c r="N58" s="275"/>
       <c r="P58" s="218"/>
       <c r="Q58" s="241"/>
-      <c r="R58" s="382"/>
-      <c r="S58" s="386"/>
-      <c r="T58" s="386"/>
-      <c r="U58" s="382"/>
-      <c r="V58" s="382"/>
-      <c r="W58" s="382"/>
-      <c r="X58" s="382"/>
-      <c r="Y58" s="382"/>
-      <c r="Z58" s="382"/>
-      <c r="AA58" s="382"/>
-      <c r="AB58" s="387"/>
-      <c r="AC58" s="384"/>
+      <c r="R58" s="323"/>
+      <c r="S58" s="327"/>
+      <c r="T58" s="327"/>
+      <c r="U58" s="323"/>
+      <c r="V58" s="323"/>
+      <c r="W58" s="323"/>
+      <c r="X58" s="323"/>
+      <c r="Y58" s="323"/>
+      <c r="Z58" s="323"/>
+      <c r="AA58" s="323"/>
+      <c r="AB58" s="328"/>
+      <c r="AC58" s="325"/>
       <c r="AD58" s="23"/>
       <c r="AE58" s="36"/>
       <c r="AF58" s="36"/>
       <c r="AG58" s="50"/>
-      <c r="AH58" s="50"/>
-      <c r="AI58" s="36"/>
+      <c r="AH58" s="322"/>
+      <c r="AI58" s="324"/>
       <c r="AJ58" s="36"/>
       <c r="AK58" s="23"/>
       <c r="AL58" s="23"/>
@@ -11397,24 +11397,24 @@
       <c r="N59" s="239"/>
       <c r="P59" s="218"/>
       <c r="Q59" s="241"/>
-      <c r="R59" s="382"/>
-      <c r="S59" s="386"/>
-      <c r="T59" s="386"/>
-      <c r="U59" s="382"/>
-      <c r="V59" s="382"/>
-      <c r="W59" s="382"/>
-      <c r="X59" s="382"/>
-      <c r="Y59" s="382"/>
-      <c r="Z59" s="382"/>
-      <c r="AA59" s="382"/>
-      <c r="AB59" s="387"/>
-      <c r="AC59" s="384"/>
+      <c r="R59" s="323"/>
+      <c r="S59" s="327"/>
+      <c r="T59" s="327"/>
+      <c r="U59" s="323"/>
+      <c r="V59" s="323"/>
+      <c r="W59" s="323"/>
+      <c r="X59" s="323"/>
+      <c r="Y59" s="323"/>
+      <c r="Z59" s="323"/>
+      <c r="AA59" s="323"/>
+      <c r="AB59" s="328"/>
+      <c r="AC59" s="325"/>
       <c r="AD59" s="23"/>
       <c r="AE59" s="36"/>
       <c r="AF59" s="36"/>
       <c r="AG59" s="50"/>
-      <c r="AH59" s="50"/>
-      <c r="AI59" s="36"/>
+      <c r="AH59" s="322"/>
+      <c r="AI59" s="324"/>
       <c r="AJ59" s="36"/>
       <c r="AK59" s="23"/>
       <c r="AL59" s="23"/>
@@ -11438,24 +11438,24 @@
       <c r="N60" s="239"/>
       <c r="P60" s="218"/>
       <c r="Q60" s="241"/>
-      <c r="R60" s="382"/>
-      <c r="S60" s="386"/>
-      <c r="T60" s="386"/>
-      <c r="U60" s="382"/>
-      <c r="V60" s="382"/>
-      <c r="W60" s="382"/>
-      <c r="X60" s="382"/>
-      <c r="Y60" s="382"/>
-      <c r="Z60" s="382"/>
-      <c r="AA60" s="382"/>
-      <c r="AB60" s="387"/>
-      <c r="AC60" s="385"/>
+      <c r="R60" s="323"/>
+      <c r="S60" s="327"/>
+      <c r="T60" s="327"/>
+      <c r="U60" s="323"/>
+      <c r="V60" s="323"/>
+      <c r="W60" s="323"/>
+      <c r="X60" s="323"/>
+      <c r="Y60" s="323"/>
+      <c r="Z60" s="323"/>
+      <c r="AA60" s="323"/>
+      <c r="AB60" s="328"/>
+      <c r="AC60" s="326"/>
       <c r="AD60" s="23"/>
       <c r="AE60" s="36"/>
       <c r="AF60" s="36"/>
       <c r="AG60" s="50"/>
-      <c r="AH60" s="50"/>
-      <c r="AI60" s="36"/>
+      <c r="AH60" s="322"/>
+      <c r="AI60" s="324"/>
       <c r="AJ60" s="36"/>
       <c r="AK60" s="23"/>
       <c r="AL60" s="23"/>
@@ -11477,24 +11477,24 @@
       <c r="N61" s="239"/>
       <c r="P61" s="218"/>
       <c r="Q61" s="241"/>
-      <c r="R61" s="382"/>
-      <c r="S61" s="386"/>
-      <c r="T61" s="386"/>
-      <c r="U61" s="382"/>
-      <c r="V61" s="382"/>
-      <c r="W61" s="382"/>
-      <c r="X61" s="382"/>
-      <c r="Y61" s="382"/>
-      <c r="Z61" s="382"/>
-      <c r="AA61" s="382"/>
-      <c r="AB61" s="388"/>
-      <c r="AC61" s="384"/>
+      <c r="R61" s="323"/>
+      <c r="S61" s="327"/>
+      <c r="T61" s="327"/>
+      <c r="U61" s="323"/>
+      <c r="V61" s="323"/>
+      <c r="W61" s="323"/>
+      <c r="X61" s="323"/>
+      <c r="Y61" s="323"/>
+      <c r="Z61" s="323"/>
+      <c r="AA61" s="323"/>
+      <c r="AB61" s="329"/>
+      <c r="AC61" s="325"/>
       <c r="AD61" s="23"/>
       <c r="AE61" s="36"/>
       <c r="AF61" s="36"/>
       <c r="AG61" s="50"/>
-      <c r="AH61" s="50"/>
-      <c r="AI61" s="36"/>
+      <c r="AH61" s="322"/>
+      <c r="AI61" s="324"/>
       <c r="AJ61" s="36"/>
       <c r="AK61" s="23"/>
       <c r="AL61" s="23"/>
@@ -11516,24 +11516,24 @@
       <c r="N62" s="239"/>
       <c r="P62" s="218"/>
       <c r="Q62" s="241"/>
-      <c r="R62" s="382"/>
-      <c r="S62" s="386"/>
-      <c r="T62" s="386"/>
-      <c r="U62" s="382"/>
-      <c r="V62" s="382"/>
-      <c r="W62" s="382"/>
-      <c r="X62" s="382"/>
-      <c r="Y62" s="382"/>
-      <c r="Z62" s="382"/>
-      <c r="AA62" s="382"/>
-      <c r="AB62" s="388"/>
-      <c r="AC62" s="384"/>
+      <c r="R62" s="323"/>
+      <c r="S62" s="327"/>
+      <c r="T62" s="327"/>
+      <c r="U62" s="323"/>
+      <c r="V62" s="323"/>
+      <c r="W62" s="323"/>
+      <c r="X62" s="323"/>
+      <c r="Y62" s="323"/>
+      <c r="Z62" s="323"/>
+      <c r="AA62" s="323"/>
+      <c r="AB62" s="329"/>
+      <c r="AC62" s="325"/>
       <c r="AD62" s="23"/>
       <c r="AE62" s="36"/>
       <c r="AF62" s="36"/>
       <c r="AG62" s="50"/>
-      <c r="AH62" s="50"/>
-      <c r="AI62" s="36"/>
+      <c r="AH62" s="323"/>
+      <c r="AI62" s="328"/>
       <c r="AJ62" s="36"/>
       <c r="AK62" s="23"/>
       <c r="AL62" s="23"/>
@@ -11555,24 +11555,24 @@
       <c r="N63" s="239"/>
       <c r="P63" s="218"/>
       <c r="Q63" s="241"/>
-      <c r="R63" s="382"/>
-      <c r="S63" s="386"/>
-      <c r="T63" s="386"/>
-      <c r="U63" s="382"/>
-      <c r="V63" s="382"/>
-      <c r="W63" s="382"/>
-      <c r="X63" s="382"/>
-      <c r="Y63" s="382"/>
-      <c r="Z63" s="382"/>
-      <c r="AA63" s="382"/>
-      <c r="AB63" s="388"/>
-      <c r="AC63" s="384"/>
+      <c r="R63" s="323"/>
+      <c r="S63" s="327"/>
+      <c r="T63" s="327"/>
+      <c r="U63" s="323"/>
+      <c r="V63" s="323"/>
+      <c r="W63" s="323"/>
+      <c r="X63" s="323"/>
+      <c r="Y63" s="323"/>
+      <c r="Z63" s="323"/>
+      <c r="AA63" s="323"/>
+      <c r="AB63" s="329"/>
+      <c r="AC63" s="325"/>
       <c r="AD63" s="23"/>
       <c r="AE63" s="36"/>
       <c r="AF63" s="36"/>
       <c r="AG63" s="50"/>
-      <c r="AH63" s="50"/>
-      <c r="AI63" s="36"/>
+      <c r="AH63" s="323"/>
+      <c r="AI63" s="328"/>
       <c r="AJ63" s="36"/>
       <c r="AK63" s="23"/>
       <c r="AL63" s="23"/>
@@ -11594,24 +11594,24 @@
       <c r="N64" s="239"/>
       <c r="P64" s="218"/>
       <c r="Q64" s="82"/>
-      <c r="R64" s="382"/>
-      <c r="S64" s="389"/>
-      <c r="T64" s="389"/>
-      <c r="U64" s="382"/>
-      <c r="V64" s="382"/>
-      <c r="W64" s="382"/>
-      <c r="X64" s="382"/>
-      <c r="Y64" s="382"/>
-      <c r="Z64" s="382"/>
-      <c r="AA64" s="382"/>
-      <c r="AB64" s="388"/>
-      <c r="AC64" s="390"/>
+      <c r="R64" s="323"/>
+      <c r="S64" s="330"/>
+      <c r="T64" s="330"/>
+      <c r="U64" s="323"/>
+      <c r="V64" s="323"/>
+      <c r="W64" s="323"/>
+      <c r="X64" s="323"/>
+      <c r="Y64" s="323"/>
+      <c r="Z64" s="323"/>
+      <c r="AA64" s="323"/>
+      <c r="AB64" s="329"/>
+      <c r="AC64" s="331"/>
       <c r="AD64" s="23"/>
       <c r="AE64" s="36"/>
       <c r="AF64" s="36"/>
       <c r="AG64" s="50"/>
-      <c r="AH64" s="50"/>
-      <c r="AI64" s="36"/>
+      <c r="AH64" s="323"/>
+      <c r="AI64" s="328"/>
       <c r="AJ64" s="36"/>
       <c r="AK64" s="23"/>
       <c r="AL64" s="23"/>
@@ -11633,23 +11633,23 @@
       <c r="N65" s="239"/>
       <c r="P65" s="218"/>
       <c r="Q65" s="82"/>
-      <c r="R65" s="382"/>
-      <c r="S65" s="389"/>
-      <c r="T65" s="389"/>
-      <c r="U65" s="382"/>
-      <c r="V65" s="382"/>
-      <c r="W65" s="382"/>
-      <c r="X65" s="382"/>
-      <c r="Y65" s="382"/>
-      <c r="Z65" s="382"/>
-      <c r="AA65" s="382"/>
-      <c r="AB65" s="388"/>
-      <c r="AC65" s="390"/>
+      <c r="R65" s="323"/>
+      <c r="S65" s="330"/>
+      <c r="T65" s="330"/>
+      <c r="U65" s="323"/>
+      <c r="V65" s="323"/>
+      <c r="W65" s="323"/>
+      <c r="X65" s="323"/>
+      <c r="Y65" s="323"/>
+      <c r="Z65" s="323"/>
+      <c r="AA65" s="323"/>
+      <c r="AB65" s="329"/>
+      <c r="AC65" s="331"/>
       <c r="AE65" s="36"/>
       <c r="AF65" s="36"/>
       <c r="AG65" s="50"/>
-      <c r="AH65" s="50"/>
-      <c r="AI65" s="36"/>
+      <c r="AH65" s="322"/>
+      <c r="AI65" s="324"/>
       <c r="AJ65" s="36"/>
     </row>
     <row r="66" spans="2:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -11666,23 +11666,23 @@
       <c r="N66" s="239"/>
       <c r="P66" s="218"/>
       <c r="Q66" s="82"/>
-      <c r="R66" s="382"/>
-      <c r="S66" s="389"/>
-      <c r="T66" s="389"/>
-      <c r="U66" s="382"/>
-      <c r="V66" s="382"/>
-      <c r="W66" s="382"/>
-      <c r="X66" s="382"/>
-      <c r="Y66" s="382"/>
-      <c r="Z66" s="382"/>
-      <c r="AA66" s="382"/>
-      <c r="AB66" s="388"/>
-      <c r="AC66" s="390"/>
+      <c r="R66" s="323"/>
+      <c r="S66" s="330"/>
+      <c r="T66" s="330"/>
+      <c r="U66" s="323"/>
+      <c r="V66" s="323"/>
+      <c r="W66" s="323"/>
+      <c r="X66" s="323"/>
+      <c r="Y66" s="323"/>
+      <c r="Z66" s="323"/>
+      <c r="AA66" s="323"/>
+      <c r="AB66" s="329"/>
+      <c r="AC66" s="331"/>
       <c r="AE66" s="36"/>
       <c r="AF66" s="36"/>
       <c r="AG66" s="50"/>
-      <c r="AH66" s="50"/>
-      <c r="AI66" s="36"/>
+      <c r="AH66" s="322"/>
+      <c r="AI66" s="324"/>
       <c r="AJ66" s="36"/>
     </row>
     <row r="67" spans="2:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -11699,23 +11699,23 @@
       <c r="N67" s="239"/>
       <c r="P67" s="218"/>
       <c r="Q67" s="82"/>
-      <c r="R67" s="382"/>
-      <c r="S67" s="389"/>
-      <c r="T67" s="389"/>
-      <c r="U67" s="382"/>
-      <c r="V67" s="382"/>
-      <c r="W67" s="382"/>
-      <c r="X67" s="382"/>
-      <c r="Y67" s="382"/>
-      <c r="Z67" s="382"/>
-      <c r="AA67" s="382"/>
-      <c r="AB67" s="388"/>
-      <c r="AC67" s="390"/>
+      <c r="R67" s="323"/>
+      <c r="S67" s="330"/>
+      <c r="T67" s="330"/>
+      <c r="U67" s="323"/>
+      <c r="V67" s="323"/>
+      <c r="W67" s="323"/>
+      <c r="X67" s="323"/>
+      <c r="Y67" s="323"/>
+      <c r="Z67" s="323"/>
+      <c r="AA67" s="323"/>
+      <c r="AB67" s="329"/>
+      <c r="AC67" s="331"/>
       <c r="AE67" s="36"/>
       <c r="AF67" s="36"/>
       <c r="AG67" s="50"/>
-      <c r="AH67" s="50"/>
-      <c r="AI67" s="36"/>
+      <c r="AH67" s="323"/>
+      <c r="AI67" s="328"/>
       <c r="AJ67" s="36"/>
     </row>
     <row r="68" spans="2:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -11732,23 +11732,23 @@
       <c r="N68" s="239"/>
       <c r="P68" s="218"/>
       <c r="Q68" s="82"/>
-      <c r="R68" s="382"/>
-      <c r="S68" s="389"/>
-      <c r="T68" s="389"/>
-      <c r="U68" s="382"/>
-      <c r="V68" s="382"/>
-      <c r="W68" s="382"/>
-      <c r="X68" s="382"/>
-      <c r="Y68" s="382"/>
-      <c r="Z68" s="382"/>
-      <c r="AA68" s="382"/>
-      <c r="AB68" s="388"/>
-      <c r="AC68" s="390"/>
+      <c r="R68" s="323"/>
+      <c r="S68" s="330"/>
+      <c r="T68" s="330"/>
+      <c r="U68" s="323"/>
+      <c r="V68" s="323"/>
+      <c r="W68" s="323"/>
+      <c r="X68" s="323"/>
+      <c r="Y68" s="323"/>
+      <c r="Z68" s="323"/>
+      <c r="AA68" s="323"/>
+      <c r="AB68" s="329"/>
+      <c r="AC68" s="331"/>
       <c r="AE68" s="36"/>
       <c r="AF68" s="36"/>
       <c r="AG68" s="50"/>
-      <c r="AH68" s="50"/>
-      <c r="AI68" s="36"/>
+      <c r="AH68" s="323"/>
+      <c r="AI68" s="328"/>
       <c r="AJ68" s="36"/>
     </row>
     <row r="69" spans="2:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -11765,23 +11765,23 @@
       <c r="N69" s="239"/>
       <c r="P69" s="218"/>
       <c r="Q69" s="82"/>
-      <c r="R69" s="382"/>
-      <c r="S69" s="389"/>
-      <c r="T69" s="389"/>
-      <c r="U69" s="382"/>
-      <c r="V69" s="382"/>
-      <c r="W69" s="382"/>
-      <c r="X69" s="382"/>
-      <c r="Y69" s="382"/>
-      <c r="Z69" s="382"/>
-      <c r="AA69" s="382"/>
-      <c r="AB69" s="388"/>
-      <c r="AC69" s="390"/>
+      <c r="R69" s="323"/>
+      <c r="S69" s="330"/>
+      <c r="T69" s="330"/>
+      <c r="U69" s="323"/>
+      <c r="V69" s="323"/>
+      <c r="W69" s="323"/>
+      <c r="X69" s="323"/>
+      <c r="Y69" s="323"/>
+      <c r="Z69" s="323"/>
+      <c r="AA69" s="323"/>
+      <c r="AB69" s="329"/>
+      <c r="AC69" s="331"/>
       <c r="AE69" s="36"/>
       <c r="AF69" s="36"/>
       <c r="AG69" s="50"/>
-      <c r="AH69" s="50"/>
-      <c r="AI69" s="36"/>
+      <c r="AH69" s="323"/>
+      <c r="AI69" s="328"/>
       <c r="AJ69" s="36"/>
     </row>
     <row r="70" spans="2:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -11798,23 +11798,23 @@
       <c r="N70" s="239"/>
       <c r="P70" s="218"/>
       <c r="Q70" s="82"/>
-      <c r="R70" s="382"/>
-      <c r="S70" s="389"/>
-      <c r="T70" s="389"/>
-      <c r="U70" s="382"/>
-      <c r="V70" s="382"/>
-      <c r="W70" s="382"/>
-      <c r="X70" s="382"/>
-      <c r="Y70" s="382"/>
-      <c r="Z70" s="382"/>
-      <c r="AA70" s="382"/>
-      <c r="AB70" s="388"/>
-      <c r="AC70" s="390"/>
+      <c r="R70" s="323"/>
+      <c r="S70" s="330"/>
+      <c r="T70" s="330"/>
+      <c r="U70" s="323"/>
+      <c r="V70" s="323"/>
+      <c r="W70" s="323"/>
+      <c r="X70" s="323"/>
+      <c r="Y70" s="323"/>
+      <c r="Z70" s="323"/>
+      <c r="AA70" s="323"/>
+      <c r="AB70" s="329"/>
+      <c r="AC70" s="331"/>
       <c r="AE70" s="36"/>
       <c r="AF70" s="36"/>
       <c r="AG70" s="50"/>
-      <c r="AH70" s="50"/>
-      <c r="AI70" s="36"/>
+      <c r="AH70" s="323"/>
+      <c r="AI70" s="328"/>
       <c r="AJ70" s="36"/>
     </row>
     <row r="71" spans="2:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -11831,23 +11831,23 @@
       <c r="N71" s="239"/>
       <c r="P71" s="218"/>
       <c r="Q71" s="82"/>
-      <c r="R71" s="382"/>
-      <c r="S71" s="389"/>
-      <c r="T71" s="389"/>
-      <c r="U71" s="382"/>
-      <c r="V71" s="382"/>
-      <c r="W71" s="382"/>
-      <c r="X71" s="382"/>
-      <c r="Y71" s="382"/>
-      <c r="Z71" s="382"/>
-      <c r="AA71" s="382"/>
-      <c r="AB71" s="388"/>
-      <c r="AC71" s="390"/>
+      <c r="R71" s="323"/>
+      <c r="S71" s="330"/>
+      <c r="T71" s="330"/>
+      <c r="U71" s="323"/>
+      <c r="V71" s="323"/>
+      <c r="W71" s="323"/>
+      <c r="X71" s="323"/>
+      <c r="Y71" s="323"/>
+      <c r="Z71" s="323"/>
+      <c r="AA71" s="323"/>
+      <c r="AB71" s="329"/>
+      <c r="AC71" s="331"/>
       <c r="AE71" s="36"/>
       <c r="AF71" s="36"/>
       <c r="AG71" s="50"/>
-      <c r="AH71" s="50"/>
-      <c r="AI71" s="36"/>
+      <c r="AH71" s="323"/>
+      <c r="AI71" s="328"/>
       <c r="AJ71" s="36"/>
     </row>
     <row r="72" spans="2:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -11864,23 +11864,23 @@
       <c r="N72" s="239"/>
       <c r="P72" s="218"/>
       <c r="Q72" s="82"/>
-      <c r="R72" s="382"/>
-      <c r="S72" s="389"/>
-      <c r="T72" s="389"/>
-      <c r="U72" s="382"/>
-      <c r="V72" s="382"/>
-      <c r="W72" s="382"/>
-      <c r="X72" s="382"/>
-      <c r="Y72" s="382"/>
-      <c r="Z72" s="382"/>
-      <c r="AA72" s="382"/>
-      <c r="AB72" s="388"/>
-      <c r="AC72" s="390"/>
+      <c r="R72" s="323"/>
+      <c r="S72" s="330"/>
+      <c r="T72" s="330"/>
+      <c r="U72" s="323"/>
+      <c r="V72" s="323"/>
+      <c r="W72" s="323"/>
+      <c r="X72" s="323"/>
+      <c r="Y72" s="323"/>
+      <c r="Z72" s="323"/>
+      <c r="AA72" s="323"/>
+      <c r="AB72" s="329"/>
+      <c r="AC72" s="331"/>
       <c r="AE72" s="36"/>
       <c r="AF72" s="36"/>
       <c r="AG72" s="50"/>
-      <c r="AH72" s="50"/>
-      <c r="AI72" s="36"/>
+      <c r="AH72" s="322"/>
+      <c r="AI72" s="324"/>
       <c r="AJ72" s="36"/>
     </row>
     <row r="73" spans="2:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -11897,23 +11897,23 @@
       <c r="N73" s="239"/>
       <c r="P73" s="218"/>
       <c r="Q73" s="82"/>
-      <c r="R73" s="382"/>
-      <c r="S73" s="389"/>
-      <c r="T73" s="389"/>
-      <c r="U73" s="382"/>
-      <c r="V73" s="382"/>
-      <c r="W73" s="382"/>
-      <c r="X73" s="382"/>
-      <c r="Y73" s="382"/>
-      <c r="Z73" s="382"/>
-      <c r="AA73" s="382"/>
-      <c r="AB73" s="388"/>
-      <c r="AC73" s="390"/>
+      <c r="R73" s="323"/>
+      <c r="S73" s="330"/>
+      <c r="T73" s="330"/>
+      <c r="U73" s="323"/>
+      <c r="V73" s="323"/>
+      <c r="W73" s="323"/>
+      <c r="X73" s="323"/>
+      <c r="Y73" s="323"/>
+      <c r="Z73" s="323"/>
+      <c r="AA73" s="323"/>
+      <c r="AB73" s="329"/>
+      <c r="AC73" s="331"/>
       <c r="AE73" s="36"/>
       <c r="AF73" s="36"/>
       <c r="AG73" s="50"/>
-      <c r="AH73" s="50"/>
-      <c r="AI73" s="36"/>
+      <c r="AH73" s="322"/>
+      <c r="AI73" s="324"/>
       <c r="AJ73" s="36"/>
     </row>
     <row r="74" spans="2:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -11932,23 +11932,23 @@
       <c r="N74" s="50"/>
       <c r="P74" s="218"/>
       <c r="Q74" s="82"/>
-      <c r="R74" s="382"/>
-      <c r="S74" s="389"/>
-      <c r="T74" s="389"/>
-      <c r="U74" s="382"/>
-      <c r="V74" s="382"/>
-      <c r="W74" s="382"/>
-      <c r="X74" s="382"/>
-      <c r="Y74" s="382"/>
-      <c r="Z74" s="382"/>
-      <c r="AA74" s="382"/>
-      <c r="AB74" s="388"/>
-      <c r="AC74" s="390"/>
+      <c r="R74" s="323"/>
+      <c r="S74" s="330"/>
+      <c r="T74" s="330"/>
+      <c r="U74" s="323"/>
+      <c r="V74" s="323"/>
+      <c r="W74" s="323"/>
+      <c r="X74" s="323"/>
+      <c r="Y74" s="323"/>
+      <c r="Z74" s="323"/>
+      <c r="AA74" s="323"/>
+      <c r="AB74" s="329"/>
+      <c r="AC74" s="331"/>
       <c r="AE74" s="36"/>
       <c r="AF74" s="36"/>
       <c r="AG74" s="50"/>
-      <c r="AH74" s="50"/>
-      <c r="AI74" s="36"/>
+      <c r="AH74" s="322"/>
+      <c r="AI74" s="324"/>
       <c r="AJ74" s="36"/>
     </row>
     <row r="75" spans="2:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -11968,23 +11968,23 @@
       <c r="O75" s="23"/>
       <c r="P75" s="218"/>
       <c r="Q75" s="82"/>
-      <c r="R75" s="382"/>
-      <c r="S75" s="389"/>
-      <c r="T75" s="382"/>
-      <c r="U75" s="382"/>
-      <c r="V75" s="382"/>
-      <c r="W75" s="382"/>
-      <c r="X75" s="382"/>
-      <c r="Y75" s="382"/>
-      <c r="Z75" s="382"/>
-      <c r="AA75" s="382"/>
-      <c r="AB75" s="388"/>
-      <c r="AC75" s="390"/>
+      <c r="R75" s="323"/>
+      <c r="S75" s="330"/>
+      <c r="T75" s="323"/>
+      <c r="U75" s="323"/>
+      <c r="V75" s="323"/>
+      <c r="W75" s="323"/>
+      <c r="X75" s="323"/>
+      <c r="Y75" s="323"/>
+      <c r="Z75" s="323"/>
+      <c r="AA75" s="323"/>
+      <c r="AB75" s="329"/>
+      <c r="AC75" s="331"/>
       <c r="AE75" s="36"/>
       <c r="AF75" s="36"/>
       <c r="AG75" s="50"/>
-      <c r="AH75" s="50"/>
-      <c r="AI75" s="36"/>
+      <c r="AH75" s="322"/>
+      <c r="AI75" s="324"/>
       <c r="AJ75" s="36"/>
     </row>
     <row r="76" spans="2:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -12004,23 +12004,23 @@
       <c r="O76" s="23"/>
       <c r="P76" s="218"/>
       <c r="Q76" s="82"/>
-      <c r="R76" s="382"/>
-      <c r="S76" s="389"/>
-      <c r="T76" s="382"/>
-      <c r="U76" s="382"/>
-      <c r="V76" s="382"/>
-      <c r="W76" s="382"/>
-      <c r="X76" s="382"/>
-      <c r="Y76" s="382"/>
-      <c r="Z76" s="382"/>
-      <c r="AA76" s="382"/>
-      <c r="AB76" s="388"/>
-      <c r="AC76" s="390"/>
+      <c r="R76" s="323"/>
+      <c r="S76" s="330"/>
+      <c r="T76" s="323"/>
+      <c r="U76" s="323"/>
+      <c r="V76" s="323"/>
+      <c r="W76" s="323"/>
+      <c r="X76" s="323"/>
+      <c r="Y76" s="323"/>
+      <c r="Z76" s="323"/>
+      <c r="AA76" s="323"/>
+      <c r="AB76" s="329"/>
+      <c r="AC76" s="331"/>
       <c r="AE76" s="36"/>
       <c r="AF76" s="36"/>
       <c r="AG76" s="50"/>
-      <c r="AH76" s="50"/>
-      <c r="AI76" s="36"/>
+      <c r="AH76" s="322"/>
+      <c r="AI76" s="324"/>
       <c r="AJ76" s="36"/>
     </row>
     <row r="77" spans="2:36" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
@@ -12040,23 +12040,23 @@
       <c r="O77" s="23"/>
       <c r="P77" s="218"/>
       <c r="Q77" s="82"/>
-      <c r="R77" s="382"/>
-      <c r="S77" s="389"/>
-      <c r="T77" s="382"/>
-      <c r="U77" s="382"/>
-      <c r="V77" s="382"/>
-      <c r="W77" s="382"/>
-      <c r="X77" s="382"/>
-      <c r="Y77" s="382"/>
-      <c r="Z77" s="382"/>
-      <c r="AA77" s="382"/>
-      <c r="AB77" s="388"/>
-      <c r="AC77" s="390"/>
+      <c r="R77" s="323"/>
+      <c r="S77" s="330"/>
+      <c r="T77" s="323"/>
+      <c r="U77" s="323"/>
+      <c r="V77" s="323"/>
+      <c r="W77" s="323"/>
+      <c r="X77" s="323"/>
+      <c r="Y77" s="323"/>
+      <c r="Z77" s="323"/>
+      <c r="AA77" s="323"/>
+      <c r="AB77" s="329"/>
+      <c r="AC77" s="331"/>
       <c r="AE77" s="36"/>
       <c r="AF77" s="36"/>
       <c r="AG77" s="50"/>
-      <c r="AH77" s="50"/>
-      <c r="AI77" s="36"/>
+      <c r="AH77" s="323"/>
+      <c r="AI77" s="328"/>
       <c r="AJ77" s="36"/>
     </row>
     <row r="78" spans="2:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12076,23 +12076,23 @@
       <c r="O78" s="46"/>
       <c r="P78" s="229"/>
       <c r="Q78" s="244"/>
-      <c r="R78" s="381"/>
-      <c r="S78" s="389"/>
-      <c r="T78" s="381"/>
-      <c r="U78" s="381"/>
-      <c r="V78" s="381"/>
-      <c r="W78" s="381"/>
-      <c r="X78" s="381"/>
-      <c r="Y78" s="381"/>
-      <c r="Z78" s="381"/>
-      <c r="AA78" s="382"/>
-      <c r="AB78" s="388"/>
-      <c r="AC78" s="390"/>
+      <c r="R78" s="322"/>
+      <c r="S78" s="330"/>
+      <c r="T78" s="322"/>
+      <c r="U78" s="322"/>
+      <c r="V78" s="322"/>
+      <c r="W78" s="322"/>
+      <c r="X78" s="322"/>
+      <c r="Y78" s="322"/>
+      <c r="Z78" s="322"/>
+      <c r="AA78" s="323"/>
+      <c r="AB78" s="329"/>
+      <c r="AC78" s="331"/>
       <c r="AE78" s="36"/>
       <c r="AF78" s="36"/>
       <c r="AG78" s="50"/>
-      <c r="AH78" s="50"/>
-      <c r="AI78" s="36"/>
+      <c r="AH78" s="323"/>
+      <c r="AI78" s="328"/>
       <c r="AJ78" s="36"/>
     </row>
     <row r="79" spans="2:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12112,23 +12112,23 @@
       <c r="O79" s="46"/>
       <c r="P79" s="229"/>
       <c r="Q79" s="244"/>
-      <c r="R79" s="381"/>
-      <c r="S79" s="389"/>
-      <c r="T79" s="381"/>
-      <c r="U79" s="381"/>
-      <c r="V79" s="381"/>
-      <c r="W79" s="381"/>
-      <c r="X79" s="381"/>
-      <c r="Y79" s="381"/>
-      <c r="Z79" s="381"/>
-      <c r="AA79" s="382"/>
-      <c r="AB79" s="388"/>
-      <c r="AC79" s="390"/>
+      <c r="R79" s="322"/>
+      <c r="S79" s="330"/>
+      <c r="T79" s="322"/>
+      <c r="U79" s="322"/>
+      <c r="V79" s="322"/>
+      <c r="W79" s="322"/>
+      <c r="X79" s="322"/>
+      <c r="Y79" s="322"/>
+      <c r="Z79" s="322"/>
+      <c r="AA79" s="323"/>
+      <c r="AB79" s="329"/>
+      <c r="AC79" s="331"/>
       <c r="AE79" s="36"/>
       <c r="AF79" s="36"/>
       <c r="AG79" s="50"/>
-      <c r="AH79" s="50"/>
-      <c r="AI79" s="36"/>
+      <c r="AH79" s="323"/>
+      <c r="AI79" s="328"/>
       <c r="AJ79" s="36"/>
     </row>
     <row r="80" spans="2:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -12148,23 +12148,23 @@
       <c r="O80" s="53"/>
       <c r="P80" s="233"/>
       <c r="Q80" s="244"/>
-      <c r="R80" s="381"/>
-      <c r="S80" s="381"/>
-      <c r="T80" s="381"/>
-      <c r="U80" s="381"/>
-      <c r="V80" s="381"/>
-      <c r="W80" s="381"/>
-      <c r="X80" s="381"/>
-      <c r="Y80" s="381"/>
-      <c r="Z80" s="381"/>
-      <c r="AA80" s="382"/>
-      <c r="AB80" s="388"/>
-      <c r="AC80" s="390"/>
+      <c r="R80" s="322"/>
+      <c r="S80" s="322"/>
+      <c r="T80" s="322"/>
+      <c r="U80" s="322"/>
+      <c r="V80" s="322"/>
+      <c r="W80" s="322"/>
+      <c r="X80" s="322"/>
+      <c r="Y80" s="322"/>
+      <c r="Z80" s="322"/>
+      <c r="AA80" s="323"/>
+      <c r="AB80" s="329"/>
+      <c r="AC80" s="331"/>
       <c r="AE80" s="36"/>
       <c r="AF80" s="36"/>
       <c r="AG80" s="50"/>
-      <c r="AH80" s="50"/>
-      <c r="AI80" s="36"/>
+      <c r="AH80" s="322"/>
+      <c r="AI80" s="324"/>
       <c r="AJ80" s="36"/>
     </row>
     <row r="81" spans="2:36" ht="42.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12184,23 +12184,23 @@
       <c r="O81" s="215"/>
       <c r="P81" s="234"/>
       <c r="Q81" s="245"/>
-      <c r="R81" s="377"/>
-      <c r="S81" s="377"/>
-      <c r="T81" s="378"/>
-      <c r="U81" s="378"/>
-      <c r="V81" s="378"/>
-      <c r="W81" s="378"/>
-      <c r="X81" s="378"/>
-      <c r="Y81" s="378"/>
-      <c r="Z81" s="377"/>
-      <c r="AA81" s="382"/>
-      <c r="AB81" s="382"/>
-      <c r="AC81" s="390"/>
+      <c r="R81" s="318"/>
+      <c r="S81" s="318"/>
+      <c r="T81" s="319"/>
+      <c r="U81" s="319"/>
+      <c r="V81" s="319"/>
+      <c r="W81" s="319"/>
+      <c r="X81" s="319"/>
+      <c r="Y81" s="319"/>
+      <c r="Z81" s="318"/>
+      <c r="AA81" s="323"/>
+      <c r="AB81" s="323"/>
+      <c r="AC81" s="331"/>
       <c r="AE81" s="36"/>
       <c r="AF81" s="36"/>
       <c r="AG81" s="50"/>
-      <c r="AH81" s="50"/>
-      <c r="AI81" s="36"/>
+      <c r="AH81" s="322"/>
+      <c r="AI81" s="324"/>
       <c r="AJ81" s="36"/>
     </row>
     <row r="82" spans="2:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12220,23 +12220,23 @@
       <c r="O82" s="53"/>
       <c r="P82" s="236"/>
       <c r="Q82" s="244"/>
-      <c r="R82" s="381"/>
-      <c r="S82" s="381"/>
-      <c r="T82" s="381"/>
-      <c r="U82" s="381"/>
-      <c r="V82" s="381"/>
-      <c r="W82" s="381"/>
-      <c r="X82" s="391"/>
-      <c r="Y82" s="381"/>
-      <c r="Z82" s="392"/>
-      <c r="AA82" s="382"/>
-      <c r="AB82" s="382"/>
-      <c r="AC82" s="390"/>
+      <c r="R82" s="322"/>
+      <c r="S82" s="322"/>
+      <c r="T82" s="322"/>
+      <c r="U82" s="322"/>
+      <c r="V82" s="322"/>
+      <c r="W82" s="322"/>
+      <c r="X82" s="332"/>
+      <c r="Y82" s="322"/>
+      <c r="Z82" s="333"/>
+      <c r="AA82" s="323"/>
+      <c r="AB82" s="323"/>
+      <c r="AC82" s="331"/>
       <c r="AE82" s="36"/>
       <c r="AF82" s="36"/>
       <c r="AG82" s="50"/>
-      <c r="AH82" s="50"/>
-      <c r="AI82" s="36"/>
+      <c r="AH82" s="323"/>
+      <c r="AI82" s="328"/>
       <c r="AJ82" s="36"/>
     </row>
     <row r="83" spans="2:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12256,23 +12256,23 @@
       <c r="O83" s="53"/>
       <c r="P83" s="229"/>
       <c r="Q83" s="244"/>
-      <c r="R83" s="381"/>
-      <c r="S83" s="381"/>
-      <c r="T83" s="381"/>
-      <c r="U83" s="381"/>
-      <c r="V83" s="381"/>
-      <c r="W83" s="381"/>
-      <c r="X83" s="391"/>
-      <c r="Y83" s="381"/>
-      <c r="Z83" s="392"/>
-      <c r="AA83" s="382"/>
-      <c r="AB83" s="382"/>
-      <c r="AC83" s="390"/>
+      <c r="R83" s="322"/>
+      <c r="S83" s="322"/>
+      <c r="T83" s="322"/>
+      <c r="U83" s="322"/>
+      <c r="V83" s="322"/>
+      <c r="W83" s="322"/>
+      <c r="X83" s="332"/>
+      <c r="Y83" s="322"/>
+      <c r="Z83" s="333"/>
+      <c r="AA83" s="323"/>
+      <c r="AB83" s="323"/>
+      <c r="AC83" s="331"/>
       <c r="AE83" s="36"/>
       <c r="AF83" s="36"/>
       <c r="AG83" s="50"/>
-      <c r="AH83" s="50"/>
-      <c r="AI83" s="36"/>
+      <c r="AH83" s="323"/>
+      <c r="AI83" s="328"/>
       <c r="AJ83" s="36"/>
     </row>
     <row r="84" spans="2:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12292,23 +12292,23 @@
       <c r="O84" s="53"/>
       <c r="P84" s="229"/>
       <c r="Q84" s="244"/>
-      <c r="R84" s="381"/>
-      <c r="S84" s="381"/>
-      <c r="T84" s="381"/>
-      <c r="U84" s="381"/>
-      <c r="V84" s="381"/>
-      <c r="W84" s="381"/>
-      <c r="X84" s="391"/>
-      <c r="Y84" s="381"/>
-      <c r="Z84" s="392"/>
-      <c r="AA84" s="382"/>
-      <c r="AB84" s="382"/>
-      <c r="AC84" s="390"/>
+      <c r="R84" s="322"/>
+      <c r="S84" s="322"/>
+      <c r="T84" s="322"/>
+      <c r="U84" s="322"/>
+      <c r="V84" s="322"/>
+      <c r="W84" s="322"/>
+      <c r="X84" s="332"/>
+      <c r="Y84" s="322"/>
+      <c r="Z84" s="333"/>
+      <c r="AA84" s="323"/>
+      <c r="AB84" s="323"/>
+      <c r="AC84" s="331"/>
       <c r="AE84" s="36"/>
       <c r="AF84" s="36"/>
       <c r="AG84" s="50"/>
-      <c r="AH84" s="50"/>
-      <c r="AI84" s="36"/>
+      <c r="AH84" s="323"/>
+      <c r="AI84" s="328"/>
       <c r="AJ84" s="36"/>
     </row>
     <row r="85" spans="2:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12328,23 +12328,23 @@
       <c r="O85" s="53"/>
       <c r="P85" s="229"/>
       <c r="Q85" s="244"/>
-      <c r="R85" s="381"/>
-      <c r="S85" s="381"/>
-      <c r="T85" s="381"/>
-      <c r="U85" s="381"/>
-      <c r="V85" s="381"/>
-      <c r="W85" s="381"/>
-      <c r="X85" s="391"/>
-      <c r="Y85" s="381"/>
-      <c r="Z85" s="392"/>
-      <c r="AA85" s="382"/>
-      <c r="AB85" s="382"/>
-      <c r="AC85" s="390"/>
+      <c r="R85" s="322"/>
+      <c r="S85" s="322"/>
+      <c r="T85" s="322"/>
+      <c r="U85" s="322"/>
+      <c r="V85" s="322"/>
+      <c r="W85" s="322"/>
+      <c r="X85" s="332"/>
+      <c r="Y85" s="322"/>
+      <c r="Z85" s="333"/>
+      <c r="AA85" s="323"/>
+      <c r="AB85" s="323"/>
+      <c r="AC85" s="331"/>
       <c r="AE85" s="36"/>
       <c r="AF85" s="36"/>
       <c r="AG85" s="50"/>
-      <c r="AH85" s="50"/>
-      <c r="AI85" s="36"/>
+      <c r="AH85" s="323"/>
+      <c r="AI85" s="328"/>
       <c r="AJ85" s="36"/>
     </row>
     <row r="86" spans="2:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -12364,23 +12364,23 @@
       <c r="O86" s="53"/>
       <c r="P86" s="229"/>
       <c r="Q86" s="244"/>
-      <c r="R86" s="381"/>
-      <c r="S86" s="381"/>
-      <c r="T86" s="381"/>
-      <c r="U86" s="381"/>
-      <c r="V86" s="381"/>
-      <c r="W86" s="381"/>
-      <c r="X86" s="391"/>
-      <c r="Y86" s="381"/>
-      <c r="Z86" s="392"/>
-      <c r="AA86" s="382"/>
-      <c r="AB86" s="382"/>
-      <c r="AC86" s="390"/>
+      <c r="R86" s="322"/>
+      <c r="S86" s="322"/>
+      <c r="T86" s="322"/>
+      <c r="U86" s="322"/>
+      <c r="V86" s="322"/>
+      <c r="W86" s="322"/>
+      <c r="X86" s="332"/>
+      <c r="Y86" s="322"/>
+      <c r="Z86" s="333"/>
+      <c r="AA86" s="323"/>
+      <c r="AB86" s="323"/>
+      <c r="AC86" s="331"/>
       <c r="AE86" s="36"/>
       <c r="AF86" s="36"/>
       <c r="AG86" s="50"/>
-      <c r="AH86" s="50"/>
-      <c r="AI86" s="36"/>
+      <c r="AH86" s="323"/>
+      <c r="AI86" s="328"/>
       <c r="AJ86" s="36"/>
     </row>
     <row r="87" spans="2:36" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -12400,18 +12400,18 @@
       <c r="O87" s="53"/>
       <c r="P87" s="229"/>
       <c r="Q87" s="244"/>
-      <c r="R87" s="381"/>
-      <c r="S87" s="381"/>
-      <c r="T87" s="381"/>
-      <c r="U87" s="381"/>
-      <c r="V87" s="381"/>
-      <c r="W87" s="381"/>
-      <c r="X87" s="391"/>
-      <c r="Y87" s="381"/>
-      <c r="Z87" s="378"/>
-      <c r="AA87" s="382"/>
-      <c r="AB87" s="382"/>
-      <c r="AC87" s="390"/>
+      <c r="R87" s="322"/>
+      <c r="S87" s="322"/>
+      <c r="T87" s="322"/>
+      <c r="U87" s="322"/>
+      <c r="V87" s="322"/>
+      <c r="W87" s="322"/>
+      <c r="X87" s="332"/>
+      <c r="Y87" s="322"/>
+      <c r="Z87" s="319"/>
+      <c r="AA87" s="323"/>
+      <c r="AB87" s="323"/>
+      <c r="AC87" s="331"/>
       <c r="AE87" s="36"/>
       <c r="AF87" s="36"/>
       <c r="AG87" s="50"/>
@@ -12436,18 +12436,18 @@
       <c r="O88" s="53"/>
       <c r="P88" s="229"/>
       <c r="Q88" s="244"/>
-      <c r="R88" s="381"/>
-      <c r="S88" s="381"/>
-      <c r="T88" s="381"/>
-      <c r="U88" s="381"/>
-      <c r="V88" s="381"/>
-      <c r="W88" s="381"/>
-      <c r="X88" s="391"/>
-      <c r="Y88" s="381"/>
-      <c r="Z88" s="378"/>
-      <c r="AA88" s="382"/>
-      <c r="AB88" s="382"/>
-      <c r="AC88" s="390"/>
+      <c r="R88" s="322"/>
+      <c r="S88" s="322"/>
+      <c r="T88" s="322"/>
+      <c r="U88" s="322"/>
+      <c r="V88" s="322"/>
+      <c r="W88" s="322"/>
+      <c r="X88" s="332"/>
+      <c r="Y88" s="322"/>
+      <c r="Z88" s="319"/>
+      <c r="AA88" s="323"/>
+      <c r="AB88" s="323"/>
+      <c r="AC88" s="331"/>
       <c r="AE88" s="36"/>
       <c r="AF88" s="36"/>
       <c r="AG88" s="50"/>
@@ -12472,18 +12472,18 @@
       <c r="O89" s="53"/>
       <c r="P89" s="229"/>
       <c r="Q89" s="244"/>
-      <c r="R89" s="381"/>
-      <c r="S89" s="381"/>
-      <c r="T89" s="381"/>
-      <c r="U89" s="381"/>
-      <c r="V89" s="381"/>
-      <c r="W89" s="381"/>
-      <c r="X89" s="391"/>
-      <c r="Y89" s="381"/>
-      <c r="Z89" s="378"/>
-      <c r="AA89" s="382"/>
-      <c r="AB89" s="382"/>
-      <c r="AC89" s="390"/>
+      <c r="R89" s="322"/>
+      <c r="S89" s="322"/>
+      <c r="T89" s="322"/>
+      <c r="U89" s="322"/>
+      <c r="V89" s="322"/>
+      <c r="W89" s="322"/>
+      <c r="X89" s="332"/>
+      <c r="Y89" s="322"/>
+      <c r="Z89" s="319"/>
+      <c r="AA89" s="323"/>
+      <c r="AB89" s="323"/>
+      <c r="AC89" s="331"/>
       <c r="AE89" s="36"/>
       <c r="AF89" s="36"/>
       <c r="AG89" s="50"/>
@@ -12508,18 +12508,18 @@
       <c r="O90" s="46"/>
       <c r="P90" s="229"/>
       <c r="Q90" s="244"/>
-      <c r="R90" s="381"/>
-      <c r="S90" s="381"/>
-      <c r="T90" s="381"/>
-      <c r="U90" s="381"/>
-      <c r="V90" s="381"/>
-      <c r="W90" s="389"/>
-      <c r="X90" s="381"/>
-      <c r="Y90" s="381"/>
-      <c r="Z90" s="381"/>
-      <c r="AA90" s="382"/>
-      <c r="AB90" s="382"/>
-      <c r="AC90" s="390"/>
+      <c r="R90" s="322"/>
+      <c r="S90" s="322"/>
+      <c r="T90" s="322"/>
+      <c r="U90" s="322"/>
+      <c r="V90" s="322"/>
+      <c r="W90" s="330"/>
+      <c r="X90" s="322"/>
+      <c r="Y90" s="322"/>
+      <c r="Z90" s="322"/>
+      <c r="AA90" s="323"/>
+      <c r="AB90" s="323"/>
+      <c r="AC90" s="331"/>
       <c r="AE90" s="36"/>
       <c r="AF90" s="36"/>
       <c r="AG90" s="50"/>
@@ -12544,18 +12544,18 @@
       <c r="O91" s="46"/>
       <c r="P91" s="229"/>
       <c r="Q91" s="244"/>
-      <c r="R91" s="381"/>
-      <c r="S91" s="381"/>
-      <c r="T91" s="381"/>
-      <c r="U91" s="381"/>
-      <c r="V91" s="381"/>
-      <c r="W91" s="389"/>
-      <c r="X91" s="381"/>
-      <c r="Y91" s="381"/>
-      <c r="Z91" s="381"/>
-      <c r="AA91" s="382"/>
-      <c r="AB91" s="382"/>
-      <c r="AC91" s="390"/>
+      <c r="R91" s="322"/>
+      <c r="S91" s="322"/>
+      <c r="T91" s="322"/>
+      <c r="U91" s="322"/>
+      <c r="V91" s="322"/>
+      <c r="W91" s="330"/>
+      <c r="X91" s="322"/>
+      <c r="Y91" s="322"/>
+      <c r="Z91" s="322"/>
+      <c r="AA91" s="323"/>
+      <c r="AB91" s="323"/>
+      <c r="AC91" s="331"/>
       <c r="AE91" s="36"/>
       <c r="AF91" s="36"/>
       <c r="AG91" s="50"/>
@@ -12580,18 +12580,18 @@
       <c r="O92" s="53"/>
       <c r="P92" s="233"/>
       <c r="Q92" s="244"/>
-      <c r="R92" s="381"/>
-      <c r="S92" s="381"/>
-      <c r="T92" s="381"/>
-      <c r="U92" s="381"/>
-      <c r="V92" s="381"/>
-      <c r="W92" s="381"/>
-      <c r="X92" s="381"/>
-      <c r="Y92" s="381"/>
-      <c r="Z92" s="381"/>
-      <c r="AA92" s="382"/>
-      <c r="AB92" s="382"/>
-      <c r="AC92" s="390"/>
+      <c r="R92" s="322"/>
+      <c r="S92" s="322"/>
+      <c r="T92" s="322"/>
+      <c r="U92" s="322"/>
+      <c r="V92" s="322"/>
+      <c r="W92" s="322"/>
+      <c r="X92" s="322"/>
+      <c r="Y92" s="322"/>
+      <c r="Z92" s="322"/>
+      <c r="AA92" s="323"/>
+      <c r="AB92" s="323"/>
+      <c r="AC92" s="331"/>
       <c r="AE92" s="36"/>
       <c r="AF92" s="36"/>
       <c r="AG92" s="50"/>
@@ -12616,18 +12616,18 @@
       <c r="O93" s="215"/>
       <c r="P93" s="234"/>
       <c r="Q93" s="245"/>
-      <c r="R93" s="377"/>
-      <c r="S93" s="377"/>
-      <c r="T93" s="378"/>
-      <c r="U93" s="378"/>
-      <c r="V93" s="378"/>
-      <c r="W93" s="378"/>
-      <c r="X93" s="378"/>
-      <c r="Y93" s="378"/>
-      <c r="Z93" s="377"/>
-      <c r="AA93" s="382"/>
-      <c r="AB93" s="382"/>
-      <c r="AC93" s="390"/>
+      <c r="R93" s="318"/>
+      <c r="S93" s="318"/>
+      <c r="T93" s="319"/>
+      <c r="U93" s="319"/>
+      <c r="V93" s="319"/>
+      <c r="W93" s="319"/>
+      <c r="X93" s="319"/>
+      <c r="Y93" s="319"/>
+      <c r="Z93" s="318"/>
+      <c r="AA93" s="323"/>
+      <c r="AB93" s="323"/>
+      <c r="AC93" s="331"/>
       <c r="AE93" s="36"/>
       <c r="AF93" s="36"/>
       <c r="AG93" s="50"/>
@@ -12652,18 +12652,18 @@
       <c r="O94" s="53"/>
       <c r="P94" s="229"/>
       <c r="Q94" s="244"/>
-      <c r="R94" s="381"/>
-      <c r="S94" s="381"/>
-      <c r="T94" s="381"/>
-      <c r="U94" s="381"/>
-      <c r="V94" s="381"/>
-      <c r="W94" s="381"/>
-      <c r="X94" s="391"/>
-      <c r="Y94" s="381"/>
-      <c r="Z94" s="392"/>
-      <c r="AA94" s="382"/>
-      <c r="AB94" s="382"/>
-      <c r="AC94" s="390"/>
+      <c r="R94" s="322"/>
+      <c r="S94" s="322"/>
+      <c r="T94" s="322"/>
+      <c r="U94" s="322"/>
+      <c r="V94" s="322"/>
+      <c r="W94" s="322"/>
+      <c r="X94" s="332"/>
+      <c r="Y94" s="322"/>
+      <c r="Z94" s="333"/>
+      <c r="AA94" s="323"/>
+      <c r="AB94" s="323"/>
+      <c r="AC94" s="331"/>
       <c r="AE94" s="36"/>
       <c r="AF94" s="36"/>
       <c r="AG94" s="50"/>
@@ -12688,18 +12688,18 @@
       <c r="O95" s="53"/>
       <c r="P95" s="229"/>
       <c r="Q95" s="244"/>
-      <c r="R95" s="381"/>
-      <c r="S95" s="381"/>
-      <c r="T95" s="381"/>
-      <c r="U95" s="381"/>
-      <c r="V95" s="381"/>
-      <c r="W95" s="381"/>
-      <c r="X95" s="391"/>
-      <c r="Y95" s="381"/>
-      <c r="Z95" s="392"/>
-      <c r="AA95" s="382"/>
-      <c r="AB95" s="382"/>
-      <c r="AC95" s="390"/>
+      <c r="R95" s="322"/>
+      <c r="S95" s="322"/>
+      <c r="T95" s="322"/>
+      <c r="U95" s="322"/>
+      <c r="V95" s="322"/>
+      <c r="W95" s="322"/>
+      <c r="X95" s="332"/>
+      <c r="Y95" s="322"/>
+      <c r="Z95" s="333"/>
+      <c r="AA95" s="323"/>
+      <c r="AB95" s="323"/>
+      <c r="AC95" s="331"/>
       <c r="AE95" s="36"/>
       <c r="AF95" s="36"/>
       <c r="AG95" s="50"/>
@@ -12724,18 +12724,18 @@
       <c r="O96" s="53"/>
       <c r="P96" s="229"/>
       <c r="Q96" s="244"/>
-      <c r="R96" s="381"/>
-      <c r="S96" s="381"/>
-      <c r="T96" s="381"/>
-      <c r="U96" s="381"/>
-      <c r="V96" s="381"/>
-      <c r="W96" s="381"/>
-      <c r="X96" s="391"/>
-      <c r="Y96" s="381"/>
-      <c r="Z96" s="392"/>
-      <c r="AA96" s="382"/>
-      <c r="AB96" s="382"/>
-      <c r="AC96" s="390"/>
+      <c r="R96" s="322"/>
+      <c r="S96" s="322"/>
+      <c r="T96" s="322"/>
+      <c r="U96" s="322"/>
+      <c r="V96" s="322"/>
+      <c r="W96" s="322"/>
+      <c r="X96" s="332"/>
+      <c r="Y96" s="322"/>
+      <c r="Z96" s="333"/>
+      <c r="AA96" s="323"/>
+      <c r="AB96" s="323"/>
+      <c r="AC96" s="331"/>
       <c r="AE96" s="36"/>
       <c r="AF96" s="36"/>
       <c r="AG96" s="50"/>
@@ -12760,18 +12760,18 @@
       <c r="O97" s="53"/>
       <c r="P97" s="229"/>
       <c r="Q97" s="244"/>
-      <c r="R97" s="381"/>
-      <c r="S97" s="381"/>
-      <c r="T97" s="381"/>
-      <c r="U97" s="381"/>
-      <c r="V97" s="381"/>
-      <c r="W97" s="381"/>
-      <c r="X97" s="391"/>
-      <c r="Y97" s="381"/>
-      <c r="Z97" s="392"/>
-      <c r="AA97" s="382"/>
-      <c r="AB97" s="382"/>
-      <c r="AC97" s="390"/>
+      <c r="R97" s="322"/>
+      <c r="S97" s="322"/>
+      <c r="T97" s="322"/>
+      <c r="U97" s="322"/>
+      <c r="V97" s="322"/>
+      <c r="W97" s="322"/>
+      <c r="X97" s="332"/>
+      <c r="Y97" s="322"/>
+      <c r="Z97" s="333"/>
+      <c r="AA97" s="323"/>
+      <c r="AB97" s="323"/>
+      <c r="AC97" s="331"/>
       <c r="AE97" s="36"/>
       <c r="AF97" s="36"/>
       <c r="AG97" s="50"/>
@@ -12796,18 +12796,18 @@
       <c r="O98" s="53"/>
       <c r="P98" s="229"/>
       <c r="Q98" s="244"/>
-      <c r="R98" s="381"/>
-      <c r="S98" s="381"/>
-      <c r="T98" s="381"/>
-      <c r="U98" s="381"/>
-      <c r="V98" s="381"/>
-      <c r="W98" s="381"/>
-      <c r="X98" s="391"/>
-      <c r="Y98" s="381"/>
-      <c r="Z98" s="392"/>
-      <c r="AA98" s="382"/>
-      <c r="AB98" s="382"/>
-      <c r="AC98" s="390"/>
+      <c r="R98" s="322"/>
+      <c r="S98" s="322"/>
+      <c r="T98" s="322"/>
+      <c r="U98" s="322"/>
+      <c r="V98" s="322"/>
+      <c r="W98" s="322"/>
+      <c r="X98" s="332"/>
+      <c r="Y98" s="322"/>
+      <c r="Z98" s="333"/>
+      <c r="AA98" s="323"/>
+      <c r="AB98" s="323"/>
+      <c r="AC98" s="331"/>
       <c r="AE98" s="36"/>
       <c r="AF98" s="36"/>
       <c r="AG98" s="50"/>
@@ -12832,18 +12832,18 @@
       <c r="O99" s="53"/>
       <c r="P99" s="229"/>
       <c r="Q99" s="244"/>
-      <c r="R99" s="381"/>
-      <c r="S99" s="381"/>
-      <c r="T99" s="381"/>
-      <c r="U99" s="381"/>
-      <c r="V99" s="381"/>
-      <c r="W99" s="381"/>
-      <c r="X99" s="391"/>
-      <c r="Y99" s="381"/>
-      <c r="Z99" s="392"/>
-      <c r="AA99" s="382"/>
-      <c r="AB99" s="382"/>
-      <c r="AC99" s="390"/>
+      <c r="R99" s="322"/>
+      <c r="S99" s="322"/>
+      <c r="T99" s="322"/>
+      <c r="U99" s="322"/>
+      <c r="V99" s="322"/>
+      <c r="W99" s="322"/>
+      <c r="X99" s="332"/>
+      <c r="Y99" s="322"/>
+      <c r="Z99" s="333"/>
+      <c r="AA99" s="323"/>
+      <c r="AB99" s="323"/>
+      <c r="AC99" s="331"/>
       <c r="AE99" s="36"/>
       <c r="AF99" s="36"/>
       <c r="AG99" s="50"/>
@@ -12868,18 +12868,18 @@
       <c r="O100" s="53"/>
       <c r="P100" s="229"/>
       <c r="Q100" s="244"/>
-      <c r="R100" s="381"/>
-      <c r="S100" s="381"/>
-      <c r="T100" s="381"/>
-      <c r="U100" s="381"/>
-      <c r="V100" s="381"/>
-      <c r="W100" s="381"/>
-      <c r="X100" s="391"/>
-      <c r="Y100" s="381"/>
-      <c r="Z100" s="378"/>
-      <c r="AA100" s="382"/>
-      <c r="AB100" s="382"/>
-      <c r="AC100" s="390"/>
+      <c r="R100" s="322"/>
+      <c r="S100" s="322"/>
+      <c r="T100" s="322"/>
+      <c r="U100" s="322"/>
+      <c r="V100" s="322"/>
+      <c r="W100" s="322"/>
+      <c r="X100" s="332"/>
+      <c r="Y100" s="322"/>
+      <c r="Z100" s="319"/>
+      <c r="AA100" s="323"/>
+      <c r="AB100" s="323"/>
+      <c r="AC100" s="331"/>
       <c r="AE100" s="36"/>
       <c r="AF100" s="36"/>
       <c r="AG100" s="50"/>
@@ -12904,18 +12904,18 @@
       <c r="O101" s="53"/>
       <c r="P101" s="229"/>
       <c r="Q101" s="244"/>
-      <c r="R101" s="381"/>
-      <c r="S101" s="381"/>
-      <c r="T101" s="381"/>
-      <c r="U101" s="381"/>
-      <c r="V101" s="381"/>
-      <c r="W101" s="381"/>
-      <c r="X101" s="391"/>
-      <c r="Y101" s="381"/>
-      <c r="Z101" s="378"/>
-      <c r="AA101" s="382"/>
-      <c r="AB101" s="382"/>
-      <c r="AC101" s="390"/>
+      <c r="R101" s="322"/>
+      <c r="S101" s="322"/>
+      <c r="T101" s="322"/>
+      <c r="U101" s="322"/>
+      <c r="V101" s="322"/>
+      <c r="W101" s="322"/>
+      <c r="X101" s="332"/>
+      <c r="Y101" s="322"/>
+      <c r="Z101" s="319"/>
+      <c r="AA101" s="323"/>
+      <c r="AB101" s="323"/>
+      <c r="AC101" s="331"/>
       <c r="AE101" s="36"/>
       <c r="AF101" s="36"/>
       <c r="AG101" s="50"/>
@@ -12940,18 +12940,18 @@
       <c r="O102" s="46"/>
       <c r="P102" s="229"/>
       <c r="Q102" s="244"/>
-      <c r="R102" s="381"/>
-      <c r="S102" s="381"/>
-      <c r="T102" s="381"/>
-      <c r="U102" s="381"/>
-      <c r="V102" s="381"/>
-      <c r="W102" s="381"/>
-      <c r="X102" s="389"/>
-      <c r="Y102" s="381"/>
-      <c r="Z102" s="381"/>
-      <c r="AA102" s="382"/>
-      <c r="AB102" s="382"/>
-      <c r="AC102" s="390"/>
+      <c r="R102" s="322"/>
+      <c r="S102" s="322"/>
+      <c r="T102" s="322"/>
+      <c r="U102" s="322"/>
+      <c r="V102" s="322"/>
+      <c r="W102" s="322"/>
+      <c r="X102" s="330"/>
+      <c r="Y102" s="322"/>
+      <c r="Z102" s="322"/>
+      <c r="AA102" s="323"/>
+      <c r="AB102" s="323"/>
+      <c r="AC102" s="331"/>
       <c r="AE102" s="36"/>
       <c r="AF102" s="36"/>
       <c r="AG102" s="50"/>
@@ -12976,18 +12976,18 @@
       <c r="O103" s="46"/>
       <c r="P103" s="229"/>
       <c r="Q103" s="244"/>
-      <c r="R103" s="381"/>
-      <c r="S103" s="381"/>
-      <c r="T103" s="381"/>
-      <c r="U103" s="381"/>
-      <c r="V103" s="381"/>
-      <c r="W103" s="381"/>
-      <c r="X103" s="389"/>
-      <c r="Y103" s="381"/>
-      <c r="Z103" s="381"/>
-      <c r="AA103" s="382"/>
-      <c r="AB103" s="382"/>
-      <c r="AC103" s="390"/>
+      <c r="R103" s="322"/>
+      <c r="S103" s="322"/>
+      <c r="T103" s="322"/>
+      <c r="U103" s="322"/>
+      <c r="V103" s="322"/>
+      <c r="W103" s="322"/>
+      <c r="X103" s="330"/>
+      <c r="Y103" s="322"/>
+      <c r="Z103" s="322"/>
+      <c r="AA103" s="323"/>
+      <c r="AB103" s="323"/>
+      <c r="AC103" s="331"/>
       <c r="AE103" s="36"/>
       <c r="AF103" s="36"/>
       <c r="AG103" s="50"/>
@@ -13012,18 +13012,18 @@
       <c r="O104" s="53"/>
       <c r="P104" s="233"/>
       <c r="Q104" s="244"/>
-      <c r="R104" s="381"/>
-      <c r="S104" s="381"/>
-      <c r="T104" s="381"/>
-      <c r="U104" s="381"/>
-      <c r="V104" s="381"/>
-      <c r="W104" s="381"/>
-      <c r="X104" s="381"/>
-      <c r="Y104" s="381"/>
-      <c r="Z104" s="381"/>
-      <c r="AA104" s="382"/>
-      <c r="AB104" s="382"/>
-      <c r="AC104" s="390"/>
+      <c r="R104" s="322"/>
+      <c r="S104" s="322"/>
+      <c r="T104" s="322"/>
+      <c r="U104" s="322"/>
+      <c r="V104" s="322"/>
+      <c r="W104" s="322"/>
+      <c r="X104" s="322"/>
+      <c r="Y104" s="322"/>
+      <c r="Z104" s="322"/>
+      <c r="AA104" s="323"/>
+      <c r="AB104" s="323"/>
+      <c r="AC104" s="331"/>
       <c r="AE104" s="36"/>
       <c r="AF104" s="36"/>
       <c r="AG104" s="50"/>
@@ -13048,18 +13048,18 @@
       <c r="O105" s="215"/>
       <c r="P105" s="234"/>
       <c r="Q105" s="245"/>
-      <c r="R105" s="377"/>
-      <c r="S105" s="377"/>
-      <c r="T105" s="378"/>
-      <c r="U105" s="378"/>
-      <c r="V105" s="378"/>
-      <c r="W105" s="378"/>
-      <c r="X105" s="378"/>
-      <c r="Y105" s="378"/>
-      <c r="Z105" s="377"/>
-      <c r="AA105" s="382"/>
-      <c r="AB105" s="382"/>
-      <c r="AC105" s="390"/>
+      <c r="R105" s="318"/>
+      <c r="S105" s="318"/>
+      <c r="T105" s="319"/>
+      <c r="U105" s="319"/>
+      <c r="V105" s="319"/>
+      <c r="W105" s="319"/>
+      <c r="X105" s="319"/>
+      <c r="Y105" s="319"/>
+      <c r="Z105" s="318"/>
+      <c r="AA105" s="323"/>
+      <c r="AB105" s="323"/>
+      <c r="AC105" s="331"/>
       <c r="AE105" s="36"/>
       <c r="AF105" s="36"/>
       <c r="AG105" s="50"/>
@@ -13084,18 +13084,18 @@
       <c r="O106" s="53"/>
       <c r="P106" s="229"/>
       <c r="Q106" s="244"/>
-      <c r="R106" s="381"/>
-      <c r="S106" s="381"/>
-      <c r="T106" s="381"/>
-      <c r="U106" s="381"/>
-      <c r="V106" s="381"/>
-      <c r="W106" s="381"/>
-      <c r="X106" s="391"/>
-      <c r="Y106" s="381"/>
-      <c r="Z106" s="392"/>
-      <c r="AA106" s="382"/>
-      <c r="AB106" s="382"/>
-      <c r="AC106" s="390"/>
+      <c r="R106" s="322"/>
+      <c r="S106" s="322"/>
+      <c r="T106" s="322"/>
+      <c r="U106" s="322"/>
+      <c r="V106" s="322"/>
+      <c r="W106" s="322"/>
+      <c r="X106" s="332"/>
+      <c r="Y106" s="322"/>
+      <c r="Z106" s="333"/>
+      <c r="AA106" s="323"/>
+      <c r="AB106" s="323"/>
+      <c r="AC106" s="331"/>
       <c r="AE106" s="36"/>
       <c r="AF106" s="36"/>
       <c r="AG106" s="50"/>
@@ -13120,18 +13120,18 @@
       <c r="O107" s="53"/>
       <c r="P107" s="229"/>
       <c r="Q107" s="244"/>
-      <c r="R107" s="381"/>
-      <c r="S107" s="381"/>
-      <c r="T107" s="381"/>
-      <c r="U107" s="381"/>
-      <c r="V107" s="381"/>
-      <c r="W107" s="381"/>
-      <c r="X107" s="391"/>
-      <c r="Y107" s="381"/>
-      <c r="Z107" s="392"/>
-      <c r="AA107" s="382"/>
-      <c r="AB107" s="382"/>
-      <c r="AC107" s="390"/>
+      <c r="R107" s="322"/>
+      <c r="S107" s="322"/>
+      <c r="T107" s="322"/>
+      <c r="U107" s="322"/>
+      <c r="V107" s="322"/>
+      <c r="W107" s="322"/>
+      <c r="X107" s="332"/>
+      <c r="Y107" s="322"/>
+      <c r="Z107" s="333"/>
+      <c r="AA107" s="323"/>
+      <c r="AB107" s="323"/>
+      <c r="AC107" s="331"/>
       <c r="AE107" s="36"/>
       <c r="AF107" s="36"/>
       <c r="AG107" s="50"/>
@@ -13156,18 +13156,18 @@
       <c r="O108" s="53"/>
       <c r="P108" s="229"/>
       <c r="Q108" s="244"/>
-      <c r="R108" s="381"/>
-      <c r="S108" s="381"/>
-      <c r="T108" s="381"/>
-      <c r="U108" s="381"/>
-      <c r="V108" s="381"/>
-      <c r="W108" s="381"/>
-      <c r="X108" s="391"/>
-      <c r="Y108" s="381"/>
-      <c r="Z108" s="392"/>
-      <c r="AA108" s="382"/>
-      <c r="AB108" s="382"/>
-      <c r="AC108" s="390"/>
+      <c r="R108" s="322"/>
+      <c r="S108" s="322"/>
+      <c r="T108" s="322"/>
+      <c r="U108" s="322"/>
+      <c r="V108" s="322"/>
+      <c r="W108" s="322"/>
+      <c r="X108" s="332"/>
+      <c r="Y108" s="322"/>
+      <c r="Z108" s="333"/>
+      <c r="AA108" s="323"/>
+      <c r="AB108" s="323"/>
+      <c r="AC108" s="331"/>
       <c r="AE108" s="36"/>
       <c r="AF108" s="36"/>
       <c r="AG108" s="36"/>
@@ -13192,18 +13192,18 @@
       <c r="O109" s="53"/>
       <c r="P109" s="229"/>
       <c r="Q109" s="244"/>
-      <c r="R109" s="381"/>
-      <c r="S109" s="381"/>
-      <c r="T109" s="381"/>
-      <c r="U109" s="381"/>
-      <c r="V109" s="381"/>
-      <c r="W109" s="381"/>
-      <c r="X109" s="391"/>
-      <c r="Y109" s="381"/>
-      <c r="Z109" s="392"/>
-      <c r="AA109" s="382"/>
-      <c r="AB109" s="382"/>
-      <c r="AC109" s="390"/>
+      <c r="R109" s="322"/>
+      <c r="S109" s="322"/>
+      <c r="T109" s="322"/>
+      <c r="U109" s="322"/>
+      <c r="V109" s="322"/>
+      <c r="W109" s="322"/>
+      <c r="X109" s="332"/>
+      <c r="Y109" s="322"/>
+      <c r="Z109" s="333"/>
+      <c r="AA109" s="323"/>
+      <c r="AB109" s="323"/>
+      <c r="AC109" s="331"/>
       <c r="AE109" s="36"/>
       <c r="AF109" s="36"/>
       <c r="AG109" s="36"/>
@@ -13228,18 +13228,18 @@
       <c r="O110" s="53"/>
       <c r="P110" s="229"/>
       <c r="Q110" s="244"/>
-      <c r="R110" s="381"/>
-      <c r="S110" s="381"/>
-      <c r="T110" s="381"/>
-      <c r="U110" s="381"/>
-      <c r="V110" s="381"/>
-      <c r="W110" s="381"/>
-      <c r="X110" s="391"/>
-      <c r="Y110" s="381"/>
-      <c r="Z110" s="392"/>
-      <c r="AA110" s="382"/>
-      <c r="AB110" s="382"/>
-      <c r="AC110" s="390"/>
+      <c r="R110" s="322"/>
+      <c r="S110" s="322"/>
+      <c r="T110" s="322"/>
+      <c r="U110" s="322"/>
+      <c r="V110" s="322"/>
+      <c r="W110" s="322"/>
+      <c r="X110" s="332"/>
+      <c r="Y110" s="322"/>
+      <c r="Z110" s="333"/>
+      <c r="AA110" s="323"/>
+      <c r="AB110" s="323"/>
+      <c r="AC110" s="331"/>
       <c r="AE110" s="36"/>
       <c r="AF110" s="36"/>
       <c r="AG110" s="36"/>
@@ -13264,18 +13264,18 @@
       <c r="O111" s="53"/>
       <c r="P111" s="229"/>
       <c r="Q111" s="244"/>
-      <c r="R111" s="381"/>
-      <c r="S111" s="381"/>
-      <c r="T111" s="381"/>
-      <c r="U111" s="381"/>
-      <c r="V111" s="381"/>
-      <c r="W111" s="381"/>
-      <c r="X111" s="391"/>
-      <c r="Y111" s="381"/>
-      <c r="Z111" s="378"/>
-      <c r="AA111" s="382"/>
-      <c r="AB111" s="382"/>
-      <c r="AC111" s="390"/>
+      <c r="R111" s="322"/>
+      <c r="S111" s="322"/>
+      <c r="T111" s="322"/>
+      <c r="U111" s="322"/>
+      <c r="V111" s="322"/>
+      <c r="W111" s="322"/>
+      <c r="X111" s="332"/>
+      <c r="Y111" s="322"/>
+      <c r="Z111" s="319"/>
+      <c r="AA111" s="323"/>
+      <c r="AB111" s="323"/>
+      <c r="AC111" s="331"/>
       <c r="AE111" s="36"/>
       <c r="AF111" s="36"/>
       <c r="AG111" s="36"/>
@@ -13300,18 +13300,18 @@
       <c r="O112" s="53"/>
       <c r="P112" s="229"/>
       <c r="Q112" s="229"/>
-      <c r="R112" s="393"/>
-      <c r="S112" s="393"/>
-      <c r="T112" s="393"/>
-      <c r="U112" s="393"/>
-      <c r="V112" s="393"/>
-      <c r="W112" s="393"/>
-      <c r="X112" s="394"/>
-      <c r="Y112" s="393"/>
-      <c r="Z112" s="380"/>
-      <c r="AA112" s="395"/>
-      <c r="AB112" s="395"/>
-      <c r="AC112" s="396"/>
+      <c r="R112" s="334"/>
+      <c r="S112" s="334"/>
+      <c r="T112" s="334"/>
+      <c r="U112" s="334"/>
+      <c r="V112" s="334"/>
+      <c r="W112" s="334"/>
+      <c r="X112" s="335"/>
+      <c r="Y112" s="334"/>
+      <c r="Z112" s="321"/>
+      <c r="AA112" s="336"/>
+      <c r="AB112" s="336"/>
+      <c r="AC112" s="337"/>
       <c r="AH112" s="50"/>
     </row>
     <row r="113" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -13331,18 +13331,18 @@
       <c r="O113" s="53"/>
       <c r="P113" s="229"/>
       <c r="Q113" s="229"/>
-      <c r="R113" s="393"/>
-      <c r="S113" s="393"/>
-      <c r="T113" s="393"/>
-      <c r="U113" s="393"/>
-      <c r="V113" s="393"/>
-      <c r="W113" s="393"/>
-      <c r="X113" s="394"/>
-      <c r="Y113" s="393"/>
-      <c r="Z113" s="380"/>
-      <c r="AA113" s="395"/>
-      <c r="AB113" s="395"/>
-      <c r="AC113" s="396"/>
+      <c r="R113" s="334"/>
+      <c r="S113" s="334"/>
+      <c r="T113" s="334"/>
+      <c r="U113" s="334"/>
+      <c r="V113" s="334"/>
+      <c r="W113" s="334"/>
+      <c r="X113" s="335"/>
+      <c r="Y113" s="334"/>
+      <c r="Z113" s="321"/>
+      <c r="AA113" s="336"/>
+      <c r="AB113" s="336"/>
+      <c r="AC113" s="337"/>
       <c r="AH113" s="50"/>
     </row>
     <row r="114" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13362,18 +13362,18 @@
       <c r="O114" s="46"/>
       <c r="P114" s="229"/>
       <c r="Q114" s="229"/>
-      <c r="R114" s="393"/>
-      <c r="S114" s="393"/>
-      <c r="T114" s="393"/>
-      <c r="U114" s="393"/>
-      <c r="V114" s="393"/>
-      <c r="W114" s="393"/>
-      <c r="X114" s="397"/>
-      <c r="Y114" s="393"/>
-      <c r="Z114" s="393"/>
-      <c r="AA114" s="395"/>
-      <c r="AB114" s="395"/>
-      <c r="AC114" s="396"/>
+      <c r="R114" s="334"/>
+      <c r="S114" s="334"/>
+      <c r="T114" s="334"/>
+      <c r="U114" s="334"/>
+      <c r="V114" s="334"/>
+      <c r="W114" s="334"/>
+      <c r="X114" s="338"/>
+      <c r="Y114" s="334"/>
+      <c r="Z114" s="334"/>
+      <c r="AA114" s="336"/>
+      <c r="AB114" s="336"/>
+      <c r="AC114" s="337"/>
       <c r="AH114" s="50"/>
     </row>
     <row r="115" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -13393,18 +13393,18 @@
       <c r="O115" s="46"/>
       <c r="P115" s="229"/>
       <c r="Q115" s="229"/>
-      <c r="R115" s="393"/>
-      <c r="S115" s="393"/>
-      <c r="T115" s="393"/>
-      <c r="U115" s="393"/>
-      <c r="V115" s="393"/>
-      <c r="W115" s="393"/>
-      <c r="X115" s="393"/>
-      <c r="Y115" s="393"/>
-      <c r="Z115" s="393"/>
-      <c r="AA115" s="395"/>
-      <c r="AB115" s="395"/>
-      <c r="AC115" s="396"/>
+      <c r="R115" s="334"/>
+      <c r="S115" s="334"/>
+      <c r="T115" s="334"/>
+      <c r="U115" s="334"/>
+      <c r="V115" s="334"/>
+      <c r="W115" s="334"/>
+      <c r="X115" s="334"/>
+      <c r="Y115" s="334"/>
+      <c r="Z115" s="334"/>
+      <c r="AA115" s="336"/>
+      <c r="AB115" s="336"/>
+      <c r="AC115" s="337"/>
       <c r="AH115" s="50"/>
     </row>
     <row r="116" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -13424,18 +13424,18 @@
       <c r="O116" s="53"/>
       <c r="P116" s="233"/>
       <c r="Q116" s="229"/>
-      <c r="R116" s="393"/>
-      <c r="S116" s="393"/>
-      <c r="T116" s="393"/>
-      <c r="U116" s="393"/>
-      <c r="V116" s="393"/>
-      <c r="W116" s="393"/>
-      <c r="X116" s="393"/>
-      <c r="Y116" s="393"/>
-      <c r="Z116" s="393"/>
-      <c r="AA116" s="395"/>
-      <c r="AB116" s="395"/>
-      <c r="AC116" s="396"/>
+      <c r="R116" s="334"/>
+      <c r="S116" s="334"/>
+      <c r="T116" s="334"/>
+      <c r="U116" s="334"/>
+      <c r="V116" s="334"/>
+      <c r="W116" s="334"/>
+      <c r="X116" s="334"/>
+      <c r="Y116" s="334"/>
+      <c r="Z116" s="334"/>
+      <c r="AA116" s="336"/>
+      <c r="AB116" s="336"/>
+      <c r="AC116" s="337"/>
       <c r="AH116" s="50"/>
     </row>
     <row r="117" spans="2:34" ht="47.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -13455,18 +13455,18 @@
       <c r="O117" s="215"/>
       <c r="P117" s="234"/>
       <c r="Q117" s="235"/>
-      <c r="R117" s="379"/>
-      <c r="S117" s="379"/>
-      <c r="T117" s="380"/>
-      <c r="U117" s="380"/>
-      <c r="V117" s="380"/>
-      <c r="W117" s="380"/>
-      <c r="X117" s="380"/>
-      <c r="Y117" s="380"/>
-      <c r="Z117" s="379"/>
-      <c r="AA117" s="395"/>
-      <c r="AB117" s="395"/>
-      <c r="AC117" s="396"/>
+      <c r="R117" s="320"/>
+      <c r="S117" s="320"/>
+      <c r="T117" s="321"/>
+      <c r="U117" s="321"/>
+      <c r="V117" s="321"/>
+      <c r="W117" s="321"/>
+      <c r="X117" s="321"/>
+      <c r="Y117" s="321"/>
+      <c r="Z117" s="320"/>
+      <c r="AA117" s="336"/>
+      <c r="AB117" s="336"/>
+      <c r="AC117" s="337"/>
     </row>
     <row r="118" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B118" s="53"/>
@@ -13485,18 +13485,18 @@
       <c r="O118" s="53"/>
       <c r="P118" s="229"/>
       <c r="Q118" s="229"/>
-      <c r="R118" s="393"/>
-      <c r="S118" s="393"/>
-      <c r="T118" s="393"/>
-      <c r="U118" s="393"/>
-      <c r="V118" s="393"/>
-      <c r="W118" s="393"/>
-      <c r="X118" s="394"/>
-      <c r="Y118" s="393"/>
-      <c r="Z118" s="398"/>
-      <c r="AA118" s="395"/>
-      <c r="AB118" s="395"/>
-      <c r="AC118" s="396"/>
+      <c r="R118" s="334"/>
+      <c r="S118" s="334"/>
+      <c r="T118" s="334"/>
+      <c r="U118" s="334"/>
+      <c r="V118" s="334"/>
+      <c r="W118" s="334"/>
+      <c r="X118" s="335"/>
+      <c r="Y118" s="334"/>
+      <c r="Z118" s="339"/>
+      <c r="AA118" s="336"/>
+      <c r="AB118" s="336"/>
+      <c r="AC118" s="337"/>
     </row>
     <row r="119" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B119" s="53"/>
@@ -13515,18 +13515,18 @@
       <c r="O119" s="53"/>
       <c r="P119" s="229"/>
       <c r="Q119" s="229"/>
-      <c r="R119" s="393"/>
-      <c r="S119" s="393"/>
-      <c r="T119" s="393"/>
-      <c r="U119" s="393"/>
-      <c r="V119" s="393"/>
-      <c r="W119" s="393"/>
-      <c r="X119" s="394"/>
-      <c r="Y119" s="393"/>
-      <c r="Z119" s="398"/>
-      <c r="AA119" s="395"/>
-      <c r="AB119" s="395"/>
-      <c r="AC119" s="396"/>
+      <c r="R119" s="334"/>
+      <c r="S119" s="334"/>
+      <c r="T119" s="334"/>
+      <c r="U119" s="334"/>
+      <c r="V119" s="334"/>
+      <c r="W119" s="334"/>
+      <c r="X119" s="335"/>
+      <c r="Y119" s="334"/>
+      <c r="Z119" s="339"/>
+      <c r="AA119" s="336"/>
+      <c r="AB119" s="336"/>
+      <c r="AC119" s="337"/>
     </row>
     <row r="120" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B120" s="53"/>
@@ -13545,18 +13545,18 @@
       <c r="O120" s="53"/>
       <c r="P120" s="229"/>
       <c r="Q120" s="229"/>
-      <c r="R120" s="393"/>
-      <c r="S120" s="393"/>
-      <c r="T120" s="393"/>
-      <c r="U120" s="393"/>
-      <c r="V120" s="393"/>
-      <c r="W120" s="393"/>
-      <c r="X120" s="394"/>
-      <c r="Y120" s="393"/>
-      <c r="Z120" s="398"/>
-      <c r="AA120" s="395"/>
-      <c r="AB120" s="395"/>
-      <c r="AC120" s="396"/>
+      <c r="R120" s="334"/>
+      <c r="S120" s="334"/>
+      <c r="T120" s="334"/>
+      <c r="U120" s="334"/>
+      <c r="V120" s="334"/>
+      <c r="W120" s="334"/>
+      <c r="X120" s="335"/>
+      <c r="Y120" s="334"/>
+      <c r="Z120" s="339"/>
+      <c r="AA120" s="336"/>
+      <c r="AB120" s="336"/>
+      <c r="AC120" s="337"/>
     </row>
     <row r="121" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B121" s="53"/>
@@ -13575,18 +13575,18 @@
       <c r="O121" s="53"/>
       <c r="P121" s="229"/>
       <c r="Q121" s="229"/>
-      <c r="R121" s="393"/>
-      <c r="S121" s="393"/>
-      <c r="T121" s="393"/>
-      <c r="U121" s="393"/>
-      <c r="V121" s="393"/>
-      <c r="W121" s="393"/>
-      <c r="X121" s="394"/>
-      <c r="Y121" s="393"/>
-      <c r="Z121" s="398"/>
-      <c r="AA121" s="395"/>
-      <c r="AB121" s="395"/>
-      <c r="AC121" s="396"/>
+      <c r="R121" s="334"/>
+      <c r="S121" s="334"/>
+      <c r="T121" s="334"/>
+      <c r="U121" s="334"/>
+      <c r="V121" s="334"/>
+      <c r="W121" s="334"/>
+      <c r="X121" s="335"/>
+      <c r="Y121" s="334"/>
+      <c r="Z121" s="339"/>
+      <c r="AA121" s="336"/>
+      <c r="AB121" s="336"/>
+      <c r="AC121" s="337"/>
     </row>
     <row r="122" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B122" s="53"/>
@@ -13605,18 +13605,18 @@
       <c r="O122" s="53"/>
       <c r="P122" s="229"/>
       <c r="Q122" s="229"/>
-      <c r="R122" s="393"/>
-      <c r="S122" s="393"/>
-      <c r="T122" s="393"/>
-      <c r="U122" s="393"/>
-      <c r="V122" s="393"/>
-      <c r="W122" s="393"/>
-      <c r="X122" s="394"/>
-      <c r="Y122" s="393"/>
-      <c r="Z122" s="398"/>
-      <c r="AA122" s="395"/>
-      <c r="AB122" s="395"/>
-      <c r="AC122" s="396"/>
+      <c r="R122" s="334"/>
+      <c r="S122" s="334"/>
+      <c r="T122" s="334"/>
+      <c r="U122" s="334"/>
+      <c r="V122" s="334"/>
+      <c r="W122" s="334"/>
+      <c r="X122" s="335"/>
+      <c r="Y122" s="334"/>
+      <c r="Z122" s="339"/>
+      <c r="AA122" s="336"/>
+      <c r="AB122" s="336"/>
+      <c r="AC122" s="337"/>
     </row>
     <row r="123" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B123" s="53"/>
@@ -13635,18 +13635,18 @@
       <c r="O123" s="53"/>
       <c r="P123" s="229"/>
       <c r="Q123" s="229"/>
-      <c r="R123" s="393"/>
-      <c r="S123" s="393"/>
-      <c r="T123" s="393"/>
-      <c r="U123" s="393"/>
-      <c r="V123" s="393"/>
-      <c r="W123" s="393"/>
-      <c r="X123" s="394"/>
-      <c r="Y123" s="393"/>
-      <c r="Z123" s="398"/>
-      <c r="AA123" s="395"/>
-      <c r="AB123" s="395"/>
-      <c r="AC123" s="396"/>
+      <c r="R123" s="334"/>
+      <c r="S123" s="334"/>
+      <c r="T123" s="334"/>
+      <c r="U123" s="334"/>
+      <c r="V123" s="334"/>
+      <c r="W123" s="334"/>
+      <c r="X123" s="335"/>
+      <c r="Y123" s="334"/>
+      <c r="Z123" s="339"/>
+      <c r="AA123" s="336"/>
+      <c r="AB123" s="336"/>
+      <c r="AC123" s="337"/>
     </row>
     <row r="124" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B124" s="53"/>
@@ -13665,18 +13665,18 @@
       <c r="O124" s="53"/>
       <c r="P124" s="229"/>
       <c r="Q124" s="229"/>
-      <c r="R124" s="393"/>
-      <c r="S124" s="393"/>
-      <c r="T124" s="393"/>
-      <c r="U124" s="393"/>
-      <c r="V124" s="393"/>
-      <c r="W124" s="393"/>
-      <c r="X124" s="394"/>
-      <c r="Y124" s="393"/>
-      <c r="Z124" s="380"/>
-      <c r="AA124" s="395"/>
-      <c r="AB124" s="395"/>
-      <c r="AC124" s="396"/>
+      <c r="R124" s="334"/>
+      <c r="S124" s="334"/>
+      <c r="T124" s="334"/>
+      <c r="U124" s="334"/>
+      <c r="V124" s="334"/>
+      <c r="W124" s="334"/>
+      <c r="X124" s="335"/>
+      <c r="Y124" s="334"/>
+      <c r="Z124" s="321"/>
+      <c r="AA124" s="336"/>
+      <c r="AB124" s="336"/>
+      <c r="AC124" s="337"/>
     </row>
     <row r="125" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B125" s="53"/>
@@ -13695,18 +13695,18 @@
       <c r="O125" s="53"/>
       <c r="P125" s="229"/>
       <c r="Q125" s="229"/>
-      <c r="R125" s="393"/>
-      <c r="S125" s="393"/>
-      <c r="T125" s="393"/>
-      <c r="U125" s="393"/>
-      <c r="V125" s="393"/>
-      <c r="W125" s="393"/>
-      <c r="X125" s="394"/>
-      <c r="Y125" s="393"/>
-      <c r="Z125" s="380"/>
-      <c r="AA125" s="395"/>
-      <c r="AB125" s="395"/>
-      <c r="AC125" s="396"/>
+      <c r="R125" s="334"/>
+      <c r="S125" s="334"/>
+      <c r="T125" s="334"/>
+      <c r="U125" s="334"/>
+      <c r="V125" s="334"/>
+      <c r="W125" s="334"/>
+      <c r="X125" s="335"/>
+      <c r="Y125" s="334"/>
+      <c r="Z125" s="321"/>
+      <c r="AA125" s="336"/>
+      <c r="AB125" s="336"/>
+      <c r="AC125" s="337"/>
     </row>
     <row r="126" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B126" s="46"/>
@@ -13725,18 +13725,18 @@
       <c r="O126" s="46"/>
       <c r="P126" s="229"/>
       <c r="Q126" s="229"/>
-      <c r="R126" s="393"/>
-      <c r="S126" s="397"/>
-      <c r="T126" s="393"/>
-      <c r="U126" s="393"/>
-      <c r="V126" s="393"/>
-      <c r="W126" s="393"/>
-      <c r="X126" s="393"/>
-      <c r="Y126" s="393"/>
-      <c r="Z126" s="393"/>
-      <c r="AA126" s="395"/>
-      <c r="AB126" s="395"/>
-      <c r="AC126" s="396"/>
+      <c r="R126" s="334"/>
+      <c r="S126" s="338"/>
+      <c r="T126" s="334"/>
+      <c r="U126" s="334"/>
+      <c r="V126" s="334"/>
+      <c r="W126" s="334"/>
+      <c r="X126" s="334"/>
+      <c r="Y126" s="334"/>
+      <c r="Z126" s="334"/>
+      <c r="AA126" s="336"/>
+      <c r="AB126" s="336"/>
+      <c r="AC126" s="337"/>
     </row>
     <row r="127" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B127" s="46"/>
@@ -13755,18 +13755,18 @@
       <c r="O127" s="46"/>
       <c r="P127" s="229"/>
       <c r="Q127" s="229"/>
-      <c r="R127" s="393"/>
-      <c r="S127" s="397"/>
-      <c r="T127" s="393"/>
-      <c r="U127" s="393"/>
-      <c r="V127" s="393"/>
-      <c r="W127" s="393"/>
-      <c r="X127" s="393"/>
-      <c r="Y127" s="393"/>
-      <c r="Z127" s="393"/>
-      <c r="AA127" s="395"/>
-      <c r="AB127" s="395"/>
-      <c r="AC127" s="396"/>
+      <c r="R127" s="334"/>
+      <c r="S127" s="338"/>
+      <c r="T127" s="334"/>
+      <c r="U127" s="334"/>
+      <c r="V127" s="334"/>
+      <c r="W127" s="334"/>
+      <c r="X127" s="334"/>
+      <c r="Y127" s="334"/>
+      <c r="Z127" s="334"/>
+      <c r="AA127" s="336"/>
+      <c r="AB127" s="336"/>
+      <c r="AC127" s="337"/>
     </row>
     <row r="128" spans="2:34" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B128" s="46"/>
@@ -13785,18 +13785,18 @@
       <c r="O128" s="46"/>
       <c r="P128" s="229"/>
       <c r="Q128" s="229"/>
-      <c r="R128" s="393"/>
-      <c r="S128" s="397"/>
-      <c r="T128" s="393"/>
-      <c r="U128" s="393"/>
-      <c r="V128" s="393"/>
-      <c r="W128" s="393"/>
-      <c r="X128" s="393"/>
-      <c r="Y128" s="393"/>
-      <c r="Z128" s="393"/>
-      <c r="AA128" s="395"/>
-      <c r="AB128" s="395"/>
-      <c r="AC128" s="396"/>
+      <c r="R128" s="334"/>
+      <c r="S128" s="338"/>
+      <c r="T128" s="334"/>
+      <c r="U128" s="334"/>
+      <c r="V128" s="334"/>
+      <c r="W128" s="334"/>
+      <c r="X128" s="334"/>
+      <c r="Y128" s="334"/>
+      <c r="Z128" s="334"/>
+      <c r="AA128" s="336"/>
+      <c r="AB128" s="336"/>
+      <c r="AC128" s="337"/>
     </row>
     <row r="129" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B129" s="46"/>
@@ -13814,18 +13814,18 @@
       <c r="N129" s="46"/>
       <c r="P129" s="228"/>
       <c r="Q129" s="228"/>
-      <c r="R129" s="395"/>
-      <c r="S129" s="397"/>
-      <c r="T129" s="395"/>
-      <c r="U129" s="395"/>
-      <c r="V129" s="395"/>
-      <c r="W129" s="395"/>
-      <c r="X129" s="395"/>
-      <c r="Y129" s="395"/>
-      <c r="Z129" s="395"/>
-      <c r="AA129" s="395"/>
-      <c r="AB129" s="395"/>
-      <c r="AC129" s="396"/>
+      <c r="R129" s="336"/>
+      <c r="S129" s="338"/>
+      <c r="T129" s="336"/>
+      <c r="U129" s="336"/>
+      <c r="V129" s="336"/>
+      <c r="W129" s="336"/>
+      <c r="X129" s="336"/>
+      <c r="Y129" s="336"/>
+      <c r="Z129" s="336"/>
+      <c r="AA129" s="336"/>
+      <c r="AB129" s="336"/>
+      <c r="AC129" s="337"/>
     </row>
     <row r="130" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B130" s="46"/>
@@ -13844,18 +13844,18 @@
       <c r="O130" s="23"/>
       <c r="P130" s="231"/>
       <c r="Q130" s="231"/>
-      <c r="R130" s="399"/>
-      <c r="S130" s="397"/>
-      <c r="T130" s="397"/>
-      <c r="U130" s="400"/>
-      <c r="V130" s="400"/>
-      <c r="W130" s="395"/>
-      <c r="X130" s="395"/>
-      <c r="Y130" s="395"/>
-      <c r="Z130" s="395"/>
-      <c r="AA130" s="395"/>
-      <c r="AB130" s="395"/>
-      <c r="AC130" s="396"/>
+      <c r="R130" s="340"/>
+      <c r="S130" s="338"/>
+      <c r="T130" s="338"/>
+      <c r="U130" s="341"/>
+      <c r="V130" s="341"/>
+      <c r="W130" s="336"/>
+      <c r="X130" s="336"/>
+      <c r="Y130" s="336"/>
+      <c r="Z130" s="336"/>
+      <c r="AA130" s="336"/>
+      <c r="AB130" s="336"/>
+      <c r="AC130" s="337"/>
     </row>
     <row r="131" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B131" s="46"/>
@@ -13873,18 +13873,18 @@
       <c r="N131" s="46"/>
       <c r="P131" s="228"/>
       <c r="Q131" s="228"/>
-      <c r="R131" s="400"/>
-      <c r="S131" s="397"/>
-      <c r="T131" s="397"/>
-      <c r="U131" s="400"/>
-      <c r="V131" s="400"/>
-      <c r="W131" s="395"/>
-      <c r="X131" s="395"/>
-      <c r="Y131" s="395"/>
-      <c r="Z131" s="395"/>
-      <c r="AA131" s="395"/>
-      <c r="AB131" s="395"/>
-      <c r="AC131" s="396"/>
+      <c r="R131" s="341"/>
+      <c r="S131" s="338"/>
+      <c r="T131" s="338"/>
+      <c r="U131" s="341"/>
+      <c r="V131" s="341"/>
+      <c r="W131" s="336"/>
+      <c r="X131" s="336"/>
+      <c r="Y131" s="336"/>
+      <c r="Z131" s="336"/>
+      <c r="AA131" s="336"/>
+      <c r="AB131" s="336"/>
+      <c r="AC131" s="337"/>
     </row>
     <row r="132" spans="2:29" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B132" s="46"/>
@@ -13902,18 +13902,18 @@
       <c r="N132" s="46"/>
       <c r="P132" s="228"/>
       <c r="Q132" s="228"/>
-      <c r="R132" s="400"/>
-      <c r="S132" s="397"/>
-      <c r="T132" s="397"/>
-      <c r="U132" s="400"/>
-      <c r="V132" s="400"/>
-      <c r="W132" s="395"/>
-      <c r="X132" s="395"/>
-      <c r="Y132" s="395"/>
-      <c r="Z132" s="395"/>
-      <c r="AA132" s="395"/>
-      <c r="AB132" s="395"/>
-      <c r="AC132" s="396"/>
+      <c r="R132" s="341"/>
+      <c r="S132" s="338"/>
+      <c r="T132" s="338"/>
+      <c r="U132" s="341"/>
+      <c r="V132" s="341"/>
+      <c r="W132" s="336"/>
+      <c r="X132" s="336"/>
+      <c r="Y132" s="336"/>
+      <c r="Z132" s="336"/>
+      <c r="AA132" s="336"/>
+      <c r="AB132" s="336"/>
+      <c r="AC132" s="337"/>
     </row>
     <row r="133" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B133" s="46"/>
@@ -13931,18 +13931,18 @@
       <c r="N133" s="46"/>
       <c r="P133" s="228"/>
       <c r="Q133" s="228"/>
-      <c r="R133" s="395"/>
-      <c r="S133" s="395"/>
-      <c r="T133" s="395"/>
-      <c r="U133" s="395"/>
-      <c r="V133" s="395"/>
-      <c r="W133" s="395"/>
-      <c r="X133" s="395"/>
-      <c r="Y133" s="395"/>
-      <c r="Z133" s="395"/>
-      <c r="AA133" s="395"/>
-      <c r="AB133" s="395"/>
-      <c r="AC133" s="396"/>
+      <c r="R133" s="336"/>
+      <c r="S133" s="336"/>
+      <c r="T133" s="336"/>
+      <c r="U133" s="336"/>
+      <c r="V133" s="336"/>
+      <c r="W133" s="336"/>
+      <c r="X133" s="336"/>
+      <c r="Y133" s="336"/>
+      <c r="Z133" s="336"/>
+      <c r="AA133" s="336"/>
+      <c r="AB133" s="336"/>
+      <c r="AC133" s="337"/>
     </row>
     <row r="134" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B134" s="46"/>
@@ -13960,18 +13960,18 @@
       <c r="N134" s="46"/>
       <c r="P134" s="228"/>
       <c r="Q134" s="228"/>
-      <c r="R134" s="395"/>
-      <c r="S134" s="395"/>
-      <c r="T134" s="395"/>
-      <c r="U134" s="395"/>
-      <c r="V134" s="395"/>
-      <c r="W134" s="395"/>
-      <c r="X134" s="395"/>
-      <c r="Y134" s="395"/>
-      <c r="Z134" s="395"/>
-      <c r="AA134" s="395"/>
-      <c r="AB134" s="395"/>
-      <c r="AC134" s="396"/>
+      <c r="R134" s="336"/>
+      <c r="S134" s="336"/>
+      <c r="T134" s="336"/>
+      <c r="U134" s="336"/>
+      <c r="V134" s="336"/>
+      <c r="W134" s="336"/>
+      <c r="X134" s="336"/>
+      <c r="Y134" s="336"/>
+      <c r="Z134" s="336"/>
+      <c r="AA134" s="336"/>
+      <c r="AB134" s="336"/>
+      <c r="AC134" s="337"/>
     </row>
     <row r="135" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B135" s="46"/>
@@ -13989,18 +13989,18 @@
       <c r="N135" s="46"/>
       <c r="P135" s="228"/>
       <c r="Q135" s="228"/>
-      <c r="R135" s="395"/>
-      <c r="S135" s="395"/>
-      <c r="T135" s="395"/>
-      <c r="U135" s="395"/>
-      <c r="V135" s="395"/>
-      <c r="W135" s="395"/>
-      <c r="X135" s="395"/>
-      <c r="Y135" s="395"/>
-      <c r="Z135" s="395"/>
-      <c r="AA135" s="395"/>
-      <c r="AB135" s="395"/>
-      <c r="AC135" s="396"/>
+      <c r="R135" s="336"/>
+      <c r="S135" s="336"/>
+      <c r="T135" s="336"/>
+      <c r="U135" s="336"/>
+      <c r="V135" s="336"/>
+      <c r="W135" s="336"/>
+      <c r="X135" s="336"/>
+      <c r="Y135" s="336"/>
+      <c r="Z135" s="336"/>
+      <c r="AA135" s="336"/>
+      <c r="AB135" s="336"/>
+      <c r="AC135" s="337"/>
     </row>
     <row r="136" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B136" s="46"/>
@@ -14018,18 +14018,18 @@
       <c r="N136" s="46"/>
       <c r="P136" s="228"/>
       <c r="Q136" s="228"/>
-      <c r="R136" s="395"/>
-      <c r="S136" s="395"/>
-      <c r="T136" s="395"/>
-      <c r="U136" s="395"/>
-      <c r="V136" s="395"/>
-      <c r="W136" s="395"/>
-      <c r="X136" s="395"/>
-      <c r="Y136" s="395"/>
-      <c r="Z136" s="395"/>
-      <c r="AA136" s="395"/>
-      <c r="AB136" s="395"/>
-      <c r="AC136" s="396"/>
+      <c r="R136" s="336"/>
+      <c r="S136" s="336"/>
+      <c r="T136" s="336"/>
+      <c r="U136" s="336"/>
+      <c r="V136" s="336"/>
+      <c r="W136" s="336"/>
+      <c r="X136" s="336"/>
+      <c r="Y136" s="336"/>
+      <c r="Z136" s="336"/>
+      <c r="AA136" s="336"/>
+      <c r="AB136" s="336"/>
+      <c r="AC136" s="337"/>
     </row>
     <row r="137" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B137" s="46"/>
@@ -14047,18 +14047,18 @@
       <c r="N137" s="46"/>
       <c r="P137" s="228"/>
       <c r="Q137" s="228"/>
-      <c r="R137" s="395"/>
-      <c r="S137" s="395"/>
-      <c r="T137" s="395"/>
-      <c r="U137" s="395"/>
-      <c r="V137" s="395"/>
-      <c r="W137" s="395"/>
-      <c r="X137" s="395"/>
-      <c r="Y137" s="395"/>
-      <c r="Z137" s="395"/>
-      <c r="AA137" s="395"/>
-      <c r="AB137" s="395"/>
-      <c r="AC137" s="396"/>
+      <c r="R137" s="336"/>
+      <c r="S137" s="336"/>
+      <c r="T137" s="336"/>
+      <c r="U137" s="336"/>
+      <c r="V137" s="336"/>
+      <c r="W137" s="336"/>
+      <c r="X137" s="336"/>
+      <c r="Y137" s="336"/>
+      <c r="Z137" s="336"/>
+      <c r="AA137" s="336"/>
+      <c r="AB137" s="336"/>
+      <c r="AC137" s="337"/>
     </row>
     <row r="138" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B138" s="46"/>
@@ -14076,18 +14076,18 @@
       <c r="N138" s="46"/>
       <c r="P138" s="228"/>
       <c r="Q138" s="228"/>
-      <c r="R138" s="395"/>
-      <c r="S138" s="395"/>
-      <c r="T138" s="395"/>
-      <c r="U138" s="395"/>
-      <c r="V138" s="395"/>
-      <c r="W138" s="395"/>
-      <c r="X138" s="395"/>
-      <c r="Y138" s="395"/>
-      <c r="Z138" s="395"/>
-      <c r="AA138" s="395"/>
-      <c r="AB138" s="395"/>
-      <c r="AC138" s="396"/>
+      <c r="R138" s="336"/>
+      <c r="S138" s="336"/>
+      <c r="T138" s="336"/>
+      <c r="U138" s="336"/>
+      <c r="V138" s="336"/>
+      <c r="W138" s="336"/>
+      <c r="X138" s="336"/>
+      <c r="Y138" s="336"/>
+      <c r="Z138" s="336"/>
+      <c r="AA138" s="336"/>
+      <c r="AB138" s="336"/>
+      <c r="AC138" s="337"/>
     </row>
     <row r="139" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B139" s="46"/>
@@ -14105,18 +14105,18 @@
       <c r="N139" s="46"/>
       <c r="P139" s="228"/>
       <c r="Q139" s="228"/>
-      <c r="R139" s="395"/>
-      <c r="S139" s="395"/>
-      <c r="T139" s="395"/>
-      <c r="U139" s="395"/>
-      <c r="V139" s="395"/>
-      <c r="W139" s="395"/>
-      <c r="X139" s="395"/>
-      <c r="Y139" s="395"/>
-      <c r="Z139" s="395"/>
-      <c r="AA139" s="395"/>
-      <c r="AB139" s="395"/>
-      <c r="AC139" s="396"/>
+      <c r="R139" s="336"/>
+      <c r="S139" s="336"/>
+      <c r="T139" s="336"/>
+      <c r="U139" s="336"/>
+      <c r="V139" s="336"/>
+      <c r="W139" s="336"/>
+      <c r="X139" s="336"/>
+      <c r="Y139" s="336"/>
+      <c r="Z139" s="336"/>
+      <c r="AA139" s="336"/>
+      <c r="AB139" s="336"/>
+      <c r="AC139" s="337"/>
     </row>
     <row r="140" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B140" s="46"/>
@@ -14134,18 +14134,18 @@
       <c r="N140" s="46"/>
       <c r="P140" s="228"/>
       <c r="Q140" s="228"/>
-      <c r="R140" s="395"/>
-      <c r="S140" s="395"/>
-      <c r="T140" s="395"/>
-      <c r="U140" s="395"/>
-      <c r="V140" s="395"/>
-      <c r="W140" s="395"/>
-      <c r="X140" s="395"/>
-      <c r="Y140" s="395"/>
-      <c r="Z140" s="395"/>
-      <c r="AA140" s="395"/>
-      <c r="AB140" s="395"/>
-      <c r="AC140" s="396"/>
+      <c r="R140" s="336"/>
+      <c r="S140" s="336"/>
+      <c r="T140" s="336"/>
+      <c r="U140" s="336"/>
+      <c r="V140" s="336"/>
+      <c r="W140" s="336"/>
+      <c r="X140" s="336"/>
+      <c r="Y140" s="336"/>
+      <c r="Z140" s="336"/>
+      <c r="AA140" s="336"/>
+      <c r="AB140" s="336"/>
+      <c r="AC140" s="337"/>
     </row>
     <row r="141" spans="2:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B141" s="46"/>
@@ -14163,18 +14163,18 @@
       <c r="N141" s="46"/>
       <c r="P141" s="228"/>
       <c r="Q141" s="228"/>
-      <c r="R141" s="395"/>
-      <c r="S141" s="395"/>
-      <c r="T141" s="395"/>
-      <c r="U141" s="395"/>
-      <c r="V141" s="395"/>
-      <c r="W141" s="395"/>
-      <c r="X141" s="395"/>
-      <c r="Y141" s="395"/>
-      <c r="Z141" s="395"/>
-      <c r="AA141" s="395"/>
-      <c r="AB141" s="395"/>
-      <c r="AC141" s="396"/>
+      <c r="R141" s="336"/>
+      <c r="S141" s="336"/>
+      <c r="T141" s="336"/>
+      <c r="U141" s="336"/>
+      <c r="V141" s="336"/>
+      <c r="W141" s="336"/>
+      <c r="X141" s="336"/>
+      <c r="Y141" s="336"/>
+      <c r="Z141" s="336"/>
+      <c r="AA141" s="336"/>
+      <c r="AB141" s="336"/>
+      <c r="AC141" s="337"/>
     </row>
     <row r="142" spans="2:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B142" s="46"/>
@@ -14192,18 +14192,18 @@
       <c r="N142" s="46"/>
       <c r="P142" s="228"/>
       <c r="Q142" s="228"/>
-      <c r="R142" s="395"/>
-      <c r="S142" s="395"/>
-      <c r="T142" s="395"/>
-      <c r="U142" s="395"/>
-      <c r="V142" s="395"/>
-      <c r="W142" s="395"/>
-      <c r="X142" s="395"/>
-      <c r="Y142" s="395"/>
-      <c r="Z142" s="395"/>
-      <c r="AA142" s="395"/>
-      <c r="AB142" s="395"/>
-      <c r="AC142" s="396"/>
+      <c r="R142" s="336"/>
+      <c r="S142" s="336"/>
+      <c r="T142" s="336"/>
+      <c r="U142" s="336"/>
+      <c r="V142" s="336"/>
+      <c r="W142" s="336"/>
+      <c r="X142" s="336"/>
+      <c r="Y142" s="336"/>
+      <c r="Z142" s="336"/>
+      <c r="AA142" s="336"/>
+      <c r="AB142" s="336"/>
+      <c r="AC142" s="337"/>
     </row>
     <row r="143" spans="2:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B143" s="46"/>
@@ -14221,18 +14221,18 @@
       <c r="N143" s="46"/>
       <c r="P143" s="228"/>
       <c r="Q143" s="228"/>
-      <c r="R143" s="395"/>
-      <c r="S143" s="395"/>
-      <c r="T143" s="395"/>
-      <c r="U143" s="395"/>
-      <c r="V143" s="395"/>
-      <c r="W143" s="395"/>
-      <c r="X143" s="395"/>
-      <c r="Y143" s="395"/>
-      <c r="Z143" s="395"/>
-      <c r="AA143" s="395"/>
-      <c r="AB143" s="395"/>
-      <c r="AC143" s="396"/>
+      <c r="R143" s="336"/>
+      <c r="S143" s="336"/>
+      <c r="T143" s="336"/>
+      <c r="U143" s="336"/>
+      <c r="V143" s="336"/>
+      <c r="W143" s="336"/>
+      <c r="X143" s="336"/>
+      <c r="Y143" s="336"/>
+      <c r="Z143" s="336"/>
+      <c r="AA143" s="336"/>
+      <c r="AB143" s="336"/>
+      <c r="AC143" s="337"/>
     </row>
     <row r="144" spans="2:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B144" s="46"/>
@@ -14250,18 +14250,18 @@
       <c r="N144" s="46"/>
       <c r="P144" s="228"/>
       <c r="Q144" s="228"/>
-      <c r="R144" s="395"/>
-      <c r="S144" s="395"/>
-      <c r="T144" s="395"/>
-      <c r="U144" s="395"/>
-      <c r="V144" s="395"/>
-      <c r="W144" s="395"/>
-      <c r="X144" s="395"/>
-      <c r="Y144" s="395"/>
-      <c r="Z144" s="395"/>
-      <c r="AA144" s="395"/>
-      <c r="AB144" s="395"/>
-      <c r="AC144" s="396"/>
+      <c r="R144" s="336"/>
+      <c r="S144" s="336"/>
+      <c r="T144" s="336"/>
+      <c r="U144" s="336"/>
+      <c r="V144" s="336"/>
+      <c r="W144" s="336"/>
+      <c r="X144" s="336"/>
+      <c r="Y144" s="336"/>
+      <c r="Z144" s="336"/>
+      <c r="AA144" s="336"/>
+      <c r="AB144" s="336"/>
+      <c r="AC144" s="337"/>
     </row>
     <row r="145" spans="2:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B145" s="46"/>
@@ -14279,18 +14279,18 @@
       <c r="N145" s="46"/>
       <c r="P145" s="228"/>
       <c r="Q145" s="228"/>
-      <c r="R145" s="395"/>
-      <c r="S145" s="395"/>
-      <c r="T145" s="395"/>
-      <c r="U145" s="395"/>
-      <c r="V145" s="395"/>
-      <c r="W145" s="395"/>
-      <c r="X145" s="395"/>
-      <c r="Y145" s="395"/>
-      <c r="Z145" s="395"/>
-      <c r="AA145" s="395"/>
-      <c r="AB145" s="395"/>
-      <c r="AC145" s="396"/>
+      <c r="R145" s="336"/>
+      <c r="S145" s="336"/>
+      <c r="T145" s="336"/>
+      <c r="U145" s="336"/>
+      <c r="V145" s="336"/>
+      <c r="W145" s="336"/>
+      <c r="X145" s="336"/>
+      <c r="Y145" s="336"/>
+      <c r="Z145" s="336"/>
+      <c r="AA145" s="336"/>
+      <c r="AB145" s="336"/>
+      <c r="AC145" s="337"/>
     </row>
     <row r="146" spans="2:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B146" s="46"/>
@@ -14308,18 +14308,18 @@
       <c r="N146" s="46"/>
       <c r="P146" s="228"/>
       <c r="Q146" s="228"/>
-      <c r="R146" s="395"/>
-      <c r="S146" s="395"/>
-      <c r="T146" s="395"/>
-      <c r="U146" s="395"/>
-      <c r="V146" s="395"/>
-      <c r="W146" s="395"/>
-      <c r="X146" s="395"/>
-      <c r="Y146" s="395"/>
-      <c r="Z146" s="395"/>
-      <c r="AA146" s="395"/>
-      <c r="AB146" s="395"/>
-      <c r="AC146" s="396"/>
+      <c r="R146" s="336"/>
+      <c r="S146" s="336"/>
+      <c r="T146" s="336"/>
+      <c r="U146" s="336"/>
+      <c r="V146" s="336"/>
+      <c r="W146" s="336"/>
+      <c r="X146" s="336"/>
+      <c r="Y146" s="336"/>
+      <c r="Z146" s="336"/>
+      <c r="AA146" s="336"/>
+      <c r="AB146" s="336"/>
+      <c r="AC146" s="337"/>
     </row>
     <row r="147" spans="2:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B147" s="46"/>
@@ -14337,18 +14337,18 @@
       <c r="N147" s="46"/>
       <c r="P147" s="228"/>
       <c r="Q147" s="228"/>
-      <c r="R147" s="395"/>
-      <c r="S147" s="395"/>
-      <c r="T147" s="395"/>
-      <c r="U147" s="395"/>
-      <c r="V147" s="395"/>
-      <c r="W147" s="395"/>
-      <c r="X147" s="395"/>
-      <c r="Y147" s="395"/>
-      <c r="Z147" s="395"/>
-      <c r="AA147" s="395"/>
-      <c r="AB147" s="395"/>
-      <c r="AC147" s="396"/>
+      <c r="R147" s="336"/>
+      <c r="S147" s="336"/>
+      <c r="T147" s="336"/>
+      <c r="U147" s="336"/>
+      <c r="V147" s="336"/>
+      <c r="W147" s="336"/>
+      <c r="X147" s="336"/>
+      <c r="Y147" s="336"/>
+      <c r="Z147" s="336"/>
+      <c r="AA147" s="336"/>
+      <c r="AB147" s="336"/>
+      <c r="AC147" s="337"/>
     </row>
     <row r="148" spans="2:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B148" s="46"/>
@@ -14366,18 +14366,18 @@
       <c r="N148" s="46"/>
       <c r="P148" s="228"/>
       <c r="Q148" s="228"/>
-      <c r="R148" s="395"/>
-      <c r="S148" s="395"/>
-      <c r="T148" s="395"/>
-      <c r="U148" s="395"/>
-      <c r="V148" s="395"/>
-      <c r="W148" s="395"/>
-      <c r="X148" s="395"/>
-      <c r="Y148" s="395"/>
-      <c r="Z148" s="395"/>
-      <c r="AA148" s="395"/>
-      <c r="AB148" s="395"/>
-      <c r="AC148" s="396"/>
+      <c r="R148" s="336"/>
+      <c r="S148" s="336"/>
+      <c r="T148" s="336"/>
+      <c r="U148" s="336"/>
+      <c r="V148" s="336"/>
+      <c r="W148" s="336"/>
+      <c r="X148" s="336"/>
+      <c r="Y148" s="336"/>
+      <c r="Z148" s="336"/>
+      <c r="AA148" s="336"/>
+      <c r="AB148" s="336"/>
+      <c r="AC148" s="337"/>
     </row>
     <row r="149" spans="2:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B149" s="46"/>
@@ -14395,18 +14395,18 @@
       <c r="N149" s="46"/>
       <c r="P149" s="228"/>
       <c r="Q149" s="228"/>
-      <c r="R149" s="395"/>
-      <c r="S149" s="395"/>
-      <c r="T149" s="395"/>
-      <c r="U149" s="395"/>
-      <c r="V149" s="395"/>
-      <c r="W149" s="395"/>
-      <c r="X149" s="395"/>
-      <c r="Y149" s="395"/>
-      <c r="Z149" s="395"/>
-      <c r="AA149" s="395"/>
-      <c r="AB149" s="395"/>
-      <c r="AC149" s="396"/>
+      <c r="R149" s="336"/>
+      <c r="S149" s="336"/>
+      <c r="T149" s="336"/>
+      <c r="U149" s="336"/>
+      <c r="V149" s="336"/>
+      <c r="W149" s="336"/>
+      <c r="X149" s="336"/>
+      <c r="Y149" s="336"/>
+      <c r="Z149" s="336"/>
+      <c r="AA149" s="336"/>
+      <c r="AB149" s="336"/>
+      <c r="AC149" s="337"/>
     </row>
     <row r="150" spans="2:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B150" s="46"/>
@@ -14424,18 +14424,18 @@
       <c r="N150" s="46"/>
       <c r="P150" s="228"/>
       <c r="Q150" s="228"/>
-      <c r="R150" s="395"/>
-      <c r="S150" s="395"/>
-      <c r="T150" s="395"/>
-      <c r="U150" s="395"/>
-      <c r="V150" s="395"/>
-      <c r="W150" s="395"/>
-      <c r="X150" s="395"/>
-      <c r="Y150" s="395"/>
-      <c r="Z150" s="395"/>
-      <c r="AA150" s="395"/>
-      <c r="AB150" s="395"/>
-      <c r="AC150" s="396"/>
+      <c r="R150" s="336"/>
+      <c r="S150" s="336"/>
+      <c r="T150" s="336"/>
+      <c r="U150" s="336"/>
+      <c r="V150" s="336"/>
+      <c r="W150" s="336"/>
+      <c r="X150" s="336"/>
+      <c r="Y150" s="336"/>
+      <c r="Z150" s="336"/>
+      <c r="AA150" s="336"/>
+      <c r="AB150" s="336"/>
+      <c r="AC150" s="337"/>
     </row>
     <row r="151" spans="2:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B151" s="46"/>
@@ -14453,18 +14453,18 @@
       <c r="N151" s="46"/>
       <c r="P151" s="228"/>
       <c r="Q151" s="228"/>
-      <c r="R151" s="395"/>
-      <c r="S151" s="395"/>
-      <c r="T151" s="395"/>
-      <c r="U151" s="395"/>
-      <c r="V151" s="395"/>
-      <c r="W151" s="395"/>
-      <c r="X151" s="395"/>
-      <c r="Y151" s="395"/>
-      <c r="Z151" s="395"/>
-      <c r="AA151" s="395"/>
-      <c r="AB151" s="395"/>
-      <c r="AC151" s="396"/>
+      <c r="R151" s="336"/>
+      <c r="S151" s="336"/>
+      <c r="T151" s="336"/>
+      <c r="U151" s="336"/>
+      <c r="V151" s="336"/>
+      <c r="W151" s="336"/>
+      <c r="X151" s="336"/>
+      <c r="Y151" s="336"/>
+      <c r="Z151" s="336"/>
+      <c r="AA151" s="336"/>
+      <c r="AB151" s="336"/>
+      <c r="AC151" s="337"/>
     </row>
     <row r="152" spans="2:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B152" s="46"/>
@@ -14482,18 +14482,18 @@
       <c r="N152" s="46"/>
       <c r="P152" s="228"/>
       <c r="Q152" s="228"/>
-      <c r="R152" s="395"/>
-      <c r="S152" s="395"/>
-      <c r="T152" s="395"/>
-      <c r="U152" s="395"/>
-      <c r="V152" s="395"/>
-      <c r="W152" s="395"/>
-      <c r="X152" s="395"/>
-      <c r="Y152" s="395"/>
-      <c r="Z152" s="395"/>
-      <c r="AA152" s="395"/>
-      <c r="AB152" s="395"/>
-      <c r="AC152" s="396"/>
+      <c r="R152" s="336"/>
+      <c r="S152" s="336"/>
+      <c r="T152" s="336"/>
+      <c r="U152" s="336"/>
+      <c r="V152" s="336"/>
+      <c r="W152" s="336"/>
+      <c r="X152" s="336"/>
+      <c r="Y152" s="336"/>
+      <c r="Z152" s="336"/>
+      <c r="AA152" s="336"/>
+      <c r="AB152" s="336"/>
+      <c r="AC152" s="337"/>
     </row>
     <row r="153" spans="2:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B153" s="46"/>
@@ -14511,18 +14511,18 @@
       <c r="N153" s="46"/>
       <c r="P153" s="228"/>
       <c r="Q153" s="228"/>
-      <c r="R153" s="395"/>
-      <c r="S153" s="395"/>
-      <c r="T153" s="395"/>
-      <c r="U153" s="395"/>
-      <c r="V153" s="395"/>
-      <c r="W153" s="395"/>
-      <c r="X153" s="395"/>
-      <c r="Y153" s="395"/>
-      <c r="Z153" s="395"/>
-      <c r="AA153" s="395"/>
-      <c r="AB153" s="395"/>
-      <c r="AC153" s="396"/>
+      <c r="R153" s="336"/>
+      <c r="S153" s="336"/>
+      <c r="T153" s="336"/>
+      <c r="U153" s="336"/>
+      <c r="V153" s="336"/>
+      <c r="W153" s="336"/>
+      <c r="X153" s="336"/>
+      <c r="Y153" s="336"/>
+      <c r="Z153" s="336"/>
+      <c r="AA153" s="336"/>
+      <c r="AB153" s="336"/>
+      <c r="AC153" s="337"/>
     </row>
     <row r="154" spans="2:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B154" s="46"/>
@@ -14540,18 +14540,18 @@
       <c r="N154" s="46"/>
       <c r="P154" s="228"/>
       <c r="Q154" s="228"/>
-      <c r="R154" s="395"/>
-      <c r="S154" s="395"/>
-      <c r="T154" s="395"/>
-      <c r="U154" s="395"/>
-      <c r="V154" s="395"/>
-      <c r="W154" s="395"/>
-      <c r="X154" s="395"/>
-      <c r="Y154" s="395"/>
-      <c r="Z154" s="395"/>
-      <c r="AA154" s="395"/>
-      <c r="AB154" s="395"/>
-      <c r="AC154" s="396"/>
+      <c r="R154" s="336"/>
+      <c r="S154" s="336"/>
+      <c r="T154" s="336"/>
+      <c r="U154" s="336"/>
+      <c r="V154" s="336"/>
+      <c r="W154" s="336"/>
+      <c r="X154" s="336"/>
+      <c r="Y154" s="336"/>
+      <c r="Z154" s="336"/>
+      <c r="AA154" s="336"/>
+      <c r="AB154" s="336"/>
+      <c r="AC154" s="337"/>
     </row>
     <row r="155" spans="2:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B155" s="46"/>
@@ -14569,18 +14569,18 @@
       <c r="N155" s="46"/>
       <c r="P155" s="228"/>
       <c r="Q155" s="228"/>
-      <c r="R155" s="395"/>
-      <c r="S155" s="395"/>
-      <c r="T155" s="395"/>
-      <c r="U155" s="395"/>
-      <c r="V155" s="395"/>
-      <c r="W155" s="395"/>
-      <c r="X155" s="395"/>
-      <c r="Y155" s="395"/>
-      <c r="Z155" s="395"/>
-      <c r="AA155" s="395"/>
-      <c r="AB155" s="395"/>
-      <c r="AC155" s="396"/>
+      <c r="R155" s="336"/>
+      <c r="S155" s="336"/>
+      <c r="T155" s="336"/>
+      <c r="U155" s="336"/>
+      <c r="V155" s="336"/>
+      <c r="W155" s="336"/>
+      <c r="X155" s="336"/>
+      <c r="Y155" s="336"/>
+      <c r="Z155" s="336"/>
+      <c r="AA155" s="336"/>
+      <c r="AB155" s="336"/>
+      <c r="AC155" s="337"/>
     </row>
     <row r="156" spans="2:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B156" s="46"/>
@@ -14598,18 +14598,18 @@
       <c r="N156" s="46"/>
       <c r="P156" s="228"/>
       <c r="Q156" s="228"/>
-      <c r="R156" s="395"/>
-      <c r="S156" s="395"/>
-      <c r="T156" s="395"/>
-      <c r="U156" s="395"/>
-      <c r="V156" s="395"/>
-      <c r="W156" s="395"/>
-      <c r="X156" s="395"/>
-      <c r="Y156" s="395"/>
-      <c r="Z156" s="395"/>
-      <c r="AA156" s="395"/>
-      <c r="AB156" s="395"/>
-      <c r="AC156" s="396"/>
+      <c r="R156" s="336"/>
+      <c r="S156" s="336"/>
+      <c r="T156" s="336"/>
+      <c r="U156" s="336"/>
+      <c r="V156" s="336"/>
+      <c r="W156" s="336"/>
+      <c r="X156" s="336"/>
+      <c r="Y156" s="336"/>
+      <c r="Z156" s="336"/>
+      <c r="AA156" s="336"/>
+      <c r="AB156" s="336"/>
+      <c r="AC156" s="337"/>
     </row>
     <row r="157" spans="2:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B157" s="46"/>
@@ -14627,1122 +14627,1122 @@
       <c r="N157" s="46"/>
       <c r="P157" s="228"/>
       <c r="Q157" s="228"/>
-      <c r="R157" s="395"/>
-      <c r="S157" s="395"/>
-      <c r="T157" s="395"/>
-      <c r="U157" s="395"/>
-      <c r="V157" s="395"/>
-      <c r="W157" s="395"/>
-      <c r="X157" s="395"/>
-      <c r="Y157" s="395"/>
-      <c r="Z157" s="395"/>
-      <c r="AA157" s="395"/>
-      <c r="AB157" s="395"/>
-      <c r="AC157" s="396"/>
+      <c r="R157" s="336"/>
+      <c r="S157" s="336"/>
+      <c r="T157" s="336"/>
+      <c r="U157" s="336"/>
+      <c r="V157" s="336"/>
+      <c r="W157" s="336"/>
+      <c r="X157" s="336"/>
+      <c r="Y157" s="336"/>
+      <c r="Z157" s="336"/>
+      <c r="AA157" s="336"/>
+      <c r="AB157" s="336"/>
+      <c r="AC157" s="337"/>
     </row>
     <row r="158" spans="2:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P158" s="228"/>
       <c r="Q158" s="228"/>
-      <c r="R158" s="395"/>
-      <c r="S158" s="395"/>
-      <c r="T158" s="395"/>
-      <c r="U158" s="395"/>
-      <c r="V158" s="395"/>
-      <c r="W158" s="395"/>
-      <c r="X158" s="395"/>
-      <c r="Y158" s="395"/>
-      <c r="Z158" s="395"/>
-      <c r="AA158" s="395"/>
-      <c r="AB158" s="395"/>
-      <c r="AC158" s="396"/>
+      <c r="R158" s="336"/>
+      <c r="S158" s="336"/>
+      <c r="T158" s="336"/>
+      <c r="U158" s="336"/>
+      <c r="V158" s="336"/>
+      <c r="W158" s="336"/>
+      <c r="X158" s="336"/>
+      <c r="Y158" s="336"/>
+      <c r="Z158" s="336"/>
+      <c r="AA158" s="336"/>
+      <c r="AB158" s="336"/>
+      <c r="AC158" s="337"/>
     </row>
     <row r="159" spans="2:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P159" s="228"/>
       <c r="Q159" s="228"/>
-      <c r="R159" s="395"/>
-      <c r="S159" s="395"/>
-      <c r="T159" s="395"/>
-      <c r="U159" s="395"/>
-      <c r="V159" s="395"/>
-      <c r="W159" s="395"/>
-      <c r="X159" s="395"/>
-      <c r="Y159" s="395"/>
-      <c r="Z159" s="395"/>
-      <c r="AA159" s="395"/>
-      <c r="AB159" s="395"/>
-      <c r="AC159" s="396"/>
+      <c r="R159" s="336"/>
+      <c r="S159" s="336"/>
+      <c r="T159" s="336"/>
+      <c r="U159" s="336"/>
+      <c r="V159" s="336"/>
+      <c r="W159" s="336"/>
+      <c r="X159" s="336"/>
+      <c r="Y159" s="336"/>
+      <c r="Z159" s="336"/>
+      <c r="AA159" s="336"/>
+      <c r="AB159" s="336"/>
+      <c r="AC159" s="337"/>
     </row>
     <row r="160" spans="2:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P160" s="228"/>
       <c r="Q160" s="228"/>
-      <c r="R160" s="395"/>
-      <c r="S160" s="395"/>
-      <c r="T160" s="395"/>
-      <c r="U160" s="395"/>
-      <c r="V160" s="395"/>
-      <c r="W160" s="395"/>
-      <c r="X160" s="395"/>
-      <c r="Y160" s="395"/>
-      <c r="Z160" s="395"/>
-      <c r="AA160" s="395"/>
-      <c r="AB160" s="395"/>
-      <c r="AC160" s="396"/>
+      <c r="R160" s="336"/>
+      <c r="S160" s="336"/>
+      <c r="T160" s="336"/>
+      <c r="U160" s="336"/>
+      <c r="V160" s="336"/>
+      <c r="W160" s="336"/>
+      <c r="X160" s="336"/>
+      <c r="Y160" s="336"/>
+      <c r="Z160" s="336"/>
+      <c r="AA160" s="336"/>
+      <c r="AB160" s="336"/>
+      <c r="AC160" s="337"/>
     </row>
     <row r="161" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P161" s="228"/>
       <c r="Q161" s="228"/>
-      <c r="R161" s="395"/>
-      <c r="S161" s="395"/>
-      <c r="T161" s="395"/>
-      <c r="U161" s="395"/>
-      <c r="V161" s="395"/>
-      <c r="W161" s="395"/>
-      <c r="X161" s="395"/>
-      <c r="Y161" s="395"/>
-      <c r="Z161" s="395"/>
-      <c r="AA161" s="395"/>
-      <c r="AB161" s="395"/>
-      <c r="AC161" s="396"/>
+      <c r="R161" s="336"/>
+      <c r="S161" s="336"/>
+      <c r="T161" s="336"/>
+      <c r="U161" s="336"/>
+      <c r="V161" s="336"/>
+      <c r="W161" s="336"/>
+      <c r="X161" s="336"/>
+      <c r="Y161" s="336"/>
+      <c r="Z161" s="336"/>
+      <c r="AA161" s="336"/>
+      <c r="AB161" s="336"/>
+      <c r="AC161" s="337"/>
     </row>
     <row r="162" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P162" s="228"/>
       <c r="Q162" s="228"/>
-      <c r="R162" s="395"/>
-      <c r="S162" s="395"/>
-      <c r="T162" s="395"/>
-      <c r="U162" s="395"/>
-      <c r="V162" s="395"/>
-      <c r="W162" s="395"/>
-      <c r="X162" s="395"/>
-      <c r="Y162" s="395"/>
-      <c r="Z162" s="395"/>
-      <c r="AA162" s="395"/>
-      <c r="AB162" s="395"/>
-      <c r="AC162" s="396"/>
+      <c r="R162" s="336"/>
+      <c r="S162" s="336"/>
+      <c r="T162" s="336"/>
+      <c r="U162" s="336"/>
+      <c r="V162" s="336"/>
+      <c r="W162" s="336"/>
+      <c r="X162" s="336"/>
+      <c r="Y162" s="336"/>
+      <c r="Z162" s="336"/>
+      <c r="AA162" s="336"/>
+      <c r="AB162" s="336"/>
+      <c r="AC162" s="337"/>
     </row>
     <row r="163" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P163" s="228"/>
       <c r="Q163" s="228"/>
-      <c r="R163" s="395"/>
-      <c r="S163" s="395"/>
-      <c r="T163" s="395"/>
-      <c r="U163" s="395"/>
-      <c r="V163" s="395"/>
-      <c r="W163" s="395"/>
-      <c r="X163" s="395"/>
-      <c r="Y163" s="395"/>
-      <c r="Z163" s="395"/>
-      <c r="AA163" s="395"/>
-      <c r="AB163" s="395"/>
-      <c r="AC163" s="396"/>
+      <c r="R163" s="336"/>
+      <c r="S163" s="336"/>
+      <c r="T163" s="336"/>
+      <c r="U163" s="336"/>
+      <c r="V163" s="336"/>
+      <c r="W163" s="336"/>
+      <c r="X163" s="336"/>
+      <c r="Y163" s="336"/>
+      <c r="Z163" s="336"/>
+      <c r="AA163" s="336"/>
+      <c r="AB163" s="336"/>
+      <c r="AC163" s="337"/>
     </row>
     <row r="164" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P164" s="228"/>
       <c r="Q164" s="228"/>
-      <c r="R164" s="395"/>
-      <c r="S164" s="395"/>
-      <c r="T164" s="395"/>
-      <c r="U164" s="395"/>
-      <c r="V164" s="395"/>
-      <c r="W164" s="395"/>
-      <c r="X164" s="395"/>
-      <c r="Y164" s="395"/>
-      <c r="Z164" s="395"/>
-      <c r="AA164" s="395"/>
-      <c r="AB164" s="395"/>
-      <c r="AC164" s="396"/>
+      <c r="R164" s="336"/>
+      <c r="S164" s="336"/>
+      <c r="T164" s="336"/>
+      <c r="U164" s="336"/>
+      <c r="V164" s="336"/>
+      <c r="W164" s="336"/>
+      <c r="X164" s="336"/>
+      <c r="Y164" s="336"/>
+      <c r="Z164" s="336"/>
+      <c r="AA164" s="336"/>
+      <c r="AB164" s="336"/>
+      <c r="AC164" s="337"/>
     </row>
     <row r="165" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P165" s="228"/>
       <c r="Q165" s="228"/>
-      <c r="R165" s="395"/>
-      <c r="S165" s="395"/>
-      <c r="T165" s="395"/>
-      <c r="U165" s="395"/>
-      <c r="V165" s="395"/>
-      <c r="W165" s="395"/>
-      <c r="X165" s="395"/>
-      <c r="Y165" s="395"/>
-      <c r="Z165" s="395"/>
-      <c r="AA165" s="395"/>
-      <c r="AB165" s="395"/>
-      <c r="AC165" s="396"/>
+      <c r="R165" s="336"/>
+      <c r="S165" s="336"/>
+      <c r="T165" s="336"/>
+      <c r="U165" s="336"/>
+      <c r="V165" s="336"/>
+      <c r="W165" s="336"/>
+      <c r="X165" s="336"/>
+      <c r="Y165" s="336"/>
+      <c r="Z165" s="336"/>
+      <c r="AA165" s="336"/>
+      <c r="AB165" s="336"/>
+      <c r="AC165" s="337"/>
     </row>
     <row r="166" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P166" s="228"/>
       <c r="Q166" s="228"/>
-      <c r="R166" s="395"/>
-      <c r="S166" s="395"/>
-      <c r="T166" s="395"/>
-      <c r="U166" s="395"/>
-      <c r="V166" s="395"/>
-      <c r="W166" s="395"/>
-      <c r="X166" s="395"/>
-      <c r="Y166" s="395"/>
-      <c r="Z166" s="395"/>
-      <c r="AA166" s="395"/>
-      <c r="AB166" s="395"/>
-      <c r="AC166" s="396"/>
+      <c r="R166" s="336"/>
+      <c r="S166" s="336"/>
+      <c r="T166" s="336"/>
+      <c r="U166" s="336"/>
+      <c r="V166" s="336"/>
+      <c r="W166" s="336"/>
+      <c r="X166" s="336"/>
+      <c r="Y166" s="336"/>
+      <c r="Z166" s="336"/>
+      <c r="AA166" s="336"/>
+      <c r="AB166" s="336"/>
+      <c r="AC166" s="337"/>
     </row>
     <row r="167" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P167" s="228"/>
       <c r="Q167" s="228"/>
-      <c r="R167" s="395"/>
-      <c r="S167" s="395"/>
-      <c r="T167" s="395"/>
-      <c r="U167" s="395"/>
-      <c r="V167" s="395"/>
-      <c r="W167" s="395"/>
-      <c r="X167" s="395"/>
-      <c r="Y167" s="395"/>
-      <c r="Z167" s="395"/>
-      <c r="AA167" s="395"/>
-      <c r="AB167" s="395"/>
-      <c r="AC167" s="396"/>
+      <c r="R167" s="336"/>
+      <c r="S167" s="336"/>
+      <c r="T167" s="336"/>
+      <c r="U167" s="336"/>
+      <c r="V167" s="336"/>
+      <c r="W167" s="336"/>
+      <c r="X167" s="336"/>
+      <c r="Y167" s="336"/>
+      <c r="Z167" s="336"/>
+      <c r="AA167" s="336"/>
+      <c r="AB167" s="336"/>
+      <c r="AC167" s="337"/>
     </row>
     <row r="168" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P168" s="228"/>
       <c r="Q168" s="228"/>
-      <c r="R168" s="395"/>
-      <c r="S168" s="395"/>
-      <c r="T168" s="395"/>
-      <c r="U168" s="395"/>
-      <c r="V168" s="395"/>
-      <c r="W168" s="395"/>
-      <c r="X168" s="395"/>
-      <c r="Y168" s="395"/>
-      <c r="Z168" s="395"/>
-      <c r="AA168" s="395"/>
-      <c r="AB168" s="395"/>
-      <c r="AC168" s="396"/>
+      <c r="R168" s="336"/>
+      <c r="S168" s="336"/>
+      <c r="T168" s="336"/>
+      <c r="U168" s="336"/>
+      <c r="V168" s="336"/>
+      <c r="W168" s="336"/>
+      <c r="X168" s="336"/>
+      <c r="Y168" s="336"/>
+      <c r="Z168" s="336"/>
+      <c r="AA168" s="336"/>
+      <c r="AB168" s="336"/>
+      <c r="AC168" s="337"/>
     </row>
     <row r="169" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P169" s="228"/>
       <c r="Q169" s="228"/>
-      <c r="R169" s="395"/>
-      <c r="S169" s="395"/>
-      <c r="T169" s="395"/>
-      <c r="U169" s="395"/>
-      <c r="V169" s="395"/>
-      <c r="W169" s="395"/>
-      <c r="X169" s="395"/>
-      <c r="Y169" s="395"/>
-      <c r="Z169" s="395"/>
-      <c r="AA169" s="395"/>
-      <c r="AB169" s="395"/>
-      <c r="AC169" s="396"/>
+      <c r="R169" s="336"/>
+      <c r="S169" s="336"/>
+      <c r="T169" s="336"/>
+      <c r="U169" s="336"/>
+      <c r="V169" s="336"/>
+      <c r="W169" s="336"/>
+      <c r="X169" s="336"/>
+      <c r="Y169" s="336"/>
+      <c r="Z169" s="336"/>
+      <c r="AA169" s="336"/>
+      <c r="AB169" s="336"/>
+      <c r="AC169" s="337"/>
     </row>
     <row r="170" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P170" s="228"/>
       <c r="Q170" s="228"/>
-      <c r="R170" s="395"/>
-      <c r="S170" s="395"/>
-      <c r="T170" s="395"/>
-      <c r="U170" s="395"/>
-      <c r="V170" s="395"/>
-      <c r="W170" s="395"/>
-      <c r="X170" s="395"/>
-      <c r="Y170" s="395"/>
-      <c r="Z170" s="395"/>
-      <c r="AA170" s="395"/>
-      <c r="AB170" s="395"/>
-      <c r="AC170" s="396"/>
+      <c r="R170" s="336"/>
+      <c r="S170" s="336"/>
+      <c r="T170" s="336"/>
+      <c r="U170" s="336"/>
+      <c r="V170" s="336"/>
+      <c r="W170" s="336"/>
+      <c r="X170" s="336"/>
+      <c r="Y170" s="336"/>
+      <c r="Z170" s="336"/>
+      <c r="AA170" s="336"/>
+      <c r="AB170" s="336"/>
+      <c r="AC170" s="337"/>
     </row>
     <row r="171" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P171" s="228"/>
       <c r="Q171" s="228"/>
-      <c r="R171" s="395"/>
-      <c r="S171" s="395"/>
-      <c r="T171" s="395"/>
-      <c r="U171" s="395"/>
-      <c r="V171" s="395"/>
-      <c r="W171" s="395"/>
-      <c r="X171" s="395"/>
-      <c r="Y171" s="395"/>
-      <c r="Z171" s="395"/>
-      <c r="AA171" s="395"/>
-      <c r="AB171" s="395"/>
-      <c r="AC171" s="396"/>
+      <c r="R171" s="336"/>
+      <c r="S171" s="336"/>
+      <c r="T171" s="336"/>
+      <c r="U171" s="336"/>
+      <c r="V171" s="336"/>
+      <c r="W171" s="336"/>
+      <c r="X171" s="336"/>
+      <c r="Y171" s="336"/>
+      <c r="Z171" s="336"/>
+      <c r="AA171" s="336"/>
+      <c r="AB171" s="336"/>
+      <c r="AC171" s="337"/>
     </row>
     <row r="172" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P172" s="228"/>
       <c r="Q172" s="228"/>
-      <c r="R172" s="395"/>
-      <c r="S172" s="395"/>
-      <c r="T172" s="395"/>
-      <c r="U172" s="395"/>
-      <c r="V172" s="395"/>
-      <c r="W172" s="395"/>
-      <c r="X172" s="395"/>
-      <c r="Y172" s="395"/>
-      <c r="Z172" s="395"/>
-      <c r="AA172" s="395"/>
-      <c r="AB172" s="395"/>
-      <c r="AC172" s="396"/>
+      <c r="R172" s="336"/>
+      <c r="S172" s="336"/>
+      <c r="T172" s="336"/>
+      <c r="U172" s="336"/>
+      <c r="V172" s="336"/>
+      <c r="W172" s="336"/>
+      <c r="X172" s="336"/>
+      <c r="Y172" s="336"/>
+      <c r="Z172" s="336"/>
+      <c r="AA172" s="336"/>
+      <c r="AB172" s="336"/>
+      <c r="AC172" s="337"/>
     </row>
     <row r="173" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P173" s="228"/>
       <c r="Q173" s="228"/>
-      <c r="R173" s="395"/>
-      <c r="S173" s="395"/>
-      <c r="T173" s="395"/>
-      <c r="U173" s="395"/>
-      <c r="V173" s="395"/>
-      <c r="W173" s="395"/>
-      <c r="X173" s="395"/>
-      <c r="Y173" s="395"/>
-      <c r="Z173" s="395"/>
-      <c r="AA173" s="395"/>
-      <c r="AB173" s="395"/>
-      <c r="AC173" s="396"/>
+      <c r="R173" s="336"/>
+      <c r="S173" s="336"/>
+      <c r="T173" s="336"/>
+      <c r="U173" s="336"/>
+      <c r="V173" s="336"/>
+      <c r="W173" s="336"/>
+      <c r="X173" s="336"/>
+      <c r="Y173" s="336"/>
+      <c r="Z173" s="336"/>
+      <c r="AA173" s="336"/>
+      <c r="AB173" s="336"/>
+      <c r="AC173" s="337"/>
     </row>
     <row r="174" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P174" s="228"/>
       <c r="Q174" s="228"/>
-      <c r="R174" s="395"/>
-      <c r="S174" s="395"/>
-      <c r="T174" s="395"/>
-      <c r="U174" s="395"/>
-      <c r="V174" s="395"/>
-      <c r="W174" s="395"/>
-      <c r="X174" s="395"/>
-      <c r="Y174" s="395"/>
-      <c r="Z174" s="395"/>
-      <c r="AA174" s="395"/>
-      <c r="AB174" s="395"/>
-      <c r="AC174" s="396"/>
+      <c r="R174" s="336"/>
+      <c r="S174" s="336"/>
+      <c r="T174" s="336"/>
+      <c r="U174" s="336"/>
+      <c r="V174" s="336"/>
+      <c r="W174" s="336"/>
+      <c r="X174" s="336"/>
+      <c r="Y174" s="336"/>
+      <c r="Z174" s="336"/>
+      <c r="AA174" s="336"/>
+      <c r="AB174" s="336"/>
+      <c r="AC174" s="337"/>
     </row>
     <row r="175" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P175" s="228"/>
       <c r="Q175" s="228"/>
-      <c r="R175" s="395"/>
-      <c r="S175" s="395"/>
-      <c r="T175" s="395"/>
-      <c r="U175" s="395"/>
-      <c r="V175" s="395"/>
-      <c r="W175" s="395"/>
-      <c r="X175" s="395"/>
-      <c r="Y175" s="395"/>
-      <c r="Z175" s="395"/>
-      <c r="AA175" s="395"/>
-      <c r="AB175" s="395"/>
-      <c r="AC175" s="396"/>
+      <c r="R175" s="336"/>
+      <c r="S175" s="336"/>
+      <c r="T175" s="336"/>
+      <c r="U175" s="336"/>
+      <c r="V175" s="336"/>
+      <c r="W175" s="336"/>
+      <c r="X175" s="336"/>
+      <c r="Y175" s="336"/>
+      <c r="Z175" s="336"/>
+      <c r="AA175" s="336"/>
+      <c r="AB175" s="336"/>
+      <c r="AC175" s="337"/>
     </row>
     <row r="176" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P176" s="228"/>
       <c r="Q176" s="228"/>
-      <c r="R176" s="395"/>
-      <c r="S176" s="395"/>
-      <c r="T176" s="395"/>
-      <c r="U176" s="395"/>
-      <c r="V176" s="395"/>
-      <c r="W176" s="395"/>
-      <c r="X176" s="395"/>
-      <c r="Y176" s="395"/>
-      <c r="Z176" s="395"/>
-      <c r="AA176" s="395"/>
-      <c r="AB176" s="395"/>
-      <c r="AC176" s="396"/>
+      <c r="R176" s="336"/>
+      <c r="S176" s="336"/>
+      <c r="T176" s="336"/>
+      <c r="U176" s="336"/>
+      <c r="V176" s="336"/>
+      <c r="W176" s="336"/>
+      <c r="X176" s="336"/>
+      <c r="Y176" s="336"/>
+      <c r="Z176" s="336"/>
+      <c r="AA176" s="336"/>
+      <c r="AB176" s="336"/>
+      <c r="AC176" s="337"/>
     </row>
     <row r="177" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P177" s="228"/>
       <c r="Q177" s="228"/>
-      <c r="R177" s="395"/>
-      <c r="S177" s="395"/>
-      <c r="T177" s="395"/>
-      <c r="U177" s="395"/>
-      <c r="V177" s="395"/>
-      <c r="W177" s="395"/>
-      <c r="X177" s="395"/>
-      <c r="Y177" s="395"/>
-      <c r="Z177" s="395"/>
-      <c r="AA177" s="395"/>
-      <c r="AB177" s="395"/>
-      <c r="AC177" s="396"/>
+      <c r="R177" s="336"/>
+      <c r="S177" s="336"/>
+      <c r="T177" s="336"/>
+      <c r="U177" s="336"/>
+      <c r="V177" s="336"/>
+      <c r="W177" s="336"/>
+      <c r="X177" s="336"/>
+      <c r="Y177" s="336"/>
+      <c r="Z177" s="336"/>
+      <c r="AA177" s="336"/>
+      <c r="AB177" s="336"/>
+      <c r="AC177" s="337"/>
     </row>
     <row r="178" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P178" s="228"/>
       <c r="Q178" s="228"/>
-      <c r="R178" s="395"/>
-      <c r="S178" s="395"/>
-      <c r="T178" s="395"/>
-      <c r="U178" s="395"/>
-      <c r="V178" s="395"/>
-      <c r="W178" s="395"/>
-      <c r="X178" s="395"/>
-      <c r="Y178" s="395"/>
-      <c r="Z178" s="395"/>
-      <c r="AA178" s="395"/>
-      <c r="AB178" s="395"/>
-      <c r="AC178" s="396"/>
+      <c r="R178" s="336"/>
+      <c r="S178" s="336"/>
+      <c r="T178" s="336"/>
+      <c r="U178" s="336"/>
+      <c r="V178" s="336"/>
+      <c r="W178" s="336"/>
+      <c r="X178" s="336"/>
+      <c r="Y178" s="336"/>
+      <c r="Z178" s="336"/>
+      <c r="AA178" s="336"/>
+      <c r="AB178" s="336"/>
+      <c r="AC178" s="337"/>
     </row>
     <row r="179" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P179" s="228"/>
       <c r="Q179" s="228"/>
-      <c r="R179" s="395"/>
-      <c r="S179" s="395"/>
-      <c r="T179" s="395"/>
-      <c r="U179" s="395"/>
-      <c r="V179" s="395"/>
-      <c r="W179" s="395"/>
-      <c r="X179" s="395"/>
-      <c r="Y179" s="395"/>
-      <c r="Z179" s="395"/>
-      <c r="AA179" s="395"/>
-      <c r="AB179" s="395"/>
-      <c r="AC179" s="396"/>
+      <c r="R179" s="336"/>
+      <c r="S179" s="336"/>
+      <c r="T179" s="336"/>
+      <c r="U179" s="336"/>
+      <c r="V179" s="336"/>
+      <c r="W179" s="336"/>
+      <c r="X179" s="336"/>
+      <c r="Y179" s="336"/>
+      <c r="Z179" s="336"/>
+      <c r="AA179" s="336"/>
+      <c r="AB179" s="336"/>
+      <c r="AC179" s="337"/>
     </row>
     <row r="180" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P180" s="228"/>
       <c r="Q180" s="228"/>
-      <c r="R180" s="395"/>
-      <c r="S180" s="395"/>
-      <c r="T180" s="395"/>
-      <c r="U180" s="395"/>
-      <c r="V180" s="395"/>
-      <c r="W180" s="395"/>
-      <c r="X180" s="395"/>
-      <c r="Y180" s="395"/>
-      <c r="Z180" s="395"/>
-      <c r="AA180" s="395"/>
-      <c r="AB180" s="395"/>
-      <c r="AC180" s="396"/>
+      <c r="R180" s="336"/>
+      <c r="S180" s="336"/>
+      <c r="T180" s="336"/>
+      <c r="U180" s="336"/>
+      <c r="V180" s="336"/>
+      <c r="W180" s="336"/>
+      <c r="X180" s="336"/>
+      <c r="Y180" s="336"/>
+      <c r="Z180" s="336"/>
+      <c r="AA180" s="336"/>
+      <c r="AB180" s="336"/>
+      <c r="AC180" s="337"/>
     </row>
     <row r="181" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P181" s="228"/>
       <c r="Q181" s="228"/>
-      <c r="R181" s="395"/>
-      <c r="S181" s="395"/>
-      <c r="T181" s="395"/>
-      <c r="U181" s="395"/>
-      <c r="V181" s="395"/>
-      <c r="W181" s="395"/>
-      <c r="X181" s="395"/>
-      <c r="Y181" s="395"/>
-      <c r="Z181" s="395"/>
-      <c r="AA181" s="395"/>
-      <c r="AB181" s="395"/>
-      <c r="AC181" s="396"/>
+      <c r="R181" s="336"/>
+      <c r="S181" s="336"/>
+      <c r="T181" s="336"/>
+      <c r="U181" s="336"/>
+      <c r="V181" s="336"/>
+      <c r="W181" s="336"/>
+      <c r="X181" s="336"/>
+      <c r="Y181" s="336"/>
+      <c r="Z181" s="336"/>
+      <c r="AA181" s="336"/>
+      <c r="AB181" s="336"/>
+      <c r="AC181" s="337"/>
     </row>
     <row r="182" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P182" s="228"/>
       <c r="Q182" s="228"/>
-      <c r="R182" s="395"/>
-      <c r="S182" s="395"/>
-      <c r="T182" s="395"/>
-      <c r="U182" s="395"/>
-      <c r="V182" s="395"/>
-      <c r="W182" s="395"/>
-      <c r="X182" s="395"/>
-      <c r="Y182" s="395"/>
-      <c r="Z182" s="395"/>
-      <c r="AA182" s="395"/>
-      <c r="AB182" s="395"/>
-      <c r="AC182" s="396"/>
+      <c r="R182" s="336"/>
+      <c r="S182" s="336"/>
+      <c r="T182" s="336"/>
+      <c r="U182" s="336"/>
+      <c r="V182" s="336"/>
+      <c r="W182" s="336"/>
+      <c r="X182" s="336"/>
+      <c r="Y182" s="336"/>
+      <c r="Z182" s="336"/>
+      <c r="AA182" s="336"/>
+      <c r="AB182" s="336"/>
+      <c r="AC182" s="337"/>
     </row>
     <row r="183" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P183" s="228"/>
       <c r="Q183" s="228"/>
-      <c r="R183" s="395"/>
-      <c r="S183" s="395"/>
-      <c r="T183" s="395"/>
-      <c r="U183" s="395"/>
-      <c r="V183" s="395"/>
-      <c r="W183" s="395"/>
-      <c r="X183" s="395"/>
-      <c r="Y183" s="395"/>
-      <c r="Z183" s="395"/>
-      <c r="AA183" s="395"/>
-      <c r="AB183" s="395"/>
-      <c r="AC183" s="396"/>
+      <c r="R183" s="336"/>
+      <c r="S183" s="336"/>
+      <c r="T183" s="336"/>
+      <c r="U183" s="336"/>
+      <c r="V183" s="336"/>
+      <c r="W183" s="336"/>
+      <c r="X183" s="336"/>
+      <c r="Y183" s="336"/>
+      <c r="Z183" s="336"/>
+      <c r="AA183" s="336"/>
+      <c r="AB183" s="336"/>
+      <c r="AC183" s="337"/>
     </row>
     <row r="184" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P184" s="228"/>
       <c r="Q184" s="228"/>
-      <c r="R184" s="395"/>
-      <c r="S184" s="395"/>
-      <c r="T184" s="395"/>
-      <c r="U184" s="395"/>
-      <c r="V184" s="395"/>
-      <c r="W184" s="395"/>
-      <c r="X184" s="395"/>
-      <c r="Y184" s="395"/>
-      <c r="Z184" s="395"/>
-      <c r="AA184" s="395"/>
-      <c r="AB184" s="395"/>
-      <c r="AC184" s="396"/>
+      <c r="R184" s="336"/>
+      <c r="S184" s="336"/>
+      <c r="T184" s="336"/>
+      <c r="U184" s="336"/>
+      <c r="V184" s="336"/>
+      <c r="W184" s="336"/>
+      <c r="X184" s="336"/>
+      <c r="Y184" s="336"/>
+      <c r="Z184" s="336"/>
+      <c r="AA184" s="336"/>
+      <c r="AB184" s="336"/>
+      <c r="AC184" s="337"/>
     </row>
     <row r="185" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P185" s="228"/>
       <c r="Q185" s="228"/>
-      <c r="R185" s="395"/>
-      <c r="S185" s="395"/>
-      <c r="T185" s="395"/>
-      <c r="U185" s="395"/>
-      <c r="V185" s="395"/>
-      <c r="W185" s="395"/>
-      <c r="X185" s="395"/>
-      <c r="Y185" s="395"/>
-      <c r="Z185" s="395"/>
-      <c r="AA185" s="395"/>
-      <c r="AB185" s="395"/>
-      <c r="AC185" s="396"/>
+      <c r="R185" s="336"/>
+      <c r="S185" s="336"/>
+      <c r="T185" s="336"/>
+      <c r="U185" s="336"/>
+      <c r="V185" s="336"/>
+      <c r="W185" s="336"/>
+      <c r="X185" s="336"/>
+      <c r="Y185" s="336"/>
+      <c r="Z185" s="336"/>
+      <c r="AA185" s="336"/>
+      <c r="AB185" s="336"/>
+      <c r="AC185" s="337"/>
     </row>
     <row r="186" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P186" s="228"/>
       <c r="Q186" s="228"/>
-      <c r="R186" s="395"/>
-      <c r="S186" s="395"/>
-      <c r="T186" s="395"/>
-      <c r="U186" s="395"/>
-      <c r="V186" s="395"/>
-      <c r="W186" s="395"/>
-      <c r="X186" s="395"/>
-      <c r="Y186" s="395"/>
-      <c r="Z186" s="395"/>
-      <c r="AA186" s="395"/>
-      <c r="AB186" s="395"/>
-      <c r="AC186" s="396"/>
+      <c r="R186" s="336"/>
+      <c r="S186" s="336"/>
+      <c r="T186" s="336"/>
+      <c r="U186" s="336"/>
+      <c r="V186" s="336"/>
+      <c r="W186" s="336"/>
+      <c r="X186" s="336"/>
+      <c r="Y186" s="336"/>
+      <c r="Z186" s="336"/>
+      <c r="AA186" s="336"/>
+      <c r="AB186" s="336"/>
+      <c r="AC186" s="337"/>
     </row>
     <row r="187" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P187" s="228"/>
       <c r="Q187" s="228"/>
-      <c r="R187" s="395"/>
-      <c r="S187" s="395"/>
-      <c r="T187" s="395"/>
-      <c r="U187" s="395"/>
-      <c r="V187" s="395"/>
-      <c r="W187" s="395"/>
-      <c r="X187" s="395"/>
-      <c r="Y187" s="395"/>
-      <c r="Z187" s="395"/>
-      <c r="AA187" s="395"/>
-      <c r="AB187" s="395"/>
-      <c r="AC187" s="396"/>
+      <c r="R187" s="336"/>
+      <c r="S187" s="336"/>
+      <c r="T187" s="336"/>
+      <c r="U187" s="336"/>
+      <c r="V187" s="336"/>
+      <c r="W187" s="336"/>
+      <c r="X187" s="336"/>
+      <c r="Y187" s="336"/>
+      <c r="Z187" s="336"/>
+      <c r="AA187" s="336"/>
+      <c r="AB187" s="336"/>
+      <c r="AC187" s="337"/>
     </row>
     <row r="188" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P188" s="228"/>
       <c r="Q188" s="228"/>
-      <c r="R188" s="395"/>
-      <c r="S188" s="395"/>
-      <c r="T188" s="395"/>
-      <c r="U188" s="395"/>
-      <c r="V188" s="395"/>
-      <c r="W188" s="395"/>
-      <c r="X188" s="395"/>
-      <c r="Y188" s="395"/>
-      <c r="Z188" s="395"/>
-      <c r="AA188" s="395"/>
-      <c r="AB188" s="395"/>
-      <c r="AC188" s="396"/>
+      <c r="R188" s="336"/>
+      <c r="S188" s="336"/>
+      <c r="T188" s="336"/>
+      <c r="U188" s="336"/>
+      <c r="V188" s="336"/>
+      <c r="W188" s="336"/>
+      <c r="X188" s="336"/>
+      <c r="Y188" s="336"/>
+      <c r="Z188" s="336"/>
+      <c r="AA188" s="336"/>
+      <c r="AB188" s="336"/>
+      <c r="AC188" s="337"/>
     </row>
     <row r="189" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P189" s="228"/>
       <c r="Q189" s="228"/>
-      <c r="R189" s="395"/>
-      <c r="S189" s="395"/>
-      <c r="T189" s="395"/>
-      <c r="U189" s="395"/>
-      <c r="V189" s="395"/>
-      <c r="W189" s="395"/>
-      <c r="X189" s="395"/>
-      <c r="Y189" s="395"/>
-      <c r="Z189" s="395"/>
-      <c r="AA189" s="395"/>
-      <c r="AB189" s="395"/>
-      <c r="AC189" s="396"/>
+      <c r="R189" s="336"/>
+      <c r="S189" s="336"/>
+      <c r="T189" s="336"/>
+      <c r="U189" s="336"/>
+      <c r="V189" s="336"/>
+      <c r="W189" s="336"/>
+      <c r="X189" s="336"/>
+      <c r="Y189" s="336"/>
+      <c r="Z189" s="336"/>
+      <c r="AA189" s="336"/>
+      <c r="AB189" s="336"/>
+      <c r="AC189" s="337"/>
     </row>
     <row r="190" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P190" s="228"/>
       <c r="Q190" s="228"/>
-      <c r="R190" s="395"/>
-      <c r="S190" s="395"/>
-      <c r="T190" s="395"/>
-      <c r="U190" s="395"/>
-      <c r="V190" s="395"/>
-      <c r="W190" s="395"/>
-      <c r="X190" s="395"/>
-      <c r="Y190" s="395"/>
-      <c r="Z190" s="395"/>
-      <c r="AA190" s="395"/>
-      <c r="AB190" s="395"/>
-      <c r="AC190" s="396"/>
+      <c r="R190" s="336"/>
+      <c r="S190" s="336"/>
+      <c r="T190" s="336"/>
+      <c r="U190" s="336"/>
+      <c r="V190" s="336"/>
+      <c r="W190" s="336"/>
+      <c r="X190" s="336"/>
+      <c r="Y190" s="336"/>
+      <c r="Z190" s="336"/>
+      <c r="AA190" s="336"/>
+      <c r="AB190" s="336"/>
+      <c r="AC190" s="337"/>
     </row>
     <row r="191" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P191" s="228"/>
       <c r="Q191" s="228"/>
-      <c r="R191" s="395"/>
-      <c r="S191" s="395"/>
-      <c r="T191" s="395"/>
-      <c r="U191" s="395"/>
-      <c r="V191" s="395"/>
-      <c r="W191" s="395"/>
-      <c r="X191" s="395"/>
-      <c r="Y191" s="395"/>
-      <c r="Z191" s="395"/>
-      <c r="AA191" s="395"/>
-      <c r="AB191" s="395"/>
-      <c r="AC191" s="396"/>
+      <c r="R191" s="336"/>
+      <c r="S191" s="336"/>
+      <c r="T191" s="336"/>
+      <c r="U191" s="336"/>
+      <c r="V191" s="336"/>
+      <c r="W191" s="336"/>
+      <c r="X191" s="336"/>
+      <c r="Y191" s="336"/>
+      <c r="Z191" s="336"/>
+      <c r="AA191" s="336"/>
+      <c r="AB191" s="336"/>
+      <c r="AC191" s="337"/>
     </row>
     <row r="192" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P192" s="228"/>
       <c r="Q192" s="228"/>
-      <c r="R192" s="395"/>
-      <c r="S192" s="395"/>
-      <c r="T192" s="395"/>
-      <c r="U192" s="395"/>
-      <c r="V192" s="395"/>
-      <c r="W192" s="395"/>
-      <c r="X192" s="395"/>
-      <c r="Y192" s="395"/>
-      <c r="Z192" s="395"/>
-      <c r="AA192" s="395"/>
-      <c r="AB192" s="395"/>
-      <c r="AC192" s="396"/>
+      <c r="R192" s="336"/>
+      <c r="S192" s="336"/>
+      <c r="T192" s="336"/>
+      <c r="U192" s="336"/>
+      <c r="V192" s="336"/>
+      <c r="W192" s="336"/>
+      <c r="X192" s="336"/>
+      <c r="Y192" s="336"/>
+      <c r="Z192" s="336"/>
+      <c r="AA192" s="336"/>
+      <c r="AB192" s="336"/>
+      <c r="AC192" s="337"/>
     </row>
     <row r="193" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P193" s="228"/>
       <c r="Q193" s="228"/>
-      <c r="R193" s="395"/>
-      <c r="S193" s="395"/>
-      <c r="T193" s="395"/>
-      <c r="U193" s="395"/>
-      <c r="V193" s="395"/>
-      <c r="W193" s="395"/>
-      <c r="X193" s="395"/>
-      <c r="Y193" s="395"/>
-      <c r="Z193" s="395"/>
-      <c r="AA193" s="395"/>
-      <c r="AB193" s="395"/>
-      <c r="AC193" s="396"/>
+      <c r="R193" s="336"/>
+      <c r="S193" s="336"/>
+      <c r="T193" s="336"/>
+      <c r="U193" s="336"/>
+      <c r="V193" s="336"/>
+      <c r="W193" s="336"/>
+      <c r="X193" s="336"/>
+      <c r="Y193" s="336"/>
+      <c r="Z193" s="336"/>
+      <c r="AA193" s="336"/>
+      <c r="AB193" s="336"/>
+      <c r="AC193" s="337"/>
     </row>
     <row r="194" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P194" s="228"/>
       <c r="Q194" s="228"/>
-      <c r="R194" s="395"/>
-      <c r="S194" s="395"/>
-      <c r="T194" s="395"/>
-      <c r="U194" s="395"/>
-      <c r="V194" s="395"/>
-      <c r="W194" s="395"/>
-      <c r="X194" s="395"/>
-      <c r="Y194" s="395"/>
-      <c r="Z194" s="395"/>
-      <c r="AA194" s="395"/>
-      <c r="AB194" s="395"/>
-      <c r="AC194" s="396"/>
+      <c r="R194" s="336"/>
+      <c r="S194" s="336"/>
+      <c r="T194" s="336"/>
+      <c r="U194" s="336"/>
+      <c r="V194" s="336"/>
+      <c r="W194" s="336"/>
+      <c r="X194" s="336"/>
+      <c r="Y194" s="336"/>
+      <c r="Z194" s="336"/>
+      <c r="AA194" s="336"/>
+      <c r="AB194" s="336"/>
+      <c r="AC194" s="337"/>
     </row>
     <row r="195" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P195" s="228"/>
       <c r="Q195" s="228"/>
-      <c r="R195" s="395"/>
-      <c r="S195" s="395"/>
-      <c r="T195" s="395"/>
-      <c r="U195" s="395"/>
-      <c r="V195" s="395"/>
-      <c r="W195" s="395"/>
-      <c r="X195" s="395"/>
-      <c r="Y195" s="395"/>
-      <c r="Z195" s="395"/>
-      <c r="AA195" s="395"/>
-      <c r="AB195" s="395"/>
-      <c r="AC195" s="396"/>
+      <c r="R195" s="336"/>
+      <c r="S195" s="336"/>
+      <c r="T195" s="336"/>
+      <c r="U195" s="336"/>
+      <c r="V195" s="336"/>
+      <c r="W195" s="336"/>
+      <c r="X195" s="336"/>
+      <c r="Y195" s="336"/>
+      <c r="Z195" s="336"/>
+      <c r="AA195" s="336"/>
+      <c r="AB195" s="336"/>
+      <c r="AC195" s="337"/>
     </row>
     <row r="196" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P196" s="228"/>
       <c r="Q196" s="228"/>
-      <c r="R196" s="395"/>
-      <c r="S196" s="395"/>
-      <c r="T196" s="395"/>
-      <c r="U196" s="395"/>
-      <c r="V196" s="395"/>
-      <c r="W196" s="395"/>
-      <c r="X196" s="395"/>
-      <c r="Y196" s="395"/>
-      <c r="Z196" s="395"/>
-      <c r="AA196" s="395"/>
-      <c r="AB196" s="395"/>
-      <c r="AC196" s="396"/>
+      <c r="R196" s="336"/>
+      <c r="S196" s="336"/>
+      <c r="T196" s="336"/>
+      <c r="U196" s="336"/>
+      <c r="V196" s="336"/>
+      <c r="W196" s="336"/>
+      <c r="X196" s="336"/>
+      <c r="Y196" s="336"/>
+      <c r="Z196" s="336"/>
+      <c r="AA196" s="336"/>
+      <c r="AB196" s="336"/>
+      <c r="AC196" s="337"/>
     </row>
     <row r="197" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P197" s="228"/>
       <c r="Q197" s="228"/>
-      <c r="R197" s="395"/>
-      <c r="S197" s="395"/>
-      <c r="T197" s="395"/>
-      <c r="U197" s="395"/>
-      <c r="V197" s="395"/>
-      <c r="W197" s="395"/>
-      <c r="X197" s="395"/>
-      <c r="Y197" s="395"/>
-      <c r="Z197" s="395"/>
-      <c r="AA197" s="395"/>
-      <c r="AB197" s="395"/>
-      <c r="AC197" s="396"/>
+      <c r="R197" s="336"/>
+      <c r="S197" s="336"/>
+      <c r="T197" s="336"/>
+      <c r="U197" s="336"/>
+      <c r="V197" s="336"/>
+      <c r="W197" s="336"/>
+      <c r="X197" s="336"/>
+      <c r="Y197" s="336"/>
+      <c r="Z197" s="336"/>
+      <c r="AA197" s="336"/>
+      <c r="AB197" s="336"/>
+      <c r="AC197" s="337"/>
     </row>
     <row r="198" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P198" s="228"/>
       <c r="Q198" s="228"/>
-      <c r="R198" s="395"/>
-      <c r="S198" s="395"/>
-      <c r="T198" s="395"/>
-      <c r="U198" s="395"/>
-      <c r="V198" s="395"/>
-      <c r="W198" s="395"/>
-      <c r="X198" s="395"/>
-      <c r="Y198" s="395"/>
-      <c r="Z198" s="395"/>
-      <c r="AA198" s="395"/>
-      <c r="AB198" s="395"/>
-      <c r="AC198" s="396"/>
+      <c r="R198" s="336"/>
+      <c r="S198" s="336"/>
+      <c r="T198" s="336"/>
+      <c r="U198" s="336"/>
+      <c r="V198" s="336"/>
+      <c r="W198" s="336"/>
+      <c r="X198" s="336"/>
+      <c r="Y198" s="336"/>
+      <c r="Z198" s="336"/>
+      <c r="AA198" s="336"/>
+      <c r="AB198" s="336"/>
+      <c r="AC198" s="337"/>
     </row>
     <row r="199" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P199" s="228"/>
       <c r="Q199" s="228"/>
-      <c r="R199" s="395"/>
-      <c r="S199" s="395"/>
-      <c r="T199" s="395"/>
-      <c r="U199" s="395"/>
-      <c r="V199" s="395"/>
-      <c r="W199" s="395"/>
-      <c r="X199" s="395"/>
-      <c r="Y199" s="395"/>
-      <c r="Z199" s="395"/>
-      <c r="AA199" s="395"/>
-      <c r="AB199" s="395"/>
-      <c r="AC199" s="396"/>
+      <c r="R199" s="336"/>
+      <c r="S199" s="336"/>
+      <c r="T199" s="336"/>
+      <c r="U199" s="336"/>
+      <c r="V199" s="336"/>
+      <c r="W199" s="336"/>
+      <c r="X199" s="336"/>
+      <c r="Y199" s="336"/>
+      <c r="Z199" s="336"/>
+      <c r="AA199" s="336"/>
+      <c r="AB199" s="336"/>
+      <c r="AC199" s="337"/>
     </row>
     <row r="200" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P200" s="228"/>
       <c r="Q200" s="228"/>
-      <c r="R200" s="395"/>
-      <c r="S200" s="395"/>
-      <c r="T200" s="395"/>
-      <c r="U200" s="395"/>
-      <c r="V200" s="395"/>
-      <c r="W200" s="395"/>
-      <c r="X200" s="395"/>
-      <c r="Y200" s="395"/>
-      <c r="Z200" s="395"/>
-      <c r="AA200" s="395"/>
-      <c r="AB200" s="395"/>
-      <c r="AC200" s="396"/>
+      <c r="R200" s="336"/>
+      <c r="S200" s="336"/>
+      <c r="T200" s="336"/>
+      <c r="U200" s="336"/>
+      <c r="V200" s="336"/>
+      <c r="W200" s="336"/>
+      <c r="X200" s="336"/>
+      <c r="Y200" s="336"/>
+      <c r="Z200" s="336"/>
+      <c r="AA200" s="336"/>
+      <c r="AB200" s="336"/>
+      <c r="AC200" s="337"/>
     </row>
     <row r="201" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P201" s="228"/>
       <c r="Q201" s="228"/>
-      <c r="R201" s="395"/>
-      <c r="S201" s="395"/>
-      <c r="T201" s="395"/>
-      <c r="U201" s="395"/>
-      <c r="V201" s="395"/>
-      <c r="W201" s="395"/>
-      <c r="X201" s="395"/>
-      <c r="Y201" s="395"/>
-      <c r="Z201" s="395"/>
-      <c r="AA201" s="395"/>
-      <c r="AB201" s="395"/>
-      <c r="AC201" s="396"/>
+      <c r="R201" s="336"/>
+      <c r="S201" s="336"/>
+      <c r="T201" s="336"/>
+      <c r="U201" s="336"/>
+      <c r="V201" s="336"/>
+      <c r="W201" s="336"/>
+      <c r="X201" s="336"/>
+      <c r="Y201" s="336"/>
+      <c r="Z201" s="336"/>
+      <c r="AA201" s="336"/>
+      <c r="AB201" s="336"/>
+      <c r="AC201" s="337"/>
     </row>
     <row r="202" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P202" s="228"/>
       <c r="Q202" s="228"/>
-      <c r="R202" s="395"/>
-      <c r="S202" s="395"/>
-      <c r="T202" s="395"/>
-      <c r="U202" s="395"/>
-      <c r="V202" s="395"/>
-      <c r="W202" s="395"/>
-      <c r="X202" s="395"/>
-      <c r="Y202" s="395"/>
-      <c r="Z202" s="395"/>
-      <c r="AA202" s="395"/>
-      <c r="AB202" s="395"/>
-      <c r="AC202" s="396"/>
+      <c r="R202" s="336"/>
+      <c r="S202" s="336"/>
+      <c r="T202" s="336"/>
+      <c r="U202" s="336"/>
+      <c r="V202" s="336"/>
+      <c r="W202" s="336"/>
+      <c r="X202" s="336"/>
+      <c r="Y202" s="336"/>
+      <c r="Z202" s="336"/>
+      <c r="AA202" s="336"/>
+      <c r="AB202" s="336"/>
+      <c r="AC202" s="337"/>
     </row>
     <row r="203" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P203" s="228"/>
       <c r="Q203" s="228"/>
-      <c r="R203" s="395"/>
-      <c r="S203" s="395"/>
-      <c r="T203" s="395"/>
-      <c r="U203" s="395"/>
-      <c r="V203" s="395"/>
-      <c r="W203" s="395"/>
-      <c r="X203" s="395"/>
-      <c r="Y203" s="395"/>
-      <c r="Z203" s="395"/>
-      <c r="AA203" s="395"/>
-      <c r="AB203" s="395"/>
-      <c r="AC203" s="396"/>
+      <c r="R203" s="336"/>
+      <c r="S203" s="336"/>
+      <c r="T203" s="336"/>
+      <c r="U203" s="336"/>
+      <c r="V203" s="336"/>
+      <c r="W203" s="336"/>
+      <c r="X203" s="336"/>
+      <c r="Y203" s="336"/>
+      <c r="Z203" s="336"/>
+      <c r="AA203" s="336"/>
+      <c r="AB203" s="336"/>
+      <c r="AC203" s="337"/>
     </row>
     <row r="204" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P204" s="228"/>
       <c r="Q204" s="228"/>
-      <c r="R204" s="395"/>
-      <c r="S204" s="395"/>
-      <c r="T204" s="395"/>
-      <c r="U204" s="395"/>
-      <c r="V204" s="395"/>
-      <c r="W204" s="395"/>
-      <c r="X204" s="395"/>
-      <c r="Y204" s="395"/>
-      <c r="Z204" s="395"/>
-      <c r="AA204" s="395"/>
-      <c r="AB204" s="395"/>
-      <c r="AC204" s="396"/>
+      <c r="R204" s="336"/>
+      <c r="S204" s="336"/>
+      <c r="T204" s="336"/>
+      <c r="U204" s="336"/>
+      <c r="V204" s="336"/>
+      <c r="W204" s="336"/>
+      <c r="X204" s="336"/>
+      <c r="Y204" s="336"/>
+      <c r="Z204" s="336"/>
+      <c r="AA204" s="336"/>
+      <c r="AB204" s="336"/>
+      <c r="AC204" s="337"/>
     </row>
     <row r="205" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P205" s="228"/>
       <c r="Q205" s="228"/>
-      <c r="R205" s="395"/>
-      <c r="S205" s="395"/>
-      <c r="T205" s="395"/>
-      <c r="U205" s="395"/>
-      <c r="V205" s="395"/>
-      <c r="W205" s="395"/>
-      <c r="X205" s="395"/>
-      <c r="Y205" s="395"/>
-      <c r="Z205" s="395"/>
-      <c r="AA205" s="395"/>
-      <c r="AB205" s="395"/>
-      <c r="AC205" s="396"/>
+      <c r="R205" s="336"/>
+      <c r="S205" s="336"/>
+      <c r="T205" s="336"/>
+      <c r="U205" s="336"/>
+      <c r="V205" s="336"/>
+      <c r="W205" s="336"/>
+      <c r="X205" s="336"/>
+      <c r="Y205" s="336"/>
+      <c r="Z205" s="336"/>
+      <c r="AA205" s="336"/>
+      <c r="AB205" s="336"/>
+      <c r="AC205" s="337"/>
     </row>
     <row r="206" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P206" s="228"/>
       <c r="Q206" s="228"/>
-      <c r="R206" s="395"/>
-      <c r="S206" s="395"/>
-      <c r="T206" s="395"/>
-      <c r="U206" s="395"/>
-      <c r="V206" s="395"/>
-      <c r="W206" s="395"/>
-      <c r="X206" s="395"/>
-      <c r="Y206" s="395"/>
-      <c r="Z206" s="395"/>
-      <c r="AA206" s="395"/>
-      <c r="AB206" s="395"/>
-      <c r="AC206" s="396"/>
+      <c r="R206" s="336"/>
+      <c r="S206" s="336"/>
+      <c r="T206" s="336"/>
+      <c r="U206" s="336"/>
+      <c r="V206" s="336"/>
+      <c r="W206" s="336"/>
+      <c r="X206" s="336"/>
+      <c r="Y206" s="336"/>
+      <c r="Z206" s="336"/>
+      <c r="AA206" s="336"/>
+      <c r="AB206" s="336"/>
+      <c r="AC206" s="337"/>
     </row>
     <row r="207" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P207" s="228"/>
       <c r="Q207" s="228"/>
-      <c r="R207" s="395"/>
-      <c r="S207" s="395"/>
-      <c r="T207" s="395"/>
-      <c r="U207" s="395"/>
-      <c r="V207" s="395"/>
-      <c r="W207" s="395"/>
-      <c r="X207" s="395"/>
-      <c r="Y207" s="395"/>
-      <c r="Z207" s="395"/>
-      <c r="AA207" s="395"/>
-      <c r="AB207" s="395"/>
-      <c r="AC207" s="396"/>
+      <c r="R207" s="336"/>
+      <c r="S207" s="336"/>
+      <c r="T207" s="336"/>
+      <c r="U207" s="336"/>
+      <c r="V207" s="336"/>
+      <c r="W207" s="336"/>
+      <c r="X207" s="336"/>
+      <c r="Y207" s="336"/>
+      <c r="Z207" s="336"/>
+      <c r="AA207" s="336"/>
+      <c r="AB207" s="336"/>
+      <c r="AC207" s="337"/>
     </row>
     <row r="208" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P208" s="228"/>
       <c r="Q208" s="228"/>
-      <c r="R208" s="395"/>
-      <c r="S208" s="395"/>
-      <c r="T208" s="395"/>
-      <c r="U208" s="395"/>
-      <c r="V208" s="395"/>
-      <c r="W208" s="395"/>
-      <c r="X208" s="395"/>
-      <c r="Y208" s="395"/>
-      <c r="Z208" s="395"/>
-      <c r="AA208" s="395"/>
-      <c r="AB208" s="395"/>
-      <c r="AC208" s="396"/>
+      <c r="R208" s="336"/>
+      <c r="S208" s="336"/>
+      <c r="T208" s="336"/>
+      <c r="U208" s="336"/>
+      <c r="V208" s="336"/>
+      <c r="W208" s="336"/>
+      <c r="X208" s="336"/>
+      <c r="Y208" s="336"/>
+      <c r="Z208" s="336"/>
+      <c r="AA208" s="336"/>
+      <c r="AB208" s="336"/>
+      <c r="AC208" s="337"/>
     </row>
     <row r="209" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P209" s="228"/>
       <c r="Q209" s="228"/>
-      <c r="R209" s="395"/>
-      <c r="S209" s="395"/>
-      <c r="T209" s="395"/>
-      <c r="U209" s="395"/>
-      <c r="V209" s="395"/>
-      <c r="W209" s="395"/>
-      <c r="X209" s="395"/>
-      <c r="Y209" s="395"/>
-      <c r="Z209" s="395"/>
-      <c r="AA209" s="395"/>
-      <c r="AB209" s="395"/>
-      <c r="AC209" s="396"/>
+      <c r="R209" s="336"/>
+      <c r="S209" s="336"/>
+      <c r="T209" s="336"/>
+      <c r="U209" s="336"/>
+      <c r="V209" s="336"/>
+      <c r="W209" s="336"/>
+      <c r="X209" s="336"/>
+      <c r="Y209" s="336"/>
+      <c r="Z209" s="336"/>
+      <c r="AA209" s="336"/>
+      <c r="AB209" s="336"/>
+      <c r="AC209" s="337"/>
     </row>
     <row r="210" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P210" s="228"/>
       <c r="Q210" s="228"/>
-      <c r="R210" s="395"/>
-      <c r="S210" s="395"/>
-      <c r="T210" s="395"/>
-      <c r="U210" s="395"/>
-      <c r="V210" s="395"/>
-      <c r="W210" s="395"/>
-      <c r="X210" s="395"/>
-      <c r="Y210" s="395"/>
-      <c r="Z210" s="395"/>
-      <c r="AA210" s="395"/>
-      <c r="AB210" s="395"/>
-      <c r="AC210" s="396"/>
+      <c r="R210" s="336"/>
+      <c r="S210" s="336"/>
+      <c r="T210" s="336"/>
+      <c r="U210" s="336"/>
+      <c r="V210" s="336"/>
+      <c r="W210" s="336"/>
+      <c r="X210" s="336"/>
+      <c r="Y210" s="336"/>
+      <c r="Z210" s="336"/>
+      <c r="AA210" s="336"/>
+      <c r="AB210" s="336"/>
+      <c r="AC210" s="337"/>
     </row>
     <row r="211" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P211" s="228"/>
       <c r="Q211" s="228"/>
-      <c r="R211" s="395"/>
-      <c r="S211" s="395"/>
-      <c r="T211" s="395"/>
-      <c r="U211" s="395"/>
-      <c r="V211" s="395"/>
-      <c r="W211" s="395"/>
-      <c r="X211" s="395"/>
-      <c r="Y211" s="395"/>
-      <c r="Z211" s="395"/>
-      <c r="AA211" s="395"/>
-      <c r="AB211" s="395"/>
-      <c r="AC211" s="396"/>
+      <c r="R211" s="336"/>
+      <c r="S211" s="336"/>
+      <c r="T211" s="336"/>
+      <c r="U211" s="336"/>
+      <c r="V211" s="336"/>
+      <c r="W211" s="336"/>
+      <c r="X211" s="336"/>
+      <c r="Y211" s="336"/>
+      <c r="Z211" s="336"/>
+      <c r="AA211" s="336"/>
+      <c r="AB211" s="336"/>
+      <c r="AC211" s="337"/>
     </row>
     <row r="212" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P212" s="228"/>
       <c r="Q212" s="228"/>
-      <c r="R212" s="395"/>
-      <c r="S212" s="395"/>
-      <c r="T212" s="395"/>
-      <c r="U212" s="395"/>
-      <c r="V212" s="395"/>
-      <c r="W212" s="395"/>
-      <c r="X212" s="395"/>
-      <c r="Y212" s="395"/>
-      <c r="Z212" s="395"/>
-      <c r="AA212" s="395"/>
-      <c r="AB212" s="395"/>
-      <c r="AC212" s="396"/>
+      <c r="R212" s="336"/>
+      <c r="S212" s="336"/>
+      <c r="T212" s="336"/>
+      <c r="U212" s="336"/>
+      <c r="V212" s="336"/>
+      <c r="W212" s="336"/>
+      <c r="X212" s="336"/>
+      <c r="Y212" s="336"/>
+      <c r="Z212" s="336"/>
+      <c r="AA212" s="336"/>
+      <c r="AB212" s="336"/>
+      <c r="AC212" s="337"/>
     </row>
     <row r="213" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P213" s="228"/>
       <c r="Q213" s="228"/>
-      <c r="R213" s="395"/>
-      <c r="S213" s="395"/>
-      <c r="T213" s="395"/>
-      <c r="U213" s="395"/>
-      <c r="V213" s="395"/>
-      <c r="W213" s="395"/>
-      <c r="X213" s="395"/>
-      <c r="Y213" s="395"/>
-      <c r="Z213" s="395"/>
-      <c r="AA213" s="395"/>
-      <c r="AB213" s="395"/>
-      <c r="AC213" s="396"/>
+      <c r="R213" s="336"/>
+      <c r="S213" s="336"/>
+      <c r="T213" s="336"/>
+      <c r="U213" s="336"/>
+      <c r="V213" s="336"/>
+      <c r="W213" s="336"/>
+      <c r="X213" s="336"/>
+      <c r="Y213" s="336"/>
+      <c r="Z213" s="336"/>
+      <c r="AA213" s="336"/>
+      <c r="AB213" s="336"/>
+      <c r="AC213" s="337"/>
     </row>
     <row r="214" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P214" s="228"/>
       <c r="Q214" s="228"/>
-      <c r="R214" s="395"/>
-      <c r="S214" s="395"/>
-      <c r="T214" s="395"/>
-      <c r="U214" s="395"/>
-      <c r="V214" s="395"/>
-      <c r="W214" s="395"/>
-      <c r="X214" s="395"/>
-      <c r="Y214" s="395"/>
-      <c r="Z214" s="395"/>
-      <c r="AA214" s="395"/>
-      <c r="AB214" s="395"/>
-      <c r="AC214" s="396"/>
+      <c r="R214" s="336"/>
+      <c r="S214" s="336"/>
+      <c r="T214" s="336"/>
+      <c r="U214" s="336"/>
+      <c r="V214" s="336"/>
+      <c r="W214" s="336"/>
+      <c r="X214" s="336"/>
+      <c r="Y214" s="336"/>
+      <c r="Z214" s="336"/>
+      <c r="AA214" s="336"/>
+      <c r="AB214" s="336"/>
+      <c r="AC214" s="337"/>
     </row>
     <row r="215" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P215" s="228"/>
       <c r="Q215" s="228"/>
-      <c r="R215" s="395"/>
-      <c r="S215" s="395"/>
-      <c r="T215" s="395"/>
-      <c r="U215" s="395"/>
-      <c r="V215" s="395"/>
-      <c r="W215" s="395"/>
-      <c r="X215" s="395"/>
-      <c r="Y215" s="395"/>
-      <c r="Z215" s="395"/>
-      <c r="AA215" s="395"/>
-      <c r="AB215" s="395"/>
-      <c r="AC215" s="396"/>
+      <c r="R215" s="336"/>
+      <c r="S215" s="336"/>
+      <c r="T215" s="336"/>
+      <c r="U215" s="336"/>
+      <c r="V215" s="336"/>
+      <c r="W215" s="336"/>
+      <c r="X215" s="336"/>
+      <c r="Y215" s="336"/>
+      <c r="Z215" s="336"/>
+      <c r="AA215" s="336"/>
+      <c r="AB215" s="336"/>
+      <c r="AC215" s="337"/>
     </row>
     <row r="216" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P216" s="228"/>
       <c r="Q216" s="228"/>
-      <c r="R216" s="395"/>
-      <c r="S216" s="395"/>
-      <c r="T216" s="395"/>
-      <c r="U216" s="395"/>
-      <c r="V216" s="395"/>
-      <c r="W216" s="395"/>
-      <c r="X216" s="395"/>
-      <c r="Y216" s="395"/>
-      <c r="Z216" s="395"/>
-      <c r="AA216" s="395"/>
-      <c r="AB216" s="395"/>
-      <c r="AC216" s="396"/>
+      <c r="R216" s="336"/>
+      <c r="S216" s="336"/>
+      <c r="T216" s="336"/>
+      <c r="U216" s="336"/>
+      <c r="V216" s="336"/>
+      <c r="W216" s="336"/>
+      <c r="X216" s="336"/>
+      <c r="Y216" s="336"/>
+      <c r="Z216" s="336"/>
+      <c r="AA216" s="336"/>
+      <c r="AB216" s="336"/>
+      <c r="AC216" s="337"/>
     </row>
     <row r="217" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P217" s="228"/>
       <c r="Q217" s="228"/>
-      <c r="R217" s="395"/>
-      <c r="S217" s="395"/>
-      <c r="T217" s="395"/>
-      <c r="U217" s="395"/>
-      <c r="V217" s="395"/>
-      <c r="W217" s="395"/>
-      <c r="X217" s="395"/>
-      <c r="Y217" s="395"/>
-      <c r="Z217" s="395"/>
-      <c r="AA217" s="395"/>
-      <c r="AB217" s="395"/>
-      <c r="AC217" s="396"/>
+      <c r="R217" s="336"/>
+      <c r="S217" s="336"/>
+      <c r="T217" s="336"/>
+      <c r="U217" s="336"/>
+      <c r="V217" s="336"/>
+      <c r="W217" s="336"/>
+      <c r="X217" s="336"/>
+      <c r="Y217" s="336"/>
+      <c r="Z217" s="336"/>
+      <c r="AA217" s="336"/>
+      <c r="AB217" s="336"/>
+      <c r="AC217" s="337"/>
     </row>
     <row r="218" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P218" s="228"/>
       <c r="Q218" s="228"/>
-      <c r="R218" s="395"/>
-      <c r="S218" s="395"/>
-      <c r="T218" s="395"/>
-      <c r="U218" s="395"/>
-      <c r="V218" s="395"/>
-      <c r="W218" s="395"/>
-      <c r="X218" s="395"/>
-      <c r="Y218" s="395"/>
-      <c r="Z218" s="395"/>
-      <c r="AA218" s="395"/>
-      <c r="AB218" s="395"/>
-      <c r="AC218" s="396"/>
+      <c r="R218" s="336"/>
+      <c r="S218" s="336"/>
+      <c r="T218" s="336"/>
+      <c r="U218" s="336"/>
+      <c r="V218" s="336"/>
+      <c r="W218" s="336"/>
+      <c r="X218" s="336"/>
+      <c r="Y218" s="336"/>
+      <c r="Z218" s="336"/>
+      <c r="AA218" s="336"/>
+      <c r="AB218" s="336"/>
+      <c r="AC218" s="337"/>
     </row>
     <row r="219" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P219" s="228"/>
       <c r="Q219" s="228"/>
-      <c r="R219" s="395"/>
-      <c r="S219" s="395"/>
-      <c r="T219" s="395"/>
-      <c r="U219" s="395"/>
-      <c r="V219" s="395"/>
-      <c r="W219" s="395"/>
-      <c r="X219" s="395"/>
-      <c r="Y219" s="395"/>
-      <c r="Z219" s="395"/>
-      <c r="AA219" s="395"/>
-      <c r="AB219" s="395"/>
-      <c r="AC219" s="396"/>
+      <c r="R219" s="336"/>
+      <c r="S219" s="336"/>
+      <c r="T219" s="336"/>
+      <c r="U219" s="336"/>
+      <c r="V219" s="336"/>
+      <c r="W219" s="336"/>
+      <c r="X219" s="336"/>
+      <c r="Y219" s="336"/>
+      <c r="Z219" s="336"/>
+      <c r="AA219" s="336"/>
+      <c r="AB219" s="336"/>
+      <c r="AC219" s="337"/>
     </row>
     <row r="220" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P220" s="228"/>
       <c r="Q220" s="228"/>
-      <c r="R220" s="395"/>
-      <c r="S220" s="395"/>
-      <c r="T220" s="395"/>
-      <c r="U220" s="395"/>
-      <c r="V220" s="395"/>
-      <c r="W220" s="395"/>
-      <c r="X220" s="395"/>
-      <c r="Y220" s="395"/>
-      <c r="Z220" s="395"/>
-      <c r="AA220" s="395"/>
-      <c r="AB220" s="395"/>
-      <c r="AC220" s="396"/>
+      <c r="R220" s="336"/>
+      <c r="S220" s="336"/>
+      <c r="T220" s="336"/>
+      <c r="U220" s="336"/>
+      <c r="V220" s="336"/>
+      <c r="W220" s="336"/>
+      <c r="X220" s="336"/>
+      <c r="Y220" s="336"/>
+      <c r="Z220" s="336"/>
+      <c r="AA220" s="336"/>
+      <c r="AB220" s="336"/>
+      <c r="AC220" s="337"/>
     </row>
     <row r="221" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P221" s="228"/>
       <c r="Q221" s="228"/>
-      <c r="R221" s="395"/>
-      <c r="S221" s="395"/>
-      <c r="T221" s="395"/>
-      <c r="U221" s="395"/>
-      <c r="V221" s="395"/>
-      <c r="W221" s="395"/>
-      <c r="X221" s="395"/>
-      <c r="Y221" s="395"/>
-      <c r="Z221" s="395"/>
-      <c r="AA221" s="395"/>
-      <c r="AB221" s="395"/>
-      <c r="AC221" s="396"/>
+      <c r="R221" s="336"/>
+      <c r="S221" s="336"/>
+      <c r="T221" s="336"/>
+      <c r="U221" s="336"/>
+      <c r="V221" s="336"/>
+      <c r="W221" s="336"/>
+      <c r="X221" s="336"/>
+      <c r="Y221" s="336"/>
+      <c r="Z221" s="336"/>
+      <c r="AA221" s="336"/>
+      <c r="AB221" s="336"/>
+      <c r="AC221" s="337"/>
     </row>
     <row r="222" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P222" s="228"/>
       <c r="Q222" s="228"/>
-      <c r="R222" s="395"/>
-      <c r="S222" s="395"/>
-      <c r="T222" s="395"/>
-      <c r="U222" s="395"/>
-      <c r="V222" s="395"/>
-      <c r="W222" s="395"/>
-      <c r="X222" s="395"/>
-      <c r="Y222" s="395"/>
-      <c r="Z222" s="395"/>
-      <c r="AA222" s="395"/>
-      <c r="AB222" s="395"/>
-      <c r="AC222" s="396"/>
+      <c r="R222" s="336"/>
+      <c r="S222" s="336"/>
+      <c r="T222" s="336"/>
+      <c r="U222" s="336"/>
+      <c r="V222" s="336"/>
+      <c r="W222" s="336"/>
+      <c r="X222" s="336"/>
+      <c r="Y222" s="336"/>
+      <c r="Z222" s="336"/>
+      <c r="AA222" s="336"/>
+      <c r="AB222" s="336"/>
+      <c r="AC222" s="337"/>
     </row>
     <row r="223" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P223" s="228"/>
       <c r="Q223" s="228"/>
-      <c r="R223" s="395"/>
-      <c r="S223" s="395"/>
-      <c r="T223" s="395"/>
-      <c r="U223" s="395"/>
-      <c r="V223" s="395"/>
-      <c r="W223" s="395"/>
-      <c r="X223" s="395"/>
-      <c r="Y223" s="395"/>
-      <c r="Z223" s="395"/>
-      <c r="AA223" s="395"/>
-      <c r="AB223" s="395"/>
-      <c r="AC223" s="396"/>
+      <c r="R223" s="336"/>
+      <c r="S223" s="336"/>
+      <c r="T223" s="336"/>
+      <c r="U223" s="336"/>
+      <c r="V223" s="336"/>
+      <c r="W223" s="336"/>
+      <c r="X223" s="336"/>
+      <c r="Y223" s="336"/>
+      <c r="Z223" s="336"/>
+      <c r="AA223" s="336"/>
+      <c r="AB223" s="336"/>
+      <c r="AC223" s="337"/>
     </row>
     <row r="224" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P224" s="228"/>
       <c r="Q224" s="228"/>
-      <c r="R224" s="395"/>
-      <c r="S224" s="395"/>
-      <c r="T224" s="395"/>
-      <c r="U224" s="395"/>
-      <c r="V224" s="395"/>
-      <c r="W224" s="395"/>
-      <c r="X224" s="395"/>
-      <c r="Y224" s="395"/>
-      <c r="Z224" s="395"/>
-      <c r="AA224" s="395"/>
-      <c r="AB224" s="395"/>
-      <c r="AC224" s="396"/>
+      <c r="R224" s="336"/>
+      <c r="S224" s="336"/>
+      <c r="T224" s="336"/>
+      <c r="U224" s="336"/>
+      <c r="V224" s="336"/>
+      <c r="W224" s="336"/>
+      <c r="X224" s="336"/>
+      <c r="Y224" s="336"/>
+      <c r="Z224" s="336"/>
+      <c r="AA224" s="336"/>
+      <c r="AB224" s="336"/>
+      <c r="AC224" s="337"/>
     </row>
     <row r="225" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P225" s="228"/>
       <c r="Q225" s="228"/>
-      <c r="R225" s="395"/>
-      <c r="S225" s="395"/>
-      <c r="T225" s="395"/>
-      <c r="U225" s="395"/>
-      <c r="V225" s="395"/>
-      <c r="W225" s="395"/>
-      <c r="X225" s="395"/>
-      <c r="Y225" s="395"/>
-      <c r="Z225" s="395"/>
-      <c r="AA225" s="395"/>
-      <c r="AB225" s="395"/>
-      <c r="AC225" s="396"/>
+      <c r="R225" s="336"/>
+      <c r="S225" s="336"/>
+      <c r="T225" s="336"/>
+      <c r="U225" s="336"/>
+      <c r="V225" s="336"/>
+      <c r="W225" s="336"/>
+      <c r="X225" s="336"/>
+      <c r="Y225" s="336"/>
+      <c r="Z225" s="336"/>
+      <c r="AA225" s="336"/>
+      <c r="AB225" s="336"/>
+      <c r="AC225" s="337"/>
     </row>
     <row r="226" spans="16:29" ht="23.25" x14ac:dyDescent="0.35">
       <c r="P226" s="228"/>
       <c r="Q226" s="228"/>
-      <c r="R226" s="395"/>
-      <c r="S226" s="395"/>
-      <c r="T226" s="395"/>
-      <c r="U226" s="395"/>
-      <c r="V226" s="395"/>
-      <c r="W226" s="395"/>
-      <c r="X226" s="395"/>
-      <c r="Y226" s="395"/>
-      <c r="Z226" s="395"/>
-      <c r="AA226" s="395"/>
-      <c r="AB226" s="395"/>
-      <c r="AC226" s="396"/>
+      <c r="R226" s="336"/>
+      <c r="S226" s="336"/>
+      <c r="T226" s="336"/>
+      <c r="U226" s="336"/>
+      <c r="V226" s="336"/>
+      <c r="W226" s="336"/>
+      <c r="X226" s="336"/>
+      <c r="Y226" s="336"/>
+      <c r="Z226" s="336"/>
+      <c r="AA226" s="336"/>
+      <c r="AB226" s="336"/>
+      <c r="AC226" s="337"/>
     </row>
     <row r="227" spans="16:29" x14ac:dyDescent="0.35">
       <c r="P227" s="228"/>
@@ -18448,15 +18448,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="356" t="s">
+      <c r="F1" s="380" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="356"/>
-      <c r="H1" s="356"/>
-      <c r="I1" s="356"/>
-      <c r="J1" s="356"/>
-      <c r="K1" s="356"/>
-      <c r="L1" s="356"/>
+      <c r="G1" s="380"/>
+      <c r="H1" s="380"/>
+      <c r="I1" s="380"/>
+      <c r="J1" s="380"/>
+      <c r="K1" s="380"/>
+      <c r="L1" s="380"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -18545,22 +18545,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="357" t="s">
+      <c r="D6" s="381" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="358"/>
-      <c r="F6" s="358"/>
-      <c r="G6" s="358"/>
-      <c r="H6" s="359"/>
+      <c r="E6" s="382"/>
+      <c r="F6" s="382"/>
+      <c r="G6" s="382"/>
+      <c r="H6" s="383"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="357" t="s">
+      <c r="M6" s="381" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="358"/>
-      <c r="O6" s="358"/>
-      <c r="P6" s="358"/>
-      <c r="Q6" s="359"/>
+      <c r="N6" s="382"/>
+      <c r="O6" s="382"/>
+      <c r="P6" s="382"/>
+      <c r="Q6" s="383"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -18578,10 +18578,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="360" t="s">
+      <c r="F7" s="384" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="361"/>
+      <c r="G7" s="385"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -18604,10 +18604,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="360" t="s">
+      <c r="P7" s="384" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="361"/>
+      <c r="Q7" s="385"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -18684,7 +18684,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="348" t="s">
+      <c r="B9" s="372" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -18718,33 +18718,33 @@
         <f t="shared" ref="L9:L22" si="0">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="339">
+      <c r="M9" s="363">
         <v>20</v>
       </c>
-      <c r="N9" s="351" t="s">
+      <c r="N9" s="375" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="339">
+      <c r="O9" s="363">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="339">
+      <c r="P9" s="363">
         <v>3</v>
       </c>
-      <c r="Q9" s="339">
+      <c r="Q9" s="363">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="339">
+      <c r="R9" s="363">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="339"/>
-      <c r="T9" s="342">
+      <c r="S9" s="363"/>
+      <c r="T9" s="366">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="339">
+      <c r="U9" s="363">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -18769,7 +18769,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="349"/>
+      <c r="B10" s="373"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -18801,15 +18801,15 @@
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="340"/>
-      <c r="N10" s="352"/>
-      <c r="O10" s="340"/>
-      <c r="P10" s="340"/>
-      <c r="Q10" s="340"/>
-      <c r="R10" s="340"/>
-      <c r="S10" s="340"/>
-      <c r="T10" s="343"/>
-      <c r="U10" s="340"/>
+      <c r="M10" s="364"/>
+      <c r="N10" s="376"/>
+      <c r="O10" s="364"/>
+      <c r="P10" s="364"/>
+      <c r="Q10" s="364"/>
+      <c r="R10" s="364"/>
+      <c r="S10" s="364"/>
+      <c r="T10" s="367"/>
+      <c r="U10" s="364"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -18817,10 +18817,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="339" t="s">
+      <c r="A11" s="363" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="349"/>
+      <c r="B11" s="373"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -18831,15 +18831,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="340"/>
-      <c r="N11" s="352"/>
-      <c r="O11" s="340"/>
-      <c r="P11" s="340"/>
-      <c r="Q11" s="340"/>
-      <c r="R11" s="340"/>
-      <c r="S11" s="340"/>
-      <c r="T11" s="343"/>
-      <c r="U11" s="340"/>
+      <c r="M11" s="364"/>
+      <c r="N11" s="376"/>
+      <c r="O11" s="364"/>
+      <c r="P11" s="364"/>
+      <c r="Q11" s="364"/>
+      <c r="R11" s="364"/>
+      <c r="S11" s="364"/>
+      <c r="T11" s="367"/>
+      <c r="U11" s="364"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -18858,8 +18858,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="341"/>
-      <c r="B12" s="350"/>
+      <c r="A12" s="365"/>
+      <c r="B12" s="374"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -18870,15 +18870,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="341"/>
-      <c r="N12" s="353"/>
-      <c r="O12" s="341"/>
-      <c r="P12" s="341"/>
-      <c r="Q12" s="341"/>
-      <c r="R12" s="341"/>
-      <c r="S12" s="341"/>
-      <c r="T12" s="344"/>
-      <c r="U12" s="341"/>
+      <c r="M12" s="365"/>
+      <c r="N12" s="377"/>
+      <c r="O12" s="365"/>
+      <c r="P12" s="365"/>
+      <c r="Q12" s="365"/>
+      <c r="R12" s="365"/>
+      <c r="S12" s="365"/>
+      <c r="T12" s="368"/>
+      <c r="U12" s="365"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -18894,7 +18894,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="348" t="s">
+      <c r="B13" s="372" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -18928,33 +18928,33 @@
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="339">
+      <c r="M13" s="363">
         <v>80</v>
       </c>
-      <c r="N13" s="351" t="s">
+      <c r="N13" s="375" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="339">
+      <c r="O13" s="363">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="339">
+      <c r="P13" s="363">
         <v>2</v>
       </c>
-      <c r="Q13" s="339">
+      <c r="Q13" s="363">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="339">
+      <c r="R13" s="363">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="339"/>
-      <c r="T13" s="342">
+      <c r="S13" s="363"/>
+      <c r="T13" s="366">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="339">
+      <c r="U13" s="363">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -18977,7 +18977,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="349"/>
+      <c r="B14" s="373"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -19009,15 +19009,15 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="340"/>
-      <c r="N14" s="352"/>
-      <c r="O14" s="340"/>
-      <c r="P14" s="340"/>
-      <c r="Q14" s="340"/>
-      <c r="R14" s="340"/>
-      <c r="S14" s="340"/>
-      <c r="T14" s="343"/>
-      <c r="U14" s="340"/>
+      <c r="M14" s="364"/>
+      <c r="N14" s="376"/>
+      <c r="O14" s="364"/>
+      <c r="P14" s="364"/>
+      <c r="Q14" s="364"/>
+      <c r="R14" s="364"/>
+      <c r="S14" s="364"/>
+      <c r="T14" s="367"/>
+      <c r="U14" s="364"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -19025,10 +19025,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="354" t="s">
+      <c r="A15" s="378" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="349"/>
+      <c r="B15" s="373"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -19039,15 +19039,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="340"/>
-      <c r="N15" s="352"/>
-      <c r="O15" s="340"/>
-      <c r="P15" s="340"/>
-      <c r="Q15" s="340"/>
-      <c r="R15" s="340"/>
-      <c r="S15" s="340"/>
-      <c r="T15" s="343"/>
-      <c r="U15" s="340"/>
+      <c r="M15" s="364"/>
+      <c r="N15" s="376"/>
+      <c r="O15" s="364"/>
+      <c r="P15" s="364"/>
+      <c r="Q15" s="364"/>
+      <c r="R15" s="364"/>
+      <c r="S15" s="364"/>
+      <c r="T15" s="367"/>
+      <c r="U15" s="364"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -19057,8 +19057,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="355"/>
-      <c r="B16" s="350"/>
+      <c r="A16" s="379"/>
+      <c r="B16" s="374"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -19069,15 +19069,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="341"/>
-      <c r="N16" s="353"/>
-      <c r="O16" s="341"/>
-      <c r="P16" s="341"/>
-      <c r="Q16" s="341"/>
-      <c r="R16" s="341"/>
-      <c r="S16" s="341"/>
-      <c r="T16" s="344"/>
-      <c r="U16" s="341"/>
+      <c r="M16" s="365"/>
+      <c r="N16" s="377"/>
+      <c r="O16" s="365"/>
+      <c r="P16" s="365"/>
+      <c r="Q16" s="365"/>
+      <c r="R16" s="365"/>
+      <c r="S16" s="365"/>
+      <c r="T16" s="368"/>
+      <c r="U16" s="365"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -19088,7 +19088,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="348" t="s">
+      <c r="B17" s="372" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -19122,33 +19122,33 @@
         <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="339">
+      <c r="M17" s="363">
         <v>70</v>
       </c>
-      <c r="N17" s="351" t="s">
+      <c r="N17" s="375" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="339">
+      <c r="O17" s="363">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="339">
+      <c r="P17" s="363">
         <v>2</v>
       </c>
-      <c r="Q17" s="339">
+      <c r="Q17" s="363">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="339">
+      <c r="R17" s="363">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="339"/>
-      <c r="T17" s="342">
+      <c r="S17" s="363"/>
+      <c r="T17" s="366">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="339">
+      <c r="U17" s="363">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -19167,7 +19167,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="349"/>
+      <c r="B18" s="373"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -19199,24 +19199,24 @@
         <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="340"/>
-      <c r="N18" s="352"/>
-      <c r="O18" s="340"/>
-      <c r="P18" s="340"/>
-      <c r="Q18" s="340"/>
-      <c r="R18" s="340"/>
-      <c r="S18" s="340"/>
-      <c r="T18" s="343"/>
-      <c r="U18" s="340"/>
+      <c r="M18" s="364"/>
+      <c r="N18" s="376"/>
+      <c r="O18" s="364"/>
+      <c r="P18" s="364"/>
+      <c r="Q18" s="364"/>
+      <c r="R18" s="364"/>
+      <c r="S18" s="364"/>
+      <c r="T18" s="367"/>
+      <c r="U18" s="364"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="339" t="s">
+      <c r="A19" s="363" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="349"/>
+      <c r="B19" s="373"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -19227,22 +19227,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="340"/>
-      <c r="N19" s="352"/>
-      <c r="O19" s="340"/>
-      <c r="P19" s="340"/>
-      <c r="Q19" s="340"/>
-      <c r="R19" s="340"/>
-      <c r="S19" s="340"/>
-      <c r="T19" s="343"/>
-      <c r="U19" s="340"/>
+      <c r="M19" s="364"/>
+      <c r="N19" s="376"/>
+      <c r="O19" s="364"/>
+      <c r="P19" s="364"/>
+      <c r="Q19" s="364"/>
+      <c r="R19" s="364"/>
+      <c r="S19" s="364"/>
+      <c r="T19" s="367"/>
+      <c r="U19" s="364"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="341"/>
-      <c r="B20" s="350"/>
+      <c r="A20" s="365"/>
+      <c r="B20" s="374"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -19253,15 +19253,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="341"/>
-      <c r="N20" s="353"/>
-      <c r="O20" s="341"/>
-      <c r="P20" s="341"/>
-      <c r="Q20" s="341"/>
-      <c r="R20" s="341"/>
-      <c r="S20" s="341"/>
-      <c r="T20" s="344"/>
-      <c r="U20" s="341"/>
+      <c r="M20" s="365"/>
+      <c r="N20" s="377"/>
+      <c r="O20" s="365"/>
+      <c r="P20" s="365"/>
+      <c r="Q20" s="365"/>
+      <c r="R20" s="365"/>
+      <c r="S20" s="365"/>
+      <c r="T20" s="368"/>
+      <c r="U20" s="365"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -19270,7 +19270,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="348" t="s">
+      <c r="B21" s="372" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -19304,33 +19304,33 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="339">
+      <c r="M21" s="363">
         <v>60</v>
       </c>
-      <c r="N21" s="351" t="s">
+      <c r="N21" s="375" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="339">
+      <c r="O21" s="363">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="339">
+      <c r="P21" s="363">
         <v>3</v>
       </c>
-      <c r="Q21" s="339">
+      <c r="Q21" s="363">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="339">
+      <c r="R21" s="363">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="339"/>
-      <c r="T21" s="342">
+      <c r="S21" s="363"/>
+      <c r="T21" s="366">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="339">
+      <c r="U21" s="363">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -19347,7 +19347,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="349"/>
+      <c r="B22" s="373"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -19379,24 +19379,24 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="340"/>
-      <c r="N22" s="352"/>
-      <c r="O22" s="340"/>
-      <c r="P22" s="340"/>
-      <c r="Q22" s="340"/>
-      <c r="R22" s="340"/>
-      <c r="S22" s="340"/>
-      <c r="T22" s="343"/>
-      <c r="U22" s="340"/>
+      <c r="M22" s="364"/>
+      <c r="N22" s="376"/>
+      <c r="O22" s="364"/>
+      <c r="P22" s="364"/>
+      <c r="Q22" s="364"/>
+      <c r="R22" s="364"/>
+      <c r="S22" s="364"/>
+      <c r="T22" s="367"/>
+      <c r="U22" s="364"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="345" t="s">
+      <c r="A23" s="369" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="349"/>
+      <c r="B23" s="373"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -19407,22 +19407,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="340"/>
-      <c r="N23" s="352"/>
-      <c r="O23" s="340"/>
-      <c r="P23" s="340"/>
-      <c r="Q23" s="340"/>
-      <c r="R23" s="340"/>
-      <c r="S23" s="340"/>
-      <c r="T23" s="343"/>
-      <c r="U23" s="340"/>
+      <c r="M23" s="364"/>
+      <c r="N23" s="376"/>
+      <c r="O23" s="364"/>
+      <c r="P23" s="364"/>
+      <c r="Q23" s="364"/>
+      <c r="R23" s="364"/>
+      <c r="S23" s="364"/>
+      <c r="T23" s="367"/>
+      <c r="U23" s="364"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="346"/>
-      <c r="B24" s="350"/>
+      <c r="A24" s="370"/>
+      <c r="B24" s="374"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -19433,15 +19433,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="341"/>
-      <c r="N24" s="353"/>
-      <c r="O24" s="341"/>
-      <c r="P24" s="341"/>
-      <c r="Q24" s="341"/>
-      <c r="R24" s="341"/>
-      <c r="S24" s="341"/>
-      <c r="T24" s="344"/>
-      <c r="U24" s="341"/>
+      <c r="M24" s="365"/>
+      <c r="N24" s="377"/>
+      <c r="O24" s="365"/>
+      <c r="P24" s="365"/>
+      <c r="Q24" s="365"/>
+      <c r="R24" s="365"/>
+      <c r="S24" s="365"/>
+      <c r="T24" s="368"/>
+      <c r="U24" s="365"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -19467,13 +19467,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="347" t="s">
+      <c r="H27" s="371" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="347"/>
-      <c r="J27" s="347"/>
-      <c r="K27" s="347"/>
-      <c r="L27" s="347"/>
+      <c r="I27" s="371"/>
+      <c r="J27" s="371"/>
+      <c r="K27" s="371"/>
+      <c r="L27" s="371"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -19753,19 +19753,19 @@
     <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="337" t="s">
+      <c r="D40" s="361" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="337"/>
-      <c r="F40" s="337"/>
-      <c r="G40" s="337"/>
-      <c r="H40" s="337"/>
-      <c r="I40" s="337" t="s">
+      <c r="E40" s="361"/>
+      <c r="F40" s="361"/>
+      <c r="G40" s="361"/>
+      <c r="H40" s="361"/>
+      <c r="I40" s="361" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="337"/>
-      <c r="K40" s="337"/>
-      <c r="L40" s="337"/>
+      <c r="J40" s="361"/>
+      <c r="K40" s="361"/>
+      <c r="L40" s="361"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -19889,19 +19889,19 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="332"/>
+      <c r="B42" s="356"/>
       <c r="C42" s="110"/>
       <c r="D42" s="111"/>
       <c r="E42" s="111"/>
       <c r="F42" s="125"/>
       <c r="G42" s="125"/>
-      <c r="H42" s="333"/>
+      <c r="H42" s="357"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="125"/>
       <c r="L42" s="125"/>
-      <c r="M42" s="333"/>
-      <c r="N42" s="374"/>
+      <c r="M42" s="357"/>
+      <c r="N42" s="398"/>
       <c r="P42" s="91"/>
       <c r="Q42" s="91"/>
       <c r="U42" s="64"/>
@@ -19947,19 +19947,19 @@
       <c r="AN42" s="88"/>
     </row>
     <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="332"/>
+      <c r="B43" s="356"/>
       <c r="C43" s="110"/>
       <c r="D43" s="125"/>
       <c r="E43" s="111"/>
       <c r="F43" s="125"/>
       <c r="G43" s="103"/>
-      <c r="H43" s="333"/>
+      <c r="H43" s="357"/>
       <c r="I43" s="111"/>
       <c r="J43" s="111"/>
       <c r="K43" s="103"/>
       <c r="L43" s="103"/>
-      <c r="M43" s="333"/>
-      <c r="N43" s="333"/>
+      <c r="M43" s="357"/>
+      <c r="N43" s="357"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -20005,19 +20005,19 @@
       <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="332"/>
+      <c r="B44" s="356"/>
       <c r="C44" s="110"/>
       <c r="D44" s="111"/>
       <c r="E44" s="111"/>
       <c r="F44" s="125"/>
       <c r="G44" s="125"/>
-      <c r="H44" s="333"/>
+      <c r="H44" s="357"/>
       <c r="I44" s="111"/>
       <c r="J44" s="111"/>
       <c r="K44" s="125"/>
       <c r="L44" s="125"/>
-      <c r="M44" s="333"/>
-      <c r="N44" s="333"/>
+      <c r="M44" s="357"/>
+      <c r="N44" s="357"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -20063,19 +20063,19 @@
       <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="332"/>
+      <c r="B45" s="356"/>
       <c r="C45" s="110"/>
       <c r="D45" s="111"/>
       <c r="E45" s="111"/>
       <c r="F45" s="125"/>
       <c r="G45" s="125"/>
-      <c r="H45" s="333"/>
+      <c r="H45" s="357"/>
       <c r="I45" s="111"/>
       <c r="J45" s="111"/>
       <c r="K45" s="125"/>
       <c r="L45" s="125"/>
-      <c r="M45" s="333"/>
-      <c r="N45" s="333"/>
+      <c r="M45" s="357"/>
+      <c r="N45" s="357"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -20121,19 +20121,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="332"/>
+      <c r="B46" s="356"/>
       <c r="C46" s="110"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="125"/>
       <c r="G46" s="125"/>
-      <c r="H46" s="333"/>
+      <c r="H46" s="357"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="125"/>
       <c r="L46" s="125"/>
-      <c r="M46" s="333"/>
-      <c r="N46" s="375"/>
+      <c r="M46" s="357"/>
+      <c r="N46" s="399"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -20179,19 +20179,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="332"/>
+      <c r="B47" s="356"/>
       <c r="C47" s="110"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="333"/>
+      <c r="H47" s="357"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="333"/>
-      <c r="N47" s="335"/>
+      <c r="M47" s="357"/>
+      <c r="N47" s="359"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -20239,19 +20239,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="332"/>
+      <c r="B48" s="356"/>
       <c r="C48" s="110"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="333"/>
+      <c r="H48" s="357"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="333"/>
-      <c r="N48" s="335"/>
+      <c r="M48" s="357"/>
+      <c r="N48" s="359"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -20299,19 +20299,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="332"/>
+      <c r="B49" s="356"/>
       <c r="C49" s="110"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="333"/>
+      <c r="H49" s="357"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="333"/>
-      <c r="N49" s="335"/>
+      <c r="M49" s="357"/>
+      <c r="N49" s="359"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -20359,19 +20359,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="327"/>
+      <c r="B50" s="351"/>
       <c r="C50" s="112"/>
       <c r="D50" s="113"/>
       <c r="E50" s="113"/>
       <c r="F50" s="113"/>
       <c r="G50" s="113"/>
-      <c r="H50" s="328"/>
+      <c r="H50" s="352"/>
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
       <c r="L50" s="113"/>
-      <c r="M50" s="328"/>
-      <c r="N50" s="376"/>
+      <c r="M50" s="352"/>
+      <c r="N50" s="400"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -20392,19 +20392,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="327"/>
+      <c r="B51" s="351"/>
       <c r="C51" s="112"/>
       <c r="D51" s="113"/>
       <c r="E51" s="113"/>
       <c r="F51" s="113"/>
       <c r="G51" s="113"/>
-      <c r="H51" s="328"/>
+      <c r="H51" s="352"/>
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
       <c r="L51" s="113"/>
-      <c r="M51" s="328"/>
-      <c r="N51" s="330"/>
+      <c r="M51" s="352"/>
+      <c r="N51" s="354"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -20435,19 +20435,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="327"/>
+      <c r="B52" s="351"/>
       <c r="C52" s="112"/>
       <c r="D52" s="113"/>
       <c r="E52" s="113"/>
       <c r="F52" s="113"/>
       <c r="G52" s="113"/>
-      <c r="H52" s="328"/>
+      <c r="H52" s="352"/>
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
       <c r="L52" s="113"/>
-      <c r="M52" s="328"/>
-      <c r="N52" s="330"/>
+      <c r="M52" s="352"/>
+      <c r="N52" s="354"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -20511,19 +20511,19 @@
       </c>
     </row>
     <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="327"/>
+      <c r="B53" s="351"/>
       <c r="C53" s="112"/>
       <c r="D53" s="113"/>
       <c r="E53" s="113"/>
       <c r="F53" s="113"/>
       <c r="G53" s="113"/>
-      <c r="H53" s="328"/>
+      <c r="H53" s="352"/>
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
       <c r="L53" s="113"/>
-      <c r="M53" s="328"/>
-      <c r="N53" s="330"/>
+      <c r="M53" s="352"/>
+      <c r="N53" s="354"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -20572,19 +20572,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="327"/>
+      <c r="B54" s="351"/>
       <c r="C54" s="112"/>
       <c r="D54" s="113"/>
       <c r="E54" s="113"/>
       <c r="F54" s="113"/>
       <c r="G54" s="113"/>
-      <c r="H54" s="328"/>
+      <c r="H54" s="352"/>
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
       <c r="L54" s="113"/>
-      <c r="M54" s="328"/>
-      <c r="N54" s="369"/>
+      <c r="M54" s="352"/>
+      <c r="N54" s="393"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -20631,19 +20631,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="327"/>
+      <c r="B55" s="351"/>
       <c r="C55" s="112"/>
       <c r="D55" s="113"/>
       <c r="E55" s="113"/>
       <c r="F55" s="113"/>
       <c r="G55" s="113"/>
-      <c r="H55" s="328"/>
+      <c r="H55" s="352"/>
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
       <c r="L55" s="113"/>
-      <c r="M55" s="328"/>
-      <c r="N55" s="330"/>
+      <c r="M55" s="352"/>
+      <c r="N55" s="354"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -20690,19 +20690,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="327"/>
+      <c r="B56" s="351"/>
       <c r="C56" s="112"/>
       <c r="D56" s="113"/>
       <c r="E56" s="113"/>
       <c r="F56" s="113"/>
       <c r="G56" s="113"/>
-      <c r="H56" s="328"/>
+      <c r="H56" s="352"/>
       <c r="I56" s="113"/>
       <c r="J56" s="113"/>
       <c r="K56" s="113"/>
       <c r="L56" s="113"/>
-      <c r="M56" s="328"/>
-      <c r="N56" s="330"/>
+      <c r="M56" s="352"/>
+      <c r="N56" s="354"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -20749,19 +20749,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="327"/>
+      <c r="B57" s="351"/>
       <c r="C57" s="112"/>
       <c r="D57" s="113"/>
       <c r="E57" s="113"/>
       <c r="F57" s="113"/>
       <c r="G57" s="113"/>
-      <c r="H57" s="328"/>
+      <c r="H57" s="352"/>
       <c r="I57" s="113"/>
       <c r="J57" s="113"/>
       <c r="K57" s="113"/>
       <c r="L57" s="113"/>
-      <c r="M57" s="328"/>
-      <c r="N57" s="330"/>
+      <c r="M57" s="352"/>
+      <c r="N57" s="354"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -20808,19 +20808,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="322"/>
+      <c r="B58" s="346"/>
       <c r="C58" s="114"/>
       <c r="D58" s="115"/>
       <c r="E58" s="115"/>
       <c r="F58" s="115"/>
       <c r="G58" s="115"/>
-      <c r="H58" s="323"/>
+      <c r="H58" s="347"/>
       <c r="I58" s="115"/>
       <c r="J58" s="115"/>
       <c r="K58" s="115"/>
       <c r="L58" s="115"/>
-      <c r="M58" s="323"/>
-      <c r="N58" s="370"/>
+      <c r="M58" s="347"/>
+      <c r="N58" s="394"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -20867,19 +20867,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="322"/>
+      <c r="B59" s="346"/>
       <c r="C59" s="114"/>
       <c r="D59" s="115"/>
       <c r="E59" s="115"/>
       <c r="F59" s="115"/>
       <c r="G59" s="115"/>
-      <c r="H59" s="323"/>
+      <c r="H59" s="347"/>
       <c r="I59" s="115"/>
       <c r="J59" s="115"/>
       <c r="K59" s="115"/>
       <c r="L59" s="115"/>
-      <c r="M59" s="323"/>
-      <c r="N59" s="325"/>
+      <c r="M59" s="347"/>
+      <c r="N59" s="349"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -20926,19 +20926,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="322"/>
+      <c r="B60" s="346"/>
       <c r="C60" s="114"/>
       <c r="D60" s="115"/>
       <c r="E60" s="115"/>
       <c r="F60" s="115"/>
       <c r="G60" s="115"/>
-      <c r="H60" s="323"/>
+      <c r="H60" s="347"/>
       <c r="I60" s="115"/>
       <c r="J60" s="115"/>
       <c r="K60" s="115"/>
       <c r="L60" s="115"/>
-      <c r="M60" s="323"/>
-      <c r="N60" s="325"/>
+      <c r="M60" s="347"/>
+      <c r="N60" s="349"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -20985,247 +20985,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="322"/>
+      <c r="B61" s="346"/>
       <c r="C61" s="114"/>
       <c r="D61" s="115"/>
       <c r="E61" s="115"/>
       <c r="F61" s="115"/>
       <c r="G61" s="115"/>
-      <c r="H61" s="323"/>
+      <c r="H61" s="347"/>
       <c r="I61" s="115"/>
       <c r="J61" s="115"/>
       <c r="K61" s="115"/>
       <c r="L61" s="115"/>
-      <c r="M61" s="323"/>
-      <c r="N61" s="325"/>
+      <c r="M61" s="347"/>
+      <c r="N61" s="349"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="322"/>
+      <c r="B62" s="346"/>
       <c r="C62" s="114"/>
       <c r="D62" s="115"/>
       <c r="E62" s="115"/>
       <c r="F62" s="115"/>
       <c r="G62" s="115"/>
-      <c r="H62" s="323"/>
+      <c r="H62" s="347"/>
       <c r="I62" s="115"/>
       <c r="J62" s="115"/>
       <c r="K62" s="115"/>
       <c r="L62" s="115"/>
-      <c r="M62" s="323"/>
-      <c r="N62" s="371"/>
+      <c r="M62" s="347"/>
+      <c r="N62" s="395"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="322"/>
+      <c r="B63" s="346"/>
       <c r="C63" s="114"/>
       <c r="D63" s="115"/>
       <c r="E63" s="115"/>
       <c r="F63" s="115"/>
       <c r="G63" s="115"/>
-      <c r="H63" s="323"/>
+      <c r="H63" s="347"/>
       <c r="I63" s="115"/>
       <c r="J63" s="115"/>
       <c r="K63" s="115"/>
       <c r="L63" s="115"/>
-      <c r="M63" s="323"/>
-      <c r="N63" s="325"/>
+      <c r="M63" s="347"/>
+      <c r="N63" s="349"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="322"/>
+      <c r="B64" s="346"/>
       <c r="C64" s="114"/>
       <c r="D64" s="115"/>
       <c r="E64" s="115"/>
       <c r="F64" s="115"/>
       <c r="G64" s="115"/>
-      <c r="H64" s="323"/>
+      <c r="H64" s="347"/>
       <c r="I64" s="115"/>
       <c r="J64" s="115"/>
       <c r="K64" s="115"/>
       <c r="L64" s="115"/>
-      <c r="M64" s="323"/>
-      <c r="N64" s="325"/>
+      <c r="M64" s="347"/>
+      <c r="N64" s="349"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="322"/>
+      <c r="B65" s="346"/>
       <c r="C65" s="114"/>
       <c r="D65" s="115"/>
       <c r="E65" s="115"/>
       <c r="F65" s="115"/>
       <c r="G65" s="115"/>
-      <c r="H65" s="323"/>
+      <c r="H65" s="347"/>
       <c r="I65" s="115"/>
       <c r="J65" s="115"/>
       <c r="K65" s="115"/>
       <c r="L65" s="115"/>
-      <c r="M65" s="323"/>
-      <c r="N65" s="325"/>
+      <c r="M65" s="347"/>
+      <c r="N65" s="349"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="318"/>
+      <c r="B66" s="342"/>
       <c r="C66" s="128"/>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
       <c r="F66" s="116"/>
       <c r="G66" s="116"/>
-      <c r="H66" s="319"/>
+      <c r="H66" s="343"/>
       <c r="I66" s="116"/>
       <c r="J66" s="116"/>
       <c r="K66" s="116"/>
       <c r="L66" s="116"/>
-      <c r="M66" s="319"/>
-      <c r="N66" s="372"/>
+      <c r="M66" s="343"/>
+      <c r="N66" s="396"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="318"/>
+      <c r="B67" s="342"/>
       <c r="C67" s="128"/>
       <c r="D67" s="116"/>
       <c r="E67" s="116"/>
       <c r="F67" s="116"/>
       <c r="G67" s="116"/>
-      <c r="H67" s="319"/>
+      <c r="H67" s="343"/>
       <c r="I67" s="116"/>
       <c r="J67" s="116"/>
       <c r="K67" s="116"/>
       <c r="L67" s="116"/>
-      <c r="M67" s="319"/>
-      <c r="N67" s="321"/>
+      <c r="M67" s="343"/>
+      <c r="N67" s="345"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="318"/>
+      <c r="B68" s="342"/>
       <c r="C68" s="128"/>
       <c r="D68" s="116"/>
       <c r="E68" s="116"/>
       <c r="F68" s="116"/>
       <c r="G68" s="116"/>
-      <c r="H68" s="319"/>
+      <c r="H68" s="343"/>
       <c r="I68" s="116"/>
       <c r="J68" s="116"/>
       <c r="K68" s="116"/>
       <c r="L68" s="116"/>
-      <c r="M68" s="319"/>
-      <c r="N68" s="321"/>
+      <c r="M68" s="343"/>
+      <c r="N68" s="345"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="318"/>
+      <c r="B69" s="342"/>
       <c r="C69" s="128"/>
       <c r="D69" s="116"/>
       <c r="E69" s="116"/>
       <c r="F69" s="116"/>
       <c r="G69" s="116"/>
-      <c r="H69" s="319"/>
+      <c r="H69" s="343"/>
       <c r="I69" s="116"/>
       <c r="J69" s="116"/>
       <c r="K69" s="116"/>
       <c r="L69" s="116"/>
-      <c r="M69" s="319"/>
-      <c r="N69" s="321"/>
+      <c r="M69" s="343"/>
+      <c r="N69" s="345"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="318"/>
+      <c r="B70" s="342"/>
       <c r="C70" s="128"/>
       <c r="D70" s="116"/>
       <c r="E70" s="116"/>
       <c r="F70" s="116"/>
       <c r="G70" s="116"/>
-      <c r="H70" s="319"/>
+      <c r="H70" s="343"/>
       <c r="I70" s="116"/>
       <c r="J70" s="116"/>
       <c r="K70" s="116"/>
       <c r="L70" s="116"/>
-      <c r="M70" s="319"/>
-      <c r="N70" s="373"/>
+      <c r="M70" s="343"/>
+      <c r="N70" s="397"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="318"/>
+      <c r="B71" s="342"/>
       <c r="C71" s="128"/>
       <c r="D71" s="116"/>
       <c r="E71" s="116"/>
       <c r="F71" s="116"/>
       <c r="G71" s="116"/>
-      <c r="H71" s="319"/>
+      <c r="H71" s="343"/>
       <c r="I71" s="116"/>
       <c r="J71" s="116"/>
       <c r="K71" s="116"/>
       <c r="L71" s="116"/>
-      <c r="M71" s="319"/>
-      <c r="N71" s="321"/>
+      <c r="M71" s="343"/>
+      <c r="N71" s="345"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="318"/>
+      <c r="B72" s="342"/>
       <c r="C72" s="128"/>
       <c r="D72" s="116"/>
       <c r="E72" s="116"/>
       <c r="F72" s="116"/>
       <c r="G72" s="116"/>
-      <c r="H72" s="319"/>
+      <c r="H72" s="343"/>
       <c r="I72" s="116"/>
       <c r="J72" s="116"/>
       <c r="K72" s="116"/>
       <c r="L72" s="116"/>
-      <c r="M72" s="319"/>
-      <c r="N72" s="321"/>
+      <c r="M72" s="343"/>
+      <c r="N72" s="345"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="318"/>
+      <c r="B73" s="342"/>
       <c r="C73" s="128"/>
       <c r="D73" s="116"/>
       <c r="E73" s="116"/>
       <c r="F73" s="116"/>
       <c r="G73" s="116"/>
-      <c r="H73" s="319"/>
+      <c r="H73" s="343"/>
       <c r="I73" s="116"/>
       <c r="J73" s="116"/>
       <c r="K73" s="116"/>
       <c r="L73" s="116"/>
-      <c r="M73" s="319"/>
-      <c r="N73" s="321"/>
+      <c r="M73" s="343"/>
+      <c r="N73" s="345"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
@@ -850,10 +850,10 @@
     <t>Tenant ID:</t>
   </si>
   <si>
-    <t>Manual</t>
-  </si>
-  <si>
     <t>Solid</t>
+  </si>
+  <si>
+    <t>Campaign</t>
   </si>
 </sst>
 </file>
@@ -9534,7 +9534,7 @@
   <dimension ref="A1:AU434"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -10511,10 +10511,10 @@
     </row>
     <row r="40" spans="1:41" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="314" t="s">
+        <v>246</v>
+      </c>
+      <c r="B40" s="315" t="s">
         <v>245</v>
-      </c>
-      <c r="B40" s="315" t="s">
-        <v>246</v>
       </c>
       <c r="D40" s="104"/>
       <c r="E40" s="105"/>

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
@@ -850,10 +850,10 @@
     <t>Tenant ID:</t>
   </si>
   <si>
+    <t>Manual</t>
+  </si>
+  <si>
     <t>Solid</t>
-  </si>
-  <si>
-    <t>Campaign</t>
   </si>
 </sst>
 </file>
@@ -2474,53 +2474,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="25" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2530,23 +2483,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2569,30 +2522,77 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="115" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2614,14 +2614,14 @@
     <xf numFmtId="3" fontId="25" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="79" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="83" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5041,15 +5041,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="380" t="s">
+      <c r="F1" s="345" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="380"/>
-      <c r="H1" s="380"/>
-      <c r="I1" s="380"/>
-      <c r="J1" s="380"/>
-      <c r="K1" s="380"/>
-      <c r="L1" s="380"/>
+      <c r="G1" s="345"/>
+      <c r="H1" s="345"/>
+      <c r="I1" s="345"/>
+      <c r="J1" s="345"/>
+      <c r="K1" s="345"/>
+      <c r="L1" s="345"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -5138,22 +5138,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="381" t="s">
+      <c r="D6" s="346" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="382"/>
-      <c r="F6" s="382"/>
-      <c r="G6" s="382"/>
-      <c r="H6" s="383"/>
+      <c r="E6" s="347"/>
+      <c r="F6" s="347"/>
+      <c r="G6" s="347"/>
+      <c r="H6" s="348"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="381" t="s">
+      <c r="M6" s="346" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="382"/>
-      <c r="O6" s="382"/>
-      <c r="P6" s="382"/>
-      <c r="Q6" s="383"/>
+      <c r="N6" s="347"/>
+      <c r="O6" s="347"/>
+      <c r="P6" s="347"/>
+      <c r="Q6" s="348"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -5171,10 +5171,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="384" t="s">
+      <c r="F7" s="349" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="385"/>
+      <c r="G7" s="350"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -5197,10 +5197,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="384" t="s">
+      <c r="P7" s="349" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="385"/>
+      <c r="Q7" s="350"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -5277,7 +5277,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="372" t="s">
+      <c r="B9" s="351" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -5311,33 +5311,33 @@
         <f t="shared" ref="L9:L22" si="0">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="363">
+      <c r="M9" s="342">
         <v>20</v>
       </c>
-      <c r="N9" s="375" t="s">
+      <c r="N9" s="354" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="363">
+      <c r="O9" s="342">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="363">
+      <c r="P9" s="342">
         <v>3</v>
       </c>
-      <c r="Q9" s="363">
+      <c r="Q9" s="342">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="363">
+      <c r="R9" s="342">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="363"/>
-      <c r="T9" s="366">
+      <c r="S9" s="342"/>
+      <c r="T9" s="357">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="363">
+      <c r="U9" s="342">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -5362,7 +5362,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="373"/>
+      <c r="B10" s="352"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -5394,15 +5394,15 @@
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="364"/>
-      <c r="N10" s="376"/>
-      <c r="O10" s="364"/>
-      <c r="P10" s="364"/>
-      <c r="Q10" s="364"/>
-      <c r="R10" s="364"/>
-      <c r="S10" s="364"/>
-      <c r="T10" s="367"/>
-      <c r="U10" s="364"/>
+      <c r="M10" s="343"/>
+      <c r="N10" s="355"/>
+      <c r="O10" s="343"/>
+      <c r="P10" s="343"/>
+      <c r="Q10" s="343"/>
+      <c r="R10" s="343"/>
+      <c r="S10" s="343"/>
+      <c r="T10" s="358"/>
+      <c r="U10" s="343"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -5410,10 +5410,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="363" t="s">
+      <c r="A11" s="342" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="373"/>
+      <c r="B11" s="352"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -5424,15 +5424,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="364"/>
-      <c r="N11" s="376"/>
-      <c r="O11" s="364"/>
-      <c r="P11" s="364"/>
-      <c r="Q11" s="364"/>
-      <c r="R11" s="364"/>
-      <c r="S11" s="364"/>
-      <c r="T11" s="367"/>
-      <c r="U11" s="364"/>
+      <c r="M11" s="343"/>
+      <c r="N11" s="355"/>
+      <c r="O11" s="343"/>
+      <c r="P11" s="343"/>
+      <c r="Q11" s="343"/>
+      <c r="R11" s="343"/>
+      <c r="S11" s="343"/>
+      <c r="T11" s="358"/>
+      <c r="U11" s="343"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -5451,8 +5451,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="365"/>
-      <c r="B12" s="374"/>
+      <c r="A12" s="344"/>
+      <c r="B12" s="353"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -5463,15 +5463,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="365"/>
-      <c r="N12" s="377"/>
-      <c r="O12" s="365"/>
-      <c r="P12" s="365"/>
-      <c r="Q12" s="365"/>
-      <c r="R12" s="365"/>
-      <c r="S12" s="365"/>
-      <c r="T12" s="368"/>
-      <c r="U12" s="365"/>
+      <c r="M12" s="344"/>
+      <c r="N12" s="356"/>
+      <c r="O12" s="344"/>
+      <c r="P12" s="344"/>
+      <c r="Q12" s="344"/>
+      <c r="R12" s="344"/>
+      <c r="S12" s="344"/>
+      <c r="T12" s="359"/>
+      <c r="U12" s="344"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -5487,7 +5487,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="372" t="s">
+      <c r="B13" s="351" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -5521,33 +5521,33 @@
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="363">
+      <c r="M13" s="342">
         <v>80</v>
       </c>
-      <c r="N13" s="375" t="s">
+      <c r="N13" s="354" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="363">
+      <c r="O13" s="342">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="363">
+      <c r="P13" s="342">
         <v>2</v>
       </c>
-      <c r="Q13" s="363">
+      <c r="Q13" s="342">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="363">
+      <c r="R13" s="342">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="363"/>
-      <c r="T13" s="366">
+      <c r="S13" s="342"/>
+      <c r="T13" s="357">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="363">
+      <c r="U13" s="342">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -5570,7 +5570,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="373"/>
+      <c r="B14" s="352"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -5602,15 +5602,15 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="364"/>
-      <c r="N14" s="376"/>
-      <c r="O14" s="364"/>
-      <c r="P14" s="364"/>
-      <c r="Q14" s="364"/>
-      <c r="R14" s="364"/>
-      <c r="S14" s="364"/>
-      <c r="T14" s="367"/>
-      <c r="U14" s="364"/>
+      <c r="M14" s="343"/>
+      <c r="N14" s="355"/>
+      <c r="O14" s="343"/>
+      <c r="P14" s="343"/>
+      <c r="Q14" s="343"/>
+      <c r="R14" s="343"/>
+      <c r="S14" s="343"/>
+      <c r="T14" s="358"/>
+      <c r="U14" s="343"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -5618,10 +5618,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="378" t="s">
+      <c r="A15" s="360" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="373"/>
+      <c r="B15" s="352"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -5632,15 +5632,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="364"/>
-      <c r="N15" s="376"/>
-      <c r="O15" s="364"/>
-      <c r="P15" s="364"/>
-      <c r="Q15" s="364"/>
-      <c r="R15" s="364"/>
-      <c r="S15" s="364"/>
-      <c r="T15" s="367"/>
-      <c r="U15" s="364"/>
+      <c r="M15" s="343"/>
+      <c r="N15" s="355"/>
+      <c r="O15" s="343"/>
+      <c r="P15" s="343"/>
+      <c r="Q15" s="343"/>
+      <c r="R15" s="343"/>
+      <c r="S15" s="343"/>
+      <c r="T15" s="358"/>
+      <c r="U15" s="343"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -5650,8 +5650,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="379"/>
-      <c r="B16" s="374"/>
+      <c r="A16" s="361"/>
+      <c r="B16" s="353"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -5662,15 +5662,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="365"/>
-      <c r="N16" s="377"/>
-      <c r="O16" s="365"/>
-      <c r="P16" s="365"/>
-      <c r="Q16" s="365"/>
-      <c r="R16" s="365"/>
-      <c r="S16" s="365"/>
-      <c r="T16" s="368"/>
-      <c r="U16" s="365"/>
+      <c r="M16" s="344"/>
+      <c r="N16" s="356"/>
+      <c r="O16" s="344"/>
+      <c r="P16" s="344"/>
+      <c r="Q16" s="344"/>
+      <c r="R16" s="344"/>
+      <c r="S16" s="344"/>
+      <c r="T16" s="359"/>
+      <c r="U16" s="344"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -5681,7 +5681,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="372" t="s">
+      <c r="B17" s="351" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -5715,33 +5715,33 @@
         <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="363">
+      <c r="M17" s="342">
         <v>70</v>
       </c>
-      <c r="N17" s="375" t="s">
+      <c r="N17" s="354" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="363">
+      <c r="O17" s="342">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="363">
+      <c r="P17" s="342">
         <v>2</v>
       </c>
-      <c r="Q17" s="363">
+      <c r="Q17" s="342">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="363">
+      <c r="R17" s="342">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="363"/>
-      <c r="T17" s="366">
+      <c r="S17" s="342"/>
+      <c r="T17" s="357">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="363">
+      <c r="U17" s="342">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -5760,7 +5760,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="373"/>
+      <c r="B18" s="352"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -5792,24 +5792,24 @@
         <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="364"/>
-      <c r="N18" s="376"/>
-      <c r="O18" s="364"/>
-      <c r="P18" s="364"/>
-      <c r="Q18" s="364"/>
-      <c r="R18" s="364"/>
-      <c r="S18" s="364"/>
-      <c r="T18" s="367"/>
-      <c r="U18" s="364"/>
+      <c r="M18" s="343"/>
+      <c r="N18" s="355"/>
+      <c r="O18" s="343"/>
+      <c r="P18" s="343"/>
+      <c r="Q18" s="343"/>
+      <c r="R18" s="343"/>
+      <c r="S18" s="343"/>
+      <c r="T18" s="358"/>
+      <c r="U18" s="343"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="363" t="s">
+      <c r="A19" s="342" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="373"/>
+      <c r="B19" s="352"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -5820,22 +5820,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="364"/>
-      <c r="N19" s="376"/>
-      <c r="O19" s="364"/>
-      <c r="P19" s="364"/>
-      <c r="Q19" s="364"/>
-      <c r="R19" s="364"/>
-      <c r="S19" s="364"/>
-      <c r="T19" s="367"/>
-      <c r="U19" s="364"/>
+      <c r="M19" s="343"/>
+      <c r="N19" s="355"/>
+      <c r="O19" s="343"/>
+      <c r="P19" s="343"/>
+      <c r="Q19" s="343"/>
+      <c r="R19" s="343"/>
+      <c r="S19" s="343"/>
+      <c r="T19" s="358"/>
+      <c r="U19" s="343"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="365"/>
-      <c r="B20" s="374"/>
+      <c r="A20" s="344"/>
+      <c r="B20" s="353"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -5846,15 +5846,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="365"/>
-      <c r="N20" s="377"/>
-      <c r="O20" s="365"/>
-      <c r="P20" s="365"/>
-      <c r="Q20" s="365"/>
-      <c r="R20" s="365"/>
-      <c r="S20" s="365"/>
-      <c r="T20" s="368"/>
-      <c r="U20" s="365"/>
+      <c r="M20" s="344"/>
+      <c r="N20" s="356"/>
+      <c r="O20" s="344"/>
+      <c r="P20" s="344"/>
+      <c r="Q20" s="344"/>
+      <c r="R20" s="344"/>
+      <c r="S20" s="344"/>
+      <c r="T20" s="359"/>
+      <c r="U20" s="344"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -5863,7 +5863,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="372" t="s">
+      <c r="B21" s="351" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -5897,33 +5897,33 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="363">
+      <c r="M21" s="342">
         <v>60</v>
       </c>
-      <c r="N21" s="375" t="s">
+      <c r="N21" s="354" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="363">
+      <c r="O21" s="342">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="363">
+      <c r="P21" s="342">
         <v>3</v>
       </c>
-      <c r="Q21" s="363">
+      <c r="Q21" s="342">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="363">
+      <c r="R21" s="342">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="363"/>
-      <c r="T21" s="366">
+      <c r="S21" s="342"/>
+      <c r="T21" s="357">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="363">
+      <c r="U21" s="342">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -5940,7 +5940,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="373"/>
+      <c r="B22" s="352"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -5972,24 +5972,24 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="364"/>
-      <c r="N22" s="376"/>
-      <c r="O22" s="364"/>
-      <c r="P22" s="364"/>
-      <c r="Q22" s="364"/>
-      <c r="R22" s="364"/>
-      <c r="S22" s="364"/>
-      <c r="T22" s="367"/>
-      <c r="U22" s="364"/>
+      <c r="M22" s="343"/>
+      <c r="N22" s="355"/>
+      <c r="O22" s="343"/>
+      <c r="P22" s="343"/>
+      <c r="Q22" s="343"/>
+      <c r="R22" s="343"/>
+      <c r="S22" s="343"/>
+      <c r="T22" s="358"/>
+      <c r="U22" s="343"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="369" t="s">
+      <c r="A23" s="362" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="373"/>
+      <c r="B23" s="352"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -6000,22 +6000,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="364"/>
-      <c r="N23" s="376"/>
-      <c r="O23" s="364"/>
-      <c r="P23" s="364"/>
-      <c r="Q23" s="364"/>
-      <c r="R23" s="364"/>
-      <c r="S23" s="364"/>
-      <c r="T23" s="367"/>
-      <c r="U23" s="364"/>
+      <c r="M23" s="343"/>
+      <c r="N23" s="355"/>
+      <c r="O23" s="343"/>
+      <c r="P23" s="343"/>
+      <c r="Q23" s="343"/>
+      <c r="R23" s="343"/>
+      <c r="S23" s="343"/>
+      <c r="T23" s="358"/>
+      <c r="U23" s="343"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="370"/>
-      <c r="B24" s="374"/>
+      <c r="A24" s="363"/>
+      <c r="B24" s="353"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -6026,15 +6026,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="365"/>
-      <c r="N24" s="377"/>
-      <c r="O24" s="365"/>
-      <c r="P24" s="365"/>
-      <c r="Q24" s="365"/>
-      <c r="R24" s="365"/>
-      <c r="S24" s="365"/>
-      <c r="T24" s="368"/>
-      <c r="U24" s="365"/>
+      <c r="M24" s="344"/>
+      <c r="N24" s="356"/>
+      <c r="O24" s="344"/>
+      <c r="P24" s="344"/>
+      <c r="Q24" s="344"/>
+      <c r="R24" s="344"/>
+      <c r="S24" s="344"/>
+      <c r="T24" s="359"/>
+      <c r="U24" s="344"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -6060,13 +6060,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="371" t="s">
+      <c r="H27" s="364" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="371"/>
-      <c r="J27" s="371"/>
-      <c r="K27" s="371"/>
-      <c r="L27" s="371"/>
+      <c r="I27" s="364"/>
+      <c r="J27" s="364"/>
+      <c r="K27" s="364"/>
+      <c r="L27" s="364"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -6346,19 +6346,19 @@
     <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="361" t="s">
+      <c r="D40" s="367" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="361"/>
-      <c r="F40" s="361"/>
-      <c r="G40" s="361"/>
-      <c r="H40" s="361"/>
-      <c r="I40" s="361" t="s">
+      <c r="E40" s="367"/>
+      <c r="F40" s="367"/>
+      <c r="G40" s="367"/>
+      <c r="H40" s="367"/>
+      <c r="I40" s="367" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="361"/>
-      <c r="K40" s="361"/>
-      <c r="L40" s="361"/>
+      <c r="J40" s="367"/>
+      <c r="K40" s="367"/>
+      <c r="L40" s="367"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -6482,7 +6482,7 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="356" t="s">
+      <c r="B42" s="368" t="s">
         <v>226</v>
       </c>
       <c r="C42" s="190"/>
@@ -6490,17 +6490,17 @@
       <c r="E42" s="111"/>
       <c r="F42" s="189"/>
       <c r="G42" s="189"/>
-      <c r="H42" s="357">
+      <c r="H42" s="366">
         <v>3.095975611358881E-3</v>
       </c>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="189"/>
       <c r="L42" s="189"/>
-      <c r="M42" s="357">
+      <c r="M42" s="366">
         <v>1</v>
       </c>
-      <c r="N42" s="362" t="s">
+      <c r="N42" s="365" t="s">
         <v>59</v>
       </c>
       <c r="P42" s="91"/>
@@ -6548,7 +6548,7 @@
       <c r="AN42" s="88"/>
     </row>
     <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="356"/>
+      <c r="B43" s="368"/>
       <c r="C43" s="190" t="s">
         <v>220</v>
       </c>
@@ -6564,7 +6564,7 @@
       <c r="G43" s="103">
         <v>97.126746422628088</v>
       </c>
-      <c r="H43" s="357"/>
+      <c r="H43" s="366"/>
       <c r="I43" s="111">
         <v>1</v>
       </c>
@@ -6577,8 +6577,8 @@
       <c r="L43" s="103">
         <v>1</v>
       </c>
-      <c r="M43" s="357"/>
-      <c r="N43" s="357"/>
+      <c r="M43" s="366"/>
+      <c r="N43" s="366"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -6624,7 +6624,7 @@
       <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="356"/>
+      <c r="B44" s="368"/>
       <c r="C44" s="190" t="s">
         <v>218</v>
       </c>
@@ -6640,7 +6640,7 @@
       <c r="G44" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H44" s="357"/>
+      <c r="H44" s="366"/>
       <c r="I44" s="111">
         <v>1</v>
       </c>
@@ -6653,8 +6653,8 @@
       <c r="L44" s="189">
         <v>1</v>
       </c>
-      <c r="M44" s="357"/>
-      <c r="N44" s="357"/>
+      <c r="M44" s="366"/>
+      <c r="N44" s="366"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -6700,7 +6700,7 @@
       <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="356"/>
+      <c r="B45" s="368"/>
       <c r="C45" s="190" t="s">
         <v>219</v>
       </c>
@@ -6716,7 +6716,7 @@
       <c r="G45" s="189">
         <v>3.0959756012671502E-3</v>
       </c>
-      <c r="H45" s="357"/>
+      <c r="H45" s="366"/>
       <c r="I45" s="111">
         <v>1</v>
       </c>
@@ -6729,8 +6729,8 @@
       <c r="L45" s="189">
         <v>1</v>
       </c>
-      <c r="M45" s="357"/>
-      <c r="N45" s="357"/>
+      <c r="M45" s="366"/>
+      <c r="N45" s="366"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -6776,19 +6776,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="356"/>
+      <c r="B46" s="368"/>
       <c r="C46" s="190"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="189"/>
       <c r="G46" s="189"/>
-      <c r="H46" s="357"/>
+      <c r="H46" s="366"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="189"/>
       <c r="L46" s="189"/>
-      <c r="M46" s="357"/>
-      <c r="N46" s="358"/>
+      <c r="M46" s="366"/>
+      <c r="N46" s="369"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -6834,19 +6834,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="356"/>
+      <c r="B47" s="368"/>
       <c r="C47" s="190"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="357"/>
+      <c r="H47" s="366"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="357"/>
-      <c r="N47" s="359"/>
+      <c r="M47" s="366"/>
+      <c r="N47" s="370"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -6894,19 +6894,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="356"/>
+      <c r="B48" s="368"/>
       <c r="C48" s="190"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="357"/>
+      <c r="H48" s="366"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="357"/>
-      <c r="N48" s="359"/>
+      <c r="M48" s="366"/>
+      <c r="N48" s="370"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -6954,19 +6954,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="356"/>
+      <c r="B49" s="368"/>
       <c r="C49" s="190"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="357"/>
+      <c r="H49" s="366"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="357"/>
-      <c r="N49" s="359"/>
+      <c r="M49" s="366"/>
+      <c r="N49" s="370"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -7014,19 +7014,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="351"/>
+      <c r="B50" s="371"/>
       <c r="C50" s="191"/>
       <c r="D50" s="187"/>
       <c r="E50" s="187"/>
       <c r="F50" s="187"/>
       <c r="G50" s="187"/>
-      <c r="H50" s="352"/>
+      <c r="H50" s="372"/>
       <c r="I50" s="187"/>
       <c r="J50" s="187"/>
       <c r="K50" s="187"/>
       <c r="L50" s="187"/>
-      <c r="M50" s="352"/>
-      <c r="N50" s="360"/>
+      <c r="M50" s="372"/>
+      <c r="N50" s="373"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -7047,19 +7047,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="351"/>
+      <c r="B51" s="371"/>
       <c r="C51" s="191"/>
       <c r="D51" s="187"/>
       <c r="E51" s="187"/>
       <c r="F51" s="187"/>
       <c r="G51" s="187"/>
-      <c r="H51" s="352"/>
+      <c r="H51" s="372"/>
       <c r="I51" s="187"/>
       <c r="J51" s="187"/>
       <c r="K51" s="187"/>
       <c r="L51" s="187"/>
-      <c r="M51" s="352"/>
-      <c r="N51" s="354"/>
+      <c r="M51" s="372"/>
+      <c r="N51" s="374"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -7090,19 +7090,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="351"/>
+      <c r="B52" s="371"/>
       <c r="C52" s="191"/>
       <c r="D52" s="187"/>
       <c r="E52" s="187"/>
       <c r="F52" s="187"/>
       <c r="G52" s="187"/>
-      <c r="H52" s="352"/>
+      <c r="H52" s="372"/>
       <c r="I52" s="187"/>
       <c r="J52" s="187"/>
       <c r="K52" s="187"/>
       <c r="L52" s="187"/>
-      <c r="M52" s="352"/>
-      <c r="N52" s="354"/>
+      <c r="M52" s="372"/>
+      <c r="N52" s="374"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -7166,19 +7166,19 @@
       </c>
     </row>
     <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="351"/>
+      <c r="B53" s="371"/>
       <c r="C53" s="191"/>
       <c r="D53" s="187"/>
       <c r="E53" s="187"/>
       <c r="F53" s="187"/>
       <c r="G53" s="187"/>
-      <c r="H53" s="352"/>
+      <c r="H53" s="372"/>
       <c r="I53" s="187"/>
       <c r="J53" s="187"/>
       <c r="K53" s="187"/>
       <c r="L53" s="187"/>
-      <c r="M53" s="352"/>
-      <c r="N53" s="354"/>
+      <c r="M53" s="372"/>
+      <c r="N53" s="374"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -7227,19 +7227,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="351"/>
+      <c r="B54" s="371"/>
       <c r="C54" s="191"/>
       <c r="D54" s="187"/>
       <c r="E54" s="187"/>
       <c r="F54" s="187"/>
       <c r="G54" s="187"/>
-      <c r="H54" s="352"/>
+      <c r="H54" s="372"/>
       <c r="I54" s="187"/>
       <c r="J54" s="187"/>
       <c r="K54" s="187"/>
       <c r="L54" s="187"/>
-      <c r="M54" s="352"/>
-      <c r="N54" s="353"/>
+      <c r="M54" s="372"/>
+      <c r="N54" s="375"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -7286,19 +7286,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="351"/>
+      <c r="B55" s="371"/>
       <c r="C55" s="191"/>
       <c r="D55" s="187"/>
       <c r="E55" s="187"/>
       <c r="F55" s="187"/>
       <c r="G55" s="187"/>
-      <c r="H55" s="352"/>
+      <c r="H55" s="372"/>
       <c r="I55" s="187"/>
       <c r="J55" s="187"/>
       <c r="K55" s="187"/>
       <c r="L55" s="187"/>
-      <c r="M55" s="352"/>
-      <c r="N55" s="354"/>
+      <c r="M55" s="372"/>
+      <c r="N55" s="374"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -7345,19 +7345,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="351"/>
+      <c r="B56" s="371"/>
       <c r="C56" s="191"/>
       <c r="D56" s="187"/>
       <c r="E56" s="187"/>
       <c r="F56" s="187"/>
       <c r="G56" s="187"/>
-      <c r="H56" s="352"/>
+      <c r="H56" s="372"/>
       <c r="I56" s="187"/>
       <c r="J56" s="187"/>
       <c r="K56" s="187"/>
       <c r="L56" s="187"/>
-      <c r="M56" s="352"/>
-      <c r="N56" s="354"/>
+      <c r="M56" s="372"/>
+      <c r="N56" s="374"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -7404,19 +7404,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="351"/>
+      <c r="B57" s="371"/>
       <c r="C57" s="191"/>
       <c r="D57" s="187"/>
       <c r="E57" s="187"/>
       <c r="F57" s="187"/>
       <c r="G57" s="187"/>
-      <c r="H57" s="352"/>
+      <c r="H57" s="372"/>
       <c r="I57" s="187"/>
       <c r="J57" s="187"/>
       <c r="K57" s="187"/>
       <c r="L57" s="187"/>
-      <c r="M57" s="352"/>
-      <c r="N57" s="354"/>
+      <c r="M57" s="372"/>
+      <c r="N57" s="374"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -7463,19 +7463,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="346"/>
+      <c r="B58" s="376"/>
       <c r="C58" s="185"/>
       <c r="D58" s="192"/>
       <c r="E58" s="192"/>
       <c r="F58" s="192"/>
       <c r="G58" s="192"/>
-      <c r="H58" s="347"/>
+      <c r="H58" s="377"/>
       <c r="I58" s="192"/>
       <c r="J58" s="192"/>
       <c r="K58" s="192"/>
       <c r="L58" s="192"/>
-      <c r="M58" s="347"/>
-      <c r="N58" s="355"/>
+      <c r="M58" s="377"/>
+      <c r="N58" s="378"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -7522,19 +7522,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="346"/>
+      <c r="B59" s="376"/>
       <c r="C59" s="185"/>
       <c r="D59" s="192"/>
       <c r="E59" s="192"/>
       <c r="F59" s="192"/>
       <c r="G59" s="192"/>
-      <c r="H59" s="347"/>
+      <c r="H59" s="377"/>
       <c r="I59" s="192"/>
       <c r="J59" s="192"/>
       <c r="K59" s="192"/>
       <c r="L59" s="192"/>
-      <c r="M59" s="347"/>
-      <c r="N59" s="349"/>
+      <c r="M59" s="377"/>
+      <c r="N59" s="379"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -7581,19 +7581,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="346"/>
+      <c r="B60" s="376"/>
       <c r="C60" s="185"/>
       <c r="D60" s="192"/>
       <c r="E60" s="192"/>
       <c r="F60" s="192"/>
       <c r="G60" s="192"/>
-      <c r="H60" s="347"/>
+      <c r="H60" s="377"/>
       <c r="I60" s="192"/>
       <c r="J60" s="192"/>
       <c r="K60" s="192"/>
       <c r="L60" s="192"/>
-      <c r="M60" s="347"/>
-      <c r="N60" s="349"/>
+      <c r="M60" s="377"/>
+      <c r="N60" s="379"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -7640,247 +7640,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="346"/>
+      <c r="B61" s="376"/>
       <c r="C61" s="185"/>
       <c r="D61" s="192"/>
       <c r="E61" s="192"/>
       <c r="F61" s="192"/>
       <c r="G61" s="192"/>
-      <c r="H61" s="347"/>
+      <c r="H61" s="377"/>
       <c r="I61" s="192"/>
       <c r="J61" s="192"/>
       <c r="K61" s="192"/>
       <c r="L61" s="192"/>
-      <c r="M61" s="347"/>
-      <c r="N61" s="349"/>
+      <c r="M61" s="377"/>
+      <c r="N61" s="379"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="346"/>
+      <c r="B62" s="376"/>
       <c r="C62" s="185"/>
       <c r="D62" s="192"/>
       <c r="E62" s="192"/>
       <c r="F62" s="192"/>
       <c r="G62" s="192"/>
-      <c r="H62" s="347"/>
+      <c r="H62" s="377"/>
       <c r="I62" s="192"/>
       <c r="J62" s="192"/>
       <c r="K62" s="192"/>
       <c r="L62" s="192"/>
-      <c r="M62" s="347"/>
-      <c r="N62" s="348"/>
+      <c r="M62" s="377"/>
+      <c r="N62" s="384"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="346"/>
+      <c r="B63" s="376"/>
       <c r="C63" s="185"/>
       <c r="D63" s="192"/>
       <c r="E63" s="192"/>
       <c r="F63" s="192"/>
       <c r="G63" s="192"/>
-      <c r="H63" s="347"/>
+      <c r="H63" s="377"/>
       <c r="I63" s="192"/>
       <c r="J63" s="192"/>
       <c r="K63" s="192"/>
       <c r="L63" s="192"/>
-      <c r="M63" s="347"/>
-      <c r="N63" s="349"/>
+      <c r="M63" s="377"/>
+      <c r="N63" s="379"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="346"/>
+      <c r="B64" s="376"/>
       <c r="C64" s="185"/>
       <c r="D64" s="192"/>
       <c r="E64" s="192"/>
       <c r="F64" s="192"/>
       <c r="G64" s="192"/>
-      <c r="H64" s="347"/>
+      <c r="H64" s="377"/>
       <c r="I64" s="192"/>
       <c r="J64" s="192"/>
       <c r="K64" s="192"/>
       <c r="L64" s="192"/>
-      <c r="M64" s="347"/>
-      <c r="N64" s="349"/>
+      <c r="M64" s="377"/>
+      <c r="N64" s="379"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="346"/>
+      <c r="B65" s="376"/>
       <c r="C65" s="185"/>
       <c r="D65" s="192"/>
       <c r="E65" s="192"/>
       <c r="F65" s="192"/>
       <c r="G65" s="192"/>
-      <c r="H65" s="347"/>
+      <c r="H65" s="377"/>
       <c r="I65" s="192"/>
       <c r="J65" s="192"/>
       <c r="K65" s="192"/>
       <c r="L65" s="192"/>
-      <c r="M65" s="347"/>
-      <c r="N65" s="349"/>
+      <c r="M65" s="377"/>
+      <c r="N65" s="379"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="342"/>
+      <c r="B66" s="380"/>
       <c r="C66" s="186"/>
       <c r="D66" s="188"/>
       <c r="E66" s="188"/>
       <c r="F66" s="188"/>
       <c r="G66" s="188"/>
-      <c r="H66" s="343"/>
+      <c r="H66" s="381"/>
       <c r="I66" s="188"/>
       <c r="J66" s="188"/>
       <c r="K66" s="188"/>
       <c r="L66" s="188"/>
-      <c r="M66" s="343"/>
-      <c r="N66" s="350"/>
+      <c r="M66" s="381"/>
+      <c r="N66" s="385"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="342"/>
+      <c r="B67" s="380"/>
       <c r="C67" s="186"/>
       <c r="D67" s="188"/>
       <c r="E67" s="188"/>
       <c r="F67" s="188"/>
       <c r="G67" s="188"/>
-      <c r="H67" s="343"/>
+      <c r="H67" s="381"/>
       <c r="I67" s="188"/>
       <c r="J67" s="188"/>
       <c r="K67" s="188"/>
       <c r="L67" s="188"/>
-      <c r="M67" s="343"/>
-      <c r="N67" s="345"/>
+      <c r="M67" s="381"/>
+      <c r="N67" s="383"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="342"/>
+      <c r="B68" s="380"/>
       <c r="C68" s="186"/>
       <c r="D68" s="188"/>
       <c r="E68" s="188"/>
       <c r="F68" s="188"/>
       <c r="G68" s="188"/>
-      <c r="H68" s="343"/>
+      <c r="H68" s="381"/>
       <c r="I68" s="188"/>
       <c r="J68" s="188"/>
       <c r="K68" s="188"/>
       <c r="L68" s="188"/>
-      <c r="M68" s="343"/>
-      <c r="N68" s="345"/>
+      <c r="M68" s="381"/>
+      <c r="N68" s="383"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="342"/>
+      <c r="B69" s="380"/>
       <c r="C69" s="186"/>
       <c r="D69" s="188"/>
       <c r="E69" s="188"/>
       <c r="F69" s="188"/>
       <c r="G69" s="188"/>
-      <c r="H69" s="343"/>
+      <c r="H69" s="381"/>
       <c r="I69" s="188"/>
       <c r="J69" s="188"/>
       <c r="K69" s="188"/>
       <c r="L69" s="188"/>
-      <c r="M69" s="343"/>
-      <c r="N69" s="345"/>
+      <c r="M69" s="381"/>
+      <c r="N69" s="383"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="342"/>
+      <c r="B70" s="380"/>
       <c r="C70" s="186"/>
       <c r="D70" s="188"/>
       <c r="E70" s="188"/>
       <c r="F70" s="188"/>
       <c r="G70" s="188"/>
-      <c r="H70" s="343"/>
+      <c r="H70" s="381"/>
       <c r="I70" s="188"/>
       <c r="J70" s="188"/>
       <c r="K70" s="188"/>
       <c r="L70" s="188"/>
-      <c r="M70" s="343"/>
-      <c r="N70" s="344"/>
+      <c r="M70" s="381"/>
+      <c r="N70" s="382"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="342"/>
+      <c r="B71" s="380"/>
       <c r="C71" s="186"/>
       <c r="D71" s="188"/>
       <c r="E71" s="188"/>
       <c r="F71" s="188"/>
       <c r="G71" s="188"/>
-      <c r="H71" s="343"/>
+      <c r="H71" s="381"/>
       <c r="I71" s="188"/>
       <c r="J71" s="188"/>
       <c r="K71" s="188"/>
       <c r="L71" s="188"/>
-      <c r="M71" s="343"/>
-      <c r="N71" s="345"/>
+      <c r="M71" s="381"/>
+      <c r="N71" s="383"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="342"/>
+      <c r="B72" s="380"/>
       <c r="C72" s="186"/>
       <c r="D72" s="188"/>
       <c r="E72" s="188"/>
       <c r="F72" s="188"/>
       <c r="G72" s="188"/>
-      <c r="H72" s="343"/>
+      <c r="H72" s="381"/>
       <c r="I72" s="188"/>
       <c r="J72" s="188"/>
       <c r="K72" s="188"/>
       <c r="L72" s="188"/>
-      <c r="M72" s="343"/>
-      <c r="N72" s="345"/>
+      <c r="M72" s="381"/>
+      <c r="N72" s="383"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="342"/>
+      <c r="B73" s="380"/>
       <c r="C73" s="186"/>
       <c r="D73" s="188"/>
       <c r="E73" s="188"/>
       <c r="F73" s="188"/>
       <c r="G73" s="188"/>
-      <c r="H73" s="343"/>
+      <c r="H73" s="381"/>
       <c r="I73" s="188"/>
       <c r="J73" s="188"/>
       <c r="K73" s="188"/>
       <c r="L73" s="188"/>
-      <c r="M73" s="343"/>
-      <c r="N73" s="345"/>
+      <c r="M73" s="381"/>
+      <c r="N73" s="383"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -9433,23 +9433,57 @@
     <row r="140" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="M46:M49"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="U17:U20"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="R13:R16"/>
     <mergeCell ref="S13:S16"/>
@@ -9466,57 +9500,23 @@
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="O13:O16"/>
     <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="H50:H53"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">
@@ -9534,7 +9534,7 @@
   <dimension ref="A1:AU434"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -9582,15 +9582,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="380" t="s">
+      <c r="F1" s="345" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="380"/>
-      <c r="H1" s="380"/>
-      <c r="I1" s="380"/>
-      <c r="J1" s="380"/>
-      <c r="K1" s="380"/>
-      <c r="L1" s="380"/>
+      <c r="G1" s="345"/>
+      <c r="H1" s="345"/>
+      <c r="I1" s="345"/>
+      <c r="J1" s="345"/>
+      <c r="K1" s="345"/>
+      <c r="L1" s="345"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -9639,22 +9639,22 @@
       <c r="L5" s="23"/>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="381" t="s">
+      <c r="D6" s="346" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="382"/>
-      <c r="F6" s="382"/>
-      <c r="G6" s="382"/>
-      <c r="H6" s="383"/>
+      <c r="E6" s="347"/>
+      <c r="F6" s="347"/>
+      <c r="G6" s="347"/>
+      <c r="H6" s="348"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="381" t="s">
+      <c r="M6" s="346" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="382"/>
-      <c r="O6" s="382"/>
-      <c r="P6" s="382"/>
-      <c r="Q6" s="383"/>
+      <c r="N6" s="347"/>
+      <c r="O6" s="347"/>
+      <c r="P6" s="347"/>
+      <c r="Q6" s="348"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -9672,10 +9672,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="384" t="s">
+      <c r="F7" s="349" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="385"/>
+      <c r="G7" s="350"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -9698,10 +9698,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="384" t="s">
+      <c r="P7" s="349" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="385"/>
+      <c r="Q7" s="350"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -9769,7 +9769,7 @@
     </row>
     <row r="9" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="39"/>
-      <c r="B9" s="372"/>
+      <c r="B9" s="351"/>
       <c r="C9" s="40"/>
       <c r="D9" s="40"/>
       <c r="E9" s="40"/>
@@ -9780,15 +9780,15 @@
       <c r="J9" s="36"/>
       <c r="K9" s="36"/>
       <c r="L9" s="42"/>
-      <c r="M9" s="363"/>
-      <c r="N9" s="375"/>
-      <c r="O9" s="363"/>
-      <c r="P9" s="363"/>
-      <c r="Q9" s="363"/>
-      <c r="R9" s="363"/>
-      <c r="S9" s="363"/>
-      <c r="T9" s="366"/>
-      <c r="U9" s="363"/>
+      <c r="M9" s="342"/>
+      <c r="N9" s="354"/>
+      <c r="O9" s="342"/>
+      <c r="P9" s="342"/>
+      <c r="Q9" s="342"/>
+      <c r="R9" s="342"/>
+      <c r="S9" s="342"/>
+      <c r="T9" s="357"/>
+      <c r="U9" s="342"/>
       <c r="V9" s="41"/>
       <c r="W9" s="36"/>
       <c r="X9" s="36"/>
@@ -9798,7 +9798,7 @@
     </row>
     <row r="10" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="40"/>
-      <c r="B10" s="373"/>
+      <c r="B10" s="352"/>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
       <c r="E10" s="40"/>
@@ -9809,15 +9809,15 @@
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
       <c r="L10" s="42"/>
-      <c r="M10" s="364"/>
-      <c r="N10" s="376"/>
-      <c r="O10" s="364"/>
-      <c r="P10" s="364"/>
-      <c r="Q10" s="364"/>
-      <c r="R10" s="364"/>
-      <c r="S10" s="364"/>
-      <c r="T10" s="367"/>
-      <c r="U10" s="364"/>
+      <c r="M10" s="343"/>
+      <c r="N10" s="355"/>
+      <c r="O10" s="343"/>
+      <c r="P10" s="343"/>
+      <c r="Q10" s="343"/>
+      <c r="R10" s="343"/>
+      <c r="S10" s="343"/>
+      <c r="T10" s="358"/>
+      <c r="U10" s="343"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -9825,8 +9825,8 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="363"/>
-      <c r="B11" s="373"/>
+      <c r="A11" s="342"/>
+      <c r="B11" s="352"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -9837,15 +9837,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="364"/>
-      <c r="N11" s="376"/>
-      <c r="O11" s="364"/>
-      <c r="P11" s="364"/>
-      <c r="Q11" s="364"/>
-      <c r="R11" s="364"/>
-      <c r="S11" s="364"/>
-      <c r="T11" s="367"/>
-      <c r="U11" s="364"/>
+      <c r="M11" s="343"/>
+      <c r="N11" s="355"/>
+      <c r="O11" s="343"/>
+      <c r="P11" s="343"/>
+      <c r="Q11" s="343"/>
+      <c r="R11" s="343"/>
+      <c r="S11" s="343"/>
+      <c r="T11" s="358"/>
+      <c r="U11" s="343"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -9855,8 +9855,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="365"/>
-      <c r="B12" s="374"/>
+      <c r="A12" s="344"/>
+      <c r="B12" s="353"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -9867,15 +9867,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="365"/>
-      <c r="N12" s="377"/>
-      <c r="O12" s="365"/>
-      <c r="P12" s="365"/>
-      <c r="Q12" s="365"/>
-      <c r="R12" s="365"/>
-      <c r="S12" s="365"/>
-      <c r="T12" s="368"/>
-      <c r="U12" s="365"/>
+      <c r="M12" s="344"/>
+      <c r="N12" s="356"/>
+      <c r="O12" s="344"/>
+      <c r="P12" s="344"/>
+      <c r="Q12" s="344"/>
+      <c r="R12" s="344"/>
+      <c r="S12" s="344"/>
+      <c r="T12" s="359"/>
+      <c r="U12" s="344"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -9884,7 +9884,7 @@
     </row>
     <row r="13" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="43"/>
-      <c r="B13" s="372"/>
+      <c r="B13" s="351"/>
       <c r="C13" s="40"/>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
@@ -9895,15 +9895,15 @@
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
       <c r="L13" s="42"/>
-      <c r="M13" s="363"/>
-      <c r="N13" s="375"/>
-      <c r="O13" s="363"/>
-      <c r="P13" s="363"/>
-      <c r="Q13" s="363"/>
-      <c r="R13" s="363"/>
-      <c r="S13" s="363"/>
-      <c r="T13" s="366"/>
-      <c r="U13" s="363"/>
+      <c r="M13" s="342"/>
+      <c r="N13" s="354"/>
+      <c r="O13" s="342"/>
+      <c r="P13" s="342"/>
+      <c r="Q13" s="342"/>
+      <c r="R13" s="342"/>
+      <c r="S13" s="342"/>
+      <c r="T13" s="357"/>
+      <c r="U13" s="342"/>
       <c r="V13" s="41"/>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
@@ -9912,7 +9912,7 @@
     </row>
     <row r="14" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="44"/>
-      <c r="B14" s="373"/>
+      <c r="B14" s="352"/>
       <c r="C14" s="40"/>
       <c r="D14" s="40"/>
       <c r="E14" s="40"/>
@@ -9923,15 +9923,15 @@
       <c r="J14" s="36"/>
       <c r="K14" s="36"/>
       <c r="L14" s="42"/>
-      <c r="M14" s="364"/>
-      <c r="N14" s="376"/>
-      <c r="O14" s="364"/>
-      <c r="P14" s="364"/>
-      <c r="Q14" s="364"/>
-      <c r="R14" s="364"/>
-      <c r="S14" s="364"/>
-      <c r="T14" s="367"/>
-      <c r="U14" s="364"/>
+      <c r="M14" s="343"/>
+      <c r="N14" s="355"/>
+      <c r="O14" s="343"/>
+      <c r="P14" s="343"/>
+      <c r="Q14" s="343"/>
+      <c r="R14" s="343"/>
+      <c r="S14" s="343"/>
+      <c r="T14" s="358"/>
+      <c r="U14" s="343"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -9939,8 +9939,8 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="378"/>
-      <c r="B15" s="373"/>
+      <c r="A15" s="360"/>
+      <c r="B15" s="352"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -9951,15 +9951,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="364"/>
-      <c r="N15" s="376"/>
-      <c r="O15" s="364"/>
-      <c r="P15" s="364"/>
-      <c r="Q15" s="364"/>
-      <c r="R15" s="364"/>
-      <c r="S15" s="364"/>
-      <c r="T15" s="367"/>
-      <c r="U15" s="364"/>
+      <c r="M15" s="343"/>
+      <c r="N15" s="355"/>
+      <c r="O15" s="343"/>
+      <c r="P15" s="343"/>
+      <c r="Q15" s="343"/>
+      <c r="R15" s="343"/>
+      <c r="S15" s="343"/>
+      <c r="T15" s="358"/>
+      <c r="U15" s="343"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -9967,8 +9967,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="379"/>
-      <c r="B16" s="374"/>
+      <c r="A16" s="361"/>
+      <c r="B16" s="353"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -9979,15 +9979,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="365"/>
-      <c r="N16" s="377"/>
-      <c r="O16" s="365"/>
-      <c r="P16" s="365"/>
-      <c r="Q16" s="365"/>
-      <c r="R16" s="365"/>
-      <c r="S16" s="365"/>
-      <c r="T16" s="368"/>
-      <c r="U16" s="365"/>
+      <c r="M16" s="344"/>
+      <c r="N16" s="356"/>
+      <c r="O16" s="344"/>
+      <c r="P16" s="344"/>
+      <c r="Q16" s="344"/>
+      <c r="R16" s="344"/>
+      <c r="S16" s="344"/>
+      <c r="T16" s="359"/>
+      <c r="U16" s="344"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -9996,7 +9996,7 @@
     </row>
     <row r="17" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="39"/>
-      <c r="B17" s="372"/>
+      <c r="B17" s="351"/>
       <c r="C17" s="40"/>
       <c r="D17" s="40"/>
       <c r="E17" s="40"/>
@@ -10007,15 +10007,15 @@
       <c r="J17" s="36"/>
       <c r="K17" s="36"/>
       <c r="L17" s="42"/>
-      <c r="M17" s="363"/>
-      <c r="N17" s="375"/>
-      <c r="O17" s="363"/>
-      <c r="P17" s="363"/>
-      <c r="Q17" s="363"/>
-      <c r="R17" s="363"/>
-      <c r="S17" s="363"/>
-      <c r="T17" s="366"/>
-      <c r="U17" s="363"/>
+      <c r="M17" s="342"/>
+      <c r="N17" s="354"/>
+      <c r="O17" s="342"/>
+      <c r="P17" s="342"/>
+      <c r="Q17" s="342"/>
+      <c r="R17" s="342"/>
+      <c r="S17" s="342"/>
+      <c r="T17" s="357"/>
+      <c r="U17" s="342"/>
       <c r="V17" s="41"/>
       <c r="W17" s="36"/>
       <c r="X17" s="36"/>
@@ -10024,7 +10024,7 @@
     </row>
     <row r="18" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="40"/>
-      <c r="B18" s="373"/>
+      <c r="B18" s="352"/>
       <c r="C18" s="40"/>
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
@@ -10035,22 +10035,22 @@
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="42"/>
-      <c r="M18" s="364"/>
-      <c r="N18" s="376"/>
-      <c r="O18" s="364"/>
-      <c r="P18" s="364"/>
-      <c r="Q18" s="364"/>
-      <c r="R18" s="364"/>
-      <c r="S18" s="364"/>
-      <c r="T18" s="367"/>
-      <c r="U18" s="364"/>
+      <c r="M18" s="343"/>
+      <c r="N18" s="355"/>
+      <c r="O18" s="343"/>
+      <c r="P18" s="343"/>
+      <c r="Q18" s="343"/>
+      <c r="R18" s="343"/>
+      <c r="S18" s="343"/>
+      <c r="T18" s="358"/>
+      <c r="U18" s="343"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="363"/>
-      <c r="B19" s="373"/>
+      <c r="A19" s="342"/>
+      <c r="B19" s="352"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -10061,22 +10061,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="364"/>
-      <c r="N19" s="376"/>
-      <c r="O19" s="364"/>
-      <c r="P19" s="364"/>
-      <c r="Q19" s="364"/>
-      <c r="R19" s="364"/>
-      <c r="S19" s="364"/>
-      <c r="T19" s="367"/>
-      <c r="U19" s="364"/>
+      <c r="M19" s="343"/>
+      <c r="N19" s="355"/>
+      <c r="O19" s="343"/>
+      <c r="P19" s="343"/>
+      <c r="Q19" s="343"/>
+      <c r="R19" s="343"/>
+      <c r="S19" s="343"/>
+      <c r="T19" s="358"/>
+      <c r="U19" s="343"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="365"/>
-      <c r="B20" s="374"/>
+      <c r="A20" s="344"/>
+      <c r="B20" s="353"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -10087,22 +10087,22 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="365"/>
-      <c r="N20" s="377"/>
-      <c r="O20" s="365"/>
-      <c r="P20" s="365"/>
-      <c r="Q20" s="365"/>
-      <c r="R20" s="365"/>
-      <c r="S20" s="365"/>
-      <c r="T20" s="368"/>
-      <c r="U20" s="365"/>
+      <c r="M20" s="344"/>
+      <c r="N20" s="356"/>
+      <c r="O20" s="344"/>
+      <c r="P20" s="344"/>
+      <c r="Q20" s="344"/>
+      <c r="R20" s="344"/>
+      <c r="S20" s="344"/>
+      <c r="T20" s="359"/>
+      <c r="U20" s="344"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
     </row>
     <row r="21" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="39"/>
-      <c r="B21" s="372"/>
+      <c r="B21" s="351"/>
       <c r="C21" s="40"/>
       <c r="D21" s="40"/>
       <c r="E21" s="40"/>
@@ -10113,22 +10113,22 @@
       <c r="J21" s="36"/>
       <c r="K21" s="36"/>
       <c r="L21" s="42"/>
-      <c r="M21" s="363"/>
-      <c r="N21" s="375"/>
-      <c r="O21" s="363"/>
-      <c r="P21" s="363"/>
-      <c r="Q21" s="363"/>
-      <c r="R21" s="363"/>
-      <c r="S21" s="363"/>
-      <c r="T21" s="366"/>
-      <c r="U21" s="363"/>
+      <c r="M21" s="342"/>
+      <c r="N21" s="354"/>
+      <c r="O21" s="342"/>
+      <c r="P21" s="342"/>
+      <c r="Q21" s="342"/>
+      <c r="R21" s="342"/>
+      <c r="S21" s="342"/>
+      <c r="T21" s="357"/>
+      <c r="U21" s="342"/>
       <c r="V21" s="41"/>
       <c r="W21" s="36"/>
       <c r="X21" s="36"/>
     </row>
     <row r="22" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="40"/>
-      <c r="B22" s="373"/>
+      <c r="B22" s="352"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
       <c r="E22" s="40"/>
@@ -10139,22 +10139,22 @@
       <c r="J22" s="36"/>
       <c r="K22" s="36"/>
       <c r="L22" s="42"/>
-      <c r="M22" s="364"/>
-      <c r="N22" s="376"/>
-      <c r="O22" s="364"/>
-      <c r="P22" s="364"/>
-      <c r="Q22" s="364"/>
-      <c r="R22" s="364"/>
-      <c r="S22" s="364"/>
-      <c r="T22" s="367"/>
-      <c r="U22" s="364"/>
+      <c r="M22" s="343"/>
+      <c r="N22" s="355"/>
+      <c r="O22" s="343"/>
+      <c r="P22" s="343"/>
+      <c r="Q22" s="343"/>
+      <c r="R22" s="343"/>
+      <c r="S22" s="343"/>
+      <c r="T22" s="358"/>
+      <c r="U22" s="343"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="369"/>
-      <c r="B23" s="373"/>
+      <c r="A23" s="362"/>
+      <c r="B23" s="352"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -10165,22 +10165,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="364"/>
-      <c r="N23" s="376"/>
-      <c r="O23" s="364"/>
-      <c r="P23" s="364"/>
-      <c r="Q23" s="364"/>
-      <c r="R23" s="364"/>
-      <c r="S23" s="364"/>
-      <c r="T23" s="367"/>
-      <c r="U23" s="364"/>
+      <c r="M23" s="343"/>
+      <c r="N23" s="355"/>
+      <c r="O23" s="343"/>
+      <c r="P23" s="343"/>
+      <c r="Q23" s="343"/>
+      <c r="R23" s="343"/>
+      <c r="S23" s="343"/>
+      <c r="T23" s="358"/>
+      <c r="U23" s="343"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="370"/>
-      <c r="B24" s="374"/>
+      <c r="A24" s="363"/>
+      <c r="B24" s="353"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -10191,15 +10191,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="365"/>
-      <c r="N24" s="377"/>
-      <c r="O24" s="365"/>
-      <c r="P24" s="365"/>
-      <c r="Q24" s="365"/>
-      <c r="R24" s="365"/>
-      <c r="S24" s="365"/>
-      <c r="T24" s="368"/>
-      <c r="U24" s="365"/>
+      <c r="M24" s="344"/>
+      <c r="N24" s="356"/>
+      <c r="O24" s="344"/>
+      <c r="P24" s="344"/>
+      <c r="Q24" s="344"/>
+      <c r="R24" s="344"/>
+      <c r="S24" s="344"/>
+      <c r="T24" s="359"/>
+      <c r="U24" s="344"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -10511,10 +10511,10 @@
     </row>
     <row r="40" spans="1:41" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="314" t="s">
+        <v>245</v>
+      </c>
+      <c r="B40" s="315" t="s">
         <v>246</v>
-      </c>
-      <c r="B40" s="315" t="s">
-        <v>245</v>
       </c>
       <c r="D40" s="104"/>
       <c r="E40" s="105"/>
@@ -18335,44 +18335,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P17:P20"/>
     <mergeCell ref="Q40:Y40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:M40"/>
@@ -18387,6 +18349,44 @@
     <mergeCell ref="R21:R24"/>
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P17:P20"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q9:Q12"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">
@@ -18448,15 +18448,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="380" t="s">
+      <c r="F1" s="345" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="380"/>
-      <c r="H1" s="380"/>
-      <c r="I1" s="380"/>
-      <c r="J1" s="380"/>
-      <c r="K1" s="380"/>
-      <c r="L1" s="380"/>
+      <c r="G1" s="345"/>
+      <c r="H1" s="345"/>
+      <c r="I1" s="345"/>
+      <c r="J1" s="345"/>
+      <c r="K1" s="345"/>
+      <c r="L1" s="345"/>
       <c r="U1" s="22" t="s">
         <v>62</v>
       </c>
@@ -18545,22 +18545,22 @@
       </c>
     </row>
     <row r="6" spans="1:47" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="381" t="s">
+      <c r="D6" s="346" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="382"/>
-      <c r="F6" s="382"/>
-      <c r="G6" s="382"/>
-      <c r="H6" s="383"/>
+      <c r="E6" s="347"/>
+      <c r="F6" s="347"/>
+      <c r="G6" s="347"/>
+      <c r="H6" s="348"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
-      <c r="M6" s="381" t="s">
+      <c r="M6" s="346" t="s">
         <v>66</v>
       </c>
-      <c r="N6" s="382"/>
-      <c r="O6" s="382"/>
-      <c r="P6" s="382"/>
-      <c r="Q6" s="383"/>
+      <c r="N6" s="347"/>
+      <c r="O6" s="347"/>
+      <c r="P6" s="347"/>
+      <c r="Q6" s="348"/>
     </row>
     <row r="7" spans="1:47" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="24" t="s">
@@ -18578,10 +18578,10 @@
       <c r="E7" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="384" t="s">
+      <c r="F7" s="349" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="385"/>
+      <c r="G7" s="350"/>
       <c r="H7" s="24" t="s">
         <v>73</v>
       </c>
@@ -18604,10 +18604,10 @@
         <v>79</v>
       </c>
       <c r="O7" s="29"/>
-      <c r="P7" s="384" t="s">
+      <c r="P7" s="349" t="s">
         <v>80</v>
       </c>
-      <c r="Q7" s="385"/>
+      <c r="Q7" s="350"/>
       <c r="R7" s="30" t="s">
         <v>74</v>
       </c>
@@ -18684,7 +18684,7 @@
       <c r="A9" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="372" t="s">
+      <c r="B9" s="351" t="s">
         <v>194</v>
       </c>
       <c r="C9" s="40" t="s">
@@ -18718,33 +18718,33 @@
         <f t="shared" ref="L9:L22" si="0">MIN(I9:K9)</f>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="M9" s="363">
+      <c r="M9" s="342">
         <v>20</v>
       </c>
-      <c r="N9" s="375" t="s">
+      <c r="N9" s="354" t="s">
         <v>95</v>
       </c>
-      <c r="O9" s="363">
+      <c r="O9" s="342">
         <f>IF(N9="daily",1,IF(N9="week",7,IF(N9="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P9" s="363">
+      <c r="P9" s="342">
         <v>3</v>
       </c>
-      <c r="Q9" s="363">
+      <c r="Q9" s="342">
         <f>P9/O9</f>
         <v>3</v>
       </c>
-      <c r="R9" s="363">
+      <c r="R9" s="342">
         <f>M9*Q9</f>
         <v>60</v>
       </c>
-      <c r="S9" s="363"/>
-      <c r="T9" s="366">
+      <c r="S9" s="342"/>
+      <c r="T9" s="357">
         <f>MIN(R9:S12)</f>
         <v>60</v>
       </c>
-      <c r="U9" s="363">
+      <c r="U9" s="342">
         <v>500</v>
       </c>
       <c r="V9" s="41">
@@ -18769,7 +18769,7 @@
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="373"/>
+      <c r="B10" s="352"/>
       <c r="C10" s="40" t="s">
         <v>198</v>
       </c>
@@ -18801,15 +18801,15 @@
         <f t="shared" si="0"/>
         <v>0.21</v>
       </c>
-      <c r="M10" s="364"/>
-      <c r="N10" s="376"/>
-      <c r="O10" s="364"/>
-      <c r="P10" s="364"/>
-      <c r="Q10" s="364"/>
-      <c r="R10" s="364"/>
-      <c r="S10" s="364"/>
-      <c r="T10" s="367"/>
-      <c r="U10" s="364"/>
+      <c r="M10" s="343"/>
+      <c r="N10" s="355"/>
+      <c r="O10" s="343"/>
+      <c r="P10" s="343"/>
+      <c r="Q10" s="343"/>
+      <c r="R10" s="343"/>
+      <c r="S10" s="343"/>
+      <c r="T10" s="358"/>
+      <c r="U10" s="343"/>
       <c r="V10" s="41"/>
       <c r="W10" s="36"/>
       <c r="X10" s="36"/>
@@ -18817,10 +18817,10 @@
       <c r="AK10" s="46"/>
     </row>
     <row r="11" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="363" t="s">
+      <c r="A11" s="342" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="373"/>
+      <c r="B11" s="352"/>
       <c r="C11" s="40"/>
       <c r="D11" s="40"/>
       <c r="E11" s="40"/>
@@ -18831,15 +18831,15 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="42"/>
-      <c r="M11" s="364"/>
-      <c r="N11" s="376"/>
-      <c r="O11" s="364"/>
-      <c r="P11" s="364"/>
-      <c r="Q11" s="364"/>
-      <c r="R11" s="364"/>
-      <c r="S11" s="364"/>
-      <c r="T11" s="367"/>
-      <c r="U11" s="364"/>
+      <c r="M11" s="343"/>
+      <c r="N11" s="355"/>
+      <c r="O11" s="343"/>
+      <c r="P11" s="343"/>
+      <c r="Q11" s="343"/>
+      <c r="R11" s="343"/>
+      <c r="S11" s="343"/>
+      <c r="T11" s="358"/>
+      <c r="U11" s="343"/>
       <c r="V11" s="41"/>
       <c r="W11" s="36"/>
       <c r="X11" s="36"/>
@@ -18858,8 +18858,8 @@
       <c r="AU11" s="65"/>
     </row>
     <row r="12" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="365"/>
-      <c r="B12" s="374"/>
+      <c r="A12" s="344"/>
+      <c r="B12" s="353"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
       <c r="E12" s="40"/>
@@ -18870,15 +18870,15 @@
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="42"/>
-      <c r="M12" s="365"/>
-      <c r="N12" s="377"/>
-      <c r="O12" s="365"/>
-      <c r="P12" s="365"/>
-      <c r="Q12" s="365"/>
-      <c r="R12" s="365"/>
-      <c r="S12" s="365"/>
-      <c r="T12" s="368"/>
-      <c r="U12" s="365"/>
+      <c r="M12" s="344"/>
+      <c r="N12" s="356"/>
+      <c r="O12" s="344"/>
+      <c r="P12" s="344"/>
+      <c r="Q12" s="344"/>
+      <c r="R12" s="344"/>
+      <c r="S12" s="344"/>
+      <c r="T12" s="359"/>
+      <c r="U12" s="344"/>
       <c r="V12" s="41"/>
       <c r="W12" s="36"/>
       <c r="X12" s="36"/>
@@ -18894,7 +18894,7 @@
       <c r="A13" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="372" t="s">
+      <c r="B13" s="351" t="s">
         <v>195</v>
       </c>
       <c r="C13" s="40" t="s">
@@ -18928,33 +18928,33 @@
         <f t="shared" si="0"/>
         <v>2E-3</v>
       </c>
-      <c r="M13" s="363">
+      <c r="M13" s="342">
         <v>80</v>
       </c>
-      <c r="N13" s="375" t="s">
+      <c r="N13" s="354" t="s">
         <v>95</v>
       </c>
-      <c r="O13" s="363">
+      <c r="O13" s="342">
         <f>IF(N13="daily",1,IF(N13="week",7,IF(N13="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P13" s="363">
+      <c r="P13" s="342">
         <v>2</v>
       </c>
-      <c r="Q13" s="363">
+      <c r="Q13" s="342">
         <f>P13/O13</f>
         <v>2</v>
       </c>
-      <c r="R13" s="363">
+      <c r="R13" s="342">
         <f>M13*Q13</f>
         <v>160</v>
       </c>
-      <c r="S13" s="363"/>
-      <c r="T13" s="366">
+      <c r="S13" s="342"/>
+      <c r="T13" s="357">
         <f>MIN(R13:S16)</f>
         <v>160</v>
       </c>
-      <c r="U13" s="363">
+      <c r="U13" s="342">
         <v>600</v>
       </c>
       <c r="V13" s="41">
@@ -18977,7 +18977,7 @@
       <c r="A14" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="373"/>
+      <c r="B14" s="352"/>
       <c r="C14" s="40" t="s">
         <v>200</v>
       </c>
@@ -19009,15 +19009,15 @@
         <f t="shared" si="0"/>
         <v>0.08</v>
       </c>
-      <c r="M14" s="364"/>
-      <c r="N14" s="376"/>
-      <c r="O14" s="364"/>
-      <c r="P14" s="364"/>
-      <c r="Q14" s="364"/>
-      <c r="R14" s="364"/>
-      <c r="S14" s="364"/>
-      <c r="T14" s="367"/>
-      <c r="U14" s="364"/>
+      <c r="M14" s="343"/>
+      <c r="N14" s="355"/>
+      <c r="O14" s="343"/>
+      <c r="P14" s="343"/>
+      <c r="Q14" s="343"/>
+      <c r="R14" s="343"/>
+      <c r="S14" s="343"/>
+      <c r="T14" s="358"/>
+      <c r="U14" s="343"/>
       <c r="V14" s="41"/>
       <c r="W14" s="36"/>
       <c r="X14" s="36"/>
@@ -19025,10 +19025,10 @@
       <c r="AT14" s="70"/>
     </row>
     <row r="15" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="378" t="s">
+      <c r="A15" s="360" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="373"/>
+      <c r="B15" s="352"/>
       <c r="C15" s="40"/>
       <c r="D15" s="40"/>
       <c r="E15" s="40"/>
@@ -19039,15 +19039,15 @@
       <c r="J15" s="36"/>
       <c r="K15" s="36"/>
       <c r="L15" s="42"/>
-      <c r="M15" s="364"/>
-      <c r="N15" s="376"/>
-      <c r="O15" s="364"/>
-      <c r="P15" s="364"/>
-      <c r="Q15" s="364"/>
-      <c r="R15" s="364"/>
-      <c r="S15" s="364"/>
-      <c r="T15" s="367"/>
-      <c r="U15" s="364"/>
+      <c r="M15" s="343"/>
+      <c r="N15" s="355"/>
+      <c r="O15" s="343"/>
+      <c r="P15" s="343"/>
+      <c r="Q15" s="343"/>
+      <c r="R15" s="343"/>
+      <c r="S15" s="343"/>
+      <c r="T15" s="358"/>
+      <c r="U15" s="343"/>
       <c r="V15" s="41"/>
       <c r="W15" s="36"/>
       <c r="X15" s="36"/>
@@ -19057,8 +19057,8 @@
       <c r="AT15" s="46"/>
     </row>
     <row r="16" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="379"/>
-      <c r="B16" s="374"/>
+      <c r="A16" s="361"/>
+      <c r="B16" s="353"/>
       <c r="C16" s="40"/>
       <c r="D16" s="40"/>
       <c r="E16" s="40"/>
@@ -19069,15 +19069,15 @@
       <c r="J16" s="36"/>
       <c r="K16" s="36"/>
       <c r="L16" s="42"/>
-      <c r="M16" s="365"/>
-      <c r="N16" s="377"/>
-      <c r="O16" s="365"/>
-      <c r="P16" s="365"/>
-      <c r="Q16" s="365"/>
-      <c r="R16" s="365"/>
-      <c r="S16" s="365"/>
-      <c r="T16" s="368"/>
-      <c r="U16" s="365"/>
+      <c r="M16" s="344"/>
+      <c r="N16" s="356"/>
+      <c r="O16" s="344"/>
+      <c r="P16" s="344"/>
+      <c r="Q16" s="344"/>
+      <c r="R16" s="344"/>
+      <c r="S16" s="344"/>
+      <c r="T16" s="359"/>
+      <c r="U16" s="344"/>
       <c r="V16" s="41"/>
       <c r="W16" s="36"/>
       <c r="X16" s="36"/>
@@ -19088,7 +19088,7 @@
       <c r="A17" s="39" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="372" t="s">
+      <c r="B17" s="351" t="s">
         <v>196</v>
       </c>
       <c r="C17" s="40" t="s">
@@ -19122,33 +19122,33 @@
         <f t="shared" si="0"/>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="M17" s="363">
+      <c r="M17" s="342">
         <v>70</v>
       </c>
-      <c r="N17" s="375" t="s">
+      <c r="N17" s="354" t="s">
         <v>95</v>
       </c>
-      <c r="O17" s="363">
+      <c r="O17" s="342">
         <f>IF(N17="daily",1,IF(N17="week",7,IF(N17="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P17" s="363">
+      <c r="P17" s="342">
         <v>2</v>
       </c>
-      <c r="Q17" s="363">
+      <c r="Q17" s="342">
         <f>P17/O17</f>
         <v>2</v>
       </c>
-      <c r="R17" s="363">
+      <c r="R17" s="342">
         <f>M17*Q17</f>
         <v>140</v>
       </c>
-      <c r="S17" s="363"/>
-      <c r="T17" s="366">
+      <c r="S17" s="342"/>
+      <c r="T17" s="357">
         <f>MIN(R17:S20)</f>
         <v>140</v>
       </c>
-      <c r="U17" s="363">
+      <c r="U17" s="342">
         <v>850</v>
       </c>
       <c r="V17" s="41">
@@ -19167,7 +19167,7 @@
       <c r="A18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="B18" s="373"/>
+      <c r="B18" s="352"/>
       <c r="C18" s="40" t="s">
         <v>202</v>
       </c>
@@ -19199,24 +19199,24 @@
         <f t="shared" si="0"/>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="M18" s="364"/>
-      <c r="N18" s="376"/>
-      <c r="O18" s="364"/>
-      <c r="P18" s="364"/>
-      <c r="Q18" s="364"/>
-      <c r="R18" s="364"/>
-      <c r="S18" s="364"/>
-      <c r="T18" s="367"/>
-      <c r="U18" s="364"/>
+      <c r="M18" s="343"/>
+      <c r="N18" s="355"/>
+      <c r="O18" s="343"/>
+      <c r="P18" s="343"/>
+      <c r="Q18" s="343"/>
+      <c r="R18" s="343"/>
+      <c r="S18" s="343"/>
+      <c r="T18" s="358"/>
+      <c r="U18" s="343"/>
       <c r="V18" s="41"/>
       <c r="W18" s="36"/>
       <c r="X18" s="36"/>
     </row>
     <row r="19" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="363" t="s">
+      <c r="A19" s="342" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="373"/>
+      <c r="B19" s="352"/>
       <c r="C19" s="40"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
@@ -19227,22 +19227,22 @@
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="42"/>
-      <c r="M19" s="364"/>
-      <c r="N19" s="376"/>
-      <c r="O19" s="364"/>
-      <c r="P19" s="364"/>
-      <c r="Q19" s="364"/>
-      <c r="R19" s="364"/>
-      <c r="S19" s="364"/>
-      <c r="T19" s="367"/>
-      <c r="U19" s="364"/>
+      <c r="M19" s="343"/>
+      <c r="N19" s="355"/>
+      <c r="O19" s="343"/>
+      <c r="P19" s="343"/>
+      <c r="Q19" s="343"/>
+      <c r="R19" s="343"/>
+      <c r="S19" s="343"/>
+      <c r="T19" s="358"/>
+      <c r="U19" s="343"/>
       <c r="V19" s="41"/>
       <c r="W19" s="36"/>
       <c r="X19" s="36"/>
     </row>
     <row r="20" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="365"/>
-      <c r="B20" s="374"/>
+      <c r="A20" s="344"/>
+      <c r="B20" s="353"/>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
       <c r="E20" s="40"/>
@@ -19253,15 +19253,15 @@
       <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="42"/>
-      <c r="M20" s="365"/>
-      <c r="N20" s="377"/>
-      <c r="O20" s="365"/>
-      <c r="P20" s="365"/>
-      <c r="Q20" s="365"/>
-      <c r="R20" s="365"/>
-      <c r="S20" s="365"/>
-      <c r="T20" s="368"/>
-      <c r="U20" s="365"/>
+      <c r="M20" s="344"/>
+      <c r="N20" s="356"/>
+      <c r="O20" s="344"/>
+      <c r="P20" s="344"/>
+      <c r="Q20" s="344"/>
+      <c r="R20" s="344"/>
+      <c r="S20" s="344"/>
+      <c r="T20" s="359"/>
+      <c r="U20" s="344"/>
       <c r="V20" s="41"/>
       <c r="W20" s="36"/>
       <c r="X20" s="36"/>
@@ -19270,7 +19270,7 @@
       <c r="A21" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="372" t="s">
+      <c r="B21" s="351" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -19304,33 +19304,33 @@
         <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="M21" s="363">
+      <c r="M21" s="342">
         <v>60</v>
       </c>
-      <c r="N21" s="375" t="s">
+      <c r="N21" s="354" t="s">
         <v>95</v>
       </c>
-      <c r="O21" s="363">
+      <c r="O21" s="342">
         <f>IF(N21="daily",1,IF(N21="week",7,IF(N21="month",30)))</f>
         <v>1</v>
       </c>
-      <c r="P21" s="363">
+      <c r="P21" s="342">
         <v>3</v>
       </c>
-      <c r="Q21" s="363">
+      <c r="Q21" s="342">
         <f>P21/O21</f>
         <v>3</v>
       </c>
-      <c r="R21" s="363">
+      <c r="R21" s="342">
         <f>M21*Q21</f>
         <v>180</v>
       </c>
-      <c r="S21" s="363"/>
-      <c r="T21" s="366">
+      <c r="S21" s="342"/>
+      <c r="T21" s="357">
         <f>MIN(R21:S24)</f>
         <v>180</v>
       </c>
-      <c r="U21" s="363">
+      <c r="U21" s="342">
         <v>700</v>
       </c>
       <c r="V21" s="41">
@@ -19347,7 +19347,7 @@
       <c r="A22" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="373"/>
+      <c r="B22" s="352"/>
       <c r="C22" s="40" t="s">
         <v>204</v>
       </c>
@@ -19379,24 +19379,24 @@
         <f t="shared" si="0"/>
         <v>4.0000000000000008E-2</v>
       </c>
-      <c r="M22" s="364"/>
-      <c r="N22" s="376"/>
-      <c r="O22" s="364"/>
-      <c r="P22" s="364"/>
-      <c r="Q22" s="364"/>
-      <c r="R22" s="364"/>
-      <c r="S22" s="364"/>
-      <c r="T22" s="367"/>
-      <c r="U22" s="364"/>
+      <c r="M22" s="343"/>
+      <c r="N22" s="355"/>
+      <c r="O22" s="343"/>
+      <c r="P22" s="343"/>
+      <c r="Q22" s="343"/>
+      <c r="R22" s="343"/>
+      <c r="S22" s="343"/>
+      <c r="T22" s="358"/>
+      <c r="U22" s="343"/>
       <c r="V22" s="41"/>
       <c r="W22" s="36"/>
       <c r="X22" s="36"/>
     </row>
     <row r="23" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="369" t="s">
+      <c r="A23" s="362" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="373"/>
+      <c r="B23" s="352"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
@@ -19407,22 +19407,22 @@
       <c r="J23" s="36"/>
       <c r="K23" s="36"/>
       <c r="L23" s="42"/>
-      <c r="M23" s="364"/>
-      <c r="N23" s="376"/>
-      <c r="O23" s="364"/>
-      <c r="P23" s="364"/>
-      <c r="Q23" s="364"/>
-      <c r="R23" s="364"/>
-      <c r="S23" s="364"/>
-      <c r="T23" s="367"/>
-      <c r="U23" s="364"/>
+      <c r="M23" s="343"/>
+      <c r="N23" s="355"/>
+      <c r="O23" s="343"/>
+      <c r="P23" s="343"/>
+      <c r="Q23" s="343"/>
+      <c r="R23" s="343"/>
+      <c r="S23" s="343"/>
+      <c r="T23" s="358"/>
+      <c r="U23" s="343"/>
       <c r="V23" s="41"/>
       <c r="W23" s="36"/>
       <c r="X23" s="36"/>
     </row>
     <row r="24" spans="1:46" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="370"/>
-      <c r="B24" s="374"/>
+      <c r="A24" s="363"/>
+      <c r="B24" s="353"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
       <c r="E24" s="40"/>
@@ -19433,15 +19433,15 @@
       <c r="J24" s="36"/>
       <c r="K24" s="36"/>
       <c r="L24" s="42"/>
-      <c r="M24" s="365"/>
-      <c r="N24" s="377"/>
-      <c r="O24" s="365"/>
-      <c r="P24" s="365"/>
-      <c r="Q24" s="365"/>
-      <c r="R24" s="365"/>
-      <c r="S24" s="365"/>
-      <c r="T24" s="368"/>
-      <c r="U24" s="365"/>
+      <c r="M24" s="344"/>
+      <c r="N24" s="356"/>
+      <c r="O24" s="344"/>
+      <c r="P24" s="344"/>
+      <c r="Q24" s="344"/>
+      <c r="R24" s="344"/>
+      <c r="S24" s="344"/>
+      <c r="T24" s="359"/>
+      <c r="U24" s="344"/>
       <c r="V24" s="41"/>
       <c r="W24" s="36"/>
       <c r="X24" s="36"/>
@@ -19467,13 +19467,13 @@
       <c r="D27" s="46"/>
       <c r="E27" s="46"/>
       <c r="F27" s="46"/>
-      <c r="H27" s="371" t="s">
+      <c r="H27" s="364" t="s">
         <v>206</v>
       </c>
-      <c r="I27" s="371"/>
-      <c r="J27" s="371"/>
-      <c r="K27" s="371"/>
-      <c r="L27" s="371"/>
+      <c r="I27" s="364"/>
+      <c r="J27" s="364"/>
+      <c r="K27" s="364"/>
+      <c r="L27" s="364"/>
       <c r="M27" s="48"/>
       <c r="N27" s="48"/>
       <c r="O27" s="46"/>
@@ -19753,19 +19753,19 @@
     <row r="40" spans="1:40" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="104"/>
       <c r="C40" s="105"/>
-      <c r="D40" s="361" t="s">
+      <c r="D40" s="367" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="361"/>
-      <c r="F40" s="361"/>
-      <c r="G40" s="361"/>
-      <c r="H40" s="361"/>
-      <c r="I40" s="361" t="s">
+      <c r="E40" s="367"/>
+      <c r="F40" s="367"/>
+      <c r="G40" s="367"/>
+      <c r="H40" s="367"/>
+      <c r="I40" s="367" t="s">
         <v>5</v>
       </c>
-      <c r="J40" s="361"/>
-      <c r="K40" s="361"/>
-      <c r="L40" s="361"/>
+      <c r="J40" s="367"/>
+      <c r="K40" s="367"/>
+      <c r="L40" s="367"/>
       <c r="M40" s="117"/>
       <c r="N40" s="118" t="s">
         <v>48</v>
@@ -19889,19 +19889,19 @@
       </c>
     </row>
     <row r="42" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="356"/>
+      <c r="B42" s="368"/>
       <c r="C42" s="110"/>
       <c r="D42" s="111"/>
       <c r="E42" s="111"/>
       <c r="F42" s="125"/>
       <c r="G42" s="125"/>
-      <c r="H42" s="357"/>
+      <c r="H42" s="366"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
       <c r="K42" s="125"/>
       <c r="L42" s="125"/>
-      <c r="M42" s="357"/>
-      <c r="N42" s="398"/>
+      <c r="M42" s="366"/>
+      <c r="N42" s="393"/>
       <c r="P42" s="91"/>
       <c r="Q42" s="91"/>
       <c r="U42" s="64"/>
@@ -19947,19 +19947,19 @@
       <c r="AN42" s="88"/>
     </row>
     <row r="43" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="356"/>
+      <c r="B43" s="368"/>
       <c r="C43" s="110"/>
       <c r="D43" s="125"/>
       <c r="E43" s="111"/>
       <c r="F43" s="125"/>
       <c r="G43" s="103"/>
-      <c r="H43" s="357"/>
+      <c r="H43" s="366"/>
       <c r="I43" s="111"/>
       <c r="J43" s="111"/>
       <c r="K43" s="103"/>
       <c r="L43" s="103"/>
-      <c r="M43" s="357"/>
-      <c r="N43" s="357"/>
+      <c r="M43" s="366"/>
+      <c r="N43" s="366"/>
       <c r="P43" s="92"/>
       <c r="Q43" s="92"/>
       <c r="U43" s="64"/>
@@ -20005,19 +20005,19 @@
       <c r="AN43" s="88"/>
     </row>
     <row r="44" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="356"/>
+      <c r="B44" s="368"/>
       <c r="C44" s="110"/>
       <c r="D44" s="111"/>
       <c r="E44" s="111"/>
       <c r="F44" s="125"/>
       <c r="G44" s="125"/>
-      <c r="H44" s="357"/>
+      <c r="H44" s="366"/>
       <c r="I44" s="111"/>
       <c r="J44" s="111"/>
       <c r="K44" s="125"/>
       <c r="L44" s="125"/>
-      <c r="M44" s="357"/>
-      <c r="N44" s="357"/>
+      <c r="M44" s="366"/>
+      <c r="N44" s="366"/>
       <c r="P44" s="91"/>
       <c r="Q44" s="91"/>
       <c r="U44" s="64"/>
@@ -20063,19 +20063,19 @@
       <c r="AN44" s="88"/>
     </row>
     <row r="45" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="356"/>
+      <c r="B45" s="368"/>
       <c r="C45" s="110"/>
       <c r="D45" s="111"/>
       <c r="E45" s="111"/>
       <c r="F45" s="125"/>
       <c r="G45" s="125"/>
-      <c r="H45" s="357"/>
+      <c r="H45" s="366"/>
       <c r="I45" s="111"/>
       <c r="J45" s="111"/>
       <c r="K45" s="125"/>
       <c r="L45" s="125"/>
-      <c r="M45" s="357"/>
-      <c r="N45" s="357"/>
+      <c r="M45" s="366"/>
+      <c r="N45" s="366"/>
       <c r="P45" s="91"/>
       <c r="Q45" s="91"/>
       <c r="U45" s="64"/>
@@ -20121,19 +20121,19 @@
       <c r="AN45" s="88"/>
     </row>
     <row r="46" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="356"/>
+      <c r="B46" s="368"/>
       <c r="C46" s="110"/>
       <c r="D46" s="111"/>
       <c r="E46" s="111"/>
       <c r="F46" s="125"/>
       <c r="G46" s="125"/>
-      <c r="H46" s="357"/>
+      <c r="H46" s="366"/>
       <c r="I46" s="111"/>
       <c r="J46" s="111"/>
       <c r="K46" s="125"/>
       <c r="L46" s="125"/>
-      <c r="M46" s="357"/>
-      <c r="N46" s="399"/>
+      <c r="M46" s="366"/>
+      <c r="N46" s="394"/>
       <c r="P46" s="91"/>
       <c r="Q46" s="91"/>
       <c r="U46" s="64"/>
@@ -20179,19 +20179,19 @@
       <c r="AN46" s="88"/>
     </row>
     <row r="47" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="356"/>
+      <c r="B47" s="368"/>
       <c r="C47" s="110"/>
       <c r="D47" s="111"/>
       <c r="E47" s="111"/>
       <c r="F47" s="111"/>
       <c r="G47" s="111"/>
-      <c r="H47" s="357"/>
+      <c r="H47" s="366"/>
       <c r="I47" s="111"/>
       <c r="J47" s="111"/>
       <c r="K47" s="111"/>
       <c r="L47" s="111"/>
-      <c r="M47" s="357"/>
-      <c r="N47" s="359"/>
+      <c r="M47" s="366"/>
+      <c r="N47" s="370"/>
       <c r="P47" s="81"/>
       <c r="Q47" s="81"/>
       <c r="S47" s="69"/>
@@ -20239,19 +20239,19 @@
       <c r="AN47" s="88"/>
     </row>
     <row r="48" spans="1:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="356"/>
+      <c r="B48" s="368"/>
       <c r="C48" s="110"/>
       <c r="D48" s="111"/>
       <c r="E48" s="111"/>
       <c r="F48" s="111"/>
       <c r="G48" s="111"/>
-      <c r="H48" s="357"/>
+      <c r="H48" s="366"/>
       <c r="I48" s="111"/>
       <c r="J48" s="111"/>
       <c r="K48" s="111"/>
       <c r="L48" s="111"/>
-      <c r="M48" s="357"/>
-      <c r="N48" s="359"/>
+      <c r="M48" s="366"/>
+      <c r="N48" s="370"/>
       <c r="P48" s="81"/>
       <c r="Q48" s="81"/>
       <c r="S48" s="69"/>
@@ -20299,19 +20299,19 @@
       <c r="AN48" s="88"/>
     </row>
     <row r="49" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="356"/>
+      <c r="B49" s="368"/>
       <c r="C49" s="110"/>
       <c r="D49" s="111"/>
       <c r="E49" s="111"/>
       <c r="F49" s="111"/>
       <c r="G49" s="111"/>
-      <c r="H49" s="357"/>
+      <c r="H49" s="366"/>
       <c r="I49" s="111"/>
       <c r="J49" s="111"/>
       <c r="K49" s="111"/>
       <c r="L49" s="111"/>
-      <c r="M49" s="357"/>
-      <c r="N49" s="359"/>
+      <c r="M49" s="366"/>
+      <c r="N49" s="370"/>
       <c r="P49" s="81"/>
       <c r="Q49" s="81"/>
       <c r="S49" s="69"/>
@@ -20359,19 +20359,19 @@
       <c r="AN49" s="89"/>
     </row>
     <row r="50" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="351"/>
+      <c r="B50" s="371"/>
       <c r="C50" s="112"/>
       <c r="D50" s="113"/>
       <c r="E50" s="113"/>
       <c r="F50" s="113"/>
       <c r="G50" s="113"/>
-      <c r="H50" s="352"/>
+      <c r="H50" s="372"/>
       <c r="I50" s="113"/>
       <c r="J50" s="113"/>
       <c r="K50" s="113"/>
       <c r="L50" s="113"/>
-      <c r="M50" s="352"/>
-      <c r="N50" s="400"/>
+      <c r="M50" s="372"/>
+      <c r="N50" s="395"/>
       <c r="P50" s="81"/>
       <c r="Q50" s="81"/>
       <c r="S50" s="69"/>
@@ -20392,19 +20392,19 @@
       <c r="AN50" s="64"/>
     </row>
     <row r="51" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B51" s="351"/>
+      <c r="B51" s="371"/>
       <c r="C51" s="112"/>
       <c r="D51" s="113"/>
       <c r="E51" s="113"/>
       <c r="F51" s="113"/>
       <c r="G51" s="113"/>
-      <c r="H51" s="352"/>
+      <c r="H51" s="372"/>
       <c r="I51" s="113"/>
       <c r="J51" s="113"/>
       <c r="K51" s="113"/>
       <c r="L51" s="113"/>
-      <c r="M51" s="352"/>
-      <c r="N51" s="354"/>
+      <c r="M51" s="372"/>
+      <c r="N51" s="374"/>
       <c r="P51" s="81"/>
       <c r="Q51" s="81"/>
       <c r="S51" s="69"/>
@@ -20435,19 +20435,19 @@
       <c r="AN51" s="46"/>
     </row>
     <row r="52" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="351"/>
+      <c r="B52" s="371"/>
       <c r="C52" s="112"/>
       <c r="D52" s="113"/>
       <c r="E52" s="113"/>
       <c r="F52" s="113"/>
       <c r="G52" s="113"/>
-      <c r="H52" s="352"/>
+      <c r="H52" s="372"/>
       <c r="I52" s="113"/>
       <c r="J52" s="113"/>
       <c r="K52" s="113"/>
       <c r="L52" s="113"/>
-      <c r="M52" s="352"/>
-      <c r="N52" s="354"/>
+      <c r="M52" s="372"/>
+      <c r="N52" s="374"/>
       <c r="P52" s="81"/>
       <c r="Q52" s="81"/>
       <c r="S52" s="69"/>
@@ -20511,19 +20511,19 @@
       </c>
     </row>
     <row r="53" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="351"/>
+      <c r="B53" s="371"/>
       <c r="C53" s="112"/>
       <c r="D53" s="113"/>
       <c r="E53" s="113"/>
       <c r="F53" s="113"/>
       <c r="G53" s="113"/>
-      <c r="H53" s="352"/>
+      <c r="H53" s="372"/>
       <c r="I53" s="113"/>
       <c r="J53" s="113"/>
       <c r="K53" s="113"/>
       <c r="L53" s="113"/>
-      <c r="M53" s="352"/>
-      <c r="N53" s="354"/>
+      <c r="M53" s="372"/>
+      <c r="N53" s="374"/>
       <c r="P53" s="81"/>
       <c r="Q53" s="81"/>
       <c r="S53" s="69"/>
@@ -20572,19 +20572,19 @@
       <c r="AN53" s="88"/>
     </row>
     <row r="54" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="351"/>
+      <c r="B54" s="371"/>
       <c r="C54" s="112"/>
       <c r="D54" s="113"/>
       <c r="E54" s="113"/>
       <c r="F54" s="113"/>
       <c r="G54" s="113"/>
-      <c r="H54" s="352"/>
+      <c r="H54" s="372"/>
       <c r="I54" s="113"/>
       <c r="J54" s="113"/>
       <c r="K54" s="113"/>
       <c r="L54" s="113"/>
-      <c r="M54" s="352"/>
-      <c r="N54" s="393"/>
+      <c r="M54" s="372"/>
+      <c r="N54" s="396"/>
       <c r="P54" s="81"/>
       <c r="Q54" s="81"/>
       <c r="S54" s="69"/>
@@ -20631,19 +20631,19 @@
       <c r="AN54" s="88"/>
     </row>
     <row r="55" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="351"/>
+      <c r="B55" s="371"/>
       <c r="C55" s="112"/>
       <c r="D55" s="113"/>
       <c r="E55" s="113"/>
       <c r="F55" s="113"/>
       <c r="G55" s="113"/>
-      <c r="H55" s="352"/>
+      <c r="H55" s="372"/>
       <c r="I55" s="113"/>
       <c r="J55" s="113"/>
       <c r="K55" s="113"/>
       <c r="L55" s="113"/>
-      <c r="M55" s="352"/>
-      <c r="N55" s="354"/>
+      <c r="M55" s="372"/>
+      <c r="N55" s="374"/>
       <c r="P55" s="81"/>
       <c r="Q55" s="81"/>
       <c r="S55" s="69"/>
@@ -20690,19 +20690,19 @@
       <c r="AN55" s="88"/>
     </row>
     <row r="56" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="351"/>
+      <c r="B56" s="371"/>
       <c r="C56" s="112"/>
       <c r="D56" s="113"/>
       <c r="E56" s="113"/>
       <c r="F56" s="113"/>
       <c r="G56" s="113"/>
-      <c r="H56" s="352"/>
+      <c r="H56" s="372"/>
       <c r="I56" s="113"/>
       <c r="J56" s="113"/>
       <c r="K56" s="113"/>
       <c r="L56" s="113"/>
-      <c r="M56" s="352"/>
-      <c r="N56" s="354"/>
+      <c r="M56" s="372"/>
+      <c r="N56" s="374"/>
       <c r="P56" s="81"/>
       <c r="Q56" s="81"/>
       <c r="S56" s="69"/>
@@ -20749,19 +20749,19 @@
       <c r="AN56" s="88"/>
     </row>
     <row r="57" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="351"/>
+      <c r="B57" s="371"/>
       <c r="C57" s="112"/>
       <c r="D57" s="113"/>
       <c r="E57" s="113"/>
       <c r="F57" s="113"/>
       <c r="G57" s="113"/>
-      <c r="H57" s="352"/>
+      <c r="H57" s="372"/>
       <c r="I57" s="113"/>
       <c r="J57" s="113"/>
       <c r="K57" s="113"/>
       <c r="L57" s="113"/>
-      <c r="M57" s="352"/>
-      <c r="N57" s="354"/>
+      <c r="M57" s="372"/>
+      <c r="N57" s="374"/>
       <c r="P57" s="81"/>
       <c r="Q57" s="81"/>
       <c r="S57" s="69"/>
@@ -20808,19 +20808,19 @@
       <c r="AN57" s="88"/>
     </row>
     <row r="58" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="346"/>
+      <c r="B58" s="376"/>
       <c r="C58" s="114"/>
       <c r="D58" s="115"/>
       <c r="E58" s="115"/>
       <c r="F58" s="115"/>
       <c r="G58" s="115"/>
-      <c r="H58" s="347"/>
+      <c r="H58" s="377"/>
       <c r="I58" s="115"/>
       <c r="J58" s="115"/>
       <c r="K58" s="115"/>
       <c r="L58" s="115"/>
-      <c r="M58" s="347"/>
-      <c r="N58" s="394"/>
+      <c r="M58" s="377"/>
+      <c r="N58" s="397"/>
       <c r="P58" s="81"/>
       <c r="Q58" s="81"/>
       <c r="S58" s="69"/>
@@ -20867,19 +20867,19 @@
       <c r="AN58" s="88"/>
     </row>
     <row r="59" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="346"/>
+      <c r="B59" s="376"/>
       <c r="C59" s="114"/>
       <c r="D59" s="115"/>
       <c r="E59" s="115"/>
       <c r="F59" s="115"/>
       <c r="G59" s="115"/>
-      <c r="H59" s="347"/>
+      <c r="H59" s="377"/>
       <c r="I59" s="115"/>
       <c r="J59" s="115"/>
       <c r="K59" s="115"/>
       <c r="L59" s="115"/>
-      <c r="M59" s="347"/>
-      <c r="N59" s="349"/>
+      <c r="M59" s="377"/>
+      <c r="N59" s="379"/>
       <c r="P59" s="81"/>
       <c r="Q59" s="81"/>
       <c r="S59" s="69"/>
@@ -20926,19 +20926,19 @@
       <c r="AN59" s="88"/>
     </row>
     <row r="60" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="346"/>
+      <c r="B60" s="376"/>
       <c r="C60" s="114"/>
       <c r="D60" s="115"/>
       <c r="E60" s="115"/>
       <c r="F60" s="115"/>
       <c r="G60" s="115"/>
-      <c r="H60" s="347"/>
+      <c r="H60" s="377"/>
       <c r="I60" s="115"/>
       <c r="J60" s="115"/>
       <c r="K60" s="115"/>
       <c r="L60" s="115"/>
-      <c r="M60" s="347"/>
-      <c r="N60" s="349"/>
+      <c r="M60" s="377"/>
+      <c r="N60" s="379"/>
       <c r="P60" s="81"/>
       <c r="Q60" s="81"/>
       <c r="S60" s="69"/>
@@ -20985,247 +20985,247 @@
       <c r="AN60" s="89"/>
     </row>
     <row r="61" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="346"/>
+      <c r="B61" s="376"/>
       <c r="C61" s="114"/>
       <c r="D61" s="115"/>
       <c r="E61" s="115"/>
       <c r="F61" s="115"/>
       <c r="G61" s="115"/>
-      <c r="H61" s="347"/>
+      <c r="H61" s="377"/>
       <c r="I61" s="115"/>
       <c r="J61" s="115"/>
       <c r="K61" s="115"/>
       <c r="L61" s="115"/>
-      <c r="M61" s="347"/>
-      <c r="N61" s="349"/>
+      <c r="M61" s="377"/>
+      <c r="N61" s="379"/>
       <c r="P61" s="81"/>
       <c r="Q61" s="81"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
     </row>
     <row r="62" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="346"/>
+      <c r="B62" s="376"/>
       <c r="C62" s="114"/>
       <c r="D62" s="115"/>
       <c r="E62" s="115"/>
       <c r="F62" s="115"/>
       <c r="G62" s="115"/>
-      <c r="H62" s="347"/>
+      <c r="H62" s="377"/>
       <c r="I62" s="115"/>
       <c r="J62" s="115"/>
       <c r="K62" s="115"/>
       <c r="L62" s="115"/>
-      <c r="M62" s="347"/>
-      <c r="N62" s="395"/>
+      <c r="M62" s="377"/>
+      <c r="N62" s="398"/>
       <c r="P62" s="81"/>
       <c r="Q62" s="81"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
     </row>
     <row r="63" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="346"/>
+      <c r="B63" s="376"/>
       <c r="C63" s="114"/>
       <c r="D63" s="115"/>
       <c r="E63" s="115"/>
       <c r="F63" s="115"/>
       <c r="G63" s="115"/>
-      <c r="H63" s="347"/>
+      <c r="H63" s="377"/>
       <c r="I63" s="115"/>
       <c r="J63" s="115"/>
       <c r="K63" s="115"/>
       <c r="L63" s="115"/>
-      <c r="M63" s="347"/>
-      <c r="N63" s="349"/>
+      <c r="M63" s="377"/>
+      <c r="N63" s="379"/>
       <c r="P63" s="81"/>
       <c r="Q63" s="81"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
     </row>
     <row r="64" spans="2:40" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="346"/>
+      <c r="B64" s="376"/>
       <c r="C64" s="114"/>
       <c r="D64" s="115"/>
       <c r="E64" s="115"/>
       <c r="F64" s="115"/>
       <c r="G64" s="115"/>
-      <c r="H64" s="347"/>
+      <c r="H64" s="377"/>
       <c r="I64" s="115"/>
       <c r="J64" s="115"/>
       <c r="K64" s="115"/>
       <c r="L64" s="115"/>
-      <c r="M64" s="347"/>
-      <c r="N64" s="349"/>
+      <c r="M64" s="377"/>
+      <c r="N64" s="379"/>
       <c r="P64" s="81"/>
       <c r="Q64" s="81"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
     </row>
     <row r="65" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="346"/>
+      <c r="B65" s="376"/>
       <c r="C65" s="114"/>
       <c r="D65" s="115"/>
       <c r="E65" s="115"/>
       <c r="F65" s="115"/>
       <c r="G65" s="115"/>
-      <c r="H65" s="347"/>
+      <c r="H65" s="377"/>
       <c r="I65" s="115"/>
       <c r="J65" s="115"/>
       <c r="K65" s="115"/>
       <c r="L65" s="115"/>
-      <c r="M65" s="347"/>
-      <c r="N65" s="349"/>
+      <c r="M65" s="377"/>
+      <c r="N65" s="379"/>
       <c r="P65" s="81"/>
       <c r="Q65" s="81"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
     </row>
     <row r="66" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="342"/>
+      <c r="B66" s="380"/>
       <c r="C66" s="128"/>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
       <c r="F66" s="116"/>
       <c r="G66" s="116"/>
-      <c r="H66" s="343"/>
+      <c r="H66" s="381"/>
       <c r="I66" s="116"/>
       <c r="J66" s="116"/>
       <c r="K66" s="116"/>
       <c r="L66" s="116"/>
-      <c r="M66" s="343"/>
-      <c r="N66" s="396"/>
+      <c r="M66" s="381"/>
+      <c r="N66" s="399"/>
       <c r="P66" s="81"/>
       <c r="Q66" s="81"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
     </row>
     <row r="67" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="342"/>
+      <c r="B67" s="380"/>
       <c r="C67" s="128"/>
       <c r="D67" s="116"/>
       <c r="E67" s="116"/>
       <c r="F67" s="116"/>
       <c r="G67" s="116"/>
-      <c r="H67" s="343"/>
+      <c r="H67" s="381"/>
       <c r="I67" s="116"/>
       <c r="J67" s="116"/>
       <c r="K67" s="116"/>
       <c r="L67" s="116"/>
-      <c r="M67" s="343"/>
-      <c r="N67" s="345"/>
+      <c r="M67" s="381"/>
+      <c r="N67" s="383"/>
       <c r="P67" s="81"/>
       <c r="Q67" s="81"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
     </row>
     <row r="68" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="342"/>
+      <c r="B68" s="380"/>
       <c r="C68" s="128"/>
       <c r="D68" s="116"/>
       <c r="E68" s="116"/>
       <c r="F68" s="116"/>
       <c r="G68" s="116"/>
-      <c r="H68" s="343"/>
+      <c r="H68" s="381"/>
       <c r="I68" s="116"/>
       <c r="J68" s="116"/>
       <c r="K68" s="116"/>
       <c r="L68" s="116"/>
-      <c r="M68" s="343"/>
-      <c r="N68" s="345"/>
+      <c r="M68" s="381"/>
+      <c r="N68" s="383"/>
       <c r="P68" s="81"/>
       <c r="Q68" s="81"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
     </row>
     <row r="69" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="342"/>
+      <c r="B69" s="380"/>
       <c r="C69" s="128"/>
       <c r="D69" s="116"/>
       <c r="E69" s="116"/>
       <c r="F69" s="116"/>
       <c r="G69" s="116"/>
-      <c r="H69" s="343"/>
+      <c r="H69" s="381"/>
       <c r="I69" s="116"/>
       <c r="J69" s="116"/>
       <c r="K69" s="116"/>
       <c r="L69" s="116"/>
-      <c r="M69" s="343"/>
-      <c r="N69" s="345"/>
+      <c r="M69" s="381"/>
+      <c r="N69" s="383"/>
       <c r="P69" s="81"/>
       <c r="Q69" s="81"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
     </row>
     <row r="70" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="342"/>
+      <c r="B70" s="380"/>
       <c r="C70" s="128"/>
       <c r="D70" s="116"/>
       <c r="E70" s="116"/>
       <c r="F70" s="116"/>
       <c r="G70" s="116"/>
-      <c r="H70" s="343"/>
+      <c r="H70" s="381"/>
       <c r="I70" s="116"/>
       <c r="J70" s="116"/>
       <c r="K70" s="116"/>
       <c r="L70" s="116"/>
-      <c r="M70" s="343"/>
-      <c r="N70" s="397"/>
+      <c r="M70" s="381"/>
+      <c r="N70" s="400"/>
       <c r="P70" s="81"/>
       <c r="Q70" s="81"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
     </row>
     <row r="71" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="342"/>
+      <c r="B71" s="380"/>
       <c r="C71" s="128"/>
       <c r="D71" s="116"/>
       <c r="E71" s="116"/>
       <c r="F71" s="116"/>
       <c r="G71" s="116"/>
-      <c r="H71" s="343"/>
+      <c r="H71" s="381"/>
       <c r="I71" s="116"/>
       <c r="J71" s="116"/>
       <c r="K71" s="116"/>
       <c r="L71" s="116"/>
-      <c r="M71" s="343"/>
-      <c r="N71" s="345"/>
+      <c r="M71" s="381"/>
+      <c r="N71" s="383"/>
       <c r="P71" s="81"/>
       <c r="Q71" s="81"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
     </row>
     <row r="72" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="342"/>
+      <c r="B72" s="380"/>
       <c r="C72" s="128"/>
       <c r="D72" s="116"/>
       <c r="E72" s="116"/>
       <c r="F72" s="116"/>
       <c r="G72" s="116"/>
-      <c r="H72" s="343"/>
+      <c r="H72" s="381"/>
       <c r="I72" s="116"/>
       <c r="J72" s="116"/>
       <c r="K72" s="116"/>
       <c r="L72" s="116"/>
-      <c r="M72" s="343"/>
-      <c r="N72" s="345"/>
+      <c r="M72" s="381"/>
+      <c r="N72" s="383"/>
       <c r="P72" s="81"/>
       <c r="Q72" s="81"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
     </row>
     <row r="73" spans="1:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="342"/>
+      <c r="B73" s="380"/>
       <c r="C73" s="128"/>
       <c r="D73" s="116"/>
       <c r="E73" s="116"/>
       <c r="F73" s="116"/>
       <c r="G73" s="116"/>
-      <c r="H73" s="343"/>
+      <c r="H73" s="381"/>
       <c r="I73" s="116"/>
       <c r="J73" s="116"/>
       <c r="K73" s="116"/>
       <c r="L73" s="116"/>
-      <c r="M73" s="343"/>
-      <c r="N73" s="345"/>
+      <c r="M73" s="381"/>
+      <c r="N73" s="383"/>
       <c r="P73" s="81"/>
       <c r="Q73" s="81"/>
       <c r="S73" s="69"/>
@@ -22706,24 +22706,56 @@
     <row r="140" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B69"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="H66:H69"/>
+    <mergeCell ref="H42:H45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="H46:H49"/>
+    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="M70:M73"/>
+    <mergeCell ref="M54:M57"/>
+    <mergeCell ref="H58:H61"/>
+    <mergeCell ref="M58:M61"/>
+    <mergeCell ref="H62:H65"/>
+    <mergeCell ref="M62:M65"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="U21:U24"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="M21:M24"/>
+    <mergeCell ref="N21:N24"/>
+    <mergeCell ref="O21:O24"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="T21:T24"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="M50:M53"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="M46:M49"/>
     <mergeCell ref="U17:U20"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="R13:R16"/>
@@ -22740,56 +22772,24 @@
     <mergeCell ref="M13:M16"/>
     <mergeCell ref="N13:N16"/>
     <mergeCell ref="O13:O16"/>
-    <mergeCell ref="M50:M53"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="M42:M45"/>
-    <mergeCell ref="M46:M49"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="T21:T24"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="U21:U24"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="M21:M24"/>
-    <mergeCell ref="N21:N24"/>
-    <mergeCell ref="O21:O24"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="H70:H73"/>
-    <mergeCell ref="M70:M73"/>
-    <mergeCell ref="M54:M57"/>
-    <mergeCell ref="H58:H61"/>
-    <mergeCell ref="M58:M61"/>
-    <mergeCell ref="H62:H65"/>
-    <mergeCell ref="M62:M65"/>
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B73"/>
-    <mergeCell ref="D40:H40"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="H66:H69"/>
-    <mergeCell ref="H42:H45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="B46:B49"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B61"/>
-    <mergeCell ref="H46:H49"/>
-    <mergeCell ref="H50:H53"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
@@ -1698,29 +1698,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="21" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1731,7 +1734,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1761,48 +1770,29 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3689,8 +3679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB39" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AM42" sqref="AM42"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -3739,15 +3729,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="248" t="s">
+      <c r="F1" s="269" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="248"/>
-      <c r="H1" s="248"/>
-      <c r="I1" s="248"/>
-      <c r="J1" s="248"/>
-      <c r="K1" s="248"/>
-      <c r="L1" s="248"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
       <c r="U1" s="20" t="s">
         <v>53</v>
       </c>
@@ -3796,22 +3786,22 @@
       <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:48" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="249" t="s">
+      <c r="D6" s="270" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="250"/>
-      <c r="F6" s="250"/>
-      <c r="G6" s="250"/>
-      <c r="H6" s="251"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="271"/>
+      <c r="G6" s="271"/>
+      <c r="H6" s="272"/>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
-      <c r="M6" s="249" t="s">
+      <c r="M6" s="270" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="250"/>
-      <c r="O6" s="250"/>
-      <c r="P6" s="250"/>
-      <c r="Q6" s="251"/>
+      <c r="N6" s="271"/>
+      <c r="O6" s="271"/>
+      <c r="P6" s="271"/>
+      <c r="Q6" s="272"/>
     </row>
     <row r="7" spans="1:48" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="22" t="s">
@@ -3829,10 +3819,10 @@
       <c r="E7" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="252" t="s">
+      <c r="F7" s="273" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="253"/>
+      <c r="G7" s="274"/>
       <c r="H7" s="22" t="s">
         <v>63</v>
       </c>
@@ -3855,10 +3845,10 @@
         <v>69</v>
       </c>
       <c r="O7" s="27"/>
-      <c r="P7" s="252" t="s">
+      <c r="P7" s="273" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="253"/>
+      <c r="Q7" s="274"/>
       <c r="R7" s="28" t="s">
         <v>64</v>
       </c>
@@ -3926,7 +3916,7 @@
     </row>
     <row r="9" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="37"/>
-      <c r="B9" s="254"/>
+      <c r="B9" s="255"/>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
@@ -3937,15 +3927,15 @@
       <c r="J9" s="34"/>
       <c r="K9" s="34"/>
       <c r="L9" s="40"/>
-      <c r="M9" s="246"/>
-      <c r="N9" s="258"/>
-      <c r="O9" s="246"/>
-      <c r="P9" s="246"/>
-      <c r="Q9" s="246"/>
-      <c r="R9" s="246"/>
-      <c r="S9" s="246"/>
-      <c r="T9" s="261"/>
-      <c r="U9" s="246"/>
+      <c r="M9" s="258"/>
+      <c r="N9" s="261"/>
+      <c r="O9" s="258"/>
+      <c r="P9" s="258"/>
+      <c r="Q9" s="258"/>
+      <c r="R9" s="258"/>
+      <c r="S9" s="258"/>
+      <c r="T9" s="264"/>
+      <c r="U9" s="258"/>
       <c r="V9" s="39"/>
       <c r="W9" s="34"/>
       <c r="X9" s="34"/>
@@ -3955,7 +3945,7 @@
     </row>
     <row r="10" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="38"/>
-      <c r="B10" s="255"/>
+      <c r="B10" s="256"/>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
       <c r="E10" s="38"/>
@@ -3966,15 +3956,15 @@
       <c r="J10" s="34"/>
       <c r="K10" s="34"/>
       <c r="L10" s="40"/>
-      <c r="M10" s="257"/>
-      <c r="N10" s="259"/>
-      <c r="O10" s="257"/>
-      <c r="P10" s="257"/>
-      <c r="Q10" s="257"/>
-      <c r="R10" s="257"/>
-      <c r="S10" s="257"/>
-      <c r="T10" s="262"/>
-      <c r="U10" s="257"/>
+      <c r="M10" s="259"/>
+      <c r="N10" s="262"/>
+      <c r="O10" s="259"/>
+      <c r="P10" s="259"/>
+      <c r="Q10" s="259"/>
+      <c r="R10" s="259"/>
+      <c r="S10" s="259"/>
+      <c r="T10" s="265"/>
+      <c r="U10" s="259"/>
       <c r="V10" s="39"/>
       <c r="W10" s="34"/>
       <c r="X10" s="34"/>
@@ -3982,8 +3972,8 @@
       <c r="AK10" s="44"/>
     </row>
     <row r="11" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="246"/>
-      <c r="B11" s="255"/>
+      <c r="A11" s="258"/>
+      <c r="B11" s="256"/>
       <c r="C11" s="38"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
@@ -3994,15 +3984,15 @@
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
       <c r="L11" s="40"/>
-      <c r="M11" s="257"/>
-      <c r="N11" s="259"/>
-      <c r="O11" s="257"/>
-      <c r="P11" s="257"/>
-      <c r="Q11" s="257"/>
-      <c r="R11" s="257"/>
-      <c r="S11" s="257"/>
-      <c r="T11" s="262"/>
-      <c r="U11" s="257"/>
+      <c r="M11" s="259"/>
+      <c r="N11" s="262"/>
+      <c r="O11" s="259"/>
+      <c r="P11" s="259"/>
+      <c r="Q11" s="259"/>
+      <c r="R11" s="259"/>
+      <c r="S11" s="259"/>
+      <c r="T11" s="265"/>
+      <c r="U11" s="259"/>
       <c r="V11" s="39"/>
       <c r="W11" s="34"/>
       <c r="X11" s="34"/>
@@ -4012,8 +4002,8 @@
       <c r="AV11" s="54"/>
     </row>
     <row r="12" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="247"/>
-      <c r="B12" s="256"/>
+      <c r="A12" s="260"/>
+      <c r="B12" s="257"/>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
       <c r="E12" s="38"/>
@@ -4024,15 +4014,15 @@
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
       <c r="L12" s="40"/>
-      <c r="M12" s="247"/>
-      <c r="N12" s="260"/>
-      <c r="O12" s="247"/>
-      <c r="P12" s="247"/>
-      <c r="Q12" s="247"/>
-      <c r="R12" s="247"/>
-      <c r="S12" s="247"/>
-      <c r="T12" s="263"/>
-      <c r="U12" s="247"/>
+      <c r="M12" s="260"/>
+      <c r="N12" s="263"/>
+      <c r="O12" s="260"/>
+      <c r="P12" s="260"/>
+      <c r="Q12" s="260"/>
+      <c r="R12" s="260"/>
+      <c r="S12" s="260"/>
+      <c r="T12" s="266"/>
+      <c r="U12" s="260"/>
       <c r="V12" s="39"/>
       <c r="W12" s="34"/>
       <c r="X12" s="34"/>
@@ -4041,7 +4031,7 @@
     </row>
     <row r="13" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="41"/>
-      <c r="B13" s="254"/>
+      <c r="B13" s="255"/>
       <c r="C13" s="38"/>
       <c r="D13" s="38"/>
       <c r="E13" s="38"/>
@@ -4052,15 +4042,15 @@
       <c r="J13" s="34"/>
       <c r="K13" s="34"/>
       <c r="L13" s="40"/>
-      <c r="M13" s="246"/>
-      <c r="N13" s="258"/>
-      <c r="O13" s="246"/>
-      <c r="P13" s="246"/>
-      <c r="Q13" s="246"/>
-      <c r="R13" s="246"/>
-      <c r="S13" s="246"/>
-      <c r="T13" s="261"/>
-      <c r="U13" s="246"/>
+      <c r="M13" s="258"/>
+      <c r="N13" s="261"/>
+      <c r="O13" s="258"/>
+      <c r="P13" s="258"/>
+      <c r="Q13" s="258"/>
+      <c r="R13" s="258"/>
+      <c r="S13" s="258"/>
+      <c r="T13" s="264"/>
+      <c r="U13" s="258"/>
       <c r="V13" s="39"/>
       <c r="W13" s="34"/>
       <c r="X13" s="34"/>
@@ -4069,7 +4059,7 @@
     </row>
     <row r="14" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="42"/>
-      <c r="B14" s="255"/>
+      <c r="B14" s="256"/>
       <c r="C14" s="38"/>
       <c r="D14" s="38"/>
       <c r="E14" s="38"/>
@@ -4080,15 +4070,15 @@
       <c r="J14" s="34"/>
       <c r="K14" s="34"/>
       <c r="L14" s="40"/>
-      <c r="M14" s="257"/>
-      <c r="N14" s="259"/>
-      <c r="O14" s="257"/>
-      <c r="P14" s="257"/>
-      <c r="Q14" s="257"/>
-      <c r="R14" s="257"/>
-      <c r="S14" s="257"/>
-      <c r="T14" s="262"/>
-      <c r="U14" s="257"/>
+      <c r="M14" s="259"/>
+      <c r="N14" s="262"/>
+      <c r="O14" s="259"/>
+      <c r="P14" s="259"/>
+      <c r="Q14" s="259"/>
+      <c r="R14" s="259"/>
+      <c r="S14" s="259"/>
+      <c r="T14" s="265"/>
+      <c r="U14" s="259"/>
       <c r="V14" s="39"/>
       <c r="W14" s="34"/>
       <c r="X14" s="34"/>
@@ -4096,8 +4086,8 @@
       <c r="AU14" s="59"/>
     </row>
     <row r="15" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="264"/>
-      <c r="B15" s="255"/>
+      <c r="A15" s="267"/>
+      <c r="B15" s="256"/>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
       <c r="E15" s="38"/>
@@ -4108,15 +4098,15 @@
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
       <c r="L15" s="40"/>
-      <c r="M15" s="257"/>
-      <c r="N15" s="259"/>
-      <c r="O15" s="257"/>
-      <c r="P15" s="257"/>
-      <c r="Q15" s="257"/>
-      <c r="R15" s="257"/>
-      <c r="S15" s="257"/>
-      <c r="T15" s="262"/>
-      <c r="U15" s="257"/>
+      <c r="M15" s="259"/>
+      <c r="N15" s="262"/>
+      <c r="O15" s="259"/>
+      <c r="P15" s="259"/>
+      <c r="Q15" s="259"/>
+      <c r="R15" s="259"/>
+      <c r="S15" s="259"/>
+      <c r="T15" s="265"/>
+      <c r="U15" s="259"/>
       <c r="V15" s="39"/>
       <c r="W15" s="34"/>
       <c r="X15" s="34"/>
@@ -4124,8 +4114,8 @@
       <c r="AU15" s="44"/>
     </row>
     <row r="16" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="265"/>
-      <c r="B16" s="256"/>
+      <c r="A16" s="268"/>
+      <c r="B16" s="257"/>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
@@ -4136,15 +4126,15 @@
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
       <c r="L16" s="40"/>
-      <c r="M16" s="247"/>
-      <c r="N16" s="260"/>
-      <c r="O16" s="247"/>
-      <c r="P16" s="247"/>
-      <c r="Q16" s="247"/>
-      <c r="R16" s="247"/>
-      <c r="S16" s="247"/>
-      <c r="T16" s="263"/>
-      <c r="U16" s="247"/>
+      <c r="M16" s="260"/>
+      <c r="N16" s="263"/>
+      <c r="O16" s="260"/>
+      <c r="P16" s="260"/>
+      <c r="Q16" s="260"/>
+      <c r="R16" s="260"/>
+      <c r="S16" s="260"/>
+      <c r="T16" s="266"/>
+      <c r="U16" s="260"/>
       <c r="V16" s="39"/>
       <c r="W16" s="34"/>
       <c r="X16" s="34"/>
@@ -4153,7 +4143,7 @@
     </row>
     <row r="17" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="37"/>
-      <c r="B17" s="254"/>
+      <c r="B17" s="255"/>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
       <c r="E17" s="38"/>
@@ -4164,15 +4154,15 @@
       <c r="J17" s="34"/>
       <c r="K17" s="34"/>
       <c r="L17" s="40"/>
-      <c r="M17" s="246"/>
-      <c r="N17" s="258"/>
-      <c r="O17" s="246"/>
-      <c r="P17" s="246"/>
-      <c r="Q17" s="246"/>
-      <c r="R17" s="246"/>
-      <c r="S17" s="246"/>
-      <c r="T17" s="261"/>
-      <c r="U17" s="246"/>
+      <c r="M17" s="258"/>
+      <c r="N17" s="261"/>
+      <c r="O17" s="258"/>
+      <c r="P17" s="258"/>
+      <c r="Q17" s="258"/>
+      <c r="R17" s="258"/>
+      <c r="S17" s="258"/>
+      <c r="T17" s="264"/>
+      <c r="U17" s="258"/>
       <c r="V17" s="39"/>
       <c r="W17" s="34"/>
       <c r="X17" s="34"/>
@@ -4181,7 +4171,7 @@
     </row>
     <row r="18" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="38"/>
-      <c r="B18" s="255"/>
+      <c r="B18" s="256"/>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
@@ -4192,22 +4182,22 @@
       <c r="J18" s="34"/>
       <c r="K18" s="34"/>
       <c r="L18" s="40"/>
-      <c r="M18" s="257"/>
-      <c r="N18" s="259"/>
-      <c r="O18" s="257"/>
-      <c r="P18" s="257"/>
-      <c r="Q18" s="257"/>
-      <c r="R18" s="257"/>
-      <c r="S18" s="257"/>
-      <c r="T18" s="262"/>
-      <c r="U18" s="257"/>
+      <c r="M18" s="259"/>
+      <c r="N18" s="262"/>
+      <c r="O18" s="259"/>
+      <c r="P18" s="259"/>
+      <c r="Q18" s="259"/>
+      <c r="R18" s="259"/>
+      <c r="S18" s="259"/>
+      <c r="T18" s="265"/>
+      <c r="U18" s="259"/>
       <c r="V18" s="39"/>
       <c r="W18" s="34"/>
       <c r="X18" s="34"/>
     </row>
     <row r="19" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="246"/>
-      <c r="B19" s="255"/>
+      <c r="A19" s="258"/>
+      <c r="B19" s="256"/>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
@@ -4218,22 +4208,22 @@
       <c r="J19" s="34"/>
       <c r="K19" s="34"/>
       <c r="L19" s="40"/>
-      <c r="M19" s="257"/>
-      <c r="N19" s="259"/>
-      <c r="O19" s="257"/>
-      <c r="P19" s="257"/>
-      <c r="Q19" s="257"/>
-      <c r="R19" s="257"/>
-      <c r="S19" s="257"/>
-      <c r="T19" s="262"/>
-      <c r="U19" s="257"/>
+      <c r="M19" s="259"/>
+      <c r="N19" s="262"/>
+      <c r="O19" s="259"/>
+      <c r="P19" s="259"/>
+      <c r="Q19" s="259"/>
+      <c r="R19" s="259"/>
+      <c r="S19" s="259"/>
+      <c r="T19" s="265"/>
+      <c r="U19" s="259"/>
       <c r="V19" s="39"/>
       <c r="W19" s="34"/>
       <c r="X19" s="34"/>
     </row>
     <row r="20" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="247"/>
-      <c r="B20" s="256"/>
+      <c r="A20" s="260"/>
+      <c r="B20" s="257"/>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
       <c r="E20" s="38"/>
@@ -4244,22 +4234,22 @@
       <c r="J20" s="34"/>
       <c r="K20" s="34"/>
       <c r="L20" s="40"/>
-      <c r="M20" s="247"/>
-      <c r="N20" s="260"/>
-      <c r="O20" s="247"/>
-      <c r="P20" s="247"/>
-      <c r="Q20" s="247"/>
-      <c r="R20" s="247"/>
-      <c r="S20" s="247"/>
-      <c r="T20" s="263"/>
-      <c r="U20" s="247"/>
+      <c r="M20" s="260"/>
+      <c r="N20" s="263"/>
+      <c r="O20" s="260"/>
+      <c r="P20" s="260"/>
+      <c r="Q20" s="260"/>
+      <c r="R20" s="260"/>
+      <c r="S20" s="260"/>
+      <c r="T20" s="266"/>
+      <c r="U20" s="260"/>
       <c r="V20" s="39"/>
       <c r="W20" s="34"/>
       <c r="X20" s="34"/>
     </row>
     <row r="21" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="37"/>
-      <c r="B21" s="254"/>
+      <c r="B21" s="255"/>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
       <c r="E21" s="38"/>
@@ -4270,22 +4260,22 @@
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
       <c r="L21" s="40"/>
-      <c r="M21" s="246"/>
-      <c r="N21" s="258"/>
-      <c r="O21" s="246"/>
-      <c r="P21" s="246"/>
-      <c r="Q21" s="246"/>
-      <c r="R21" s="246"/>
-      <c r="S21" s="246"/>
-      <c r="T21" s="261"/>
-      <c r="U21" s="246"/>
+      <c r="M21" s="258"/>
+      <c r="N21" s="261"/>
+      <c r="O21" s="258"/>
+      <c r="P21" s="258"/>
+      <c r="Q21" s="258"/>
+      <c r="R21" s="258"/>
+      <c r="S21" s="258"/>
+      <c r="T21" s="264"/>
+      <c r="U21" s="258"/>
       <c r="V21" s="39"/>
       <c r="W21" s="34"/>
       <c r="X21" s="34"/>
     </row>
     <row r="22" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="38"/>
-      <c r="B22" s="255"/>
+      <c r="B22" s="256"/>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
       <c r="E22" s="38"/>
@@ -4296,22 +4286,22 @@
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
       <c r="L22" s="40"/>
-      <c r="M22" s="257"/>
-      <c r="N22" s="259"/>
-      <c r="O22" s="257"/>
-      <c r="P22" s="257"/>
-      <c r="Q22" s="257"/>
-      <c r="R22" s="257"/>
-      <c r="S22" s="257"/>
-      <c r="T22" s="262"/>
-      <c r="U22" s="257"/>
+      <c r="M22" s="259"/>
+      <c r="N22" s="262"/>
+      <c r="O22" s="259"/>
+      <c r="P22" s="259"/>
+      <c r="Q22" s="259"/>
+      <c r="R22" s="259"/>
+      <c r="S22" s="259"/>
+      <c r="T22" s="265"/>
+      <c r="U22" s="259"/>
       <c r="V22" s="39"/>
       <c r="W22" s="34"/>
       <c r="X22" s="34"/>
     </row>
     <row r="23" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="273"/>
-      <c r="B23" s="255"/>
+      <c r="A23" s="253"/>
+      <c r="B23" s="256"/>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
       <c r="E23" s="38"/>
@@ -4322,22 +4312,22 @@
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
       <c r="L23" s="40"/>
-      <c r="M23" s="257"/>
-      <c r="N23" s="259"/>
-      <c r="O23" s="257"/>
-      <c r="P23" s="257"/>
-      <c r="Q23" s="257"/>
-      <c r="R23" s="257"/>
-      <c r="S23" s="257"/>
-      <c r="T23" s="262"/>
-      <c r="U23" s="257"/>
+      <c r="M23" s="259"/>
+      <c r="N23" s="262"/>
+      <c r="O23" s="259"/>
+      <c r="P23" s="259"/>
+      <c r="Q23" s="259"/>
+      <c r="R23" s="259"/>
+      <c r="S23" s="259"/>
+      <c r="T23" s="265"/>
+      <c r="U23" s="259"/>
       <c r="V23" s="39"/>
       <c r="W23" s="34"/>
       <c r="X23" s="34"/>
     </row>
     <row r="24" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="274"/>
-      <c r="B24" s="256"/>
+      <c r="A24" s="254"/>
+      <c r="B24" s="257"/>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
       <c r="E24" s="38"/>
@@ -4348,15 +4338,15 @@
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
       <c r="L24" s="40"/>
-      <c r="M24" s="247"/>
-      <c r="N24" s="260"/>
-      <c r="O24" s="247"/>
-      <c r="P24" s="247"/>
-      <c r="Q24" s="247"/>
-      <c r="R24" s="247"/>
-      <c r="S24" s="247"/>
-      <c r="T24" s="263"/>
-      <c r="U24" s="247"/>
+      <c r="M24" s="260"/>
+      <c r="N24" s="263"/>
+      <c r="O24" s="260"/>
+      <c r="P24" s="260"/>
+      <c r="Q24" s="260"/>
+      <c r="R24" s="260"/>
+      <c r="S24" s="260"/>
+      <c r="T24" s="266"/>
+      <c r="U24" s="260"/>
       <c r="V24" s="39"/>
       <c r="W24" s="34"/>
       <c r="X24" s="34"/>
@@ -4676,33 +4666,33 @@
       </c>
       <c r="D40" s="77"/>
       <c r="E40" s="78"/>
-      <c r="F40" s="267" t="s">
+      <c r="F40" s="247" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="268"/>
-      <c r="H40" s="268"/>
-      <c r="I40" s="269"/>
-      <c r="J40" s="270" t="s">
+      <c r="G40" s="248"/>
+      <c r="H40" s="248"/>
+      <c r="I40" s="249"/>
+      <c r="J40" s="250" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="271"/>
-      <c r="L40" s="271"/>
-      <c r="M40" s="272"/>
+      <c r="K40" s="251"/>
+      <c r="L40" s="251"/>
+      <c r="M40" s="252"/>
       <c r="N40" s="79" t="s">
         <v>46</v>
       </c>
       <c r="P40" s="125"/>
-      <c r="Q40" s="266" t="s">
+      <c r="Q40" s="246" t="s">
         <v>116</v>
       </c>
-      <c r="R40" s="266"/>
-      <c r="S40" s="266"/>
-      <c r="T40" s="266"/>
-      <c r="U40" s="266"/>
-      <c r="V40" s="266"/>
-      <c r="W40" s="266"/>
-      <c r="X40" s="266"/>
-      <c r="Y40" s="266"/>
+      <c r="R40" s="246"/>
+      <c r="S40" s="246"/>
+      <c r="T40" s="246"/>
+      <c r="U40" s="246"/>
+      <c r="V40" s="246"/>
+      <c r="W40" s="246"/>
+      <c r="X40" s="246"/>
+      <c r="Y40" s="246"/>
       <c r="Z40" s="44"/>
       <c r="AA40" s="44"/>
       <c r="AB40" s="44"/>
@@ -12962,6 +12952,44 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P17:P20"/>
     <mergeCell ref="Q40:Y40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:M40"/>
@@ -12976,47 +13004,9 @@
     <mergeCell ref="R21:R24"/>
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P17:P20"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q9:Q12"/>
   </mergeCells>
   <conditionalFormatting sqref="AM1:AM1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N9 N13 N17 N21">

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
@@ -452,9 +452,6 @@
     <t>Tenant ID:</t>
   </si>
   <si>
-    <t>Manual</t>
-  </si>
-  <si>
     <t xml:space="preserve">Actual Error Message </t>
   </si>
   <si>
@@ -487,10 +484,13 @@
     <t xml:space="preserve">  selenium</t>
   </si>
   <si>
-    <t>Solid</t>
-  </si>
-  <si>
     <t>Preferential Transfer</t>
+  </si>
+  <si>
+    <t>Topical</t>
+  </si>
+  <si>
+    <t>Manual</t>
   </si>
 </sst>
 </file>
@@ -3528,10 +3528,10 @@
         <v>45</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>46</v>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="16"/>
@@ -3567,10 +3567,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F8" t="s">
         <v>131</v>
-      </c>
-      <c r="F8" t="s">
-        <v>132</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="17"/>
@@ -3585,7 +3585,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F9" s="2">
         <v>75</v>
@@ -3603,10 +3603,10 @@
         <v>51</v>
       </c>
       <c r="E10" s="226" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>136</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="19"/>
@@ -3616,10 +3616,10 @@
       <c r="B11" s="245"/>
       <c r="C11" s="245"/>
       <c r="D11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -3679,8 +3679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -4659,7 +4659,7 @@
     </row>
     <row r="40" spans="1:42" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="197" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B40" s="198" t="s">
         <v>138</v>
@@ -4821,7 +4821,7 @@
         <v>91</v>
       </c>
       <c r="AO41" s="227" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AP41" s="21"/>
     </row>
@@ -5064,7 +5064,7 @@
       <c r="J47" s="151"/>
       <c r="K47" s="150"/>
       <c r="L47" s="150"/>
-      <c r="M47" s="150"/>
+      <c r="M47" s="152"/>
       <c r="N47" s="172"/>
       <c r="P47" s="117"/>
       <c r="Q47" s="139"/>
@@ -5106,7 +5106,7 @@
       <c r="J48" s="151"/>
       <c r="K48" s="150"/>
       <c r="L48" s="150"/>
-      <c r="M48" s="150"/>
+      <c r="M48" s="151"/>
       <c r="N48" s="172"/>
       <c r="P48" s="117"/>
       <c r="Q48" s="139"/>
@@ -5148,7 +5148,7 @@
       <c r="J49" s="151"/>
       <c r="K49" s="150"/>
       <c r="L49" s="150"/>
-      <c r="M49" s="150"/>
+      <c r="M49" s="151"/>
       <c r="N49" s="193"/>
       <c r="P49" s="117"/>
       <c r="Q49" s="139"/>
@@ -5190,7 +5190,7 @@
       <c r="J50" s="150"/>
       <c r="K50" s="150"/>
       <c r="L50" s="150"/>
-      <c r="M50" s="150"/>
+      <c r="M50" s="151"/>
       <c r="N50" s="172"/>
       <c r="P50" s="117"/>
       <c r="Q50" s="139"/>
@@ -5232,7 +5232,7 @@
       <c r="J51" s="150"/>
       <c r="K51" s="150"/>
       <c r="L51" s="150"/>
-      <c r="M51" s="150"/>
+      <c r="M51" s="151"/>
       <c r="N51" s="172"/>
       <c r="P51" s="117"/>
       <c r="Q51" s="139"/>
@@ -5274,7 +5274,7 @@
       <c r="J52" s="150"/>
       <c r="K52" s="150"/>
       <c r="L52" s="150"/>
-      <c r="M52" s="150"/>
+      <c r="M52" s="151"/>
       <c r="N52" s="172"/>
       <c r="P52" s="117"/>
       <c r="Q52" s="139"/>
@@ -5316,7 +5316,7 @@
       <c r="J53" s="150"/>
       <c r="K53" s="150"/>
       <c r="L53" s="150"/>
-      <c r="M53" s="150"/>
+      <c r="M53" s="152"/>
       <c r="N53" s="194"/>
       <c r="P53" s="117"/>
       <c r="Q53" s="139"/>
@@ -5358,7 +5358,7 @@
       <c r="J54" s="150"/>
       <c r="K54" s="150"/>
       <c r="L54" s="150"/>
-      <c r="M54" s="150"/>
+      <c r="M54" s="151"/>
       <c r="N54" s="172"/>
       <c r="P54" s="117"/>
       <c r="Q54" s="139"/>
@@ -5400,7 +5400,7 @@
       <c r="J55" s="150"/>
       <c r="K55" s="150"/>
       <c r="L55" s="150"/>
-      <c r="M55" s="150"/>
+      <c r="M55" s="151"/>
       <c r="N55" s="172"/>
       <c r="P55" s="117"/>
       <c r="Q55" s="139"/>
@@ -5442,7 +5442,7 @@
       <c r="J56" s="150"/>
       <c r="K56" s="150"/>
       <c r="L56" s="150"/>
-      <c r="M56" s="150"/>
+      <c r="M56" s="151"/>
       <c r="N56" s="195"/>
       <c r="P56" s="117"/>
       <c r="Q56" s="139"/>
@@ -5484,7 +5484,7 @@
       <c r="J57" s="138"/>
       <c r="K57" s="137"/>
       <c r="L57" s="137"/>
-      <c r="M57" s="137"/>
+      <c r="M57" s="150"/>
       <c r="N57" s="173"/>
       <c r="P57" s="117"/>
       <c r="Q57" s="139"/>
@@ -5526,7 +5526,7 @@
       <c r="J58" s="138"/>
       <c r="K58" s="137"/>
       <c r="L58" s="137"/>
-      <c r="M58" s="137"/>
+      <c r="M58" s="150"/>
       <c r="N58" s="173"/>
       <c r="P58" s="117"/>
       <c r="Q58" s="139"/>
@@ -5568,7 +5568,7 @@
       <c r="J59" s="138"/>
       <c r="K59" s="137"/>
       <c r="L59" s="137"/>
-      <c r="M59" s="137"/>
+      <c r="M59" s="150"/>
       <c r="N59" s="137"/>
       <c r="P59" s="117"/>
       <c r="Q59" s="139"/>
@@ -5610,7 +5610,7 @@
       <c r="J60" s="138"/>
       <c r="K60" s="137"/>
       <c r="L60" s="137"/>
-      <c r="M60" s="137"/>
+      <c r="M60" s="150"/>
       <c r="N60" s="137"/>
       <c r="P60" s="117"/>
       <c r="Q60" s="139"/>
@@ -5650,7 +5650,7 @@
       <c r="J61" s="138"/>
       <c r="K61" s="137"/>
       <c r="L61" s="137"/>
-      <c r="M61" s="137"/>
+      <c r="M61" s="150"/>
       <c r="N61" s="137"/>
       <c r="P61" s="117"/>
       <c r="Q61" s="139"/>

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="169">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -499,9 +499,6 @@
     <t>Max Length</t>
   </si>
   <si>
-    <t>Asser No</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
@@ -575,6 +572,12 @@
   </si>
   <si>
     <t>Minimum Batch size cannot be empty</t>
+  </si>
+  <si>
+    <t>Assert No</t>
+  </si>
+  <si>
+    <t>Choose Cleaning Process Type</t>
   </si>
 </sst>
 </file>
@@ -1345,7 +1348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1785,32 +1788,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="21" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1821,7 +1828,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1851,32 +1864,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3559,8 +3563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3632,10 +3636,10 @@
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="243" t="s">
+      <c r="B7" s="244" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="243" t="s">
+      <c r="C7" s="244" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -3652,8 +3656,8 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="243"/>
-      <c r="C8" s="243"/>
+      <c r="B8" s="244"/>
+      <c r="C8" s="244"/>
       <c r="D8" s="12" t="s">
         <v>49</v>
       </c>
@@ -3670,8 +3674,8 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="243"/>
-      <c r="C9" s="243"/>
+      <c r="B9" s="244"/>
+      <c r="C9" s="244"/>
       <c r="D9" s="12" t="s">
         <v>50</v>
       </c>
@@ -3688,8 +3692,8 @@
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="243"/>
-      <c r="C10" s="243"/>
+      <c r="B10" s="244"/>
+      <c r="C10" s="244"/>
       <c r="D10" s="12" t="s">
         <v>51</v>
       </c>
@@ -3697,7 +3701,7 @@
         <v>134</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="241"/>
@@ -3706,8 +3710,8 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="243"/>
-      <c r="C11" s="243"/>
+      <c r="B11" s="244"/>
+      <c r="C11" s="244"/>
       <c r="D11" s="12" t="s">
         <v>133</v>
       </c>
@@ -3743,8 +3747,12 @@
       <c r="D13" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="12">
+        <v>75</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
@@ -3754,13 +3762,17 @@
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="12">
+        <v>75</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
@@ -3770,11 +3782,15 @@
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F15" s="12">
+        <v>75</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
@@ -3791,7 +3807,7 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -3803,11 +3819,11 @@
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -3835,10 +3851,10 @@
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -3854,7 +3870,7 @@
         <v>133</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F20" s="12">
         <v>123</v>
@@ -3869,10 +3885,10 @@
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="242" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F21" s="12">
         <v>1.23</v>
@@ -3886,13 +3902,17 @@
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="E22" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="12">
+        <v>75</v>
+      </c>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
     </row>
@@ -3902,10 +3922,10 @@
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -3919,7 +3939,7 @@
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
       <c r="D24" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -3932,7 +3952,7 @@
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
@@ -3946,7 +3966,7 @@
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="242" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>48</v>
@@ -3963,7 +3983,7 @@
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -3991,7 +4011,7 @@
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -4019,7 +4039,7 @@
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="242" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -4032,7 +4052,7 @@
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
@@ -4046,14 +4066,14 @@
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -4065,11 +4085,11 @@
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
@@ -4097,10 +4117,10 @@
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
@@ -4116,7 +4136,7 @@
         <v>133</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F37" s="12">
         <v>123</v>
@@ -4131,10 +4151,10 @@
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="242" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F38" s="12">
         <v>1.23</v>
@@ -4148,13 +4168,17 @@
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+      <c r="E39" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F39" s="12">
+        <v>75</v>
+      </c>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
     </row>
@@ -4164,7 +4188,7 @@
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
@@ -4178,13 +4202,15 @@
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
+      <c r="F41" t="s">
+        <v>168</v>
+      </c>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
     </row>
@@ -4194,10 +4220,10 @@
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
@@ -4210,13 +4236,17 @@
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+      <c r="E43" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F43" s="12">
+        <v>75</v>
+      </c>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
     </row>
@@ -4226,7 +4256,7 @@
       </c>
       <c r="B44" s="12"/>
       <c r="C44" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>141</v>
@@ -4320,15 +4350,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="246" t="s">
+      <c r="F1" s="268" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="268"/>
+      <c r="L1" s="268"/>
       <c r="U1" s="15" t="s">
         <v>53</v>
       </c>
@@ -4377,22 +4407,22 @@
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:48" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="247" t="s">
+      <c r="D6" s="269" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="248"/>
-      <c r="F6" s="248"/>
-      <c r="G6" s="248"/>
-      <c r="H6" s="249"/>
+      <c r="E6" s="270"/>
+      <c r="F6" s="270"/>
+      <c r="G6" s="270"/>
+      <c r="H6" s="271"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="M6" s="247" t="s">
+      <c r="M6" s="269" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="248"/>
-      <c r="O6" s="248"/>
-      <c r="P6" s="248"/>
-      <c r="Q6" s="249"/>
+      <c r="N6" s="270"/>
+      <c r="O6" s="270"/>
+      <c r="P6" s="270"/>
+      <c r="Q6" s="271"/>
     </row>
     <row r="7" spans="1:48" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
@@ -4410,10 +4440,10 @@
       <c r="E7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="250" t="s">
+      <c r="F7" s="272" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="251"/>
+      <c r="G7" s="273"/>
       <c r="H7" s="17" t="s">
         <v>63</v>
       </c>
@@ -4436,10 +4466,10 @@
         <v>69</v>
       </c>
       <c r="O7" s="22"/>
-      <c r="P7" s="250" t="s">
+      <c r="P7" s="272" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="251"/>
+      <c r="Q7" s="273"/>
       <c r="R7" s="23" t="s">
         <v>64</v>
       </c>
@@ -4507,7 +4537,7 @@
     </row>
     <row r="9" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
-      <c r="B9" s="252"/>
+      <c r="B9" s="254"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
@@ -4518,15 +4548,15 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="244"/>
-      <c r="N9" s="256"/>
-      <c r="O9" s="244"/>
-      <c r="P9" s="244"/>
-      <c r="Q9" s="244"/>
-      <c r="R9" s="244"/>
-      <c r="S9" s="244"/>
-      <c r="T9" s="259"/>
-      <c r="U9" s="244"/>
+      <c r="M9" s="257"/>
+      <c r="N9" s="260"/>
+      <c r="O9" s="257"/>
+      <c r="P9" s="257"/>
+      <c r="Q9" s="257"/>
+      <c r="R9" s="257"/>
+      <c r="S9" s="257"/>
+      <c r="T9" s="263"/>
+      <c r="U9" s="257"/>
       <c r="V9" s="34"/>
       <c r="W9" s="29"/>
       <c r="X9" s="29"/>
@@ -4536,7 +4566,7 @@
     </row>
     <row r="10" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
-      <c r="B10" s="253"/>
+      <c r="B10" s="255"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -4547,15 +4577,15 @@
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="255"/>
-      <c r="N10" s="257"/>
-      <c r="O10" s="255"/>
-      <c r="P10" s="255"/>
-      <c r="Q10" s="255"/>
-      <c r="R10" s="255"/>
-      <c r="S10" s="255"/>
-      <c r="T10" s="260"/>
-      <c r="U10" s="255"/>
+      <c r="M10" s="258"/>
+      <c r="N10" s="261"/>
+      <c r="O10" s="258"/>
+      <c r="P10" s="258"/>
+      <c r="Q10" s="258"/>
+      <c r="R10" s="258"/>
+      <c r="S10" s="258"/>
+      <c r="T10" s="264"/>
+      <c r="U10" s="258"/>
       <c r="V10" s="34"/>
       <c r="W10" s="29"/>
       <c r="X10" s="29"/>
@@ -4563,8 +4593,8 @@
       <c r="AK10" s="39"/>
     </row>
     <row r="11" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="244"/>
-      <c r="B11" s="253"/>
+      <c r="A11" s="257"/>
+      <c r="B11" s="255"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -4575,15 +4605,15 @@
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="255"/>
-      <c r="N11" s="257"/>
-      <c r="O11" s="255"/>
-      <c r="P11" s="255"/>
-      <c r="Q11" s="255"/>
-      <c r="R11" s="255"/>
-      <c r="S11" s="255"/>
-      <c r="T11" s="260"/>
-      <c r="U11" s="255"/>
+      <c r="M11" s="258"/>
+      <c r="N11" s="261"/>
+      <c r="O11" s="258"/>
+      <c r="P11" s="258"/>
+      <c r="Q11" s="258"/>
+      <c r="R11" s="258"/>
+      <c r="S11" s="258"/>
+      <c r="T11" s="264"/>
+      <c r="U11" s="258"/>
       <c r="V11" s="34"/>
       <c r="W11" s="29"/>
       <c r="X11" s="29"/>
@@ -4593,8 +4623,8 @@
       <c r="AV11" s="49"/>
     </row>
     <row r="12" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="245"/>
-      <c r="B12" s="254"/>
+      <c r="A12" s="259"/>
+      <c r="B12" s="256"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -4605,15 +4635,15 @@
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="245"/>
-      <c r="N12" s="258"/>
-      <c r="O12" s="245"/>
-      <c r="P12" s="245"/>
-      <c r="Q12" s="245"/>
-      <c r="R12" s="245"/>
-      <c r="S12" s="245"/>
-      <c r="T12" s="261"/>
-      <c r="U12" s="245"/>
+      <c r="M12" s="259"/>
+      <c r="N12" s="262"/>
+      <c r="O12" s="259"/>
+      <c r="P12" s="259"/>
+      <c r="Q12" s="259"/>
+      <c r="R12" s="259"/>
+      <c r="S12" s="259"/>
+      <c r="T12" s="265"/>
+      <c r="U12" s="259"/>
       <c r="V12" s="34"/>
       <c r="W12" s="29"/>
       <c r="X12" s="29"/>
@@ -4622,7 +4652,7 @@
     </row>
     <row r="13" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
-      <c r="B13" s="252"/>
+      <c r="B13" s="254"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
@@ -4633,15 +4663,15 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="35"/>
-      <c r="M13" s="244"/>
-      <c r="N13" s="256"/>
-      <c r="O13" s="244"/>
-      <c r="P13" s="244"/>
-      <c r="Q13" s="244"/>
-      <c r="R13" s="244"/>
-      <c r="S13" s="244"/>
-      <c r="T13" s="259"/>
-      <c r="U13" s="244"/>
+      <c r="M13" s="257"/>
+      <c r="N13" s="260"/>
+      <c r="O13" s="257"/>
+      <c r="P13" s="257"/>
+      <c r="Q13" s="257"/>
+      <c r="R13" s="257"/>
+      <c r="S13" s="257"/>
+      <c r="T13" s="263"/>
+      <c r="U13" s="257"/>
       <c r="V13" s="34"/>
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
@@ -4650,7 +4680,7 @@
     </row>
     <row r="14" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
-      <c r="B14" s="253"/>
+      <c r="B14" s="255"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
@@ -4661,15 +4691,15 @@
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="255"/>
-      <c r="N14" s="257"/>
-      <c r="O14" s="255"/>
-      <c r="P14" s="255"/>
-      <c r="Q14" s="255"/>
-      <c r="R14" s="255"/>
-      <c r="S14" s="255"/>
-      <c r="T14" s="260"/>
-      <c r="U14" s="255"/>
+      <c r="M14" s="258"/>
+      <c r="N14" s="261"/>
+      <c r="O14" s="258"/>
+      <c r="P14" s="258"/>
+      <c r="Q14" s="258"/>
+      <c r="R14" s="258"/>
+      <c r="S14" s="258"/>
+      <c r="T14" s="264"/>
+      <c r="U14" s="258"/>
       <c r="V14" s="34"/>
       <c r="W14" s="29"/>
       <c r="X14" s="29"/>
@@ -4677,8 +4707,8 @@
       <c r="AU14" s="54"/>
     </row>
     <row r="15" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="262"/>
-      <c r="B15" s="253"/>
+      <c r="A15" s="266"/>
+      <c r="B15" s="255"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -4689,15 +4719,15 @@
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="255"/>
-      <c r="N15" s="257"/>
-      <c r="O15" s="255"/>
-      <c r="P15" s="255"/>
-      <c r="Q15" s="255"/>
-      <c r="R15" s="255"/>
-      <c r="S15" s="255"/>
-      <c r="T15" s="260"/>
-      <c r="U15" s="255"/>
+      <c r="M15" s="258"/>
+      <c r="N15" s="261"/>
+      <c r="O15" s="258"/>
+      <c r="P15" s="258"/>
+      <c r="Q15" s="258"/>
+      <c r="R15" s="258"/>
+      <c r="S15" s="258"/>
+      <c r="T15" s="264"/>
+      <c r="U15" s="258"/>
       <c r="V15" s="34"/>
       <c r="W15" s="29"/>
       <c r="X15" s="29"/>
@@ -4705,8 +4735,8 @@
       <c r="AU15" s="39"/>
     </row>
     <row r="16" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="263"/>
-      <c r="B16" s="254"/>
+      <c r="A16" s="267"/>
+      <c r="B16" s="256"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -4717,15 +4747,15 @@
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="35"/>
-      <c r="M16" s="245"/>
-      <c r="N16" s="258"/>
-      <c r="O16" s="245"/>
-      <c r="P16" s="245"/>
-      <c r="Q16" s="245"/>
-      <c r="R16" s="245"/>
-      <c r="S16" s="245"/>
-      <c r="T16" s="261"/>
-      <c r="U16" s="245"/>
+      <c r="M16" s="259"/>
+      <c r="N16" s="262"/>
+      <c r="O16" s="259"/>
+      <c r="P16" s="259"/>
+      <c r="Q16" s="259"/>
+      <c r="R16" s="259"/>
+      <c r="S16" s="259"/>
+      <c r="T16" s="265"/>
+      <c r="U16" s="259"/>
       <c r="V16" s="34"/>
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
@@ -4734,7 +4764,7 @@
     </row>
     <row r="17" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32"/>
-      <c r="B17" s="252"/>
+      <c r="B17" s="254"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -4745,15 +4775,15 @@
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="244"/>
-      <c r="N17" s="256"/>
-      <c r="O17" s="244"/>
-      <c r="P17" s="244"/>
-      <c r="Q17" s="244"/>
-      <c r="R17" s="244"/>
-      <c r="S17" s="244"/>
-      <c r="T17" s="259"/>
-      <c r="U17" s="244"/>
+      <c r="M17" s="257"/>
+      <c r="N17" s="260"/>
+      <c r="O17" s="257"/>
+      <c r="P17" s="257"/>
+      <c r="Q17" s="257"/>
+      <c r="R17" s="257"/>
+      <c r="S17" s="257"/>
+      <c r="T17" s="263"/>
+      <c r="U17" s="257"/>
       <c r="V17" s="34"/>
       <c r="W17" s="29"/>
       <c r="X17" s="29"/>
@@ -4762,7 +4792,7 @@
     </row>
     <row r="18" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33"/>
-      <c r="B18" s="253"/>
+      <c r="B18" s="255"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -4773,22 +4803,22 @@
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="255"/>
-      <c r="N18" s="257"/>
-      <c r="O18" s="255"/>
-      <c r="P18" s="255"/>
-      <c r="Q18" s="255"/>
-      <c r="R18" s="255"/>
-      <c r="S18" s="255"/>
-      <c r="T18" s="260"/>
-      <c r="U18" s="255"/>
+      <c r="M18" s="258"/>
+      <c r="N18" s="261"/>
+      <c r="O18" s="258"/>
+      <c r="P18" s="258"/>
+      <c r="Q18" s="258"/>
+      <c r="R18" s="258"/>
+      <c r="S18" s="258"/>
+      <c r="T18" s="264"/>
+      <c r="U18" s="258"/>
       <c r="V18" s="34"/>
       <c r="W18" s="29"/>
       <c r="X18" s="29"/>
     </row>
     <row r="19" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="244"/>
-      <c r="B19" s="253"/>
+      <c r="A19" s="257"/>
+      <c r="B19" s="255"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
@@ -4799,22 +4829,22 @@
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="255"/>
-      <c r="N19" s="257"/>
-      <c r="O19" s="255"/>
-      <c r="P19" s="255"/>
-      <c r="Q19" s="255"/>
-      <c r="R19" s="255"/>
-      <c r="S19" s="255"/>
-      <c r="T19" s="260"/>
-      <c r="U19" s="255"/>
+      <c r="M19" s="258"/>
+      <c r="N19" s="261"/>
+      <c r="O19" s="258"/>
+      <c r="P19" s="258"/>
+      <c r="Q19" s="258"/>
+      <c r="R19" s="258"/>
+      <c r="S19" s="258"/>
+      <c r="T19" s="264"/>
+      <c r="U19" s="258"/>
       <c r="V19" s="34"/>
       <c r="W19" s="29"/>
       <c r="X19" s="29"/>
     </row>
     <row r="20" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="245"/>
-      <c r="B20" s="254"/>
+      <c r="A20" s="259"/>
+      <c r="B20" s="256"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
@@ -4825,22 +4855,22 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="245"/>
-      <c r="N20" s="258"/>
-      <c r="O20" s="245"/>
-      <c r="P20" s="245"/>
-      <c r="Q20" s="245"/>
-      <c r="R20" s="245"/>
-      <c r="S20" s="245"/>
-      <c r="T20" s="261"/>
-      <c r="U20" s="245"/>
+      <c r="M20" s="259"/>
+      <c r="N20" s="262"/>
+      <c r="O20" s="259"/>
+      <c r="P20" s="259"/>
+      <c r="Q20" s="259"/>
+      <c r="R20" s="259"/>
+      <c r="S20" s="259"/>
+      <c r="T20" s="265"/>
+      <c r="U20" s="259"/>
       <c r="V20" s="34"/>
       <c r="W20" s="29"/>
       <c r="X20" s="29"/>
     </row>
     <row r="21" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="32"/>
-      <c r="B21" s="252"/>
+      <c r="B21" s="254"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
@@ -4851,22 +4881,22 @@
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="244"/>
-      <c r="N21" s="256"/>
-      <c r="O21" s="244"/>
-      <c r="P21" s="244"/>
-      <c r="Q21" s="244"/>
-      <c r="R21" s="244"/>
-      <c r="S21" s="244"/>
-      <c r="T21" s="259"/>
-      <c r="U21" s="244"/>
+      <c r="M21" s="257"/>
+      <c r="N21" s="260"/>
+      <c r="O21" s="257"/>
+      <c r="P21" s="257"/>
+      <c r="Q21" s="257"/>
+      <c r="R21" s="257"/>
+      <c r="S21" s="257"/>
+      <c r="T21" s="263"/>
+      <c r="U21" s="257"/>
       <c r="V21" s="34"/>
       <c r="W21" s="29"/>
       <c r="X21" s="29"/>
     </row>
     <row r="22" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
-      <c r="B22" s="253"/>
+      <c r="B22" s="255"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -4877,22 +4907,22 @@
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="35"/>
-      <c r="M22" s="255"/>
-      <c r="N22" s="257"/>
-      <c r="O22" s="255"/>
-      <c r="P22" s="255"/>
-      <c r="Q22" s="255"/>
-      <c r="R22" s="255"/>
-      <c r="S22" s="255"/>
-      <c r="T22" s="260"/>
-      <c r="U22" s="255"/>
+      <c r="M22" s="258"/>
+      <c r="N22" s="261"/>
+      <c r="O22" s="258"/>
+      <c r="P22" s="258"/>
+      <c r="Q22" s="258"/>
+      <c r="R22" s="258"/>
+      <c r="S22" s="258"/>
+      <c r="T22" s="264"/>
+      <c r="U22" s="258"/>
       <c r="V22" s="34"/>
       <c r="W22" s="29"/>
       <c r="X22" s="29"/>
     </row>
     <row r="23" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="271"/>
-      <c r="B23" s="253"/>
+      <c r="A23" s="252"/>
+      <c r="B23" s="255"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
@@ -4903,22 +4933,22 @@
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="255"/>
-      <c r="N23" s="257"/>
-      <c r="O23" s="255"/>
-      <c r="P23" s="255"/>
-      <c r="Q23" s="255"/>
-      <c r="R23" s="255"/>
-      <c r="S23" s="255"/>
-      <c r="T23" s="260"/>
-      <c r="U23" s="255"/>
+      <c r="M23" s="258"/>
+      <c r="N23" s="261"/>
+      <c r="O23" s="258"/>
+      <c r="P23" s="258"/>
+      <c r="Q23" s="258"/>
+      <c r="R23" s="258"/>
+      <c r="S23" s="258"/>
+      <c r="T23" s="264"/>
+      <c r="U23" s="258"/>
       <c r="V23" s="34"/>
       <c r="W23" s="29"/>
       <c r="X23" s="29"/>
     </row>
     <row r="24" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="272"/>
-      <c r="B24" s="254"/>
+      <c r="A24" s="253"/>
+      <c r="B24" s="256"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
@@ -4929,15 +4959,15 @@
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="35"/>
-      <c r="M24" s="245"/>
-      <c r="N24" s="258"/>
-      <c r="O24" s="245"/>
-      <c r="P24" s="245"/>
-      <c r="Q24" s="245"/>
-      <c r="R24" s="245"/>
-      <c r="S24" s="245"/>
-      <c r="T24" s="261"/>
-      <c r="U24" s="245"/>
+      <c r="M24" s="259"/>
+      <c r="N24" s="262"/>
+      <c r="O24" s="259"/>
+      <c r="P24" s="259"/>
+      <c r="Q24" s="259"/>
+      <c r="R24" s="259"/>
+      <c r="S24" s="259"/>
+      <c r="T24" s="265"/>
+      <c r="U24" s="259"/>
       <c r="V24" s="34"/>
       <c r="W24" s="29"/>
       <c r="X24" s="29"/>
@@ -5257,33 +5287,33 @@
       </c>
       <c r="D40" s="72"/>
       <c r="E40" s="73"/>
-      <c r="F40" s="265" t="s">
+      <c r="F40" s="246" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="266"/>
-      <c r="H40" s="266"/>
-      <c r="I40" s="267"/>
-      <c r="J40" s="268" t="s">
+      <c r="G40" s="247"/>
+      <c r="H40" s="247"/>
+      <c r="I40" s="248"/>
+      <c r="J40" s="249" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="269"/>
-      <c r="L40" s="269"/>
-      <c r="M40" s="270"/>
+      <c r="K40" s="250"/>
+      <c r="L40" s="250"/>
+      <c r="M40" s="251"/>
       <c r="N40" s="74" t="s">
         <v>46</v>
       </c>
       <c r="P40" s="120"/>
-      <c r="Q40" s="264" t="s">
+      <c r="Q40" s="245" t="s">
         <v>116</v>
       </c>
-      <c r="R40" s="264"/>
-      <c r="S40" s="264"/>
-      <c r="T40" s="264"/>
-      <c r="U40" s="264"/>
-      <c r="V40" s="264"/>
-      <c r="W40" s="264"/>
-      <c r="X40" s="264"/>
-      <c r="Y40" s="264"/>
+      <c r="R40" s="245"/>
+      <c r="S40" s="245"/>
+      <c r="T40" s="245"/>
+      <c r="U40" s="245"/>
+      <c r="V40" s="245"/>
+      <c r="W40" s="245"/>
+      <c r="X40" s="245"/>
+      <c r="Y40" s="245"/>
       <c r="Z40" s="39"/>
       <c r="AA40" s="39"/>
       <c r="AB40" s="39"/>
@@ -13543,6 +13573,44 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P17:P20"/>
     <mergeCell ref="Q40:Y40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:M40"/>
@@ -13557,44 +13625,6 @@
     <mergeCell ref="R21:R24"/>
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P17:P20"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q9:Q12"/>
   </mergeCells>
   <conditionalFormatting sqref="AM1:AM1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="169">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -508,27 +508,15 @@
     <t>Alphabets</t>
   </si>
   <si>
-    <t>Two Decimal</t>
-  </si>
-  <si>
     <t>Surface Area Data Source</t>
   </si>
   <si>
     <t>Can Preferential Transfer of Residue Occur with this Equipment?</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t xml:space="preserve">Can Preferential Transfer of Residue Occur with this Equipment?: </t>
-  </si>
-  <si>
-    <t>Equipment Surface Area Involved in Preferential Transfer</t>
-  </si>
-  <si>
     <t>Is this Equipment Involved in Primary Packaging?</t>
   </si>
   <si>
@@ -578,6 +566,44 @@
   </si>
   <si>
     <t>Choose Cleaning Process Type</t>
+  </si>
+  <si>
+    <t>Choose an option for preferential transfer</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Equipment Surface Area Involved in Preferential Transfer: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>YES</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Equipment Surface Area Involved in Preferential Transfer: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>No</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter Preferential Surface area</t>
   </si>
 </sst>
 </file>
@@ -3561,10 +3587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:H46"/>
+  <dimension ref="A5:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3701,7 +3727,7 @@
         <v>134</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="241"/>
@@ -3751,7 +3777,7 @@
         <v>132</v>
       </c>
       <c r="F13" s="12">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -3762,7 +3788,7 @@
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>141</v>
@@ -3771,7 +3797,7 @@
         <v>132</v>
       </c>
       <c r="F14" s="12">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -3807,7 +3833,7 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -3823,7 +3849,7 @@
       </c>
       <c r="E17" s="12"/>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -3854,7 +3880,7 @@
         <v>144</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -3870,7 +3896,7 @@
         <v>133</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F20" s="12">
         <v>123</v>
@@ -3885,10 +3911,10 @@
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
       <c r="D21" s="242" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F21" s="12">
         <v>1.23</v>
@@ -3902,7 +3928,7 @@
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>141</v>
@@ -3922,345 +3948,347 @@
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
+      <c r="F23" s="80" t="s">
+        <v>165</v>
+      </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>18</v>
       </c>
       <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="C24" s="80" t="s">
+        <v>166</v>
+      </c>
       <c r="D24" s="12" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="F24" t="s">
+        <v>168</v>
+      </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>19</v>
-      </c>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12" t="s">
+        <v>143</v>
+      </c>
       <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="F25" t="s">
+        <v>160</v>
+      </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
     </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="12">
-        <v>20</v>
-      </c>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="242" t="s">
-        <v>151</v>
-      </c>
+      <c r="C26" s="12"/>
       <c r="D26" s="12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="F26" s="12">
+        <v>6</v>
+      </c>
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
-        <v>21</v>
-      </c>
+      <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="E27" s="12"/>
+        <v>144</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>156</v>
+      </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12">
-        <v>22</v>
-      </c>
+      <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
       <c r="D28" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+        <v>133</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="12">
+        <v>123</v>
+      </c>
       <c r="G28" s="12"/>
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12">
-        <v>23</v>
-      </c>
+      <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
-      <c r="D29" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="D29" s="242" t="s">
+        <v>159</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="F29" s="12">
+        <v>1.23</v>
+      </c>
       <c r="G29" s="12"/>
       <c r="H29" s="12"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12">
-        <v>24</v>
-      </c>
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12" t="s">
-        <v>133</v>
-      </c>
+      <c r="C30" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D30" s="242"/>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
       <c r="H30" s="12"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="242" t="s">
-        <v>145</v>
-      </c>
+      <c r="C31" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" s="12"/>
+        <v>149</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="F32" s="12" t="s">
+        <v>162</v>
+      </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
     </row>
-    <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B33" s="12"/>
-      <c r="C33" s="1" t="s">
-        <v>153</v>
-      </c>
+      <c r="C33" s="12"/>
       <c r="D33" s="12" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="E33" s="12"/>
-      <c r="F33" s="12" t="s">
-        <v>166</v>
+      <c r="F33" t="s">
+        <v>160</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
       <c r="D34" s="12" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="E34" s="12"/>
-      <c r="F34" t="s">
-        <v>164</v>
+      <c r="F34" s="12">
+        <v>6</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12">
-        <v>6</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="12"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="F36" s="12"/>
+        <v>157</v>
+      </c>
+      <c r="F36" s="12">
+        <v>123</v>
+      </c>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
-      <c r="D37" s="12" t="s">
-        <v>133</v>
+      <c r="D37" s="242" t="s">
+        <v>159</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F37" s="12">
-        <v>123</v>
+        <v>1.23</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="242" t="s">
-        <v>163</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>162</v>
+      <c r="C38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="243" t="s">
+        <v>132</v>
       </c>
       <c r="F38" s="12">
-        <v>1.23</v>
+        <v>25</v>
       </c>
       <c r="G38" s="12"/>
       <c r="H38" s="12"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" s="243" t="s">
-        <v>132</v>
-      </c>
-      <c r="F39" s="12">
-        <v>75</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B40" s="12"/>
       <c r="C40" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" s="12"/>
+        <v>152</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+      <c r="F40" t="s">
+        <v>164</v>
+      </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="E41" s="12"/>
-      <c r="F41" t="s">
-        <v>168</v>
-      </c>
+      <c r="F41" s="12"/>
       <c r="G41" s="12"/>
       <c r="H41" s="12"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" s="12"/>
       <c r="C42" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
+        <v>141</v>
+      </c>
+      <c r="E42" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" s="12">
+        <v>75</v>
+      </c>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B43" s="12"/>
       <c r="C43" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="E43" s="243" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="12">
-        <v>75</v>
-      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="12">
-        <v>38</v>
-      </c>
+      <c r="A44" s="12"/>
       <c r="B44" s="12"/>
-      <c r="C44" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>141</v>
-      </c>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
@@ -4275,16 +4303,6 @@
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="195">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -487,9 +487,6 @@
     <t>Manual</t>
   </si>
   <si>
-    <t>Solid</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -605,12 +602,93 @@
   <si>
     <t>Enter Preferential Surface area</t>
   </si>
+  <si>
+    <t>Risk AssessmentTab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location </t>
+  </si>
+  <si>
+    <t>Please Add location to proceed.</t>
+  </si>
+  <si>
+    <t>Sampling Information Tab</t>
+  </si>
+  <si>
+    <t>Please add location details</t>
+  </si>
+  <si>
+    <t>Please fill the Sampling and Test method field</t>
+  </si>
+  <si>
+    <t>No: Add Location Pin - Empty Check(no Pin)</t>
+  </si>
+  <si>
+    <t>Sampling Method - Empty Check</t>
+  </si>
+  <si>
+    <t>Segment Information Tab</t>
+  </si>
+  <si>
+    <t>Add Segment</t>
+  </si>
+  <si>
+    <t>Please add segment information</t>
+  </si>
+  <si>
+    <t>Add Location Empty Check</t>
+  </si>
+  <si>
+    <t>Please Enter Location</t>
+  </si>
+  <si>
+    <t>Add Location Max length Check</t>
+  </si>
+  <si>
+    <t>Upload Image: No</t>
+  </si>
+  <si>
+    <t>Segment Name Empty Check</t>
+  </si>
+  <si>
+    <t>Segment Name max length Check</t>
+  </si>
+  <si>
+    <t>Segment Surface Area</t>
+  </si>
+  <si>
+    <t>Segment location Names</t>
+  </si>
+  <si>
+    <t>Location Empty Check</t>
+  </si>
+  <si>
+    <t>Add Equipment: Success</t>
+  </si>
+  <si>
+    <t>Enter Segment name</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>Equipment Saved Successfully</t>
+  </si>
+  <si>
+    <t>Choose Location</t>
+  </si>
+  <si>
+    <t>Enter Surface Area</t>
+  </si>
+  <si>
+    <t>Create Equipment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="108" x14ac:knownFonts="1">
+  <fonts count="109" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1213,8 +1291,16 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1263,8 +1349,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1370,11 +1462,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="296">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1818,32 +1919,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1854,13 +2018,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1890,23 +2048,32 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3587,10 +3754,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:H45"/>
+  <dimension ref="A5:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3600,7 +3767,7 @@
     <col min="3" max="3" width="38.7109375" style="80" customWidth="1"/>
     <col min="4" max="4" width="37.5703125" style="80" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="23.28515625" style="80" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="26.85546875" style="80" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.7109375" style="80" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="27.5703125" style="80" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" style="80" customWidth="1" collapsed="1"/>
     <col min="9" max="16384" width="9.140625" style="80"/>
@@ -3662,10 +3829,10 @@
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="244" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="244" t="s">
+      <c r="B7" s="264" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="251" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -3678,12 +3845,12 @@
       <c r="G7" s="12"/>
       <c r="H7" s="237"/>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="244"/>
-      <c r="C8" s="244"/>
+      <c r="B8" s="265"/>
+      <c r="C8" s="251"/>
       <c r="D8" s="12" t="s">
         <v>49</v>
       </c>
@@ -3700,8 +3867,8 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="244"/>
-      <c r="C9" s="244"/>
+      <c r="B9" s="265"/>
+      <c r="C9" s="251"/>
       <c r="D9" s="12" t="s">
         <v>50</v>
       </c>
@@ -3718,8 +3885,8 @@
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="244"/>
-      <c r="C10" s="244"/>
+      <c r="B10" s="265"/>
+      <c r="C10" s="251"/>
       <c r="D10" s="12" t="s">
         <v>51</v>
       </c>
@@ -3727,7 +3894,7 @@
         <v>134</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="241"/>
@@ -3736,8 +3903,8 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="244"/>
-      <c r="C11" s="244"/>
+      <c r="B11" s="265"/>
+      <c r="C11" s="251"/>
       <c r="D11" s="12" t="s">
         <v>133</v>
       </c>
@@ -3752,9 +3919,9 @@
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12" t="s">
-        <v>139</v>
+      <c r="B12" s="265"/>
+      <c r="C12" s="244" t="s">
+        <v>138</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -3766,12 +3933,12 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="265"/>
+      <c r="C13" s="244" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>141</v>
       </c>
       <c r="E13" s="243" t="s">
         <v>132</v>
@@ -3786,12 +3953,12 @@
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12" t="s">
-        <v>163</v>
+      <c r="B14" s="265"/>
+      <c r="C14" s="244" t="s">
+        <v>162</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E14" s="243" t="s">
         <v>132</v>
@@ -3806,9 +3973,9 @@
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12" t="s">
-        <v>142</v>
+      <c r="B15" s="265"/>
+      <c r="C15" s="244" t="s">
+        <v>141</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="243" t="s">
@@ -3824,8 +3991,8 @@
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="242" t="s">
+      <c r="B16" s="265"/>
+      <c r="C16" s="258" t="s">
         <v>110</v>
       </c>
       <c r="D16" s="12" t="s">
@@ -3833,7 +4000,7 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -3842,14 +4009,14 @@
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="265"/>
+      <c r="C17" s="259"/>
       <c r="D17" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -3858,8 +4025,8 @@
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="265"/>
+      <c r="C18" s="259"/>
       <c r="D18" s="12" t="s">
         <v>50</v>
       </c>
@@ -3874,13 +4041,13 @@
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="265"/>
+      <c r="C19" s="259"/>
       <c r="D19" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -3890,13 +4057,13 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="265"/>
+      <c r="C20" s="259"/>
       <c r="D20" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F20" s="12">
         <v>123</v>
@@ -3908,13 +4075,13 @@
       <c r="A21" s="12">
         <v>15</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="B21" s="265"/>
+      <c r="C21" s="260"/>
       <c r="D21" s="242" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F21" s="12">
         <v>1.23</v>
@@ -3926,12 +4093,12 @@
       <c r="A22" s="12">
         <v>16</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12" t="s">
-        <v>145</v>
+      <c r="B22" s="265"/>
+      <c r="C22" s="244" t="s">
+        <v>144</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E22" s="243" t="s">
         <v>132</v>
@@ -3946,56 +4113,60 @@
       <c r="A23" s="12">
         <v>17</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12" t="s">
-        <v>146</v>
+      <c r="B23" s="265"/>
+      <c r="C23" s="244" t="s">
+        <v>145</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="80" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>18</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="80" t="s">
-        <v>166</v>
+      <c r="B24" s="265"/>
+      <c r="C24" s="255" t="s">
+        <v>165</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="A25" s="12">
+        <v>19</v>
+      </c>
+      <c r="B25" s="265"/>
+      <c r="C25" s="256"/>
       <c r="D25" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="A26" s="12">
+        <v>20</v>
+      </c>
+      <c r="B26" s="265"/>
+      <c r="C26" s="256"/>
       <c r="D26" s="12" t="s">
         <v>50</v>
       </c>
@@ -4007,28 +4178,32 @@
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="A27" s="12">
+        <v>21</v>
+      </c>
+      <c r="B27" s="265"/>
+      <c r="C27" s="256"/>
       <c r="D27" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="A28" s="12">
+        <v>22</v>
+      </c>
+      <c r="B28" s="265"/>
+      <c r="C28" s="256"/>
       <c r="D28" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F28" s="12">
         <v>123</v>
@@ -4037,14 +4212,16 @@
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="A29" s="12">
+        <v>23</v>
+      </c>
+      <c r="B29" s="265"/>
+      <c r="C29" s="257"/>
       <c r="D29" s="242" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F29" s="12">
         <v>1.23</v>
@@ -4053,10 +4230,12 @@
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12" t="s">
-        <v>167</v>
+      <c r="A30" s="12">
+        <v>24</v>
+      </c>
+      <c r="B30" s="265"/>
+      <c r="C30" s="244" t="s">
+        <v>166</v>
       </c>
       <c r="D30" s="242"/>
       <c r="E30" s="12"/>
@@ -4066,11 +4245,11 @@
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
-        <v>26</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12" t="s">
-        <v>148</v>
+        <v>25</v>
+      </c>
+      <c r="B31" s="265"/>
+      <c r="C31" s="244" t="s">
+        <v>147</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -4080,44 +4259,44 @@
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
-        <v>27</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="1" t="s">
-        <v>149</v>
+        <v>26</v>
+      </c>
+      <c r="B32" s="265"/>
+      <c r="C32" s="252" t="s">
+        <v>148</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
-        <v>28</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+        <v>27</v>
+      </c>
+      <c r="B33" s="265"/>
+      <c r="C33" s="254"/>
       <c r="D33" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
-        <v>29</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="B34" s="265"/>
+      <c r="C34" s="254"/>
       <c r="D34" s="12" t="s">
         <v>50</v>
       </c>
@@ -4130,15 +4309,15 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
-        <v>30</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="265"/>
+      <c r="C35" s="254"/>
       <c r="D35" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -4146,15 +4325,15 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
-        <v>31</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="B36" s="265"/>
+      <c r="C36" s="254"/>
       <c r="D36" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F36" s="12">
         <v>123</v>
@@ -4164,15 +4343,15 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
-        <v>32</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+        <v>31</v>
+      </c>
+      <c r="B37" s="265"/>
+      <c r="C37" s="253"/>
       <c r="D37" s="242" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F37" s="12">
         <v>1.23</v>
@@ -4182,14 +4361,14 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
-        <v>33</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="1" t="s">
-        <v>150</v>
+        <v>32</v>
+      </c>
+      <c r="B38" s="265"/>
+      <c r="C38" s="245" t="s">
+        <v>149</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E38" s="243" t="s">
         <v>132</v>
@@ -4202,11 +4381,11 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
-        <v>34</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="1" t="s">
-        <v>151</v>
+        <v>33</v>
+      </c>
+      <c r="B39" s="265"/>
+      <c r="C39" s="245" t="s">
+        <v>150</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -4216,32 +4395,30 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
-        <v>35</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="1" t="s">
-        <v>152</v>
+        <v>34</v>
+      </c>
+      <c r="B40" s="265"/>
+      <c r="C40" s="252" t="s">
+        <v>151</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
-        <v>36</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="1" t="s">
-        <v>152</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B41" s="265"/>
+      <c r="C41" s="253"/>
       <c r="D41" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
@@ -4250,14 +4427,14 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
-        <v>37</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="1" t="s">
-        <v>153</v>
+        <v>36</v>
+      </c>
+      <c r="B42" s="265"/>
+      <c r="C42" s="245" t="s">
+        <v>152</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E42" s="243" t="s">
         <v>132</v>
@@ -4270,14 +4447,14 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
-        <v>38</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="1" t="s">
-        <v>154</v>
+        <v>37</v>
+      </c>
+      <c r="B43" s="265"/>
+      <c r="C43" s="245" t="s">
+        <v>153</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -4285,9 +4462,11 @@
       <c r="H43" s="12"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
+      <c r="A44" s="12">
+        <v>38</v>
+      </c>
+      <c r="B44" s="265"/>
+      <c r="C44" s="244"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
@@ -4295,8 +4474,10 @@
       <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="12">
+        <v>39</v>
+      </c>
+      <c r="B45" s="265"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -4304,10 +4485,391 @@
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
     </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12">
+        <v>40</v>
+      </c>
+      <c r="B46" s="265"/>
+      <c r="C46" s="263" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="263"/>
+      <c r="E46" s="263"/>
+      <c r="F46" s="263"/>
+      <c r="G46" s="263"/>
+      <c r="H46" s="263"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="12">
+        <v>41</v>
+      </c>
+      <c r="B47" s="265"/>
+      <c r="C47" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <v>42</v>
+      </c>
+      <c r="B48" s="265"/>
+      <c r="C48" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F48" s="12">
+        <v>15</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
+        <v>43</v>
+      </c>
+      <c r="B49" s="265"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="246"/>
+      <c r="H49" s="12"/>
+    </row>
+    <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="12">
+        <v>44</v>
+      </c>
+      <c r="B50" s="265"/>
+      <c r="C50" s="261" t="s">
+        <v>171</v>
+      </c>
+      <c r="D50" s="261"/>
+      <c r="E50" s="261"/>
+      <c r="F50" s="261"/>
+      <c r="G50" s="261"/>
+      <c r="H50" s="262"/>
+    </row>
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <v>45</v>
+      </c>
+      <c r="B51" s="265"/>
+      <c r="C51" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G51" s="246"/>
+      <c r="H51" s="12"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>46</v>
+      </c>
+      <c r="B52" s="265"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G52" s="246"/>
+      <c r="H52" s="12"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <v>47</v>
+      </c>
+      <c r="B53" s="265"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F53" s="1">
+        <v>25</v>
+      </c>
+      <c r="G53" s="246"/>
+      <c r="H53" s="12"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>48</v>
+      </c>
+      <c r="B54" s="265"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54" s="246"/>
+      <c r="H54" s="12"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>49</v>
+      </c>
+      <c r="B55" s="265"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="246"/>
+      <c r="H55" s="12"/>
+    </row>
+    <row r="56" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <v>50</v>
+      </c>
+      <c r="B56" s="265"/>
+      <c r="C56" s="261" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" s="261"/>
+      <c r="E56" s="261"/>
+      <c r="F56" s="261"/>
+      <c r="G56" s="261"/>
+      <c r="H56" s="262"/>
+    </row>
+    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
+        <v>51</v>
+      </c>
+      <c r="B57" s="265"/>
+      <c r="C57" s="248" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E57" s="12"/>
+      <c r="F57" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
+        <v>52</v>
+      </c>
+      <c r="B58" s="265"/>
+      <c r="C58" s="249"/>
+      <c r="D58" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="F58" t="s">
+        <v>189</v>
+      </c>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
+        <v>53</v>
+      </c>
+      <c r="B59" s="265"/>
+      <c r="C59" s="250"/>
+      <c r="D59" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="E59" s="243" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" s="12">
+        <v>25</v>
+      </c>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
+        <v>54</v>
+      </c>
+      <c r="B60" s="265"/>
+      <c r="C60" s="248" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <v>55</v>
+      </c>
+      <c r="B61" s="265"/>
+      <c r="C61" s="249"/>
+      <c r="D61" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="12">
+        <v>56</v>
+      </c>
+      <c r="B62" s="265"/>
+      <c r="C62" s="249"/>
+      <c r="D62" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12">
+        <v>6</v>
+      </c>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="12">
+        <v>57</v>
+      </c>
+      <c r="B63" s="265"/>
+      <c r="C63" s="249"/>
+      <c r="D63" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
+        <v>58</v>
+      </c>
+      <c r="B64" s="265"/>
+      <c r="C64" s="249"/>
+      <c r="D64" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F64" s="12">
+        <v>123</v>
+      </c>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
+        <v>59</v>
+      </c>
+      <c r="B65" s="265"/>
+      <c r="C65" s="250"/>
+      <c r="D65" s="242" t="s">
+        <v>158</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="F65" s="12">
+        <v>1.23</v>
+      </c>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="12">
+        <v>60</v>
+      </c>
+      <c r="B66" s="265"/>
+      <c r="C66" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E66" s="12"/>
+      <c r="F66" t="s">
+        <v>192</v>
+      </c>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
+        <v>61</v>
+      </c>
+      <c r="B67" s="265"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="12">
+        <v>62</v>
+      </c>
+      <c r="B68" s="266"/>
+      <c r="C68" s="247" t="s">
+        <v>188</v>
+      </c>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B7:B11"/>
+  <mergeCells count="11">
+    <mergeCell ref="B7:B68"/>
+    <mergeCell ref="C60:C65"/>
     <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C32:C37"/>
+    <mergeCell ref="C24:C29"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="C46:H46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4368,15 +4930,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="268" t="s">
+      <c r="F1" s="269" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
+      <c r="G1" s="269"/>
+      <c r="H1" s="269"/>
+      <c r="I1" s="269"/>
+      <c r="J1" s="269"/>
+      <c r="K1" s="269"/>
+      <c r="L1" s="269"/>
       <c r="U1" s="15" t="s">
         <v>53</v>
       </c>
@@ -4425,22 +4987,22 @@
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:48" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="269" t="s">
+      <c r="D6" s="270" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="270"/>
-      <c r="F6" s="270"/>
-      <c r="G6" s="270"/>
-      <c r="H6" s="271"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="271"/>
+      <c r="G6" s="271"/>
+      <c r="H6" s="272"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="M6" s="269" t="s">
+      <c r="M6" s="270" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="270"/>
-      <c r="O6" s="270"/>
-      <c r="P6" s="270"/>
-      <c r="Q6" s="271"/>
+      <c r="N6" s="271"/>
+      <c r="O6" s="271"/>
+      <c r="P6" s="271"/>
+      <c r="Q6" s="272"/>
     </row>
     <row r="7" spans="1:48" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
@@ -4458,10 +5020,10 @@
       <c r="E7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="272" t="s">
+      <c r="F7" s="273" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="273"/>
+      <c r="G7" s="274"/>
       <c r="H7" s="17" t="s">
         <v>63</v>
       </c>
@@ -4484,10 +5046,10 @@
         <v>69</v>
       </c>
       <c r="O7" s="22"/>
-      <c r="P7" s="272" t="s">
+      <c r="P7" s="273" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="273"/>
+      <c r="Q7" s="274"/>
       <c r="R7" s="23" t="s">
         <v>64</v>
       </c>
@@ -4555,7 +5117,7 @@
     </row>
     <row r="9" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
-      <c r="B9" s="254"/>
+      <c r="B9" s="275"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
@@ -4566,15 +5128,15 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="257"/>
-      <c r="N9" s="260"/>
-      <c r="O9" s="257"/>
-      <c r="P9" s="257"/>
-      <c r="Q9" s="257"/>
-      <c r="R9" s="257"/>
-      <c r="S9" s="257"/>
-      <c r="T9" s="263"/>
-      <c r="U9" s="257"/>
+      <c r="M9" s="267"/>
+      <c r="N9" s="279"/>
+      <c r="O9" s="267"/>
+      <c r="P9" s="267"/>
+      <c r="Q9" s="267"/>
+      <c r="R9" s="267"/>
+      <c r="S9" s="267"/>
+      <c r="T9" s="282"/>
+      <c r="U9" s="267"/>
       <c r="V9" s="34"/>
       <c r="W9" s="29"/>
       <c r="X9" s="29"/>
@@ -4584,7 +5146,7 @@
     </row>
     <row r="10" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
-      <c r="B10" s="255"/>
+      <c r="B10" s="276"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -4595,15 +5157,15 @@
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="258"/>
-      <c r="N10" s="261"/>
-      <c r="O10" s="258"/>
-      <c r="P10" s="258"/>
-      <c r="Q10" s="258"/>
-      <c r="R10" s="258"/>
-      <c r="S10" s="258"/>
-      <c r="T10" s="264"/>
-      <c r="U10" s="258"/>
+      <c r="M10" s="278"/>
+      <c r="N10" s="280"/>
+      <c r="O10" s="278"/>
+      <c r="P10" s="278"/>
+      <c r="Q10" s="278"/>
+      <c r="R10" s="278"/>
+      <c r="S10" s="278"/>
+      <c r="T10" s="283"/>
+      <c r="U10" s="278"/>
       <c r="V10" s="34"/>
       <c r="W10" s="29"/>
       <c r="X10" s="29"/>
@@ -4611,8 +5173,8 @@
       <c r="AK10" s="39"/>
     </row>
     <row r="11" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="257"/>
-      <c r="B11" s="255"/>
+      <c r="A11" s="267"/>
+      <c r="B11" s="276"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -4623,15 +5185,15 @@
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="258"/>
-      <c r="N11" s="261"/>
-      <c r="O11" s="258"/>
-      <c r="P11" s="258"/>
-      <c r="Q11" s="258"/>
-      <c r="R11" s="258"/>
-      <c r="S11" s="258"/>
-      <c r="T11" s="264"/>
-      <c r="U11" s="258"/>
+      <c r="M11" s="278"/>
+      <c r="N11" s="280"/>
+      <c r="O11" s="278"/>
+      <c r="P11" s="278"/>
+      <c r="Q11" s="278"/>
+      <c r="R11" s="278"/>
+      <c r="S11" s="278"/>
+      <c r="T11" s="283"/>
+      <c r="U11" s="278"/>
       <c r="V11" s="34"/>
       <c r="W11" s="29"/>
       <c r="X11" s="29"/>
@@ -4641,8 +5203,8 @@
       <c r="AV11" s="49"/>
     </row>
     <row r="12" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="259"/>
-      <c r="B12" s="256"/>
+      <c r="A12" s="268"/>
+      <c r="B12" s="277"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -4653,15 +5215,15 @@
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="259"/>
-      <c r="N12" s="262"/>
-      <c r="O12" s="259"/>
-      <c r="P12" s="259"/>
-      <c r="Q12" s="259"/>
-      <c r="R12" s="259"/>
-      <c r="S12" s="259"/>
-      <c r="T12" s="265"/>
-      <c r="U12" s="259"/>
+      <c r="M12" s="268"/>
+      <c r="N12" s="281"/>
+      <c r="O12" s="268"/>
+      <c r="P12" s="268"/>
+      <c r="Q12" s="268"/>
+      <c r="R12" s="268"/>
+      <c r="S12" s="268"/>
+      <c r="T12" s="284"/>
+      <c r="U12" s="268"/>
       <c r="V12" s="34"/>
       <c r="W12" s="29"/>
       <c r="X12" s="29"/>
@@ -4670,7 +5232,7 @@
     </row>
     <row r="13" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
-      <c r="B13" s="254"/>
+      <c r="B13" s="275"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
@@ -4681,15 +5243,15 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="35"/>
-      <c r="M13" s="257"/>
-      <c r="N13" s="260"/>
-      <c r="O13" s="257"/>
-      <c r="P13" s="257"/>
-      <c r="Q13" s="257"/>
-      <c r="R13" s="257"/>
-      <c r="S13" s="257"/>
-      <c r="T13" s="263"/>
-      <c r="U13" s="257"/>
+      <c r="M13" s="267"/>
+      <c r="N13" s="279"/>
+      <c r="O13" s="267"/>
+      <c r="P13" s="267"/>
+      <c r="Q13" s="267"/>
+      <c r="R13" s="267"/>
+      <c r="S13" s="267"/>
+      <c r="T13" s="282"/>
+      <c r="U13" s="267"/>
       <c r="V13" s="34"/>
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
@@ -4698,7 +5260,7 @@
     </row>
     <row r="14" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
-      <c r="B14" s="255"/>
+      <c r="B14" s="276"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
@@ -4709,15 +5271,15 @@
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="258"/>
-      <c r="N14" s="261"/>
-      <c r="O14" s="258"/>
-      <c r="P14" s="258"/>
-      <c r="Q14" s="258"/>
-      <c r="R14" s="258"/>
-      <c r="S14" s="258"/>
-      <c r="T14" s="264"/>
-      <c r="U14" s="258"/>
+      <c r="M14" s="278"/>
+      <c r="N14" s="280"/>
+      <c r="O14" s="278"/>
+      <c r="P14" s="278"/>
+      <c r="Q14" s="278"/>
+      <c r="R14" s="278"/>
+      <c r="S14" s="278"/>
+      <c r="T14" s="283"/>
+      <c r="U14" s="278"/>
       <c r="V14" s="34"/>
       <c r="W14" s="29"/>
       <c r="X14" s="29"/>
@@ -4725,8 +5287,8 @@
       <c r="AU14" s="54"/>
     </row>
     <row r="15" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="266"/>
-      <c r="B15" s="255"/>
+      <c r="A15" s="285"/>
+      <c r="B15" s="276"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -4737,15 +5299,15 @@
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="258"/>
-      <c r="N15" s="261"/>
-      <c r="O15" s="258"/>
-      <c r="P15" s="258"/>
-      <c r="Q15" s="258"/>
-      <c r="R15" s="258"/>
-      <c r="S15" s="258"/>
-      <c r="T15" s="264"/>
-      <c r="U15" s="258"/>
+      <c r="M15" s="278"/>
+      <c r="N15" s="280"/>
+      <c r="O15" s="278"/>
+      <c r="P15" s="278"/>
+      <c r="Q15" s="278"/>
+      <c r="R15" s="278"/>
+      <c r="S15" s="278"/>
+      <c r="T15" s="283"/>
+      <c r="U15" s="278"/>
       <c r="V15" s="34"/>
       <c r="W15" s="29"/>
       <c r="X15" s="29"/>
@@ -4753,8 +5315,8 @@
       <c r="AU15" s="39"/>
     </row>
     <row r="16" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="267"/>
-      <c r="B16" s="256"/>
+      <c r="A16" s="286"/>
+      <c r="B16" s="277"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -4765,15 +5327,15 @@
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="35"/>
-      <c r="M16" s="259"/>
-      <c r="N16" s="262"/>
-      <c r="O16" s="259"/>
-      <c r="P16" s="259"/>
-      <c r="Q16" s="259"/>
-      <c r="R16" s="259"/>
-      <c r="S16" s="259"/>
-      <c r="T16" s="265"/>
-      <c r="U16" s="259"/>
+      <c r="M16" s="268"/>
+      <c r="N16" s="281"/>
+      <c r="O16" s="268"/>
+      <c r="P16" s="268"/>
+      <c r="Q16" s="268"/>
+      <c r="R16" s="268"/>
+      <c r="S16" s="268"/>
+      <c r="T16" s="284"/>
+      <c r="U16" s="268"/>
       <c r="V16" s="34"/>
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
@@ -4782,7 +5344,7 @@
     </row>
     <row r="17" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32"/>
-      <c r="B17" s="254"/>
+      <c r="B17" s="275"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -4793,15 +5355,15 @@
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="257"/>
-      <c r="N17" s="260"/>
-      <c r="O17" s="257"/>
-      <c r="P17" s="257"/>
-      <c r="Q17" s="257"/>
-      <c r="R17" s="257"/>
-      <c r="S17" s="257"/>
-      <c r="T17" s="263"/>
-      <c r="U17" s="257"/>
+      <c r="M17" s="267"/>
+      <c r="N17" s="279"/>
+      <c r="O17" s="267"/>
+      <c r="P17" s="267"/>
+      <c r="Q17" s="267"/>
+      <c r="R17" s="267"/>
+      <c r="S17" s="267"/>
+      <c r="T17" s="282"/>
+      <c r="U17" s="267"/>
       <c r="V17" s="34"/>
       <c r="W17" s="29"/>
       <c r="X17" s="29"/>
@@ -4810,7 +5372,7 @@
     </row>
     <row r="18" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33"/>
-      <c r="B18" s="255"/>
+      <c r="B18" s="276"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -4821,22 +5383,22 @@
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="258"/>
-      <c r="N18" s="261"/>
-      <c r="O18" s="258"/>
-      <c r="P18" s="258"/>
-      <c r="Q18" s="258"/>
-      <c r="R18" s="258"/>
-      <c r="S18" s="258"/>
-      <c r="T18" s="264"/>
-      <c r="U18" s="258"/>
+      <c r="M18" s="278"/>
+      <c r="N18" s="280"/>
+      <c r="O18" s="278"/>
+      <c r="P18" s="278"/>
+      <c r="Q18" s="278"/>
+      <c r="R18" s="278"/>
+      <c r="S18" s="278"/>
+      <c r="T18" s="283"/>
+      <c r="U18" s="278"/>
       <c r="V18" s="34"/>
       <c r="W18" s="29"/>
       <c r="X18" s="29"/>
     </row>
     <row r="19" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="257"/>
-      <c r="B19" s="255"/>
+      <c r="A19" s="267"/>
+      <c r="B19" s="276"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
@@ -4847,22 +5409,22 @@
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="258"/>
-      <c r="N19" s="261"/>
-      <c r="O19" s="258"/>
-      <c r="P19" s="258"/>
-      <c r="Q19" s="258"/>
-      <c r="R19" s="258"/>
-      <c r="S19" s="258"/>
-      <c r="T19" s="264"/>
-      <c r="U19" s="258"/>
+      <c r="M19" s="278"/>
+      <c r="N19" s="280"/>
+      <c r="O19" s="278"/>
+      <c r="P19" s="278"/>
+      <c r="Q19" s="278"/>
+      <c r="R19" s="278"/>
+      <c r="S19" s="278"/>
+      <c r="T19" s="283"/>
+      <c r="U19" s="278"/>
       <c r="V19" s="34"/>
       <c r="W19" s="29"/>
       <c r="X19" s="29"/>
     </row>
     <row r="20" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="259"/>
-      <c r="B20" s="256"/>
+      <c r="A20" s="268"/>
+      <c r="B20" s="277"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
@@ -4873,22 +5435,22 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="259"/>
-      <c r="N20" s="262"/>
-      <c r="O20" s="259"/>
-      <c r="P20" s="259"/>
-      <c r="Q20" s="259"/>
-      <c r="R20" s="259"/>
-      <c r="S20" s="259"/>
-      <c r="T20" s="265"/>
-      <c r="U20" s="259"/>
+      <c r="M20" s="268"/>
+      <c r="N20" s="281"/>
+      <c r="O20" s="268"/>
+      <c r="P20" s="268"/>
+      <c r="Q20" s="268"/>
+      <c r="R20" s="268"/>
+      <c r="S20" s="268"/>
+      <c r="T20" s="284"/>
+      <c r="U20" s="268"/>
       <c r="V20" s="34"/>
       <c r="W20" s="29"/>
       <c r="X20" s="29"/>
     </row>
     <row r="21" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="32"/>
-      <c r="B21" s="254"/>
+      <c r="B21" s="275"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
@@ -4899,22 +5461,22 @@
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="257"/>
-      <c r="N21" s="260"/>
-      <c r="O21" s="257"/>
-      <c r="P21" s="257"/>
-      <c r="Q21" s="257"/>
-      <c r="R21" s="257"/>
-      <c r="S21" s="257"/>
-      <c r="T21" s="263"/>
-      <c r="U21" s="257"/>
+      <c r="M21" s="267"/>
+      <c r="N21" s="279"/>
+      <c r="O21" s="267"/>
+      <c r="P21" s="267"/>
+      <c r="Q21" s="267"/>
+      <c r="R21" s="267"/>
+      <c r="S21" s="267"/>
+      <c r="T21" s="282"/>
+      <c r="U21" s="267"/>
       <c r="V21" s="34"/>
       <c r="W21" s="29"/>
       <c r="X21" s="29"/>
     </row>
     <row r="22" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
-      <c r="B22" s="255"/>
+      <c r="B22" s="276"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -4925,22 +5487,22 @@
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="35"/>
-      <c r="M22" s="258"/>
-      <c r="N22" s="261"/>
-      <c r="O22" s="258"/>
-      <c r="P22" s="258"/>
-      <c r="Q22" s="258"/>
-      <c r="R22" s="258"/>
-      <c r="S22" s="258"/>
-      <c r="T22" s="264"/>
-      <c r="U22" s="258"/>
+      <c r="M22" s="278"/>
+      <c r="N22" s="280"/>
+      <c r="O22" s="278"/>
+      <c r="P22" s="278"/>
+      <c r="Q22" s="278"/>
+      <c r="R22" s="278"/>
+      <c r="S22" s="278"/>
+      <c r="T22" s="283"/>
+      <c r="U22" s="278"/>
       <c r="V22" s="34"/>
       <c r="W22" s="29"/>
       <c r="X22" s="29"/>
     </row>
     <row r="23" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="252"/>
-      <c r="B23" s="255"/>
+      <c r="A23" s="294"/>
+      <c r="B23" s="276"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
@@ -4951,22 +5513,22 @@
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="258"/>
-      <c r="N23" s="261"/>
-      <c r="O23" s="258"/>
-      <c r="P23" s="258"/>
-      <c r="Q23" s="258"/>
-      <c r="R23" s="258"/>
-      <c r="S23" s="258"/>
-      <c r="T23" s="264"/>
-      <c r="U23" s="258"/>
+      <c r="M23" s="278"/>
+      <c r="N23" s="280"/>
+      <c r="O23" s="278"/>
+      <c r="P23" s="278"/>
+      <c r="Q23" s="278"/>
+      <c r="R23" s="278"/>
+      <c r="S23" s="278"/>
+      <c r="T23" s="283"/>
+      <c r="U23" s="278"/>
       <c r="V23" s="34"/>
       <c r="W23" s="29"/>
       <c r="X23" s="29"/>
     </row>
     <row r="24" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="253"/>
-      <c r="B24" s="256"/>
+      <c r="A24" s="295"/>
+      <c r="B24" s="277"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
@@ -4977,15 +5539,15 @@
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="35"/>
-      <c r="M24" s="259"/>
-      <c r="N24" s="262"/>
-      <c r="O24" s="259"/>
-      <c r="P24" s="259"/>
-      <c r="Q24" s="259"/>
-      <c r="R24" s="259"/>
-      <c r="S24" s="259"/>
-      <c r="T24" s="265"/>
-      <c r="U24" s="259"/>
+      <c r="M24" s="268"/>
+      <c r="N24" s="281"/>
+      <c r="O24" s="268"/>
+      <c r="P24" s="268"/>
+      <c r="Q24" s="268"/>
+      <c r="R24" s="268"/>
+      <c r="S24" s="268"/>
+      <c r="T24" s="284"/>
+      <c r="U24" s="268"/>
       <c r="V24" s="34"/>
       <c r="W24" s="29"/>
       <c r="X24" s="29"/>
@@ -5301,37 +5863,37 @@
         <v>137</v>
       </c>
       <c r="B40" s="193" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="D40" s="72"/>
       <c r="E40" s="73"/>
-      <c r="F40" s="246" t="s">
+      <c r="F40" s="288" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="247"/>
-      <c r="H40" s="247"/>
-      <c r="I40" s="248"/>
-      <c r="J40" s="249" t="s">
+      <c r="G40" s="289"/>
+      <c r="H40" s="289"/>
+      <c r="I40" s="290"/>
+      <c r="J40" s="291" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="250"/>
-      <c r="L40" s="250"/>
-      <c r="M40" s="251"/>
+      <c r="K40" s="292"/>
+      <c r="L40" s="292"/>
+      <c r="M40" s="293"/>
       <c r="N40" s="74" t="s">
         <v>46</v>
       </c>
       <c r="P40" s="120"/>
-      <c r="Q40" s="245" t="s">
+      <c r="Q40" s="287" t="s">
         <v>116</v>
       </c>
-      <c r="R40" s="245"/>
-      <c r="S40" s="245"/>
-      <c r="T40" s="245"/>
-      <c r="U40" s="245"/>
-      <c r="V40" s="245"/>
-      <c r="W40" s="245"/>
-      <c r="X40" s="245"/>
-      <c r="Y40" s="245"/>
+      <c r="R40" s="287"/>
+      <c r="S40" s="287"/>
+      <c r="T40" s="287"/>
+      <c r="U40" s="287"/>
+      <c r="V40" s="287"/>
+      <c r="W40" s="287"/>
+      <c r="X40" s="287"/>
+      <c r="Y40" s="287"/>
       <c r="Z40" s="39"/>
       <c r="AA40" s="39"/>
       <c r="AB40" s="39"/>
@@ -13591,44 +14153,6 @@
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P17:P20"/>
     <mergeCell ref="Q40:Y40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:M40"/>
@@ -13643,6 +14167,44 @@
     <mergeCell ref="R21:R24"/>
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="T21:T24"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P17:P20"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q9:Q12"/>
   </mergeCells>
   <conditionalFormatting sqref="AM1:AM1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Equipment" sheetId="2" r:id="rId1"/>
@@ -478,9 +478,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">  selenium</t>
-  </si>
-  <si>
     <t>Preferential Transfer</t>
   </si>
   <si>
@@ -669,19 +666,22 @@
     <t>Enter Segment name</t>
   </si>
   <si>
+    <t>Equipment Saved Successfully</t>
+  </si>
+  <si>
+    <t>Choose Location</t>
+  </si>
+  <si>
+    <t>Enter Surface Area</t>
+  </si>
+  <si>
+    <t>Create Equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selenium</t>
+  </si>
+  <si>
     <t>Liquid</t>
-  </si>
-  <si>
-    <t>Equipment Saved Successfully</t>
-  </si>
-  <si>
-    <t>Choose Location</t>
-  </si>
-  <si>
-    <t>Enter Surface Area</t>
-  </si>
-  <si>
-    <t>Create Equipment</t>
   </si>
 </sst>
 </file>
@@ -1928,6 +1928,15 @@
     <xf numFmtId="0" fontId="108" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1976,38 +1985,32 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="3" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="3" fontId="21" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="21" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2018,7 +2021,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2048,32 +2057,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="21" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="21" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3756,8 +3756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3829,10 +3829,10 @@
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="264" t="s">
-        <v>194</v>
-      </c>
-      <c r="C7" s="251" t="s">
+      <c r="B7" s="248" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="254" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -3849,8 +3849,8 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="265"/>
-      <c r="C8" s="251"/>
+      <c r="B8" s="249"/>
+      <c r="C8" s="254"/>
       <c r="D8" s="12" t="s">
         <v>49</v>
       </c>
@@ -3867,8 +3867,8 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="265"/>
-      <c r="C9" s="251"/>
+      <c r="B9" s="249"/>
+      <c r="C9" s="254"/>
       <c r="D9" s="12" t="s">
         <v>50</v>
       </c>
@@ -3885,8 +3885,8 @@
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="265"/>
-      <c r="C10" s="251"/>
+      <c r="B10" s="249"/>
+      <c r="C10" s="254"/>
       <c r="D10" s="12" t="s">
         <v>51</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>134</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="241"/>
@@ -3903,13 +3903,13 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="265"/>
-      <c r="C11" s="251"/>
+      <c r="B11" s="249"/>
+      <c r="C11" s="254"/>
       <c r="D11" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -3919,9 +3919,9 @@
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="265"/>
+      <c r="B12" s="249"/>
       <c r="C12" s="244" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -3933,12 +3933,12 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="265"/>
+      <c r="B13" s="249"/>
       <c r="C13" s="244" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="E13" s="243" t="s">
         <v>132</v>
@@ -3953,12 +3953,12 @@
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="265"/>
+      <c r="B14" s="249"/>
       <c r="C14" s="244" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="243" t="s">
         <v>132</v>
@@ -3973,9 +3973,9 @@
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="265"/>
+      <c r="B15" s="249"/>
       <c r="C15" s="244" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="243" t="s">
@@ -3991,8 +3991,8 @@
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="265"/>
-      <c r="C16" s="258" t="s">
+      <c r="B16" s="249"/>
+      <c r="C16" s="261" t="s">
         <v>110</v>
       </c>
       <c r="D16" s="12" t="s">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -4009,14 +4009,14 @@
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="265"/>
-      <c r="C17" s="259"/>
+      <c r="B17" s="249"/>
+      <c r="C17" s="262"/>
       <c r="D17" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -4025,8 +4025,8 @@
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="265"/>
-      <c r="C18" s="259"/>
+      <c r="B18" s="249"/>
+      <c r="C18" s="262"/>
       <c r="D18" s="12" t="s">
         <v>50</v>
       </c>
@@ -4041,13 +4041,13 @@
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="265"/>
-      <c r="C19" s="259"/>
+      <c r="B19" s="249"/>
+      <c r="C19" s="262"/>
       <c r="D19" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -4057,13 +4057,13 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="265"/>
-      <c r="C20" s="259"/>
+      <c r="B20" s="249"/>
+      <c r="C20" s="262"/>
       <c r="D20" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F20" s="12">
         <v>123</v>
@@ -4075,13 +4075,13 @@
       <c r="A21" s="12">
         <v>15</v>
       </c>
-      <c r="B21" s="265"/>
-      <c r="C21" s="260"/>
+      <c r="B21" s="249"/>
+      <c r="C21" s="263"/>
       <c r="D21" s="242" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F21" s="12">
         <v>1.23</v>
@@ -4093,12 +4093,12 @@
       <c r="A22" s="12">
         <v>16</v>
       </c>
-      <c r="B22" s="265"/>
+      <c r="B22" s="249"/>
       <c r="C22" s="244" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E22" s="243" t="s">
         <v>132</v>
@@ -4113,16 +4113,16 @@
       <c r="A23" s="12">
         <v>17</v>
       </c>
-      <c r="B23" s="265"/>
+      <c r="B23" s="249"/>
       <c r="C23" s="244" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
@@ -4131,16 +4131,16 @@
       <c r="A24" s="12">
         <v>18</v>
       </c>
-      <c r="B24" s="265"/>
-      <c r="C24" s="255" t="s">
-        <v>165</v>
+      <c r="B24" s="249"/>
+      <c r="C24" s="258" t="s">
+        <v>164</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
@@ -4149,14 +4149,14 @@
       <c r="A25" s="12">
         <v>19</v>
       </c>
-      <c r="B25" s="265"/>
-      <c r="C25" s="256"/>
+      <c r="B25" s="249"/>
+      <c r="C25" s="259"/>
       <c r="D25" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="12"/>
@@ -4165,8 +4165,8 @@
       <c r="A26" s="12">
         <v>20</v>
       </c>
-      <c r="B26" s="265"/>
-      <c r="C26" s="256"/>
+      <c r="B26" s="249"/>
+      <c r="C26" s="259"/>
       <c r="D26" s="12" t="s">
         <v>50</v>
       </c>
@@ -4181,13 +4181,13 @@
       <c r="A27" s="12">
         <v>21</v>
       </c>
-      <c r="B27" s="265"/>
-      <c r="C27" s="256"/>
+      <c r="B27" s="249"/>
+      <c r="C27" s="259"/>
       <c r="D27" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -4197,13 +4197,13 @@
       <c r="A28" s="12">
         <v>22</v>
       </c>
-      <c r="B28" s="265"/>
-      <c r="C28" s="256"/>
+      <c r="B28" s="249"/>
+      <c r="C28" s="259"/>
       <c r="D28" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F28" s="12">
         <v>123</v>
@@ -4215,13 +4215,13 @@
       <c r="A29" s="12">
         <v>23</v>
       </c>
-      <c r="B29" s="265"/>
-      <c r="C29" s="257"/>
+      <c r="B29" s="249"/>
+      <c r="C29" s="260"/>
       <c r="D29" s="242" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F29" s="12">
         <v>1.23</v>
@@ -4233,9 +4233,9 @@
       <c r="A30" s="12">
         <v>24</v>
       </c>
-      <c r="B30" s="265"/>
+      <c r="B30" s="249"/>
       <c r="C30" s="244" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D30" s="242"/>
       <c r="E30" s="12"/>
@@ -4247,9 +4247,9 @@
       <c r="A31" s="12">
         <v>25</v>
       </c>
-      <c r="B31" s="265"/>
+      <c r="B31" s="249"/>
       <c r="C31" s="244" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -4261,16 +4261,16 @@
       <c r="A32" s="12">
         <v>26</v>
       </c>
-      <c r="B32" s="265"/>
-      <c r="C32" s="252" t="s">
-        <v>148</v>
+      <c r="B32" s="249"/>
+      <c r="C32" s="255" t="s">
+        <v>147</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="12"/>
@@ -4279,14 +4279,14 @@
       <c r="A33" s="12">
         <v>27</v>
       </c>
-      <c r="B33" s="265"/>
-      <c r="C33" s="254"/>
+      <c r="B33" s="249"/>
+      <c r="C33" s="257"/>
       <c r="D33" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
@@ -4295,8 +4295,8 @@
       <c r="A34" s="12">
         <v>28</v>
       </c>
-      <c r="B34" s="265"/>
-      <c r="C34" s="254"/>
+      <c r="B34" s="249"/>
+      <c r="C34" s="257"/>
       <c r="D34" s="12" t="s">
         <v>50</v>
       </c>
@@ -4311,13 +4311,13 @@
       <c r="A35" s="12">
         <v>29</v>
       </c>
-      <c r="B35" s="265"/>
-      <c r="C35" s="254"/>
+      <c r="B35" s="249"/>
+      <c r="C35" s="257"/>
       <c r="D35" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
@@ -4327,13 +4327,13 @@
       <c r="A36" s="12">
         <v>30</v>
       </c>
-      <c r="B36" s="265"/>
-      <c r="C36" s="254"/>
+      <c r="B36" s="249"/>
+      <c r="C36" s="257"/>
       <c r="D36" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F36" s="12">
         <v>123</v>
@@ -4345,13 +4345,13 @@
       <c r="A37" s="12">
         <v>31</v>
       </c>
-      <c r="B37" s="265"/>
-      <c r="C37" s="253"/>
+      <c r="B37" s="249"/>
+      <c r="C37" s="256"/>
       <c r="D37" s="242" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F37" s="12">
         <v>1.23</v>
@@ -4363,12 +4363,12 @@
       <c r="A38" s="12">
         <v>32</v>
       </c>
-      <c r="B38" s="265"/>
+      <c r="B38" s="249"/>
       <c r="C38" s="245" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E38" s="243" t="s">
         <v>132</v>
@@ -4383,9 +4383,9 @@
       <c r="A39" s="12">
         <v>33</v>
       </c>
-      <c r="B39" s="265"/>
+      <c r="B39" s="249"/>
       <c r="C39" s="245" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -4397,16 +4397,16 @@
       <c r="A40" s="12">
         <v>34</v>
       </c>
-      <c r="B40" s="265"/>
-      <c r="C40" s="252" t="s">
-        <v>151</v>
+      <c r="B40" s="249"/>
+      <c r="C40" s="255" t="s">
+        <v>150</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -4415,10 +4415,10 @@
       <c r="A41" s="12">
         <v>35</v>
       </c>
-      <c r="B41" s="265"/>
-      <c r="C41" s="253"/>
+      <c r="B41" s="249"/>
+      <c r="C41" s="256"/>
       <c r="D41" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
@@ -4429,12 +4429,12 @@
       <c r="A42" s="12">
         <v>36</v>
       </c>
-      <c r="B42" s="265"/>
+      <c r="B42" s="249"/>
       <c r="C42" s="245" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E42" s="243" t="s">
         <v>132</v>
@@ -4449,12 +4449,12 @@
       <c r="A43" s="12">
         <v>37</v>
       </c>
-      <c r="B43" s="265"/>
+      <c r="B43" s="249"/>
       <c r="C43" s="245" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -4465,7 +4465,7 @@
       <c r="A44" s="12">
         <v>38</v>
       </c>
-      <c r="B44" s="265"/>
+      <c r="B44" s="249"/>
       <c r="C44" s="244"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -4477,7 +4477,7 @@
       <c r="A45" s="12">
         <v>39</v>
       </c>
-      <c r="B45" s="265"/>
+      <c r="B45" s="249"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -4489,30 +4489,30 @@
       <c r="A46" s="12">
         <v>40</v>
       </c>
-      <c r="B46" s="265"/>
-      <c r="C46" s="263" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" s="263"/>
-      <c r="E46" s="263"/>
-      <c r="F46" s="263"/>
-      <c r="G46" s="263"/>
-      <c r="H46" s="263"/>
+      <c r="B46" s="249"/>
+      <c r="C46" s="266" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" s="266"/>
+      <c r="E46" s="266"/>
+      <c r="F46" s="266"/>
+      <c r="G46" s="266"/>
+      <c r="H46" s="266"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>41</v>
       </c>
-      <c r="B47" s="265"/>
+      <c r="B47" s="249"/>
       <c r="C47" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -4521,12 +4521,12 @@
       <c r="A48" s="12">
         <v>42</v>
       </c>
-      <c r="B48" s="265"/>
+      <c r="B48" s="249"/>
       <c r="C48" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E48" s="243" t="s">
         <v>132</v>
@@ -4541,7 +4541,7 @@
       <c r="A49" s="12">
         <v>43</v>
       </c>
-      <c r="B49" s="265"/>
+      <c r="B49" s="249"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
@@ -4553,30 +4553,30 @@
       <c r="A50" s="12">
         <v>44</v>
       </c>
-      <c r="B50" s="265"/>
-      <c r="C50" s="261" t="s">
-        <v>171</v>
-      </c>
-      <c r="D50" s="261"/>
-      <c r="E50" s="261"/>
-      <c r="F50" s="261"/>
-      <c r="G50" s="261"/>
-      <c r="H50" s="262"/>
+      <c r="B50" s="249"/>
+      <c r="C50" s="264" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="264"/>
+      <c r="E50" s="264"/>
+      <c r="F50" s="264"/>
+      <c r="G50" s="264"/>
+      <c r="H50" s="265"/>
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>45</v>
       </c>
-      <c r="B51" s="265"/>
+      <c r="B51" s="249"/>
       <c r="C51" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G51" s="246"/>
       <c r="H51" s="12"/>
@@ -4585,14 +4585,14 @@
       <c r="A52" s="12">
         <v>46</v>
       </c>
-      <c r="B52" s="265"/>
+      <c r="B52" s="249"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G52" s="246"/>
       <c r="H52" s="12"/>
@@ -4601,10 +4601,10 @@
       <c r="A53" s="12">
         <v>47</v>
       </c>
-      <c r="B53" s="265"/>
+      <c r="B53" s="249"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E53" s="243" t="s">
         <v>132</v>
@@ -4619,14 +4619,14 @@
       <c r="A54" s="12">
         <v>48</v>
       </c>
-      <c r="B54" s="265"/>
+      <c r="B54" s="249"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G54" s="246"/>
       <c r="H54" s="12"/>
@@ -4635,7 +4635,7 @@
       <c r="A55" s="12">
         <v>49</v>
       </c>
-      <c r="B55" s="265"/>
+      <c r="B55" s="249"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -4647,30 +4647,30 @@
       <c r="A56" s="12">
         <v>50</v>
       </c>
-      <c r="B56" s="265"/>
-      <c r="C56" s="261" t="s">
-        <v>176</v>
-      </c>
-      <c r="D56" s="261"/>
-      <c r="E56" s="261"/>
-      <c r="F56" s="261"/>
-      <c r="G56" s="261"/>
-      <c r="H56" s="262"/>
+      <c r="B56" s="249"/>
+      <c r="C56" s="264" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="264"/>
+      <c r="E56" s="264"/>
+      <c r="F56" s="264"/>
+      <c r="G56" s="264"/>
+      <c r="H56" s="265"/>
     </row>
     <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>51</v>
       </c>
-      <c r="B57" s="265"/>
-      <c r="C57" s="248" t="s">
-        <v>177</v>
+      <c r="B57" s="249"/>
+      <c r="C57" s="251" t="s">
+        <v>176</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -4679,14 +4679,14 @@
       <c r="A58" s="12">
         <v>52</v>
       </c>
-      <c r="B58" s="265"/>
-      <c r="C58" s="249"/>
+      <c r="B58" s="249"/>
+      <c r="C58" s="252"/>
       <c r="D58" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -4695,10 +4695,10 @@
       <c r="A59" s="12">
         <v>53</v>
       </c>
-      <c r="B59" s="265"/>
-      <c r="C59" s="250"/>
+      <c r="B59" s="249"/>
+      <c r="C59" s="253"/>
       <c r="D59" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E59" s="243" t="s">
         <v>132</v>
@@ -4713,16 +4713,16 @@
       <c r="A60" s="12">
         <v>54</v>
       </c>
-      <c r="B60" s="265"/>
-      <c r="C60" s="248" t="s">
-        <v>185</v>
+      <c r="B60" s="249"/>
+      <c r="C60" s="251" t="s">
+        <v>184</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -4731,14 +4731,14 @@
       <c r="A61" s="12">
         <v>55</v>
       </c>
-      <c r="B61" s="265"/>
-      <c r="C61" s="249"/>
+      <c r="B61" s="249"/>
+      <c r="C61" s="252"/>
       <c r="D61" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -4747,8 +4747,8 @@
       <c r="A62" s="12">
         <v>56</v>
       </c>
-      <c r="B62" s="265"/>
-      <c r="C62" s="249"/>
+      <c r="B62" s="249"/>
+      <c r="C62" s="252"/>
       <c r="D62" s="12" t="s">
         <v>50</v>
       </c>
@@ -4763,13 +4763,13 @@
       <c r="A63" s="12">
         <v>57</v>
       </c>
-      <c r="B63" s="265"/>
-      <c r="C63" s="249"/>
+      <c r="B63" s="249"/>
+      <c r="C63" s="252"/>
       <c r="D63" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
@@ -4779,13 +4779,13 @@
       <c r="A64" s="12">
         <v>58</v>
       </c>
-      <c r="B64" s="265"/>
-      <c r="C64" s="249"/>
+      <c r="B64" s="249"/>
+      <c r="C64" s="252"/>
       <c r="D64" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F64" s="12">
         <v>123</v>
@@ -4797,13 +4797,13 @@
       <c r="A65" s="12">
         <v>59</v>
       </c>
-      <c r="B65" s="265"/>
-      <c r="C65" s="250"/>
+      <c r="B65" s="249"/>
+      <c r="C65" s="253"/>
       <c r="D65" s="242" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F65" s="12">
         <v>1.23</v>
@@ -4815,16 +4815,16 @@
       <c r="A66" s="12">
         <v>60</v>
       </c>
-      <c r="B66" s="265"/>
+      <c r="B66" s="249"/>
       <c r="C66" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D66" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
@@ -4833,7 +4833,7 @@
       <c r="A67" s="12">
         <v>61</v>
       </c>
-      <c r="B67" s="265"/>
+      <c r="B67" s="249"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
@@ -4845,14 +4845,14 @@
       <c r="A68" s="12">
         <v>62</v>
       </c>
-      <c r="B68" s="266"/>
+      <c r="B68" s="250"/>
       <c r="C68" s="247" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
@@ -4880,7 +4880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV434"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -4930,15 +4930,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="269" t="s">
+      <c r="F1" s="290" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="269"/>
-      <c r="H1" s="269"/>
-      <c r="I1" s="269"/>
-      <c r="J1" s="269"/>
-      <c r="K1" s="269"/>
-      <c r="L1" s="269"/>
+      <c r="G1" s="290"/>
+      <c r="H1" s="290"/>
+      <c r="I1" s="290"/>
+      <c r="J1" s="290"/>
+      <c r="K1" s="290"/>
+      <c r="L1" s="290"/>
       <c r="U1" s="15" t="s">
         <v>53</v>
       </c>
@@ -4987,22 +4987,22 @@
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:48" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="270" t="s">
+      <c r="D6" s="291" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="271"/>
-      <c r="F6" s="271"/>
-      <c r="G6" s="271"/>
-      <c r="H6" s="272"/>
+      <c r="E6" s="292"/>
+      <c r="F6" s="292"/>
+      <c r="G6" s="292"/>
+      <c r="H6" s="293"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="M6" s="270" t="s">
+      <c r="M6" s="291" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="271"/>
-      <c r="O6" s="271"/>
-      <c r="P6" s="271"/>
-      <c r="Q6" s="272"/>
+      <c r="N6" s="292"/>
+      <c r="O6" s="292"/>
+      <c r="P6" s="292"/>
+      <c r="Q6" s="293"/>
     </row>
     <row r="7" spans="1:48" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
@@ -5020,10 +5020,10 @@
       <c r="E7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="273" t="s">
+      <c r="F7" s="294" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="274"/>
+      <c r="G7" s="295"/>
       <c r="H7" s="17" t="s">
         <v>63</v>
       </c>
@@ -5046,10 +5046,10 @@
         <v>69</v>
       </c>
       <c r="O7" s="22"/>
-      <c r="P7" s="273" t="s">
+      <c r="P7" s="294" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="274"/>
+      <c r="Q7" s="295"/>
       <c r="R7" s="23" t="s">
         <v>64</v>
       </c>
@@ -5117,7 +5117,7 @@
     </row>
     <row r="9" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
-      <c r="B9" s="275"/>
+      <c r="B9" s="276"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
@@ -5128,15 +5128,15 @@
       <c r="J9" s="29"/>
       <c r="K9" s="29"/>
       <c r="L9" s="35"/>
-      <c r="M9" s="267"/>
-      <c r="N9" s="279"/>
-      <c r="O9" s="267"/>
-      <c r="P9" s="267"/>
-      <c r="Q9" s="267"/>
-      <c r="R9" s="267"/>
-      <c r="S9" s="267"/>
-      <c r="T9" s="282"/>
-      <c r="U9" s="267"/>
+      <c r="M9" s="279"/>
+      <c r="N9" s="282"/>
+      <c r="O9" s="279"/>
+      <c r="P9" s="279"/>
+      <c r="Q9" s="279"/>
+      <c r="R9" s="279"/>
+      <c r="S9" s="279"/>
+      <c r="T9" s="285"/>
+      <c r="U9" s="279"/>
       <c r="V9" s="34"/>
       <c r="W9" s="29"/>
       <c r="X9" s="29"/>
@@ -5146,7 +5146,7 @@
     </row>
     <row r="10" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
-      <c r="B10" s="276"/>
+      <c r="B10" s="277"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -5157,15 +5157,15 @@
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="278"/>
-      <c r="N10" s="280"/>
-      <c r="O10" s="278"/>
-      <c r="P10" s="278"/>
-      <c r="Q10" s="278"/>
-      <c r="R10" s="278"/>
-      <c r="S10" s="278"/>
-      <c r="T10" s="283"/>
-      <c r="U10" s="278"/>
+      <c r="M10" s="280"/>
+      <c r="N10" s="283"/>
+      <c r="O10" s="280"/>
+      <c r="P10" s="280"/>
+      <c r="Q10" s="280"/>
+      <c r="R10" s="280"/>
+      <c r="S10" s="280"/>
+      <c r="T10" s="286"/>
+      <c r="U10" s="280"/>
       <c r="V10" s="34"/>
       <c r="W10" s="29"/>
       <c r="X10" s="29"/>
@@ -5173,8 +5173,8 @@
       <c r="AK10" s="39"/>
     </row>
     <row r="11" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="267"/>
-      <c r="B11" s="276"/>
+      <c r="A11" s="279"/>
+      <c r="B11" s="277"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -5185,15 +5185,15 @@
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="278"/>
-      <c r="N11" s="280"/>
-      <c r="O11" s="278"/>
-      <c r="P11" s="278"/>
-      <c r="Q11" s="278"/>
-      <c r="R11" s="278"/>
-      <c r="S11" s="278"/>
-      <c r="T11" s="283"/>
-      <c r="U11" s="278"/>
+      <c r="M11" s="280"/>
+      <c r="N11" s="283"/>
+      <c r="O11" s="280"/>
+      <c r="P11" s="280"/>
+      <c r="Q11" s="280"/>
+      <c r="R11" s="280"/>
+      <c r="S11" s="280"/>
+      <c r="T11" s="286"/>
+      <c r="U11" s="280"/>
       <c r="V11" s="34"/>
       <c r="W11" s="29"/>
       <c r="X11" s="29"/>
@@ -5203,8 +5203,8 @@
       <c r="AV11" s="49"/>
     </row>
     <row r="12" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="268"/>
-      <c r="B12" s="277"/>
+      <c r="A12" s="281"/>
+      <c r="B12" s="278"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -5215,15 +5215,15 @@
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="268"/>
-      <c r="N12" s="281"/>
-      <c r="O12" s="268"/>
-      <c r="P12" s="268"/>
-      <c r="Q12" s="268"/>
-      <c r="R12" s="268"/>
-      <c r="S12" s="268"/>
-      <c r="T12" s="284"/>
-      <c r="U12" s="268"/>
+      <c r="M12" s="281"/>
+      <c r="N12" s="284"/>
+      <c r="O12" s="281"/>
+      <c r="P12" s="281"/>
+      <c r="Q12" s="281"/>
+      <c r="R12" s="281"/>
+      <c r="S12" s="281"/>
+      <c r="T12" s="287"/>
+      <c r="U12" s="281"/>
       <c r="V12" s="34"/>
       <c r="W12" s="29"/>
       <c r="X12" s="29"/>
@@ -5232,7 +5232,7 @@
     </row>
     <row r="13" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
-      <c r="B13" s="275"/>
+      <c r="B13" s="276"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
@@ -5243,15 +5243,15 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
       <c r="L13" s="35"/>
-      <c r="M13" s="267"/>
-      <c r="N13" s="279"/>
-      <c r="O13" s="267"/>
-      <c r="P13" s="267"/>
-      <c r="Q13" s="267"/>
-      <c r="R13" s="267"/>
-      <c r="S13" s="267"/>
-      <c r="T13" s="282"/>
-      <c r="U13" s="267"/>
+      <c r="M13" s="279"/>
+      <c r="N13" s="282"/>
+      <c r="O13" s="279"/>
+      <c r="P13" s="279"/>
+      <c r="Q13" s="279"/>
+      <c r="R13" s="279"/>
+      <c r="S13" s="279"/>
+      <c r="T13" s="285"/>
+      <c r="U13" s="279"/>
       <c r="V13" s="34"/>
       <c r="W13" s="29"/>
       <c r="X13" s="29"/>
@@ -5260,7 +5260,7 @@
     </row>
     <row r="14" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
-      <c r="B14" s="276"/>
+      <c r="B14" s="277"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
@@ -5271,15 +5271,15 @@
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="278"/>
-      <c r="N14" s="280"/>
-      <c r="O14" s="278"/>
-      <c r="P14" s="278"/>
-      <c r="Q14" s="278"/>
-      <c r="R14" s="278"/>
-      <c r="S14" s="278"/>
-      <c r="T14" s="283"/>
-      <c r="U14" s="278"/>
+      <c r="M14" s="280"/>
+      <c r="N14" s="283"/>
+      <c r="O14" s="280"/>
+      <c r="P14" s="280"/>
+      <c r="Q14" s="280"/>
+      <c r="R14" s="280"/>
+      <c r="S14" s="280"/>
+      <c r="T14" s="286"/>
+      <c r="U14" s="280"/>
       <c r="V14" s="34"/>
       <c r="W14" s="29"/>
       <c r="X14" s="29"/>
@@ -5287,8 +5287,8 @@
       <c r="AU14" s="54"/>
     </row>
     <row r="15" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="285"/>
-      <c r="B15" s="276"/>
+      <c r="A15" s="288"/>
+      <c r="B15" s="277"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -5299,15 +5299,15 @@
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="278"/>
-      <c r="N15" s="280"/>
-      <c r="O15" s="278"/>
-      <c r="P15" s="278"/>
-      <c r="Q15" s="278"/>
-      <c r="R15" s="278"/>
-      <c r="S15" s="278"/>
-      <c r="T15" s="283"/>
-      <c r="U15" s="278"/>
+      <c r="M15" s="280"/>
+      <c r="N15" s="283"/>
+      <c r="O15" s="280"/>
+      <c r="P15" s="280"/>
+      <c r="Q15" s="280"/>
+      <c r="R15" s="280"/>
+      <c r="S15" s="280"/>
+      <c r="T15" s="286"/>
+      <c r="U15" s="280"/>
       <c r="V15" s="34"/>
       <c r="W15" s="29"/>
       <c r="X15" s="29"/>
@@ -5315,8 +5315,8 @@
       <c r="AU15" s="39"/>
     </row>
     <row r="16" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="286"/>
-      <c r="B16" s="277"/>
+      <c r="A16" s="289"/>
+      <c r="B16" s="278"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -5327,15 +5327,15 @@
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="35"/>
-      <c r="M16" s="268"/>
-      <c r="N16" s="281"/>
-      <c r="O16" s="268"/>
-      <c r="P16" s="268"/>
-      <c r="Q16" s="268"/>
-      <c r="R16" s="268"/>
-      <c r="S16" s="268"/>
-      <c r="T16" s="284"/>
-      <c r="U16" s="268"/>
+      <c r="M16" s="281"/>
+      <c r="N16" s="284"/>
+      <c r="O16" s="281"/>
+      <c r="P16" s="281"/>
+      <c r="Q16" s="281"/>
+      <c r="R16" s="281"/>
+      <c r="S16" s="281"/>
+      <c r="T16" s="287"/>
+      <c r="U16" s="281"/>
       <c r="V16" s="34"/>
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="17" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32"/>
-      <c r="B17" s="275"/>
+      <c r="B17" s="276"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -5355,15 +5355,15 @@
       <c r="J17" s="29"/>
       <c r="K17" s="29"/>
       <c r="L17" s="35"/>
-      <c r="M17" s="267"/>
-      <c r="N17" s="279"/>
-      <c r="O17" s="267"/>
-      <c r="P17" s="267"/>
-      <c r="Q17" s="267"/>
-      <c r="R17" s="267"/>
-      <c r="S17" s="267"/>
-      <c r="T17" s="282"/>
-      <c r="U17" s="267"/>
+      <c r="M17" s="279"/>
+      <c r="N17" s="282"/>
+      <c r="O17" s="279"/>
+      <c r="P17" s="279"/>
+      <c r="Q17" s="279"/>
+      <c r="R17" s="279"/>
+      <c r="S17" s="279"/>
+      <c r="T17" s="285"/>
+      <c r="U17" s="279"/>
       <c r="V17" s="34"/>
       <c r="W17" s="29"/>
       <c r="X17" s="29"/>
@@ -5372,7 +5372,7 @@
     </row>
     <row r="18" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33"/>
-      <c r="B18" s="276"/>
+      <c r="B18" s="277"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -5383,22 +5383,22 @@
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="278"/>
-      <c r="N18" s="280"/>
-      <c r="O18" s="278"/>
-      <c r="P18" s="278"/>
-      <c r="Q18" s="278"/>
-      <c r="R18" s="278"/>
-      <c r="S18" s="278"/>
-      <c r="T18" s="283"/>
-      <c r="U18" s="278"/>
+      <c r="M18" s="280"/>
+      <c r="N18" s="283"/>
+      <c r="O18" s="280"/>
+      <c r="P18" s="280"/>
+      <c r="Q18" s="280"/>
+      <c r="R18" s="280"/>
+      <c r="S18" s="280"/>
+      <c r="T18" s="286"/>
+      <c r="U18" s="280"/>
       <c r="V18" s="34"/>
       <c r="W18" s="29"/>
       <c r="X18" s="29"/>
     </row>
     <row r="19" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="267"/>
-      <c r="B19" s="276"/>
+      <c r="A19" s="279"/>
+      <c r="B19" s="277"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
@@ -5409,22 +5409,22 @@
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="278"/>
-      <c r="N19" s="280"/>
-      <c r="O19" s="278"/>
-      <c r="P19" s="278"/>
-      <c r="Q19" s="278"/>
-      <c r="R19" s="278"/>
-      <c r="S19" s="278"/>
-      <c r="T19" s="283"/>
-      <c r="U19" s="278"/>
+      <c r="M19" s="280"/>
+      <c r="N19" s="283"/>
+      <c r="O19" s="280"/>
+      <c r="P19" s="280"/>
+      <c r="Q19" s="280"/>
+      <c r="R19" s="280"/>
+      <c r="S19" s="280"/>
+      <c r="T19" s="286"/>
+      <c r="U19" s="280"/>
       <c r="V19" s="34"/>
       <c r="W19" s="29"/>
       <c r="X19" s="29"/>
     </row>
     <row r="20" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="268"/>
-      <c r="B20" s="277"/>
+      <c r="A20" s="281"/>
+      <c r="B20" s="278"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
@@ -5435,22 +5435,22 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="268"/>
-      <c r="N20" s="281"/>
-      <c r="O20" s="268"/>
-      <c r="P20" s="268"/>
-      <c r="Q20" s="268"/>
-      <c r="R20" s="268"/>
-      <c r="S20" s="268"/>
-      <c r="T20" s="284"/>
-      <c r="U20" s="268"/>
+      <c r="M20" s="281"/>
+      <c r="N20" s="284"/>
+      <c r="O20" s="281"/>
+      <c r="P20" s="281"/>
+      <c r="Q20" s="281"/>
+      <c r="R20" s="281"/>
+      <c r="S20" s="281"/>
+      <c r="T20" s="287"/>
+      <c r="U20" s="281"/>
       <c r="V20" s="34"/>
       <c r="W20" s="29"/>
       <c r="X20" s="29"/>
     </row>
     <row r="21" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="32"/>
-      <c r="B21" s="275"/>
+      <c r="B21" s="276"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
@@ -5461,22 +5461,22 @@
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="267"/>
-      <c r="N21" s="279"/>
-      <c r="O21" s="267"/>
-      <c r="P21" s="267"/>
-      <c r="Q21" s="267"/>
-      <c r="R21" s="267"/>
-      <c r="S21" s="267"/>
-      <c r="T21" s="282"/>
-      <c r="U21" s="267"/>
+      <c r="M21" s="279"/>
+      <c r="N21" s="282"/>
+      <c r="O21" s="279"/>
+      <c r="P21" s="279"/>
+      <c r="Q21" s="279"/>
+      <c r="R21" s="279"/>
+      <c r="S21" s="279"/>
+      <c r="T21" s="285"/>
+      <c r="U21" s="279"/>
       <c r="V21" s="34"/>
       <c r="W21" s="29"/>
       <c r="X21" s="29"/>
     </row>
     <row r="22" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
-      <c r="B22" s="276"/>
+      <c r="B22" s="277"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -5487,22 +5487,22 @@
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="35"/>
-      <c r="M22" s="278"/>
-      <c r="N22" s="280"/>
-      <c r="O22" s="278"/>
-      <c r="P22" s="278"/>
-      <c r="Q22" s="278"/>
-      <c r="R22" s="278"/>
-      <c r="S22" s="278"/>
-      <c r="T22" s="283"/>
-      <c r="U22" s="278"/>
+      <c r="M22" s="280"/>
+      <c r="N22" s="283"/>
+      <c r="O22" s="280"/>
+      <c r="P22" s="280"/>
+      <c r="Q22" s="280"/>
+      <c r="R22" s="280"/>
+      <c r="S22" s="280"/>
+      <c r="T22" s="286"/>
+      <c r="U22" s="280"/>
       <c r="V22" s="34"/>
       <c r="W22" s="29"/>
       <c r="X22" s="29"/>
     </row>
     <row r="23" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="294"/>
-      <c r="B23" s="276"/>
+      <c r="A23" s="274"/>
+      <c r="B23" s="277"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
@@ -5513,22 +5513,22 @@
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="278"/>
-      <c r="N23" s="280"/>
-      <c r="O23" s="278"/>
-      <c r="P23" s="278"/>
-      <c r="Q23" s="278"/>
-      <c r="R23" s="278"/>
-      <c r="S23" s="278"/>
-      <c r="T23" s="283"/>
-      <c r="U23" s="278"/>
+      <c r="M23" s="280"/>
+      <c r="N23" s="283"/>
+      <c r="O23" s="280"/>
+      <c r="P23" s="280"/>
+      <c r="Q23" s="280"/>
+      <c r="R23" s="280"/>
+      <c r="S23" s="280"/>
+      <c r="T23" s="286"/>
+      <c r="U23" s="280"/>
       <c r="V23" s="34"/>
       <c r="W23" s="29"/>
       <c r="X23" s="29"/>
     </row>
     <row r="24" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="295"/>
-      <c r="B24" s="277"/>
+      <c r="A24" s="275"/>
+      <c r="B24" s="278"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
@@ -5539,15 +5539,15 @@
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="35"/>
-      <c r="M24" s="268"/>
-      <c r="N24" s="281"/>
-      <c r="O24" s="268"/>
-      <c r="P24" s="268"/>
-      <c r="Q24" s="268"/>
-      <c r="R24" s="268"/>
-      <c r="S24" s="268"/>
-      <c r="T24" s="284"/>
-      <c r="U24" s="268"/>
+      <c r="M24" s="281"/>
+      <c r="N24" s="284"/>
+      <c r="O24" s="281"/>
+      <c r="P24" s="281"/>
+      <c r="Q24" s="281"/>
+      <c r="R24" s="281"/>
+      <c r="S24" s="281"/>
+      <c r="T24" s="287"/>
+      <c r="U24" s="281"/>
       <c r="V24" s="34"/>
       <c r="W24" s="29"/>
       <c r="X24" s="29"/>
@@ -5860,40 +5860,40 @@
     </row>
     <row r="40" spans="1:42" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="192" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B40" s="193" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D40" s="72"/>
       <c r="E40" s="73"/>
-      <c r="F40" s="288" t="s">
+      <c r="F40" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="289"/>
-      <c r="H40" s="289"/>
-      <c r="I40" s="290"/>
-      <c r="J40" s="291" t="s">
+      <c r="G40" s="269"/>
+      <c r="H40" s="269"/>
+      <c r="I40" s="270"/>
+      <c r="J40" s="271" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="292"/>
-      <c r="L40" s="292"/>
-      <c r="M40" s="293"/>
+      <c r="K40" s="272"/>
+      <c r="L40" s="272"/>
+      <c r="M40" s="273"/>
       <c r="N40" s="74" t="s">
         <v>46</v>
       </c>
       <c r="P40" s="120"/>
-      <c r="Q40" s="287" t="s">
+      <c r="Q40" s="267" t="s">
         <v>116</v>
       </c>
-      <c r="R40" s="287"/>
-      <c r="S40" s="287"/>
-      <c r="T40" s="287"/>
-      <c r="U40" s="287"/>
-      <c r="V40" s="287"/>
-      <c r="W40" s="287"/>
-      <c r="X40" s="287"/>
-      <c r="Y40" s="287"/>
+      <c r="R40" s="267"/>
+      <c r="S40" s="267"/>
+      <c r="T40" s="267"/>
+      <c r="U40" s="267"/>
+      <c r="V40" s="267"/>
+      <c r="W40" s="267"/>
+      <c r="X40" s="267"/>
+      <c r="Y40" s="267"/>
       <c r="Z40" s="39"/>
       <c r="AA40" s="39"/>
       <c r="AB40" s="39"/>
@@ -6022,7 +6022,7 @@
         <v>91</v>
       </c>
       <c r="AO41" s="221" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AP41" s="16"/>
     </row>
@@ -14153,6 +14153,44 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P17:P20"/>
     <mergeCell ref="Q40:Y40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:M40"/>
@@ -14167,44 +14205,6 @@
     <mergeCell ref="R21:R24"/>
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P17:P20"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q9:Q12"/>
   </mergeCells>
   <conditionalFormatting sqref="AM1:AM1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520" tabRatio="663"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520" tabRatio="663" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Microbial_Calculation" sheetId="12" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="229">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -446,12 +446,6 @@
     <t>Limit Selection Type</t>
   </si>
   <si>
-    <t>Test Product5</t>
-  </si>
-  <si>
-    <t>Test Product6</t>
-  </si>
-  <si>
     <t>Tenant ID:</t>
   </si>
   <si>
@@ -765,6 +759,9 @@
   </si>
   <si>
     <t>Equipment Group saved successfully</t>
+  </si>
+  <si>
+    <t>dfg</t>
   </si>
 </sst>
 </file>
@@ -1876,50 +1873,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1929,12 +1887,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1962,6 +1914,51 @@
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3279,8 +3276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV621"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A34" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -3326,15 +3323,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="218" t="s">
+      <c r="F1" s="239" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="218"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="239"/>
+      <c r="L1" s="239"/>
       <c r="U1" s="15" t="s">
         <v>54</v>
       </c>
@@ -3380,22 +3377,22 @@
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:43" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="219" t="s">
+      <c r="D6" s="240" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="220"/>
-      <c r="F6" s="220"/>
-      <c r="G6" s="220"/>
-      <c r="H6" s="221"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="242"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="M6" s="219" t="s">
+      <c r="M6" s="240" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="220"/>
-      <c r="O6" s="220"/>
-      <c r="P6" s="220"/>
-      <c r="Q6" s="221"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="242"/>
     </row>
     <row r="7" spans="1:43" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
@@ -3413,10 +3410,10 @@
       <c r="E7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="222" t="s">
+      <c r="F7" s="243" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="223"/>
+      <c r="G7" s="244"/>
       <c r="H7" s="17" t="s">
         <v>63</v>
       </c>
@@ -3439,10 +3436,10 @@
         <v>69</v>
       </c>
       <c r="O7" s="22"/>
-      <c r="P7" s="222" t="s">
+      <c r="P7" s="243" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="223"/>
+      <c r="Q7" s="244"/>
       <c r="R7" s="23" t="s">
         <v>64</v>
       </c>
@@ -3496,7 +3493,7 @@
     </row>
     <row r="9" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
-      <c r="B9" s="224"/>
+      <c r="B9" s="231"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
@@ -3508,13 +3505,13 @@
       <c r="K9" s="29"/>
       <c r="L9" s="35"/>
       <c r="M9" s="216"/>
-      <c r="N9" s="228"/>
+      <c r="N9" s="234"/>
       <c r="O9" s="216"/>
       <c r="P9" s="216"/>
       <c r="Q9" s="216"/>
       <c r="R9" s="216"/>
       <c r="S9" s="216"/>
-      <c r="T9" s="231"/>
+      <c r="T9" s="219"/>
       <c r="U9" s="34"/>
       <c r="AE9" s="39"/>
       <c r="AF9" s="39"/>
@@ -3522,7 +3519,7 @@
     </row>
     <row r="10" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
-      <c r="B10" s="225"/>
+      <c r="B10" s="232"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -3533,21 +3530,21 @@
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="227"/>
-      <c r="N10" s="229"/>
-      <c r="O10" s="227"/>
-      <c r="P10" s="227"/>
-      <c r="Q10" s="227"/>
-      <c r="R10" s="227"/>
-      <c r="S10" s="227"/>
-      <c r="T10" s="232"/>
+      <c r="M10" s="217"/>
+      <c r="N10" s="235"/>
+      <c r="O10" s="217"/>
+      <c r="P10" s="217"/>
+      <c r="Q10" s="217"/>
+      <c r="R10" s="217"/>
+      <c r="S10" s="217"/>
+      <c r="T10" s="220"/>
       <c r="U10" s="34"/>
       <c r="AE10" s="39"/>
       <c r="AF10" s="39"/>
     </row>
     <row r="11" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="216"/>
-      <c r="B11" s="225"/>
+      <c r="B11" s="232"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -3558,14 +3555,14 @@
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="227"/>
-      <c r="N11" s="229"/>
-      <c r="O11" s="227"/>
-      <c r="P11" s="227"/>
-      <c r="Q11" s="227"/>
-      <c r="R11" s="227"/>
-      <c r="S11" s="227"/>
-      <c r="T11" s="232"/>
+      <c r="M11" s="217"/>
+      <c r="N11" s="235"/>
+      <c r="O11" s="217"/>
+      <c r="P11" s="217"/>
+      <c r="Q11" s="217"/>
+      <c r="R11" s="217"/>
+      <c r="S11" s="217"/>
+      <c r="T11" s="220"/>
       <c r="U11" s="34"/>
       <c r="AE11" s="41"/>
       <c r="AF11" s="45"/>
@@ -3573,8 +3570,8 @@
       <c r="AQ11" s="49"/>
     </row>
     <row r="12" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="217"/>
-      <c r="B12" s="226"/>
+      <c r="A12" s="218"/>
+      <c r="B12" s="233"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -3585,21 +3582,21 @@
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="217"/>
-      <c r="N12" s="230"/>
-      <c r="O12" s="217"/>
-      <c r="P12" s="217"/>
-      <c r="Q12" s="217"/>
-      <c r="R12" s="217"/>
-      <c r="S12" s="217"/>
-      <c r="T12" s="233"/>
+      <c r="M12" s="218"/>
+      <c r="N12" s="236"/>
+      <c r="O12" s="218"/>
+      <c r="P12" s="218"/>
+      <c r="Q12" s="218"/>
+      <c r="R12" s="218"/>
+      <c r="S12" s="218"/>
+      <c r="T12" s="221"/>
       <c r="U12" s="34"/>
       <c r="AE12" s="39"/>
       <c r="AF12" s="39"/>
     </row>
     <row r="13" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
-      <c r="B13" s="224"/>
+      <c r="B13" s="231"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
@@ -3611,20 +3608,20 @@
       <c r="K13" s="29"/>
       <c r="L13" s="35"/>
       <c r="M13" s="216"/>
-      <c r="N13" s="228"/>
+      <c r="N13" s="234"/>
       <c r="O13" s="216"/>
       <c r="P13" s="216"/>
       <c r="Q13" s="216"/>
       <c r="R13" s="216"/>
       <c r="S13" s="216"/>
-      <c r="T13" s="231"/>
+      <c r="T13" s="219"/>
       <c r="U13" s="34"/>
       <c r="AO13" s="53"/>
       <c r="AP13" s="52"/>
     </row>
     <row r="14" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
-      <c r="B14" s="225"/>
+      <c r="B14" s="232"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
@@ -3635,21 +3632,21 @@
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="227"/>
-      <c r="N14" s="229"/>
-      <c r="O14" s="227"/>
-      <c r="P14" s="227"/>
-      <c r="Q14" s="227"/>
-      <c r="R14" s="227"/>
-      <c r="S14" s="227"/>
-      <c r="T14" s="232"/>
+      <c r="M14" s="217"/>
+      <c r="N14" s="235"/>
+      <c r="O14" s="217"/>
+      <c r="P14" s="217"/>
+      <c r="Q14" s="217"/>
+      <c r="R14" s="217"/>
+      <c r="S14" s="217"/>
+      <c r="T14" s="220"/>
       <c r="U14" s="34"/>
       <c r="AO14" s="54"/>
       <c r="AP14" s="54"/>
     </row>
     <row r="15" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="234"/>
-      <c r="B15" s="225"/>
+      <c r="A15" s="237"/>
+      <c r="B15" s="232"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -3660,21 +3657,21 @@
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="227"/>
-      <c r="N15" s="229"/>
-      <c r="O15" s="227"/>
-      <c r="P15" s="227"/>
-      <c r="Q15" s="227"/>
-      <c r="R15" s="227"/>
-      <c r="S15" s="227"/>
-      <c r="T15" s="232"/>
+      <c r="M15" s="217"/>
+      <c r="N15" s="235"/>
+      <c r="O15" s="217"/>
+      <c r="P15" s="217"/>
+      <c r="Q15" s="217"/>
+      <c r="R15" s="217"/>
+      <c r="S15" s="217"/>
+      <c r="T15" s="220"/>
       <c r="U15" s="34"/>
       <c r="AO15" s="39"/>
       <c r="AP15" s="39"/>
     </row>
     <row r="16" spans="1:43" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="235"/>
-      <c r="B16" s="226"/>
+      <c r="A16" s="238"/>
+      <c r="B16" s="233"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -3685,21 +3682,21 @@
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="35"/>
-      <c r="M16" s="217"/>
-      <c r="N16" s="230"/>
-      <c r="O16" s="217"/>
-      <c r="P16" s="217"/>
-      <c r="Q16" s="217"/>
-      <c r="R16" s="217"/>
-      <c r="S16" s="217"/>
-      <c r="T16" s="233"/>
+      <c r="M16" s="218"/>
+      <c r="N16" s="236"/>
+      <c r="O16" s="218"/>
+      <c r="P16" s="218"/>
+      <c r="Q16" s="218"/>
+      <c r="R16" s="218"/>
+      <c r="S16" s="218"/>
+      <c r="T16" s="221"/>
       <c r="U16" s="34"/>
       <c r="AO16" s="48"/>
       <c r="AP16" s="48"/>
     </row>
     <row r="17" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32"/>
-      <c r="B17" s="224"/>
+      <c r="B17" s="231"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -3711,20 +3708,20 @@
       <c r="K17" s="29"/>
       <c r="L17" s="35"/>
       <c r="M17" s="216"/>
-      <c r="N17" s="228"/>
+      <c r="N17" s="234"/>
       <c r="O17" s="216"/>
       <c r="P17" s="216"/>
       <c r="Q17" s="216"/>
       <c r="R17" s="216"/>
       <c r="S17" s="216"/>
-      <c r="T17" s="231"/>
+      <c r="T17" s="219"/>
       <c r="U17" s="34"/>
       <c r="AO17" s="48"/>
       <c r="AP17" s="48"/>
     </row>
     <row r="18" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33"/>
-      <c r="B18" s="225"/>
+      <c r="B18" s="232"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -3735,19 +3732,19 @@
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="227"/>
-      <c r="N18" s="229"/>
-      <c r="O18" s="227"/>
-      <c r="P18" s="227"/>
-      <c r="Q18" s="227"/>
-      <c r="R18" s="227"/>
-      <c r="S18" s="227"/>
-      <c r="T18" s="232"/>
+      <c r="M18" s="217"/>
+      <c r="N18" s="235"/>
+      <c r="O18" s="217"/>
+      <c r="P18" s="217"/>
+      <c r="Q18" s="217"/>
+      <c r="R18" s="217"/>
+      <c r="S18" s="217"/>
+      <c r="T18" s="220"/>
       <c r="U18" s="34"/>
     </row>
     <row r="19" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="216"/>
-      <c r="B19" s="225"/>
+      <c r="B19" s="232"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
@@ -3758,19 +3755,19 @@
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="227"/>
-      <c r="N19" s="229"/>
-      <c r="O19" s="227"/>
-      <c r="P19" s="227"/>
-      <c r="Q19" s="227"/>
-      <c r="R19" s="227"/>
-      <c r="S19" s="227"/>
-      <c r="T19" s="232"/>
+      <c r="M19" s="217"/>
+      <c r="N19" s="235"/>
+      <c r="O19" s="217"/>
+      <c r="P19" s="217"/>
+      <c r="Q19" s="217"/>
+      <c r="R19" s="217"/>
+      <c r="S19" s="217"/>
+      <c r="T19" s="220"/>
       <c r="U19" s="34"/>
     </row>
     <row r="20" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="217"/>
-      <c r="B20" s="226"/>
+      <c r="A20" s="218"/>
+      <c r="B20" s="233"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
@@ -3781,19 +3778,19 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="217"/>
-      <c r="N20" s="230"/>
-      <c r="O20" s="217"/>
-      <c r="P20" s="217"/>
-      <c r="Q20" s="217"/>
-      <c r="R20" s="217"/>
-      <c r="S20" s="217"/>
-      <c r="T20" s="233"/>
+      <c r="M20" s="218"/>
+      <c r="N20" s="236"/>
+      <c r="O20" s="218"/>
+      <c r="P20" s="218"/>
+      <c r="Q20" s="218"/>
+      <c r="R20" s="218"/>
+      <c r="S20" s="218"/>
+      <c r="T20" s="221"/>
       <c r="U20" s="34"/>
     </row>
     <row r="21" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="32"/>
-      <c r="B21" s="224"/>
+      <c r="B21" s="231"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
@@ -3805,18 +3802,18 @@
       <c r="K21" s="29"/>
       <c r="L21" s="35"/>
       <c r="M21" s="216"/>
-      <c r="N21" s="228"/>
+      <c r="N21" s="234"/>
       <c r="O21" s="216"/>
       <c r="P21" s="216"/>
       <c r="Q21" s="216"/>
       <c r="R21" s="216"/>
       <c r="S21" s="216"/>
-      <c r="T21" s="231"/>
+      <c r="T21" s="219"/>
       <c r="U21" s="34"/>
     </row>
     <row r="22" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
-      <c r="B22" s="225"/>
+      <c r="B22" s="232"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -3827,19 +3824,19 @@
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="35"/>
-      <c r="M22" s="227"/>
-      <c r="N22" s="229"/>
-      <c r="O22" s="227"/>
-      <c r="P22" s="227"/>
-      <c r="Q22" s="227"/>
-      <c r="R22" s="227"/>
-      <c r="S22" s="227"/>
-      <c r="T22" s="232"/>
+      <c r="M22" s="217"/>
+      <c r="N22" s="235"/>
+      <c r="O22" s="217"/>
+      <c r="P22" s="217"/>
+      <c r="Q22" s="217"/>
+      <c r="R22" s="217"/>
+      <c r="S22" s="217"/>
+      <c r="T22" s="220"/>
       <c r="U22" s="34"/>
     </row>
     <row r="23" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="236"/>
-      <c r="B23" s="225"/>
+      <c r="A23" s="222"/>
+      <c r="B23" s="232"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
@@ -3850,19 +3847,19 @@
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="227"/>
-      <c r="N23" s="229"/>
-      <c r="O23" s="227"/>
-      <c r="P23" s="227"/>
-      <c r="Q23" s="227"/>
-      <c r="R23" s="227"/>
-      <c r="S23" s="227"/>
-      <c r="T23" s="232"/>
+      <c r="M23" s="217"/>
+      <c r="N23" s="235"/>
+      <c r="O23" s="217"/>
+      <c r="P23" s="217"/>
+      <c r="Q23" s="217"/>
+      <c r="R23" s="217"/>
+      <c r="S23" s="217"/>
+      <c r="T23" s="220"/>
       <c r="U23" s="34"/>
     </row>
     <row r="24" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="237"/>
-      <c r="B24" s="226"/>
+      <c r="A24" s="223"/>
+      <c r="B24" s="233"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
@@ -3873,14 +3870,14 @@
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="35"/>
-      <c r="M24" s="217"/>
-      <c r="N24" s="230"/>
-      <c r="O24" s="217"/>
-      <c r="P24" s="217"/>
-      <c r="Q24" s="217"/>
-      <c r="R24" s="217"/>
-      <c r="S24" s="217"/>
-      <c r="T24" s="233"/>
+      <c r="M24" s="218"/>
+      <c r="N24" s="236"/>
+      <c r="O24" s="218"/>
+      <c r="P24" s="218"/>
+      <c r="Q24" s="218"/>
+      <c r="R24" s="218"/>
+      <c r="S24" s="218"/>
+      <c r="T24" s="221"/>
       <c r="U24" s="34"/>
     </row>
     <row r="25" spans="1:42" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4069,7 +4066,7 @@
     </row>
     <row r="38" spans="1:37" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="151" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:37" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -4175,40 +4172,40 @@
     </row>
     <row r="40" spans="1:37" ht="69.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="148" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B40" s="149" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D40" s="66"/>
       <c r="E40" s="67"/>
-      <c r="F40" s="238" t="s">
+      <c r="F40" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="239"/>
-      <c r="H40" s="239"/>
-      <c r="I40" s="240"/>
-      <c r="J40" s="241" t="s">
+      <c r="G40" s="225"/>
+      <c r="H40" s="225"/>
+      <c r="I40" s="226"/>
+      <c r="J40" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="242"/>
-      <c r="L40" s="242"/>
-      <c r="M40" s="243"/>
+      <c r="K40" s="228"/>
+      <c r="L40" s="228"/>
+      <c r="M40" s="229"/>
       <c r="N40" s="68" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="O40" s="205" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P40" s="102"/>
-      <c r="Q40" s="244" t="s">
+      <c r="Q40" s="230" t="s">
         <v>116</v>
       </c>
-      <c r="R40" s="244"/>
-      <c r="S40" s="244"/>
-      <c r="T40" s="244"/>
-      <c r="U40" s="244"/>
-      <c r="V40" s="244"/>
+      <c r="R40" s="230"/>
+      <c r="S40" s="230"/>
+      <c r="T40" s="230"/>
+      <c r="U40" s="230"/>
+      <c r="V40" s="230"/>
       <c r="W40" s="39"/>
       <c r="X40" s="39"/>
       <c r="Y40" s="59"/>
@@ -4232,14 +4229,15 @@
       <c r="B41" s="147" t="s">
         <v>108</v>
       </c>
+      <c r="C41" s="27"/>
       <c r="D41" s="112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E41" s="113" t="s">
         <v>87</v>
       </c>
       <c r="F41" s="113" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G41" s="113" t="s">
         <v>89</v>
@@ -4248,10 +4246,10 @@
         <v>90</v>
       </c>
       <c r="I41" s="112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="J41" s="115" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K41" s="115" t="s">
         <v>89</v>
@@ -4260,7 +4258,7 @@
         <v>90</v>
       </c>
       <c r="M41" s="204" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="N41" s="206" t="s">
         <v>91</v>
@@ -4321,7 +4319,7 @@
         <v>91</v>
       </c>
       <c r="AJ41" s="160" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AK41" s="16"/>
     </row>
@@ -4329,8 +4327,9 @@
       <c r="A42" s="125">
         <v>1</v>
       </c>
-      <c r="B42" s="125" t="s">
-        <v>124</v>
+      <c r="B42" s="125"/>
+      <c r="C42" s="27" t="s">
+        <v>228</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
@@ -4371,9 +4370,8 @@
       <c r="A43" s="125">
         <v>2</v>
       </c>
-      <c r="B43" s="125" t="s">
-        <v>125</v>
-      </c>
+      <c r="B43" s="125"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
       <c r="F43" s="119"/>
@@ -4412,6 +4410,7 @@
     <row r="44" spans="1:37" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="125"/>
       <c r="B44" s="125"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
       <c r="F44" s="118"/>
@@ -4450,6 +4449,7 @@
     <row r="45" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="125"/>
       <c r="B45" s="125"/>
+      <c r="C45" s="27"/>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
       <c r="F45" s="118"/>
@@ -4488,6 +4488,7 @@
     <row r="46" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="125"/>
       <c r="B46" s="125"/>
+      <c r="C46" s="27"/>
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
       <c r="F46" s="118"/>
@@ -4526,6 +4527,7 @@
     <row r="47" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="125"/>
       <c r="B47" s="125"/>
+      <c r="C47" s="27"/>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
       <c r="F47" s="118"/>
@@ -4564,6 +4566,7 @@
     <row r="48" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="125"/>
       <c r="B48" s="125"/>
+      <c r="C48" s="27"/>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
       <c r="F48" s="118"/>
@@ -4602,6 +4605,7 @@
     <row r="49" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="125"/>
       <c r="B49" s="125"/>
+      <c r="C49" s="27"/>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
       <c r="F49" s="118"/>
@@ -4640,6 +4644,7 @@
     <row r="50" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="125"/>
       <c r="B50" s="125"/>
+      <c r="C50" s="27"/>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
       <c r="F50" s="118"/>
@@ -4678,6 +4683,7 @@
     <row r="51" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="125"/>
       <c r="B51" s="125"/>
+      <c r="C51" s="27"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
       <c r="F51" s="118"/>
@@ -4716,6 +4722,7 @@
     <row r="52" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="125"/>
       <c r="B52" s="125"/>
+      <c r="C52" s="27"/>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
       <c r="F52" s="118"/>
@@ -4754,6 +4761,7 @@
     <row r="53" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="125"/>
       <c r="B53" s="125"/>
+      <c r="C53" s="27"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
       <c r="F53" s="118"/>
@@ -4792,6 +4800,7 @@
     <row r="54" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="125"/>
       <c r="B54" s="125"/>
+      <c r="C54" s="27"/>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
       <c r="F54" s="118"/>
@@ -4830,6 +4839,7 @@
     <row r="55" spans="1:37" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="125"/>
       <c r="B55" s="125"/>
+      <c r="C55" s="27"/>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
       <c r="F55" s="118"/>
@@ -26375,6 +26385,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P17:P20"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q17:Q20"/>
     <mergeCell ref="R17:R20"/>
     <mergeCell ref="S17:S20"/>
     <mergeCell ref="T17:T20"/>
@@ -26391,38 +26433,6 @@
     <mergeCell ref="R21:R24"/>
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="T21:T24"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P17:P20"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="Q9:Q12"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
   </mergeCells>
   <conditionalFormatting sqref="AH1:AH57 AH622:AH1048576">
     <cfRule type="duplicateValues" dxfId="93" priority="47"/>
@@ -26585,8 +26595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV621"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -26635,15 +26645,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="39" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="F1" s="218" t="s">
+      <c r="F1" s="239" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="218"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="239"/>
+      <c r="L1" s="239"/>
       <c r="U1" s="15" t="s">
         <v>53</v>
       </c>
@@ -26692,22 +26702,22 @@
       <c r="L5" s="16"/>
     </row>
     <row r="6" spans="1:48" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D6" s="219" t="s">
+      <c r="D6" s="240" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="220"/>
-      <c r="F6" s="220"/>
-      <c r="G6" s="220"/>
-      <c r="H6" s="221"/>
+      <c r="E6" s="241"/>
+      <c r="F6" s="241"/>
+      <c r="G6" s="241"/>
+      <c r="H6" s="242"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16"/>
-      <c r="M6" s="219" t="s">
+      <c r="M6" s="240" t="s">
         <v>56</v>
       </c>
-      <c r="N6" s="220"/>
-      <c r="O6" s="220"/>
-      <c r="P6" s="220"/>
-      <c r="Q6" s="221"/>
+      <c r="N6" s="241"/>
+      <c r="O6" s="241"/>
+      <c r="P6" s="241"/>
+      <c r="Q6" s="242"/>
     </row>
     <row r="7" spans="1:48" ht="76.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="17" t="s">
@@ -26725,10 +26735,10 @@
       <c r="E7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="222" t="s">
+      <c r="F7" s="243" t="s">
         <v>62</v>
       </c>
-      <c r="G7" s="223"/>
+      <c r="G7" s="244"/>
       <c r="H7" s="17" t="s">
         <v>63</v>
       </c>
@@ -26751,10 +26761,10 @@
         <v>69</v>
       </c>
       <c r="O7" s="22"/>
-      <c r="P7" s="222" t="s">
+      <c r="P7" s="243" t="s">
         <v>70</v>
       </c>
-      <c r="Q7" s="223"/>
+      <c r="Q7" s="244"/>
       <c r="R7" s="23" t="s">
         <v>64</v>
       </c>
@@ -26822,7 +26832,7 @@
     </row>
     <row r="9" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="32"/>
-      <c r="B9" s="224"/>
+      <c r="B9" s="231"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="33"/>
@@ -26834,13 +26844,13 @@
       <c r="K9" s="29"/>
       <c r="L9" s="35"/>
       <c r="M9" s="216"/>
-      <c r="N9" s="228"/>
+      <c r="N9" s="234"/>
       <c r="O9" s="216"/>
       <c r="P9" s="216"/>
       <c r="Q9" s="216"/>
       <c r="R9" s="216"/>
       <c r="S9" s="216"/>
-      <c r="T9" s="231"/>
+      <c r="T9" s="219"/>
       <c r="U9" s="216"/>
       <c r="V9" s="34"/>
       <c r="W9" s="29"/>
@@ -26851,7 +26861,7 @@
     </row>
     <row r="10" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
-      <c r="B10" s="225"/>
+      <c r="B10" s="232"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
       <c r="E10" s="33"/>
@@ -26862,15 +26872,15 @@
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="227"/>
-      <c r="N10" s="229"/>
-      <c r="O10" s="227"/>
-      <c r="P10" s="227"/>
-      <c r="Q10" s="227"/>
-      <c r="R10" s="227"/>
-      <c r="S10" s="227"/>
-      <c r="T10" s="232"/>
-      <c r="U10" s="227"/>
+      <c r="M10" s="217"/>
+      <c r="N10" s="235"/>
+      <c r="O10" s="217"/>
+      <c r="P10" s="217"/>
+      <c r="Q10" s="217"/>
+      <c r="R10" s="217"/>
+      <c r="S10" s="217"/>
+      <c r="T10" s="220"/>
+      <c r="U10" s="217"/>
       <c r="V10" s="34"/>
       <c r="W10" s="29"/>
       <c r="X10" s="29"/>
@@ -26879,7 +26889,7 @@
     </row>
     <row r="11" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="216"/>
-      <c r="B11" s="225"/>
+      <c r="B11" s="232"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
       <c r="E11" s="33"/>
@@ -26890,15 +26900,15 @@
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="227"/>
-      <c r="N11" s="229"/>
-      <c r="O11" s="227"/>
-      <c r="P11" s="227"/>
-      <c r="Q11" s="227"/>
-      <c r="R11" s="227"/>
-      <c r="S11" s="227"/>
-      <c r="T11" s="232"/>
-      <c r="U11" s="227"/>
+      <c r="M11" s="217"/>
+      <c r="N11" s="235"/>
+      <c r="O11" s="217"/>
+      <c r="P11" s="217"/>
+      <c r="Q11" s="217"/>
+      <c r="R11" s="217"/>
+      <c r="S11" s="217"/>
+      <c r="T11" s="220"/>
+      <c r="U11" s="217"/>
       <c r="V11" s="34"/>
       <c r="W11" s="29"/>
       <c r="X11" s="29"/>
@@ -26908,8 +26918,8 @@
       <c r="AV11" s="49"/>
     </row>
     <row r="12" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="217"/>
-      <c r="B12" s="226"/>
+      <c r="A12" s="218"/>
+      <c r="B12" s="233"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
@@ -26920,15 +26930,15 @@
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="217"/>
-      <c r="N12" s="230"/>
-      <c r="O12" s="217"/>
-      <c r="P12" s="217"/>
-      <c r="Q12" s="217"/>
-      <c r="R12" s="217"/>
-      <c r="S12" s="217"/>
-      <c r="T12" s="233"/>
-      <c r="U12" s="217"/>
+      <c r="M12" s="218"/>
+      <c r="N12" s="236"/>
+      <c r="O12" s="218"/>
+      <c r="P12" s="218"/>
+      <c r="Q12" s="218"/>
+      <c r="R12" s="218"/>
+      <c r="S12" s="218"/>
+      <c r="T12" s="221"/>
+      <c r="U12" s="218"/>
       <c r="V12" s="34"/>
       <c r="W12" s="29"/>
       <c r="X12" s="29"/>
@@ -26937,7 +26947,7 @@
     </row>
     <row r="13" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
-      <c r="B13" s="224"/>
+      <c r="B13" s="231"/>
       <c r="C13" s="33"/>
       <c r="D13" s="33"/>
       <c r="E13" s="33"/>
@@ -26949,13 +26959,13 @@
       <c r="K13" s="29"/>
       <c r="L13" s="35"/>
       <c r="M13" s="216"/>
-      <c r="N13" s="228"/>
+      <c r="N13" s="234"/>
       <c r="O13" s="216"/>
       <c r="P13" s="216"/>
       <c r="Q13" s="216"/>
       <c r="R13" s="216"/>
       <c r="S13" s="216"/>
-      <c r="T13" s="231"/>
+      <c r="T13" s="219"/>
       <c r="U13" s="216"/>
       <c r="V13" s="34"/>
       <c r="W13" s="29"/>
@@ -26965,7 +26975,7 @@
     </row>
     <row r="14" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="37"/>
-      <c r="B14" s="225"/>
+      <c r="B14" s="232"/>
       <c r="C14" s="33"/>
       <c r="D14" s="33"/>
       <c r="E14" s="33"/>
@@ -26976,15 +26986,15 @@
       <c r="J14" s="29"/>
       <c r="K14" s="29"/>
       <c r="L14" s="35"/>
-      <c r="M14" s="227"/>
-      <c r="N14" s="229"/>
-      <c r="O14" s="227"/>
-      <c r="P14" s="227"/>
-      <c r="Q14" s="227"/>
-      <c r="R14" s="227"/>
-      <c r="S14" s="227"/>
-      <c r="T14" s="232"/>
-      <c r="U14" s="227"/>
+      <c r="M14" s="217"/>
+      <c r="N14" s="235"/>
+      <c r="O14" s="217"/>
+      <c r="P14" s="217"/>
+      <c r="Q14" s="217"/>
+      <c r="R14" s="217"/>
+      <c r="S14" s="217"/>
+      <c r="T14" s="220"/>
+      <c r="U14" s="217"/>
       <c r="V14" s="34"/>
       <c r="W14" s="29"/>
       <c r="X14" s="29"/>
@@ -26992,8 +27002,8 @@
       <c r="AU14" s="54"/>
     </row>
     <row r="15" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="234"/>
-      <c r="B15" s="225"/>
+      <c r="A15" s="237"/>
+      <c r="B15" s="232"/>
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
@@ -27004,15 +27014,15 @@
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="35"/>
-      <c r="M15" s="227"/>
-      <c r="N15" s="229"/>
-      <c r="O15" s="227"/>
-      <c r="P15" s="227"/>
-      <c r="Q15" s="227"/>
-      <c r="R15" s="227"/>
-      <c r="S15" s="227"/>
-      <c r="T15" s="232"/>
-      <c r="U15" s="227"/>
+      <c r="M15" s="217"/>
+      <c r="N15" s="235"/>
+      <c r="O15" s="217"/>
+      <c r="P15" s="217"/>
+      <c r="Q15" s="217"/>
+      <c r="R15" s="217"/>
+      <c r="S15" s="217"/>
+      <c r="T15" s="220"/>
+      <c r="U15" s="217"/>
       <c r="V15" s="34"/>
       <c r="W15" s="29"/>
       <c r="X15" s="29"/>
@@ -27020,8 +27030,8 @@
       <c r="AU15" s="39"/>
     </row>
     <row r="16" spans="1:48" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="235"/>
-      <c r="B16" s="226"/>
+      <c r="A16" s="238"/>
+      <c r="B16" s="233"/>
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
@@ -27032,15 +27042,15 @@
       <c r="J16" s="29"/>
       <c r="K16" s="29"/>
       <c r="L16" s="35"/>
-      <c r="M16" s="217"/>
-      <c r="N16" s="230"/>
-      <c r="O16" s="217"/>
-      <c r="P16" s="217"/>
-      <c r="Q16" s="217"/>
-      <c r="R16" s="217"/>
-      <c r="S16" s="217"/>
-      <c r="T16" s="233"/>
-      <c r="U16" s="217"/>
+      <c r="M16" s="218"/>
+      <c r="N16" s="236"/>
+      <c r="O16" s="218"/>
+      <c r="P16" s="218"/>
+      <c r="Q16" s="218"/>
+      <c r="R16" s="218"/>
+      <c r="S16" s="218"/>
+      <c r="T16" s="221"/>
+      <c r="U16" s="218"/>
       <c r="V16" s="34"/>
       <c r="W16" s="29"/>
       <c r="X16" s="29"/>
@@ -27049,7 +27059,7 @@
     </row>
     <row r="17" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="32"/>
-      <c r="B17" s="224"/>
+      <c r="B17" s="231"/>
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -27061,13 +27071,13 @@
       <c r="K17" s="29"/>
       <c r="L17" s="35"/>
       <c r="M17" s="216"/>
-      <c r="N17" s="228"/>
+      <c r="N17" s="234"/>
       <c r="O17" s="216"/>
       <c r="P17" s="216"/>
       <c r="Q17" s="216"/>
       <c r="R17" s="216"/>
       <c r="S17" s="216"/>
-      <c r="T17" s="231"/>
+      <c r="T17" s="219"/>
       <c r="U17" s="216"/>
       <c r="V17" s="34"/>
       <c r="W17" s="29"/>
@@ -27077,7 +27087,7 @@
     </row>
     <row r="18" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="33"/>
-      <c r="B18" s="225"/>
+      <c r="B18" s="232"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
@@ -27088,22 +27098,22 @@
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
       <c r="L18" s="35"/>
-      <c r="M18" s="227"/>
-      <c r="N18" s="229"/>
-      <c r="O18" s="227"/>
-      <c r="P18" s="227"/>
-      <c r="Q18" s="227"/>
-      <c r="R18" s="227"/>
-      <c r="S18" s="227"/>
-      <c r="T18" s="232"/>
-      <c r="U18" s="227"/>
+      <c r="M18" s="217"/>
+      <c r="N18" s="235"/>
+      <c r="O18" s="217"/>
+      <c r="P18" s="217"/>
+      <c r="Q18" s="217"/>
+      <c r="R18" s="217"/>
+      <c r="S18" s="217"/>
+      <c r="T18" s="220"/>
+      <c r="U18" s="217"/>
       <c r="V18" s="34"/>
       <c r="W18" s="29"/>
       <c r="X18" s="29"/>
     </row>
     <row r="19" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="216"/>
-      <c r="B19" s="225"/>
+      <c r="B19" s="232"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
@@ -27114,22 +27124,22 @@
       <c r="J19" s="29"/>
       <c r="K19" s="29"/>
       <c r="L19" s="35"/>
-      <c r="M19" s="227"/>
-      <c r="N19" s="229"/>
-      <c r="O19" s="227"/>
-      <c r="P19" s="227"/>
-      <c r="Q19" s="227"/>
-      <c r="R19" s="227"/>
-      <c r="S19" s="227"/>
-      <c r="T19" s="232"/>
-      <c r="U19" s="227"/>
+      <c r="M19" s="217"/>
+      <c r="N19" s="235"/>
+      <c r="O19" s="217"/>
+      <c r="P19" s="217"/>
+      <c r="Q19" s="217"/>
+      <c r="R19" s="217"/>
+      <c r="S19" s="217"/>
+      <c r="T19" s="220"/>
+      <c r="U19" s="217"/>
       <c r="V19" s="34"/>
       <c r="W19" s="29"/>
       <c r="X19" s="29"/>
     </row>
     <row r="20" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="217"/>
-      <c r="B20" s="226"/>
+      <c r="A20" s="218"/>
+      <c r="B20" s="233"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="33"/>
@@ -27140,22 +27150,22 @@
       <c r="J20" s="29"/>
       <c r="K20" s="29"/>
       <c r="L20" s="35"/>
-      <c r="M20" s="217"/>
-      <c r="N20" s="230"/>
-      <c r="O20" s="217"/>
-      <c r="P20" s="217"/>
-      <c r="Q20" s="217"/>
-      <c r="R20" s="217"/>
-      <c r="S20" s="217"/>
-      <c r="T20" s="233"/>
-      <c r="U20" s="217"/>
+      <c r="M20" s="218"/>
+      <c r="N20" s="236"/>
+      <c r="O20" s="218"/>
+      <c r="P20" s="218"/>
+      <c r="Q20" s="218"/>
+      <c r="R20" s="218"/>
+      <c r="S20" s="218"/>
+      <c r="T20" s="221"/>
+      <c r="U20" s="218"/>
       <c r="V20" s="34"/>
       <c r="W20" s="29"/>
       <c r="X20" s="29"/>
     </row>
     <row r="21" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="32"/>
-      <c r="B21" s="224"/>
+      <c r="B21" s="231"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="33"/>
@@ -27167,13 +27177,13 @@
       <c r="K21" s="29"/>
       <c r="L21" s="35"/>
       <c r="M21" s="216"/>
-      <c r="N21" s="228"/>
+      <c r="N21" s="234"/>
       <c r="O21" s="216"/>
       <c r="P21" s="216"/>
       <c r="Q21" s="216"/>
       <c r="R21" s="216"/>
       <c r="S21" s="216"/>
-      <c r="T21" s="231"/>
+      <c r="T21" s="219"/>
       <c r="U21" s="216"/>
       <c r="V21" s="34"/>
       <c r="W21" s="29"/>
@@ -27181,7 +27191,7 @@
     </row>
     <row r="22" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="33"/>
-      <c r="B22" s="225"/>
+      <c r="B22" s="232"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="33"/>
@@ -27192,22 +27202,22 @@
       <c r="J22" s="29"/>
       <c r="K22" s="29"/>
       <c r="L22" s="35"/>
-      <c r="M22" s="227"/>
-      <c r="N22" s="229"/>
-      <c r="O22" s="227"/>
-      <c r="P22" s="227"/>
-      <c r="Q22" s="227"/>
-      <c r="R22" s="227"/>
-      <c r="S22" s="227"/>
-      <c r="T22" s="232"/>
-      <c r="U22" s="227"/>
+      <c r="M22" s="217"/>
+      <c r="N22" s="235"/>
+      <c r="O22" s="217"/>
+      <c r="P22" s="217"/>
+      <c r="Q22" s="217"/>
+      <c r="R22" s="217"/>
+      <c r="S22" s="217"/>
+      <c r="T22" s="220"/>
+      <c r="U22" s="217"/>
       <c r="V22" s="34"/>
       <c r="W22" s="29"/>
       <c r="X22" s="29"/>
     </row>
     <row r="23" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="236"/>
-      <c r="B23" s="225"/>
+      <c r="A23" s="222"/>
+      <c r="B23" s="232"/>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="33"/>
@@ -27218,22 +27228,22 @@
       <c r="J23" s="29"/>
       <c r="K23" s="29"/>
       <c r="L23" s="35"/>
-      <c r="M23" s="227"/>
-      <c r="N23" s="229"/>
-      <c r="O23" s="227"/>
-      <c r="P23" s="227"/>
-      <c r="Q23" s="227"/>
-      <c r="R23" s="227"/>
-      <c r="S23" s="227"/>
-      <c r="T23" s="232"/>
-      <c r="U23" s="227"/>
+      <c r="M23" s="217"/>
+      <c r="N23" s="235"/>
+      <c r="O23" s="217"/>
+      <c r="P23" s="217"/>
+      <c r="Q23" s="217"/>
+      <c r="R23" s="217"/>
+      <c r="S23" s="217"/>
+      <c r="T23" s="220"/>
+      <c r="U23" s="217"/>
       <c r="V23" s="34"/>
       <c r="W23" s="29"/>
       <c r="X23" s="29"/>
     </row>
     <row r="24" spans="1:47" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="237"/>
-      <c r="B24" s="226"/>
+      <c r="A24" s="223"/>
+      <c r="B24" s="233"/>
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="33"/>
@@ -27244,15 +27254,15 @@
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
       <c r="L24" s="35"/>
-      <c r="M24" s="217"/>
-      <c r="N24" s="230"/>
-      <c r="O24" s="217"/>
-      <c r="P24" s="217"/>
-      <c r="Q24" s="217"/>
-      <c r="R24" s="217"/>
-      <c r="S24" s="217"/>
-      <c r="T24" s="233"/>
-      <c r="U24" s="217"/>
+      <c r="M24" s="218"/>
+      <c r="N24" s="236"/>
+      <c r="O24" s="218"/>
+      <c r="P24" s="218"/>
+      <c r="Q24" s="218"/>
+      <c r="R24" s="218"/>
+      <c r="S24" s="218"/>
+      <c r="T24" s="221"/>
+      <c r="U24" s="218"/>
       <c r="V24" s="34"/>
       <c r="W24" s="29"/>
       <c r="X24" s="29"/>
@@ -27444,7 +27454,7 @@
     </row>
     <row r="38" spans="1:42" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="151" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:42" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -27565,40 +27575,40 @@
     </row>
     <row r="40" spans="1:42" ht="50.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="148" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B40" s="149" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D40" s="66"/>
       <c r="E40" s="67"/>
-      <c r="F40" s="238" t="s">
+      <c r="F40" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="239"/>
-      <c r="H40" s="239"/>
-      <c r="I40" s="240"/>
-      <c r="J40" s="241" t="s">
+      <c r="G40" s="225"/>
+      <c r="H40" s="225"/>
+      <c r="I40" s="226"/>
+      <c r="J40" s="227" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="242"/>
-      <c r="L40" s="242"/>
-      <c r="M40" s="243"/>
+      <c r="K40" s="228"/>
+      <c r="L40" s="228"/>
+      <c r="M40" s="229"/>
       <c r="N40" s="68" t="s">
         <v>46</v>
       </c>
       <c r="P40" s="102"/>
-      <c r="Q40" s="244" t="s">
+      <c r="Q40" s="230" t="s">
         <v>116</v>
       </c>
-      <c r="R40" s="244"/>
-      <c r="S40" s="244"/>
-      <c r="T40" s="244"/>
-      <c r="U40" s="244"/>
-      <c r="V40" s="244"/>
-      <c r="W40" s="244"/>
-      <c r="X40" s="244"/>
-      <c r="Y40" s="244"/>
+      <c r="R40" s="230"/>
+      <c r="S40" s="230"/>
+      <c r="T40" s="230"/>
+      <c r="U40" s="230"/>
+      <c r="V40" s="230"/>
+      <c r="W40" s="230"/>
+      <c r="X40" s="230"/>
+      <c r="Y40" s="230"/>
       <c r="Z40" s="39"/>
       <c r="AA40" s="39"/>
       <c r="AB40" s="39"/>
@@ -27727,7 +27737,7 @@
         <v>91</v>
       </c>
       <c r="AO41" s="160" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AP41" s="16"/>
     </row>
@@ -27735,9 +27745,8 @@
       <c r="A42" s="125">
         <v>1</v>
       </c>
-      <c r="B42" s="125" t="s">
-        <v>124</v>
-      </c>
+      <c r="B42" s="125"/>
+      <c r="C42" s="125"/>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
       <c r="F42" s="118"/>
@@ -27782,9 +27791,8 @@
       <c r="A43" s="125">
         <v>2</v>
       </c>
-      <c r="B43" s="125" t="s">
-        <v>125</v>
-      </c>
+      <c r="B43" s="125"/>
+      <c r="C43" s="125"/>
       <c r="D43" s="27"/>
       <c r="E43" s="27"/>
       <c r="F43" s="119"/>
@@ -27828,6 +27836,7 @@
     <row r="44" spans="1:42" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="125"/>
       <c r="B44" s="125"/>
+      <c r="C44" s="125"/>
       <c r="D44" s="27"/>
       <c r="E44" s="27"/>
       <c r="F44" s="118"/>
@@ -27871,6 +27880,7 @@
     <row r="45" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="125"/>
       <c r="B45" s="125"/>
+      <c r="C45" s="125"/>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
       <c r="F45" s="118"/>
@@ -27914,6 +27924,7 @@
     <row r="46" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="125"/>
       <c r="B46" s="125"/>
+      <c r="C46" s="125"/>
       <c r="D46" s="27"/>
       <c r="E46" s="27"/>
       <c r="F46" s="118"/>
@@ -27957,6 +27968,7 @@
     <row r="47" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="125"/>
       <c r="B47" s="125"/>
+      <c r="C47" s="125"/>
       <c r="D47" s="27"/>
       <c r="E47" s="27"/>
       <c r="F47" s="118"/>
@@ -27999,6 +28011,7 @@
     <row r="48" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="125"/>
       <c r="B48" s="125"/>
+      <c r="C48" s="125"/>
       <c r="D48" s="27"/>
       <c r="E48" s="27"/>
       <c r="F48" s="118"/>
@@ -28041,6 +28054,7 @@
     <row r="49" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="125"/>
       <c r="B49" s="125"/>
+      <c r="C49" s="125"/>
       <c r="D49" s="27"/>
       <c r="E49" s="27"/>
       <c r="F49" s="118"/>
@@ -28083,6 +28097,7 @@
     <row r="50" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="125"/>
       <c r="B50" s="125"/>
+      <c r="C50" s="125"/>
       <c r="D50" s="27"/>
       <c r="E50" s="27"/>
       <c r="F50" s="118"/>
@@ -28125,6 +28140,7 @@
     <row r="51" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="125"/>
       <c r="B51" s="125"/>
+      <c r="C51" s="125"/>
       <c r="D51" s="27"/>
       <c r="E51" s="27"/>
       <c r="F51" s="118"/>
@@ -28167,6 +28183,7 @@
     <row r="52" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="125"/>
       <c r="B52" s="125"/>
+      <c r="C52" s="125"/>
       <c r="D52" s="27"/>
       <c r="E52" s="27"/>
       <c r="F52" s="118"/>
@@ -28209,6 +28226,7 @@
     <row r="53" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="125"/>
       <c r="B53" s="125"/>
+      <c r="C53" s="125"/>
       <c r="D53" s="27"/>
       <c r="E53" s="27"/>
       <c r="F53" s="118"/>
@@ -28251,6 +28269,7 @@
     <row r="54" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="125"/>
       <c r="B54" s="125"/>
+      <c r="C54" s="125"/>
       <c r="D54" s="27"/>
       <c r="E54" s="27"/>
       <c r="F54" s="118"/>
@@ -28293,6 +28312,7 @@
     <row r="55" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="125"/>
       <c r="B55" s="125"/>
+      <c r="C55" s="125"/>
       <c r="D55" s="27"/>
       <c r="E55" s="27"/>
       <c r="F55" s="118"/>
@@ -28335,6 +28355,7 @@
     <row r="56" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="125"/>
       <c r="B56" s="125"/>
+      <c r="C56" s="125"/>
       <c r="D56" s="27"/>
       <c r="E56" s="27"/>
       <c r="F56" s="118"/>
@@ -28377,6 +28398,7 @@
     <row r="57" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="125"/>
       <c r="B57" s="125"/>
+      <c r="C57" s="125"/>
       <c r="D57" s="27"/>
       <c r="E57" s="27"/>
       <c r="F57" s="107"/>
@@ -28419,6 +28441,7 @@
     <row r="58" spans="1:42" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="125"/>
       <c r="B58" s="125"/>
+      <c r="C58" s="125"/>
       <c r="D58" s="27"/>
       <c r="E58" s="27"/>
       <c r="F58" s="118"/>
@@ -28462,6 +28485,7 @@
     <row r="59" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="125"/>
       <c r="B59" s="125"/>
+      <c r="C59" s="125"/>
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
       <c r="F59" s="118"/>
@@ -28505,6 +28529,7 @@
     <row r="60" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="125"/>
       <c r="B60" s="125"/>
+      <c r="C60" s="125"/>
       <c r="D60" s="27"/>
       <c r="E60" s="27"/>
       <c r="F60" s="118"/>
@@ -28548,6 +28573,7 @@
     <row r="61" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="125"/>
       <c r="B61" s="125"/>
+      <c r="C61" s="125"/>
       <c r="D61" s="27"/>
       <c r="E61" s="27"/>
       <c r="F61" s="118"/>
@@ -28590,6 +28616,7 @@
     <row r="62" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="125"/>
       <c r="B62" s="125"/>
+      <c r="C62" s="125"/>
       <c r="D62" s="27"/>
       <c r="E62" s="27"/>
       <c r="F62" s="118"/>
@@ -28632,6 +28659,7 @@
     <row r="63" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="125"/>
       <c r="B63" s="125"/>
+      <c r="C63" s="125"/>
       <c r="D63" s="27"/>
       <c r="E63" s="27"/>
       <c r="F63" s="118"/>
@@ -28674,6 +28702,7 @@
     <row r="64" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="125"/>
       <c r="B64" s="125"/>
+      <c r="C64" s="125"/>
       <c r="D64" s="27"/>
       <c r="E64" s="27"/>
       <c r="F64" s="118"/>
@@ -28716,6 +28745,7 @@
     <row r="65" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="125"/>
       <c r="B65" s="125"/>
+      <c r="C65" s="125"/>
       <c r="D65" s="27"/>
       <c r="E65" s="27"/>
       <c r="F65" s="118"/>
@@ -28758,6 +28788,7 @@
     <row r="66" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="125"/>
       <c r="B66" s="125"/>
+      <c r="C66" s="125"/>
       <c r="D66" s="27"/>
       <c r="E66" s="27"/>
       <c r="F66" s="118"/>
@@ -28800,6 +28831,7 @@
     <row r="67" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="125"/>
       <c r="B67" s="125"/>
+      <c r="C67" s="125"/>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
       <c r="F67" s="118"/>
@@ -28842,6 +28874,7 @@
     <row r="68" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="125"/>
       <c r="B68" s="125"/>
+      <c r="C68" s="125"/>
       <c r="D68" s="27"/>
       <c r="E68" s="27"/>
       <c r="F68" s="118"/>
@@ -28884,6 +28917,7 @@
     <row r="69" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="125"/>
       <c r="B69" s="125"/>
+      <c r="C69" s="125"/>
       <c r="D69" s="27"/>
       <c r="E69" s="27"/>
       <c r="F69" s="118"/>
@@ -28926,6 +28960,7 @@
     <row r="70" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="125"/>
       <c r="B70" s="125"/>
+      <c r="C70" s="125"/>
       <c r="D70" s="27"/>
       <c r="E70" s="27"/>
       <c r="F70" s="118"/>
@@ -28968,6 +29003,7 @@
     <row r="71" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="125"/>
       <c r="B71" s="125"/>
+      <c r="C71" s="125"/>
       <c r="D71" s="27"/>
       <c r="E71" s="27"/>
       <c r="F71" s="107"/>
@@ -29010,6 +29046,7 @@
     <row r="72" spans="1:42" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="125"/>
       <c r="B72" s="125"/>
+      <c r="C72" s="125"/>
       <c r="D72" s="27"/>
       <c r="E72" s="27"/>
       <c r="F72" s="118"/>
@@ -29053,6 +29090,7 @@
     <row r="73" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="125"/>
       <c r="B73" s="125"/>
+      <c r="C73" s="125"/>
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
       <c r="F73" s="118"/>
@@ -29096,6 +29134,7 @@
     <row r="74" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="125"/>
       <c r="B74" s="125"/>
+      <c r="C74" s="125"/>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
       <c r="F74" s="118"/>
@@ -29139,6 +29178,7 @@
     <row r="75" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="125"/>
       <c r="B75" s="125"/>
+      <c r="C75" s="125"/>
       <c r="D75" s="27"/>
       <c r="E75" s="27"/>
       <c r="F75" s="118"/>
@@ -29181,6 +29221,7 @@
     <row r="76" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="125"/>
       <c r="B76" s="125"/>
+      <c r="C76" s="125"/>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
       <c r="F76" s="118"/>
@@ -29223,6 +29264,7 @@
     <row r="77" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="125"/>
       <c r="B77" s="125"/>
+      <c r="C77" s="125"/>
       <c r="D77" s="27"/>
       <c r="E77" s="27"/>
       <c r="F77" s="118"/>
@@ -29265,6 +29307,7 @@
     <row r="78" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="125"/>
       <c r="B78" s="125"/>
+      <c r="C78" s="125"/>
       <c r="D78" s="27"/>
       <c r="E78" s="27"/>
       <c r="F78" s="118"/>
@@ -29307,6 +29350,7 @@
     <row r="79" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="125"/>
       <c r="B79" s="125"/>
+      <c r="C79" s="125"/>
       <c r="D79" s="27"/>
       <c r="E79" s="27"/>
       <c r="F79" s="118"/>
@@ -29349,6 +29393,7 @@
     <row r="80" spans="1:42" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="125"/>
       <c r="B80" s="125"/>
+      <c r="C80" s="125"/>
       <c r="D80" s="27"/>
       <c r="E80" s="27"/>
       <c r="F80" s="118"/>
@@ -52196,6 +52241,44 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F1:L1"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="M9:M12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="O9:O12"/>
+    <mergeCell ref="P9:P12"/>
+    <mergeCell ref="Q9:Q12"/>
+    <mergeCell ref="R9:R12"/>
+    <mergeCell ref="S9:S12"/>
+    <mergeCell ref="T9:T12"/>
+    <mergeCell ref="U9:U12"/>
+    <mergeCell ref="R13:R16"/>
+    <mergeCell ref="S13:S16"/>
+    <mergeCell ref="T13:T16"/>
+    <mergeCell ref="U13:U16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="M13:M16"/>
+    <mergeCell ref="N13:N16"/>
+    <mergeCell ref="O13:O16"/>
+    <mergeCell ref="P13:P16"/>
+    <mergeCell ref="Q13:Q16"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="T17:T20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="U17:U20"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="M17:M20"/>
+    <mergeCell ref="N17:N20"/>
+    <mergeCell ref="O17:O20"/>
+    <mergeCell ref="P17:P20"/>
     <mergeCell ref="Q40:Y40"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="J40:M40"/>
@@ -52210,44 +52293,6 @@
     <mergeCell ref="R21:R24"/>
     <mergeCell ref="S21:S24"/>
     <mergeCell ref="T21:T24"/>
-    <mergeCell ref="U17:U20"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="M17:M20"/>
-    <mergeCell ref="N17:N20"/>
-    <mergeCell ref="O17:O20"/>
-    <mergeCell ref="P17:P20"/>
-    <mergeCell ref="P13:P16"/>
-    <mergeCell ref="Q13:Q16"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="T17:T20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="M13:M16"/>
-    <mergeCell ref="N13:N16"/>
-    <mergeCell ref="O13:O16"/>
-    <mergeCell ref="R9:R12"/>
-    <mergeCell ref="S9:S12"/>
-    <mergeCell ref="T9:T12"/>
-    <mergeCell ref="U9:U12"/>
-    <mergeCell ref="R13:R16"/>
-    <mergeCell ref="S13:S16"/>
-    <mergeCell ref="T13:T16"/>
-    <mergeCell ref="U13:U16"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F1:L1"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="M9:M12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="O9:O12"/>
-    <mergeCell ref="P9:P12"/>
-    <mergeCell ref="Q9:Q12"/>
   </mergeCells>
   <conditionalFormatting sqref="AM1:AM57 AM622:AM1048576">
     <cfRule type="duplicateValues" dxfId="46" priority="47"/>
@@ -52876,10 +52921,10 @@
         <v>45</v>
       </c>
       <c r="F6" s="159" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G6" s="159" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H6" s="159" t="s">
         <v>46</v>
@@ -52890,7 +52935,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="245" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" s="251" t="s">
         <v>47</v>
@@ -52900,7 +52945,7 @@
       </c>
       <c r="E7" s="192"/>
       <c r="F7" s="192" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G7" s="192"/>
       <c r="H7" s="197"/>
@@ -52915,10 +52960,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="192" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F8" s="192" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G8" s="192"/>
       <c r="H8" s="198"/>
@@ -52933,7 +52978,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="192" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F9" s="192">
         <v>75</v>
@@ -52951,10 +52996,10 @@
         <v>51</v>
       </c>
       <c r="E10" s="192" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F10" s="192" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G10" s="192"/>
       <c r="H10" s="200"/>
@@ -52966,10 +53011,10 @@
       <c r="B11" s="246"/>
       <c r="C11" s="251"/>
       <c r="D11" s="192" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E11" s="192" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F11" s="192"/>
       <c r="G11" s="192"/>
@@ -52981,7 +53026,7 @@
       </c>
       <c r="B12" s="246"/>
       <c r="C12" s="194" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D12" s="192"/>
       <c r="E12" s="192"/>
@@ -52995,13 +53040,13 @@
       </c>
       <c r="B13" s="246"/>
       <c r="C13" s="194" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D13" s="192" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E13" s="193" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F13" s="192">
         <v>25</v>
@@ -53015,13 +53060,13 @@
       </c>
       <c r="B14" s="246"/>
       <c r="C14" s="194" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D14" s="192" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E14" s="193" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F14" s="192">
         <v>25</v>
@@ -53035,11 +53080,11 @@
       </c>
       <c r="B15" s="246"/>
       <c r="C15" s="194" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D15" s="192"/>
       <c r="E15" s="193" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F15" s="192">
         <v>75</v>
@@ -53060,7 +53105,7 @@
       </c>
       <c r="E16" s="192"/>
       <c r="F16" s="201" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G16" s="192"/>
       <c r="H16" s="192"/>
@@ -53072,11 +53117,11 @@
       <c r="B17" s="246"/>
       <c r="C17" s="256"/>
       <c r="D17" s="192" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E17" s="192"/>
       <c r="F17" s="201" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G17" s="192"/>
       <c r="H17" s="192"/>
@@ -53104,10 +53149,10 @@
       <c r="B19" s="246"/>
       <c r="C19" s="256"/>
       <c r="D19" s="192" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E19" s="192" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F19" s="192"/>
       <c r="G19" s="192"/>
@@ -53120,10 +53165,10 @@
       <c r="B20" s="246"/>
       <c r="C20" s="256"/>
       <c r="D20" s="192" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E20" s="192" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F20" s="192">
         <v>123</v>
@@ -53138,10 +53183,10 @@
       <c r="B21" s="246"/>
       <c r="C21" s="257"/>
       <c r="D21" s="202" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E21" s="192" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F21" s="192">
         <v>1.23</v>
@@ -53155,13 +53200,13 @@
       </c>
       <c r="B22" s="246"/>
       <c r="C22" s="194" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D22" s="192" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E22" s="193" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F22" s="192">
         <v>75</v>
@@ -53175,14 +53220,14 @@
       </c>
       <c r="B23" s="246"/>
       <c r="C23" s="194" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D23" s="192" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="192"/>
       <c r="F23" s="192" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G23" s="192"/>
       <c r="H23" s="192"/>
@@ -53193,14 +53238,14 @@
       </c>
       <c r="B24" s="246"/>
       <c r="C24" s="248" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D24" s="192" t="s">
         <v>48</v>
       </c>
       <c r="E24" s="192"/>
       <c r="F24" s="193" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G24" s="192"/>
       <c r="H24" s="192"/>
@@ -53212,11 +53257,11 @@
       <c r="B25" s="246"/>
       <c r="C25" s="249"/>
       <c r="D25" s="192" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E25" s="192"/>
       <c r="F25" s="193" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G25" s="192"/>
       <c r="H25" s="192"/>
@@ -53244,10 +53289,10 @@
       <c r="B27" s="246"/>
       <c r="C27" s="249"/>
       <c r="D27" s="192" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E27" s="192" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F27" s="192"/>
       <c r="G27" s="192"/>
@@ -53260,10 +53305,10 @@
       <c r="B28" s="246"/>
       <c r="C28" s="249"/>
       <c r="D28" s="192" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E28" s="192" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F28" s="192">
         <v>123</v>
@@ -53278,10 +53323,10 @@
       <c r="B29" s="246"/>
       <c r="C29" s="250"/>
       <c r="D29" s="202" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E29" s="192" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F29" s="192">
         <v>1.23</v>
@@ -53295,7 +53340,7 @@
       </c>
       <c r="B30" s="246"/>
       <c r="C30" s="194" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D30" s="202"/>
       <c r="E30" s="192"/>
@@ -53309,7 +53354,7 @@
       </c>
       <c r="B31" s="246"/>
       <c r="C31" s="194" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D31" s="192"/>
       <c r="E31" s="192"/>
@@ -53323,14 +53368,14 @@
       </c>
       <c r="B32" s="246"/>
       <c r="C32" s="252" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D32" s="192" t="s">
         <v>48</v>
       </c>
       <c r="E32" s="192"/>
       <c r="F32" s="192" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G32" s="192"/>
       <c r="H32" s="192"/>
@@ -53342,11 +53387,11 @@
       <c r="B33" s="246"/>
       <c r="C33" s="254"/>
       <c r="D33" s="192" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E33" s="192"/>
       <c r="F33" s="201" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G33" s="192"/>
       <c r="H33" s="192"/>
@@ -53374,10 +53419,10 @@
       <c r="B35" s="246"/>
       <c r="C35" s="254"/>
       <c r="D35" s="192" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E35" s="192" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F35" s="192"/>
       <c r="G35" s="192"/>
@@ -53390,10 +53435,10 @@
       <c r="B36" s="246"/>
       <c r="C36" s="254"/>
       <c r="D36" s="192" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E36" s="192" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F36" s="192">
         <v>123</v>
@@ -53408,10 +53453,10 @@
       <c r="B37" s="246"/>
       <c r="C37" s="253"/>
       <c r="D37" s="202" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E37" s="192" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F37" s="192">
         <v>1.23</v>
@@ -53425,13 +53470,13 @@
       </c>
       <c r="B38" s="246"/>
       <c r="C38" s="196" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D38" s="192" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E38" s="193" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F38" s="192">
         <v>25</v>
@@ -53445,7 +53490,7 @@
       </c>
       <c r="B39" s="246"/>
       <c r="C39" s="196" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D39" s="192"/>
       <c r="E39" s="192"/>
@@ -53459,14 +53504,14 @@
       </c>
       <c r="B40" s="246"/>
       <c r="C40" s="252" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D40" s="192" t="s">
         <v>48</v>
       </c>
       <c r="E40" s="192"/>
       <c r="F40" s="201" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G40" s="192"/>
       <c r="H40" s="192"/>
@@ -53478,7 +53523,7 @@
       <c r="B41" s="246"/>
       <c r="C41" s="253"/>
       <c r="D41" s="192" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E41" s="192"/>
       <c r="F41" s="192"/>
@@ -53491,13 +53536,13 @@
       </c>
       <c r="B42" s="246"/>
       <c r="C42" s="196" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D42" s="192" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E42" s="193" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F42" s="192">
         <v>75</v>
@@ -53511,10 +53556,10 @@
       </c>
       <c r="B43" s="246"/>
       <c r="C43" s="196" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D43" s="192" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E43" s="192"/>
       <c r="F43" s="192"/>
@@ -53551,7 +53596,7 @@
       </c>
       <c r="B46" s="246"/>
       <c r="C46" s="258" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D46" s="258"/>
       <c r="E46" s="258"/>
@@ -53565,14 +53610,14 @@
       </c>
       <c r="B47" s="246"/>
       <c r="C47" s="194" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D47" s="192" t="s">
         <v>48</v>
       </c>
       <c r="E47" s="192"/>
       <c r="F47" s="193" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G47" s="192"/>
       <c r="H47" s="192"/>
@@ -53583,13 +53628,13 @@
       </c>
       <c r="B48" s="246"/>
       <c r="C48" s="194" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D48" s="192" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E48" s="193" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F48" s="192">
         <v>15</v>
@@ -53615,7 +53660,7 @@
       </c>
       <c r="B50" s="246"/>
       <c r="C50" s="258" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D50" s="259"/>
       <c r="E50" s="259"/>
@@ -53629,14 +53674,14 @@
       </c>
       <c r="B51" s="246"/>
       <c r="C51" s="194" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D51" s="192" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E51" s="192"/>
       <c r="F51" s="193" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G51" s="203"/>
       <c r="H51" s="192"/>
@@ -53648,11 +53693,11 @@
       <c r="B52" s="246"/>
       <c r="C52" s="194"/>
       <c r="D52" s="192" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E52" s="192"/>
       <c r="F52" s="193" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G52" s="203"/>
       <c r="H52" s="192"/>
@@ -53664,10 +53709,10 @@
       <c r="B53" s="246"/>
       <c r="C53" s="194"/>
       <c r="D53" s="192" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E53" s="193" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F53" s="193">
         <v>25</v>
@@ -53682,11 +53727,11 @@
       <c r="B54" s="246"/>
       <c r="C54" s="194"/>
       <c r="D54" s="192" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E54" s="192"/>
       <c r="F54" s="193" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G54" s="203"/>
       <c r="H54" s="192"/>
@@ -53709,7 +53754,7 @@
       </c>
       <c r="B56" s="246"/>
       <c r="C56" s="258" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D56" s="259"/>
       <c r="E56" s="259"/>
@@ -53723,14 +53768,14 @@
       </c>
       <c r="B57" s="246"/>
       <c r="C57" s="248" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="192" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E57" s="192"/>
       <c r="F57" s="193" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G57" s="192"/>
       <c r="H57" s="192"/>
@@ -53742,11 +53787,11 @@
       <c r="B58" s="246"/>
       <c r="C58" s="249"/>
       <c r="D58" s="192" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E58" s="192"/>
       <c r="F58" s="201" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G58" s="192"/>
       <c r="H58" s="192"/>
@@ -53758,10 +53803,10 @@
       <c r="B59" s="246"/>
       <c r="C59" s="250"/>
       <c r="D59" s="192" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E59" s="193" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F59" s="192">
         <v>25</v>
@@ -53775,14 +53820,14 @@
       </c>
       <c r="B60" s="246"/>
       <c r="C60" s="248" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="192" t="s">
         <v>48</v>
       </c>
       <c r="E60" s="192"/>
       <c r="F60" s="192" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G60" s="192"/>
       <c r="H60" s="192"/>
@@ -53794,11 +53839,11 @@
       <c r="B61" s="246"/>
       <c r="C61" s="249"/>
       <c r="D61" s="192" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E61" s="192"/>
       <c r="F61" s="192" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G61" s="192"/>
       <c r="H61" s="192"/>
@@ -53826,10 +53871,10 @@
       <c r="B63" s="246"/>
       <c r="C63" s="249"/>
       <c r="D63" s="192" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E63" s="192" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F63" s="192"/>
       <c r="G63" s="192"/>
@@ -53842,10 +53887,10 @@
       <c r="B64" s="246"/>
       <c r="C64" s="249"/>
       <c r="D64" s="192" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E64" s="192" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F64" s="192">
         <v>123</v>
@@ -53860,10 +53905,10 @@
       <c r="B65" s="246"/>
       <c r="C65" s="250"/>
       <c r="D65" s="202" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E65" s="192" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F65" s="192">
         <v>1.23</v>
@@ -53877,14 +53922,14 @@
       </c>
       <c r="B66" s="246"/>
       <c r="C66" s="194" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D66" s="192" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E66" s="192"/>
       <c r="F66" s="201" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G66" s="192"/>
       <c r="H66" s="192"/>
@@ -53907,12 +53952,12 @@
       </c>
       <c r="B68" s="247"/>
       <c r="C68" s="195" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D68" s="192"/>
       <c r="E68" s="192"/>
       <c r="F68" s="192" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G68" s="192"/>
       <c r="H68" s="192"/>
@@ -54000,10 +54045,10 @@
         <v>45</v>
       </c>
       <c r="F6" s="159" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G6" s="159" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H6" s="159" t="s">
         <v>46</v>
@@ -54014,7 +54059,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="245" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" s="261" t="s">
         <v>47</v>
@@ -54024,7 +54069,7 @@
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="176"/>
@@ -54039,10 +54084,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="177"/>
@@ -54057,7 +54102,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F9" s="178">
         <v>75</v>
@@ -54075,10 +54120,10 @@
         <v>51</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="180"/>
@@ -54090,10 +54135,10 @@
       <c r="B11" s="246"/>
       <c r="C11" s="261"/>
       <c r="D11" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -54105,14 +54150,14 @@
       </c>
       <c r="B12" s="246"/>
       <c r="C12" s="186" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -54123,14 +54168,14 @@
       </c>
       <c r="B13" s="246"/>
       <c r="C13" s="186" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="182"/>
       <c r="F13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -54142,11 +54187,11 @@
       <c r="B14" s="246"/>
       <c r="C14" s="186"/>
       <c r="D14" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E14" s="182"/>
       <c r="F14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -54157,14 +54202,14 @@
       </c>
       <c r="B15" s="246"/>
       <c r="C15" s="186" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="182"/>
       <c r="F15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -54175,14 +54220,14 @@
       </c>
       <c r="B16" s="246"/>
       <c r="C16" s="211" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="71" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -54193,14 +54238,14 @@
       </c>
       <c r="B17" s="246"/>
       <c r="C17" s="213" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="71" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -54211,13 +54256,13 @@
       </c>
       <c r="B18" s="246"/>
       <c r="C18" s="212" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F18">
         <v>50</v>
@@ -54231,14 +54276,14 @@
       </c>
       <c r="B19" s="246"/>
       <c r="C19" s="214" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -54249,12 +54294,12 @@
       </c>
       <c r="B20" s="246"/>
       <c r="C20" s="215" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -54564,7 +54609,7 @@
       </c>
       <c r="B46" s="246"/>
       <c r="C46" s="258" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D46" s="258"/>
       <c r="E46" s="258"/>
@@ -54578,14 +54623,14 @@
       </c>
       <c r="B47" s="246"/>
       <c r="C47" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G47" s="12"/>
       <c r="H47" s="12"/>
@@ -54596,13 +54641,13 @@
       </c>
       <c r="B48" s="246"/>
       <c r="C48" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E48" s="182" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F48" s="12">
         <v>15</v>
@@ -54628,7 +54673,7 @@
       </c>
       <c r="B50" s="246"/>
       <c r="C50" s="259" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D50" s="259"/>
       <c r="E50" s="259"/>
@@ -54642,14 +54687,14 @@
       </c>
       <c r="B51" s="246"/>
       <c r="C51" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G51" s="184"/>
       <c r="H51" s="12"/>
@@ -54661,11 +54706,11 @@
       <c r="B52" s="246"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G52" s="184"/>
       <c r="H52" s="12"/>
@@ -54677,10 +54722,10 @@
       <c r="B53" s="246"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E53" s="182" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F53" s="1">
         <v>25</v>
@@ -54695,11 +54740,11 @@
       <c r="B54" s="246"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G54" s="184"/>
       <c r="H54" s="12"/>
@@ -54722,7 +54767,7 @@
       </c>
       <c r="B56" s="246"/>
       <c r="C56" s="259" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D56" s="259"/>
       <c r="E56" s="259"/>
@@ -54736,14 +54781,14 @@
       </c>
       <c r="B57" s="246"/>
       <c r="C57" s="248" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -54755,11 +54800,11 @@
       <c r="B58" s="246"/>
       <c r="C58" s="249"/>
       <c r="D58" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G58" s="12"/>
       <c r="H58" s="12"/>
@@ -54771,10 +54816,10 @@
       <c r="B59" s="246"/>
       <c r="C59" s="250"/>
       <c r="D59" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E59" s="182" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F59" s="12">
         <v>25</v>
@@ -54788,14 +54833,14 @@
       </c>
       <c r="B60" s="246"/>
       <c r="C60" s="248" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -54807,11 +54852,11 @@
       <c r="B61" s="246"/>
       <c r="C61" s="249"/>
       <c r="D61" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G61" s="12"/>
       <c r="H61" s="12"/>
@@ -54839,10 +54884,10 @@
       <c r="B63" s="246"/>
       <c r="C63" s="249"/>
       <c r="D63" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F63" s="12"/>
       <c r="G63" s="12"/>
@@ -54855,10 +54900,10 @@
       <c r="B64" s="246"/>
       <c r="C64" s="249"/>
       <c r="D64" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F64" s="12">
         <v>123</v>
@@ -54873,10 +54918,10 @@
       <c r="B65" s="246"/>
       <c r="C65" s="250"/>
       <c r="D65" s="181" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F65" s="12">
         <v>1.23</v>
@@ -54890,14 +54935,14 @@
       </c>
       <c r="B66" s="246"/>
       <c r="C66" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G66" s="12"/>
       <c r="H66" s="12"/>
@@ -54920,12 +54965,12 @@
       </c>
       <c r="B68" s="247"/>
       <c r="C68" s="185" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G68" s="12"/>
       <c r="H68" s="12"/>
@@ -55012,10 +55057,10 @@
         <v>45</v>
       </c>
       <c r="F6" s="159" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G6" s="159" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H6" s="159" t="s">
         <v>46</v>
@@ -55026,7 +55071,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="245" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C7" s="261" t="s">
         <v>47</v>
@@ -55036,7 +55081,7 @@
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="176"/>
@@ -55051,10 +55096,10 @@
         <v>49</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="177"/>
@@ -55069,7 +55114,7 @@
         <v>50</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F9" s="178">
         <v>75</v>
@@ -55087,10 +55132,10 @@
         <v>51</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="180"/>
@@ -55102,10 +55147,10 @@
       <c r="B11" s="246"/>
       <c r="C11" s="261"/>
       <c r="D11" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -55117,14 +55162,14 @@
       </c>
       <c r="B12" s="246"/>
       <c r="C12" s="190" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="182"/>
       <c r="F12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -55136,11 +55181,11 @@
       <c r="B13" s="246"/>
       <c r="C13" s="190"/>
       <c r="D13" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E13" s="182"/>
       <c r="F13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -55151,14 +55196,14 @@
       </c>
       <c r="B14" s="246"/>
       <c r="C14" s="190" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="182"/>
       <c r="F14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -55169,14 +55214,14 @@
       </c>
       <c r="B15" s="246"/>
       <c r="C15" s="187" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -55187,14 +55232,14 @@
       </c>
       <c r="B16" s="246"/>
       <c r="C16" s="268" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -55206,10 +55251,10 @@
       <c r="B17" s="246"/>
       <c r="C17" s="268"/>
       <c r="D17" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F17" s="178">
         <v>15</v>
@@ -55223,13 +55268,13 @@
       </c>
       <c r="B18" s="246"/>
       <c r="C18" s="191" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F18" s="178">
         <v>75</v>
@@ -55243,14 +55288,14 @@
       </c>
       <c r="B19" s="246"/>
       <c r="C19" s="188" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -55560,7 +55605,7 @@
       </c>
       <c r="B45" s="246"/>
       <c r="C45" s="258" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D45" s="258"/>
       <c r="E45" s="258"/>
@@ -55574,14 +55619,14 @@
       </c>
       <c r="B46" s="246"/>
       <c r="C46" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G46" s="12"/>
       <c r="H46" s="12"/>
@@ -55592,13 +55637,13 @@
       </c>
       <c r="B47" s="246"/>
       <c r="C47" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E47" s="182" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F47" s="12">
         <v>15</v>
@@ -55624,7 +55669,7 @@
       </c>
       <c r="B49" s="246"/>
       <c r="C49" s="259" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D49" s="259"/>
       <c r="E49" s="259"/>
@@ -55638,14 +55683,14 @@
       </c>
       <c r="B50" s="246"/>
       <c r="C50" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G50" s="184"/>
       <c r="H50" s="12"/>
@@ -55657,11 +55702,11 @@
       <c r="B51" s="246"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G51" s="184"/>
       <c r="H51" s="12"/>
@@ -55673,10 +55718,10 @@
       <c r="B52" s="246"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E52" s="182" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F52" s="1">
         <v>25</v>
@@ -55691,11 +55736,11 @@
       <c r="B53" s="246"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G53" s="184"/>
       <c r="H53" s="12"/>
@@ -55718,7 +55763,7 @@
       </c>
       <c r="B55" s="246"/>
       <c r="C55" s="259" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D55" s="259"/>
       <c r="E55" s="259"/>
@@ -55732,14 +55777,14 @@
       </c>
       <c r="B56" s="246"/>
       <c r="C56" s="248" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G56" s="12"/>
       <c r="H56" s="12"/>
@@ -55751,11 +55796,11 @@
       <c r="B57" s="246"/>
       <c r="C57" s="249"/>
       <c r="D57" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
@@ -55767,10 +55812,10 @@
       <c r="B58" s="246"/>
       <c r="C58" s="250"/>
       <c r="D58" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E58" s="182" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F58" s="12">
         <v>25</v>
@@ -55784,14 +55829,14 @@
       </c>
       <c r="B59" s="246"/>
       <c r="C59" s="248" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
@@ -55803,11 +55848,11 @@
       <c r="B60" s="246"/>
       <c r="C60" s="249"/>
       <c r="D60" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G60" s="12"/>
       <c r="H60" s="12"/>
@@ -55835,10 +55880,10 @@
       <c r="B62" s="246"/>
       <c r="C62" s="249"/>
       <c r="D62" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="12"/>
@@ -55851,10 +55896,10 @@
       <c r="B63" s="246"/>
       <c r="C63" s="249"/>
       <c r="D63" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F63" s="12">
         <v>123</v>
@@ -55869,10 +55914,10 @@
       <c r="B64" s="246"/>
       <c r="C64" s="250"/>
       <c r="D64" s="181" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F64" s="12">
         <v>1.23</v>
@@ -55886,14 +55931,14 @@
       </c>
       <c r="B65" s="246"/>
       <c r="C65" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G65" s="12"/>
       <c r="H65" s="12"/>
@@ -55916,12 +55961,12 @@
       </c>
       <c r="B67" s="247"/>
       <c r="C67" s="185" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
       <c r="F67" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G67" s="12"/>
       <c r="H67" s="12"/>

--- a/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
+++ b/eResidue_CV_eDocs/bin/Test Data/eResidue_eDocs_TestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520" tabRatio="663" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19155" windowHeight="8520" tabRatio="663" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Microbial_Calculation" sheetId="12" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="240">
   <si>
     <t>Testcase_id</t>
   </si>
@@ -670,19 +670,10 @@
     <t>No of Runs</t>
   </si>
   <si>
-    <t>Choose Number of runs</t>
-  </si>
-  <si>
     <t>Protocol Document ID cannot be empty. Please create a file in Document Management System</t>
   </si>
   <si>
     <t>Protocol ID</t>
-  </si>
-  <si>
-    <t>Choose Equipment Or Equipment Group</t>
-  </si>
-  <si>
-    <t>Number of equipment selected should be more than one</t>
   </si>
   <si>
     <t>Upload Image</t>
@@ -740,9 +731,6 @@
     <t>Less than 3</t>
   </si>
   <si>
-    <t>A minimum of 3 runs need to be defined between all Equipment selected</t>
-  </si>
-  <si>
     <t>Report ID</t>
   </si>
   <si>
@@ -762,6 +750,51 @@
   </si>
   <si>
     <t>dfg</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>MOC -  Empty Check</t>
+  </si>
+  <si>
+    <t>MOC cannot be empty in row 1</t>
+  </si>
+  <si>
+    <t>Enter Location</t>
+  </si>
+  <si>
+    <t>Please select atleast one Sampling and Test Method</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industrytes Test Lorem Ipsum is simply dummy text of the printing and typesetting industrytes Test Lorem Ipsum is simply dummy text of the printing and typesetting industrytes Test</t>
+  </si>
+  <si>
+    <t>Equipment was saved successfully</t>
+  </si>
+  <si>
+    <t>Group Name is mandatory</t>
+  </si>
+  <si>
+    <t>Select Number of runs</t>
+  </si>
+  <si>
+    <t>A minimum of 3 runs need to be defined between all Equipments selected</t>
+  </si>
+  <si>
+    <t>MOC</t>
+  </si>
+  <si>
+    <t>Select Equipment(s) or Equipment Group(s)</t>
+  </si>
+  <si>
+    <t>Number of Equipments selected should be more than one</t>
+  </si>
+  <si>
+    <t>()-_+[]\,./()-_+/\.,</t>
+  </si>
+  <si>
+    <t>Topical</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1421,11 +1454,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1804,15 +1868,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1868,6 +1923,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1960,14 +2024,50 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1978,35 +2078,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4192,10 +4271,10 @@
       <c r="L40" s="228"/>
       <c r="M40" s="229"/>
       <c r="N40" s="68" t="s">
-        <v>218</v>
-      </c>
-      <c r="O40" s="205" t="s">
-        <v>219</v>
+        <v>215</v>
+      </c>
+      <c r="O40" s="202" t="s">
+        <v>216</v>
       </c>
       <c r="P40" s="102"/>
       <c r="Q40" s="230" t="s">
@@ -4231,13 +4310,13 @@
       </c>
       <c r="C41" s="27"/>
       <c r="D41" s="112" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E41" s="113" t="s">
         <v>87</v>
       </c>
       <c r="F41" s="113" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G41" s="113" t="s">
         <v>89</v>
@@ -4246,10 +4325,10 @@
         <v>90</v>
       </c>
       <c r="I41" s="112" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J41" s="115" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K41" s="115" t="s">
         <v>89</v>
@@ -4257,10 +4336,10 @@
       <c r="L41" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="M41" s="204" t="s">
-        <v>217</v>
-      </c>
-      <c r="N41" s="206" t="s">
+      <c r="M41" s="201" t="s">
+        <v>214</v>
+      </c>
+      <c r="N41" s="203" t="s">
         <v>91</v>
       </c>
       <c r="O41" s="29"/>
@@ -4329,7 +4408,7 @@
       </c>
       <c r="B42" s="125"/>
       <c r="C42" s="27" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="27"/>
@@ -4382,7 +4461,7 @@
       <c r="K43" s="118"/>
       <c r="L43" s="118"/>
       <c r="M43" s="120"/>
-      <c r="N43" s="207"/>
+      <c r="N43" s="204"/>
       <c r="O43" s="42"/>
       <c r="P43" s="104"/>
       <c r="Q43" s="111"/>
@@ -4421,7 +4500,7 @@
       <c r="K44" s="118"/>
       <c r="L44" s="118"/>
       <c r="M44" s="119"/>
-      <c r="N44" s="208"/>
+      <c r="N44" s="205"/>
       <c r="O44" s="42"/>
       <c r="P44" s="104"/>
       <c r="Q44" s="111"/>
@@ -4460,7 +4539,7 @@
       <c r="K45" s="118"/>
       <c r="L45" s="118"/>
       <c r="M45" s="119"/>
-      <c r="N45" s="208"/>
+      <c r="N45" s="205"/>
       <c r="O45" s="42"/>
       <c r="P45" s="104"/>
       <c r="Q45" s="111"/>
@@ -4538,7 +4617,7 @@
       <c r="K47" s="118"/>
       <c r="L47" s="118"/>
       <c r="M47" s="120"/>
-      <c r="N47" s="209"/>
+      <c r="N47" s="206"/>
       <c r="O47" s="29"/>
       <c r="P47" s="100"/>
       <c r="Q47" s="109"/>
@@ -4577,7 +4656,7 @@
       <c r="K48" s="118"/>
       <c r="L48" s="118"/>
       <c r="M48" s="119"/>
-      <c r="N48" s="209"/>
+      <c r="N48" s="206"/>
       <c r="O48" s="29"/>
       <c r="P48" s="100"/>
       <c r="Q48" s="109"/>
@@ -4655,7 +4734,7 @@
       <c r="K50" s="118"/>
       <c r="L50" s="118"/>
       <c r="M50" s="119"/>
-      <c r="N50" s="209"/>
+      <c r="N50" s="206"/>
       <c r="O50" s="29"/>
       <c r="P50" s="100"/>
       <c r="Q50" s="109"/>
@@ -4694,7 +4773,7 @@
       <c r="K51" s="118"/>
       <c r="L51" s="118"/>
       <c r="M51" s="119"/>
-      <c r="N51" s="209"/>
+      <c r="N51" s="206"/>
       <c r="O51" s="29"/>
       <c r="P51" s="100"/>
       <c r="Q51" s="109"/>
@@ -4733,7 +4812,7 @@
       <c r="K52" s="118"/>
       <c r="L52" s="118"/>
       <c r="M52" s="119"/>
-      <c r="N52" s="209"/>
+      <c r="N52" s="206"/>
       <c r="O52" s="29"/>
       <c r="P52" s="100"/>
       <c r="Q52" s="109"/>
@@ -4811,7 +4890,7 @@
       <c r="K54" s="118"/>
       <c r="L54" s="118"/>
       <c r="M54" s="119"/>
-      <c r="N54" s="209"/>
+      <c r="N54" s="206"/>
       <c r="O54" s="29"/>
       <c r="P54" s="100"/>
       <c r="Q54" s="109"/>
@@ -4850,7 +4929,7 @@
       <c r="K55" s="118"/>
       <c r="L55" s="118"/>
       <c r="M55" s="119"/>
-      <c r="N55" s="209"/>
+      <c r="N55" s="206"/>
       <c r="O55" s="29"/>
       <c r="P55" s="100"/>
       <c r="Q55" s="109"/>
@@ -4926,7 +5005,7 @@
       <c r="K57" s="107"/>
       <c r="L57" s="107"/>
       <c r="M57" s="118"/>
-      <c r="N57" s="210"/>
+      <c r="N57" s="207"/>
       <c r="O57" s="29"/>
       <c r="P57" s="100"/>
       <c r="Q57" s="109"/>
@@ -4964,7 +5043,7 @@
       <c r="K58" s="118"/>
       <c r="L58" s="118"/>
       <c r="M58" s="119"/>
-      <c r="N58" s="208"/>
+      <c r="N58" s="205"/>
       <c r="O58" s="42"/>
       <c r="P58" s="104"/>
       <c r="Q58" s="111"/>
@@ -5002,7 +5081,7 @@
       <c r="K59" s="118"/>
       <c r="L59" s="118"/>
       <c r="M59" s="119"/>
-      <c r="N59" s="208"/>
+      <c r="N59" s="205"/>
       <c r="O59" s="42"/>
       <c r="P59" s="104"/>
       <c r="Q59" s="111"/>
@@ -5078,7 +5157,7 @@
       <c r="K61" s="118"/>
       <c r="L61" s="118"/>
       <c r="M61" s="120"/>
-      <c r="N61" s="209"/>
+      <c r="N61" s="206"/>
       <c r="O61" s="29"/>
       <c r="P61" s="100"/>
       <c r="Q61" s="109"/>
@@ -5116,7 +5195,7 @@
       <c r="K62" s="118"/>
       <c r="L62" s="118"/>
       <c r="M62" s="119"/>
-      <c r="N62" s="209"/>
+      <c r="N62" s="206"/>
       <c r="O62" s="29"/>
       <c r="P62" s="100"/>
       <c r="Q62" s="109"/>
@@ -5192,7 +5271,7 @@
       <c r="K64" s="118"/>
       <c r="L64" s="118"/>
       <c r="M64" s="119"/>
-      <c r="N64" s="209"/>
+      <c r="N64" s="206"/>
       <c r="O64" s="29"/>
       <c r="P64" s="100"/>
       <c r="Q64" s="109"/>
@@ -5230,7 +5309,7 @@
       <c r="K65" s="118"/>
       <c r="L65" s="118"/>
       <c r="M65" s="119"/>
-      <c r="N65" s="209"/>
+      <c r="N65" s="206"/>
       <c r="O65" s="29"/>
       <c r="P65" s="100"/>
       <c r="Q65" s="109"/>
@@ -5268,7 +5347,7 @@
       <c r="K66" s="118"/>
       <c r="L66" s="118"/>
       <c r="M66" s="119"/>
-      <c r="N66" s="209"/>
+      <c r="N66" s="206"/>
       <c r="O66" s="29"/>
       <c r="P66" s="100"/>
       <c r="Q66" s="109"/>
@@ -5344,7 +5423,7 @@
       <c r="K68" s="118"/>
       <c r="L68" s="118"/>
       <c r="M68" s="119"/>
-      <c r="N68" s="209"/>
+      <c r="N68" s="206"/>
       <c r="O68" s="29"/>
       <c r="P68" s="100"/>
       <c r="Q68" s="109"/>
@@ -5382,7 +5461,7 @@
       <c r="K69" s="118"/>
       <c r="L69" s="118"/>
       <c r="M69" s="119"/>
-      <c r="N69" s="209"/>
+      <c r="N69" s="206"/>
       <c r="O69" s="29"/>
       <c r="P69" s="100"/>
       <c r="Q69" s="109"/>
@@ -5458,7 +5537,7 @@
       <c r="K71" s="107"/>
       <c r="L71" s="107"/>
       <c r="M71" s="118"/>
-      <c r="N71" s="210"/>
+      <c r="N71" s="207"/>
       <c r="O71" s="29"/>
       <c r="P71" s="100"/>
       <c r="Q71" s="109"/>
@@ -5496,7 +5575,7 @@
       <c r="K72" s="118"/>
       <c r="L72" s="118"/>
       <c r="M72" s="119"/>
-      <c r="N72" s="208"/>
+      <c r="N72" s="205"/>
       <c r="O72" s="42"/>
       <c r="P72" s="104"/>
       <c r="Q72" s="111"/>
@@ -5534,7 +5613,7 @@
       <c r="K73" s="118"/>
       <c r="L73" s="118"/>
       <c r="M73" s="119"/>
-      <c r="N73" s="208"/>
+      <c r="N73" s="205"/>
       <c r="O73" s="42"/>
       <c r="P73" s="104"/>
       <c r="Q73" s="111"/>
@@ -5610,7 +5689,7 @@
       <c r="K75" s="118"/>
       <c r="L75" s="118"/>
       <c r="M75" s="120"/>
-      <c r="N75" s="209"/>
+      <c r="N75" s="206"/>
       <c r="O75" s="29"/>
       <c r="P75" s="100"/>
       <c r="Q75" s="109"/>
@@ -5648,7 +5727,7 @@
       <c r="K76" s="118"/>
       <c r="L76" s="118"/>
       <c r="M76" s="119"/>
-      <c r="N76" s="209"/>
+      <c r="N76" s="206"/>
       <c r="O76" s="29"/>
       <c r="P76" s="100"/>
       <c r="Q76" s="109"/>
@@ -5724,7 +5803,7 @@
       <c r="K78" s="118"/>
       <c r="L78" s="118"/>
       <c r="M78" s="119"/>
-      <c r="N78" s="209"/>
+      <c r="N78" s="206"/>
       <c r="O78" s="29"/>
       <c r="P78" s="100"/>
       <c r="Q78" s="109"/>
@@ -5762,7 +5841,7 @@
       <c r="K79" s="118"/>
       <c r="L79" s="118"/>
       <c r="M79" s="119"/>
-      <c r="N79" s="209"/>
+      <c r="N79" s="206"/>
       <c r="O79" s="29"/>
       <c r="P79" s="100"/>
       <c r="Q79" s="109"/>
@@ -5800,7 +5879,7 @@
       <c r="K80" s="118"/>
       <c r="L80" s="118"/>
       <c r="M80" s="119"/>
-      <c r="N80" s="209"/>
+      <c r="N80" s="206"/>
       <c r="O80" s="29"/>
       <c r="P80" s="100"/>
       <c r="Q80" s="109"/>
@@ -5876,7 +5955,7 @@
       <c r="K82" s="118"/>
       <c r="L82" s="118"/>
       <c r="M82" s="119"/>
-      <c r="N82" s="209"/>
+      <c r="N82" s="206"/>
       <c r="O82" s="29"/>
       <c r="P82" s="100"/>
       <c r="Q82" s="109"/>
@@ -5914,7 +5993,7 @@
       <c r="K83" s="118"/>
       <c r="L83" s="118"/>
       <c r="M83" s="119"/>
-      <c r="N83" s="209"/>
+      <c r="N83" s="206"/>
       <c r="O83" s="29"/>
       <c r="P83" s="100"/>
       <c r="Q83" s="109"/>
@@ -5990,7 +6069,7 @@
       <c r="K85" s="107"/>
       <c r="L85" s="107"/>
       <c r="M85" s="118"/>
-      <c r="N85" s="210"/>
+      <c r="N85" s="207"/>
       <c r="O85" s="29"/>
       <c r="P85" s="100"/>
       <c r="Q85" s="109"/>
@@ -6028,7 +6107,7 @@
       <c r="K86" s="118"/>
       <c r="L86" s="118"/>
       <c r="M86" s="119"/>
-      <c r="N86" s="208"/>
+      <c r="N86" s="205"/>
       <c r="O86" s="42"/>
       <c r="P86" s="104"/>
       <c r="Q86" s="111"/>
@@ -6066,7 +6145,7 @@
       <c r="K87" s="118"/>
       <c r="L87" s="118"/>
       <c r="M87" s="119"/>
-      <c r="N87" s="208"/>
+      <c r="N87" s="205"/>
       <c r="O87" s="42"/>
       <c r="P87" s="104"/>
       <c r="Q87" s="111"/>
@@ -6142,7 +6221,7 @@
       <c r="K89" s="118"/>
       <c r="L89" s="118"/>
       <c r="M89" s="120"/>
-      <c r="N89" s="209"/>
+      <c r="N89" s="206"/>
       <c r="O89" s="29"/>
       <c r="P89" s="100"/>
       <c r="Q89" s="109"/>
@@ -6180,7 +6259,7 @@
       <c r="K90" s="118"/>
       <c r="L90" s="118"/>
       <c r="M90" s="119"/>
-      <c r="N90" s="209"/>
+      <c r="N90" s="206"/>
       <c r="O90" s="29"/>
       <c r="P90" s="100"/>
       <c r="Q90" s="109"/>
@@ -6256,7 +6335,7 @@
       <c r="K92" s="118"/>
       <c r="L92" s="118"/>
       <c r="M92" s="119"/>
-      <c r="N92" s="209"/>
+      <c r="N92" s="206"/>
       <c r="O92" s="29"/>
       <c r="P92" s="100"/>
       <c r="Q92" s="109"/>
@@ -6294,7 +6373,7 @@
       <c r="K93" s="118"/>
       <c r="L93" s="118"/>
       <c r="M93" s="119"/>
-      <c r="N93" s="209"/>
+      <c r="N93" s="206"/>
       <c r="O93" s="29"/>
       <c r="P93" s="100"/>
       <c r="Q93" s="109"/>
@@ -6332,7 +6411,7 @@
       <c r="K94" s="118"/>
       <c r="L94" s="118"/>
       <c r="M94" s="119"/>
-      <c r="N94" s="209"/>
+      <c r="N94" s="206"/>
       <c r="O94" s="29"/>
       <c r="P94" s="100"/>
       <c r="Q94" s="109"/>
@@ -6408,7 +6487,7 @@
       <c r="K96" s="118"/>
       <c r="L96" s="118"/>
       <c r="M96" s="119"/>
-      <c r="N96" s="209"/>
+      <c r="N96" s="206"/>
       <c r="O96" s="29"/>
       <c r="P96" s="100"/>
       <c r="Q96" s="109"/>
@@ -6446,7 +6525,7 @@
       <c r="K97" s="118"/>
       <c r="L97" s="118"/>
       <c r="M97" s="119"/>
-      <c r="N97" s="209"/>
+      <c r="N97" s="206"/>
       <c r="O97" s="29"/>
       <c r="P97" s="100"/>
       <c r="Q97" s="109"/>
@@ -6522,7 +6601,7 @@
       <c r="K99" s="107"/>
       <c r="L99" s="107"/>
       <c r="M99" s="118"/>
-      <c r="N99" s="210"/>
+      <c r="N99" s="207"/>
       <c r="O99" s="29"/>
       <c r="P99" s="100"/>
       <c r="Q99" s="109"/>
@@ -6560,7 +6639,7 @@
       <c r="K100" s="118"/>
       <c r="L100" s="118"/>
       <c r="M100" s="119"/>
-      <c r="N100" s="208"/>
+      <c r="N100" s="205"/>
       <c r="O100" s="42"/>
       <c r="P100" s="104"/>
       <c r="Q100" s="111"/>
@@ -6598,7 +6677,7 @@
       <c r="K101" s="118"/>
       <c r="L101" s="118"/>
       <c r="M101" s="119"/>
-      <c r="N101" s="208"/>
+      <c r="N101" s="205"/>
       <c r="O101" s="42"/>
       <c r="P101" s="104"/>
       <c r="Q101" s="111"/>
@@ -6674,7 +6753,7 @@
       <c r="K103" s="118"/>
       <c r="L103" s="118"/>
       <c r="M103" s="120"/>
-      <c r="N103" s="209"/>
+      <c r="N103" s="206"/>
       <c r="O103" s="29"/>
       <c r="P103" s="100"/>
       <c r="Q103" s="109"/>
@@ -6712,7 +6791,7 @@
       <c r="K104" s="118"/>
       <c r="L104" s="118"/>
       <c r="M104" s="119"/>
-      <c r="N104" s="209"/>
+      <c r="N104" s="206"/>
       <c r="O104" s="29"/>
       <c r="P104" s="100"/>
       <c r="Q104" s="109"/>
@@ -6788,7 +6867,7 @@
       <c r="K106" s="118"/>
       <c r="L106" s="118"/>
       <c r="M106" s="119"/>
-      <c r="N106" s="209"/>
+      <c r="N106" s="206"/>
       <c r="O106" s="29"/>
       <c r="P106" s="100"/>
       <c r="Q106" s="109"/>
@@ -6826,7 +6905,7 @@
       <c r="K107" s="118"/>
       <c r="L107" s="118"/>
       <c r="M107" s="119"/>
-      <c r="N107" s="209"/>
+      <c r="N107" s="206"/>
       <c r="O107" s="29"/>
       <c r="P107" s="100"/>
       <c r="Q107" s="109"/>
@@ -6864,7 +6943,7 @@
       <c r="K108" s="118"/>
       <c r="L108" s="118"/>
       <c r="M108" s="119"/>
-      <c r="N108" s="209"/>
+      <c r="N108" s="206"/>
       <c r="O108" s="29"/>
       <c r="P108" s="100"/>
       <c r="Q108" s="109"/>
@@ -6940,7 +7019,7 @@
       <c r="K110" s="118"/>
       <c r="L110" s="118"/>
       <c r="M110" s="119"/>
-      <c r="N110" s="209"/>
+      <c r="N110" s="206"/>
       <c r="O110" s="29"/>
       <c r="P110" s="100"/>
       <c r="Q110" s="109"/>
@@ -6978,7 +7057,7 @@
       <c r="K111" s="118"/>
       <c r="L111" s="118"/>
       <c r="M111" s="119"/>
-      <c r="N111" s="209"/>
+      <c r="N111" s="206"/>
       <c r="O111" s="29"/>
       <c r="P111" s="100"/>
       <c r="Q111" s="109"/>
@@ -7054,7 +7133,7 @@
       <c r="K113" s="107"/>
       <c r="L113" s="107"/>
       <c r="M113" s="118"/>
-      <c r="N113" s="210"/>
+      <c r="N113" s="207"/>
       <c r="O113" s="29"/>
       <c r="P113" s="100"/>
       <c r="Q113" s="109"/>
@@ -7092,7 +7171,7 @@
       <c r="K114" s="118"/>
       <c r="L114" s="118"/>
       <c r="M114" s="119"/>
-      <c r="N114" s="208"/>
+      <c r="N114" s="205"/>
       <c r="O114" s="42"/>
       <c r="P114" s="104"/>
       <c r="Q114" s="111"/>
@@ -7130,7 +7209,7 @@
       <c r="K115" s="118"/>
       <c r="L115" s="118"/>
       <c r="M115" s="119"/>
-      <c r="N115" s="208"/>
+      <c r="N115" s="205"/>
       <c r="O115" s="42"/>
       <c r="P115" s="104"/>
       <c r="Q115" s="111"/>
@@ -7206,7 +7285,7 @@
       <c r="K117" s="118"/>
       <c r="L117" s="118"/>
       <c r="M117" s="120"/>
-      <c r="N117" s="209"/>
+      <c r="N117" s="206"/>
       <c r="O117" s="29"/>
       <c r="P117" s="100"/>
       <c r="Q117" s="109"/>
@@ -7244,7 +7323,7 @@
       <c r="K118" s="118"/>
       <c r="L118" s="118"/>
       <c r="M118" s="119"/>
-      <c r="N118" s="209"/>
+      <c r="N118" s="206"/>
       <c r="O118" s="29"/>
       <c r="P118" s="100"/>
       <c r="Q118" s="109"/>
@@ -7320,7 +7399,7 @@
       <c r="K120" s="118"/>
       <c r="L120" s="118"/>
       <c r="M120" s="119"/>
-      <c r="N120" s="209"/>
+      <c r="N120" s="206"/>
       <c r="O120" s="29"/>
       <c r="P120" s="100"/>
       <c r="Q120" s="109"/>
@@ -7358,7 +7437,7 @@
       <c r="K121" s="118"/>
       <c r="L121" s="118"/>
       <c r="M121" s="119"/>
-      <c r="N121" s="209"/>
+      <c r="N121" s="206"/>
       <c r="O121" s="29"/>
       <c r="P121" s="100"/>
       <c r="Q121" s="109"/>
@@ -7396,7 +7475,7 @@
       <c r="K122" s="118"/>
       <c r="L122" s="118"/>
       <c r="M122" s="119"/>
-      <c r="N122" s="209"/>
+      <c r="N122" s="206"/>
       <c r="O122" s="29"/>
       <c r="P122" s="100"/>
       <c r="Q122" s="109"/>
@@ -7472,7 +7551,7 @@
       <c r="K124" s="118"/>
       <c r="L124" s="118"/>
       <c r="M124" s="119"/>
-      <c r="N124" s="209"/>
+      <c r="N124" s="206"/>
       <c r="O124" s="29"/>
       <c r="P124" s="100"/>
       <c r="Q124" s="109"/>
@@ -7510,7 +7589,7 @@
       <c r="K125" s="118"/>
       <c r="L125" s="118"/>
       <c r="M125" s="119"/>
-      <c r="N125" s="209"/>
+      <c r="N125" s="206"/>
       <c r="O125" s="29"/>
       <c r="P125" s="100"/>
       <c r="Q125" s="109"/>
@@ -7586,7 +7665,7 @@
       <c r="K127" s="107"/>
       <c r="L127" s="107"/>
       <c r="M127" s="118"/>
-      <c r="N127" s="210"/>
+      <c r="N127" s="207"/>
       <c r="O127" s="29"/>
       <c r="P127" s="100"/>
       <c r="Q127" s="109"/>
@@ -7624,7 +7703,7 @@
       <c r="K128" s="118"/>
       <c r="L128" s="118"/>
       <c r="M128" s="119"/>
-      <c r="N128" s="208"/>
+      <c r="N128" s="205"/>
       <c r="O128" s="42"/>
       <c r="P128" s="104"/>
       <c r="Q128" s="111"/>
@@ -7662,7 +7741,7 @@
       <c r="K129" s="118"/>
       <c r="L129" s="118"/>
       <c r="M129" s="119"/>
-      <c r="N129" s="208"/>
+      <c r="N129" s="205"/>
       <c r="O129" s="42"/>
       <c r="P129" s="104"/>
       <c r="Q129" s="111"/>
@@ -7738,7 +7817,7 @@
       <c r="K131" s="118"/>
       <c r="L131" s="118"/>
       <c r="M131" s="120"/>
-      <c r="N131" s="209"/>
+      <c r="N131" s="206"/>
       <c r="O131" s="29"/>
       <c r="P131" s="100"/>
       <c r="Q131" s="109"/>
@@ -7776,7 +7855,7 @@
       <c r="K132" s="118"/>
       <c r="L132" s="118"/>
       <c r="M132" s="119"/>
-      <c r="N132" s="209"/>
+      <c r="N132" s="206"/>
       <c r="O132" s="29"/>
       <c r="P132" s="100"/>
       <c r="Q132" s="109"/>
@@ -7852,7 +7931,7 @@
       <c r="K134" s="118"/>
       <c r="L134" s="118"/>
       <c r="M134" s="119"/>
-      <c r="N134" s="209"/>
+      <c r="N134" s="206"/>
       <c r="O134" s="29"/>
       <c r="P134" s="100"/>
       <c r="Q134" s="109"/>
@@ -7890,7 +7969,7 @@
       <c r="K135" s="118"/>
       <c r="L135" s="118"/>
       <c r="M135" s="119"/>
-      <c r="N135" s="209"/>
+      <c r="N135" s="206"/>
       <c r="O135" s="29"/>
       <c r="P135" s="100"/>
       <c r="Q135" s="109"/>
@@ -7928,7 +8007,7 @@
       <c r="K136" s="118"/>
       <c r="L136" s="118"/>
       <c r="M136" s="119"/>
-      <c r="N136" s="209"/>
+      <c r="N136" s="206"/>
       <c r="O136" s="29"/>
       <c r="P136" s="100"/>
       <c r="Q136" s="109"/>
@@ -8004,7 +8083,7 @@
       <c r="K138" s="118"/>
       <c r="L138" s="118"/>
       <c r="M138" s="119"/>
-      <c r="N138" s="209"/>
+      <c r="N138" s="206"/>
       <c r="O138" s="29"/>
       <c r="P138" s="100"/>
       <c r="Q138" s="109"/>
@@ -8042,7 +8121,7 @@
       <c r="K139" s="118"/>
       <c r="L139" s="118"/>
       <c r="M139" s="119"/>
-      <c r="N139" s="209"/>
+      <c r="N139" s="206"/>
       <c r="O139" s="29"/>
       <c r="P139" s="100"/>
       <c r="Q139" s="109"/>
@@ -8118,7 +8197,7 @@
       <c r="K141" s="107"/>
       <c r="L141" s="107"/>
       <c r="M141" s="118"/>
-      <c r="N141" s="210"/>
+      <c r="N141" s="207"/>
       <c r="O141" s="29"/>
       <c r="P141" s="100"/>
       <c r="Q141" s="109"/>
@@ -8156,7 +8235,7 @@
       <c r="K142" s="118"/>
       <c r="L142" s="118"/>
       <c r="M142" s="119"/>
-      <c r="N142" s="208"/>
+      <c r="N142" s="205"/>
       <c r="O142" s="42"/>
       <c r="P142" s="104"/>
       <c r="Q142" s="111"/>
@@ -8194,7 +8273,7 @@
       <c r="K143" s="118"/>
       <c r="L143" s="118"/>
       <c r="M143" s="119"/>
-      <c r="N143" s="208"/>
+      <c r="N143" s="205"/>
       <c r="O143" s="42"/>
       <c r="P143" s="104"/>
       <c r="Q143" s="111"/>
@@ -8270,7 +8349,7 @@
       <c r="K145" s="118"/>
       <c r="L145" s="118"/>
       <c r="M145" s="120"/>
-      <c r="N145" s="209"/>
+      <c r="N145" s="206"/>
       <c r="O145" s="29"/>
       <c r="P145" s="100"/>
       <c r="Q145" s="109"/>
@@ -8308,7 +8387,7 @@
       <c r="K146" s="118"/>
       <c r="L146" s="118"/>
       <c r="M146" s="119"/>
-      <c r="N146" s="209"/>
+      <c r="N146" s="206"/>
       <c r="O146" s="29"/>
       <c r="P146" s="100"/>
       <c r="Q146" s="109"/>
@@ -8384,7 +8463,7 @@
       <c r="K148" s="118"/>
       <c r="L148" s="118"/>
       <c r="M148" s="119"/>
-      <c r="N148" s="209"/>
+      <c r="N148" s="206"/>
       <c r="O148" s="29"/>
       <c r="P148" s="100"/>
       <c r="Q148" s="109"/>
@@ -8422,7 +8501,7 @@
       <c r="K149" s="118"/>
       <c r="L149" s="118"/>
       <c r="M149" s="119"/>
-      <c r="N149" s="209"/>
+      <c r="N149" s="206"/>
       <c r="O149" s="29"/>
       <c r="P149" s="100"/>
       <c r="Q149" s="109"/>
@@ -8460,7 +8539,7 @@
       <c r="K150" s="118"/>
       <c r="L150" s="118"/>
       <c r="M150" s="119"/>
-      <c r="N150" s="209"/>
+      <c r="N150" s="206"/>
       <c r="O150" s="29"/>
       <c r="P150" s="100"/>
       <c r="Q150" s="109"/>
@@ -8536,7 +8615,7 @@
       <c r="K152" s="118"/>
       <c r="L152" s="118"/>
       <c r="M152" s="119"/>
-      <c r="N152" s="209"/>
+      <c r="N152" s="206"/>
       <c r="O152" s="29"/>
       <c r="P152" s="100"/>
       <c r="Q152" s="109"/>
@@ -8574,7 +8653,7 @@
       <c r="K153" s="118"/>
       <c r="L153" s="118"/>
       <c r="M153" s="119"/>
-      <c r="N153" s="209"/>
+      <c r="N153" s="206"/>
       <c r="O153" s="29"/>
       <c r="P153" s="100"/>
       <c r="Q153" s="109"/>
@@ -8650,7 +8729,7 @@
       <c r="K155" s="107"/>
       <c r="L155" s="107"/>
       <c r="M155" s="118"/>
-      <c r="N155" s="210"/>
+      <c r="N155" s="207"/>
       <c r="O155" s="29"/>
       <c r="P155" s="100"/>
       <c r="Q155" s="109"/>
@@ -8688,7 +8767,7 @@
       <c r="K156" s="118"/>
       <c r="L156" s="118"/>
       <c r="M156" s="119"/>
-      <c r="N156" s="208"/>
+      <c r="N156" s="205"/>
       <c r="O156" s="42"/>
       <c r="P156" s="104"/>
       <c r="Q156" s="111"/>
@@ -8726,7 +8805,7 @@
       <c r="K157" s="118"/>
       <c r="L157" s="118"/>
       <c r="M157" s="119"/>
-      <c r="N157" s="208"/>
+      <c r="N157" s="205"/>
       <c r="O157" s="42"/>
       <c r="P157" s="104"/>
       <c r="Q157" s="111"/>
@@ -8802,7 +8881,7 @@
       <c r="K159" s="118"/>
       <c r="L159" s="118"/>
       <c r="M159" s="120"/>
-      <c r="N159" s="209"/>
+      <c r="N159" s="206"/>
       <c r="O159" s="29"/>
       <c r="P159" s="100"/>
       <c r="Q159" s="109"/>
@@ -8840,7 +8919,7 @@
       <c r="K160" s="118"/>
       <c r="L160" s="118"/>
       <c r="M160" s="119"/>
-      <c r="N160" s="209"/>
+      <c r="N160" s="206"/>
       <c r="O160" s="29"/>
       <c r="P160" s="100"/>
       <c r="Q160" s="109"/>
@@ -8916,7 +8995,7 @@
       <c r="K162" s="118"/>
       <c r="L162" s="118"/>
       <c r="M162" s="119"/>
-      <c r="N162" s="209"/>
+      <c r="N162" s="206"/>
       <c r="O162" s="29"/>
       <c r="P162" s="100"/>
       <c r="Q162" s="109"/>
@@ -8954,7 +9033,7 @@
       <c r="K163" s="118"/>
       <c r="L163" s="118"/>
       <c r="M163" s="119"/>
-      <c r="N163" s="209"/>
+      <c r="N163" s="206"/>
       <c r="O163" s="29"/>
       <c r="P163" s="100"/>
       <c r="Q163" s="109"/>
@@ -8992,7 +9071,7 @@
       <c r="K164" s="118"/>
       <c r="L164" s="118"/>
       <c r="M164" s="119"/>
-      <c r="N164" s="209"/>
+      <c r="N164" s="206"/>
       <c r="O164" s="29"/>
       <c r="P164" s="100"/>
       <c r="Q164" s="109"/>
@@ -9068,7 +9147,7 @@
       <c r="K166" s="118"/>
       <c r="L166" s="118"/>
       <c r="M166" s="119"/>
-      <c r="N166" s="209"/>
+      <c r="N166" s="206"/>
       <c r="O166" s="29"/>
       <c r="P166" s="100"/>
       <c r="Q166" s="109"/>
@@ -9106,7 +9185,7 @@
       <c r="K167" s="118"/>
       <c r="L167" s="118"/>
       <c r="M167" s="119"/>
-      <c r="N167" s="209"/>
+      <c r="N167" s="206"/>
       <c r="O167" s="29"/>
       <c r="P167" s="100"/>
       <c r="Q167" s="109"/>
@@ -9182,7 +9261,7 @@
       <c r="K169" s="107"/>
       <c r="L169" s="107"/>
       <c r="M169" s="118"/>
-      <c r="N169" s="210"/>
+      <c r="N169" s="207"/>
       <c r="O169" s="29"/>
       <c r="P169" s="100"/>
       <c r="Q169" s="109"/>
@@ -9220,7 +9299,7 @@
       <c r="K170" s="118"/>
       <c r="L170" s="118"/>
       <c r="M170" s="119"/>
-      <c r="N170" s="208"/>
+      <c r="N170" s="205"/>
       <c r="O170" s="42"/>
       <c r="P170" s="104"/>
       <c r="Q170" s="111"/>
@@ -9258,7 +9337,7 @@
       <c r="K171" s="118"/>
       <c r="L171" s="118"/>
       <c r="M171" s="119"/>
-      <c r="N171" s="208"/>
+      <c r="N171" s="205"/>
       <c r="O171" s="42"/>
       <c r="P171" s="104"/>
       <c r="Q171" s="111"/>
@@ -9334,7 +9413,7 @@
       <c r="K173" s="118"/>
       <c r="L173" s="118"/>
       <c r="M173" s="120"/>
-      <c r="N173" s="209"/>
+      <c r="N173" s="206"/>
       <c r="O173" s="29"/>
       <c r="P173" s="100"/>
       <c r="Q173" s="109"/>
@@ -9372,7 +9451,7 @@
       <c r="K174" s="118"/>
       <c r="L174" s="118"/>
       <c r="M174" s="119"/>
-      <c r="N174" s="209"/>
+      <c r="N174" s="206"/>
       <c r="O174" s="29"/>
       <c r="P174" s="100"/>
       <c r="Q174" s="109"/>
@@ -9448,7 +9527,7 @@
       <c r="K176" s="118"/>
       <c r="L176" s="118"/>
       <c r="M176" s="119"/>
-      <c r="N176" s="209"/>
+      <c r="N176" s="206"/>
       <c r="O176" s="29"/>
       <c r="P176" s="100"/>
       <c r="Q176" s="109"/>
@@ -9486,7 +9565,7 @@
       <c r="K177" s="118"/>
       <c r="L177" s="118"/>
       <c r="M177" s="119"/>
-      <c r="N177" s="209"/>
+      <c r="N177" s="206"/>
       <c r="O177" s="29"/>
       <c r="P177" s="100"/>
       <c r="Q177" s="109"/>
@@ -9524,7 +9603,7 @@
       <c r="K178" s="118"/>
       <c r="L178" s="118"/>
       <c r="M178" s="119"/>
-      <c r="N178" s="209"/>
+      <c r="N178" s="206"/>
       <c r="O178" s="29"/>
       <c r="P178" s="100"/>
       <c r="Q178" s="109"/>
@@ -9600,7 +9679,7 @@
       <c r="K180" s="118"/>
       <c r="L180" s="118"/>
       <c r="M180" s="119"/>
-      <c r="N180" s="209"/>
+      <c r="N180" s="206"/>
       <c r="O180" s="29"/>
       <c r="P180" s="100"/>
       <c r="Q180" s="109"/>
@@ -9638,7 +9717,7 @@
       <c r="K181" s="118"/>
       <c r="L181" s="118"/>
       <c r="M181" s="119"/>
-      <c r="N181" s="209"/>
+      <c r="N181" s="206"/>
       <c r="O181" s="29"/>
       <c r="P181" s="100"/>
       <c r="Q181" s="109"/>
@@ -9714,7 +9793,7 @@
       <c r="K183" s="107"/>
       <c r="L183" s="107"/>
       <c r="M183" s="118"/>
-      <c r="N183" s="210"/>
+      <c r="N183" s="207"/>
       <c r="O183" s="29"/>
       <c r="P183" s="100"/>
       <c r="Q183" s="109"/>
@@ -9752,7 +9831,7 @@
       <c r="K184" s="118"/>
       <c r="L184" s="118"/>
       <c r="M184" s="119"/>
-      <c r="N184" s="208"/>
+      <c r="N184" s="205"/>
       <c r="O184" s="42"/>
       <c r="P184" s="104"/>
       <c r="Q184" s="111"/>
@@ -9790,7 +9869,7 @@
       <c r="K185" s="118"/>
       <c r="L185" s="118"/>
       <c r="M185" s="119"/>
-      <c r="N185" s="208"/>
+      <c r="N185" s="205"/>
       <c r="O185" s="42"/>
       <c r="P185" s="104"/>
       <c r="Q185" s="111"/>
@@ -9866,7 +9945,7 @@
       <c r="K187" s="118"/>
       <c r="L187" s="118"/>
       <c r="M187" s="120"/>
-      <c r="N187" s="209"/>
+      <c r="N187" s="206"/>
       <c r="O187" s="29"/>
       <c r="P187" s="100"/>
       <c r="Q187" s="109"/>
@@ -9904,7 +9983,7 @@
       <c r="K188" s="118"/>
       <c r="L188" s="118"/>
       <c r="M188" s="119"/>
-      <c r="N188" s="209"/>
+      <c r="N188" s="206"/>
       <c r="O188" s="29"/>
       <c r="P188" s="100"/>
       <c r="Q188" s="109"/>
@@ -9980,7 +10059,7 @@
       <c r="K190" s="118"/>
       <c r="L190" s="118"/>
       <c r="M190" s="119"/>
-      <c r="N190" s="209"/>
+      <c r="N190" s="206"/>
       <c r="O190" s="29"/>
       <c r="P190" s="100"/>
       <c r="Q190" s="109"/>
@@ -10018,7 +10097,7 @@
       <c r="K191" s="118"/>
       <c r="L191" s="118"/>
       <c r="M191" s="119"/>
-      <c r="N191" s="209"/>
+      <c r="N191" s="206"/>
       <c r="O191" s="29"/>
       <c r="P191" s="100"/>
       <c r="Q191" s="109"/>
@@ -10056,7 +10135,7 @@
       <c r="K192" s="118"/>
       <c r="L192" s="118"/>
       <c r="M192" s="119"/>
-      <c r="N192" s="209"/>
+      <c r="N192" s="206"/>
       <c r="O192" s="29"/>
       <c r="P192" s="100"/>
       <c r="Q192" s="109"/>
@@ -10132,7 +10211,7 @@
       <c r="K194" s="118"/>
       <c r="L194" s="118"/>
       <c r="M194" s="119"/>
-      <c r="N194" s="209"/>
+      <c r="N194" s="206"/>
       <c r="O194" s="29"/>
       <c r="P194" s="100"/>
       <c r="Q194" s="109"/>
@@ -10170,7 +10249,7 @@
       <c r="K195" s="118"/>
       <c r="L195" s="118"/>
       <c r="M195" s="119"/>
-      <c r="N195" s="209"/>
+      <c r="N195" s="206"/>
       <c r="O195" s="29"/>
       <c r="P195" s="100"/>
       <c r="Q195" s="109"/>
@@ -10246,7 +10325,7 @@
       <c r="K197" s="107"/>
       <c r="L197" s="107"/>
       <c r="M197" s="118"/>
-      <c r="N197" s="210"/>
+      <c r="N197" s="207"/>
       <c r="O197" s="29"/>
       <c r="P197" s="100"/>
       <c r="Q197" s="109"/>
@@ -10284,7 +10363,7 @@
       <c r="K198" s="118"/>
       <c r="L198" s="118"/>
       <c r="M198" s="119"/>
-      <c r="N198" s="208"/>
+      <c r="N198" s="205"/>
       <c r="O198" s="42"/>
       <c r="P198" s="104"/>
       <c r="Q198" s="111"/>
@@ -10322,7 +10401,7 @@
       <c r="K199" s="118"/>
       <c r="L199" s="118"/>
       <c r="M199" s="119"/>
-      <c r="N199" s="208"/>
+      <c r="N199" s="205"/>
       <c r="O199" s="42"/>
       <c r="P199" s="104"/>
       <c r="Q199" s="111"/>
@@ -10398,7 +10477,7 @@
       <c r="K201" s="118"/>
       <c r="L201" s="118"/>
       <c r="M201" s="120"/>
-      <c r="N201" s="209"/>
+      <c r="N201" s="206"/>
       <c r="O201" s="29"/>
       <c r="P201" s="100"/>
       <c r="Q201" s="109"/>
@@ -10436,7 +10515,7 @@
       <c r="K202" s="118"/>
       <c r="L202" s="118"/>
       <c r="M202" s="119"/>
-      <c r="N202" s="209"/>
+      <c r="N202" s="206"/>
       <c r="O202" s="29"/>
       <c r="P202" s="100"/>
       <c r="Q202" s="109"/>
@@ -10512,7 +10591,7 @@
       <c r="K204" s="118"/>
       <c r="L204" s="118"/>
       <c r="M204" s="119"/>
-      <c r="N204" s="209"/>
+      <c r="N204" s="206"/>
       <c r="O204" s="29"/>
       <c r="P204" s="100"/>
       <c r="Q204" s="109"/>
@@ -10550,7 +10629,7 @@
       <c r="K205" s="118"/>
       <c r="L205" s="118"/>
       <c r="M205" s="119"/>
-      <c r="N205" s="209"/>
+      <c r="N205" s="206"/>
       <c r="O205" s="29"/>
       <c r="P205" s="100"/>
       <c r="Q205" s="109"/>
@@ -10588,7 +10667,7 @@
       <c r="K206" s="118"/>
       <c r="L206" s="118"/>
       <c r="M206" s="119"/>
-      <c r="N206" s="209"/>
+      <c r="N206" s="206"/>
       <c r="O206" s="29"/>
       <c r="P206" s="100"/>
       <c r="Q206" s="109"/>
@@ -10664,7 +10743,7 @@
       <c r="K208" s="118"/>
       <c r="L208" s="118"/>
       <c r="M208" s="119"/>
-      <c r="N208" s="209"/>
+      <c r="N208" s="206"/>
       <c r="O208" s="29"/>
       <c r="P208" s="100"/>
       <c r="Q208" s="109"/>
@@ -10702,7 +10781,7 @@
       <c r="K209" s="118"/>
       <c r="L209" s="118"/>
       <c r="M209" s="119"/>
-      <c r="N209" s="209"/>
+      <c r="N209" s="206"/>
       <c r="O209" s="29"/>
       <c r="P209" s="100"/>
       <c r="Q209" s="109"/>
@@ -10778,7 +10857,7 @@
       <c r="K211" s="107"/>
       <c r="L211" s="107"/>
       <c r="M211" s="118"/>
-      <c r="N211" s="210"/>
+      <c r="N211" s="207"/>
       <c r="O211" s="29"/>
       <c r="P211" s="100"/>
       <c r="Q211" s="109"/>
@@ -10816,7 +10895,7 @@
       <c r="K212" s="118"/>
       <c r="L212" s="118"/>
       <c r="M212" s="119"/>
-      <c r="N212" s="208"/>
+      <c r="N212" s="205"/>
       <c r="O212" s="42"/>
       <c r="P212" s="104"/>
       <c r="Q212" s="111"/>
@@ -10854,7 +10933,7 @@
       <c r="K213" s="118"/>
       <c r="L213" s="118"/>
       <c r="M213" s="119"/>
-      <c r="N213" s="208"/>
+      <c r="N213" s="205"/>
       <c r="O213" s="42"/>
       <c r="P213" s="104"/>
       <c r="Q213" s="111"/>
@@ -10930,7 +11009,7 @@
       <c r="K215" s="118"/>
       <c r="L215" s="118"/>
       <c r="M215" s="120"/>
-      <c r="N215" s="209"/>
+      <c r="N215" s="206"/>
       <c r="O215" s="29"/>
       <c r="P215" s="100"/>
       <c r="Q215" s="109"/>
@@ -10968,7 +11047,7 @@
       <c r="K216" s="118"/>
       <c r="L216" s="118"/>
       <c r="M216" s="119"/>
-      <c r="N216" s="209"/>
+      <c r="N216" s="206"/>
       <c r="O216" s="29"/>
       <c r="P216" s="100"/>
       <c r="Q216" s="109"/>
@@ -11044,7 +11123,7 @@
       <c r="K218" s="118"/>
       <c r="L218" s="118"/>
       <c r="M218" s="119"/>
-      <c r="N218" s="209"/>
+      <c r="N218" s="206"/>
       <c r="O218" s="29"/>
       <c r="P218" s="100"/>
       <c r="Q218" s="109"/>
@@ -11082,7 +11161,7 @@
       <c r="K219" s="118"/>
       <c r="L219" s="118"/>
       <c r="M219" s="119"/>
-      <c r="N219" s="209"/>
+      <c r="N219" s="206"/>
       <c r="O219" s="29"/>
       <c r="P219" s="100"/>
       <c r="Q219" s="109"/>
@@ -11120,7 +11199,7 @@
       <c r="K220" s="118"/>
       <c r="L220" s="118"/>
       <c r="M220" s="119"/>
-      <c r="N220" s="209"/>
+      <c r="N220" s="206"/>
       <c r="O220" s="29"/>
       <c r="P220" s="100"/>
       <c r="Q220" s="109"/>
@@ -11196,7 +11275,7 @@
       <c r="K222" s="118"/>
       <c r="L222" s="118"/>
       <c r="M222" s="119"/>
-      <c r="N222" s="209"/>
+      <c r="N222" s="206"/>
       <c r="O222" s="29"/>
       <c r="P222" s="100"/>
       <c r="Q222" s="109"/>
@@ -11234,7 +11313,7 @@
       <c r="K223" s="118"/>
       <c r="L223" s="118"/>
       <c r="M223" s="119"/>
-      <c r="N223" s="209"/>
+      <c r="N223" s="206"/>
       <c r="O223" s="29"/>
       <c r="P223" s="100"/>
       <c r="Q223" s="109"/>
@@ -11310,7 +11389,7 @@
       <c r="K225" s="107"/>
       <c r="L225" s="107"/>
       <c r="M225" s="118"/>
-      <c r="N225" s="210"/>
+      <c r="N225" s="207"/>
       <c r="O225" s="29"/>
       <c r="P225" s="100"/>
       <c r="Q225" s="109"/>
@@ -11348,7 +11427,7 @@
       <c r="K226" s="118"/>
       <c r="L226" s="118"/>
       <c r="M226" s="119"/>
-      <c r="N226" s="208"/>
+      <c r="N226" s="205"/>
       <c r="O226" s="42"/>
       <c r="P226" s="104"/>
       <c r="Q226" s="111"/>
@@ -11386,7 +11465,7 @@
       <c r="K227" s="118"/>
       <c r="L227" s="118"/>
       <c r="M227" s="119"/>
-      <c r="N227" s="208"/>
+      <c r="N227" s="205"/>
       <c r="O227" s="42"/>
       <c r="P227" s="104"/>
       <c r="Q227" s="111"/>
@@ -11462,7 +11541,7 @@
       <c r="K229" s="118"/>
       <c r="L229" s="118"/>
       <c r="M229" s="120"/>
-      <c r="N229" s="209"/>
+      <c r="N229" s="206"/>
       <c r="O229" s="29"/>
       <c r="P229" s="100"/>
       <c r="Q229" s="109"/>
@@ -11500,7 +11579,7 @@
       <c r="K230" s="118"/>
       <c r="L230" s="118"/>
       <c r="M230" s="119"/>
-      <c r="N230" s="209"/>
+      <c r="N230" s="206"/>
       <c r="O230" s="29"/>
       <c r="P230" s="100"/>
       <c r="Q230" s="109"/>
@@ -11576,7 +11655,7 @@
       <c r="K232" s="118"/>
       <c r="L232" s="118"/>
       <c r="M232" s="119"/>
-      <c r="N232" s="209"/>
+      <c r="N232" s="206"/>
       <c r="O232" s="29"/>
       <c r="P232" s="100"/>
       <c r="Q232" s="109"/>
@@ -11614,7 +11693,7 @@
       <c r="K233" s="118"/>
       <c r="L233" s="118"/>
       <c r="M233" s="119"/>
-      <c r="N233" s="209"/>
+      <c r="N233" s="206"/>
       <c r="O233" s="29"/>
       <c r="P233" s="100"/>
       <c r="Q233" s="109"/>
@@ -11652,7 +11731,7 @@
       <c r="K234" s="118"/>
       <c r="L234" s="118"/>
       <c r="M234" s="119"/>
-      <c r="N234" s="209"/>
+      <c r="N234" s="206"/>
       <c r="O234" s="29"/>
       <c r="P234" s="100"/>
       <c r="Q234" s="109"/>
@@ -11728,7 +11807,7 @@
       <c r="K236" s="118"/>
       <c r="L236" s="118"/>
       <c r="M236" s="119"/>
-      <c r="N236" s="209"/>
+      <c r="N236" s="206"/>
       <c r="O236" s="29"/>
       <c r="P236" s="100"/>
       <c r="Q236" s="109"/>
@@ -11766,7 +11845,7 @@
       <c r="K237" s="118"/>
       <c r="L237" s="118"/>
       <c r="M237" s="119"/>
-      <c r="N237" s="209"/>
+      <c r="N237" s="206"/>
       <c r="O237" s="29"/>
       <c r="P237" s="100"/>
       <c r="Q237" s="109"/>
@@ -11842,7 +11921,7 @@
       <c r="K239" s="107"/>
       <c r="L239" s="107"/>
       <c r="M239" s="118"/>
-      <c r="N239" s="210"/>
+      <c r="N239" s="207"/>
       <c r="O239" s="29"/>
       <c r="P239" s="100"/>
       <c r="Q239" s="109"/>
@@ -11880,7 +11959,7 @@
       <c r="K240" s="118"/>
       <c r="L240" s="118"/>
       <c r="M240" s="119"/>
-      <c r="N240" s="208"/>
+      <c r="N240" s="205"/>
       <c r="O240" s="42"/>
       <c r="P240" s="104"/>
       <c r="Q240" s="111"/>
@@ -11918,7 +11997,7 @@
       <c r="K241" s="118"/>
       <c r="L241" s="118"/>
       <c r="M241" s="119"/>
-      <c r="N241" s="208"/>
+      <c r="N241" s="205"/>
       <c r="O241" s="42"/>
       <c r="P241" s="104"/>
       <c r="Q241" s="111"/>
@@ -11994,7 +12073,7 @@
       <c r="K243" s="118"/>
       <c r="L243" s="118"/>
       <c r="M243" s="120"/>
-      <c r="N243" s="209"/>
+      <c r="N243" s="206"/>
       <c r="O243" s="29"/>
       <c r="P243" s="100"/>
       <c r="Q243" s="109"/>
@@ -12032,7 +12111,7 @@
       <c r="K244" s="118"/>
       <c r="L244" s="118"/>
       <c r="M244" s="119"/>
-      <c r="N244" s="209"/>
+      <c r="N244" s="206"/>
       <c r="O244" s="29"/>
       <c r="P244" s="100"/>
       <c r="Q244" s="109"/>
@@ -12108,7 +12187,7 @@
       <c r="K246" s="118"/>
       <c r="L246" s="118"/>
       <c r="M246" s="119"/>
-      <c r="N246" s="209"/>
+      <c r="N246" s="206"/>
       <c r="O246" s="29"/>
       <c r="P246" s="100"/>
       <c r="Q246" s="109"/>
@@ -12146,7 +12225,7 @@
       <c r="K247" s="118"/>
       <c r="L247" s="118"/>
       <c r="M247" s="119"/>
-      <c r="N247" s="209"/>
+      <c r="N247" s="206"/>
       <c r="O247" s="29"/>
       <c r="P247" s="100"/>
       <c r="Q247" s="109"/>
@@ -12184,7 +12263,7 @@
       <c r="K248" s="118"/>
       <c r="L248" s="118"/>
       <c r="M248" s="119"/>
-      <c r="N248" s="209"/>
+      <c r="N248" s="206"/>
       <c r="O248" s="29"/>
       <c r="P248" s="100"/>
       <c r="Q248" s="109"/>
@@ -12260,7 +12339,7 @@
       <c r="K250" s="118"/>
       <c r="L250" s="118"/>
       <c r="M250" s="119"/>
-      <c r="N250" s="209"/>
+      <c r="N250" s="206"/>
       <c r="O250" s="29"/>
       <c r="P250" s="100"/>
       <c r="Q250" s="109"/>
@@ -12298,7 +12377,7 @@
       <c r="K251" s="118"/>
       <c r="L251" s="118"/>
       <c r="M251" s="119"/>
-      <c r="N251" s="209"/>
+      <c r="N251" s="206"/>
       <c r="O251" s="29"/>
       <c r="P251" s="100"/>
       <c r="Q251" s="109"/>
@@ -12374,7 +12453,7 @@
       <c r="K253" s="107"/>
       <c r="L253" s="107"/>
       <c r="M253" s="118"/>
-      <c r="N253" s="210"/>
+      <c r="N253" s="207"/>
       <c r="O253" s="29"/>
       <c r="P253" s="100"/>
       <c r="Q253" s="109"/>
@@ -12450,7 +12529,7 @@
       <c r="K255" s="118"/>
       <c r="L255" s="118"/>
       <c r="M255" s="119"/>
-      <c r="N255" s="209"/>
+      <c r="N255" s="206"/>
       <c r="O255" s="29"/>
       <c r="P255" s="100"/>
       <c r="Q255" s="109"/>
@@ -12488,7 +12567,7 @@
       <c r="K256" s="118"/>
       <c r="L256" s="118"/>
       <c r="M256" s="119"/>
-      <c r="N256" s="209"/>
+      <c r="N256" s="206"/>
       <c r="O256" s="29"/>
       <c r="P256" s="100"/>
       <c r="Q256" s="109"/>
@@ -12526,7 +12605,7 @@
       <c r="K257" s="118"/>
       <c r="L257" s="118"/>
       <c r="M257" s="119"/>
-      <c r="N257" s="209"/>
+      <c r="N257" s="206"/>
       <c r="O257" s="29"/>
       <c r="P257" s="100"/>
       <c r="Q257" s="109"/>
@@ -12602,7 +12681,7 @@
       <c r="K259" s="118"/>
       <c r="L259" s="118"/>
       <c r="M259" s="119"/>
-      <c r="N259" s="209"/>
+      <c r="N259" s="206"/>
       <c r="O259" s="29"/>
       <c r="P259" s="100"/>
       <c r="Q259" s="109"/>
@@ -12640,7 +12719,7 @@
       <c r="K260" s="118"/>
       <c r="L260" s="118"/>
       <c r="M260" s="119"/>
-      <c r="N260" s="209"/>
+      <c r="N260" s="206"/>
       <c r="O260" s="29"/>
       <c r="P260" s="100"/>
       <c r="Q260" s="109"/>
@@ -12716,7 +12795,7 @@
       <c r="K262" s="107"/>
       <c r="L262" s="107"/>
       <c r="M262" s="118"/>
-      <c r="N262" s="210"/>
+      <c r="N262" s="207"/>
       <c r="O262" s="29"/>
       <c r="P262" s="100"/>
       <c r="Q262" s="109"/>
@@ -12754,7 +12833,7 @@
       <c r="K263" s="118"/>
       <c r="L263" s="118"/>
       <c r="M263" s="119"/>
-      <c r="N263" s="208"/>
+      <c r="N263" s="205"/>
       <c r="O263" s="42"/>
       <c r="P263" s="104"/>
       <c r="Q263" s="111"/>
@@ -12792,7 +12871,7 @@
       <c r="K264" s="118"/>
       <c r="L264" s="118"/>
       <c r="M264" s="119"/>
-      <c r="N264" s="208"/>
+      <c r="N264" s="205"/>
       <c r="O264" s="42"/>
       <c r="P264" s="104"/>
       <c r="Q264" s="111"/>
@@ -12868,7 +12947,7 @@
       <c r="K266" s="118"/>
       <c r="L266" s="118"/>
       <c r="M266" s="120"/>
-      <c r="N266" s="209"/>
+      <c r="N266" s="206"/>
       <c r="O266" s="29"/>
       <c r="P266" s="100"/>
       <c r="Q266" s="109"/>
@@ -12906,7 +12985,7 @@
       <c r="K267" s="118"/>
       <c r="L267" s="118"/>
       <c r="M267" s="119"/>
-      <c r="N267" s="209"/>
+      <c r="N267" s="206"/>
       <c r="O267" s="29"/>
       <c r="P267" s="100"/>
       <c r="Q267" s="109"/>
@@ -12982,7 +13061,7 @@
       <c r="K269" s="118"/>
       <c r="L269" s="118"/>
       <c r="M269" s="119"/>
-      <c r="N269" s="209"/>
+      <c r="N269" s="206"/>
       <c r="O269" s="29"/>
       <c r="P269" s="100"/>
       <c r="Q269" s="109"/>
@@ -13020,7 +13099,7 @@
       <c r="K270" s="118"/>
       <c r="L270" s="118"/>
       <c r="M270" s="119"/>
-      <c r="N270" s="209"/>
+      <c r="N270" s="206"/>
       <c r="O270" s="29"/>
       <c r="P270" s="100"/>
       <c r="Q270" s="109"/>
@@ -13058,7 +13137,7 @@
       <c r="K271" s="118"/>
       <c r="L271" s="118"/>
       <c r="M271" s="119"/>
-      <c r="N271" s="209"/>
+      <c r="N271" s="206"/>
       <c r="O271" s="29"/>
       <c r="P271" s="100"/>
       <c r="Q271" s="109"/>
@@ -13134,7 +13213,7 @@
       <c r="K273" s="118"/>
       <c r="L273" s="118"/>
       <c r="M273" s="119"/>
-      <c r="N273" s="209"/>
+      <c r="N273" s="206"/>
       <c r="O273" s="29"/>
       <c r="P273" s="100"/>
       <c r="Q273" s="109"/>
@@ -13172,7 +13251,7 @@
       <c r="K274" s="118"/>
       <c r="L274" s="118"/>
       <c r="M274" s="119"/>
-      <c r="N274" s="209"/>
+      <c r="N274" s="206"/>
       <c r="O274" s="29"/>
       <c r="P274" s="100"/>
       <c r="Q274" s="109"/>
@@ -13248,7 +13327,7 @@
       <c r="K276" s="107"/>
       <c r="L276" s="107"/>
       <c r="M276" s="118"/>
-      <c r="N276" s="210"/>
+      <c r="N276" s="207"/>
       <c r="O276" s="29"/>
       <c r="P276" s="100"/>
       <c r="Q276" s="109"/>
@@ -13324,7 +13403,7 @@
       <c r="K278" s="118"/>
       <c r="L278" s="118"/>
       <c r="M278" s="119"/>
-      <c r="N278" s="209"/>
+      <c r="N278" s="206"/>
       <c r="O278" s="29"/>
       <c r="P278" s="100"/>
       <c r="Q278" s="109"/>
@@ -13362,7 +13441,7 @@
       <c r="K279" s="118"/>
       <c r="L279" s="118"/>
       <c r="M279" s="119"/>
-      <c r="N279" s="209"/>
+      <c r="N279" s="206"/>
       <c r="O279" s="29"/>
       <c r="P279" s="100"/>
       <c r="Q279" s="109"/>
@@ -13400,7 +13479,7 @@
       <c r="K280" s="118"/>
       <c r="L280" s="118"/>
       <c r="M280" s="119"/>
-      <c r="N280" s="209"/>
+      <c r="N280" s="206"/>
       <c r="O280" s="29"/>
       <c r="P280" s="100"/>
       <c r="Q280" s="109"/>
@@ -13476,7 +13555,7 @@
       <c r="K282" s="118"/>
       <c r="L282" s="118"/>
       <c r="M282" s="119"/>
-      <c r="N282" s="209"/>
+      <c r="N282" s="206"/>
       <c r="O282" s="29"/>
       <c r="P282" s="100"/>
       <c r="Q282" s="109"/>
@@ -13514,7 +13593,7 @@
       <c r="K283" s="118"/>
       <c r="L283" s="118"/>
       <c r="M283" s="119"/>
-      <c r="N283" s="209"/>
+      <c r="N283" s="206"/>
       <c r="O283" s="29"/>
       <c r="P283" s="100"/>
       <c r="Q283" s="109"/>
@@ -13590,7 +13669,7 @@
       <c r="K285" s="107"/>
       <c r="L285" s="107"/>
       <c r="M285" s="118"/>
-      <c r="N285" s="210"/>
+      <c r="N285" s="207"/>
       <c r="O285" s="29"/>
       <c r="P285" s="100"/>
       <c r="Q285" s="109"/>
@@ -13628,7 +13707,7 @@
       <c r="K286" s="118"/>
       <c r="L286" s="118"/>
       <c r="M286" s="119"/>
-      <c r="N286" s="208"/>
+      <c r="N286" s="205"/>
       <c r="O286" s="42"/>
       <c r="P286" s="104"/>
       <c r="Q286" s="111"/>
@@ -13666,7 +13745,7 @@
       <c r="K287" s="118"/>
       <c r="L287" s="118"/>
       <c r="M287" s="119"/>
-      <c r="N287" s="208"/>
+      <c r="N287" s="205"/>
       <c r="O287" s="42"/>
       <c r="P287" s="104"/>
       <c r="Q287" s="111"/>
@@ -13742,7 +13821,7 @@
       <c r="K289" s="118"/>
       <c r="L289" s="118"/>
       <c r="M289" s="120"/>
-      <c r="N289" s="209"/>
+      <c r="N289" s="206"/>
       <c r="O289" s="29"/>
       <c r="P289" s="100"/>
       <c r="Q289" s="109"/>
@@ -13780,7 +13859,7 @@
       <c r="K290" s="118"/>
       <c r="L290" s="118"/>
       <c r="M290" s="119"/>
-      <c r="N290" s="209"/>
+      <c r="N290" s="206"/>
       <c r="O290" s="29"/>
       <c r="P290" s="100"/>
       <c r="Q290" s="109"/>
@@ -13856,7 +13935,7 @@
       <c r="K292" s="118"/>
       <c r="L292" s="118"/>
       <c r="M292" s="119"/>
-      <c r="N292" s="209"/>
+      <c r="N292" s="206"/>
       <c r="O292" s="29"/>
       <c r="P292" s="100"/>
       <c r="Q292" s="109"/>
@@ -13894,7 +13973,7 @@
       <c r="K293" s="118"/>
       <c r="L293" s="118"/>
       <c r="M293" s="119"/>
-      <c r="N293" s="209"/>
+      <c r="N293" s="206"/>
       <c r="O293" s="29"/>
       <c r="P293" s="100"/>
       <c r="Q293" s="109"/>
@@ -13932,7 +14011,7 @@
       <c r="K294" s="118"/>
       <c r="L294" s="118"/>
       <c r="M294" s="119"/>
-      <c r="N294" s="209"/>
+      <c r="N294" s="206"/>
       <c r="O294" s="29"/>
       <c r="P294" s="100"/>
       <c r="Q294" s="109"/>
@@ -14008,7 +14087,7 @@
       <c r="K296" s="118"/>
       <c r="L296" s="118"/>
       <c r="M296" s="119"/>
-      <c r="N296" s="209"/>
+      <c r="N296" s="206"/>
       <c r="O296" s="29"/>
       <c r="P296" s="100"/>
       <c r="Q296" s="109"/>
@@ -14046,7 +14125,7 @@
       <c r="K297" s="118"/>
       <c r="L297" s="118"/>
       <c r="M297" s="119"/>
-      <c r="N297" s="209"/>
+      <c r="N297" s="206"/>
       <c r="O297" s="29"/>
       <c r="P297" s="100"/>
       <c r="Q297" s="109"/>
@@ -14122,7 +14201,7 @@
       <c r="K299" s="107"/>
       <c r="L299" s="107"/>
       <c r="M299" s="118"/>
-      <c r="N299" s="210"/>
+      <c r="N299" s="207"/>
       <c r="O299" s="29"/>
       <c r="P299" s="100"/>
       <c r="Q299" s="109"/>
@@ -14198,7 +14277,7 @@
       <c r="K301" s="118"/>
       <c r="L301" s="118"/>
       <c r="M301" s="119"/>
-      <c r="N301" s="209"/>
+      <c r="N301" s="206"/>
       <c r="O301" s="29"/>
       <c r="P301" s="100"/>
       <c r="Q301" s="109"/>
@@ -14236,7 +14315,7 @@
       <c r="K302" s="118"/>
       <c r="L302" s="118"/>
       <c r="M302" s="119"/>
-      <c r="N302" s="209"/>
+      <c r="N302" s="206"/>
       <c r="O302" s="29"/>
       <c r="P302" s="100"/>
       <c r="Q302" s="109"/>
@@ -14274,7 +14353,7 @@
       <c r="K303" s="118"/>
       <c r="L303" s="118"/>
       <c r="M303" s="119"/>
-      <c r="N303" s="209"/>
+      <c r="N303" s="206"/>
       <c r="O303" s="29"/>
       <c r="P303" s="100"/>
       <c r="Q303" s="109"/>
@@ -14350,7 +14429,7 @@
       <c r="K305" s="118"/>
       <c r="L305" s="118"/>
       <c r="M305" s="119"/>
-      <c r="N305" s="209"/>
+      <c r="N305" s="206"/>
       <c r="O305" s="29"/>
       <c r="P305" s="100"/>
       <c r="Q305" s="109"/>
@@ -14388,7 +14467,7 @@
       <c r="K306" s="118"/>
       <c r="L306" s="118"/>
       <c r="M306" s="119"/>
-      <c r="N306" s="209"/>
+      <c r="N306" s="206"/>
       <c r="O306" s="29"/>
       <c r="P306" s="100"/>
       <c r="Q306" s="109"/>
@@ -14464,7 +14543,7 @@
       <c r="K308" s="107"/>
       <c r="L308" s="107"/>
       <c r="M308" s="118"/>
-      <c r="N308" s="210"/>
+      <c r="N308" s="207"/>
       <c r="O308" s="29"/>
       <c r="P308" s="100"/>
       <c r="Q308" s="109"/>
@@ -14502,7 +14581,7 @@
       <c r="K309" s="118"/>
       <c r="L309" s="118"/>
       <c r="M309" s="119"/>
-      <c r="N309" s="208"/>
+      <c r="N309" s="205"/>
       <c r="O309" s="42"/>
       <c r="P309" s="104"/>
       <c r="Q309" s="111"/>
@@ -14540,7 +14619,7 @@
       <c r="K310" s="118"/>
       <c r="L310" s="118"/>
       <c r="M310" s="119"/>
-      <c r="N310" s="208"/>
+      <c r="N310" s="205"/>
       <c r="O310" s="42"/>
       <c r="P310" s="104"/>
       <c r="Q310" s="111"/>
@@ -14616,7 +14695,7 @@
       <c r="K312" s="118"/>
       <c r="L312" s="118"/>
       <c r="M312" s="120"/>
-      <c r="N312" s="209"/>
+      <c r="N312" s="206"/>
       <c r="O312" s="29"/>
       <c r="P312" s="100"/>
       <c r="Q312" s="109"/>
@@ -14654,7 +14733,7 @@
       <c r="K313" s="118"/>
       <c r="L313" s="118"/>
       <c r="M313" s="119"/>
-      <c r="N313" s="209"/>
+      <c r="N313" s="206"/>
       <c r="O313" s="29"/>
       <c r="P313" s="100"/>
       <c r="Q313" s="109"/>
@@ -14730,7 +14809,7 @@
       <c r="K315" s="118"/>
       <c r="L315" s="118"/>
       <c r="M315" s="119"/>
-      <c r="N315" s="209"/>
+      <c r="N315" s="206"/>
       <c r="O315" s="29"/>
       <c r="P315" s="100"/>
       <c r="Q315" s="109"/>
@@ -14768,7 +14847,7 @@
       <c r="K316" s="118"/>
       <c r="L316" s="118"/>
       <c r="M316" s="119"/>
-      <c r="N316" s="209"/>
+      <c r="N316" s="206"/>
       <c r="O316" s="29"/>
       <c r="P316" s="100"/>
       <c r="Q316" s="109"/>
@@ -14806,7 +14885,7 @@
       <c r="K317" s="118"/>
       <c r="L317" s="118"/>
       <c r="M317" s="119"/>
-      <c r="N317" s="209"/>
+      <c r="N317" s="206"/>
       <c r="O317" s="29"/>
       <c r="P317" s="100"/>
       <c r="Q317" s="109"/>
@@ -14882,7 +14961,7 @@
       <c r="K319" s="118"/>
       <c r="L319" s="118"/>
       <c r="M319" s="119"/>
-      <c r="N319" s="209"/>
+      <c r="N319" s="206"/>
       <c r="O319" s="29"/>
       <c r="P319" s="100"/>
       <c r="Q319" s="109"/>
@@ -14920,7 +14999,7 @@
       <c r="K320" s="118"/>
       <c r="L320" s="118"/>
       <c r="M320" s="119"/>
-      <c r="N320" s="209"/>
+      <c r="N320" s="206"/>
       <c r="O320" s="29"/>
       <c r="P320" s="100"/>
       <c r="Q320" s="109"/>
@@ -14996,7 +15075,7 @@
       <c r="K322" s="107"/>
       <c r="L322" s="107"/>
       <c r="M322" s="118"/>
-      <c r="N322" s="210"/>
+      <c r="N322" s="207"/>
       <c r="O322" s="29"/>
       <c r="P322" s="100"/>
       <c r="Q322" s="109"/>
@@ -15072,7 +15151,7 @@
       <c r="K324" s="118"/>
       <c r="L324" s="118"/>
       <c r="M324" s="119"/>
-      <c r="N324" s="209"/>
+      <c r="N324" s="206"/>
       <c r="O324" s="29"/>
       <c r="P324" s="100"/>
       <c r="Q324" s="109"/>
@@ -15110,7 +15189,7 @@
       <c r="K325" s="118"/>
       <c r="L325" s="118"/>
       <c r="M325" s="119"/>
-      <c r="N325" s="209"/>
+      <c r="N325" s="206"/>
       <c r="O325" s="29"/>
       <c r="P325" s="100"/>
       <c r="Q325" s="109"/>
@@ -15148,7 +15227,7 @@
       <c r="K326" s="118"/>
       <c r="L326" s="118"/>
       <c r="M326" s="119"/>
-      <c r="N326" s="209"/>
+      <c r="N326" s="206"/>
       <c r="O326" s="29"/>
       <c r="P326" s="100"/>
       <c r="Q326" s="109"/>
@@ -15224,7 +15303,7 @@
       <c r="K328" s="118"/>
       <c r="L328" s="118"/>
       <c r="M328" s="119"/>
-      <c r="N328" s="209"/>
+      <c r="N328" s="206"/>
       <c r="O328" s="29"/>
       <c r="P328" s="100"/>
       <c r="Q328" s="109"/>
@@ -15262,7 +15341,7 @@
       <c r="K329" s="118"/>
       <c r="L329" s="118"/>
       <c r="M329" s="119"/>
-      <c r="N329" s="209"/>
+      <c r="N329" s="206"/>
       <c r="O329" s="29"/>
       <c r="P329" s="100"/>
       <c r="Q329" s="109"/>
@@ -15338,7 +15417,7 @@
       <c r="K331" s="107"/>
       <c r="L331" s="107"/>
       <c r="M331" s="118"/>
-      <c r="N331" s="210"/>
+      <c r="N331" s="207"/>
       <c r="O331" s="29"/>
       <c r="P331" s="100"/>
       <c r="Q331" s="109"/>
@@ -15376,7 +15455,7 @@
       <c r="K332" s="118"/>
       <c r="L332" s="118"/>
       <c r="M332" s="119"/>
-      <c r="N332" s="208"/>
+      <c r="N332" s="205"/>
       <c r="O332" s="42"/>
       <c r="P332" s="104"/>
       <c r="Q332" s="111"/>
@@ -15414,7 +15493,7 @@
       <c r="K333" s="118"/>
       <c r="L333" s="118"/>
       <c r="M333" s="119"/>
-      <c r="N333" s="208"/>
+      <c r="N333" s="205"/>
       <c r="O333" s="42"/>
       <c r="P333" s="104"/>
       <c r="Q333" s="111"/>
@@ -15490,7 +15569,7 @@
       <c r="K335" s="118"/>
       <c r="L335" s="118"/>
       <c r="M335" s="120"/>
-      <c r="N335" s="209"/>
+      <c r="N335" s="206"/>
       <c r="O335" s="29"/>
       <c r="P335" s="100"/>
       <c r="Q335" s="109"/>
@@ -15528,7 +15607,7 @@
       <c r="K336" s="118"/>
       <c r="L336" s="118"/>
       <c r="M336" s="119"/>
-      <c r="N336" s="209"/>
+      <c r="N336" s="206"/>
       <c r="O336" s="29"/>
       <c r="P336" s="100"/>
       <c r="Q336" s="109"/>
@@ -15604,7 +15683,7 @@
       <c r="K338" s="118"/>
       <c r="L338" s="118"/>
       <c r="M338" s="119"/>
-      <c r="N338" s="209"/>
+      <c r="N338" s="206"/>
       <c r="O338" s="29"/>
       <c r="P338" s="100"/>
       <c r="Q338" s="109"/>
@@ -15642,7 +15721,7 @@
       <c r="K339" s="118"/>
       <c r="L339" s="118"/>
       <c r="M339" s="119"/>
-      <c r="N339" s="209"/>
+      <c r="N339" s="206"/>
       <c r="O339" s="29"/>
       <c r="P339" s="100"/>
       <c r="Q339" s="109"/>
@@ -15680,7 +15759,7 @@
       <c r="K340" s="118"/>
       <c r="L340" s="118"/>
       <c r="M340" s="119"/>
-      <c r="N340" s="209"/>
+      <c r="N340" s="206"/>
       <c r="O340" s="29"/>
       <c r="P340" s="100"/>
       <c r="Q340" s="109"/>
@@ -15756,7 +15835,7 @@
       <c r="K342" s="118"/>
       <c r="L342" s="118"/>
       <c r="M342" s="119"/>
-      <c r="N342" s="209"/>
+      <c r="N342" s="206"/>
       <c r="O342" s="29"/>
       <c r="P342" s="100"/>
       <c r="Q342" s="109"/>
@@ -15794,7 +15873,7 @@
       <c r="K343" s="118"/>
       <c r="L343" s="118"/>
       <c r="M343" s="119"/>
-      <c r="N343" s="209"/>
+      <c r="N343" s="206"/>
       <c r="O343" s="29"/>
       <c r="P343" s="100"/>
       <c r="Q343" s="109"/>
@@ -15870,7 +15949,7 @@
       <c r="K345" s="107"/>
       <c r="L345" s="107"/>
       <c r="M345" s="118"/>
-      <c r="N345" s="210"/>
+      <c r="N345" s="207"/>
       <c r="O345" s="29"/>
       <c r="P345" s="100"/>
       <c r="Q345" s="109"/>
@@ -15946,7 +16025,7 @@
       <c r="K347" s="118"/>
       <c r="L347" s="118"/>
       <c r="M347" s="119"/>
-      <c r="N347" s="209"/>
+      <c r="N347" s="206"/>
       <c r="O347" s="29"/>
       <c r="P347" s="100"/>
       <c r="Q347" s="109"/>
@@ -15984,7 +16063,7 @@
       <c r="K348" s="118"/>
       <c r="L348" s="118"/>
       <c r="M348" s="119"/>
-      <c r="N348" s="209"/>
+      <c r="N348" s="206"/>
       <c r="O348" s="29"/>
       <c r="P348" s="100"/>
       <c r="Q348" s="109"/>
@@ -16022,7 +16101,7 @@
       <c r="K349" s="118"/>
       <c r="L349" s="118"/>
       <c r="M349" s="119"/>
-      <c r="N349" s="209"/>
+      <c r="N349" s="206"/>
       <c r="O349" s="29"/>
       <c r="P349" s="100"/>
       <c r="Q349" s="109"/>
@@ -16098,7 +16177,7 @@
       <c r="K351" s="118"/>
       <c r="L351" s="118"/>
       <c r="M351" s="119"/>
-      <c r="N351" s="209"/>
+      <c r="N351" s="206"/>
       <c r="O351" s="29"/>
       <c r="P351" s="100"/>
       <c r="Q351" s="109"/>
@@ -16136,7 +16215,7 @@
       <c r="K352" s="118"/>
       <c r="L352" s="118"/>
       <c r="M352" s="119"/>
-      <c r="N352" s="209"/>
+      <c r="N352" s="206"/>
       <c r="O352" s="29"/>
       <c r="P352" s="100"/>
       <c r="Q352" s="109"/>
@@ -16212,7 +16291,7 @@
       <c r="K354" s="107"/>
       <c r="L354" s="107"/>
       <c r="M354" s="118"/>
-      <c r="N354" s="210"/>
+      <c r="N354" s="207"/>
       <c r="O354" s="29"/>
       <c r="P354" s="100"/>
       <c r="Q354" s="109"/>
@@ -16250,7 +16329,7 @@
       <c r="K355" s="118"/>
       <c r="L355" s="118"/>
       <c r="M355" s="119"/>
-      <c r="N355" s="208"/>
+      <c r="N355" s="205"/>
       <c r="O355" s="42"/>
       <c r="P355" s="104"/>
       <c r="Q355" s="111"/>
@@ -16288,7 +16367,7 @@
       <c r="K356" s="118"/>
       <c r="L356" s="118"/>
       <c r="M356" s="119"/>
-      <c r="N356" s="208"/>
+      <c r="N356" s="205"/>
       <c r="O356" s="42"/>
       <c r="P356" s="104"/>
       <c r="Q356" s="111"/>
@@ -16364,7 +16443,7 @@
       <c r="K358" s="118"/>
       <c r="L358" s="118"/>
       <c r="M358" s="120"/>
-      <c r="N358" s="209"/>
+      <c r="N358" s="206"/>
       <c r="O358" s="29"/>
       <c r="P358" s="100"/>
       <c r="Q358" s="109"/>
@@ -16402,7 +16481,7 @@
       <c r="K359" s="118"/>
       <c r="L359" s="118"/>
       <c r="M359" s="119"/>
-      <c r="N359" s="209"/>
+      <c r="N359" s="206"/>
       <c r="O359" s="29"/>
       <c r="P359" s="100"/>
       <c r="Q359" s="109"/>
@@ -16478,7 +16557,7 @@
       <c r="K361" s="118"/>
       <c r="L361" s="118"/>
       <c r="M361" s="119"/>
-      <c r="N361" s="209"/>
+      <c r="N361" s="206"/>
       <c r="O361" s="29"/>
       <c r="P361" s="100"/>
       <c r="Q361" s="109"/>
@@ -16516,7 +16595,7 @@
       <c r="K362" s="118"/>
       <c r="L362" s="118"/>
       <c r="M362" s="119"/>
-      <c r="N362" s="209"/>
+      <c r="N362" s="206"/>
       <c r="O362" s="29"/>
       <c r="P362" s="100"/>
       <c r="Q362" s="109"/>
@@ -16554,7 +16633,7 @@
       <c r="K363" s="118"/>
       <c r="L363" s="118"/>
       <c r="M363" s="119"/>
-      <c r="N363" s="209"/>
+      <c r="N363" s="206"/>
       <c r="O363" s="29"/>
       <c r="P363" s="100"/>
       <c r="Q363" s="109"/>
@@ -16630,7 +16709,7 @@
       <c r="K365" s="118"/>
       <c r="L365" s="118"/>
       <c r="M365" s="119"/>
-      <c r="N365" s="209"/>
+      <c r="N365" s="206"/>
       <c r="O365" s="29"/>
       <c r="P365" s="100"/>
       <c r="Q365" s="109"/>
@@ -16668,7 +16747,7 @@
       <c r="K366" s="118"/>
       <c r="L366" s="118"/>
       <c r="M366" s="119"/>
-      <c r="N366" s="209"/>
+      <c r="N366" s="206"/>
       <c r="O366" s="29"/>
       <c r="P366" s="100"/>
       <c r="Q366" s="109"/>
@@ -16744,7 +16823,7 @@
       <c r="K368" s="107"/>
       <c r="L368" s="107"/>
       <c r="M368" s="118"/>
-      <c r="N368" s="210"/>
+      <c r="N368" s="207"/>
       <c r="O368" s="29"/>
       <c r="P368" s="100"/>
       <c r="Q368" s="109"/>
@@ -16820,7 +16899,7 @@
       <c r="K370" s="118"/>
       <c r="L370" s="118"/>
       <c r="M370" s="119"/>
-      <c r="N370" s="209"/>
+      <c r="N370" s="206"/>
       <c r="O370" s="29"/>
       <c r="P370" s="100"/>
       <c r="Q370" s="109"/>
@@ -16858,7 +16937,7 @@
       <c r="K371" s="118"/>
       <c r="L371" s="118"/>
       <c r="M371" s="119"/>
-      <c r="N371" s="209"/>
+      <c r="N371" s="206"/>
       <c r="O371" s="29"/>
       <c r="P371" s="100"/>
       <c r="Q371" s="109"/>
@@ -16896,7 +16975,7 @@
       <c r="K372" s="118"/>
       <c r="L372" s="118"/>
       <c r="M372" s="119"/>
-      <c r="N372" s="209"/>
+      <c r="N372" s="206"/>
       <c r="O372" s="29"/>
       <c r="P372" s="100"/>
       <c r="Q372" s="109"/>
@@ -16972,7 +17051,7 @@
       <c r="K374" s="118"/>
       <c r="L374" s="118"/>
       <c r="M374" s="119"/>
-      <c r="N374" s="209"/>
+      <c r="N374" s="206"/>
       <c r="O374" s="29"/>
       <c r="P374" s="100"/>
       <c r="Q374" s="109"/>
@@ -17010,7 +17089,7 @@
       <c r="K375" s="118"/>
       <c r="L375" s="118"/>
       <c r="M375" s="119"/>
-      <c r="N375" s="209"/>
+      <c r="N375" s="206"/>
       <c r="O375" s="29"/>
       <c r="P375" s="100"/>
       <c r="Q375" s="109"/>
@@ -17086,7 +17165,7 @@
       <c r="K377" s="107"/>
       <c r="L377" s="107"/>
       <c r="M377" s="118"/>
-      <c r="N377" s="210"/>
+      <c r="N377" s="207"/>
       <c r="O377" s="29"/>
       <c r="P377" s="100"/>
       <c r="Q377" s="109"/>
@@ -17124,7 +17203,7 @@
       <c r="K378" s="118"/>
       <c r="L378" s="118"/>
       <c r="M378" s="119"/>
-      <c r="N378" s="208"/>
+      <c r="N378" s="205"/>
       <c r="O378" s="42"/>
       <c r="P378" s="104"/>
       <c r="Q378" s="111"/>
@@ -17162,7 +17241,7 @@
       <c r="K379" s="118"/>
       <c r="L379" s="118"/>
       <c r="M379" s="119"/>
-      <c r="N379" s="208"/>
+      <c r="N379" s="205"/>
       <c r="O379" s="42"/>
       <c r="P379" s="104"/>
       <c r="Q379" s="111"/>
@@ -17238,7 +17317,7 @@
       <c r="K381" s="118"/>
       <c r="L381" s="118"/>
       <c r="M381" s="120"/>
-      <c r="N381" s="209"/>
+      <c r="N381" s="206"/>
       <c r="O381" s="29"/>
       <c r="P381" s="100"/>
       <c r="Q381" s="109"/>
@@ -17276,7 +17355,7 @@
       <c r="K382" s="118"/>
       <c r="L382" s="118"/>
       <c r="M382" s="119"/>
-      <c r="N382" s="209"/>
+      <c r="N382" s="206"/>
       <c r="O382" s="29"/>
       <c r="P382" s="100"/>
       <c r="Q382" s="109"/>
@@ -17352,7 +17431,7 @@
       <c r="K384" s="118"/>
       <c r="L384" s="118"/>
       <c r="M384" s="119"/>
-      <c r="N384" s="209"/>
+      <c r="N384" s="206"/>
       <c r="O384" s="29"/>
       <c r="P384" s="100"/>
       <c r="Q384" s="109"/>
@@ -17390,7 +17469,7 @@
       <c r="K385" s="118"/>
       <c r="L385" s="118"/>
       <c r="M385" s="119"/>
-      <c r="N385" s="209"/>
+      <c r="N385" s="206"/>
       <c r="O385" s="29"/>
       <c r="P385" s="100"/>
       <c r="Q385" s="109"/>
@@ -17428,7 +17507,7 @@
       <c r="K386" s="118"/>
       <c r="L386" s="118"/>
       <c r="M386" s="119"/>
-      <c r="N386" s="209"/>
+      <c r="N386" s="206"/>
       <c r="O386" s="29"/>
       <c r="P386" s="100"/>
       <c r="Q386" s="109"/>
@@ -17504,7 +17583,7 @@
       <c r="K388" s="118"/>
       <c r="L388" s="118"/>
       <c r="M388" s="119"/>
-      <c r="N388" s="209"/>
+      <c r="N388" s="206"/>
       <c r="O388" s="29"/>
       <c r="P388" s="100"/>
       <c r="Q388" s="109"/>
@@ -17542,7 +17621,7 @@
       <c r="K389" s="118"/>
       <c r="L389" s="118"/>
       <c r="M389" s="119"/>
-      <c r="N389" s="209"/>
+      <c r="N389" s="206"/>
       <c r="O389" s="29"/>
       <c r="P389" s="100"/>
       <c r="Q389" s="109"/>
@@ -17618,7 +17697,7 @@
       <c r="K391" s="107"/>
       <c r="L391" s="107"/>
       <c r="M391" s="118"/>
-      <c r="N391" s="210"/>
+      <c r="N391" s="207"/>
       <c r="O391" s="29"/>
       <c r="P391" s="100"/>
       <c r="Q391" s="109"/>
@@ -17694,7 +17773,7 @@
       <c r="K393" s="118"/>
       <c r="L393" s="118"/>
       <c r="M393" s="119"/>
-      <c r="N393" s="209"/>
+      <c r="N393" s="206"/>
       <c r="O393" s="29"/>
       <c r="P393" s="100"/>
       <c r="Q393" s="109"/>
@@ -17732,7 +17811,7 @@
       <c r="K394" s="118"/>
       <c r="L394" s="118"/>
       <c r="M394" s="119"/>
-      <c r="N394" s="209"/>
+      <c r="N394" s="206"/>
       <c r="O394" s="29"/>
       <c r="P394" s="100"/>
       <c r="Q394" s="109"/>
@@ -17770,7 +17849,7 @@
       <c r="K395" s="118"/>
       <c r="L395" s="118"/>
       <c r="M395" s="119"/>
-      <c r="N395" s="209"/>
+      <c r="N395" s="206"/>
       <c r="O395" s="29"/>
       <c r="P395" s="100"/>
       <c r="Q395" s="109"/>
@@ -17846,7 +17925,7 @@
       <c r="K397" s="118"/>
       <c r="L397" s="118"/>
       <c r="M397" s="119"/>
-      <c r="N397" s="209"/>
+      <c r="N397" s="206"/>
       <c r="O397" s="29"/>
       <c r="P397" s="100"/>
       <c r="Q397" s="109"/>
@@ -17884,7 +17963,7 @@
       <c r="K398" s="118"/>
       <c r="L398" s="118"/>
       <c r="M398" s="119"/>
-      <c r="N398" s="209"/>
+      <c r="N398" s="206"/>
       <c r="O398" s="29"/>
       <c r="P398" s="100"/>
       <c r="Q398" s="109"/>
@@ -17960,7 +18039,7 @@
       <c r="K400" s="107"/>
       <c r="L400" s="107"/>
       <c r="M400" s="118"/>
-      <c r="N400" s="210"/>
+      <c r="N400" s="207"/>
       <c r="O400" s="29"/>
       <c r="P400" s="100"/>
       <c r="Q400" s="109"/>
@@ -17998,7 +18077,7 @@
       <c r="K401" s="118"/>
       <c r="L401" s="118"/>
       <c r="M401" s="119"/>
-      <c r="N401" s="208"/>
+      <c r="N401" s="205"/>
       <c r="O401" s="42"/>
       <c r="P401" s="104"/>
       <c r="Q401" s="111"/>
@@ -18036,7 +18115,7 @@
       <c r="K402" s="118"/>
       <c r="L402" s="118"/>
       <c r="M402" s="119"/>
-      <c r="N402" s="208"/>
+      <c r="N402" s="205"/>
       <c r="O402" s="42"/>
       <c r="P402" s="104"/>
       <c r="Q402" s="111"/>
@@ -18112,7 +18191,7 @@
       <c r="K404" s="118"/>
       <c r="L404" s="118"/>
       <c r="M404" s="120"/>
-      <c r="N404" s="209"/>
+      <c r="N404" s="206"/>
       <c r="O404" s="29"/>
       <c r="P404" s="100"/>
       <c r="Q404" s="109"/>
@@ -18150,7 +18229,7 @@
       <c r="K405" s="118"/>
       <c r="L405" s="118"/>
       <c r="M405" s="119"/>
-      <c r="N405" s="209"/>
+      <c r="N405" s="206"/>
       <c r="O405" s="29"/>
       <c r="P405" s="100"/>
       <c r="Q405" s="109"/>
@@ -18226,7 +18305,7 @@
       <c r="K407" s="118"/>
       <c r="L407" s="118"/>
       <c r="M407" s="119"/>
-      <c r="N407" s="209"/>
+      <c r="N407" s="206"/>
       <c r="O407" s="29"/>
       <c r="P407" s="100"/>
       <c r="Q407" s="109"/>
@@ -18264,7 +18343,7 @@
       <c r="K408" s="118"/>
       <c r="L408" s="118"/>
       <c r="M408" s="119"/>
-      <c r="N408" s="209"/>
+      <c r="N408" s="206"/>
       <c r="O408" s="29"/>
       <c r="P408" s="100"/>
       <c r="Q408" s="109"/>
@@ -18302,7 +18381,7 @@
       <c r="K409" s="118"/>
       <c r="L409" s="118"/>
       <c r="M409" s="119"/>
-      <c r="N409" s="209"/>
+      <c r="N409" s="206"/>
       <c r="O409" s="29"/>
       <c r="P409" s="100"/>
       <c r="Q409" s="109"/>
@@ -18378,7 +18457,7 @@
       <c r="K411" s="118"/>
       <c r="L411" s="118"/>
       <c r="M411" s="119"/>
-      <c r="N411" s="209"/>
+      <c r="N411" s="206"/>
       <c r="O411" s="29"/>
       <c r="P411" s="100"/>
       <c r="Q411" s="109"/>
@@ -18416,7 +18495,7 @@
       <c r="K412" s="118"/>
       <c r="L412" s="118"/>
       <c r="M412" s="119"/>
-      <c r="N412" s="209"/>
+      <c r="N412" s="206"/>
       <c r="O412" s="29"/>
       <c r="P412" s="100"/>
       <c r="Q412" s="109"/>
@@ -18492,7 +18571,7 @@
       <c r="K414" s="107"/>
       <c r="L414" s="107"/>
       <c r="M414" s="118"/>
-      <c r="N414" s="210"/>
+      <c r="N414" s="207"/>
       <c r="O414" s="29"/>
       <c r="P414" s="100"/>
       <c r="Q414" s="109"/>
@@ -18568,7 +18647,7 @@
       <c r="K416" s="118"/>
       <c r="L416" s="118"/>
       <c r="M416" s="119"/>
-      <c r="N416" s="209"/>
+      <c r="N416" s="206"/>
       <c r="O416" s="29"/>
       <c r="P416" s="100"/>
       <c r="Q416" s="109"/>
@@ -18606,7 +18685,7 @@
       <c r="K417" s="118"/>
       <c r="L417" s="118"/>
       <c r="M417" s="119"/>
-      <c r="N417" s="209"/>
+      <c r="N417" s="206"/>
       <c r="O417" s="29"/>
       <c r="P417" s="100"/>
       <c r="Q417" s="109"/>
@@ -18644,7 +18723,7 @@
       <c r="K418" s="118"/>
       <c r="L418" s="118"/>
       <c r="M418" s="119"/>
-      <c r="N418" s="209"/>
+      <c r="N418" s="206"/>
       <c r="O418" s="29"/>
       <c r="P418" s="100"/>
       <c r="Q418" s="109"/>
@@ -18720,7 +18799,7 @@
       <c r="K420" s="118"/>
       <c r="L420" s="118"/>
       <c r="M420" s="119"/>
-      <c r="N420" s="209"/>
+      <c r="N420" s="206"/>
       <c r="O420" s="29"/>
       <c r="P420" s="100"/>
       <c r="Q420" s="109"/>
@@ -18758,7 +18837,7 @@
       <c r="K421" s="118"/>
       <c r="L421" s="118"/>
       <c r="M421" s="119"/>
-      <c r="N421" s="209"/>
+      <c r="N421" s="206"/>
       <c r="O421" s="29"/>
       <c r="P421" s="100"/>
       <c r="Q421" s="109"/>
@@ -18834,7 +18913,7 @@
       <c r="K423" s="107"/>
       <c r="L423" s="107"/>
       <c r="M423" s="118"/>
-      <c r="N423" s="210"/>
+      <c r="N423" s="207"/>
       <c r="O423" s="29"/>
       <c r="P423" s="100"/>
       <c r="Q423" s="109"/>
@@ -18872,7 +18951,7 @@
       <c r="K424" s="118"/>
       <c r="L424" s="118"/>
       <c r="M424" s="119"/>
-      <c r="N424" s="208"/>
+      <c r="N424" s="205"/>
       <c r="O424" s="42"/>
       <c r="P424" s="104"/>
       <c r="Q424" s="111"/>
@@ -18910,7 +18989,7 @@
       <c r="K425" s="118"/>
       <c r="L425" s="118"/>
       <c r="M425" s="119"/>
-      <c r="N425" s="208"/>
+      <c r="N425" s="205"/>
       <c r="O425" s="42"/>
       <c r="P425" s="104"/>
       <c r="Q425" s="111"/>
@@ -18986,7 +19065,7 @@
       <c r="K427" s="118"/>
       <c r="L427" s="118"/>
       <c r="M427" s="120"/>
-      <c r="N427" s="209"/>
+      <c r="N427" s="206"/>
       <c r="O427" s="29"/>
       <c r="P427" s="100"/>
       <c r="Q427" s="109"/>
@@ -19024,7 +19103,7 @@
       <c r="K428" s="118"/>
       <c r="L428" s="118"/>
       <c r="M428" s="119"/>
-      <c r="N428" s="209"/>
+      <c r="N428" s="206"/>
       <c r="O428" s="29"/>
       <c r="P428" s="100"/>
       <c r="Q428" s="109"/>
@@ -19100,7 +19179,7 @@
       <c r="K430" s="118"/>
       <c r="L430" s="118"/>
       <c r="M430" s="119"/>
-      <c r="N430" s="209"/>
+      <c r="N430" s="206"/>
       <c r="O430" s="29"/>
       <c r="P430" s="100"/>
       <c r="Q430" s="109"/>
@@ -19138,7 +19217,7 @@
       <c r="K431" s="118"/>
       <c r="L431" s="118"/>
       <c r="M431" s="119"/>
-      <c r="N431" s="209"/>
+      <c r="N431" s="206"/>
       <c r="O431" s="29"/>
       <c r="P431" s="100"/>
       <c r="Q431" s="109"/>
@@ -19176,7 +19255,7 @@
       <c r="K432" s="118"/>
       <c r="L432" s="118"/>
       <c r="M432" s="119"/>
-      <c r="N432" s="209"/>
+      <c r="N432" s="206"/>
       <c r="O432" s="29"/>
       <c r="P432" s="100"/>
       <c r="Q432" s="109"/>
@@ -19252,7 +19331,7 @@
       <c r="K434" s="118"/>
       <c r="L434" s="118"/>
       <c r="M434" s="119"/>
-      <c r="N434" s="209"/>
+      <c r="N434" s="206"/>
       <c r="O434" s="29"/>
       <c r="P434" s="100"/>
       <c r="Q434" s="109"/>
@@ -19290,7 +19369,7 @@
       <c r="K435" s="118"/>
       <c r="L435" s="118"/>
       <c r="M435" s="119"/>
-      <c r="N435" s="209"/>
+      <c r="N435" s="206"/>
       <c r="O435" s="29"/>
       <c r="P435" s="100"/>
       <c r="Q435" s="109"/>
@@ -19366,7 +19445,7 @@
       <c r="K437" s="107"/>
       <c r="L437" s="107"/>
       <c r="M437" s="118"/>
-      <c r="N437" s="210"/>
+      <c r="N437" s="207"/>
       <c r="O437" s="29"/>
       <c r="P437" s="100"/>
       <c r="Q437" s="109"/>
@@ -19442,7 +19521,7 @@
       <c r="K439" s="118"/>
       <c r="L439" s="118"/>
       <c r="M439" s="119"/>
-      <c r="N439" s="209"/>
+      <c r="N439" s="206"/>
       <c r="O439" s="29"/>
       <c r="P439" s="100"/>
       <c r="Q439" s="109"/>
@@ -19480,7 +19559,7 @@
       <c r="K440" s="118"/>
       <c r="L440" s="118"/>
       <c r="M440" s="119"/>
-      <c r="N440" s="209"/>
+      <c r="N440" s="206"/>
       <c r="O440" s="29"/>
       <c r="P440" s="100"/>
       <c r="Q440" s="109"/>
@@ -19518,7 +19597,7 @@
       <c r="K441" s="118"/>
       <c r="L441" s="118"/>
       <c r="M441" s="119"/>
-      <c r="N441" s="209"/>
+      <c r="N441" s="206"/>
       <c r="O441" s="29"/>
       <c r="P441" s="100"/>
       <c r="Q441" s="109"/>
@@ -19594,7 +19673,7 @@
       <c r="K443" s="118"/>
       <c r="L443" s="118"/>
       <c r="M443" s="119"/>
-      <c r="N443" s="209"/>
+      <c r="N443" s="206"/>
       <c r="O443" s="29"/>
       <c r="P443" s="100"/>
       <c r="Q443" s="109"/>
@@ -19632,7 +19711,7 @@
       <c r="K444" s="118"/>
       <c r="L444" s="118"/>
       <c r="M444" s="119"/>
-      <c r="N444" s="209"/>
+      <c r="N444" s="206"/>
       <c r="O444" s="29"/>
       <c r="P444" s="100"/>
       <c r="Q444" s="109"/>
@@ -19708,7 +19787,7 @@
       <c r="K446" s="107"/>
       <c r="L446" s="107"/>
       <c r="M446" s="118"/>
-      <c r="N446" s="210"/>
+      <c r="N446" s="207"/>
       <c r="O446" s="29"/>
       <c r="P446" s="100"/>
       <c r="Q446" s="109"/>
@@ -19746,7 +19825,7 @@
       <c r="K447" s="118"/>
       <c r="L447" s="118"/>
       <c r="M447" s="119"/>
-      <c r="N447" s="208"/>
+      <c r="N447" s="205"/>
       <c r="O447" s="42"/>
       <c r="P447" s="104"/>
       <c r="Q447" s="111"/>
@@ -19784,7 +19863,7 @@
       <c r="K448" s="118"/>
       <c r="L448" s="118"/>
       <c r="M448" s="119"/>
-      <c r="N448" s="208"/>
+      <c r="N448" s="205"/>
       <c r="O448" s="42"/>
       <c r="P448" s="104"/>
       <c r="Q448" s="111"/>
@@ -19860,7 +19939,7 @@
       <c r="K450" s="118"/>
       <c r="L450" s="118"/>
       <c r="M450" s="120"/>
-      <c r="N450" s="209"/>
+      <c r="N450" s="206"/>
       <c r="O450" s="29"/>
       <c r="P450" s="100"/>
       <c r="Q450" s="109"/>
@@ -19898,7 +19977,7 @@
       <c r="K451" s="118"/>
       <c r="L451" s="118"/>
       <c r="M451" s="119"/>
-      <c r="N451" s="209"/>
+      <c r="N451" s="206"/>
       <c r="O451" s="29"/>
       <c r="P451" s="100"/>
       <c r="Q451" s="109"/>
@@ -19974,7 +20053,7 @@
       <c r="K453" s="118"/>
       <c r="L453" s="118"/>
       <c r="M453" s="119"/>
-      <c r="N453" s="209"/>
+      <c r="N453" s="206"/>
       <c r="O453" s="29"/>
       <c r="P453" s="100"/>
       <c r="Q453" s="109"/>
@@ -20012,7 +20091,7 @@
       <c r="K454" s="118"/>
       <c r="L454" s="118"/>
       <c r="M454" s="119"/>
-      <c r="N454" s="209"/>
+      <c r="N454" s="206"/>
       <c r="O454" s="29"/>
       <c r="P454" s="100"/>
       <c r="Q454" s="109"/>
@@ -20050,7 +20129,7 @@
       <c r="K455" s="118"/>
       <c r="L455" s="118"/>
       <c r="M455" s="119"/>
-      <c r="N455" s="209"/>
+      <c r="N455" s="206"/>
       <c r="O455" s="29"/>
       <c r="P455" s="100"/>
       <c r="Q455" s="109"/>
@@ -20126,7 +20205,7 @@
       <c r="K457" s="118"/>
       <c r="L457" s="118"/>
       <c r="M457" s="119"/>
-      <c r="N457" s="209"/>
+      <c r="N457" s="206"/>
       <c r="O457" s="29"/>
       <c r="P457" s="100"/>
       <c r="Q457" s="109"/>
@@ -20164,7 +20243,7 @@
       <c r="K458" s="118"/>
       <c r="L458" s="118"/>
       <c r="M458" s="119"/>
-      <c r="N458" s="209"/>
+      <c r="N458" s="206"/>
       <c r="O458" s="29"/>
       <c r="P458" s="100"/>
       <c r="Q458" s="109"/>
@@ -20240,7 +20319,7 @@
       <c r="K460" s="107"/>
       <c r="L460" s="107"/>
       <c r="M460" s="118"/>
-      <c r="N460" s="210"/>
+      <c r="N460" s="207"/>
       <c r="O460" s="29"/>
       <c r="P460" s="100"/>
       <c r="Q460" s="109"/>
@@ -20316,7 +20395,7 @@
       <c r="K462" s="118"/>
       <c r="L462" s="118"/>
       <c r="M462" s="119"/>
-      <c r="N462" s="209"/>
+      <c r="N462" s="206"/>
       <c r="O462" s="29"/>
       <c r="P462" s="100"/>
       <c r="Q462" s="109"/>
@@ -20354,7 +20433,7 @@
       <c r="K463" s="118"/>
       <c r="L463" s="118"/>
       <c r="M463" s="119"/>
-      <c r="N463" s="209"/>
+      <c r="N463" s="206"/>
       <c r="O463" s="29"/>
       <c r="P463" s="100"/>
       <c r="Q463" s="109"/>
@@ -20392,7 +20471,7 @@
       <c r="K464" s="118"/>
       <c r="L464" s="118"/>
       <c r="M464" s="119"/>
-      <c r="N464" s="209"/>
+      <c r="N464" s="206"/>
       <c r="O464" s="29"/>
       <c r="P464" s="100"/>
       <c r="Q464" s="109"/>
@@ -20468,7 +20547,7 @@
       <c r="K466" s="118"/>
       <c r="L466" s="118"/>
       <c r="M466" s="119"/>
-      <c r="N466" s="209"/>
+      <c r="N466" s="206"/>
       <c r="O466" s="29"/>
       <c r="P466" s="100"/>
       <c r="Q466" s="109"/>
@@ -20506,7 +20585,7 @@
       <c r="K467" s="118"/>
       <c r="L467" s="118"/>
       <c r="M467" s="119"/>
-      <c r="N467" s="209"/>
+      <c r="N467" s="206"/>
       <c r="O467" s="29"/>
       <c r="P467" s="100"/>
       <c r="Q467" s="109"/>
@@ -20582,7 +20661,7 @@
       <c r="K469" s="107"/>
       <c r="L469" s="107"/>
       <c r="M469" s="118"/>
-      <c r="N469" s="210"/>
+      <c r="N469" s="207"/>
       <c r="O469" s="29"/>
       <c r="P469" s="100"/>
       <c r="Q469" s="109"/>
@@ -20620,7 +20699,7 @@
       <c r="K470" s="118"/>
       <c r="L470" s="118"/>
       <c r="M470" s="119"/>
-      <c r="N470" s="208"/>
+      <c r="N470" s="205"/>
       <c r="O470" s="42"/>
       <c r="P470" s="104"/>
       <c r="Q470" s="111"/>
@@ -20658,7 +20737,7 @@
       <c r="K471" s="118"/>
       <c r="L471" s="118"/>
       <c r="M471" s="119"/>
-      <c r="N471" s="208"/>
+      <c r="N471" s="205"/>
       <c r="O471" s="42"/>
       <c r="P471" s="104"/>
       <c r="Q471" s="111"/>
@@ -20734,7 +20813,7 @@
       <c r="K473" s="118"/>
       <c r="L473" s="118"/>
       <c r="M473" s="120"/>
-      <c r="N473" s="209"/>
+      <c r="N473" s="206"/>
       <c r="O473" s="29"/>
       <c r="P473" s="100"/>
       <c r="Q473" s="109"/>
@@ -20772,7 +20851,7 @@
       <c r="K474" s="118"/>
       <c r="L474" s="118"/>
       <c r="M474" s="119"/>
-      <c r="N474" s="209"/>
+      <c r="N474" s="206"/>
       <c r="O474" s="29"/>
       <c r="P474" s="100"/>
       <c r="Q474" s="109"/>
@@ -20848,7 +20927,7 @@
       <c r="K476" s="118"/>
       <c r="L476" s="118"/>
       <c r="M476" s="119"/>
-      <c r="N476" s="209"/>
+      <c r="N476" s="206"/>
       <c r="O476" s="29"/>
       <c r="P476" s="100"/>
       <c r="Q476" s="109"/>
@@ -20886,7 +20965,7 @@
       <c r="K477" s="118"/>
       <c r="L477" s="118"/>
       <c r="M477" s="119"/>
-      <c r="N477" s="209"/>
+      <c r="N477" s="206"/>
       <c r="O477" s="29"/>
       <c r="P477" s="100"/>
       <c r="Q477" s="109"/>
@@ -20924,7 +21003,7 @@
       <c r="K478" s="118"/>
       <c r="L478" s="118"/>
       <c r="M478" s="119"/>
-      <c r="N478" s="209"/>
+      <c r="N478" s="206"/>
       <c r="O478" s="29"/>
       <c r="P478" s="100"/>
       <c r="Q478" s="109"/>
@@ -21000,7 +21079,7 @@
       <c r="K480" s="118"/>
       <c r="L480" s="118"/>
       <c r="M480" s="119"/>
-      <c r="N480" s="209"/>
+      <c r="N480" s="206"/>
       <c r="O480" s="29"/>
       <c r="P480" s="100"/>
       <c r="Q480" s="109"/>
@@ -21038,7 +21117,7 @@
       <c r="K481" s="118"/>
       <c r="L481" s="118"/>
       <c r="M481" s="119"/>
-      <c r="N481" s="209"/>
+      <c r="N481" s="206"/>
       <c r="O481" s="29"/>
       <c r="P481" s="100"/>
       <c r="Q481" s="109"/>
@@ -21114,7 +21193,7 @@
       <c r="K483" s="107"/>
       <c r="L483" s="107"/>
       <c r="M483" s="118"/>
-      <c r="N483" s="210"/>
+      <c r="N483" s="207"/>
       <c r="O483" s="29"/>
       <c r="P483" s="100"/>
       <c r="Q483" s="109"/>
@@ -21190,7 +21269,7 @@
       <c r="K485" s="118"/>
       <c r="L485" s="118"/>
       <c r="M485" s="119"/>
-      <c r="N485" s="209"/>
+      <c r="N485" s="206"/>
       <c r="O485" s="29"/>
       <c r="P485" s="100"/>
       <c r="Q485" s="109"/>
@@ -21228,7 +21307,7 @@
       <c r="K486" s="118"/>
       <c r="L486" s="118"/>
       <c r="M486" s="119"/>
-      <c r="N486" s="209"/>
+      <c r="N486" s="206"/>
       <c r="O486" s="29"/>
       <c r="P486" s="100"/>
       <c r="Q486" s="109"/>
@@ -21266,7 +21345,7 @@
       <c r="K487" s="118"/>
       <c r="L487" s="118"/>
       <c r="M487" s="119"/>
-      <c r="N487" s="209"/>
+      <c r="N487" s="206"/>
       <c r="O487" s="29"/>
       <c r="P487" s="100"/>
       <c r="Q487" s="109"/>
@@ -21342,7 +21421,7 @@
       <c r="K489" s="118"/>
       <c r="L489" s="118"/>
       <c r="M489" s="119"/>
-      <c r="N489" s="209"/>
+      <c r="N489" s="206"/>
       <c r="O489" s="29"/>
       <c r="P489" s="100"/>
       <c r="Q489" s="109"/>
@@ -21380,7 +21459,7 @@
       <c r="K490" s="118"/>
       <c r="L490" s="118"/>
       <c r="M490" s="119"/>
-      <c r="N490" s="209"/>
+      <c r="N490" s="206"/>
       <c r="O490" s="29"/>
       <c r="P490" s="100"/>
       <c r="Q490" s="109"/>
@@ -21456,7 +21535,7 @@
       <c r="K492" s="107"/>
       <c r="L492" s="107"/>
       <c r="M492" s="118"/>
-      <c r="N492" s="210"/>
+      <c r="N492" s="207"/>
       <c r="O492" s="29"/>
       <c r="P492" s="100"/>
       <c r="Q492" s="109"/>
@@ -21494,7 +21573,7 @@
       <c r="K493" s="118"/>
       <c r="L493" s="118"/>
       <c r="M493" s="119"/>
-      <c r="N493" s="208"/>
+      <c r="N493" s="205"/>
       <c r="O493" s="42"/>
       <c r="P493" s="104"/>
       <c r="Q493" s="111"/>
@@ -21532,7 +21611,7 @@
       <c r="K494" s="118"/>
       <c r="L494" s="118"/>
       <c r="M494" s="119"/>
-      <c r="N494" s="208"/>
+      <c r="N494" s="205"/>
       <c r="O494" s="42"/>
       <c r="P494" s="104"/>
       <c r="Q494" s="111"/>
@@ -21608,7 +21687,7 @@
       <c r="K496" s="118"/>
       <c r="L496" s="118"/>
       <c r="M496" s="120"/>
-      <c r="N496" s="209"/>
+      <c r="N496" s="206"/>
       <c r="O496" s="29"/>
       <c r="P496" s="100"/>
       <c r="Q496" s="109"/>
@@ -21646,7 +21725,7 @@
       <c r="K497" s="118"/>
       <c r="L497" s="118"/>
       <c r="M497" s="119"/>
-      <c r="N497" s="209"/>
+      <c r="N497" s="206"/>
       <c r="O497" s="29"/>
       <c r="P497" s="100"/>
       <c r="Q497" s="109"/>
@@ -21722,7 +21801,7 @@
       <c r="K499" s="118"/>
       <c r="L499" s="118"/>
       <c r="M499" s="119"/>
-      <c r="N499" s="209"/>
+      <c r="N499" s="206"/>
       <c r="O499" s="29"/>
       <c r="P499" s="100"/>
       <c r="Q499" s="109"/>
@@ -21760,7 +21839,7 @@
       <c r="K500" s="118"/>
       <c r="L500" s="118"/>
       <c r="M500" s="119"/>
-      <c r="N500" s="209"/>
+      <c r="N500" s="206"/>
       <c r="O500" s="29"/>
       <c r="P500" s="100"/>
       <c r="Q500" s="109"/>
@@ -21798,7 +21877,7 @@
       <c r="K501" s="118"/>
       <c r="L501" s="118"/>
       <c r="M501" s="119"/>
-      <c r="N501" s="209"/>
+      <c r="N501" s="206"/>
       <c r="O501" s="29"/>
       <c r="P501" s="100"/>
       <c r="Q501" s="109"/>
@@ -21874,7 +21953,7 @@
       <c r="K503" s="118"/>
       <c r="L503" s="118"/>
       <c r="M503" s="119"/>
-      <c r="N503" s="209"/>
+      <c r="N503" s="206"/>
       <c r="O503" s="29"/>
       <c r="P503" s="100"/>
       <c r="Q503" s="109"/>
@@ -21912,7 +21991,7 @@
       <c r="K504" s="118"/>
       <c r="L504" s="118"/>
       <c r="M504" s="119"/>
-      <c r="N504" s="209"/>
+      <c r="N504" s="206"/>
       <c r="O504" s="29"/>
       <c r="P504" s="100"/>
       <c r="Q504" s="109"/>
@@ -21988,7 +22067,7 @@
       <c r="K506" s="107"/>
       <c r="L506" s="107"/>
       <c r="M506" s="118"/>
-      <c r="N506" s="210"/>
+      <c r="N506" s="207"/>
       <c r="O506" s="29"/>
       <c r="P506" s="100"/>
       <c r="Q506" s="109"/>
@@ -22064,7 +22143,7 @@
       <c r="K508" s="118"/>
       <c r="L508" s="118"/>
       <c r="M508" s="119"/>
-      <c r="N508" s="209"/>
+      <c r="N508" s="206"/>
       <c r="O508" s="29"/>
       <c r="P508" s="100"/>
       <c r="Q508" s="109"/>
@@ -22102,7 +22181,7 @@
       <c r="K509" s="118"/>
       <c r="L509" s="118"/>
       <c r="M509" s="119"/>
-      <c r="N509" s="209"/>
+      <c r="N509" s="206"/>
       <c r="O509" s="29"/>
       <c r="P509" s="100"/>
       <c r="Q509" s="109"/>
@@ -22140,7 +22219,7 @@
       <c r="K510" s="118"/>
       <c r="L510" s="118"/>
       <c r="M510" s="119"/>
-      <c r="N510" s="209"/>
+      <c r="N510" s="206"/>
       <c r="O510" s="29"/>
       <c r="P510" s="100"/>
       <c r="Q510" s="109"/>
@@ -22216,7 +22295,7 @@
       <c r="K512" s="118"/>
       <c r="L512" s="118"/>
       <c r="M512" s="119"/>
-      <c r="N512" s="209"/>
+      <c r="N512" s="206"/>
       <c r="O512" s="29"/>
       <c r="P512" s="100"/>
       <c r="Q512" s="109"/>
@@ -22254,7 +22333,7 @@
       <c r="K513" s="118"/>
       <c r="L513" s="118"/>
       <c r="M513" s="119"/>
-      <c r="N513" s="209"/>
+      <c r="N513" s="206"/>
       <c r="O513" s="29"/>
       <c r="P513" s="100"/>
       <c r="Q513" s="109"/>
@@ -22330,7 +22409,7 @@
       <c r="K515" s="107"/>
       <c r="L515" s="107"/>
       <c r="M515" s="118"/>
-      <c r="N515" s="210"/>
+      <c r="N515" s="207"/>
       <c r="O515" s="29"/>
       <c r="P515" s="100"/>
       <c r="Q515" s="109"/>
@@ -22368,7 +22447,7 @@
       <c r="K516" s="118"/>
       <c r="L516" s="118"/>
       <c r="M516" s="119"/>
-      <c r="N516" s="208"/>
+      <c r="N516" s="205"/>
       <c r="O516" s="42"/>
       <c r="P516" s="104"/>
       <c r="Q516" s="111"/>
@@ -22406,7 +22485,7 @@
       <c r="K517" s="118"/>
       <c r="L517" s="118"/>
       <c r="M517" s="119"/>
-      <c r="N517" s="208"/>
+      <c r="N517" s="205"/>
       <c r="O517" s="42"/>
       <c r="P517" s="104"/>
       <c r="Q517" s="111"/>
@@ -22482,7 +22561,7 @@
       <c r="K519" s="118"/>
       <c r="L519" s="118"/>
       <c r="M519" s="120"/>
-      <c r="N519" s="209"/>
+      <c r="N519" s="206"/>
       <c r="O519" s="29"/>
       <c r="P519" s="100"/>
       <c r="Q519" s="109"/>
@@ -22520,7 +22599,7 @@
       <c r="K520" s="118"/>
       <c r="L520" s="118"/>
       <c r="M520" s="119"/>
-      <c r="N520" s="209"/>
+      <c r="N520" s="206"/>
       <c r="O520" s="29"/>
       <c r="P520" s="100"/>
       <c r="Q520" s="109"/>
@@ -22596,7 +22675,7 @@
       <c r="K522" s="118"/>
       <c r="L522" s="118"/>
       <c r="M522" s="119"/>
-      <c r="N522" s="209"/>
+      <c r="N522" s="206"/>
       <c r="O522" s="29"/>
       <c r="P522" s="100"/>
       <c r="Q522" s="109"/>
@@ -22634,7 +22713,7 @@
       <c r="K523" s="118"/>
       <c r="L523" s="118"/>
       <c r="M523" s="119"/>
-      <c r="N523" s="209"/>
+      <c r="N523" s="206"/>
       <c r="O523" s="29"/>
       <c r="P523" s="100"/>
       <c r="Q523" s="109"/>
@@ -22672,7 +22751,7 @@
       <c r="K524" s="118"/>
       <c r="L524" s="118"/>
       <c r="M524" s="119"/>
-      <c r="N524" s="209"/>
+      <c r="N524" s="206"/>
       <c r="O524" s="29"/>
       <c r="P524" s="100"/>
       <c r="Q524" s="109"/>
@@ -22748,7 +22827,7 @@
       <c r="K526" s="118"/>
       <c r="L526" s="118"/>
       <c r="M526" s="119"/>
-      <c r="N526" s="209"/>
+      <c r="N526" s="206"/>
       <c r="O526" s="29"/>
       <c r="P526" s="100"/>
       <c r="Q526" s="109"/>
@@ -22786,7 +22865,7 @@
       <c r="K527" s="118"/>
       <c r="L527" s="118"/>
       <c r="M527" s="119"/>
-      <c r="N527" s="209"/>
+      <c r="N527" s="206"/>
       <c r="O527" s="29"/>
       <c r="P527" s="100"/>
       <c r="Q527" s="109"/>
@@ -22862,7 +22941,7 @@
       <c r="K529" s="107"/>
       <c r="L529" s="107"/>
       <c r="M529" s="118"/>
-      <c r="N529" s="210"/>
+      <c r="N529" s="207"/>
       <c r="O529" s="29"/>
       <c r="P529" s="100"/>
       <c r="Q529" s="109"/>
@@ -22938,7 +23017,7 @@
       <c r="K531" s="118"/>
       <c r="L531" s="118"/>
       <c r="M531" s="119"/>
-      <c r="N531" s="209"/>
+      <c r="N531" s="206"/>
       <c r="O531" s="29"/>
       <c r="P531" s="100"/>
       <c r="Q531" s="109"/>
@@ -22976,7 +23055,7 @@
       <c r="K532" s="118"/>
       <c r="L532" s="118"/>
       <c r="M532" s="119"/>
-      <c r="N532" s="209"/>
+      <c r="N532" s="206"/>
       <c r="O532" s="29"/>
       <c r="P532" s="100"/>
       <c r="Q532" s="109"/>
@@ -23014,7 +23093,7 @@
       <c r="K533" s="118"/>
       <c r="L533" s="118"/>
       <c r="M533" s="119"/>
-      <c r="N533" s="209"/>
+      <c r="N533" s="206"/>
       <c r="O533" s="29"/>
       <c r="P533" s="100"/>
       <c r="Q533" s="109"/>
@@ -23090,7 +23169,7 @@
       <c r="K535" s="118"/>
       <c r="L535" s="118"/>
       <c r="M535" s="119"/>
-      <c r="N535" s="209"/>
+      <c r="N535" s="206"/>
       <c r="O535" s="29"/>
       <c r="P535" s="100"/>
       <c r="Q535" s="109"/>
@@ -23128,7 +23207,7 @@
       <c r="K536" s="118"/>
       <c r="L536" s="118"/>
       <c r="M536" s="119"/>
-      <c r="N536" s="209"/>
+      <c r="N536" s="206"/>
       <c r="O536" s="29"/>
       <c r="P536" s="100"/>
       <c r="Q536" s="109"/>
@@ -23204,7 +23283,7 @@
       <c r="K538" s="107"/>
       <c r="L538" s="107"/>
       <c r="M538" s="118"/>
-      <c r="N538" s="210"/>
+      <c r="N538" s="207"/>
       <c r="O538" s="29"/>
       <c r="P538" s="100"/>
       <c r="Q538" s="109"/>
@@ -23242,7 +23321,7 @@
       <c r="K539" s="118"/>
       <c r="L539" s="118"/>
       <c r="M539" s="119"/>
-      <c r="N539" s="208"/>
+      <c r="N539" s="205"/>
       <c r="O539" s="42"/>
       <c r="P539" s="104"/>
       <c r="Q539" s="111"/>
@@ -23280,7 +23359,7 @@
       <c r="K540" s="118"/>
       <c r="L540" s="118"/>
       <c r="M540" s="119"/>
-      <c r="N540" s="208"/>
+      <c r="N540" s="205"/>
       <c r="O540" s="42"/>
       <c r="P540" s="104"/>
       <c r="Q540" s="111"/>
@@ -23356,7 +23435,7 @@
       <c r="K542" s="118"/>
       <c r="L542" s="118"/>
       <c r="M542" s="120"/>
-      <c r="N542" s="209"/>
+      <c r="N542" s="206"/>
       <c r="O542" s="29"/>
       <c r="P542" s="100"/>
       <c r="Q542" s="109"/>
@@ -23394,7 +23473,7 @@
       <c r="K543" s="118"/>
       <c r="L543" s="118"/>
       <c r="M543" s="119"/>
-      <c r="N543" s="209"/>
+      <c r="N543" s="206"/>
       <c r="O543" s="29"/>
       <c r="P543" s="100"/>
       <c r="Q543" s="109"/>
@@ -23470,7 +23549,7 @@
       <c r="K545" s="118"/>
       <c r="L545" s="118"/>
       <c r="M545" s="119"/>
-      <c r="N545" s="209"/>
+      <c r="N545" s="206"/>
       <c r="O545" s="29"/>
       <c r="P545" s="100"/>
       <c r="Q545" s="109"/>
@@ -23508,7 +23587,7 @@
       <c r="K546" s="118"/>
       <c r="L546" s="118"/>
       <c r="M546" s="119"/>
-      <c r="N546" s="209"/>
+      <c r="N546" s="206"/>
       <c r="O546" s="29"/>
       <c r="P546" s="100"/>
       <c r="Q546" s="109"/>
@@ -23546,7 +23625,7 @@
       <c r="K547" s="118"/>
       <c r="L547" s="118"/>
       <c r="M547" s="119"/>
-      <c r="N547" s="209"/>
+      <c r="N547" s="206"/>
       <c r="O547" s="29"/>
       <c r="P547" s="100"/>
       <c r="Q547" s="109"/>
@@ -23622,7 +23701,7 @@
       <c r="K549" s="118"/>
       <c r="L549" s="118"/>
       <c r="M549" s="119"/>
-      <c r="N549" s="209"/>
+      <c r="N549" s="206"/>
       <c r="O549" s="29"/>
       <c r="P549" s="100"/>
       <c r="Q549" s="109"/>
@@ -23660,7 +23739,7 @@
       <c r="K550" s="118"/>
       <c r="L550" s="118"/>
       <c r="M550" s="119"/>
-      <c r="N550" s="209"/>
+      <c r="N550" s="206"/>
       <c r="O550" s="29"/>
       <c r="P550" s="100"/>
       <c r="Q550" s="109"/>
@@ -23736,7 +23815,7 @@
       <c r="K552" s="107"/>
       <c r="L552" s="107"/>
       <c r="M552" s="118"/>
-      <c r="N552" s="210"/>
+      <c r="N552" s="207"/>
       <c r="O552" s="29"/>
       <c r="P552" s="100"/>
       <c r="Q552" s="109"/>
@@ -23812,7 +23891,7 @@
       <c r="K554" s="118"/>
       <c r="L554" s="118"/>
       <c r="M554" s="119"/>
-      <c r="N554" s="209"/>
+      <c r="N554" s="206"/>
       <c r="O554" s="29"/>
       <c r="P554" s="100"/>
       <c r="Q554" s="109"/>
@@ -23850,7 +23929,7 @@
       <c r="K555" s="118"/>
       <c r="L555" s="118"/>
       <c r="M555" s="119"/>
-      <c r="N555" s="209"/>
+      <c r="N555" s="206"/>
       <c r="O555" s="29"/>
       <c r="P555" s="100"/>
       <c r="Q555" s="109"/>
@@ -23888,7 +23967,7 @@
       <c r="K556" s="118"/>
       <c r="L556" s="118"/>
       <c r="M556" s="119"/>
-      <c r="N556" s="209"/>
+      <c r="N556" s="206"/>
       <c r="O556" s="29"/>
       <c r="P556" s="100"/>
       <c r="Q556" s="109"/>
@@ -23964,7 +24043,7 @@
       <c r="K558" s="118"/>
       <c r="L558" s="118"/>
       <c r="M558" s="119"/>
-      <c r="N558" s="209"/>
+      <c r="N558" s="206"/>
       <c r="O558" s="29"/>
       <c r="P558" s="100"/>
       <c r="Q558" s="109"/>
@@ -24002,7 +24081,7 @@
       <c r="K559" s="118"/>
       <c r="L559" s="118"/>
       <c r="M559" s="119"/>
-      <c r="N559" s="209"/>
+      <c r="N559" s="206"/>
       <c r="O559" s="29"/>
       <c r="P559" s="100"/>
       <c r="Q559" s="109"/>
@@ -24078,7 +24157,7 @@
       <c r="K561" s="107"/>
       <c r="L561" s="107"/>
       <c r="M561" s="118"/>
-      <c r="N561" s="210"/>
+      <c r="N561" s="207"/>
       <c r="O561" s="29"/>
       <c r="P561" s="100"/>
       <c r="Q561" s="109"/>
@@ -24116,7 +24195,7 @@
       <c r="K562" s="118"/>
       <c r="L562" s="118"/>
       <c r="M562" s="119"/>
-      <c r="N562" s="208"/>
+      <c r="N562" s="205"/>
       <c r="O562" s="42"/>
       <c r="P562" s="104"/>
       <c r="Q562" s="111"/>
@@ -24154,7 +24233,7 @@
       <c r="K563" s="118"/>
       <c r="L563" s="118"/>
       <c r="M563" s="119"/>
-      <c r="N563" s="208"/>
+      <c r="N563" s="205"/>
       <c r="O563" s="42"/>
       <c r="P563" s="104"/>
       <c r="Q563" s="111"/>
@@ -24230,7 +24309,7 @@
       <c r="K565" s="118"/>
       <c r="L565" s="118"/>
       <c r="M565" s="120"/>
-      <c r="N565" s="209"/>
+      <c r="N565" s="206"/>
       <c r="O565" s="29"/>
       <c r="P565" s="100"/>
       <c r="Q565" s="109"/>
@@ -24268,7 +24347,7 @@
       <c r="K566" s="118"/>
       <c r="L566" s="118"/>
       <c r="M566" s="119"/>
-      <c r="N566" s="209"/>
+      <c r="N566" s="206"/>
       <c r="O566" s="29"/>
       <c r="P566" s="100"/>
       <c r="Q566" s="109"/>
@@ -24344,7 +24423,7 @@
       <c r="K568" s="118"/>
       <c r="L568" s="118"/>
       <c r="M568" s="119"/>
-      <c r="N568" s="209"/>
+      <c r="N568" s="206"/>
       <c r="O568" s="29"/>
       <c r="P568" s="100"/>
       <c r="Q568" s="109"/>
@@ -24382,7 +24461,7 @@
       <c r="K569" s="118"/>
       <c r="L569" s="118"/>
       <c r="M569" s="119"/>
-      <c r="N569" s="209"/>
+      <c r="N569" s="206"/>
       <c r="O569" s="29"/>
       <c r="P569" s="100"/>
       <c r="Q569" s="109"/>
@@ -24420,7 +24499,7 @@
       <c r="K570" s="118"/>
       <c r="L570" s="118"/>
       <c r="M570" s="119"/>
-      <c r="N570" s="209"/>
+      <c r="N570" s="206"/>
       <c r="O570" s="29"/>
       <c r="P570" s="100"/>
       <c r="Q570" s="109"/>
@@ -24496,7 +24575,7 @@
       <c r="K572" s="118"/>
       <c r="L572" s="118"/>
       <c r="M572" s="119"/>
-      <c r="N572" s="209"/>
+      <c r="N572" s="206"/>
       <c r="O572" s="29"/>
       <c r="P572" s="100"/>
       <c r="Q572" s="109"/>
@@ -24534,7 +24613,7 @@
       <c r="K573" s="118"/>
       <c r="L573" s="118"/>
       <c r="M573" s="119"/>
-      <c r="N573" s="209"/>
+      <c r="N573" s="206"/>
       <c r="O573" s="29"/>
       <c r="P573" s="100"/>
       <c r="Q573" s="109"/>
@@ -24610,7 +24689,7 @@
       <c r="K575" s="107"/>
       <c r="L575" s="107"/>
       <c r="M575" s="118"/>
-      <c r="N575" s="210"/>
+      <c r="N575" s="207"/>
       <c r="O575" s="29"/>
       <c r="P575" s="100"/>
       <c r="Q575" s="109"/>
@@ -24686,7 +24765,7 @@
       <c r="K577" s="118"/>
       <c r="L577" s="118"/>
       <c r="M577" s="119"/>
-      <c r="N577" s="209"/>
+      <c r="N577" s="206"/>
       <c r="O577" s="29"/>
       <c r="P577" s="100"/>
       <c r="Q577" s="109"/>
@@ -24724,7 +24803,7 @@
       <c r="K578" s="118"/>
       <c r="L578" s="118"/>
       <c r="M578" s="119"/>
-      <c r="N578" s="209"/>
+      <c r="N578" s="206"/>
       <c r="O578" s="29"/>
       <c r="P578" s="100"/>
       <c r="Q578" s="109"/>
@@ -24762,7 +24841,7 @@
       <c r="K579" s="118"/>
       <c r="L579" s="118"/>
       <c r="M579" s="119"/>
-      <c r="N579" s="209"/>
+      <c r="N579" s="206"/>
       <c r="O579" s="29"/>
       <c r="P579" s="100"/>
       <c r="Q579" s="109"/>
@@ -24838,7 +24917,7 @@
       <c r="K581" s="118"/>
       <c r="L581" s="118"/>
       <c r="M581" s="119"/>
-      <c r="N581" s="209"/>
+      <c r="N581" s="206"/>
       <c r="O581" s="29"/>
       <c r="P581" s="100"/>
       <c r="Q581" s="109"/>
@@ -24876,7 +24955,7 @@
       <c r="K582" s="118"/>
       <c r="L582" s="118"/>
       <c r="M582" s="119"/>
-      <c r="N582" s="209"/>
+      <c r="N582" s="206"/>
       <c r="O582" s="29"/>
       <c r="P582" s="100"/>
       <c r="Q582" s="109"/>
@@ -24952,7 +25031,7 @@
       <c r="K584" s="107"/>
       <c r="L584" s="107"/>
       <c r="M584" s="118"/>
-      <c r="N584" s="210"/>
+      <c r="N584" s="207"/>
       <c r="O584" s="29"/>
       <c r="P584" s="100"/>
       <c r="Q584" s="109"/>
@@ -24990,7 +25069,7 @@
       <c r="K585" s="118"/>
       <c r="L585" s="118"/>
       <c r="M585" s="119"/>
-      <c r="N585" s="208"/>
+      <c r="N585" s="205"/>
       <c r="O585" s="42"/>
       <c r="P585" s="104"/>
       <c r="Q585" s="111"/>
@@ -25028,7 +25107,7 @@
       <c r="K586" s="118"/>
       <c r="L586" s="118"/>
       <c r="M586" s="119"/>
-      <c r="N586" s="208"/>
+      <c r="N586" s="205"/>
       <c r="O586" s="42"/>
       <c r="P586" s="104"/>
       <c r="Q586" s="111"/>
@@ -25104,7 +25183,7 @@
       <c r="K588" s="118"/>
       <c r="L588" s="118"/>
       <c r="M588" s="120"/>
-      <c r="N588" s="209"/>
+      <c r="N588" s="206"/>
       <c r="O588" s="29"/>
       <c r="P588" s="100"/>
       <c r="Q588" s="109"/>
@@ -25142,7 +25221,7 @@
       <c r="K589" s="118"/>
       <c r="L589" s="118"/>
       <c r="M589" s="119"/>
-      <c r="N589" s="209"/>
+      <c r="N589" s="206"/>
       <c r="O589" s="29"/>
       <c r="P589" s="100"/>
       <c r="Q589" s="109"/>
@@ -25218,7 +25297,7 @@
       <c r="K591" s="118"/>
       <c r="L591" s="118"/>
       <c r="M591" s="119"/>
-      <c r="N591" s="209"/>
+      <c r="N591" s="206"/>
       <c r="O591" s="29"/>
       <c r="P591" s="100"/>
       <c r="Q591" s="109"/>
@@ -25256,7 +25335,7 @@
       <c r="K592" s="118"/>
       <c r="L592" s="118"/>
       <c r="M592" s="119"/>
-      <c r="N592" s="209"/>
+      <c r="N592" s="206"/>
       <c r="O592" s="29"/>
       <c r="P592" s="100"/>
       <c r="Q592" s="109"/>
@@ -25294,7 +25373,7 @@
       <c r="K593" s="118"/>
       <c r="L593" s="118"/>
       <c r="M593" s="119"/>
-      <c r="N593" s="209"/>
+      <c r="N593" s="206"/>
       <c r="O593" s="29"/>
       <c r="P593" s="100"/>
       <c r="Q593" s="109"/>
@@ -25370,7 +25449,7 @@
       <c r="K595" s="118"/>
       <c r="L595" s="118"/>
       <c r="M595" s="119"/>
-      <c r="N595" s="209"/>
+      <c r="N595" s="206"/>
       <c r="O595" s="29"/>
       <c r="P595" s="100"/>
       <c r="Q595" s="109"/>
@@ -25408,7 +25487,7 @@
       <c r="K596" s="118"/>
       <c r="L596" s="118"/>
       <c r="M596" s="119"/>
-      <c r="N596" s="209"/>
+      <c r="N596" s="206"/>
       <c r="O596" s="29"/>
       <c r="P596" s="100"/>
       <c r="Q596" s="109"/>
@@ -25484,7 +25563,7 @@
       <c r="K598" s="107"/>
       <c r="L598" s="107"/>
       <c r="M598" s="118"/>
-      <c r="N598" s="210"/>
+      <c r="N598" s="207"/>
       <c r="O598" s="29"/>
       <c r="P598" s="100"/>
       <c r="Q598" s="109"/>
@@ -25560,7 +25639,7 @@
       <c r="K600" s="118"/>
       <c r="L600" s="118"/>
       <c r="M600" s="119"/>
-      <c r="N600" s="209"/>
+      <c r="N600" s="206"/>
       <c r="O600" s="29"/>
       <c r="P600" s="100"/>
       <c r="Q600" s="109"/>
@@ -25598,7 +25677,7 @@
       <c r="K601" s="118"/>
       <c r="L601" s="118"/>
       <c r="M601" s="119"/>
-      <c r="N601" s="209"/>
+      <c r="N601" s="206"/>
       <c r="O601" s="29"/>
       <c r="P601" s="100"/>
       <c r="Q601" s="109"/>
@@ -25636,7 +25715,7 @@
       <c r="K602" s="118"/>
       <c r="L602" s="118"/>
       <c r="M602" s="119"/>
-      <c r="N602" s="209"/>
+      <c r="N602" s="206"/>
       <c r="O602" s="29"/>
       <c r="P602" s="100"/>
       <c r="Q602" s="109"/>
@@ -25712,7 +25791,7 @@
       <c r="K604" s="118"/>
       <c r="L604" s="118"/>
       <c r="M604" s="119"/>
-      <c r="N604" s="209"/>
+      <c r="N604" s="206"/>
       <c r="O604" s="29"/>
       <c r="P604" s="100"/>
       <c r="Q604" s="109"/>
@@ -25750,7 +25829,7 @@
       <c r="K605" s="118"/>
       <c r="L605" s="118"/>
       <c r="M605" s="119"/>
-      <c r="N605" s="209"/>
+      <c r="N605" s="206"/>
       <c r="O605" s="29"/>
       <c r="P605" s="100"/>
       <c r="Q605" s="109"/>
@@ -25826,7 +25905,7 @@
       <c r="K607" s="107"/>
       <c r="L607" s="107"/>
       <c r="M607" s="118"/>
-      <c r="N607" s="210"/>
+      <c r="N607" s="207"/>
       <c r="O607" s="29"/>
       <c r="P607" s="100"/>
       <c r="Q607" s="109"/>
@@ -25864,7 +25943,7 @@
       <c r="K608" s="118"/>
       <c r="L608" s="118"/>
       <c r="M608" s="119"/>
-      <c r="N608" s="208"/>
+      <c r="N608" s="205"/>
       <c r="O608" s="42"/>
       <c r="P608" s="104"/>
       <c r="Q608" s="111"/>
@@ -25902,7 +25981,7 @@
       <c r="K609" s="118"/>
       <c r="L609" s="118"/>
       <c r="M609" s="119"/>
-      <c r="N609" s="208"/>
+      <c r="N609" s="205"/>
       <c r="O609" s="42"/>
       <c r="P609" s="104"/>
       <c r="Q609" s="111"/>
@@ -25978,7 +26057,7 @@
       <c r="K611" s="118"/>
       <c r="L611" s="118"/>
       <c r="M611" s="120"/>
-      <c r="N611" s="209"/>
+      <c r="N611" s="206"/>
       <c r="O611" s="29"/>
       <c r="P611" s="100"/>
       <c r="Q611" s="109"/>
@@ -26016,7 +26095,7 @@
       <c r="K612" s="118"/>
       <c r="L612" s="118"/>
       <c r="M612" s="119"/>
-      <c r="N612" s="209"/>
+      <c r="N612" s="206"/>
       <c r="O612" s="29"/>
       <c r="P612" s="100"/>
       <c r="Q612" s="109"/>
@@ -26092,7 +26171,7 @@
       <c r="K614" s="118"/>
       <c r="L614" s="118"/>
       <c r="M614" s="119"/>
-      <c r="N614" s="209"/>
+      <c r="N614" s="206"/>
       <c r="O614" s="29"/>
       <c r="P614" s="100"/>
       <c r="Q614" s="109"/>
@@ -26130,7 +26209,7 @@
       <c r="K615" s="118"/>
       <c r="L615" s="118"/>
       <c r="M615" s="119"/>
-      <c r="N615" s="209"/>
+      <c r="N615" s="206"/>
       <c r="O615" s="29"/>
       <c r="P615" s="100"/>
       <c r="Q615" s="109"/>
@@ -26168,7 +26247,7 @@
       <c r="K616" s="118"/>
       <c r="L616" s="118"/>
       <c r="M616" s="119"/>
-      <c r="N616" s="209"/>
+      <c r="N616" s="206"/>
       <c r="O616" s="29"/>
       <c r="P616" s="100"/>
       <c r="Q616" s="109"/>
@@ -26244,7 +26323,7 @@
       <c r="K618" s="118"/>
       <c r="L618" s="118"/>
       <c r="M618" s="119"/>
-      <c r="N618" s="209"/>
+      <c r="N618" s="206"/>
       <c r="O618" s="29"/>
       <c r="P618" s="100"/>
       <c r="Q618" s="109"/>
@@ -26282,7 +26361,7 @@
       <c r="K619" s="118"/>
       <c r="L619" s="118"/>
       <c r="M619" s="119"/>
-      <c r="N619" s="209"/>
+      <c r="N619" s="206"/>
       <c r="O619" s="29"/>
       <c r="P619" s="100"/>
       <c r="Q619" s="109"/>
@@ -26358,7 +26437,7 @@
       <c r="K621" s="107"/>
       <c r="L621" s="107"/>
       <c r="M621" s="118"/>
-      <c r="N621" s="210"/>
+      <c r="N621" s="207"/>
       <c r="O621" s="29"/>
       <c r="P621" s="100"/>
       <c r="Q621" s="109"/>
@@ -26596,7 +26675,7 @@
   <dimension ref="A1:AV621"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:C80"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -27578,7 +27657,7 @@
         <v>134</v>
       </c>
       <c r="B40" s="149" t="s">
-        <v>190</v>
+        <v>239</v>
       </c>
       <c r="D40" s="66"/>
       <c r="E40" s="67"/>
@@ -52861,8 +52940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:H68"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52937,7 +53016,7 @@
       <c r="B7" s="245" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="251" t="s">
+      <c r="C7" s="250" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="192" t="s">
@@ -52948,14 +53027,14 @@
         <v>127</v>
       </c>
       <c r="G7" s="192"/>
-      <c r="H7" s="197"/>
+      <c r="H7" s="194"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>2</v>
       </c>
       <c r="B8" s="246"/>
-      <c r="C8" s="251"/>
+      <c r="C8" s="250"/>
       <c r="D8" s="192" t="s">
         <v>49</v>
       </c>
@@ -52966,32 +53045,32 @@
         <v>129</v>
       </c>
       <c r="G8" s="192"/>
-      <c r="H8" s="198"/>
+      <c r="H8" s="195"/>
     </row>
     <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>3</v>
       </c>
       <c r="B9" s="246"/>
-      <c r="C9" s="251"/>
+      <c r="C9" s="250"/>
       <c r="D9" s="192" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="192" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F9" s="192">
         <v>75</v>
       </c>
       <c r="G9" s="192"/>
-      <c r="H9" s="199"/>
+      <c r="H9" s="196"/>
     </row>
     <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>4</v>
       </c>
       <c r="B10" s="246"/>
-      <c r="C10" s="251"/>
+      <c r="C10" s="250"/>
       <c r="D10" s="192" t="s">
         <v>51</v>
       </c>
@@ -53002,14 +53081,14 @@
         <v>157</v>
       </c>
       <c r="G10" s="192"/>
-      <c r="H10" s="200"/>
+      <c r="H10" s="197"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>5</v>
       </c>
       <c r="B11" s="246"/>
-      <c r="C11" s="251"/>
+      <c r="C11" s="250"/>
       <c r="D11" s="192" t="s">
         <v>131</v>
       </c>
@@ -53025,7 +53104,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="246"/>
-      <c r="C12" s="194" t="s">
+      <c r="C12" s="213" t="s">
         <v>135</v>
       </c>
       <c r="D12" s="192"/>
@@ -53039,7 +53118,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="246"/>
-      <c r="C13" s="194" t="s">
+      <c r="C13" s="213" t="s">
         <v>136</v>
       </c>
       <c r="D13" s="192" t="s">
@@ -53059,7 +53138,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="246"/>
-      <c r="C14" s="194" t="s">
+      <c r="C14" s="213" t="s">
         <v>159</v>
       </c>
       <c r="D14" s="192" t="s">
@@ -53079,7 +53158,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="246"/>
-      <c r="C15" s="194" t="s">
+      <c r="C15" s="213" t="s">
         <v>138</v>
       </c>
       <c r="D15" s="192"/>
@@ -53097,14 +53176,14 @@
         <v>10</v>
       </c>
       <c r="B16" s="246"/>
-      <c r="C16" s="255" t="s">
+      <c r="C16" s="254" t="s">
         <v>110</v>
       </c>
       <c r="D16" s="192" t="s">
         <v>48</v>
       </c>
       <c r="E16" s="192"/>
-      <c r="F16" s="201" t="s">
+      <c r="F16" s="198" t="s">
         <v>151</v>
       </c>
       <c r="G16" s="192"/>
@@ -53115,12 +53194,12 @@
         <v>11</v>
       </c>
       <c r="B17" s="246"/>
-      <c r="C17" s="256"/>
+      <c r="C17" s="255"/>
       <c r="D17" s="192" t="s">
         <v>139</v>
       </c>
       <c r="E17" s="192"/>
-      <c r="F17" s="201" t="s">
+      <c r="F17" s="198" t="s">
         <v>156</v>
       </c>
       <c r="G17" s="192"/>
@@ -53131,7 +53210,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="246"/>
-      <c r="C18" s="256"/>
+      <c r="C18" s="255"/>
       <c r="D18" s="192" t="s">
         <v>50</v>
       </c>
@@ -53147,7 +53226,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="246"/>
-      <c r="C19" s="256"/>
+      <c r="C19" s="255"/>
       <c r="D19" s="192" t="s">
         <v>140</v>
       </c>
@@ -53163,7 +53242,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="246"/>
-      <c r="C20" s="256"/>
+      <c r="C20" s="255"/>
       <c r="D20" s="192" t="s">
         <v>131</v>
       </c>
@@ -53181,8 +53260,8 @@
         <v>15</v>
       </c>
       <c r="B21" s="246"/>
-      <c r="C21" s="257"/>
-      <c r="D21" s="202" t="s">
+      <c r="C21" s="256"/>
+      <c r="D21" s="199" t="s">
         <v>155</v>
       </c>
       <c r="E21" s="192" t="s">
@@ -53199,7 +53278,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="246"/>
-      <c r="C22" s="194" t="s">
+      <c r="C22" s="213" t="s">
         <v>141</v>
       </c>
       <c r="D22" s="192" t="s">
@@ -53219,7 +53298,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="246"/>
-      <c r="C23" s="194" t="s">
+      <c r="C23" s="213" t="s">
         <v>142</v>
       </c>
       <c r="D23" s="192" t="s">
@@ -53237,8 +53316,8 @@
         <v>18</v>
       </c>
       <c r="B24" s="246"/>
-      <c r="C24" s="248" t="s">
-        <v>213</v>
+      <c r="C24" s="247" t="s">
+        <v>210</v>
       </c>
       <c r="D24" s="192" t="s">
         <v>48</v>
@@ -53255,7 +53334,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="246"/>
-      <c r="C25" s="249"/>
+      <c r="C25" s="248"/>
       <c r="D25" s="192" t="s">
         <v>139</v>
       </c>
@@ -53271,7 +53350,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="246"/>
-      <c r="C26" s="249"/>
+      <c r="C26" s="248"/>
       <c r="D26" s="192" t="s">
         <v>50</v>
       </c>
@@ -53287,7 +53366,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="246"/>
-      <c r="C27" s="249"/>
+      <c r="C27" s="248"/>
       <c r="D27" s="192" t="s">
         <v>140</v>
       </c>
@@ -53303,7 +53382,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="246"/>
-      <c r="C28" s="249"/>
+      <c r="C28" s="248"/>
       <c r="D28" s="192" t="s">
         <v>131</v>
       </c>
@@ -53321,15 +53400,15 @@
         <v>23</v>
       </c>
       <c r="B29" s="246"/>
-      <c r="C29" s="250"/>
-      <c r="D29" s="202" t="s">
+      <c r="C29" s="249"/>
+      <c r="D29" s="199" t="s">
         <v>155</v>
       </c>
       <c r="E29" s="192" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
       <c r="F29" s="192">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="G29" s="192"/>
       <c r="H29" s="192"/>
@@ -53339,10 +53418,10 @@
         <v>24</v>
       </c>
       <c r="B30" s="246"/>
-      <c r="C30" s="194" t="s">
-        <v>214</v>
-      </c>
-      <c r="D30" s="202"/>
+      <c r="C30" s="213" t="s">
+        <v>211</v>
+      </c>
+      <c r="D30" s="199"/>
       <c r="E30" s="192"/>
       <c r="F30" s="192"/>
       <c r="G30" s="192"/>
@@ -53353,7 +53432,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="246"/>
-      <c r="C31" s="194" t="s">
+      <c r="C31" s="213" t="s">
         <v>144</v>
       </c>
       <c r="D31" s="192"/>
@@ -53367,7 +53446,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="246"/>
-      <c r="C32" s="252" t="s">
+      <c r="C32" s="251" t="s">
         <v>145</v>
       </c>
       <c r="D32" s="192" t="s">
@@ -53385,12 +53464,12 @@
         <v>27</v>
       </c>
       <c r="B33" s="246"/>
-      <c r="C33" s="254"/>
+      <c r="C33" s="253"/>
       <c r="D33" s="192" t="s">
         <v>139</v>
       </c>
       <c r="E33" s="192"/>
-      <c r="F33" s="201" t="s">
+      <c r="F33" s="198" t="s">
         <v>156</v>
       </c>
       <c r="G33" s="192"/>
@@ -53401,7 +53480,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="246"/>
-      <c r="C34" s="254"/>
+      <c r="C34" s="253"/>
       <c r="D34" s="192" t="s">
         <v>50</v>
       </c>
@@ -53417,7 +53496,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="246"/>
-      <c r="C35" s="254"/>
+      <c r="C35" s="253"/>
       <c r="D35" s="192" t="s">
         <v>140</v>
       </c>
@@ -53433,7 +53512,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="246"/>
-      <c r="C36" s="254"/>
+      <c r="C36" s="253"/>
       <c r="D36" s="192" t="s">
         <v>131</v>
       </c>
@@ -53451,8 +53530,8 @@
         <v>31</v>
       </c>
       <c r="B37" s="246"/>
-      <c r="C37" s="253"/>
-      <c r="D37" s="202" t="s">
+      <c r="C37" s="252"/>
+      <c r="D37" s="199" t="s">
         <v>155</v>
       </c>
       <c r="E37" s="192" t="s">
@@ -53469,7 +53548,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="246"/>
-      <c r="C38" s="196" t="s">
+      <c r="C38" s="214" t="s">
         <v>146</v>
       </c>
       <c r="D38" s="192" t="s">
@@ -53489,7 +53568,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="246"/>
-      <c r="C39" s="196" t="s">
+      <c r="C39" s="214" t="s">
         <v>147</v>
       </c>
       <c r="D39" s="192"/>
@@ -53503,14 +53582,14 @@
         <v>34</v>
       </c>
       <c r="B40" s="246"/>
-      <c r="C40" s="252" t="s">
+      <c r="C40" s="251" t="s">
         <v>148</v>
       </c>
       <c r="D40" s="192" t="s">
         <v>48</v>
       </c>
       <c r="E40" s="192"/>
-      <c r="F40" s="201" t="s">
+      <c r="F40" s="198" t="s">
         <v>160</v>
       </c>
       <c r="G40" s="192"/>
@@ -53521,7 +53600,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="246"/>
-      <c r="C41" s="253"/>
+      <c r="C41" s="252"/>
       <c r="D41" s="192" t="s">
         <v>143</v>
       </c>
@@ -53535,17 +53614,17 @@
         <v>36</v>
       </c>
       <c r="B42" s="246"/>
-      <c r="C42" s="196" t="s">
+      <c r="C42" s="214" t="s">
         <v>149</v>
       </c>
       <c r="D42" s="192" t="s">
         <v>137</v>
       </c>
       <c r="E42" s="193" t="s">
-        <v>130</v>
+        <v>230</v>
       </c>
       <c r="F42" s="192">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="G42" s="192"/>
       <c r="H42" s="192"/>
@@ -53555,7 +53634,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="246"/>
-      <c r="C43" s="196" t="s">
+      <c r="C43" s="214" t="s">
         <v>150</v>
       </c>
       <c r="D43" s="192" t="s">
@@ -53571,7 +53650,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="246"/>
-      <c r="C44" s="194"/>
+      <c r="C44" s="213"/>
       <c r="D44" s="192"/>
       <c r="E44" s="192"/>
       <c r="F44" s="192"/>
@@ -53583,7 +53662,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="246"/>
-      <c r="C45" s="194"/>
+      <c r="C45" s="213"/>
       <c r="D45" s="192"/>
       <c r="E45" s="192"/>
       <c r="F45" s="192"/>
@@ -53595,21 +53674,21 @@
         <v>40</v>
       </c>
       <c r="B46" s="246"/>
-      <c r="C46" s="258" t="s">
+      <c r="C46" s="257" t="s">
         <v>163</v>
       </c>
-      <c r="D46" s="258"/>
-      <c r="E46" s="258"/>
-      <c r="F46" s="258"/>
-      <c r="G46" s="258"/>
-      <c r="H46" s="258"/>
+      <c r="D46" s="257"/>
+      <c r="E46" s="257"/>
+      <c r="F46" s="257"/>
+      <c r="G46" s="257"/>
+      <c r="H46" s="257"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>41</v>
       </c>
       <c r="B47" s="246"/>
-      <c r="C47" s="194" t="s">
+      <c r="C47" s="213" t="s">
         <v>164</v>
       </c>
       <c r="D47" s="192" t="s">
@@ -53627,7 +53706,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="246"/>
-      <c r="C48" s="194" t="s">
+      <c r="C48" s="213" t="s">
         <v>164</v>
       </c>
       <c r="D48" s="192" t="s">
@@ -53647,11 +53726,11 @@
         <v>43</v>
       </c>
       <c r="B49" s="246"/>
-      <c r="C49" s="194"/>
+      <c r="C49" s="213"/>
       <c r="D49" s="192"/>
       <c r="E49" s="192"/>
       <c r="F49" s="192"/>
-      <c r="G49" s="203"/>
+      <c r="G49" s="200"/>
       <c r="H49" s="192"/>
     </row>
     <row r="50" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -53659,21 +53738,21 @@
         <v>44</v>
       </c>
       <c r="B50" s="246"/>
-      <c r="C50" s="258" t="s">
+      <c r="C50" s="257" t="s">
         <v>166</v>
       </c>
-      <c r="D50" s="259"/>
-      <c r="E50" s="259"/>
-      <c r="F50" s="259"/>
-      <c r="G50" s="259"/>
-      <c r="H50" s="260"/>
+      <c r="D50" s="258"/>
+      <c r="E50" s="258"/>
+      <c r="F50" s="258"/>
+      <c r="G50" s="258"/>
+      <c r="H50" s="259"/>
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>45</v>
       </c>
       <c r="B51" s="246"/>
-      <c r="C51" s="194" t="s">
+      <c r="C51" s="213" t="s">
         <v>177</v>
       </c>
       <c r="D51" s="192" t="s">
@@ -53683,7 +53762,7 @@
       <c r="F51" s="193" t="s">
         <v>167</v>
       </c>
-      <c r="G51" s="203"/>
+      <c r="G51" s="200"/>
       <c r="H51" s="192"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -53691,15 +53770,15 @@
         <v>46</v>
       </c>
       <c r="B52" s="246"/>
-      <c r="C52" s="194"/>
+      <c r="C52" s="213"/>
       <c r="D52" s="192" t="s">
         <v>174</v>
       </c>
       <c r="E52" s="192"/>
       <c r="F52" s="193" t="s">
-        <v>175</v>
-      </c>
-      <c r="G52" s="203"/>
+        <v>228</v>
+      </c>
+      <c r="G52" s="200"/>
       <c r="H52" s="192"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -53707,33 +53786,33 @@
         <v>47</v>
       </c>
       <c r="B53" s="246"/>
-      <c r="C53" s="194"/>
+      <c r="C53" s="213"/>
       <c r="D53" s="192" t="s">
         <v>176</v>
       </c>
       <c r="E53" s="193" t="s">
-        <v>130</v>
+        <v>221</v>
       </c>
       <c r="F53" s="193">
-        <v>25</v>
-      </c>
-      <c r="G53" s="203"/>
+        <v>15</v>
+      </c>
+      <c r="G53" s="200"/>
       <c r="H53" s="192"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
         <v>48</v>
       </c>
       <c r="B54" s="246"/>
-      <c r="C54" s="194"/>
+      <c r="C54" s="213"/>
       <c r="D54" s="192" t="s">
         <v>170</v>
       </c>
       <c r="E54" s="192"/>
-      <c r="F54" s="193" t="s">
-        <v>168</v>
-      </c>
-      <c r="G54" s="203"/>
+      <c r="F54" s="192" t="s">
+        <v>229</v>
+      </c>
+      <c r="G54" s="200"/>
       <c r="H54" s="192"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -53741,11 +53820,15 @@
         <v>49</v>
       </c>
       <c r="B55" s="246"/>
-      <c r="C55" s="194"/>
-      <c r="D55" s="192"/>
+      <c r="C55" s="213"/>
+      <c r="D55" s="192" t="s">
+        <v>226</v>
+      </c>
       <c r="E55" s="192"/>
-      <c r="F55" s="192"/>
-      <c r="G55" s="203"/>
+      <c r="F55" s="192" t="s">
+        <v>227</v>
+      </c>
+      <c r="G55" s="200"/>
       <c r="H55" s="192"/>
     </row>
     <row r="56" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -53753,21 +53836,21 @@
         <v>50</v>
       </c>
       <c r="B56" s="246"/>
-      <c r="C56" s="258" t="s">
+      <c r="C56" s="257" t="s">
         <v>171</v>
       </c>
-      <c r="D56" s="259"/>
-      <c r="E56" s="259"/>
-      <c r="F56" s="259"/>
-      <c r="G56" s="259"/>
-      <c r="H56" s="260"/>
+      <c r="D56" s="258"/>
+      <c r="E56" s="258"/>
+      <c r="F56" s="258"/>
+      <c r="G56" s="258"/>
+      <c r="H56" s="259"/>
     </row>
     <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>51</v>
       </c>
       <c r="B57" s="246"/>
-      <c r="C57" s="248" t="s">
+      <c r="C57" s="247" t="s">
         <v>172</v>
       </c>
       <c r="D57" s="192" t="s">
@@ -53785,12 +53868,12 @@
         <v>52</v>
       </c>
       <c r="B58" s="246"/>
-      <c r="C58" s="249"/>
+      <c r="C58" s="248"/>
       <c r="D58" s="192" t="s">
         <v>178</v>
       </c>
       <c r="E58" s="192"/>
-      <c r="F58" s="201" t="s">
+      <c r="F58" s="198" t="s">
         <v>184</v>
       </c>
       <c r="G58" s="192"/>
@@ -53801,7 +53884,7 @@
         <v>53</v>
       </c>
       <c r="B59" s="246"/>
-      <c r="C59" s="250"/>
+      <c r="C59" s="249"/>
       <c r="D59" s="192" t="s">
         <v>179</v>
       </c>
@@ -53809,7 +53892,7 @@
         <v>130</v>
       </c>
       <c r="F59" s="192">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G59" s="192"/>
       <c r="H59" s="192"/>
@@ -53819,7 +53902,7 @@
         <v>54</v>
       </c>
       <c r="B60" s="246"/>
-      <c r="C60" s="248" t="s">
+      <c r="C60" s="247" t="s">
         <v>180</v>
       </c>
       <c r="D60" s="192" t="s">
@@ -53837,7 +53920,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="246"/>
-      <c r="C61" s="249"/>
+      <c r="C61" s="248"/>
       <c r="D61" s="192" t="s">
         <v>139</v>
       </c>
@@ -53853,7 +53936,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="246"/>
-      <c r="C62" s="249"/>
+      <c r="C62" s="248"/>
       <c r="D62" s="192" t="s">
         <v>50</v>
       </c>
@@ -53869,7 +53952,7 @@
         <v>57</v>
       </c>
       <c r="B63" s="246"/>
-      <c r="C63" s="249"/>
+      <c r="C63" s="248"/>
       <c r="D63" s="192" t="s">
         <v>140</v>
       </c>
@@ -53885,7 +53968,7 @@
         <v>58</v>
       </c>
       <c r="B64" s="246"/>
-      <c r="C64" s="249"/>
+      <c r="C64" s="248"/>
       <c r="D64" s="192" t="s">
         <v>131</v>
       </c>
@@ -53903,8 +53986,8 @@
         <v>59</v>
       </c>
       <c r="B65" s="246"/>
-      <c r="C65" s="250"/>
-      <c r="D65" s="202" t="s">
+      <c r="C65" s="249"/>
+      <c r="D65" s="199" t="s">
         <v>155</v>
       </c>
       <c r="E65" s="192" t="s">
@@ -53921,14 +54004,14 @@
         <v>60</v>
       </c>
       <c r="B66" s="246"/>
-      <c r="C66" s="194" t="s">
+      <c r="C66" s="213" t="s">
         <v>181</v>
       </c>
       <c r="D66" s="192" t="s">
         <v>182</v>
       </c>
       <c r="E66" s="192"/>
-      <c r="F66" s="201" t="s">
+      <c r="F66" s="198" t="s">
         <v>186</v>
       </c>
       <c r="G66" s="192"/>
@@ -53939,25 +54022,25 @@
         <v>61</v>
       </c>
       <c r="B67" s="246"/>
-      <c r="C67" s="194"/>
+      <c r="C67" s="213"/>
       <c r="D67" s="192"/>
       <c r="E67" s="192"/>
       <c r="F67" s="192"/>
       <c r="G67" s="192"/>
       <c r="H67" s="192"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
         <v>62</v>
       </c>
-      <c r="B68" s="247"/>
-      <c r="C68" s="195" t="s">
+      <c r="B68" s="246"/>
+      <c r="C68" s="215" t="s">
         <v>183</v>
       </c>
       <c r="D68" s="192"/>
       <c r="E68" s="192"/>
       <c r="F68" s="192" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="G68" s="192"/>
       <c r="H68" s="192"/>
@@ -53986,7 +54069,7 @@
   <dimension ref="A5:H68"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54058,10 +54141,10 @@
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="245" t="s">
+      <c r="B7" s="263" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="261" t="s">
+      <c r="C7" s="266" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -54069,7 +54152,7 @@
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12" t="s">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="176"/>
@@ -54078,8 +54161,8 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="246"/>
-      <c r="C8" s="261"/>
+      <c r="B8" s="264"/>
+      <c r="C8" s="266"/>
       <c r="D8" s="12" t="s">
         <v>49</v>
       </c>
@@ -54096,8 +54179,8 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="246"/>
-      <c r="C9" s="261"/>
+      <c r="B9" s="264"/>
+      <c r="C9" s="266"/>
       <c r="D9" s="12" t="s">
         <v>50</v>
       </c>
@@ -54114,8 +54197,8 @@
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="246"/>
-      <c r="C10" s="261"/>
+      <c r="B10" s="264"/>
+      <c r="C10" s="266"/>
       <c r="D10" s="12" t="s">
         <v>51</v>
       </c>
@@ -54132,8 +54215,8 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="246"/>
-      <c r="C11" s="261"/>
+      <c r="B11" s="264"/>
+      <c r="C11" s="266"/>
       <c r="D11" s="12" t="s">
         <v>131</v>
       </c>
@@ -54148,7 +54231,7 @@
       <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="246"/>
+      <c r="B12" s="264"/>
       <c r="C12" s="186" t="s">
         <v>191</v>
       </c>
@@ -54166,7 +54249,7 @@
       <c r="A13" s="12">
         <v>7</v>
       </c>
-      <c r="B13" s="246"/>
+      <c r="B13" s="264"/>
       <c r="C13" s="186" t="s">
         <v>194</v>
       </c>
@@ -54184,7 +54267,7 @@
       <c r="A14" s="12">
         <v>8</v>
       </c>
-      <c r="B14" s="246"/>
+      <c r="B14" s="264"/>
       <c r="C14" s="186"/>
       <c r="D14" s="12" t="s">
         <v>196</v>
@@ -54200,7 +54283,7 @@
       <c r="A15" s="12">
         <v>9</v>
       </c>
-      <c r="B15" s="246"/>
+      <c r="B15" s="264"/>
       <c r="C15" s="186" t="s">
         <v>197</v>
       </c>
@@ -54209,7 +54292,7 @@
       </c>
       <c r="E15" s="182"/>
       <c r="F15" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
@@ -54218,16 +54301,16 @@
       <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="246"/>
-      <c r="C16" s="211" t="s">
+      <c r="B16" s="264"/>
+      <c r="C16" s="208" t="s">
         <v>197</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="71" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -54236,16 +54319,16 @@
       <c r="A17" s="12">
         <v>11</v>
       </c>
-      <c r="B17" s="246"/>
-      <c r="C17" s="213" t="s">
-        <v>200</v>
+      <c r="B17" s="264"/>
+      <c r="C17" s="210" t="s">
+        <v>199</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
@@ -54254,15 +54337,15 @@
       <c r="A18" s="12">
         <v>12</v>
       </c>
-      <c r="B18" s="246"/>
-      <c r="C18" s="212" t="s">
-        <v>222</v>
+      <c r="B18" s="264"/>
+      <c r="C18" s="209" t="s">
+        <v>218</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>50</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F18">
         <v>50</v>
@@ -54274,16 +54357,16 @@
       <c r="A19" s="12">
         <v>13</v>
       </c>
-      <c r="B19" s="246"/>
-      <c r="C19" s="214" t="s">
-        <v>223</v>
+      <c r="B19" s="264"/>
+      <c r="C19" s="211" t="s">
+        <v>219</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -54292,14 +54375,14 @@
       <c r="A20" s="12">
         <v>14</v>
       </c>
-      <c r="B20" s="246"/>
-      <c r="C20" s="215" t="s">
-        <v>226</v>
+      <c r="B20" s="264"/>
+      <c r="C20" s="212" t="s">
+        <v>222</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -54308,7 +54391,7 @@
       <c r="A21" s="12">
         <v>15</v>
       </c>
-      <c r="B21" s="246"/>
+      <c r="B21" s="264"/>
       <c r="C21" s="189"/>
       <c r="D21" s="181"/>
       <c r="E21" s="12"/>
@@ -54320,7 +54403,7 @@
       <c r="A22" s="12">
         <v>16</v>
       </c>
-      <c r="B22" s="246"/>
+      <c r="B22" s="264"/>
       <c r="C22" s="186"/>
       <c r="D22" s="12"/>
       <c r="E22" s="182"/>
@@ -54332,7 +54415,7 @@
       <c r="A23" s="12">
         <v>17</v>
       </c>
-      <c r="B23" s="246"/>
+      <c r="B23" s="264"/>
       <c r="C23" s="186"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
@@ -54343,8 +54426,8 @@
       <c r="A24" s="12">
         <v>18</v>
       </c>
-      <c r="B24" s="246"/>
-      <c r="C24" s="262"/>
+      <c r="B24" s="264"/>
+      <c r="C24" s="267"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24"/>
@@ -54355,8 +54438,8 @@
       <c r="A25" s="12">
         <v>19</v>
       </c>
-      <c r="B25" s="246"/>
-      <c r="C25" s="263"/>
+      <c r="B25" s="264"/>
+      <c r="C25" s="268"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25"/>
@@ -54367,8 +54450,8 @@
       <c r="A26" s="12">
         <v>20</v>
       </c>
-      <c r="B26" s="246"/>
-      <c r="C26" s="263"/>
+      <c r="B26" s="264"/>
+      <c r="C26" s="268"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -54379,8 +54462,8 @@
       <c r="A27" s="12">
         <v>21</v>
       </c>
-      <c r="B27" s="246"/>
-      <c r="C27" s="263"/>
+      <c r="B27" s="264"/>
+      <c r="C27" s="268"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -54391,8 +54474,8 @@
       <c r="A28" s="12">
         <v>22</v>
       </c>
-      <c r="B28" s="246"/>
-      <c r="C28" s="263"/>
+      <c r="B28" s="264"/>
+      <c r="C28" s="268"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -54403,8 +54486,8 @@
       <c r="A29" s="12">
         <v>23</v>
       </c>
-      <c r="B29" s="246"/>
-      <c r="C29" s="264"/>
+      <c r="B29" s="264"/>
+      <c r="C29" s="269"/>
       <c r="D29" s="181"/>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -54415,7 +54498,7 @@
       <c r="A30" s="12">
         <v>24</v>
       </c>
-      <c r="B30" s="246"/>
+      <c r="B30" s="264"/>
       <c r="C30" s="186"/>
       <c r="D30" s="181"/>
       <c r="E30" s="12"/>
@@ -54427,7 +54510,7 @@
       <c r="A31" s="12">
         <v>25</v>
       </c>
-      <c r="B31" s="246"/>
+      <c r="B31" s="264"/>
       <c r="C31" s="186"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
@@ -54439,8 +54522,8 @@
       <c r="A32" s="12">
         <v>26</v>
       </c>
-      <c r="B32" s="246"/>
-      <c r="C32" s="265"/>
+      <c r="B32" s="264"/>
+      <c r="C32" s="270"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -54451,8 +54534,8 @@
       <c r="A33" s="12">
         <v>27</v>
       </c>
-      <c r="B33" s="246"/>
-      <c r="C33" s="266"/>
+      <c r="B33" s="264"/>
+      <c r="C33" s="271"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33"/>
@@ -54463,8 +54546,8 @@
       <c r="A34" s="12">
         <v>28</v>
       </c>
-      <c r="B34" s="246"/>
-      <c r="C34" s="266"/>
+      <c r="B34" s="264"/>
+      <c r="C34" s="271"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -54475,8 +54558,8 @@
       <c r="A35" s="12">
         <v>29</v>
       </c>
-      <c r="B35" s="246"/>
-      <c r="C35" s="266"/>
+      <c r="B35" s="264"/>
+      <c r="C35" s="271"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -54487,8 +54570,8 @@
       <c r="A36" s="12">
         <v>30</v>
       </c>
-      <c r="B36" s="246"/>
-      <c r="C36" s="266"/>
+      <c r="B36" s="264"/>
+      <c r="C36" s="271"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -54499,8 +54582,8 @@
       <c r="A37" s="12">
         <v>31</v>
       </c>
-      <c r="B37" s="246"/>
-      <c r="C37" s="267"/>
+      <c r="B37" s="264"/>
+      <c r="C37" s="272"/>
       <c r="D37" s="181"/>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -54511,7 +54594,7 @@
       <c r="A38" s="12">
         <v>32</v>
       </c>
-      <c r="B38" s="246"/>
+      <c r="B38" s="264"/>
       <c r="C38" s="183"/>
       <c r="D38" s="12"/>
       <c r="E38" s="182"/>
@@ -54523,7 +54606,7 @@
       <c r="A39" s="12">
         <v>33</v>
       </c>
-      <c r="B39" s="246"/>
+      <c r="B39" s="264"/>
       <c r="C39" s="183"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
@@ -54535,8 +54618,8 @@
       <c r="A40" s="12">
         <v>34</v>
       </c>
-      <c r="B40" s="246"/>
-      <c r="C40" s="265"/>
+      <c r="B40" s="264"/>
+      <c r="C40" s="270"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40"/>
@@ -54547,8 +54630,8 @@
       <c r="A41" s="12">
         <v>35</v>
       </c>
-      <c r="B41" s="246"/>
-      <c r="C41" s="267"/>
+      <c r="B41" s="264"/>
+      <c r="C41" s="272"/>
       <c r="D41" s="12"/>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
@@ -54559,7 +54642,7 @@
       <c r="A42" s="12">
         <v>36</v>
       </c>
-      <c r="B42" s="246"/>
+      <c r="B42" s="264"/>
       <c r="C42" s="183"/>
       <c r="D42" s="12"/>
       <c r="E42" s="182"/>
@@ -54571,7 +54654,7 @@
       <c r="A43" s="12">
         <v>37</v>
       </c>
-      <c r="B43" s="246"/>
+      <c r="B43" s="264"/>
       <c r="C43" s="183"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -54583,7 +54666,7 @@
       <c r="A44" s="12">
         <v>38</v>
       </c>
-      <c r="B44" s="246"/>
+      <c r="B44" s="264"/>
       <c r="C44" s="186"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -54595,7 +54678,7 @@
       <c r="A45" s="12">
         <v>39</v>
       </c>
-      <c r="B45" s="246"/>
+      <c r="B45" s="264"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
@@ -54607,21 +54690,21 @@
       <c r="A46" s="12">
         <v>40</v>
       </c>
-      <c r="B46" s="246"/>
-      <c r="C46" s="258" t="s">
+      <c r="B46" s="264"/>
+      <c r="C46" s="257" t="s">
         <v>163</v>
       </c>
-      <c r="D46" s="258"/>
-      <c r="E46" s="258"/>
-      <c r="F46" s="258"/>
-      <c r="G46" s="258"/>
-      <c r="H46" s="258"/>
+      <c r="D46" s="257"/>
+      <c r="E46" s="257"/>
+      <c r="F46" s="257"/>
+      <c r="G46" s="257"/>
+      <c r="H46" s="257"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
         <v>41</v>
       </c>
-      <c r="B47" s="246"/>
+      <c r="B47" s="264"/>
       <c r="C47" s="12" t="s">
         <v>164</v>
       </c>
@@ -54639,7 +54722,7 @@
       <c r="A48" s="12">
         <v>42</v>
       </c>
-      <c r="B48" s="246"/>
+      <c r="B48" s="264"/>
       <c r="C48" s="12" t="s">
         <v>164</v>
       </c>
@@ -54659,7 +54742,7 @@
       <c r="A49" s="12">
         <v>43</v>
       </c>
-      <c r="B49" s="246"/>
+      <c r="B49" s="264"/>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
       <c r="E49" s="12"/>
@@ -54671,21 +54754,21 @@
       <c r="A50" s="12">
         <v>44</v>
       </c>
-      <c r="B50" s="246"/>
-      <c r="C50" s="259" t="s">
+      <c r="B50" s="264"/>
+      <c r="C50" s="258" t="s">
         <v>166</v>
       </c>
-      <c r="D50" s="259"/>
-      <c r="E50" s="259"/>
-      <c r="F50" s="259"/>
-      <c r="G50" s="259"/>
-      <c r="H50" s="260"/>
+      <c r="D50" s="258"/>
+      <c r="E50" s="258"/>
+      <c r="F50" s="258"/>
+      <c r="G50" s="258"/>
+      <c r="H50" s="259"/>
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
         <v>45</v>
       </c>
-      <c r="B51" s="246"/>
+      <c r="B51" s="264"/>
       <c r="C51" s="12" t="s">
         <v>177</v>
       </c>
@@ -54703,7 +54786,7 @@
       <c r="A52" s="12">
         <v>46</v>
       </c>
-      <c r="B52" s="246"/>
+      <c r="B52" s="264"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12" t="s">
         <v>174</v>
@@ -54719,7 +54802,7 @@
       <c r="A53" s="12">
         <v>47</v>
       </c>
-      <c r="B53" s="246"/>
+      <c r="B53" s="264"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12" t="s">
         <v>176</v>
@@ -54737,7 +54820,7 @@
       <c r="A54" s="12">
         <v>48</v>
       </c>
-      <c r="B54" s="246"/>
+      <c r="B54" s="264"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12" t="s">
         <v>170</v>
@@ -54753,7 +54836,7 @@
       <c r="A55" s="12">
         <v>49</v>
       </c>
-      <c r="B55" s="246"/>
+      <c r="B55" s="264"/>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -54765,22 +54848,22 @@
       <c r="A56" s="12">
         <v>50</v>
       </c>
-      <c r="B56" s="246"/>
-      <c r="C56" s="259" t="s">
+      <c r="B56" s="264"/>
+      <c r="C56" s="258" t="s">
         <v>171</v>
       </c>
-      <c r="D56" s="259"/>
-      <c r="E56" s="259"/>
-      <c r="F56" s="259"/>
-      <c r="G56" s="259"/>
-      <c r="H56" s="260"/>
+      <c r="D56" s="258"/>
+      <c r="E56" s="258"/>
+      <c r="F56" s="258"/>
+      <c r="G56" s="258"/>
+      <c r="H56" s="259"/>
     </row>
     <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
         <v>51</v>
       </c>
-      <c r="B57" s="246"/>
-      <c r="C57" s="248" t="s">
+      <c r="B57" s="264"/>
+      <c r="C57" s="260" t="s">
         <v>172</v>
       </c>
       <c r="D57" s="12" t="s">
@@ -54797,8 +54880,8 @@
       <c r="A58" s="12">
         <v>52</v>
       </c>
-      <c r="B58" s="246"/>
-      <c r="C58" s="249"/>
+      <c r="B58" s="264"/>
+      <c r="C58" s="261"/>
       <c r="D58" s="12" t="s">
         <v>178</v>
       </c>
@@ -54813,8 +54896,8 @@
       <c r="A59" s="12">
         <v>53</v>
       </c>
-      <c r="B59" s="246"/>
-      <c r="C59" s="250"/>
+      <c r="B59" s="264"/>
+      <c r="C59" s="262"/>
       <c r="D59" s="12" t="s">
         <v>179</v>
       </c>
@@ -54831,8 +54914,8 @@
       <c r="A60" s="12">
         <v>54</v>
       </c>
-      <c r="B60" s="246"/>
-      <c r="C60" s="248" t="s">
+      <c r="B60" s="264"/>
+      <c r="C60" s="260" t="s">
         <v>180</v>
       </c>
       <c r="D60" s="12" t="s">
@@ -54849,8 +54932,8 @@
       <c r="A61" s="12">
         <v>55</v>
       </c>
-      <c r="B61" s="246"/>
-      <c r="C61" s="249"/>
+      <c r="B61" s="264"/>
+      <c r="C61" s="261"/>
       <c r="D61" s="12" t="s">
         <v>139</v>
       </c>
@@ -54865,8 +54948,8 @@
       <c r="A62" s="12">
         <v>56</v>
       </c>
-      <c r="B62" s="246"/>
-      <c r="C62" s="249"/>
+      <c r="B62" s="264"/>
+      <c r="C62" s="261"/>
       <c r="D62" s="12" t="s">
         <v>50</v>
       </c>
@@ -54881,8 +54964,8 @@
       <c r="A63" s="12">
         <v>57</v>
       </c>
-      <c r="B63" s="246"/>
-      <c r="C63" s="249"/>
+      <c r="B63" s="264"/>
+      <c r="C63" s="261"/>
       <c r="D63" s="12" t="s">
         <v>140</v>
       </c>
@@ -54897,8 +54980,8 @@
       <c r="A64" s="12">
         <v>58</v>
       </c>
-      <c r="B64" s="246"/>
-      <c r="C64" s="249"/>
+      <c r="B64" s="264"/>
+      <c r="C64" s="261"/>
       <c r="D64" s="12" t="s">
         <v>131</v>
       </c>
@@ -54915,8 +54998,8 @@
       <c r="A65" s="12">
         <v>59</v>
       </c>
-      <c r="B65" s="246"/>
-      <c r="C65" s="250"/>
+      <c r="B65" s="264"/>
+      <c r="C65" s="262"/>
       <c r="D65" s="181" t="s">
         <v>155</v>
       </c>
@@ -54933,7 +55016,7 @@
       <c r="A66" s="12">
         <v>60</v>
       </c>
-      <c r="B66" s="246"/>
+      <c r="B66" s="264"/>
       <c r="C66" s="6" t="s">
         <v>181</v>
       </c>
@@ -54951,7 +55034,7 @@
       <c r="A67" s="12">
         <v>61</v>
       </c>
-      <c r="B67" s="246"/>
+      <c r="B67" s="264"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12"/>
@@ -54963,7 +55046,7 @@
       <c r="A68" s="12">
         <v>62</v>
       </c>
-      <c r="B68" s="247"/>
+      <c r="B68" s="265"/>
       <c r="C68" s="185" t="s">
         <v>183</v>
       </c>
@@ -54997,8 +55080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C11"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55070,10 +55153,10 @@
       <c r="A7" s="12">
         <v>1</v>
       </c>
-      <c r="B7" s="245" t="s">
+      <c r="B7" s="263" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="261" t="s">
+      <c r="C7" s="266" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="12" t="s">
@@ -55090,8 +55173,8 @@
       <c r="A8" s="12">
         <v>2</v>
       </c>
-      <c r="B8" s="246"/>
-      <c r="C8" s="261"/>
+      <c r="B8" s="264"/>
+      <c r="C8" s="266"/>
       <c r="D8" s="12" t="s">
         <v>49</v>
       </c>
@@ -55108,8 +55191,8 @@
       <c r="A9" s="12">
         <v>3</v>
       </c>
-      <c r="B9" s="246"/>
-      <c r="C9" s="261"/>
+      <c r="B9" s="264"/>
+      <c r="C9" s="266"/>
       <c r="D9" s="12" t="s">
         <v>50</v>
       </c>
@@ -55126,8 +55209,8 @@
       <c r="A10" s="12">
         <v>4</v>
       </c>
-      <c r="B10" s="246"/>
-      <c r="C10" s="261"/>
+      <c r="B10" s="264"/>
+      <c r="C10" s="266"/>
       <c r="D10" s="12" t="s">
         <v>51</v>
       </c>
@@ -55135,7 +55218,7 @@
         <v>132</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="180"/>
@@ -55144,8 +55227,8 @@
       <c r="A11" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="246"/>
-      <c r="C11" s="261"/>
+      <c r="B11" s="264"/>
+      <c r="C11" s="266"/>
       <c r="D11" s="12" t="s">
         <v>131</v>
       </c>
@@ -55160,7 +55243,7 @@
       <c r="A12" s="12">
         <v>7</v>
       </c>
-      <c r="B12" s="246"/>
+      <c r="B12" s="264"/>
       <c r="C12" s="190" t="s">
         <v>194</v>
       </c>
@@ -55169,7 +55252,7 @@
       </c>
       <c r="E12" s="182"/>
       <c r="F12" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -55178,14 +55261,14 @@
       <c r="A13" s="12">
         <v>8</v>
       </c>
-      <c r="B13" s="246"/>
+      <c r="B13" s="264"/>
       <c r="C13" s="190"/>
       <c r="D13" s="12" t="s">
         <v>196</v>
       </c>
       <c r="E13" s="182"/>
       <c r="F13" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -55194,16 +55277,16 @@
       <c r="A14" s="12">
         <v>9</v>
       </c>
-      <c r="B14" s="246"/>
+      <c r="B14" s="264"/>
       <c r="C14" s="190" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>48</v>
       </c>
       <c r="E14" s="182"/>
       <c r="F14" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
@@ -55212,12 +55295,12 @@
       <c r="A15" s="12">
         <v>10</v>
       </c>
-      <c r="B15" s="246"/>
+      <c r="B15" s="264"/>
       <c r="C15" s="187" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" t="s">
@@ -55230,8 +55313,8 @@
       <c r="A16" s="12">
         <v>11</v>
       </c>
-      <c r="B16" s="246"/>
-      <c r="C16" s="268" t="s">
+      <c r="B16" s="264"/>
+      <c r="C16" s="273" t="s">
         <v>135</v>
       </c>
       <c r="D16" s="12" t="s">
@@ -55239,7 +55322,7 @@
       </c>
       <c r="E16" s="12"/>
       <c r="F16" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
@@ -55248,10 +55331,10 @@
       <c r="A17" s="12">
         <v>12</v>
       </c>
-      <c r="B17" s="246"/>
-      <c r="C17" s="268"/>
+      <c r="B17" s="264"/>
+      <c r="C17" s="273"/>
       <c r="D17" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>130</v>
@@ -55266,12 +55349,12 @@
       <c r="A18" s="12">
         <v>13</v>
       </c>
-      <c r="B18" s="246"/>
+      <c r="B18" s="264"/>
       <c r="C18" s="191" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>130</v>
@@ -55286,16 +55369,16 @@
       <c r="A19" s="12">
         <v>14</v>
       </c>
-      <c r="B19" s="246"/>
+      <c r="B19" s="264"/>
       <c r="C19" s="188" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>211</v>
+        <v>235</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
@@ -55304,11 +55387,15 @@
       <c r="A20" s="12">
         <v>15</v>
       </c>
-      <c r="B20" s="246"/>
+      <c r="B20" s="264"/>
       <c r="C20" s="189"/>
-      <c r="D20" s="181"/>
+      <c r="D20" s="12" t="s">
+        <v>208</v>
+      </c>
       <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
+      <c r="F20" s="12" t="s">
+        <v>209</v>
+      </c>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
@@ -55316,7 +55403,7 @@
       <c r="A21" s="12">
         <v>16</v>
       </c>
-      <c r="B21" s="246"/>
+      <c r="B21" s="264"/>
       <c r="C21" s="190"/>
       <c r="D21" s="12"/>
       <c r="E21" s="182"/>
@@ -55328,7 +55415,7 @@
       <c r="A22" s="12">
         <v>17</v>
       </c>
-      <c r="B22" s="246"/>
+      <c r="B22" s="264"/>
       <c r="C22" s="190"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -55339,8 +55426,8 @@
       <c r="A23" s="12">
         <v>18</v>
       </c>
-      <c r="B23" s="246"/>
-      <c r="C23" s="262"/>
+      <c r="B23" s="264"/>
+      <c r="C23" s="267"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23"/>
@@ -55351,8 +55438,8 @@
       <c r="A24" s="12">
         <v>19</v>
       </c>
-      <c r="B24" s="246"/>
-      <c r="C24" s="263"/>
+      <c r="B24" s="264"/>
+      <c r="C24" s="268"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
       <c r="F24"/>
@@ -55363,8 +55450,8 @@
       <c r="A25" s="12">
         <v>20</v>
       </c>
-      <c r="B25" s="246"/>
-      <c r="C25" s="263"/>
+      <c r="B25" s="264"/>
+      <c r="C25" s="268"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -55375,8 +55462,8 @@
       <c r="A26" s="12">
         <v>21</v>
       </c>
-      <c r="B26" s="246"/>
-      <c r="C26" s="263"/>
+      <c r="B26" s="264"/>
+      <c r="C26" s="268"/>
       <c r="D26" s="12"/>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -55387,8 +55474,8 @@
       <c r="A27" s="12">
         <v>22</v>
       </c>
-      <c r="B27" s="246"/>
-      <c r="C27" s="263"/>
+      <c r="B27" s="264"/>
+      <c r="C27" s="268"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -55399,8 +55486,8 @@
       <c r="A28" s="12">
         <v>23</v>
       </c>
-      <c r="B28" s="246"/>
-      <c r="C28" s="264"/>
+      <c r="B28" s="264"/>
+      <c r="C28" s="269"/>
       <c r="D28" s="181"/>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -55411,7 +55498,7 @@
       <c r="A29" s="12">
         <v>24</v>
       </c>
-      <c r="B29" s="246"/>
+      <c r="B29" s="264"/>
       <c r="C29" s="190"/>
       <c r="D29" s="181"/>
       <c r="E29" s="12"/>
@@ -55423,7 +55510,7 @@
       <c r="A30" s="12">
         <v>25</v>
       </c>
-      <c r="B30" s="246"/>
+      <c r="B30" s="264"/>
       <c r="C30" s="190"/>
       <c r="D30" s="12"/>
       <c r="E30" s="12"/>
@@ -55435,8 +55522,8 @@
       <c r="A31" s="12">
         <v>26</v>
       </c>
-      <c r="B31" s="246"/>
-      <c r="C31" s="265"/>
+      <c r="B31" s="264"/>
+      <c r="C31" s="270"/>
       <c r="D31" s="12"/>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -55447,8 +55534,8 @@
       <c r="A32" s="12">
         <v>27</v>
       </c>
-      <c r="B32" s="246"/>
-      <c r="C32" s="266"/>
+      <c r="B32" s="264"/>
+      <c r="C32" s="271"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
       <c r="F32"/>
@@ -55459,8 +55546,8 @@
       <c r="A33" s="12">
         <v>28</v>
       </c>
-      <c r="B33" s="246"/>
-      <c r="C33" s="266"/>
+      <c r="B33" s="264"/>
+      <c r="C33" s="271"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -55471,8 +55558,8 @@
       <c r="A34" s="12">
         <v>29</v>
       </c>
-      <c r="B34" s="246"/>
-      <c r="C34" s="266"/>
+      <c r="B34" s="264"/>
+      <c r="C34" s="271"/>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -55483,8 +55570,8 @@
       <c r="A35" s="12">
         <v>30</v>
       </c>
-      <c r="B35" s="246"/>
-      <c r="C35" s="266"/>
+      <c r="B35" s="264"/>
+      <c r="C35" s="271"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -55495,8 +55582,8 @@
       <c r="A36" s="12">
         <v>31</v>
       </c>
-      <c r="B36" s="246"/>
-      <c r="C36" s="267"/>
+      <c r="B36" s="264"/>
+      <c r="C36" s="272"/>
       <c r="D36" s="181"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -55507,7 +55594,7 @@
       <c r="A37" s="12">
         <v>32</v>
       </c>
-      <c r="B37" s="246"/>
+      <c r="B37" s="264"/>
       <c r="C37" s="183"/>
       <c r="D37" s="12"/>
       <c r="E37" s="182"/>
@@ -55519,7 +55606,7 @@
       <c r="A38" s="12">
         <v>33</v>
       </c>
-      <c r="B38" s="246"/>
+      <c r="B38" s="264"/>
       <c r="C38" s="183"/>
       <c r="D38" s="12"/>
       <c r="E38" s="12"/>
@@ -55531,8 +55618,8 @@
       <c r="A39" s="12">
         <v>34</v>
       </c>
-      <c r="B39" s="246"/>
-      <c r="C39" s="265"/>
+      <c r="B39" s="264"/>
+      <c r="C39" s="270"/>
       <c r="D39" s="12"/>
       <c r="E39" s="12"/>
       <c r="F39"/>
@@ -55543,8 +55630,8 @@
       <c r="A40" s="12">
         <v>35</v>
       </c>
-      <c r="B40" s="246"/>
-      <c r="C40" s="267"/>
+      <c r="B40" s="264"/>
+      <c r="C40" s="272"/>
       <c r="D40" s="12"/>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
@@ -55555,7 +55642,7 @@
       <c r="A41" s="12">
         <v>36</v>
       </c>
-      <c r="B41" s="246"/>
+      <c r="B41" s="264"/>
       <c r="C41" s="183"/>
       <c r="D41" s="12"/>
       <c r="E41" s="182"/>
@@ -55567,7 +55654,7 @@
       <c r="A42" s="12">
         <v>37</v>
       </c>
-      <c r="B42" s="246"/>
+      <c r="B42" s="264"/>
       <c r="C42" s="183"/>
       <c r="D42" s="12"/>
       <c r="E42" s="12"/>
@@ -55579,7 +55666,7 @@
       <c r="A43" s="12">
         <v>38</v>
       </c>
-      <c r="B43" s="246"/>
+      <c r="B43" s="264"/>
       <c r="C43" s="190"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12"/>
@@ -55591,7 +55678,7 @@
       <c r="A44" s="12">
         <v>39</v>
       </c>
-      <c r="B44" s="246"/>
+      <c r="B44" s="264"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
@@ -55603,21 +55690,21 @@
       <c r="A45" s="12">
         <v>40</v>
       </c>
-      <c r="B45" s="246"/>
-      <c r="C45" s="258" t="s">
+      <c r="B45" s="264"/>
+      <c r="C45" s="257" t="s">
         <v>163</v>
       </c>
-      <c r="D45" s="258"/>
-      <c r="E45" s="258"/>
-      <c r="F45" s="258"/>
-      <c r="G45" s="258"/>
-      <c r="H45" s="258"/>
+      <c r="D45" s="257"/>
+      <c r="E45" s="257"/>
+      <c r="F45" s="257"/>
+      <c r="G45" s="257"/>
+      <c r="H45" s="257"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
         <v>41</v>
       </c>
-      <c r="B46" s="246"/>
+      <c r="B46" s="264"/>
       <c r="C46" s="12" t="s">
         <v>164</v>
       </c>
@@ -55635,7 +55722,7 @@
       <c r="A47" s="12">
         <v>42</v>
       </c>
-      <c r="B47" s="246"/>
+      <c r="B47" s="264"/>
       <c r="C47" s="12" t="s">
         <v>164</v>
       </c>
@@ -55655,7 +55742,7 @@
       <c r="A48" s="12">
         <v>43</v>
       </c>
-      <c r="B48" s="246"/>
+      <c r="B48" s="264"/>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
@@ -55667,21 +55754,21 @@
       <c r="A49" s="12">
         <v>44</v>
       </c>
-      <c r="B49" s="246"/>
-      <c r="C49" s="259" t="s">
+      <c r="B49" s="264"/>
+      <c r="C49" s="258" t="s">
         <v>166</v>
       </c>
-      <c r="D49" s="259"/>
-      <c r="E49" s="259"/>
-      <c r="F49" s="259"/>
-      <c r="G49" s="259"/>
-      <c r="H49" s="260"/>
+      <c r="D49" s="258"/>
+      <c r="E49" s="258"/>
+      <c r="F49" s="258"/>
+      <c r="G49" s="258"/>
+      <c r="H49" s="259"/>
     </row>
     <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
         <v>45</v>
       </c>
-      <c r="B50" s="246"/>
+      <c r="B50" s="264"/>
       <c r="C50" s="12" t="s">
         <v>177</v>
       </c>
@@ -55699,7 +55786,7 @@
       <c r="A51" s="12">
         <v>46</v>
       </c>
-      <c r="B51" s="246"/>
+      <c r="B51" s="264"/>
       <c r="C51" s="12"/>
       <c r="D51" s="12" t="s">
         <v>174</v>
@@ -55715,7 +55802,7 @@
       <c r="A52" s="12">
         <v>47</v>
       </c>
-      <c r="B52" s="246"/>
+      <c r="B52" s="264"/>
       <c r="C52" s="12"/>
       <c r="D52" s="12" t="s">
         <v>176</v>
@@ -55733,7 +55820,7 @@
       <c r="A53" s="12">
         <v>48</v>
       </c>
-      <c r="B53" s="246"/>
+      <c r="B53" s="264"/>
       <c r="C53" s="12"/>
       <c r="D53" s="12" t="s">
         <v>170</v>
@@ -55749,7 +55836,7 @@
       <c r="A54" s="12">
         <v>49</v>
       </c>
-      <c r="B54" s="246"/>
+      <c r="B54" s="264"/>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -55761,22 +55848,22 @@
       <c r="A55" s="12">
         <v>50</v>
       </c>
-      <c r="B55" s="246"/>
-      <c r="C55" s="259" t="s">
+      <c r="B55" s="264"/>
+      <c r="C55" s="258" t="s">
         <v>171</v>
       </c>
-      <c r="D55" s="259"/>
-      <c r="E55" s="259"/>
-      <c r="F55" s="259"/>
-      <c r="G55" s="259"/>
-      <c r="H55" s="260"/>
+      <c r="D55" s="258"/>
+      <c r="E55" s="258"/>
+      <c r="F55" s="258"/>
+      <c r="G55" s="258"/>
+      <c r="H55" s="259"/>
     </row>
     <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
         <v>51</v>
       </c>
-      <c r="B56" s="246"/>
-      <c r="C56" s="248" t="s">
+      <c r="B56" s="264"/>
+      <c r="C56" s="260" t="s">
         <v>172</v>
       </c>
       <c r="D56" s="12" t="s">
@@ -55793,8 +55880,8 @@
       <c r="A57" s="12">
         <v>52</v>
       </c>
-      <c r="B57" s="246"/>
-      <c r="C57" s="249"/>
+      <c r="B57" s="264"/>
+      <c r="C57" s="261"/>
       <c r="D57" s="12" t="s">
         <v>178</v>
       </c>
@@ -55809,8 +55896,8 @@
       <c r="A58" s="12">
         <v>53</v>
       </c>
-      <c r="B58" s="246"/>
-      <c r="C58" s="250"/>
+      <c r="B58" s="264"/>
+      <c r="C58" s="262"/>
       <c r="D58" s="12" t="s">
         <v>179</v>
       </c>
@@ -55827,8 +55914,8 @@
       <c r="A59" s="12">
         <v>54</v>
       </c>
-      <c r="B59" s="246"/>
-      <c r="C59" s="248" t="s">
+      <c r="B59" s="264"/>
+      <c r="C59" s="260" t="s">
         <v>180</v>
       </c>
       <c r="D59" s="12" t="s">
@@ -55845,8 +55932,8 @@
       <c r="A60" s="12">
         <v>55</v>
       </c>
-      <c r="B60" s="246"/>
-      <c r="C60" s="249"/>
+      <c r="B60" s="264"/>
+      <c r="C60" s="261"/>
       <c r="D60" s="12" t="s">
         <v>139</v>
       </c>
@@ -55861,8 +55948,8 @@
       <c r="A61" s="12">
         <v>56</v>
       </c>
-      <c r="B61" s="246"/>
-      <c r="C61" s="249"/>
+      <c r="B61" s="264"/>
+      <c r="C61" s="261"/>
       <c r="D61" s="12" t="s">
         <v>50</v>
       </c>
@@ -55877,8 +55964,8 @@
       <c r="A62" s="12">
         <v>57</v>
       </c>
-      <c r="B62" s="246"/>
-      <c r="C62" s="249"/>
+      <c r="B62" s="264"/>
+      <c r="C62" s="261"/>
       <c r="D62" s="12" t="s">
         <v>140</v>
       </c>
@@ -55893,8 +55980,8 @@
       <c r="A63" s="12">
         <v>58</v>
       </c>
-      <c r="B63" s="246"/>
-      <c r="C63" s="249"/>
+      <c r="B63" s="264"/>
+      <c r="C63" s="261"/>
       <c r="D63" s="12" t="s">
         <v>131</v>
       </c>
@@ -55911,8 +55998,8 @@
       <c r="A64" s="12">
         <v>59</v>
       </c>
-      <c r="B64" s="246"/>
-      <c r="C64" s="250"/>
+      <c r="B64" s="264"/>
+      <c r="C64" s="262"/>
       <c r="D64" s="181" t="s">
         <v>155</v>
       </c>
@@ -55929,7 +56016,7 @@
       <c r="A65" s="12">
         <v>60</v>
       </c>
-      <c r="B65" s="246"/>
+      <c r="B65" s="264"/>
       <c r="C65" s="6" t="s">
         <v>181</v>
       </c>
@@ -55947,7 +56034,7 @@
       <c r="A66" s="12">
         <v>61</v>
       </c>
-      <c r="B66" s="246"/>
+      <c r="B66" s="264"/>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
@@ -55959,7 +56046,7 @@
       <c r="A67" s="12">
         <v>62</v>
       </c>
-      <c r="B67" s="247"/>
+      <c r="B67" s="265"/>
       <c r="C67" s="185" t="s">
         <v>183</v>
       </c>
